--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="273">
   <si>
     <t>list_name</t>
   </si>
@@ -835,6 +835,21 @@
   </si>
   <si>
     <t>selected(../human_exposure/contact_confirmed_cases/contact_confirmed_case, 'yes')</t>
+  </si>
+  <si>
+    <t>extra_samples</t>
+  </si>
+  <si>
+    <t>lus</t>
+  </si>
+  <si>
+    <t>LUS</t>
+  </si>
+  <si>
+    <t>x_ray</t>
+  </si>
+  <si>
+    <t>X Ray</t>
   </si>
 </sst>
 </file>
@@ -3979,9 +3994,9 @@
   </sheetPr>
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4153,14 +4168,26 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -4592,7 +4619,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -4656,7 +4683,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44128.588311458334</v>
+        <v>44128.590205671295</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -859,7 +859,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -930,6 +930,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF76A5AF"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF76A5AF"/>
       <name val="Century Gothic"/>
@@ -1046,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1161,6 +1168,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1446,11 +1457,11 @@
   </sheetPr>
   <dimension ref="A1:AB70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B76" sqref="B76"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3302,10 +3313,10 @@
       <c r="AA51" s="42"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="58" t="s">
         <v>235</v>
       </c>
       <c r="C52" s="41" t="s">
@@ -3519,44 +3530,44 @@
       <c r="Z57" s="42"/>
       <c r="AA57" s="42"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
+    <row r="58" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="51" t="s">
+      <c r="B58" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="42"/>
-      <c r="Y58" s="42"/>
-      <c r="Z58" s="42"/>
-      <c r="AA58" s="42"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="61"/>
+      <c r="T58" s="61"/>
+      <c r="U58" s="61"/>
+      <c r="V58" s="61"/>
+      <c r="W58" s="61"/>
+      <c r="X58" s="61"/>
+      <c r="Y58" s="61"/>
+      <c r="Z58" s="61"/>
+      <c r="AA58" s="61"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="B59" s="51" t="s">
+      <c r="B59" s="58" t="s">
         <v>249</v>
       </c>
       <c r="C59" s="41" t="s">
@@ -3770,44 +3781,44 @@
       <c r="Z64" s="42"/>
       <c r="AA64" s="42"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
+    <row r="65" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="51" t="s">
+      <c r="B65" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="42"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="42"/>
-      <c r="V65" s="42"/>
-      <c r="W65" s="42"/>
-      <c r="X65" s="42"/>
-      <c r="Y65" s="42"/>
-      <c r="Z65" s="42"/>
-      <c r="AA65" s="42"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="59"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="51" t="s">
+      <c r="A66" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="B66" s="51" t="s">
+      <c r="B66" s="58" t="s">
         <v>258</v>
       </c>
       <c r="C66" s="41" t="s">
@@ -3911,10 +3922,10 @@
       <c r="AA68" s="42"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="58" t="s">
         <v>258</v>
       </c>
       <c r="C69" s="41"/>
@@ -3994,7 +4005,7 @@
   </sheetPr>
   <dimension ref="A1:P104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
@@ -4683,7 +4694,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44128.590205671295</v>
+        <v>44128.591891666663</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -1461,7 +1461,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44128.591891666663</v>
+        <v>44128.592999537039</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="273">
   <si>
     <t>list_name</t>
   </si>
@@ -1455,13 +1455,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3781,48 +3781,50 @@
       <c r="Z64" s="42"/>
       <c r="AA64" s="42"/>
     </row>
-    <row r="65" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="61"/>
-      <c r="U65" s="61"/>
-      <c r="V65" s="61"/>
-      <c r="W65" s="61"/>
-      <c r="X65" s="61"/>
-      <c r="Y65" s="61"/>
-      <c r="Z65" s="61"/>
-      <c r="AA65" s="61"/>
+        <v>258</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="42"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="42"/>
+      <c r="Y65" s="42"/>
+      <c r="Z65" s="42"/>
+      <c r="AA65" s="42"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="B66" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>259</v>
+      <c r="A66" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>260</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="41"/>
@@ -3851,17 +3853,19 @@
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="51" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="B67" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>263</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
-      <c r="F67" s="57"/>
+      <c r="F67" s="57" t="s">
+        <v>267</v>
+      </c>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
       <c r="I67" s="41"/>
@@ -3885,20 +3889,16 @@
       <c r="AA67" s="42"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B68" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>263</v>
-      </c>
+      <c r="A68" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" s="41"/>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
-      <c r="F68" s="57" t="s">
-        <v>267</v>
-      </c>
+      <c r="F68" s="57"/>
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
       <c r="I68" s="41"/>
@@ -3922,16 +3922,16 @@
       <c r="AA68" s="42"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
+      <c r="A69" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B69" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="C69" s="41"/>
+      <c r="B69" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="43"/>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
-      <c r="F69" s="57"/>
+      <c r="F69" s="41"/>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
       <c r="I69" s="41"/>
@@ -3954,42 +3954,9 @@
       <c r="Z69" s="42"/>
       <c r="AA69" s="42"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B70" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="41"/>
-      <c r="R70" s="41"/>
-      <c r="S70" s="42"/>
-      <c r="T70" s="42"/>
-      <c r="U70" s="42"/>
-      <c r="V70" s="42"/>
-      <c r="W70" s="42"/>
-      <c r="X70" s="42"/>
-      <c r="Y70" s="42"/>
-      <c r="Z70" s="42"/>
-      <c r="AA70" s="42"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F15 D16:E70">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F15 D16:E69">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4694,7 +4661,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44128.592999537039</v>
+        <v>44128.593470949076</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="273">
   <si>
     <t>list_name</t>
   </si>
@@ -1455,13 +1455,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB69"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65:XFD65"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3530,52 +3530,54 @@
       <c r="Z57" s="42"/>
       <c r="AA57" s="42"/>
     </row>
-    <row r="58" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B58" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="61"/>
-      <c r="T58" s="61"/>
-      <c r="U58" s="61"/>
-      <c r="V58" s="61"/>
-      <c r="W58" s="61"/>
-      <c r="X58" s="61"/>
-      <c r="Y58" s="61"/>
-      <c r="Z58" s="61"/>
-      <c r="AA58" s="61"/>
+        <v>249</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="42"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="B59" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>256</v>
+      <c r="A59" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>257</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
@@ -3600,17 +3602,19 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="51" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>257</v>
+        <v>251</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>242</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="57"/>
+      <c r="F60" s="57" t="s">
+        <v>266</v>
+      </c>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
@@ -3638,10 +3642,10 @@
         <v>193</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
@@ -3672,13 +3676,13 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="51" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
@@ -3712,10 +3716,10 @@
         <v>248</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
@@ -3745,20 +3749,18 @@
       <c r="AA63" s="42"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="B64" s="51" t="s">
-        <v>255</v>
+      <c r="A64" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64" s="58" t="s">
+        <v>258</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
-      <c r="F64" s="57" t="s">
-        <v>266</v>
-      </c>
+      <c r="F64" s="57"/>
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
       <c r="I64" s="41"/>
@@ -3782,14 +3784,14 @@
       <c r="AA64" s="42"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="B65" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>259</v>
+      <c r="A65" s="51" t="s">
+        <v>240</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>260</v>
       </c>
       <c r="D65" s="41"/>
       <c r="E65" s="41"/>
@@ -3818,17 +3820,19 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="51" t="s">
-        <v>240</v>
+        <v>193</v>
       </c>
       <c r="B66" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>260</v>
+        <v>262</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>263</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="41"/>
-      <c r="F66" s="57"/>
+      <c r="F66" s="57" t="s">
+        <v>267</v>
+      </c>
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
       <c r="I66" s="41"/>
@@ -3851,87 +3855,83 @@
       <c r="Z66" s="42"/>
       <c r="AA66" s="42"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B67" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="42"/>
-      <c r="T67" s="42"/>
-      <c r="U67" s="42"/>
-      <c r="V67" s="42"/>
-      <c r="W67" s="42"/>
-      <c r="X67" s="42"/>
-      <c r="Y67" s="42"/>
-      <c r="Z67" s="42"/>
-      <c r="AA67" s="42"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="59"/>
+      <c r="K67" s="59"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="59"/>
+      <c r="N67" s="59"/>
+      <c r="O67" s="59"/>
+      <c r="P67" s="59"/>
+      <c r="Q67" s="59"/>
+      <c r="R67" s="59"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="61"/>
+      <c r="U67" s="61"/>
+      <c r="V67" s="61"/>
+      <c r="W67" s="61"/>
+      <c r="X67" s="61"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="61"/>
+      <c r="AA67" s="61"/>
+    </row>
+    <row r="68" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="58" t="s">
         <v>212</v>
       </c>
       <c r="B68" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59"/>
+      <c r="N68" s="59"/>
+      <c r="O68" s="59"/>
+      <c r="P68" s="59"/>
+      <c r="Q68" s="59"/>
+      <c r="R68" s="59"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="61"/>
+      <c r="U68" s="61"/>
+      <c r="V68" s="61"/>
+      <c r="W68" s="61"/>
+      <c r="X68" s="61"/>
+      <c r="Y68" s="61"/>
+      <c r="Z68" s="61"/>
+      <c r="AA68" s="61"/>
+    </row>
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B69" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="41"/>
-      <c r="R68" s="41"/>
-      <c r="S68" s="42"/>
-      <c r="T68" s="42"/>
-      <c r="U68" s="42"/>
-      <c r="V68" s="42"/>
-      <c r="W68" s="42"/>
-      <c r="X68" s="42"/>
-      <c r="Y68" s="42"/>
-      <c r="Z68" s="42"/>
-      <c r="AA68" s="42"/>
-    </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B69" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="C69" s="43"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
+      <c r="F69" s="57"/>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
       <c r="I69" s="41"/>
@@ -3954,9 +3954,42 @@
       <c r="Z69" s="42"/>
       <c r="AA69" s="42"/>
     </row>
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="43"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="42"/>
+      <c r="AA70" s="42"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F15 D16:E69">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F15 D16:E70">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4661,7 +4694,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44128.593470949076</v>
+        <v>44128.594857870368</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -1461,7 +1461,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
+      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3532,7 +3532,7 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B58" s="58" t="s">
         <v>249</v>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44128.594857870368</v>
+        <v>44128.596197685183</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="272">
   <si>
     <t>list_name</t>
   </si>
@@ -732,9 +732,6 @@
   </si>
   <si>
     <t>Human Exposure before Symptoms</t>
-  </si>
-  <si>
-    <t>beigin_group</t>
   </si>
   <si>
     <t>local_travell</t>
@@ -1461,7 +1458,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomRight" activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3314,13 +3311,13 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="C52" s="41" t="s">
         <v>235</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>236</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="41"/>
@@ -3349,13 +3346,13 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="52" t="s">
         <v>240</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>241</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
@@ -3387,15 +3384,15 @@
         <v>193</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D54" s="41"/>
       <c r="E54" s="41"/>
       <c r="F54" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
@@ -3424,15 +3421,15 @@
         <v>193</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
@@ -3458,18 +3455,18 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
@@ -3495,18 +3492,18 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
@@ -3530,54 +3527,52 @@
       <c r="Z57" s="42"/>
       <c r="AA57" s="42"/>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="59"/>
+      <c r="J58" s="59"/>
+      <c r="K58" s="59"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="59"/>
+      <c r="N58" s="59"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
+      <c r="Q58" s="59"/>
+      <c r="R58" s="59"/>
+      <c r="S58" s="61"/>
+      <c r="T58" s="61"/>
+      <c r="U58" s="61"/>
+      <c r="V58" s="61"/>
+      <c r="W58" s="61"/>
+      <c r="X58" s="61"/>
+      <c r="Y58" s="61"/>
+      <c r="Z58" s="61"/>
+      <c r="AA58" s="61"/>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="B58" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="41"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="42"/>
-      <c r="Y58" s="42"/>
-      <c r="Z58" s="42"/>
-      <c r="AA58" s="42"/>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="B59" s="51" t="s">
-        <v>265</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>257</v>
+      <c r="B59" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>255</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="57"/>
+      <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
@@ -3602,19 +3597,17 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="51" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>242</v>
+        <v>264</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>256</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="57" t="s">
-        <v>266</v>
-      </c>
+      <c r="F60" s="57"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
@@ -3645,12 +3638,12 @@
         <v>250</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
@@ -3676,18 +3669,18 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="51" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
@@ -3713,18 +3706,18 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
       <c r="F63" s="57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
@@ -3749,18 +3742,20 @@
       <c r="AA63" s="42"/>
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="B64" s="58" t="s">
-        <v>258</v>
+      <c r="A64" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>254</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
-      <c r="F64" s="57"/>
+      <c r="F64" s="57" t="s">
+        <v>265</v>
+      </c>
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
       <c r="I64" s="41"/>
@@ -3783,56 +3778,52 @@
       <c r="Z64" s="42"/>
       <c r="AA64" s="42"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
-        <v>240</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="C65" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="42"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="42"/>
-      <c r="V65" s="42"/>
-      <c r="W65" s="42"/>
-      <c r="X65" s="42"/>
-      <c r="Y65" s="42"/>
-      <c r="Z65" s="42"/>
-      <c r="AA65" s="42"/>
+    <row r="65" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="59"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66" s="51" t="s">
-        <v>262</v>
+      <c r="A66" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" s="58" t="s">
+        <v>257</v>
       </c>
       <c r="C66" s="41" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="41"/>
-      <c r="F66" s="57" t="s">
-        <v>267</v>
-      </c>
+      <c r="F66" s="57"/>
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
       <c r="I66" s="41"/>
@@ -3855,78 +3846,84 @@
       <c r="Z66" s="42"/>
       <c r="AA66" s="42"/>
     </row>
-    <row r="67" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B67" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="61"/>
-      <c r="T67" s="61"/>
-      <c r="U67" s="61"/>
-      <c r="V67" s="61"/>
-      <c r="W67" s="61"/>
-      <c r="X67" s="61"/>
-      <c r="Y67" s="61"/>
-      <c r="Z67" s="61"/>
-      <c r="AA67" s="61"/>
-    </row>
-    <row r="68" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B68" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
-      <c r="S68" s="61"/>
-      <c r="T68" s="61"/>
-      <c r="U68" s="61"/>
-      <c r="V68" s="61"/>
-      <c r="W68" s="61"/>
-      <c r="X68" s="61"/>
-      <c r="Y68" s="61"/>
-      <c r="Z68" s="61"/>
-      <c r="AA68" s="61"/>
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="51" t="s">
+        <v>239</v>
+      </c>
+      <c r="B67" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="42"/>
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="42"/>
+      <c r="Z67" s="42"/>
+      <c r="AA67" s="42"/>
+    </row>
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="42"/>
+      <c r="W68" s="42"/>
+      <c r="X68" s="42"/>
+      <c r="Y68" s="42"/>
+      <c r="Z68" s="42"/>
+      <c r="AA68" s="42"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="58" t="s">
         <v>212</v>
       </c>
       <c r="B69" s="58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C69" s="41"/>
       <c r="D69" s="41"/>
@@ -3989,7 +3986,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F15 D16:E70">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F15 D16:E68 D69:E70">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4147,7 +4144,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>56</v>
@@ -4158,7 +4155,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>57</v>
@@ -4169,35 +4166,35 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>269</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>271</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4694,7 +4691,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44128.596197685183</v>
+        <v>44128.597611342593</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="313">
   <si>
     <t>list_name</t>
   </si>
@@ -847,6 +847,129 @@
   </si>
   <si>
     <t>X Ray</t>
+  </si>
+  <si>
+    <t>existing_conditions</t>
+  </si>
+  <si>
+    <t>Underlying Conditions</t>
+  </si>
+  <si>
+    <t>hiv</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>tb</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>ckd</t>
+  </si>
+  <si>
+    <t>Chronic Kidney Disease</t>
+  </si>
+  <si>
+    <t>clc</t>
+  </si>
+  <si>
+    <t>Chronic Lung Conditions</t>
+  </si>
+  <si>
+    <t>liver_disease</t>
+  </si>
+  <si>
+    <t>Liver Disease</t>
+  </si>
+  <si>
+    <t>pregnant</t>
+  </si>
+  <si>
+    <t>Pregnant</t>
+  </si>
+  <si>
+    <t>obesity</t>
+  </si>
+  <si>
+    <t>Severe Obesity</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>tumor</t>
+  </si>
+  <si>
+    <t>Tumor (without methast.)</t>
+  </si>
+  <si>
+    <t>metabolic</t>
+  </si>
+  <si>
+    <t>Metabolic/Endocrine cond.</t>
+  </si>
+  <si>
+    <t>miscarriage</t>
+  </si>
+  <si>
+    <t>Recurrent miscarriages (for Females)</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>specify maximum temperature: °C</t>
+  </si>
+  <si>
+    <t>selected(../patient_symptoms/fever, 'yes'</t>
+  </si>
+  <si>
+    <t>select_one trimester</t>
+  </si>
+  <si>
+    <t>pregnant_trimester</t>
+  </si>
+  <si>
+    <t>Specify trimester</t>
+  </si>
+  <si>
+    <t>selected(../existing_conditions/pregnant, 'yes'</t>
+  </si>
+  <si>
+    <t>trimester</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>Third</t>
   </si>
 </sst>
 </file>
@@ -1452,13 +1575,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB70"/>
+  <dimension ref="A1:AI87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A65" sqref="A65:XFD65"/>
+      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2197,19 +2320,21 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
-        <v>169</v>
+        <v>298</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="D20" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="F20" s="41" t="s">
+        <v>301</v>
+      </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
       <c r="I20" s="41"/>
@@ -2237,10 +2362,10 @@
         <v>169</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>172</v>
+        <v>159</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="D21" s="41" t="s">
         <v>56</v>
@@ -2274,10 +2399,10 @@
         <v>169</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D22" s="41" t="s">
         <v>56</v>
@@ -2311,10 +2436,10 @@
         <v>169</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D23" s="41" t="s">
         <v>56</v>
@@ -2348,10 +2473,10 @@
         <v>169</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>176</v>
       </c>
       <c r="D24" s="41" t="s">
         <v>56</v>
@@ -2385,10 +2510,10 @@
         <v>169</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D25" s="41" t="s">
         <v>56</v>
@@ -2422,10 +2547,10 @@
         <v>169</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>56</v>
@@ -2459,10 +2584,10 @@
         <v>169</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>56</v>
@@ -2496,10 +2621,10 @@
         <v>169</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D28" s="41" t="s">
         <v>56</v>
@@ -2533,10 +2658,10 @@
         <v>169</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C29" s="41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>56</v>
@@ -2570,10 +2695,10 @@
         <v>169</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C30" s="41" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>56</v>
@@ -2602,147 +2727,149 @@
       <c r="Z30" s="42"/>
       <c r="AA30" s="42"/>
     </row>
-    <row r="31" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+    </row>
+    <row r="32" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B32" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="45"/>
-      <c r="Z31" s="45"/>
-      <c r="AA31" s="45"/>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-    </row>
-    <row r="33" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="45"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="45"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="45"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="42"/>
+    </row>
+    <row r="34" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B34" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C34" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="45"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="45"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>199</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="45"/>
+      <c r="W34" s="45"/>
+      <c r="X34" s="45"/>
+      <c r="Y34" s="45"/>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="45"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
@@ -2770,13 +2897,15 @@
       <c r="AA35" s="42"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="52"/>
+      <c r="A36" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>201</v>
+      </c>
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
@@ -2803,9 +2932,13 @@
       <c r="AA36" s="42"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="52"/>
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
@@ -2832,15 +2965,9 @@
       <c r="AA37" s="42"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>214</v>
-      </c>
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
@@ -2867,14 +2994,14 @@
       <c r="AA38" s="42"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B39" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>215</v>
+      <c r="A39" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>214</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
@@ -2903,19 +3030,17 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="51" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="B40" s="51" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
-      <c r="F40" s="57" t="s">
-        <v>221</v>
-      </c>
+      <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
       <c r="I40" s="41"/>
@@ -2940,13 +3065,13 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
@@ -2976,16 +3101,20 @@
       <c r="AA41" s="42"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="43"/>
+      <c r="A42" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>200</v>
+      </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
+      <c r="F42" s="57" t="s">
+        <v>221</v>
+      </c>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
@@ -3008,10 +3137,14 @@
       <c r="Z42" s="42"/>
       <c r="AA42" s="42"/>
     </row>
-    <row r="43" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="43"/>
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
@@ -3037,16 +3170,10 @@
       <c r="Z43" s="42"/>
       <c r="AA43" s="42"/>
     </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>223</v>
-      </c>
+    <row r="44" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
@@ -3073,14 +3200,14 @@
       <c r="AA44" s="42"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>228</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>224</v>
+      <c r="A45" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>223</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
@@ -3112,14 +3239,14 @@
         <v>169</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
-      <c r="F46" s="57"/>
+      <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
@@ -3147,10 +3274,10 @@
         <v>169</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -3182,10 +3309,10 @@
         <v>169</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
@@ -3213,16 +3340,18 @@
       <c r="AA48" s="42"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="C49" s="43"/>
+      <c r="A49" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>227</v>
+      </c>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
+      <c r="F49" s="57"/>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="41"/>
@@ -3245,10 +3374,14 @@
       <c r="Z49" s="42"/>
       <c r="AA49" s="42"/>
     </row>
-    <row r="50" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="43"/>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
@@ -3274,16 +3407,10 @@
       <c r="Z50" s="42"/>
       <c r="AA50" s="42"/>
     </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>233</v>
-      </c>
+    <row r="51" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
@@ -3310,14 +3437,14 @@
       <c r="AA51" s="42"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="B52" s="58" t="s">
-        <v>234</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>235</v>
+      <c r="B52" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>233</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="41"/>
@@ -3345,18 +3472,18 @@
       <c r="AA52" s="42"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>240</v>
+      <c r="A53" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>235</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
-      <c r="F53" s="57"/>
+      <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
@@ -3381,19 +3508,17 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="51" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>241</v>
+        <v>236</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>240</v>
       </c>
       <c r="D54" s="41"/>
       <c r="E54" s="41"/>
-      <c r="F54" s="57" t="s">
-        <v>263</v>
-      </c>
+      <c r="F54" s="57"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
       <c r="I54" s="41"/>
@@ -3421,10 +3546,10 @@
         <v>193</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
@@ -3455,13 +3580,13 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="51" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
@@ -3495,10 +3620,10 @@
         <v>247</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
@@ -3527,87 +3652,89 @@
       <c r="Z57" s="42"/>
       <c r="AA57" s="42"/>
     </row>
-    <row r="58" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="58" t="s">
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B58" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="42"/>
+    </row>
+    <row r="59" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B59" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="59"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="59"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="59"/>
-      <c r="M58" s="59"/>
-      <c r="N58" s="59"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="59"/>
-      <c r="Q58" s="59"/>
-      <c r="R58" s="59"/>
-      <c r="S58" s="61"/>
-      <c r="T58" s="61"/>
-      <c r="U58" s="61"/>
-      <c r="V58" s="61"/>
-      <c r="W58" s="61"/>
-      <c r="X58" s="61"/>
-      <c r="Y58" s="61"/>
-      <c r="Z58" s="61"/>
-      <c r="AA58" s="61"/>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
+      <c r="C59" s="59"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="59"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="59"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="59"/>
+      <c r="N59" s="59"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
+      <c r="Q59" s="59"/>
+      <c r="R59" s="59"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="61"/>
+      <c r="U59" s="61"/>
+      <c r="V59" s="61"/>
+      <c r="W59" s="61"/>
+      <c r="X59" s="61"/>
+      <c r="Y59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="61"/>
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B60" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C60" s="41" t="s">
         <v>255</v>
-      </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="41"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="42"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="42"/>
-      <c r="Z59" s="42"/>
-      <c r="AA59" s="42"/>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B60" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>256</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="57"/>
+      <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
@@ -3632,19 +3759,17 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="51" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>241</v>
+        <v>264</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>256</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
-      <c r="F61" s="57" t="s">
-        <v>265</v>
-      </c>
+      <c r="F61" s="57"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
@@ -3672,10 +3797,10 @@
         <v>193</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
@@ -3706,13 +3831,13 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
@@ -3746,10 +3871,10 @@
         <v>247</v>
       </c>
       <c r="B64" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
@@ -3778,83 +3903,85 @@
       <c r="Z64" s="42"/>
       <c r="AA64" s="42"/>
     </row>
-    <row r="65" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="58" t="s">
+    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="42"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="42"/>
+      <c r="Y65" s="42"/>
+      <c r="Z65" s="42"/>
+      <c r="AA65" s="42"/>
+    </row>
+    <row r="66" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="58" t="s">
+      <c r="B66" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="61"/>
-      <c r="U65" s="61"/>
-      <c r="V65" s="61"/>
-      <c r="W65" s="61"/>
-      <c r="X65" s="61"/>
-      <c r="Y65" s="61"/>
-      <c r="Z65" s="61"/>
-      <c r="AA65" s="61"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="58" t="s">
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="60"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="59"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="61"/>
+      <c r="X66" s="61"/>
+      <c r="Y66" s="61"/>
+      <c r="Z66" s="61"/>
+      <c r="AA66" s="61"/>
+    </row>
+    <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="58" t="s">
+      <c r="B67" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C67" s="41" t="s">
         <v>258</v>
-      </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="42"/>
-      <c r="T66" s="42"/>
-      <c r="U66" s="42"/>
-      <c r="V66" s="42"/>
-      <c r="W66" s="42"/>
-      <c r="X66" s="42"/>
-      <c r="Y66" s="42"/>
-      <c r="Z66" s="42"/>
-      <c r="AA66" s="42"/>
-    </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="51" t="s">
-        <v>239</v>
-      </c>
-      <c r="B67" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>259</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
@@ -3881,21 +4008,19 @@
       <c r="Z67" s="42"/>
       <c r="AA67" s="42"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="51" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>259</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
-      <c r="F68" s="57" t="s">
-        <v>266</v>
-      </c>
+      <c r="F68" s="57"/>
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
       <c r="I68" s="41"/>
@@ -3918,17 +4043,21 @@
       <c r="Z68" s="42"/>
       <c r="AA68" s="42"/>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B69" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C69" s="41"/>
+    <row r="69" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B69" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>262</v>
+      </c>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
-      <c r="F69" s="57"/>
+      <c r="F69" s="57" t="s">
+        <v>266</v>
+      </c>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
       <c r="I69" s="41"/>
@@ -3951,17 +4080,17 @@
       <c r="Z69" s="42"/>
       <c r="AA69" s="42"/>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
+    <row r="70" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="58" t="s">
         <v>212</v>
       </c>
-      <c r="B70" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="43"/>
+      <c r="B70" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" s="41"/>
       <c r="D70" s="41"/>
       <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
+      <c r="F70" s="57"/>
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
       <c r="I70" s="41"/>
@@ -3984,9 +4113,686 @@
       <c r="Z70" s="42"/>
       <c r="AA70" s="42"/>
     </row>
+    <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="C71" s="43"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42"/>
+      <c r="V71" s="42"/>
+      <c r="W71" s="42"/>
+      <c r="X71" s="42"/>
+      <c r="Y71" s="42"/>
+      <c r="Z71" s="42"/>
+      <c r="AA71" s="42"/>
+    </row>
+    <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="41"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="41"/>
+      <c r="W73" s="41"/>
+      <c r="X73" s="41"/>
+      <c r="Y73" s="41"/>
+      <c r="Z73" s="41"/>
+      <c r="AA73" s="41"/>
+      <c r="AB73" s="41"/>
+      <c r="AC73" s="41"/>
+      <c r="AD73" s="41"/>
+      <c r="AE73" s="41"/>
+      <c r="AF73" s="41"/>
+      <c r="AG73" s="41"/>
+      <c r="AH73" s="41"/>
+      <c r="AI73" s="41"/>
+    </row>
+    <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="51" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="41"/>
+      <c r="W74" s="41"/>
+      <c r="X74" s="41"/>
+      <c r="Y74" s="41"/>
+      <c r="Z74" s="41"/>
+      <c r="AA74" s="41"/>
+      <c r="AB74" s="41"/>
+      <c r="AC74" s="41"/>
+      <c r="AD74" s="41"/>
+      <c r="AE74" s="41"/>
+      <c r="AF74" s="41"/>
+      <c r="AG74" s="41"/>
+      <c r="AH74" s="41"/>
+      <c r="AI74" s="41"/>
+    </row>
+    <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="51" t="s">
+        <v>276</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="41"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="41"/>
+      <c r="W75" s="41"/>
+      <c r="X75" s="41"/>
+      <c r="Y75" s="41"/>
+      <c r="Z75" s="41"/>
+      <c r="AA75" s="41"/>
+      <c r="AB75" s="41"/>
+      <c r="AC75" s="41"/>
+      <c r="AD75" s="41"/>
+      <c r="AE75" s="41"/>
+      <c r="AF75" s="41"/>
+      <c r="AG75" s="41"/>
+      <c r="AH75" s="41"/>
+      <c r="AI75" s="41"/>
+    </row>
+    <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B76" s="51" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="41"/>
+      <c r="U76" s="41"/>
+      <c r="V76" s="41"/>
+      <c r="W76" s="41"/>
+      <c r="X76" s="41"/>
+      <c r="Y76" s="41"/>
+      <c r="Z76" s="41"/>
+      <c r="AA76" s="41"/>
+      <c r="AB76" s="41"/>
+      <c r="AC76" s="41"/>
+      <c r="AD76" s="41"/>
+      <c r="AE76" s="41"/>
+      <c r="AF76" s="41"/>
+      <c r="AG76" s="41"/>
+      <c r="AH76" s="41"/>
+      <c r="AI76" s="41"/>
+    </row>
+    <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="41"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="41"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="41"/>
+      <c r="S77" s="41"/>
+      <c r="T77" s="41"/>
+      <c r="U77" s="41"/>
+      <c r="V77" s="41"/>
+      <c r="W77" s="41"/>
+      <c r="X77" s="41"/>
+      <c r="Y77" s="41"/>
+      <c r="Z77" s="41"/>
+      <c r="AA77" s="41"/>
+      <c r="AB77" s="41"/>
+      <c r="AC77" s="41"/>
+      <c r="AD77" s="41"/>
+      <c r="AE77" s="41"/>
+      <c r="AF77" s="41"/>
+      <c r="AG77" s="41"/>
+      <c r="AH77" s="41"/>
+      <c r="AI77" s="41"/>
+    </row>
+    <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="41"/>
+      <c r="U78" s="41"/>
+      <c r="V78" s="41"/>
+      <c r="W78" s="41"/>
+      <c r="X78" s="41"/>
+      <c r="Y78" s="41"/>
+      <c r="Z78" s="41"/>
+      <c r="AA78" s="41"/>
+      <c r="AB78" s="41"/>
+      <c r="AC78" s="41"/>
+      <c r="AD78" s="41"/>
+      <c r="AE78" s="41"/>
+      <c r="AF78" s="41"/>
+      <c r="AG78" s="41"/>
+      <c r="AH78" s="41"/>
+      <c r="AI78" s="41"/>
+    </row>
+    <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B79" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="41"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="41"/>
+      <c r="S79" s="41"/>
+      <c r="T79" s="41"/>
+      <c r="U79" s="41"/>
+      <c r="V79" s="41"/>
+      <c r="W79" s="41"/>
+      <c r="X79" s="41"/>
+      <c r="Y79" s="41"/>
+      <c r="Z79" s="41"/>
+      <c r="AA79" s="41"/>
+      <c r="AB79" s="41"/>
+      <c r="AC79" s="41"/>
+      <c r="AD79" s="41"/>
+      <c r="AE79" s="41"/>
+      <c r="AF79" s="41"/>
+      <c r="AG79" s="41"/>
+      <c r="AH79" s="41"/>
+      <c r="AI79" s="41"/>
+    </row>
+    <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="41"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="41"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="41"/>
+      <c r="S80" s="41"/>
+      <c r="T80" s="41"/>
+      <c r="U80" s="41"/>
+      <c r="V80" s="41"/>
+      <c r="W80" s="41"/>
+      <c r="X80" s="41"/>
+      <c r="Y80" s="41"/>
+      <c r="Z80" s="41"/>
+      <c r="AA80" s="41"/>
+      <c r="AB80" s="41"/>
+      <c r="AC80" s="41"/>
+      <c r="AD80" s="41"/>
+      <c r="AE80" s="41"/>
+      <c r="AF80" s="41"/>
+      <c r="AG80" s="41"/>
+      <c r="AH80" s="41"/>
+      <c r="AI80" s="41"/>
+    </row>
+    <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="51" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="41"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41"/>
+      <c r="Q81" s="41"/>
+      <c r="R81" s="41"/>
+      <c r="S81" s="41"/>
+      <c r="T81" s="41"/>
+      <c r="U81" s="41"/>
+      <c r="V81" s="41"/>
+      <c r="W81" s="41"/>
+      <c r="X81" s="41"/>
+      <c r="Y81" s="41"/>
+      <c r="Z81" s="41"/>
+      <c r="AA81" s="41"/>
+      <c r="AB81" s="41"/>
+      <c r="AC81" s="41"/>
+      <c r="AD81" s="41"/>
+      <c r="AE81" s="41"/>
+      <c r="AF81" s="41"/>
+      <c r="AG81" s="41"/>
+      <c r="AH81" s="41"/>
+      <c r="AI81" s="41"/>
+    </row>
+    <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="41"/>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="41"/>
+      <c r="AA82" s="41"/>
+      <c r="AB82" s="41"/>
+      <c r="AC82" s="41"/>
+      <c r="AD82" s="41"/>
+      <c r="AE82" s="41"/>
+      <c r="AF82" s="41"/>
+      <c r="AG82" s="41"/>
+      <c r="AH82" s="41"/>
+      <c r="AI82" s="41"/>
+    </row>
+    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="C83" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="41"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="41"/>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="41"/>
+      <c r="S83" s="41"/>
+      <c r="T83" s="41"/>
+      <c r="U83" s="41"/>
+      <c r="V83" s="41"/>
+      <c r="W83" s="41"/>
+      <c r="X83" s="41"/>
+      <c r="Y83" s="41"/>
+      <c r="Z83" s="41"/>
+      <c r="AA83" s="41"/>
+      <c r="AB83" s="41"/>
+      <c r="AC83" s="41"/>
+      <c r="AD83" s="41"/>
+      <c r="AE83" s="41"/>
+      <c r="AF83" s="41"/>
+      <c r="AG83" s="41"/>
+      <c r="AH83" s="41"/>
+      <c r="AI83" s="41"/>
+    </row>
+    <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="41"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="41"/>
+      <c r="T84" s="41"/>
+      <c r="U84" s="41"/>
+      <c r="V84" s="41"/>
+      <c r="W84" s="41"/>
+      <c r="X84" s="41"/>
+      <c r="Y84" s="41"/>
+      <c r="Z84" s="41"/>
+      <c r="AA84" s="41"/>
+      <c r="AB84" s="41"/>
+      <c r="AC84" s="41"/>
+      <c r="AD84" s="41"/>
+      <c r="AE84" s="41"/>
+      <c r="AF84" s="41"/>
+      <c r="AG84" s="41"/>
+      <c r="AH84" s="41"/>
+      <c r="AI84" s="41"/>
+    </row>
+    <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="C85" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="41"/>
+      <c r="N85" s="41"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="41"/>
+      <c r="S85" s="41"/>
+      <c r="T85" s="41"/>
+      <c r="U85" s="41"/>
+      <c r="V85" s="41"/>
+      <c r="W85" s="41"/>
+      <c r="X85" s="41"/>
+      <c r="Y85" s="41"/>
+      <c r="Z85" s="41"/>
+      <c r="AA85" s="41"/>
+      <c r="AB85" s="41"/>
+      <c r="AC85" s="41"/>
+      <c r="AD85" s="41"/>
+      <c r="AE85" s="41"/>
+      <c r="AF85" s="41"/>
+      <c r="AG85" s="41"/>
+      <c r="AH85" s="41"/>
+      <c r="AI85" s="41"/>
+    </row>
+    <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="51" t="s">
+        <v>296</v>
+      </c>
+      <c r="C86" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
+      <c r="T86" s="41"/>
+      <c r="U86" s="41"/>
+      <c r="V86" s="41"/>
+      <c r="W86" s="41"/>
+      <c r="X86" s="41"/>
+      <c r="Y86" s="41"/>
+      <c r="Z86" s="41"/>
+      <c r="AA86" s="41"/>
+      <c r="AB86" s="41"/>
+      <c r="AC86" s="41"/>
+      <c r="AD86" s="41"/>
+      <c r="AE86" s="41"/>
+      <c r="AF86" s="41"/>
+      <c r="AG86" s="41"/>
+      <c r="AH86" s="41"/>
+      <c r="AI86" s="41"/>
+    </row>
+    <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="51"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="41"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="41"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="41"/>
+      <c r="AE87" s="41"/>
+      <c r="AF87" s="41"/>
+      <c r="AG87" s="41"/>
+      <c r="AH87" s="41"/>
+      <c r="AI87" s="41"/>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F15 D16:E68 D69:E70">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F15 D16:E71 I73:I87">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4004,7 +4810,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4198,24 +5004,48 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
@@ -4691,7 +5521,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44128.597611342593</v>
+        <v>44128.615454282408</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -936,9 +936,6 @@
     <t>specify maximum temperature: °C</t>
   </si>
   <si>
-    <t>selected(../patient_symptoms/fever, 'yes'</t>
-  </si>
-  <si>
     <t>select_one trimester</t>
   </si>
   <si>
@@ -948,9 +945,6 @@
     <t>Specify trimester</t>
   </si>
   <si>
-    <t>selected(../existing_conditions/pregnant, 'yes'</t>
-  </si>
-  <si>
     <t>trimester</t>
   </si>
   <si>
@@ -970,6 +964,12 @@
   </si>
   <si>
     <t>Third</t>
+  </si>
+  <si>
+    <t>selected(../patient_symptoms/fever, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(../existing_conditions/pregnant, 'yes')</t>
   </si>
 </sst>
 </file>
@@ -1578,10 +1578,10 @@
   <dimension ref="A1:AI87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
@@ -4493,18 +4493,18 @@
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B81" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="B81" s="51" t="s">
+      <c r="C81" s="41" t="s">
         <v>303</v>
-      </c>
-      <c r="C81" s="41" t="s">
-        <v>304</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
       <c r="F81" s="41" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G81" s="41"/>
       <c r="H81" s="41"/>
@@ -5005,40 +5005,40 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>308</v>
-      </c>
       <c r="C14" s="22" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>99</v>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44128.615454282408</v>
+        <v>44129.625524305557</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -695,9 +695,6 @@
     <t>other_sample</t>
   </si>
   <si>
-    <t>selected(../other_samples/other_sample, 'yes')</t>
-  </si>
-  <si>
     <t>clinical_course_complication</t>
   </si>
   <si>
@@ -822,18 +819,9 @@
     <t>Date of last contact</t>
   </si>
   <si>
-    <t>selected(../human_exposure/local_travell/domestic_travell, 'yes')</t>
-  </si>
-  <si>
     <t>int_travelled</t>
   </si>
   <si>
-    <t>selected(../human_exposure/int_travell/int_travelled, 'yes')</t>
-  </si>
-  <si>
-    <t>selected(../human_exposure/contact_confirmed_cases/contact_confirmed_case, 'yes')</t>
-  </si>
-  <si>
     <t>extra_samples</t>
   </si>
   <si>
@@ -966,10 +954,22 @@
     <t>Third</t>
   </si>
   <si>
-    <t>selected(../patient_symptoms/fever, 'yes')</t>
-  </si>
-  <si>
-    <t>selected(../existing_conditions/pregnant, 'yes')</t>
+    <t>../fever, 'yes'</t>
+  </si>
+  <si>
+    <t>../other_samples/other_sample, 'yes'</t>
+  </si>
+  <si>
+    <t>../human_exposure/local_travell/domestic_travell, 'yes'</t>
+  </si>
+  <si>
+    <t>../human_exposure/int_travell/int_travelled, 'yes'</t>
+  </si>
+  <si>
+    <t>../human_exposure/contact_confirmed_cases/contact_confirmed_case, 'yes'</t>
+  </si>
+  <si>
+    <t>../existing_conditions/pregnant, 'yes'</t>
   </si>
 </sst>
 </file>
@@ -1578,10 +1578,10 @@
   <dimension ref="A1:AI87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomRight" activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2320,20 +2320,20 @@
     </row>
     <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D20" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="41"/>
       <c r="F20" s="41" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
@@ -3076,7 +3076,7 @@
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
       <c r="F41" s="57" t="s">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
@@ -3113,7 +3113,7 @@
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="57" t="s">
-        <v>221</v>
+        <v>308</v>
       </c>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
@@ -3204,10 +3204,10 @@
         <v>196</v>
       </c>
       <c r="B45" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="43" t="s">
         <v>222</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>223</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
@@ -3239,10 +3239,10 @@
         <v>169</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
@@ -3274,10 +3274,10 @@
         <v>169</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -3309,10 +3309,10 @@
         <v>169</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
@@ -3344,10 +3344,10 @@
         <v>169</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
@@ -3379,7 +3379,7 @@
         <v>212</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="41"/>
@@ -3441,10 +3441,10 @@
         <v>196</v>
       </c>
       <c r="B52" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="43" t="s">
         <v>232</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>233</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="41"/>
@@ -3476,10 +3476,10 @@
         <v>196</v>
       </c>
       <c r="B53" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" s="41" t="s">
         <v>234</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>235</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
@@ -3508,13 +3508,13 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="52" t="s">
         <v>239</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>240</v>
       </c>
       <c r="D54" s="41"/>
       <c r="E54" s="41"/>
@@ -3546,15 +3546,15 @@
         <v>193</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="57" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
@@ -3583,15 +3583,15 @@
         <v>193</v>
       </c>
       <c r="B56" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="57" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
@@ -3617,18 +3617,18 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B57" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C57" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="57" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
@@ -3654,18 +3654,18 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B58" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C58" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D58" s="41"/>
       <c r="E58" s="41"/>
       <c r="F58" s="57" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
@@ -3694,7 +3694,7 @@
         <v>212</v>
       </c>
       <c r="B59" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
@@ -3727,10 +3727,10 @@
         <v>196</v>
       </c>
       <c r="B60" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C60" s="41" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
@@ -3759,13 +3759,13 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
@@ -3797,15 +3797,15 @@
         <v>193</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="57" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
@@ -3834,15 +3834,15 @@
         <v>193</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
       <c r="F63" s="57" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
@@ -3868,18 +3868,18 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B64" s="51" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
       <c r="F64" s="57" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
@@ -3905,18 +3905,18 @@
     </row>
     <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="51" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B65" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D65" s="41"/>
       <c r="E65" s="41"/>
       <c r="F65" s="57" t="s">
-        <v>265</v>
+        <v>310</v>
       </c>
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
@@ -3945,7 +3945,7 @@
         <v>212</v>
       </c>
       <c r="B66" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="59"/>
@@ -3978,10 +3978,10 @@
         <v>196</v>
       </c>
       <c r="B67" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C67" s="41" t="s">
         <v>257</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>258</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
@@ -4010,13 +4010,13 @@
     </row>
     <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
@@ -4048,15 +4048,15 @@
         <v>193</v>
       </c>
       <c r="B69" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C69" s="41" t="s">
         <v>261</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>262</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
       <c r="F69" s="57" t="s">
-        <v>266</v>
+        <v>311</v>
       </c>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
@@ -4085,7 +4085,7 @@
         <v>212</v>
       </c>
       <c r="B70" s="58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C70" s="41"/>
       <c r="D70" s="41"/>
@@ -4118,7 +4118,7 @@
         <v>212</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C71" s="43"/>
       <c r="D71" s="41"/>
@@ -4151,10 +4151,10 @@
         <v>32</v>
       </c>
       <c r="B73" s="51" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D73" s="41"/>
       <c r="E73" s="41"/>
@@ -4195,10 +4195,10 @@
         <v>169</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C74" s="41" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
@@ -4238,10 +4238,10 @@
         <v>169</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
@@ -4281,10 +4281,10 @@
         <v>169</v>
       </c>
       <c r="B76" s="51" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C76" s="41" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D76" s="41"/>
       <c r="E76" s="41"/>
@@ -4324,10 +4324,10 @@
         <v>169</v>
       </c>
       <c r="B77" s="51" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C77" s="41" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D77" s="41"/>
       <c r="E77" s="41"/>
@@ -4367,10 +4367,10 @@
         <v>169</v>
       </c>
       <c r="B78" s="51" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C78" s="41" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D78" s="41"/>
       <c r="E78" s="41"/>
@@ -4410,10 +4410,10 @@
         <v>169</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
@@ -4453,10 +4453,10 @@
         <v>169</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
@@ -4493,13 +4493,13 @@
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="51" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
@@ -4541,10 +4541,10 @@
         <v>169</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D82" s="41"/>
       <c r="E82" s="41"/>
@@ -4584,10 +4584,10 @@
         <v>169</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="41"/>
@@ -4627,10 +4627,10 @@
         <v>169</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="41"/>
@@ -4670,10 +4670,10 @@
         <v>169</v>
       </c>
       <c r="B85" s="51" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="41"/>
@@ -4713,10 +4713,10 @@
         <v>169</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
@@ -4950,7 +4950,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>56</v>
@@ -4961,7 +4961,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>57</v>
@@ -4972,79 +4972,79 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>99</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44129.625524305557</v>
+        <v>44129.628654745371</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -17,7 +17,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="324">
   <si>
     <t>list_name</t>
   </si>
@@ -954,22 +954,55 @@
     <t>Third</t>
   </si>
   <si>
-    <t>../fever, 'yes'</t>
-  </si>
-  <si>
-    <t>../other_samples/other_sample, 'yes'</t>
-  </si>
-  <si>
-    <t>../human_exposure/local_travell/domestic_travell, 'yes'</t>
-  </si>
-  <si>
-    <t>../human_exposure/int_travell/int_travelled, 'yes'</t>
-  </si>
-  <si>
-    <t>../human_exposure/contact_confirmed_cases/contact_confirmed_case, 'yes'</t>
-  </si>
-  <si>
-    <t>../existing_conditions/pregnant, 'yes'</t>
+    <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>patient_age_in_years</t>
+  </si>
+  <si>
+    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
+  </si>
+  <si>
+    <t>days_since_symptoms_onset</t>
+  </si>
+  <si>
+    <t>floor(decimal-date-time(today())) - decimal-date-time(../patient_symptoms/date_symptoms_onset)</t>
+  </si>
+  <si>
+    <t>selected(../local_travell/domestic_travell, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(../int_travell/int_travelled, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(../contact_confirmed_cases/contact_confirmed_case, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(../pregnant, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(../other_sample, 'yes')</t>
+  </si>
+  <si>
+    <t>selected(../fever, 'yes')</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1096,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1160,6 +1193,30 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF76A5AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1173,7 +1230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1292,6 +1349,16 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1575,13 +1642,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AI87"/>
+  <dimension ref="A1:AJ93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F82" sqref="F82"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1602,7 +1669,7 @@
     <col min="28" max="16384" width="14.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
@@ -1669,7 +1736,7 @@
       <c r="Z1" s="29"/>
       <c r="AA1" s="29"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>32</v>
       </c>
@@ -1709,7 +1776,7 @@
       <c r="AA2" s="34"/>
       <c r="AB2" s="34"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>39</v>
       </c>
@@ -1747,7 +1814,7 @@
       <c r="AA3" s="34"/>
       <c r="AB3" s="34"/>
     </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>39</v>
       </c>
@@ -1783,7 +1850,7 @@
       <c r="AA4" s="34"/>
       <c r="AB4" s="34"/>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>32</v>
       </c>
@@ -1819,160 +1886,188 @@
       <c r="AA5" s="34"/>
       <c r="AB5" s="34"/>
     </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="62" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="63" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="34"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="63"/>
+      <c r="S6" s="63"/>
+      <c r="T6" s="63"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="63"/>
+      <c r="W6" s="63"/>
+      <c r="X6" s="63"/>
+      <c r="Y6" s="63"/>
+      <c r="Z6" s="63"/>
+      <c r="AA6" s="63"/>
+      <c r="AB6" s="63"/>
+      <c r="AC6" s="63"/>
+      <c r="AD6" s="63"/>
+      <c r="AE6" s="63"/>
+      <c r="AF6" s="63"/>
+      <c r="AG6" s="63"/>
+      <c r="AH6" s="64"/>
+      <c r="AI6" s="64"/>
+      <c r="AJ6" s="64"/>
+    </row>
+    <row r="7" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="63"/>
+      <c r="Z7" s="63"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="63"/>
+      <c r="AC7" s="63"/>
+      <c r="AD7" s="63"/>
+      <c r="AE7" s="63"/>
+      <c r="AF7" s="63"/>
+      <c r="AG7" s="63"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+    </row>
+    <row r="8" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="C8" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="64"/>
+      <c r="AI8" s="64"/>
+      <c r="AJ8" s="64"/>
+    </row>
+    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+    </row>
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C10" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
@@ -1999,414 +2094,441 @@
       <c r="AA10" s="34"/>
       <c r="AB10" s="34"/>
     </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="63"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="64"/>
+      <c r="AI11" s="64"/>
+      <c r="AJ11" s="64"/>
+    </row>
+    <row r="12" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="63"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="63"/>
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="63"/>
+      <c r="AE12" s="63"/>
+      <c r="AF12" s="63"/>
+      <c r="AG12" s="63"/>
+      <c r="AH12" s="64"/>
+      <c r="AI12" s="64"/>
+      <c r="AJ12" s="64"/>
+    </row>
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+    </row>
+    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+    </row>
+    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="S11" s="33"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C13" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="33"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-    </row>
-    <row r="17" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18" s="51" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B19" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="B20" s="51" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41" t="s">
-        <v>307</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="41"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>56</v>
-      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="40"/>
+      <c r="Y17" s="40"/>
+      <c r="Z17" s="40"/>
+      <c r="AA17" s="40"/>
+      <c r="AB17" s="40"/>
+    </row>
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="40"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+    </row>
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="40"/>
+    </row>
+    <row r="20" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="L20" s="66"/>
+      <c r="M20" s="66"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="66"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="66"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66"/>
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="67"/>
+      <c r="AI20" s="67"/>
+      <c r="AJ20" s="67"/>
+    </row>
+    <row r="21" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="L21" s="66"/>
+      <c r="M21" s="66"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="66"/>
+      <c r="Q21" s="66"/>
+      <c r="R21" s="66"/>
+      <c r="S21" s="66"/>
+      <c r="T21" s="66"/>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="66"/>
+      <c r="AB21" s="66"/>
+      <c r="AC21" s="66"/>
+      <c r="AD21" s="66"/>
+      <c r="AE21" s="66"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="67"/>
+      <c r="AI21" s="67"/>
+      <c r="AJ21" s="67"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
@@ -2431,52 +2553,50 @@
       <c r="Z22" s="42"/>
       <c r="AA22" s="42"/>
     </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>174</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="41"/>
-      <c r="Q23" s="41"/>
-      <c r="R23" s="41"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>176</v>
+        <v>194</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>195</v>
       </c>
       <c r="D24" s="41" t="s">
         <v>56</v>
@@ -2505,15 +2625,15 @@
       <c r="Z24" s="42"/>
       <c r="AA24" s="42"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>169</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D25" s="41" t="s">
         <v>56</v>
@@ -2542,21 +2662,23 @@
       <c r="Z25" s="42"/>
       <c r="AA25" s="42"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="F26" s="41" t="s">
+        <v>323</v>
+      </c>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
@@ -2579,15 +2701,15 @@
       <c r="Z26" s="42"/>
       <c r="AA26" s="42"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>169</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C27" s="41" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>56</v>
@@ -2616,15 +2738,15 @@
       <c r="Z27" s="42"/>
       <c r="AA27" s="42"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>169</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>184</v>
+        <v>171</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>172</v>
       </c>
       <c r="D28" s="41" t="s">
         <v>56</v>
@@ -2653,15 +2775,15 @@
       <c r="Z28" s="42"/>
       <c r="AA28" s="42"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>169</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>186</v>
+        <v>173</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>174</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>56</v>
@@ -2690,15 +2812,15 @@
       <c r="Z29" s="42"/>
       <c r="AA29" s="42"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>169</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>176</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>56</v>
@@ -2727,15 +2849,15 @@
       <c r="Z30" s="42"/>
       <c r="AA30" s="42"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="51" t="s">
         <v>169</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D31" s="41" t="s">
         <v>56</v>
@@ -2764,44 +2886,56 @@
       <c r="Z31" s="42"/>
       <c r="AA31" s="42"/>
     </row>
-    <row r="32" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="45"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="45"/>
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="42"/>
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="41"/>
+      <c r="A33" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
@@ -2826,52 +2960,56 @@
       <c r="Z33" s="42"/>
       <c r="AA33" s="42"/>
     </row>
-    <row r="34" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="45"/>
-      <c r="Z34" s="45"/>
-      <c r="AA34" s="45"/>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
+      <c r="AA34" s="42"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="D35" s="41"/>
+        <v>186</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
@@ -2898,15 +3036,17 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="51" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="41"/>
+        <v>188</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
@@ -2932,14 +3072,18 @@
       <c r="AA36" s="42"/>
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="C37" s="52"/>
-      <c r="D37" s="41"/>
+      <c r="A37" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
@@ -2964,45 +3108,43 @@
       <c r="Z37" s="42"/>
       <c r="AA37" s="42"/>
     </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="42"/>
-      <c r="T38" s="42"/>
-      <c r="U38" s="42"/>
-      <c r="V38" s="42"/>
-      <c r="W38" s="42"/>
-      <c r="X38" s="42"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="42"/>
+    <row r="38" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="48"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="45"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="45"/>
+      <c r="Y38" s="45"/>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="45"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>214</v>
-      </c>
+      <c r="A39" s="37"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
@@ -3028,56 +3170,54 @@
       <c r="Z39" s="42"/>
       <c r="AA39" s="42"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="41"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="42"/>
-      <c r="Y40" s="42"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
+    <row r="40" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="45"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="45"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
+      <c r="X40" s="45"/>
+      <c r="Y40" s="45"/>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="45"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
-      <c r="F41" s="57" t="s">
-        <v>308</v>
-      </c>
+      <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
       <c r="I41" s="41"/>
@@ -3102,19 +3242,17 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="51" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B42" s="51" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
-      <c r="F42" s="57" t="s">
-        <v>308</v>
-      </c>
+      <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
       <c r="I42" s="41"/>
@@ -3142,9 +3280,9 @@
         <v>212</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C43" s="43"/>
+        <v>197</v>
+      </c>
+      <c r="C43" s="52"/>
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
@@ -3170,10 +3308,10 @@
       <c r="Z43" s="42"/>
       <c r="AA43" s="42"/>
     </row>
-    <row r="44" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55"/>
       <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
@@ -3204,10 +3342,10 @@
         <v>196</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
@@ -3239,10 +3377,10 @@
         <v>169</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
@@ -3271,17 +3409,19 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="51" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
-      <c r="F47" s="57"/>
+      <c r="F47" s="57" t="s">
+        <v>322</v>
+      </c>
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
       <c r="I47" s="41"/>
@@ -3306,17 +3446,19 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
-      <c r="F48" s="57"/>
+      <c r="F48" s="57" t="s">
+        <v>322</v>
+      </c>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
@@ -3340,18 +3482,16 @@
       <c r="AA48" s="42"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>226</v>
-      </c>
+      <c r="A49" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="43"/>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
-      <c r="F49" s="57"/>
+      <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
       <c r="I49" s="41"/>
@@ -3374,14 +3514,10 @@
       <c r="Z49" s="42"/>
       <c r="AA49" s="42"/>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="43"/>
+    <row r="50" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
@@ -3407,10 +3543,16 @@
       <c r="Z50" s="42"/>
       <c r="AA50" s="42"/>
     </row>
-    <row r="51" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="55"/>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>222</v>
+      </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
@@ -3437,14 +3579,14 @@
       <c r="AA51" s="42"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>232</v>
+      <c r="A52" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="41"/>
@@ -3472,18 +3614,18 @@
       <c r="AA52" s="42"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="B53" s="58" t="s">
-        <v>233</v>
+      <c r="A53" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>228</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
+      <c r="F53" s="57"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
       <c r="I53" s="41"/>
@@ -3508,13 +3650,13 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="51" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>239</v>
+        <v>229</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>225</v>
       </c>
       <c r="D54" s="41"/>
       <c r="E54" s="41"/>
@@ -3543,19 +3685,17 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="51" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B55" s="51" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
-      <c r="F55" s="57" t="s">
-        <v>309</v>
-      </c>
+      <c r="F55" s="57"/>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
@@ -3579,20 +3719,16 @@
       <c r="AA55" s="42"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B56" s="51" t="s">
-        <v>243</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>241</v>
-      </c>
+      <c r="A56" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C56" s="43"/>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
-      <c r="F56" s="57" t="s">
-        <v>309</v>
-      </c>
+      <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
       <c r="I56" s="41"/>
@@ -3615,21 +3751,13 @@
       <c r="Z56" s="42"/>
       <c r="AA56" s="42"/>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B57" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>244</v>
-      </c>
+    <row r="57" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
-      <c r="F57" s="57" t="s">
-        <v>309</v>
-      </c>
+      <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
       <c r="I57" s="41"/>
@@ -3653,20 +3781,18 @@
       <c r="AA57" s="42"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B58" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>245</v>
+      <c r="A58" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>232</v>
       </c>
       <c r="D58" s="41"/>
       <c r="E58" s="41"/>
-      <c r="F58" s="57" t="s">
-        <v>309</v>
-      </c>
+      <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
       <c r="I58" s="41"/>
@@ -3689,52 +3815,54 @@
       <c r="Z58" s="42"/>
       <c r="AA58" s="42"/>
     </row>
-    <row r="59" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="58" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B59" s="58" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="61"/>
-      <c r="T59" s="61"/>
-      <c r="U59" s="61"/>
-      <c r="V59" s="61"/>
-      <c r="W59" s="61"/>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="61"/>
-      <c r="Z59" s="61"/>
-      <c r="AA59" s="61"/>
+      <c r="C59" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="42"/>
+      <c r="AA59" s="42"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>254</v>
+      <c r="A60" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B60" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>239</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
+      <c r="F60" s="57"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
@@ -3759,17 +3887,19 @@
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="51" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>255</v>
+        <v>242</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>240</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
-      <c r="F61" s="57"/>
+      <c r="F61" s="57" t="s">
+        <v>318</v>
+      </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
       <c r="I61" s="41"/>
@@ -3797,15 +3927,15 @@
         <v>193</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="57" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
@@ -3831,18 +3961,18 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
       <c r="F63" s="57" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
@@ -3871,15 +4001,15 @@
         <v>246</v>
       </c>
       <c r="B64" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
       <c r="F64" s="57" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
@@ -3903,85 +4033,83 @@
       <c r="Z64" s="42"/>
       <c r="AA64" s="42"/>
     </row>
-    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="42"/>
-      <c r="T65" s="42"/>
-      <c r="U65" s="42"/>
-      <c r="V65" s="42"/>
-      <c r="W65" s="42"/>
-      <c r="X65" s="42"/>
-      <c r="Y65" s="42"/>
-      <c r="Z65" s="42"/>
-      <c r="AA65" s="42"/>
-    </row>
-    <row r="66" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
+      <c r="J65" s="59"/>
+      <c r="K65" s="59"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="59"/>
+      <c r="N65" s="59"/>
+      <c r="O65" s="59"/>
+      <c r="P65" s="59"/>
+      <c r="Q65" s="59"/>
+      <c r="R65" s="59"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
+      <c r="AA65" s="61"/>
+    </row>
+    <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="58" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B66" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="61"/>
-      <c r="V66" s="61"/>
-      <c r="W66" s="61"/>
-      <c r="X66" s="61"/>
-      <c r="Y66" s="61"/>
-      <c r="Z66" s="61"/>
-      <c r="AA66" s="61"/>
+      <c r="C66" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="42"/>
+      <c r="W66" s="42"/>
+      <c r="X66" s="42"/>
+      <c r="Y66" s="42"/>
+      <c r="Z66" s="42"/>
+      <c r="AA66" s="42"/>
     </row>
     <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>257</v>
+      <c r="A67" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>255</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
@@ -4010,17 +4138,19 @@
     </row>
     <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="51" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="C68" s="52" t="s">
-        <v>258</v>
+        <v>249</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>240</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
-      <c r="F68" s="57"/>
+      <c r="F68" s="57" t="s">
+        <v>319</v>
+      </c>
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
       <c r="I68" s="41"/>
@@ -4048,15 +4178,15 @@
         <v>193</v>
       </c>
       <c r="B69" s="51" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
       <c r="F69" s="57" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
@@ -4081,16 +4211,20 @@
       <c r="AA69" s="42"/>
     </row>
     <row r="70" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="58" t="s">
-        <v>212</v>
-      </c>
-      <c r="B70" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C70" s="41"/>
+      <c r="A70" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="B70" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>244</v>
+      </c>
       <c r="D70" s="41"/>
       <c r="E70" s="41"/>
-      <c r="F70" s="57"/>
+      <c r="F70" s="57" t="s">
+        <v>319</v>
+      </c>
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
       <c r="I70" s="41"/>
@@ -4114,16 +4248,20 @@
       <c r="AA70" s="42"/>
     </row>
     <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B71" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C71" s="43"/>
+      <c r="A71" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>245</v>
+      </c>
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
+      <c r="F71" s="57" t="s">
+        <v>319</v>
+      </c>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
       <c r="I71" s="41"/>
@@ -4146,25 +4284,57 @@
       <c r="Z71" s="42"/>
       <c r="AA71" s="42"/>
     </row>
+    <row r="72" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="61"/>
+      <c r="X72" s="61"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
+    </row>
     <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B73" s="51" t="s">
-        <v>268</v>
+      <c r="A73" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="58" t="s">
+        <v>256</v>
       </c>
       <c r="C73" s="41" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D73" s="41"/>
       <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41" t="s">
-        <v>38</v>
-      </c>
+      <c r="F73" s="57"/>
+      <c r="G73" s="41"/>
       <c r="H73" s="41"/>
       <c r="I73" s="41"/>
       <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
       <c r="L73" s="41"/>
       <c r="M73" s="41"/>
       <c r="N73" s="41"/>
@@ -4172,37 +4342,29 @@
       <c r="P73" s="41"/>
       <c r="Q73" s="41"/>
       <c r="R73" s="41"/>
-      <c r="S73" s="41"/>
-      <c r="T73" s="41"/>
-      <c r="U73" s="41"/>
-      <c r="V73" s="41"/>
-      <c r="W73" s="41"/>
-      <c r="X73" s="41"/>
-      <c r="Y73" s="41"/>
-      <c r="Z73" s="41"/>
-      <c r="AA73" s="41"/>
-      <c r="AB73" s="41"/>
-      <c r="AC73" s="41"/>
-      <c r="AD73" s="41"/>
-      <c r="AE73" s="41"/>
-      <c r="AF73" s="41"/>
-      <c r="AG73" s="41"/>
-      <c r="AH73" s="41"/>
-      <c r="AI73" s="41"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="42"/>
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="51" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="C74" s="41" t="s">
-        <v>271</v>
+        <v>259</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>258</v>
       </c>
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
+      <c r="F74" s="57"/>
       <c r="G74" s="41"/>
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
@@ -4215,37 +4377,31 @@
       <c r="P74" s="41"/>
       <c r="Q74" s="41"/>
       <c r="R74" s="41"/>
-      <c r="S74" s="41"/>
-      <c r="T74" s="41"/>
-      <c r="U74" s="41"/>
-      <c r="V74" s="41"/>
-      <c r="W74" s="41"/>
-      <c r="X74" s="41"/>
-      <c r="Y74" s="41"/>
-      <c r="Z74" s="41"/>
-      <c r="AA74" s="41"/>
-      <c r="AB74" s="41"/>
-      <c r="AC74" s="41"/>
-      <c r="AD74" s="41"/>
-      <c r="AE74" s="41"/>
-      <c r="AF74" s="41"/>
-      <c r="AG74" s="41"/>
-      <c r="AH74" s="41"/>
-      <c r="AI74" s="41"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="42"/>
+      <c r="AA74" s="42"/>
     </row>
     <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="51" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B75" s="51" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C75" s="41" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
+      <c r="F75" s="57" t="s">
+        <v>320</v>
+      </c>
       <c r="G75" s="41"/>
       <c r="H75" s="41"/>
       <c r="I75" s="41"/>
@@ -4258,37 +4414,27 @@
       <c r="P75" s="41"/>
       <c r="Q75" s="41"/>
       <c r="R75" s="41"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
-      <c r="V75" s="41"/>
-      <c r="W75" s="41"/>
-      <c r="X75" s="41"/>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="41"/>
-      <c r="AB75" s="41"/>
-      <c r="AC75" s="41"/>
-      <c r="AD75" s="41"/>
-      <c r="AE75" s="41"/>
-      <c r="AF75" s="41"/>
-      <c r="AG75" s="41"/>
-      <c r="AH75" s="41"/>
-      <c r="AI75" s="41"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="42"/>
+      <c r="AA75" s="42"/>
     </row>
     <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B76" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>275</v>
-      </c>
+      <c r="A76" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C76" s="41"/>
       <c r="D76" s="41"/>
       <c r="E76" s="41"/>
-      <c r="F76" s="41"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="41"/>
       <c r="H76" s="41"/>
       <c r="I76" s="41"/>
@@ -4301,34 +4447,24 @@
       <c r="P76" s="41"/>
       <c r="Q76" s="41"/>
       <c r="R76" s="41"/>
-      <c r="S76" s="41"/>
-      <c r="T76" s="41"/>
-      <c r="U76" s="41"/>
-      <c r="V76" s="41"/>
-      <c r="W76" s="41"/>
-      <c r="X76" s="41"/>
-      <c r="Y76" s="41"/>
-      <c r="Z76" s="41"/>
-      <c r="AA76" s="41"/>
-      <c r="AB76" s="41"/>
-      <c r="AC76" s="41"/>
-      <c r="AD76" s="41"/>
-      <c r="AE76" s="41"/>
-      <c r="AF76" s="41"/>
-      <c r="AG76" s="41"/>
-      <c r="AH76" s="41"/>
-      <c r="AI76" s="41"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="42"/>
+      <c r="Y76" s="42"/>
+      <c r="Z76" s="42"/>
+      <c r="AA76" s="42"/>
     </row>
     <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="C77" s="41" t="s">
-        <v>277</v>
-      </c>
+      <c r="A77" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B77" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" s="43"/>
       <c r="D77" s="41"/>
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
@@ -4344,85 +4480,35 @@
       <c r="P77" s="41"/>
       <c r="Q77" s="41"/>
       <c r="R77" s="41"/>
-      <c r="S77" s="41"/>
-      <c r="T77" s="41"/>
-      <c r="U77" s="41"/>
-      <c r="V77" s="41"/>
-      <c r="W77" s="41"/>
-      <c r="X77" s="41"/>
-      <c r="Y77" s="41"/>
-      <c r="Z77" s="41"/>
-      <c r="AA77" s="41"/>
-      <c r="AB77" s="41"/>
-      <c r="AC77" s="41"/>
-      <c r="AD77" s="41"/>
-      <c r="AE77" s="41"/>
-      <c r="AF77" s="41"/>
-      <c r="AG77" s="41"/>
-      <c r="AH77" s="41"/>
-      <c r="AI77" s="41"/>
-    </row>
-    <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" s="51" t="s">
-        <v>278</v>
-      </c>
-      <c r="C78" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
-      <c r="O78" s="41"/>
-      <c r="P78" s="41"/>
-      <c r="Q78" s="41"/>
-      <c r="R78" s="41"/>
-      <c r="S78" s="41"/>
-      <c r="T78" s="41"/>
-      <c r="U78" s="41"/>
-      <c r="V78" s="41"/>
-      <c r="W78" s="41"/>
-      <c r="X78" s="41"/>
-      <c r="Y78" s="41"/>
-      <c r="Z78" s="41"/>
-      <c r="AA78" s="41"/>
-      <c r="AB78" s="41"/>
-      <c r="AC78" s="41"/>
-      <c r="AD78" s="41"/>
-      <c r="AE78" s="41"/>
-      <c r="AF78" s="41"/>
-      <c r="AG78" s="41"/>
-      <c r="AH78" s="41"/>
-      <c r="AI78" s="41"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="42"/>
+      <c r="Z77" s="42"/>
+      <c r="AA77" s="42"/>
     </row>
     <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="51" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
+      <c r="G79" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
       <c r="L79" s="41"/>
       <c r="M79" s="41"/>
       <c r="N79" s="41"/>
@@ -4453,10 +4539,10 @@
         <v>169</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
@@ -4493,19 +4579,17 @@
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="51" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
-      <c r="F81" s="41" t="s">
-        <v>312</v>
-      </c>
+      <c r="F81" s="41"/>
       <c r="G81" s="41"/>
       <c r="H81" s="41"/>
       <c r="I81" s="41"/>
@@ -4541,10 +4625,10 @@
         <v>169</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D82" s="41"/>
       <c r="E82" s="41"/>
@@ -4584,10 +4668,10 @@
         <v>169</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="41"/>
@@ -4627,10 +4711,10 @@
         <v>169</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>289</v>
+        <v>278</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>279</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="41"/>
@@ -4670,10 +4754,10 @@
         <v>169</v>
       </c>
       <c r="B85" s="51" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="41"/>
@@ -4713,10 +4797,10 @@
         <v>169</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="C86" s="52" t="s">
-        <v>293</v>
+        <v>282</v>
+      </c>
+      <c r="C86" s="41" t="s">
+        <v>283</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
@@ -4753,13 +4837,19 @@
     </row>
     <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B87" s="51"/>
-      <c r="C87" s="41"/>
+        <v>297</v>
+      </c>
+      <c r="B87" s="51" t="s">
+        <v>298</v>
+      </c>
+      <c r="C87" s="41" t="s">
+        <v>299</v>
+      </c>
       <c r="D87" s="41"/>
       <c r="E87" s="41"/>
-      <c r="F87" s="41"/>
+      <c r="F87" s="41" t="s">
+        <v>321</v>
+      </c>
       <c r="G87" s="41"/>
       <c r="H87" s="41"/>
       <c r="I87" s="41"/>
@@ -4790,10 +4880,268 @@
       <c r="AH87" s="41"/>
       <c r="AI87" s="41"/>
     </row>
+    <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C88" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="41"/>
+      <c r="S88" s="41"/>
+      <c r="T88" s="41"/>
+      <c r="U88" s="41"/>
+      <c r="V88" s="41"/>
+      <c r="W88" s="41"/>
+      <c r="X88" s="41"/>
+      <c r="Y88" s="41"/>
+      <c r="Z88" s="41"/>
+      <c r="AA88" s="41"/>
+      <c r="AB88" s="41"/>
+      <c r="AC88" s="41"/>
+      <c r="AD88" s="41"/>
+      <c r="AE88" s="41"/>
+      <c r="AF88" s="41"/>
+      <c r="AG88" s="41"/>
+      <c r="AH88" s="41"/>
+      <c r="AI88" s="41"/>
+    </row>
+    <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="51" t="s">
+        <v>286</v>
+      </c>
+      <c r="C89" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="41"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="41"/>
+      <c r="S89" s="41"/>
+      <c r="T89" s="41"/>
+      <c r="U89" s="41"/>
+      <c r="V89" s="41"/>
+      <c r="W89" s="41"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="41"/>
+      <c r="Z89" s="41"/>
+      <c r="AA89" s="41"/>
+      <c r="AB89" s="41"/>
+      <c r="AC89" s="41"/>
+      <c r="AD89" s="41"/>
+      <c r="AE89" s="41"/>
+      <c r="AF89" s="41"/>
+      <c r="AG89" s="41"/>
+      <c r="AH89" s="41"/>
+      <c r="AI89" s="41"/>
+    </row>
+    <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="C90" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="41"/>
+      <c r="N90" s="41"/>
+      <c r="O90" s="41"/>
+      <c r="P90" s="41"/>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="41"/>
+      <c r="S90" s="41"/>
+      <c r="T90" s="41"/>
+      <c r="U90" s="41"/>
+      <c r="V90" s="41"/>
+      <c r="W90" s="41"/>
+      <c r="X90" s="41"/>
+      <c r="Y90" s="41"/>
+      <c r="Z90" s="41"/>
+      <c r="AA90" s="41"/>
+      <c r="AB90" s="41"/>
+      <c r="AC90" s="41"/>
+      <c r="AD90" s="41"/>
+      <c r="AE90" s="41"/>
+      <c r="AF90" s="41"/>
+      <c r="AG90" s="41"/>
+      <c r="AH90" s="41"/>
+      <c r="AI90" s="41"/>
+    </row>
+    <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="41"/>
+      <c r="N91" s="41"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="41"/>
+      <c r="S91" s="41"/>
+      <c r="T91" s="41"/>
+      <c r="U91" s="41"/>
+      <c r="V91" s="41"/>
+      <c r="W91" s="41"/>
+      <c r="X91" s="41"/>
+      <c r="Y91" s="41"/>
+      <c r="Z91" s="41"/>
+      <c r="AA91" s="41"/>
+      <c r="AB91" s="41"/>
+      <c r="AC91" s="41"/>
+      <c r="AD91" s="41"/>
+      <c r="AE91" s="41"/>
+      <c r="AF91" s="41"/>
+      <c r="AG91" s="41"/>
+      <c r="AH91" s="41"/>
+      <c r="AI91" s="41"/>
+    </row>
+    <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="41"/>
+      <c r="M92" s="41"/>
+      <c r="N92" s="41"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="41"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="41"/>
+      <c r="S92" s="41"/>
+      <c r="T92" s="41"/>
+      <c r="U92" s="41"/>
+      <c r="V92" s="41"/>
+      <c r="W92" s="41"/>
+      <c r="X92" s="41"/>
+      <c r="Y92" s="41"/>
+      <c r="Z92" s="41"/>
+      <c r="AA92" s="41"/>
+      <c r="AB92" s="41"/>
+      <c r="AC92" s="41"/>
+      <c r="AD92" s="41"/>
+      <c r="AE92" s="41"/>
+      <c r="AF92" s="41"/>
+      <c r="AG92" s="41"/>
+      <c r="AH92" s="41"/>
+      <c r="AI92" s="41"/>
+    </row>
+    <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="51"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="41"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="41"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="41"/>
+      <c r="S93" s="41"/>
+      <c r="T93" s="41"/>
+      <c r="U93" s="41"/>
+      <c r="V93" s="41"/>
+      <c r="W93" s="41"/>
+      <c r="X93" s="41"/>
+      <c r="Y93" s="41"/>
+      <c r="Z93" s="41"/>
+      <c r="AA93" s="41"/>
+      <c r="AB93" s="41"/>
+      <c r="AC93" s="41"/>
+      <c r="AD93" s="41"/>
+      <c r="AE93" s="41"/>
+      <c r="AF93" s="41"/>
+      <c r="AG93" s="41"/>
+      <c r="AH93" s="41"/>
+      <c r="AI93" s="41"/>
+    </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F15 D16:E71 I73:I87">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" sqref="I79:I93 D22:E77 E2:F5 E9:F10 E13:F19">
       <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="J6:J8 J11:J12 J20:J21">
+      <formula1>"yes,no"</formula1>
+      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5521,7 +5869,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44129.628654745371</v>
+        <v>44130.531147453701</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="324">
   <si>
     <t>list_name</t>
   </si>
@@ -1642,13 +1642,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ93"/>
+  <dimension ref="A1:AJ92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2027,10 +2027,10 @@
         <v>39</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -2058,51 +2058,61 @@
       <c r="AA9" s="34"/>
       <c r="AB9" s="34"/>
     </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
+      <c r="B10" s="62" t="s">
+        <v>310</v>
+      </c>
+      <c r="C10" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="64"/>
+      <c r="AI10" s="64"/>
+      <c r="AJ10" s="64"/>
     </row>
     <row r="11" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="62" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
@@ -2130,9 +2140,7 @@
       <c r="AA11" s="63"/>
       <c r="AB11" s="63"/>
       <c r="AC11" s="63"/>
-      <c r="AD11" s="63">
-        <v>0</v>
-      </c>
+      <c r="AD11" s="63"/>
       <c r="AE11" s="63"/>
       <c r="AF11" s="63"/>
       <c r="AG11" s="63"/>
@@ -2140,92 +2148,82 @@
       <c r="AI11" s="64"/>
       <c r="AJ11" s="64"/>
     </row>
-    <row r="12" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="62" t="s">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="63"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="63"/>
-      <c r="AC12" s="63"/>
-      <c r="AD12" s="63"/>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="63"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
+      <c r="B12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
     </row>
     <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
+      <c r="A13" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
@@ -2242,7 +2240,9 @@
       <c r="O14" s="33"/>
       <c r="P14" s="33"/>
       <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
+      <c r="R14" s="33" t="s">
+        <v>39</v>
+      </c>
       <c r="S14" s="33"/>
       <c r="T14" s="34"/>
       <c r="U14" s="34"/>
@@ -2255,77 +2255,78 @@
       <c r="AB14" s="34"/>
     </row>
     <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="34"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
     </row>
     <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
+      <c r="A16" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="39"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
     </row>
     <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>95</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>35</v>
@@ -2338,8 +2339,9 @@
       <c r="I17" s="39"/>
       <c r="J17" s="39"/>
       <c r="K17" s="39" t="s">
-        <v>165</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L17" s="39"/>
       <c r="M17" s="39"/>
       <c r="N17" s="39"/>
       <c r="O17" s="39"/>
@@ -2348,7 +2350,7 @@
       <c r="R17" s="39"/>
       <c r="S17" s="39"/>
       <c r="T17" s="40"/>
-      <c r="U17" s="39"/>
+      <c r="U17" s="40"/>
       <c r="V17" s="40"/>
       <c r="W17" s="40"/>
       <c r="X17" s="40"/>
@@ -2362,7 +2364,7 @@
         <v>95</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>35</v>
@@ -2375,7 +2377,7 @@
       <c r="I18" s="39"/>
       <c r="J18" s="39"/>
       <c r="K18" s="39" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
@@ -2395,50 +2397,58 @@
       <c r="AA18" s="40"/>
       <c r="AB18" s="40"/>
     </row>
-    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+    <row r="19" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="L19" s="66"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="66"/>
+      <c r="P19" s="66"/>
+      <c r="Q19" s="66"/>
+      <c r="R19" s="66"/>
+      <c r="S19" s="66"/>
+      <c r="T19" s="66"/>
+      <c r="U19" s="66"/>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="66"/>
+      <c r="AB19" s="66"/>
+      <c r="AC19" s="66"/>
+      <c r="AD19" s="66"/>
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="67"/>
+      <c r="AI19" s="67"/>
+      <c r="AJ19" s="67"/>
     </row>
     <row r="20" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="65" t="s">
         <v>95</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>35</v>
@@ -2451,7 +2461,7 @@
       <c r="I20" s="66"/>
       <c r="J20" s="66"/>
       <c r="K20" s="66" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L20" s="66"/>
       <c r="M20" s="66"/>
@@ -2462,7 +2472,6 @@
       <c r="R20" s="66"/>
       <c r="S20" s="66"/>
       <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
       <c r="V20" s="66"/>
       <c r="W20" s="66"/>
       <c r="X20" s="66"/>
@@ -2479,124 +2488,116 @@
       <c r="AI20" s="67"/>
       <c r="AJ20" s="67"/>
     </row>
-    <row r="21" spans="1:36" s="47" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="65" t="s">
-        <v>316</v>
-      </c>
-      <c r="C21" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="67"/>
-      <c r="AI21" s="67"/>
-      <c r="AJ21" s="67"/>
-    </row>
-    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="41"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-    </row>
-    <row r="23" spans="1:36" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+    </row>
+    <row r="22" spans="1:36" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B22" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C22" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+    </row>
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="42"/>
     </row>
     <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C24" s="41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D24" s="41" t="s">
         <v>56</v>
@@ -2627,19 +2628,21 @@
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
-        <v>169</v>
+        <v>294</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>160</v>
+        <v>295</v>
       </c>
       <c r="C25" s="41" t="s">
-        <v>191</v>
+        <v>296</v>
       </c>
       <c r="D25" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="F25" s="41" t="s">
+        <v>323</v>
+      </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
@@ -2664,21 +2667,19 @@
     </row>
     <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>295</v>
+        <v>159</v>
       </c>
       <c r="C26" s="41" t="s">
-        <v>296</v>
+        <v>170</v>
       </c>
       <c r="D26" s="41" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="41"/>
-      <c r="F26" s="41" t="s">
-        <v>323</v>
-      </c>
+      <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
@@ -2706,10 +2707,10 @@
         <v>169</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>172</v>
       </c>
       <c r="D27" s="41" t="s">
         <v>56</v>
@@ -2743,10 +2744,10 @@
         <v>169</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D28" s="41" t="s">
         <v>56</v>
@@ -2780,10 +2781,10 @@
         <v>169</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>56</v>
@@ -2817,10 +2818,10 @@
         <v>169</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>178</v>
       </c>
       <c r="D30" s="41" t="s">
         <v>56</v>
@@ -2854,10 +2855,10 @@
         <v>169</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D31" s="41" t="s">
         <v>56</v>
@@ -2891,10 +2892,10 @@
         <v>169</v>
       </c>
       <c r="B32" s="51" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C32" s="41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D32" s="41" t="s">
         <v>56</v>
@@ -2928,10 +2929,10 @@
         <v>169</v>
       </c>
       <c r="B33" s="51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D33" s="41" t="s">
         <v>56</v>
@@ -2965,10 +2966,10 @@
         <v>169</v>
       </c>
       <c r="B34" s="51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C34" s="41" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D34" s="41" t="s">
         <v>56</v>
@@ -3002,10 +3003,10 @@
         <v>169</v>
       </c>
       <c r="B35" s="51" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C35" s="41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D35" s="41" t="s">
         <v>56</v>
@@ -3039,10 +3040,10 @@
         <v>169</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C36" s="41" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D36" s="41" t="s">
         <v>56</v>
@@ -3071,149 +3072,147 @@
       <c r="Z36" s="42"/>
       <c r="AA36" s="42"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="42"/>
-      <c r="T37" s="42"/>
-      <c r="U37" s="42"/>
-      <c r="V37" s="42"/>
-      <c r="W37" s="42"/>
-      <c r="X37" s="42"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-    </row>
-    <row r="38" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
+    <row r="37" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="B37" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
-      <c r="M38" s="44"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="45"/>
-      <c r="Z38" s="45"/>
-      <c r="AA38" s="45"/>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="42"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="42"/>
-      <c r="V39" s="42"/>
-      <c r="W39" s="42"/>
-      <c r="X39" s="42"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-    </row>
-    <row r="40" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="W37" s="45"/>
+      <c r="X37" s="45"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+    </row>
+    <row r="39" spans="1:27" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B39" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C39" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="45"/>
-      <c r="Y40" s="45"/>
-      <c r="Z40" s="45"/>
-      <c r="AA40" s="45"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="45"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="45"/>
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="42"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="51" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B41" s="51" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
@@ -3241,15 +3240,13 @@
       <c r="AA41" s="42"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>201</v>
-      </c>
+      <c r="A42" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="52"/>
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
@@ -3276,13 +3273,9 @@
       <c r="AA42" s="42"/>
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>197</v>
-      </c>
-      <c r="C43" s="52"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
@@ -3309,9 +3302,15 @@
       <c r="AA43" s="42"/>
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
+      <c r="A44" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>214</v>
+      </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
@@ -3338,14 +3337,14 @@
       <c r="AA44" s="42"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>214</v>
+      <c r="A45" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>215</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
@@ -3374,17 +3373,19 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
+      <c r="F46" s="57" t="s">
+        <v>322</v>
+      </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
       <c r="I46" s="41"/>
@@ -3409,13 +3410,13 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="51" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C47" s="41" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -3445,20 +3446,16 @@
       <c r="AA47" s="42"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B48" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>200</v>
-      </c>
+      <c r="A48" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="43"/>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
-      <c r="F48" s="57" t="s">
-        <v>322</v>
-      </c>
+      <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
       <c r="I48" s="41"/>
@@ -3481,14 +3478,10 @@
       <c r="Z48" s="42"/>
       <c r="AA48" s="42"/>
     </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C49" s="43"/>
+    <row r="49" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
@@ -3514,10 +3507,16 @@
       <c r="Z49" s="42"/>
       <c r="AA49" s="42"/>
     </row>
-    <row r="50" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="55"/>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>222</v>
+      </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
@@ -3544,14 +3543,14 @@
       <c r="AA50" s="42"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
-        <v>196</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>222</v>
+      <c r="A51" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>223</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
@@ -3583,14 +3582,14 @@
         <v>169</v>
       </c>
       <c r="B52" s="51" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C52" s="41" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
+      <c r="F52" s="57"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
       <c r="I52" s="41"/>
@@ -3618,10 +3617,10 @@
         <v>169</v>
       </c>
       <c r="B53" s="51" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
@@ -3653,10 +3652,10 @@
         <v>169</v>
       </c>
       <c r="B54" s="51" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D54" s="41"/>
       <c r="E54" s="41"/>
@@ -3684,18 +3683,16 @@
       <c r="AA54" s="42"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>230</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>226</v>
-      </c>
+      <c r="A55" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="43"/>
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
-      <c r="F55" s="57"/>
+      <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
       <c r="I55" s="41"/>
@@ -3718,14 +3715,10 @@
       <c r="Z55" s="42"/>
       <c r="AA55" s="42"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="C56" s="43"/>
+    <row r="56" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
@@ -3751,10 +3744,16 @@
       <c r="Z56" s="42"/>
       <c r="AA56" s="42"/>
     </row>
-    <row r="57" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>232</v>
+      </c>
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
@@ -3781,14 +3780,14 @@
       <c r="AA57" s="42"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="B58" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>232</v>
+      <c r="B58" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>234</v>
       </c>
       <c r="D58" s="41"/>
       <c r="E58" s="41"/>
@@ -3816,18 +3815,18 @@
       <c r="AA58" s="42"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="B59" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>234</v>
+      <c r="A59" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>239</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
+      <c r="F59" s="57"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
       <c r="I59" s="41"/>
@@ -3852,17 +3851,19 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="51" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="B60" s="51" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>239</v>
+        <v>242</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>240</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
-      <c r="F60" s="57"/>
+      <c r="F60" s="57" t="s">
+        <v>318</v>
+      </c>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
       <c r="I60" s="41"/>
@@ -3890,10 +3891,10 @@
         <v>193</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
@@ -3924,13 +3925,13 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="51" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B62" s="51" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
@@ -3964,10 +3965,10 @@
         <v>246</v>
       </c>
       <c r="B63" s="51" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
@@ -3996,89 +3997,87 @@
       <c r="Z63" s="42"/>
       <c r="AA63" s="42"/>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B64" s="51" t="s">
-        <v>251</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="42"/>
-      <c r="T64" s="42"/>
-      <c r="U64" s="42"/>
-      <c r="V64" s="42"/>
-      <c r="W64" s="42"/>
-      <c r="X64" s="42"/>
-      <c r="Y64" s="42"/>
-      <c r="Z64" s="42"/>
-      <c r="AA64" s="42"/>
-    </row>
-    <row r="65" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
+      <c r="J64" s="59"/>
+      <c r="K64" s="59"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="59"/>
+      <c r="N64" s="59"/>
+      <c r="O64" s="59"/>
+      <c r="P64" s="59"/>
+      <c r="Q64" s="59"/>
+      <c r="R64" s="59"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="61"/>
+      <c r="U64" s="61"/>
+      <c r="V64" s="61"/>
+      <c r="W64" s="61"/>
+      <c r="X64" s="61"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="61"/>
+      <c r="AA64" s="61"/>
+    </row>
+    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="58" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>233</v>
-      </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="61"/>
-      <c r="U65" s="61"/>
-      <c r="V65" s="61"/>
-      <c r="W65" s="61"/>
-      <c r="X65" s="61"/>
-      <c r="Y65" s="61"/>
-      <c r="Z65" s="61"/>
-      <c r="AA65" s="61"/>
+        <v>247</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="42"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="42"/>
+      <c r="Y65" s="42"/>
+      <c r="Z65" s="42"/>
+      <c r="AA65" s="42"/>
     </row>
     <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="B66" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>254</v>
+      <c r="A66" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>255</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
+      <c r="F66" s="57"/>
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
       <c r="I66" s="41"/>
@@ -4103,17 +4102,19 @@
     </row>
     <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="51" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="B67" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>255</v>
+        <v>249</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>240</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
-      <c r="F67" s="57"/>
+      <c r="F67" s="57" t="s">
+        <v>319</v>
+      </c>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
       <c r="I67" s="41"/>
@@ -4141,10 +4142,10 @@
         <v>193</v>
       </c>
       <c r="B68" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C68" s="41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
@@ -4175,13 +4176,13 @@
     </row>
     <row r="69" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="51" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="B69" s="51" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
@@ -4215,10 +4216,10 @@
         <v>246</v>
       </c>
       <c r="B70" s="51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D70" s="41"/>
       <c r="E70" s="41"/>
@@ -4247,85 +4248,83 @@
       <c r="Z70" s="42"/>
       <c r="AA70" s="42"/>
     </row>
-    <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="51" t="s">
-        <v>246</v>
-      </c>
-      <c r="B71" s="51" t="s">
-        <v>253</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="42"/>
-      <c r="T71" s="42"/>
-      <c r="U71" s="42"/>
-      <c r="V71" s="42"/>
-      <c r="W71" s="42"/>
-      <c r="X71" s="42"/>
-      <c r="Y71" s="42"/>
-      <c r="Z71" s="42"/>
-      <c r="AA71" s="42"/>
-    </row>
-    <row r="72" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:35" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
+      <c r="N71" s="59"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="59"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="61"/>
+      <c r="U71" s="61"/>
+      <c r="V71" s="61"/>
+      <c r="W71" s="61"/>
+      <c r="X71" s="61"/>
+      <c r="Y71" s="61"/>
+      <c r="Z71" s="61"/>
+      <c r="AA71" s="61"/>
+    </row>
+    <row r="72" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="58" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B72" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="61"/>
-      <c r="T72" s="61"/>
-      <c r="U72" s="61"/>
-      <c r="V72" s="61"/>
-      <c r="W72" s="61"/>
-      <c r="X72" s="61"/>
-      <c r="Y72" s="61"/>
-      <c r="Z72" s="61"/>
-      <c r="AA72" s="61"/>
+        <v>256</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="42"/>
     </row>
     <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="B73" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>257</v>
+      <c r="A73" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B73" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>258</v>
       </c>
       <c r="D73" s="41"/>
       <c r="E73" s="41"/>
@@ -4354,17 +4353,19 @@
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="51" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="B74" s="51" t="s">
-        <v>259</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>261</v>
       </c>
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
-      <c r="F74" s="57"/>
+      <c r="F74" s="57" t="s">
+        <v>320</v>
+      </c>
       <c r="G74" s="41"/>
       <c r="H74" s="41"/>
       <c r="I74" s="41"/>
@@ -4388,20 +4389,16 @@
       <c r="AA74" s="42"/>
     </row>
     <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="B75" s="51" t="s">
-        <v>260</v>
-      </c>
-      <c r="C75" s="41" t="s">
-        <v>261</v>
-      </c>
+      <c r="A75" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C75" s="41"/>
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
-      <c r="F75" s="57" t="s">
-        <v>320</v>
-      </c>
+      <c r="F75" s="57"/>
       <c r="G75" s="41"/>
       <c r="H75" s="41"/>
       <c r="I75" s="41"/>
@@ -4425,16 +4422,16 @@
       <c r="AA75" s="42"/>
     </row>
     <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B76" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="C76" s="41"/>
+      <c r="B76" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="43"/>
       <c r="D76" s="41"/>
       <c r="E76" s="41"/>
-      <c r="F76" s="57"/>
+      <c r="F76" s="41"/>
       <c r="G76" s="41"/>
       <c r="H76" s="41"/>
       <c r="I76" s="41"/>
@@ -4457,58 +4454,68 @@
       <c r="Z76" s="42"/>
       <c r="AA76" s="42"/>
     </row>
-    <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B77" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="C77" s="43"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
-      <c r="P77" s="41"/>
-      <c r="Q77" s="41"/>
-      <c r="R77" s="41"/>
-      <c r="S77" s="42"/>
-      <c r="T77" s="42"/>
-      <c r="U77" s="42"/>
-      <c r="V77" s="42"/>
-      <c r="W77" s="42"/>
-      <c r="X77" s="42"/>
-      <c r="Y77" s="42"/>
-      <c r="Z77" s="42"/>
-      <c r="AA77" s="42"/>
+    <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="41"/>
+      <c r="U78" s="41"/>
+      <c r="V78" s="41"/>
+      <c r="W78" s="41"/>
+      <c r="X78" s="41"/>
+      <c r="Y78" s="41"/>
+      <c r="Z78" s="41"/>
+      <c r="AA78" s="41"/>
+      <c r="AB78" s="41"/>
+      <c r="AC78" s="41"/>
+      <c r="AD78" s="41"/>
+      <c r="AE78" s="41"/>
+      <c r="AF78" s="41"/>
+      <c r="AG78" s="41"/>
+      <c r="AH78" s="41"/>
+      <c r="AI78" s="41"/>
     </row>
     <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="51" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="B79" s="51" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
-      <c r="G79" s="41" t="s">
-        <v>38</v>
-      </c>
+      <c r="G79" s="41"/>
       <c r="H79" s="41"/>
       <c r="I79" s="41"/>
       <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
       <c r="L79" s="41"/>
       <c r="M79" s="41"/>
       <c r="N79" s="41"/>
@@ -4539,10 +4546,10 @@
         <v>169</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
@@ -4582,10 +4589,10 @@
         <v>169</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C81" s="41" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
@@ -4625,10 +4632,10 @@
         <v>169</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C82" s="41" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D82" s="41"/>
       <c r="E82" s="41"/>
@@ -4668,10 +4675,10 @@
         <v>169</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C83" s="41" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="41"/>
@@ -4711,10 +4718,10 @@
         <v>169</v>
       </c>
       <c r="B84" s="51" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C84" s="41" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="41"/>
@@ -4754,10 +4761,10 @@
         <v>169</v>
       </c>
       <c r="B85" s="51" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C85" s="41" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="41"/>
@@ -4794,17 +4801,19 @@
     </row>
     <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="51" t="s">
-        <v>169</v>
+        <v>297</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
+      <c r="F86" s="41" t="s">
+        <v>321</v>
+      </c>
       <c r="G86" s="41"/>
       <c r="H86" s="41"/>
       <c r="I86" s="41"/>
@@ -4837,19 +4846,17 @@
     </row>
     <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="51" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="B87" s="51" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="C87" s="41" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="41"/>
-      <c r="F87" s="41" t="s">
-        <v>321</v>
-      </c>
+      <c r="F87" s="41"/>
       <c r="G87" s="41"/>
       <c r="H87" s="41"/>
       <c r="I87" s="41"/>
@@ -4885,10 +4892,10 @@
         <v>169</v>
       </c>
       <c r="B88" s="51" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C88" s="41" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="41"/>
@@ -4928,10 +4935,10 @@
         <v>169</v>
       </c>
       <c r="B89" s="51" t="s">
-        <v>286</v>
-      </c>
-      <c r="C89" s="41" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>289</v>
       </c>
       <c r="D89" s="41"/>
       <c r="E89" s="41"/>
@@ -4971,10 +4978,10 @@
         <v>169</v>
       </c>
       <c r="B90" s="51" t="s">
-        <v>288</v>
-      </c>
-      <c r="C90" s="52" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="C90" s="41" t="s">
+        <v>291</v>
       </c>
       <c r="D90" s="41"/>
       <c r="E90" s="41"/>
@@ -5014,10 +5021,10 @@
         <v>169</v>
       </c>
       <c r="B91" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="C91" s="41" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>293</v>
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="41"/>
@@ -5054,14 +5061,10 @@
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="B92" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="C92" s="52" t="s">
-        <v>293</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B92" s="51"/>
+      <c r="C92" s="41"/>
       <c r="D92" s="41"/>
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
@@ -5095,51 +5098,12 @@
       <c r="AH92" s="41"/>
       <c r="AI92" s="41"/>
     </row>
-    <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B93" s="51"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="41"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-      <c r="O93" s="41"/>
-      <c r="P93" s="41"/>
-      <c r="Q93" s="41"/>
-      <c r="R93" s="41"/>
-      <c r="S93" s="41"/>
-      <c r="T93" s="41"/>
-      <c r="U93" s="41"/>
-      <c r="V93" s="41"/>
-      <c r="W93" s="41"/>
-      <c r="X93" s="41"/>
-      <c r="Y93" s="41"/>
-      <c r="Z93" s="41"/>
-      <c r="AA93" s="41"/>
-      <c r="AB93" s="41"/>
-      <c r="AC93" s="41"/>
-      <c r="AD93" s="41"/>
-      <c r="AE93" s="41"/>
-      <c r="AF93" s="41"/>
-      <c r="AG93" s="41"/>
-      <c r="AH93" s="41"/>
-      <c r="AI93" s="41"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="I79:I93 D22:E77 E2:F5 E9:F10 E13:F19">
+    <dataValidation type="list" allowBlank="1" sqref="I78:I92 D21:E76 E2:F5 E12:F18 E9:F9">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J6:J8 J11:J12 J20:J21">
+    <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J20">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5869,7 +5833,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44130.531147453701</v>
+        <v>44130.534606944442</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -987,22 +987,22 @@
     <t>floor(decimal-date-time(today())) - decimal-date-time(../patient_symptoms/date_symptoms_onset)</t>
   </si>
   <si>
-    <t>selected(../local_travell/domestic_travell, 'yes')</t>
-  </si>
-  <si>
-    <t>selected(../int_travell/int_travelled, 'yes')</t>
-  </si>
-  <si>
-    <t>selected(../contact_confirmed_cases/contact_confirmed_case, 'yes')</t>
-  </si>
-  <si>
-    <t>selected(../pregnant, 'yes')</t>
-  </si>
-  <si>
-    <t>selected(../other_sample, 'yes')</t>
-  </si>
-  <si>
-    <t>selected(../fever, 'yes')</t>
+    <t>${fever} = 'yes'</t>
+  </si>
+  <si>
+    <t>${other_sample} = 'yes'</t>
+  </si>
+  <si>
+    <t>${domestic_travell} = 'yes'</t>
+  </si>
+  <si>
+    <t>${int_travelled} =  'yes'</t>
+  </si>
+  <si>
+    <t>${contact_confirmed_case} = 'yes'</t>
+  </si>
+  <si>
+    <t>${pregnant} = 'yes'</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1645,10 @@
   <dimension ref="A1:AJ92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="E25" s="41"/>
       <c r="F25" s="41" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
@@ -3384,7 +3384,7 @@
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
@@ -3421,7 +3421,7 @@
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
       <c r="F47" s="57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
@@ -3862,7 +3862,7 @@
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="57" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
@@ -3899,7 +3899,7 @@
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="57" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
@@ -3936,7 +3936,7 @@
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="57" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
@@ -3973,7 +3973,7 @@
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
       <c r="F63" s="57" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
@@ -4113,7 +4113,7 @@
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="57" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -4150,7 +4150,7 @@
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
       <c r="F68" s="57" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
@@ -4187,7 +4187,7 @@
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
       <c r="F69" s="57" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
@@ -4224,7 +4224,7 @@
       <c r="D70" s="41"/>
       <c r="E70" s="41"/>
       <c r="F70" s="57" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
@@ -4364,7 +4364,7 @@
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
       <c r="F74" s="57" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G74" s="41"/>
       <c r="H74" s="41"/>
@@ -4812,7 +4812,7 @@
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
       <c r="F86" s="41" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="41"/>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44130.534606944442</v>
+        <v>44130.54078541667</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="323">
   <si>
     <t>list_name</t>
   </si>
@@ -985,9 +985,6 @@
   </si>
   <si>
     <t>floor(decimal-date-time(today())) - decimal-date-time(../patient_symptoms/date_symptoms_onset)</t>
-  </si>
-  <si>
-    <t>${fever} = 'yes'</t>
   </si>
   <si>
     <t>${other_sample} = 'yes'</t>
@@ -1645,10 +1642,10 @@
   <dimension ref="A1:AJ92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2640,9 +2637,7 @@
         <v>56</v>
       </c>
       <c r="E25" s="41"/>
-      <c r="F25" s="41" t="s">
-        <v>318</v>
-      </c>
+      <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
       <c r="I25" s="41"/>
@@ -3384,7 +3379,7 @@
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
@@ -3421,7 +3416,7 @@
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
       <c r="F47" s="57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
@@ -3862,7 +3857,7 @@
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
@@ -3899,7 +3894,7 @@
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
@@ -3936,7 +3931,7 @@
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
@@ -3973,7 +3968,7 @@
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
       <c r="F63" s="57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
@@ -4113,7 +4108,7 @@
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -4150,7 +4145,7 @@
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
       <c r="F68" s="57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
@@ -4187,7 +4182,7 @@
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
       <c r="F69" s="57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
@@ -4224,7 +4219,7 @@
       <c r="D70" s="41"/>
       <c r="E70" s="41"/>
       <c r="F70" s="57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
@@ -4364,7 +4359,7 @@
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
       <c r="F74" s="57" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G74" s="41"/>
       <c r="H74" s="41"/>
@@ -4812,7 +4807,7 @@
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
       <c r="F86" s="41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="41"/>
@@ -5121,7 +5116,7 @@
   <dimension ref="A1:P104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:C16"/>
     </sheetView>
   </sheetViews>
@@ -5833,7 +5828,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44130.54078541667</v>
+        <v>44130.544366087961</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -2069,10 +2069,10 @@
   <dimension ref="A1:AJ151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C117" sqref="C117"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44131.579376851849</v>
+        <v>44131.581306134256</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="409">
   <si>
     <t>list_name</t>
   </si>
@@ -1228,147 +1228,6 @@
   </si>
   <si>
     <t>Please conduct a danger sign follow-up for the baby in 3 days.</t>
-  </si>
-  <si>
-    <t>__still_experiencing_symptoms</t>
-  </si>
-  <si>
-    <t>${symptom_present}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby is still experiencing any danger signs.</t>
-  </si>
-  <si>
-    <t>_fever</t>
-  </si>
-  <si>
-    <t>${fever}</t>
-  </si>
-  <si>
-    <t>Whether or not the umbilical cord was infected.</t>
-  </si>
-  <si>
-    <t>__cough</t>
-  </si>
-  <si>
-    <t>${cough}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby is suffering from convulsions.</t>
-  </si>
-  <si>
-    <t>__difficulty_breathing</t>
-  </si>
-  <si>
-    <t>${difficulty_breathing}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby is having difficulty feeding or drinking.</t>
-  </si>
-  <si>
-    <t>__body_aches</t>
-  </si>
-  <si>
-    <t>${body_aches}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby vomits everything.</t>
-  </si>
-  <si>
-    <t>__sore_throat</t>
-  </si>
-  <si>
-    <t>${sore_throat}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby is drowsy or unconscious.</t>
-  </si>
-  <si>
-    <t>__loss_tate</t>
-  </si>
-  <si>
-    <t>${loss_tate}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby's body is stiff.</t>
-  </si>
-  <si>
-    <t>__diarrhea</t>
-  </si>
-  <si>
-    <t>${diarrhea}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby has yellow skin color.</t>
-  </si>
-  <si>
-    <t>__headache</t>
-  </si>
-  <si>
-    <t>${headache}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby has a fever.</t>
-  </si>
-  <si>
-    <t>__nausea</t>
-  </si>
-  <si>
-    <t>${nausea}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby has blue skin color (hypothermia).</t>
-  </si>
-  <si>
-    <t>__has_danger_sign</t>
-  </si>
-  <si>
-    <t>${r_covid_symptoms_present}</t>
-  </si>
-  <si>
-    <t>Whether or not any danger signs are present.</t>
-  </si>
-  <si>
-    <t>meta</t>
-  </si>
-  <si>
-    <t>__patient_uuid</t>
-  </si>
-  <si>
-    <t>../../../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t>Patient UUID</t>
-  </si>
-  <si>
-    <t>__patient_id</t>
-  </si>
-  <si>
-    <t>../../../inputs/contact/patient_id</t>
-  </si>
-  <si>
-    <t>__household_uuid</t>
-  </si>
-  <si>
-    <t>../../../inputs/contact/parent/_id</t>
-  </si>
-  <si>
-    <t>Household UUID</t>
-  </si>
-  <si>
-    <t>__source</t>
-  </si>
-  <si>
-    <t>../../../inputs/source</t>
-  </si>
-  <si>
-    <t>__source_id</t>
-  </si>
-  <si>
-    <t>../../../inputs/source_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source ID </t>
   </si>
   <si>
     <t>${status} = 'alive'</t>
@@ -2069,10 +1928,10 @@
   <dimension ref="A1:AJ151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="B194" sqref="B194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6149,7 +6008,7 @@
       <c r="D110" s="70"/>
       <c r="E110" s="70"/>
       <c r="F110" s="69" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="G110" s="71" t="s">
         <v>364</v>
@@ -6196,7 +6055,7 @@
       <c r="D111" s="70"/>
       <c r="E111" s="70"/>
       <c r="F111" s="69" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="G111" s="71" t="s">
         <v>364</v>
@@ -6243,7 +6102,7 @@
       <c r="D112" s="70"/>
       <c r="E112" s="70"/>
       <c r="F112" s="69" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="G112" s="71" t="s">
         <v>364</v>
@@ -6290,7 +6149,7 @@
       <c r="D113" s="71"/>
       <c r="E113" s="71"/>
       <c r="F113" s="69" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="G113" s="69" t="s">
         <v>361</v>
@@ -6337,7 +6196,7 @@
       <c r="D114" s="70"/>
       <c r="E114" s="70"/>
       <c r="F114" s="69" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="G114" s="71" t="s">
         <v>364</v>
@@ -6384,7 +6243,7 @@
       <c r="D115" s="70"/>
       <c r="E115" s="70"/>
       <c r="F115" s="69" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="G115" s="71" t="s">
         <v>364</v>
@@ -6431,7 +6290,7 @@
       <c r="D116" s="70"/>
       <c r="E116" s="70"/>
       <c r="F116" s="69" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="G116" s="69" t="s">
         <v>361</v>
@@ -6525,7 +6384,7 @@
       <c r="D118" s="71"/>
       <c r="E118" s="71"/>
       <c r="F118" s="69" t="s">
-        <v>449</v>
+        <v>402</v>
       </c>
       <c r="G118" s="69" t="s">
         <v>364</v>
@@ -6572,7 +6431,7 @@
       <c r="D119" s="71"/>
       <c r="E119" s="71"/>
       <c r="F119" s="69" t="s">
-        <v>450</v>
+        <v>403</v>
       </c>
       <c r="G119" s="69" t="s">
         <v>364</v>
@@ -6619,7 +6478,7 @@
       <c r="D120" s="71"/>
       <c r="E120" s="71"/>
       <c r="F120" s="69" t="s">
-        <v>451</v>
+        <v>404</v>
       </c>
       <c r="G120" s="69" t="s">
         <v>364</v>
@@ -6666,7 +6525,7 @@
       <c r="D121" s="71"/>
       <c r="E121" s="71"/>
       <c r="F121" s="69" t="s">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="G121" s="69" t="s">
         <v>364</v>
@@ -6713,7 +6572,7 @@
       <c r="D122" s="71"/>
       <c r="E122" s="71"/>
       <c r="F122" s="69" t="s">
-        <v>453</v>
+        <v>406</v>
       </c>
       <c r="G122" s="69" t="s">
         <v>364</v>
@@ -6760,7 +6619,7 @@
       <c r="D123" s="71"/>
       <c r="E123" s="71"/>
       <c r="F123" s="69" t="s">
-        <v>454</v>
+        <v>407</v>
       </c>
       <c r="G123" s="69" t="s">
         <v>364</v>
@@ -6807,7 +6666,7 @@
       <c r="D124" s="71"/>
       <c r="E124" s="71"/>
       <c r="F124" s="69" t="s">
-        <v>455</v>
+        <v>408</v>
       </c>
       <c r="G124" s="69" t="s">
         <v>364</v>
@@ -6854,7 +6713,7 @@
       <c r="D125" s="71"/>
       <c r="E125" s="71"/>
       <c r="F125" s="69" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="G125" s="69" t="s">
         <v>364</v>
@@ -6901,7 +6760,7 @@
       <c r="D126" s="71"/>
       <c r="E126" s="71"/>
       <c r="F126" s="69" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="G126" s="69" t="s">
         <v>392</v>
@@ -6948,7 +6807,7 @@
       <c r="D127" s="71"/>
       <c r="E127" s="71"/>
       <c r="F127" s="69" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="G127" s="69"/>
       <c r="H127" s="71"/>
@@ -6993,7 +6852,7 @@
       <c r="D128" s="71"/>
       <c r="E128" s="71"/>
       <c r="F128" s="69" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="G128" s="69"/>
       <c r="H128" s="71"/>
@@ -7038,7 +6897,7 @@
       <c r="D129" s="71"/>
       <c r="E129" s="71"/>
       <c r="F129" s="69" t="s">
-        <v>448</v>
+        <v>401</v>
       </c>
       <c r="G129" s="69"/>
       <c r="H129" s="71"/>
@@ -7121,21 +6980,13 @@
       <c r="AI131" s="35"/>
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B132" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C132" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A132" s="73"/>
+      <c r="B132" s="73"/>
+      <c r="C132" s="74"/>
       <c r="D132" s="74"/>
       <c r="E132" s="74"/>
       <c r="F132" s="74"/>
-      <c r="G132" s="75" t="s">
-        <v>39</v>
-      </c>
+      <c r="G132" s="75"/>
       <c r="H132" s="74"/>
       <c r="I132" s="74"/>
       <c r="J132" s="74"/>
@@ -7159,24 +7010,16 @@
       <c r="AB132" s="74"/>
       <c r="AC132" s="74"/>
       <c r="AD132" s="74"/>
-      <c r="AE132" s="75" t="s">
-        <v>39</v>
-      </c>
+      <c r="AE132" s="75"/>
       <c r="AF132" s="74"/>
       <c r="AG132" s="74"/>
       <c r="AH132" s="74"/>
       <c r="AI132" s="74"/>
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B133" s="76" t="s">
-        <v>399</v>
-      </c>
-      <c r="C133" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A133" s="73"/>
+      <c r="B133" s="76"/>
+      <c r="C133" s="74"/>
       <c r="D133" s="74"/>
       <c r="E133" s="74"/>
       <c r="F133" s="74"/>
@@ -7193,9 +7036,7 @@
       <c r="Q133" s="74"/>
       <c r="R133" s="74"/>
       <c r="S133" s="74"/>
-      <c r="T133" s="74" t="s">
-        <v>400</v>
-      </c>
+      <c r="T133" s="74"/>
       <c r="U133" s="74"/>
       <c r="V133" s="74"/>
       <c r="W133" s="74"/>
@@ -7208,22 +7049,14 @@
       <c r="AD133" s="74"/>
       <c r="AE133" s="74"/>
       <c r="AF133" s="74"/>
-      <c r="AG133" s="75" t="s">
-        <v>401</v>
-      </c>
+      <c r="AG133" s="75"/>
       <c r="AH133" s="74"/>
       <c r="AI133" s="74"/>
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B134" s="76" t="s">
-        <v>402</v>
-      </c>
-      <c r="C134" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A134" s="73"/>
+      <c r="B134" s="76"/>
+      <c r="C134" s="74"/>
       <c r="D134" s="74"/>
       <c r="E134" s="74"/>
       <c r="F134" s="74"/>
@@ -7240,9 +7073,7 @@
       <c r="Q134" s="74"/>
       <c r="R134" s="74"/>
       <c r="S134" s="74"/>
-      <c r="T134" s="74" t="s">
-        <v>403</v>
-      </c>
+      <c r="T134" s="74"/>
       <c r="U134" s="74"/>
       <c r="V134" s="74"/>
       <c r="W134" s="74"/>
@@ -7255,22 +7086,14 @@
       <c r="AD134" s="74"/>
       <c r="AE134" s="74"/>
       <c r="AF134" s="74"/>
-      <c r="AG134" s="75" t="s">
-        <v>404</v>
-      </c>
+      <c r="AG134" s="75"/>
       <c r="AH134" s="74"/>
       <c r="AI134" s="74"/>
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B135" s="76" t="s">
-        <v>405</v>
-      </c>
-      <c r="C135" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A135" s="73"/>
+      <c r="B135" s="76"/>
+      <c r="C135" s="74"/>
       <c r="D135" s="74"/>
       <c r="E135" s="74"/>
       <c r="F135" s="74"/>
@@ -7287,9 +7110,7 @@
       <c r="Q135" s="74"/>
       <c r="R135" s="74"/>
       <c r="S135" s="74"/>
-      <c r="T135" s="74" t="s">
-        <v>406</v>
-      </c>
+      <c r="T135" s="74"/>
       <c r="U135" s="74"/>
       <c r="V135" s="74"/>
       <c r="W135" s="74"/>
@@ -7302,22 +7123,14 @@
       <c r="AD135" s="74"/>
       <c r="AE135" s="74"/>
       <c r="AF135" s="74"/>
-      <c r="AG135" s="75" t="s">
-        <v>407</v>
-      </c>
+      <c r="AG135" s="75"/>
       <c r="AH135" s="74"/>
       <c r="AI135" s="74"/>
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B136" s="76" t="s">
-        <v>408</v>
-      </c>
-      <c r="C136" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A136" s="73"/>
+      <c r="B136" s="76"/>
+      <c r="C136" s="74"/>
       <c r="D136" s="74"/>
       <c r="E136" s="74"/>
       <c r="F136" s="74"/>
@@ -7334,9 +7147,7 @@
       <c r="Q136" s="74"/>
       <c r="R136" s="74"/>
       <c r="S136" s="74"/>
-      <c r="T136" s="74" t="s">
-        <v>409</v>
-      </c>
+      <c r="T136" s="74"/>
       <c r="U136" s="74"/>
       <c r="V136" s="74"/>
       <c r="W136" s="74"/>
@@ -7349,22 +7160,14 @@
       <c r="AD136" s="74"/>
       <c r="AE136" s="74"/>
       <c r="AF136" s="74"/>
-      <c r="AG136" s="75" t="s">
-        <v>410</v>
-      </c>
+      <c r="AG136" s="75"/>
       <c r="AH136" s="74"/>
       <c r="AI136" s="74"/>
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B137" s="76" t="s">
-        <v>411</v>
-      </c>
-      <c r="C137" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A137" s="73"/>
+      <c r="B137" s="76"/>
+      <c r="C137" s="74"/>
       <c r="D137" s="74"/>
       <c r="E137" s="74"/>
       <c r="F137" s="74"/>
@@ -7381,9 +7184,7 @@
       <c r="Q137" s="74"/>
       <c r="R137" s="74"/>
       <c r="S137" s="74"/>
-      <c r="T137" s="74" t="s">
-        <v>412</v>
-      </c>
+      <c r="T137" s="74"/>
       <c r="U137" s="74"/>
       <c r="V137" s="74"/>
       <c r="W137" s="74"/>
@@ -7396,22 +7197,14 @@
       <c r="AD137" s="74"/>
       <c r="AE137" s="74"/>
       <c r="AF137" s="74"/>
-      <c r="AG137" s="75" t="s">
-        <v>413</v>
-      </c>
+      <c r="AG137" s="75"/>
       <c r="AH137" s="74"/>
       <c r="AI137" s="74"/>
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B138" s="76" t="s">
-        <v>414</v>
-      </c>
-      <c r="C138" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A138" s="73"/>
+      <c r="B138" s="76"/>
+      <c r="C138" s="74"/>
       <c r="D138" s="74"/>
       <c r="E138" s="74"/>
       <c r="F138" s="74"/>
@@ -7428,9 +7221,7 @@
       <c r="Q138" s="74"/>
       <c r="R138" s="74"/>
       <c r="S138" s="74"/>
-      <c r="T138" s="74" t="s">
-        <v>415</v>
-      </c>
+      <c r="T138" s="74"/>
       <c r="U138" s="74"/>
       <c r="V138" s="74"/>
       <c r="W138" s="74"/>
@@ -7443,22 +7234,14 @@
       <c r="AD138" s="74"/>
       <c r="AE138" s="74"/>
       <c r="AF138" s="74"/>
-      <c r="AG138" s="75" t="s">
-        <v>416</v>
-      </c>
+      <c r="AG138" s="75"/>
       <c r="AH138" s="74"/>
       <c r="AI138" s="74"/>
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B139" s="76" t="s">
-        <v>417</v>
-      </c>
-      <c r="C139" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A139" s="73"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="74"/>
       <c r="D139" s="74"/>
       <c r="E139" s="74"/>
       <c r="F139" s="74"/>
@@ -7475,9 +7258,7 @@
       <c r="Q139" s="74"/>
       <c r="R139" s="74"/>
       <c r="S139" s="74"/>
-      <c r="T139" s="74" t="s">
-        <v>418</v>
-      </c>
+      <c r="T139" s="74"/>
       <c r="U139" s="74"/>
       <c r="V139" s="74"/>
       <c r="W139" s="74"/>
@@ -7490,22 +7271,14 @@
       <c r="AD139" s="74"/>
       <c r="AE139" s="74"/>
       <c r="AF139" s="74"/>
-      <c r="AG139" s="75" t="s">
-        <v>419</v>
-      </c>
+      <c r="AG139" s="75"/>
       <c r="AH139" s="74"/>
       <c r="AI139" s="74"/>
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B140" s="76" t="s">
-        <v>420</v>
-      </c>
-      <c r="C140" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A140" s="73"/>
+      <c r="B140" s="76"/>
+      <c r="C140" s="74"/>
       <c r="D140" s="74"/>
       <c r="E140" s="74"/>
       <c r="F140" s="74"/>
@@ -7522,9 +7295,7 @@
       <c r="Q140" s="74"/>
       <c r="R140" s="74"/>
       <c r="S140" s="74"/>
-      <c r="T140" s="74" t="s">
-        <v>421</v>
-      </c>
+      <c r="T140" s="74"/>
       <c r="U140" s="74"/>
       <c r="V140" s="74"/>
       <c r="W140" s="74"/>
@@ -7537,22 +7308,14 @@
       <c r="AD140" s="74"/>
       <c r="AE140" s="74"/>
       <c r="AF140" s="74"/>
-      <c r="AG140" s="75" t="s">
-        <v>422</v>
-      </c>
+      <c r="AG140" s="75"/>
       <c r="AH140" s="74"/>
       <c r="AI140" s="74"/>
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B141" s="76" t="s">
-        <v>423</v>
-      </c>
-      <c r="C141" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A141" s="73"/>
+      <c r="B141" s="76"/>
+      <c r="C141" s="74"/>
       <c r="D141" s="74"/>
       <c r="E141" s="74"/>
       <c r="F141" s="74"/>
@@ -7569,9 +7332,7 @@
       <c r="Q141" s="74"/>
       <c r="R141" s="74"/>
       <c r="S141" s="74"/>
-      <c r="T141" s="74" t="s">
-        <v>424</v>
-      </c>
+      <c r="T141" s="74"/>
       <c r="U141" s="74"/>
       <c r="V141" s="74"/>
       <c r="W141" s="74"/>
@@ -7584,22 +7345,14 @@
       <c r="AD141" s="74"/>
       <c r="AE141" s="74"/>
       <c r="AF141" s="74"/>
-      <c r="AG141" s="75" t="s">
-        <v>425</v>
-      </c>
+      <c r="AG141" s="75"/>
       <c r="AH141" s="74"/>
       <c r="AI141" s="74"/>
     </row>
     <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B142" s="76" t="s">
-        <v>426</v>
-      </c>
-      <c r="C142" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A142" s="73"/>
+      <c r="B142" s="76"/>
+      <c r="C142" s="74"/>
       <c r="D142" s="74"/>
       <c r="E142" s="74"/>
       <c r="F142" s="74"/>
@@ -7616,9 +7369,7 @@
       <c r="Q142" s="74"/>
       <c r="R142" s="74"/>
       <c r="S142" s="74"/>
-      <c r="T142" s="74" t="s">
-        <v>427</v>
-      </c>
+      <c r="T142" s="74"/>
       <c r="U142" s="74"/>
       <c r="V142" s="74"/>
       <c r="W142" s="74"/>
@@ -7631,22 +7382,14 @@
       <c r="AD142" s="74"/>
       <c r="AE142" s="74"/>
       <c r="AF142" s="74"/>
-      <c r="AG142" s="75" t="s">
-        <v>428</v>
-      </c>
+      <c r="AG142" s="75"/>
       <c r="AH142" s="74"/>
       <c r="AI142" s="74"/>
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B143" s="76" t="s">
-        <v>429</v>
-      </c>
-      <c r="C143" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A143" s="73"/>
+      <c r="B143" s="76"/>
+      <c r="C143" s="74"/>
       <c r="D143" s="74"/>
       <c r="E143" s="74"/>
       <c r="F143" s="74"/>
@@ -7663,9 +7406,7 @@
       <c r="Q143" s="74"/>
       <c r="R143" s="74"/>
       <c r="S143" s="74"/>
-      <c r="T143" s="74" t="s">
-        <v>430</v>
-      </c>
+      <c r="T143" s="74"/>
       <c r="U143" s="74"/>
       <c r="V143" s="74"/>
       <c r="W143" s="74"/>
@@ -7678,22 +7419,14 @@
       <c r="AD143" s="74"/>
       <c r="AE143" s="74"/>
       <c r="AF143" s="74"/>
-      <c r="AG143" s="75" t="s">
-        <v>431</v>
-      </c>
+      <c r="AG143" s="75"/>
       <c r="AH143" s="74"/>
       <c r="AI143" s="74"/>
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="B144" s="77" t="s">
-        <v>432</v>
-      </c>
-      <c r="C144" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A144" s="77"/>
+      <c r="B144" s="77"/>
+      <c r="C144" s="74"/>
       <c r="D144" s="75"/>
       <c r="E144" s="75"/>
       <c r="F144" s="75"/>
@@ -7728,15 +7461,9 @@
       <c r="AI144" s="75"/>
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B145" s="76" t="s">
-        <v>433</v>
-      </c>
-      <c r="C145" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A145" s="73"/>
+      <c r="B145" s="76"/>
+      <c r="C145" s="74"/>
       <c r="D145" s="74"/>
       <c r="E145" s="74"/>
       <c r="F145" s="74"/>
@@ -7753,9 +7480,7 @@
       <c r="Q145" s="74"/>
       <c r="R145" s="74"/>
       <c r="S145" s="74"/>
-      <c r="T145" s="75" t="s">
-        <v>434</v>
-      </c>
+      <c r="T145" s="75"/>
       <c r="U145" s="74"/>
       <c r="V145" s="74"/>
       <c r="W145" s="74"/>
@@ -7768,22 +7493,14 @@
       <c r="AD145" s="74"/>
       <c r="AE145" s="74"/>
       <c r="AF145" s="74"/>
-      <c r="AG145" s="75" t="s">
-        <v>435</v>
-      </c>
+      <c r="AG145" s="75"/>
       <c r="AH145" s="74"/>
       <c r="AI145" s="74"/>
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B146" s="76" t="s">
-        <v>436</v>
-      </c>
-      <c r="C146" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A146" s="73"/>
+      <c r="B146" s="76"/>
+      <c r="C146" s="74"/>
       <c r="D146" s="74"/>
       <c r="E146" s="74"/>
       <c r="F146" s="74"/>
@@ -7800,9 +7517,7 @@
       <c r="Q146" s="74"/>
       <c r="R146" s="74"/>
       <c r="S146" s="74"/>
-      <c r="T146" s="75" t="s">
-        <v>437</v>
-      </c>
+      <c r="T146" s="75"/>
       <c r="U146" s="74"/>
       <c r="V146" s="74"/>
       <c r="W146" s="74"/>
@@ -7815,22 +7530,14 @@
       <c r="AD146" s="74"/>
       <c r="AE146" s="74"/>
       <c r="AF146" s="74"/>
-      <c r="AG146" s="75" t="s">
-        <v>49</v>
-      </c>
+      <c r="AG146" s="75"/>
       <c r="AH146" s="74"/>
       <c r="AI146" s="74"/>
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B147" s="76" t="s">
-        <v>438</v>
-      </c>
-      <c r="C147" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A147" s="73"/>
+      <c r="B147" s="76"/>
+      <c r="C147" s="74"/>
       <c r="D147" s="74"/>
       <c r="E147" s="74"/>
       <c r="F147" s="74"/>
@@ -7847,9 +7554,7 @@
       <c r="Q147" s="74"/>
       <c r="R147" s="74"/>
       <c r="S147" s="74"/>
-      <c r="T147" s="75" t="s">
-        <v>439</v>
-      </c>
+      <c r="T147" s="75"/>
       <c r="U147" s="74"/>
       <c r="V147" s="74"/>
       <c r="W147" s="74"/>
@@ -7862,22 +7567,14 @@
       <c r="AD147" s="74"/>
       <c r="AE147" s="74"/>
       <c r="AF147" s="74"/>
-      <c r="AG147" s="75" t="s">
-        <v>440</v>
-      </c>
+      <c r="AG147" s="75"/>
       <c r="AH147" s="74"/>
       <c r="AI147" s="74"/>
     </row>
     <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B148" s="76" t="s">
-        <v>441</v>
-      </c>
-      <c r="C148" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A148" s="73"/>
+      <c r="B148" s="76"/>
+      <c r="C148" s="74"/>
       <c r="D148" s="74"/>
       <c r="E148" s="74"/>
       <c r="F148" s="74"/>
@@ -7894,9 +7591,7 @@
       <c r="Q148" s="74"/>
       <c r="R148" s="74"/>
       <c r="S148" s="74"/>
-      <c r="T148" s="75" t="s">
-        <v>442</v>
-      </c>
+      <c r="T148" s="75"/>
       <c r="U148" s="74"/>
       <c r="V148" s="74"/>
       <c r="W148" s="74"/>
@@ -7909,22 +7604,14 @@
       <c r="AD148" s="74"/>
       <c r="AE148" s="74"/>
       <c r="AF148" s="74"/>
-      <c r="AG148" s="75" t="s">
-        <v>41</v>
-      </c>
+      <c r="AG148" s="75"/>
       <c r="AH148" s="74"/>
       <c r="AI148" s="74"/>
     </row>
     <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="B149" s="76" t="s">
-        <v>443</v>
-      </c>
-      <c r="C149" s="74" t="s">
-        <v>35</v>
-      </c>
+      <c r="A149" s="73"/>
+      <c r="B149" s="76"/>
+      <c r="C149" s="74"/>
       <c r="D149" s="74"/>
       <c r="E149" s="74"/>
       <c r="F149" s="74"/>
@@ -7941,9 +7628,7 @@
       <c r="Q149" s="74"/>
       <c r="R149" s="74"/>
       <c r="S149" s="74"/>
-      <c r="T149" s="75" t="s">
-        <v>444</v>
-      </c>
+      <c r="T149" s="75"/>
       <c r="U149" s="74"/>
       <c r="V149" s="74"/>
       <c r="W149" s="74"/>
@@ -7956,19 +7641,13 @@
       <c r="AD149" s="74"/>
       <c r="AE149" s="74"/>
       <c r="AF149" s="74"/>
-      <c r="AG149" s="75" t="s">
-        <v>445</v>
-      </c>
+      <c r="AG149" s="75"/>
       <c r="AH149" s="74"/>
       <c r="AI149" s="74"/>
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="B150" s="77" t="s">
-        <v>432</v>
-      </c>
+      <c r="A150" s="77"/>
+      <c r="B150" s="77"/>
       <c r="C150" s="75"/>
       <c r="D150" s="75"/>
       <c r="E150" s="75"/>
@@ -8004,12 +7683,8 @@
       <c r="AI150" s="75"/>
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="B151" s="77" t="s">
-        <v>29</v>
-      </c>
+      <c r="A151" s="77"/>
+      <c r="B151" s="77"/>
       <c r="C151" s="75"/>
       <c r="D151" s="75"/>
       <c r="E151" s="75"/>
@@ -8812,7 +8487,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44131.581306134256</v>
+        <v>44131.587359375</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="451">
   <si>
     <t>list_name</t>
   </si>
@@ -1258,6 +1258,132 @@
   </si>
   <si>
     <t>${headache} = 'yes'</t>
+  </si>
+  <si>
+    <t>death_info_patient</t>
+  </si>
+  <si>
+    <t>Death Information - Patient</t>
+  </si>
+  <si>
+    <t>patient_death_date</t>
+  </si>
+  <si>
+    <t>Date of death</t>
+  </si>
+  <si>
+    <t>decimal-date-time(.) &lt;= floor(decimal-date-time(today())) and difference-in-months( ., today() ) &lt; 1</t>
+  </si>
+  <si>
+    <t>select_one places</t>
+  </si>
+  <si>
+    <t>patient_death_place</t>
+  </si>
+  <si>
+    <t>What was the place of death?</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>patient_death_add_notes</t>
+  </si>
+  <si>
+    <t>Additional notes</t>
+  </si>
+  <si>
+    <t>string-length(.) &lt;= 300</t>
+  </si>
+  <si>
+    <t>death_profile_note</t>
+  </si>
+  <si>
+    <t>After reporting a death, the person’s profile will be locked. If reported in error, you may undo the death report from the profile.</t>
+  </si>
+  <si>
+    <t>../patient_death_date != '' and ../patient_death_place != ''</t>
+  </si>
+  <si>
+    <t>death_baby_note</t>
+  </si>
+  <si>
+    <t>If babies were delivered, you will have the chance to report on them Next &gt;.</t>
+  </si>
+  <si>
+    <t>../patient_death_date != '' and ../patient_death_place != '' and ../patient_death_birth = 'yes'</t>
+  </si>
+  <si>
+    <t>death_report</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>"death_report"</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>"data_record"</t>
+  </si>
+  <si>
+    <t>content_type</t>
+  </si>
+  <si>
+    <t>"xml"</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>../../../inputs/user/phone</t>
+  </si>
+  <si>
+    <t>fields</t>
+  </si>
+  <si>
+    <t>../../../../inputs/contact/patient_id</t>
+  </si>
+  <si>
+    <t>../../../../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>death_details</t>
+  </si>
+  <si>
+    <t>date_of_death</t>
+  </si>
+  <si>
+    <t>../../../../../death_info_patient/patient_death_date</t>
+  </si>
+  <si>
+    <t>place_of_death</t>
+  </si>
+  <si>
+    <t>../../../../../death_info_patient/patient_death_place</t>
+  </si>
+  <si>
+    <t>place_of_death_other</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>death_information</t>
+  </si>
+  <si>
+    <t>../../../../../death_info_patient/patient_death_add_notes</t>
+  </si>
+  <si>
+    <t>patient_death_report_doc</t>
+  </si>
+  <si>
+    <t>${death_report}</t>
   </si>
 </sst>
 </file>
@@ -1497,7 +1623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1642,6 +1768,18 @@
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1925,13 +2063,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ151"/>
+  <dimension ref="A1:AJ176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B194" sqref="B194"/>
+      <selection pane="bottomRight" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5727,1194 +5865,1134 @@
       <c r="AH102" s="40"/>
       <c r="AI102" s="40"/>
     </row>
+    <row r="103" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="54"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
+      <c r="H103" s="54"/>
+      <c r="I103" s="54"/>
+      <c r="J103" s="54"/>
+      <c r="K103" s="54"/>
+      <c r="L103" s="54"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="54"/>
+      <c r="O103" s="54"/>
+      <c r="P103" s="54"/>
+      <c r="Q103" s="54"/>
+      <c r="R103" s="54"/>
+      <c r="S103" s="54"/>
+      <c r="T103" s="54"/>
+      <c r="U103" s="54"/>
+      <c r="V103" s="54"/>
+      <c r="W103" s="54"/>
+      <c r="X103" s="54"/>
+      <c r="Y103" s="54"/>
+      <c r="Z103" s="54"/>
+      <c r="AA103" s="54"/>
+      <c r="AB103" s="54"/>
+      <c r="AC103" s="54"/>
+      <c r="AD103" s="54"/>
+      <c r="AE103" s="54"/>
+      <c r="AF103" s="54"/>
+      <c r="AG103" s="54"/>
+      <c r="AH103" s="54"/>
+      <c r="AI103" s="54"/>
+    </row>
     <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="68" t="s">
+      <c r="A104" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B104" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="C104" s="69" t="s">
+      <c r="B104" s="78" t="s">
+        <v>409</v>
+      </c>
+      <c r="C104" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="D104" s="40"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="56"/>
+      <c r="J104" s="56"/>
+      <c r="K104" s="56"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="N104" s="51"/>
+      <c r="O104" s="51"/>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="51"/>
+      <c r="U104" s="56"/>
+      <c r="V104" s="51"/>
+      <c r="W104" s="56"/>
+      <c r="X104" s="56"/>
+      <c r="Y104" s="56"/>
+      <c r="Z104" s="56"/>
+      <c r="AA104" s="56"/>
+      <c r="AB104" s="56"/>
+      <c r="AC104" s="56"/>
+      <c r="AD104" s="56"/>
+      <c r="AE104" s="56"/>
+      <c r="AF104" s="56"/>
+      <c r="AG104" s="56"/>
+      <c r="AH104" s="56"/>
+      <c r="AI104" s="56"/>
+    </row>
+    <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B105" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="C105" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="D105" s="40"/>
+      <c r="E105" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F105" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="J105" s="56"/>
+      <c r="K105" s="56"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51"/>
+      <c r="R105" s="51"/>
+      <c r="S105" s="51"/>
+      <c r="T105" s="51"/>
+      <c r="U105" s="56"/>
+      <c r="V105" s="51"/>
+      <c r="W105" s="56"/>
+      <c r="X105" s="56"/>
+      <c r="Y105" s="56"/>
+      <c r="Z105" s="56"/>
+      <c r="AA105" s="56"/>
+      <c r="AB105" s="56"/>
+      <c r="AC105" s="56"/>
+      <c r="AD105" s="56"/>
+      <c r="AE105" s="56"/>
+      <c r="AF105" s="56"/>
+      <c r="AG105" s="56"/>
+      <c r="AH105" s="56"/>
+      <c r="AI105" s="56"/>
+    </row>
+    <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="B106" s="78" t="s">
+        <v>415</v>
+      </c>
+      <c r="C106" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="D106" s="40"/>
+      <c r="E106" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F106" s="56"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="56"/>
+      <c r="J106" s="56"/>
+      <c r="K106" s="56"/>
+      <c r="L106" s="56"/>
+      <c r="M106" s="51"/>
+      <c r="N106" s="51"/>
+      <c r="O106" s="51"/>
+      <c r="P106" s="51"/>
+      <c r="Q106" s="51"/>
+      <c r="R106" s="51"/>
+      <c r="S106" s="51"/>
+      <c r="T106" s="51"/>
+      <c r="U106" s="56"/>
+      <c r="V106" s="51"/>
+      <c r="W106" s="56"/>
+      <c r="X106" s="56"/>
+      <c r="Y106" s="56"/>
+      <c r="Z106" s="56"/>
+      <c r="AA106" s="56"/>
+      <c r="AB106" s="56"/>
+      <c r="AC106" s="56"/>
+      <c r="AD106" s="56"/>
+      <c r="AE106" s="56"/>
+      <c r="AF106" s="56"/>
+      <c r="AG106" s="56"/>
+      <c r="AH106" s="56"/>
+      <c r="AI106" s="56"/>
+    </row>
+    <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="78" t="s">
+        <v>417</v>
+      </c>
+      <c r="B107" s="78" t="s">
+        <v>418</v>
+      </c>
+      <c r="C107" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="D107" s="40"/>
+      <c r="E107" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F107" s="56"/>
+      <c r="G107" s="40"/>
+      <c r="H107" s="40"/>
+      <c r="I107" s="56" t="s">
+        <v>420</v>
+      </c>
+      <c r="J107" s="56"/>
+      <c r="K107" s="56"/>
+      <c r="L107" s="56"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="51"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="51"/>
+      <c r="R107" s="51"/>
+      <c r="S107" s="51"/>
+      <c r="T107" s="51"/>
+      <c r="U107" s="56"/>
+      <c r="V107" s="51"/>
+      <c r="W107" s="56"/>
+      <c r="X107" s="56"/>
+      <c r="Y107" s="56"/>
+      <c r="Z107" s="56"/>
+      <c r="AA107" s="56"/>
+      <c r="AB107" s="56"/>
+      <c r="AC107" s="56"/>
+      <c r="AD107" s="56"/>
+      <c r="AE107" s="56"/>
+      <c r="AF107" s="56"/>
+      <c r="AG107" s="56"/>
+      <c r="AH107" s="56"/>
+      <c r="AI107" s="56"/>
+    </row>
+    <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="B108" s="78" t="s">
+        <v>421</v>
+      </c>
+      <c r="C108" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="D108" s="40"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="40"/>
+      <c r="H108" s="40"/>
+      <c r="I108" s="56"/>
+      <c r="J108" s="56"/>
+      <c r="K108" s="56"/>
+      <c r="L108" s="56"/>
+      <c r="M108" s="51"/>
+      <c r="N108" s="51"/>
+      <c r="O108" s="51"/>
+      <c r="P108" s="51"/>
+      <c r="Q108" s="51"/>
+      <c r="R108" s="51"/>
+      <c r="S108" s="51"/>
+      <c r="T108" s="51"/>
+      <c r="U108" s="56"/>
+      <c r="V108" s="51"/>
+      <c r="W108" s="56"/>
+      <c r="X108" s="56"/>
+      <c r="Y108" s="56"/>
+      <c r="Z108" s="56"/>
+      <c r="AA108" s="56"/>
+      <c r="AB108" s="56"/>
+      <c r="AC108" s="56"/>
+      <c r="AD108" s="56"/>
+      <c r="AE108" s="56"/>
+      <c r="AF108" s="56"/>
+      <c r="AG108" s="56"/>
+      <c r="AH108" s="56"/>
+      <c r="AI108" s="56"/>
+    </row>
+    <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="B109" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="C109" s="51" t="s">
+        <v>425</v>
+      </c>
+      <c r="D109" s="40"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="56" t="s">
+        <v>423</v>
+      </c>
+      <c r="G109" s="40"/>
+      <c r="H109" s="40"/>
+      <c r="I109" s="56"/>
+      <c r="J109" s="56"/>
+      <c r="K109" s="56"/>
+      <c r="L109" s="56"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="51"/>
+      <c r="O109" s="51"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="51"/>
+      <c r="R109" s="51"/>
+      <c r="S109" s="51"/>
+      <c r="T109" s="51"/>
+      <c r="U109" s="56"/>
+      <c r="V109" s="51"/>
+      <c r="W109" s="56"/>
+      <c r="X109" s="56"/>
+      <c r="Y109" s="56"/>
+      <c r="Z109" s="56"/>
+      <c r="AA109" s="56"/>
+      <c r="AB109" s="56"/>
+      <c r="AC109" s="56"/>
+      <c r="AD109" s="56"/>
+      <c r="AE109" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF109" s="56"/>
+      <c r="AG109" s="56"/>
+      <c r="AH109" s="56"/>
+      <c r="AI109" s="56"/>
+    </row>
+    <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B110" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="C110" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71" t="s">
-        <v>348</v>
-      </c>
-      <c r="H104" s="70"/>
-      <c r="I104" s="71"/>
-      <c r="J104" s="71"/>
-      <c r="K104" s="71"/>
-      <c r="L104" s="71"/>
-      <c r="M104" s="69"/>
-      <c r="N104" s="69"/>
-      <c r="O104" s="69"/>
-      <c r="P104" s="69"/>
-      <c r="Q104" s="69"/>
-      <c r="R104" s="69"/>
-      <c r="S104" s="69"/>
-      <c r="T104" s="69"/>
-      <c r="U104" s="71"/>
-      <c r="V104" s="69"/>
-      <c r="W104" s="71"/>
-      <c r="X104" s="71"/>
-      <c r="Y104" s="71"/>
-      <c r="Z104" s="71"/>
-      <c r="AA104" s="71"/>
-      <c r="AB104" s="71"/>
-      <c r="AC104" s="71"/>
-      <c r="AD104" s="71"/>
-      <c r="AE104" s="71" t="s">
+      <c r="D110" s="56"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56" t="s">
+        <v>426</v>
+      </c>
+      <c r="G110" s="56"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="56"/>
+      <c r="J110" s="80"/>
+      <c r="K110" s="56"/>
+      <c r="L110" s="56"/>
+      <c r="M110" s="56"/>
+      <c r="N110" s="56"/>
+      <c r="O110" s="80"/>
+      <c r="P110" s="56"/>
+      <c r="Q110" s="56"/>
+      <c r="R110" s="56"/>
+      <c r="S110" s="56"/>
+      <c r="T110" s="56"/>
+      <c r="U110" s="56"/>
+      <c r="V110" s="56"/>
+      <c r="W110" s="56"/>
+      <c r="X110" s="56"/>
+      <c r="Y110" s="56"/>
+      <c r="Z110" s="56"/>
+      <c r="AA110" s="56"/>
+      <c r="AB110" s="56"/>
+      <c r="AC110" s="56"/>
+      <c r="AD110" s="56"/>
+      <c r="AE110" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="AF104" s="71"/>
-      <c r="AG104" s="71"/>
-      <c r="AH104" s="71"/>
-      <c r="AI104" s="71"/>
-    </row>
-    <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="72" t="s">
-        <v>349</v>
-      </c>
-      <c r="B105" s="72" t="s">
-        <v>350</v>
-      </c>
-      <c r="C105" s="69" t="s">
-        <v>351</v>
-      </c>
-      <c r="D105" s="71"/>
-      <c r="E105" s="71"/>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71"/>
-      <c r="H105" s="71"/>
-      <c r="I105" s="71"/>
-      <c r="J105" s="71"/>
-      <c r="K105" s="71"/>
-      <c r="L105" s="71"/>
-      <c r="M105" s="71"/>
-      <c r="N105" s="71"/>
-      <c r="O105" s="71"/>
-      <c r="P105" s="71"/>
-      <c r="Q105" s="71"/>
-      <c r="R105" s="71"/>
-      <c r="S105" s="71"/>
-      <c r="T105" s="71"/>
-      <c r="U105" s="71"/>
-      <c r="V105" s="71"/>
-      <c r="W105" s="71"/>
-      <c r="X105" s="71"/>
-      <c r="Y105" s="71"/>
-      <c r="Z105" s="71"/>
-      <c r="AA105" s="71"/>
-      <c r="AB105" s="71"/>
-      <c r="AC105" s="71"/>
-      <c r="AD105" s="71"/>
-      <c r="AE105" s="71"/>
-      <c r="AF105" s="71"/>
-      <c r="AG105" s="71"/>
-      <c r="AH105" s="71"/>
-      <c r="AI105" s="71"/>
-    </row>
-    <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B106" s="68" t="s">
-        <v>352</v>
-      </c>
-      <c r="C106" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="D106" s="71"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="H106" s="71"/>
-      <c r="I106" s="71"/>
-      <c r="J106" s="71"/>
-      <c r="K106" s="69"/>
-      <c r="L106" s="71"/>
-      <c r="M106" s="71"/>
-      <c r="N106" s="71"/>
-      <c r="O106" s="71"/>
-      <c r="P106" s="71"/>
-      <c r="Q106" s="71"/>
-      <c r="R106" s="71"/>
-      <c r="S106" s="71"/>
-      <c r="T106" s="71"/>
-      <c r="U106" s="71"/>
-      <c r="V106" s="71"/>
-      <c r="W106" s="71"/>
-      <c r="X106" s="71"/>
-      <c r="Y106" s="71"/>
-      <c r="Z106" s="71"/>
-      <c r="AA106" s="71"/>
-      <c r="AB106" s="71"/>
-      <c r="AC106" s="71"/>
-      <c r="AD106" s="71"/>
-      <c r="AE106" s="71"/>
-      <c r="AF106" s="71"/>
-      <c r="AG106" s="71"/>
-      <c r="AH106" s="71"/>
-      <c r="AI106" s="71"/>
-    </row>
-    <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B107" s="68" t="s">
-        <v>355</v>
-      </c>
-      <c r="C107" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="D107" s="71"/>
-      <c r="E107" s="71"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="69"/>
-      <c r="H107" s="71"/>
-      <c r="I107" s="71"/>
-      <c r="J107" s="71"/>
-      <c r="K107" s="69"/>
-      <c r="L107" s="71"/>
-      <c r="M107" s="71"/>
-      <c r="N107" s="71"/>
-      <c r="O107" s="71"/>
-      <c r="P107" s="71"/>
-      <c r="Q107" s="71"/>
-      <c r="R107" s="71"/>
-      <c r="S107" s="71"/>
-      <c r="T107" s="71"/>
-      <c r="U107" s="71"/>
-      <c r="V107" s="71"/>
-      <c r="W107" s="71"/>
-      <c r="X107" s="71"/>
-      <c r="Y107" s="71"/>
-      <c r="Z107" s="71"/>
-      <c r="AA107" s="71"/>
-      <c r="AB107" s="71"/>
-      <c r="AC107" s="71"/>
-      <c r="AD107" s="71"/>
-      <c r="AE107" s="71"/>
-      <c r="AF107" s="71"/>
-      <c r="AG107" s="71"/>
-      <c r="AH107" s="71"/>
-      <c r="AI107" s="71"/>
-    </row>
-    <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B108" s="68" t="s">
-        <v>357</v>
-      </c>
-      <c r="C108" s="69" t="s">
-        <v>358</v>
-      </c>
-      <c r="D108" s="71"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="H108" s="71"/>
-      <c r="I108" s="71"/>
-      <c r="J108" s="71"/>
-      <c r="K108" s="69"/>
-      <c r="L108" s="71"/>
-      <c r="M108" s="71"/>
-      <c r="N108" s="71"/>
-      <c r="O108" s="71"/>
-      <c r="P108" s="71"/>
-      <c r="Q108" s="71"/>
-      <c r="R108" s="71"/>
-      <c r="S108" s="71"/>
-      <c r="T108" s="71"/>
-      <c r="U108" s="71"/>
-      <c r="V108" s="71"/>
-      <c r="W108" s="71"/>
-      <c r="X108" s="71"/>
-      <c r="Y108" s="71"/>
-      <c r="Z108" s="71"/>
-      <c r="AA108" s="71"/>
-      <c r="AB108" s="71"/>
-      <c r="AC108" s="71"/>
-      <c r="AD108" s="71"/>
-      <c r="AE108" s="71"/>
-      <c r="AF108" s="71"/>
-      <c r="AG108" s="71"/>
-      <c r="AH108" s="71"/>
-      <c r="AI108" s="71"/>
-    </row>
-    <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B109" s="68" t="s">
-        <v>359</v>
-      </c>
-      <c r="C109" s="71" t="s">
-        <v>360</v>
-      </c>
-      <c r="D109" s="71"/>
-      <c r="E109" s="71"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="69" t="s">
-        <v>361</v>
-      </c>
-      <c r="H109" s="71"/>
-      <c r="I109" s="71"/>
-      <c r="J109" s="70"/>
-      <c r="K109" s="69"/>
-      <c r="L109" s="71"/>
-      <c r="M109" s="71"/>
-      <c r="N109" s="71"/>
-      <c r="O109" s="71"/>
-      <c r="P109" s="71"/>
-      <c r="Q109" s="71"/>
-      <c r="R109" s="71"/>
-      <c r="S109" s="71"/>
-      <c r="T109" s="71"/>
-      <c r="U109" s="71"/>
-      <c r="V109" s="71"/>
-      <c r="W109" s="71"/>
-      <c r="X109" s="71"/>
-      <c r="Y109" s="71"/>
-      <c r="Z109" s="71"/>
-      <c r="AA109" s="71"/>
-      <c r="AB109" s="71"/>
-      <c r="AC109" s="71"/>
-      <c r="AD109" s="71"/>
-      <c r="AE109" s="71"/>
-      <c r="AF109" s="71"/>
-      <c r="AG109" s="71"/>
-      <c r="AH109" s="71"/>
-      <c r="AI109" s="71"/>
-    </row>
-    <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B110" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="C110" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="D110" s="70"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="69" t="s">
-        <v>399</v>
-      </c>
-      <c r="G110" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="H110" s="70"/>
-      <c r="I110" s="71"/>
-      <c r="J110" s="69"/>
-      <c r="K110" s="71"/>
-      <c r="L110" s="71"/>
-      <c r="M110" s="69"/>
-      <c r="N110" s="69"/>
-      <c r="O110" s="69"/>
-      <c r="P110" s="69"/>
-      <c r="Q110" s="69"/>
-      <c r="R110" s="69"/>
-      <c r="S110" s="69"/>
-      <c r="T110" s="69"/>
-      <c r="U110" s="71"/>
-      <c r="V110" s="69"/>
-      <c r="W110" s="71"/>
-      <c r="X110" s="71"/>
-      <c r="Y110" s="71"/>
-      <c r="Z110" s="71"/>
-      <c r="AA110" s="71"/>
-      <c r="AB110" s="71"/>
-      <c r="AC110" s="71"/>
-      <c r="AD110" s="71"/>
-      <c r="AE110" s="71"/>
-      <c r="AF110" s="71"/>
-      <c r="AG110" s="71"/>
-      <c r="AH110" s="71"/>
-      <c r="AI110" s="71"/>
+      <c r="AF110" s="56"/>
+      <c r="AG110" s="56"/>
+      <c r="AH110" s="81" t="s">
+        <v>428</v>
+      </c>
+      <c r="AI110" s="56"/>
     </row>
     <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B111" s="68" t="s">
-        <v>365</v>
-      </c>
-      <c r="C111" s="69" t="s">
-        <v>366</v>
-      </c>
-      <c r="D111" s="70"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="69" t="s">
-        <v>399</v>
-      </c>
-      <c r="G111" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="H111" s="70"/>
-      <c r="I111" s="71"/>
-      <c r="J111" s="69"/>
-      <c r="K111" s="71"/>
-      <c r="L111" s="71"/>
-      <c r="M111" s="69"/>
-      <c r="N111" s="69"/>
-      <c r="O111" s="69"/>
-      <c r="P111" s="69"/>
-      <c r="Q111" s="69"/>
-      <c r="R111" s="69"/>
-      <c r="S111" s="69"/>
-      <c r="T111" s="69"/>
-      <c r="U111" s="71"/>
-      <c r="V111" s="69"/>
-      <c r="W111" s="71"/>
-      <c r="X111" s="71"/>
-      <c r="Y111" s="71"/>
-      <c r="Z111" s="71"/>
-      <c r="AA111" s="71"/>
-      <c r="AB111" s="71"/>
-      <c r="AC111" s="71"/>
-      <c r="AD111" s="71"/>
-      <c r="AE111" s="71"/>
-      <c r="AF111" s="71"/>
-      <c r="AG111" s="71"/>
-      <c r="AH111" s="71"/>
-      <c r="AI111" s="71"/>
+      <c r="A111" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B111" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="C111" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="56"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="56"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="56"/>
+      <c r="I111" s="80"/>
+      <c r="J111" s="80"/>
+      <c r="K111" s="80" t="s">
+        <v>430</v>
+      </c>
+      <c r="L111" s="80"/>
+      <c r="M111" s="80"/>
+      <c r="N111" s="56"/>
+      <c r="O111" s="56"/>
+      <c r="P111" s="56"/>
+      <c r="Q111" s="56"/>
+      <c r="R111" s="56"/>
+      <c r="S111" s="56"/>
+      <c r="T111" s="80"/>
+      <c r="U111" s="80"/>
+      <c r="V111" s="80"/>
+      <c r="W111" s="80"/>
+      <c r="X111" s="80"/>
+      <c r="Y111" s="80"/>
+      <c r="Z111" s="80"/>
+      <c r="AA111" s="80"/>
+      <c r="AB111" s="80"/>
+      <c r="AC111" s="80"/>
+      <c r="AD111" s="80"/>
+      <c r="AE111" s="80"/>
+      <c r="AF111" s="80"/>
+      <c r="AG111" s="80"/>
+      <c r="AH111" s="80"/>
+      <c r="AI111" s="80"/>
     </row>
     <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B112" s="68" t="s">
-        <v>367</v>
-      </c>
-      <c r="C112" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="D112" s="70"/>
-      <c r="E112" s="70"/>
-      <c r="F112" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="G112" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="H112" s="70"/>
-      <c r="I112" s="71"/>
-      <c r="J112" s="69"/>
-      <c r="K112" s="71"/>
-      <c r="L112" s="71"/>
-      <c r="M112" s="69"/>
-      <c r="N112" s="69"/>
-      <c r="O112" s="69"/>
-      <c r="P112" s="69"/>
-      <c r="Q112" s="69"/>
-      <c r="R112" s="69"/>
-      <c r="S112" s="69"/>
-      <c r="T112" s="69"/>
-      <c r="U112" s="71"/>
-      <c r="V112" s="69"/>
-      <c r="W112" s="71"/>
-      <c r="X112" s="71"/>
-      <c r="Y112" s="71"/>
-      <c r="Z112" s="71"/>
-      <c r="AA112" s="71"/>
-      <c r="AB112" s="71"/>
-      <c r="AC112" s="71"/>
-      <c r="AD112" s="71"/>
-      <c r="AE112" s="71"/>
-      <c r="AF112" s="71"/>
-      <c r="AG112" s="71"/>
-      <c r="AH112" s="71"/>
-      <c r="AI112" s="71"/>
+      <c r="A112" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" s="80" t="s">
+        <v>431</v>
+      </c>
+      <c r="D112" s="56"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56"/>
+      <c r="G112" s="56"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="56"/>
+      <c r="J112" s="56"/>
+      <c r="K112" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="L112" s="56"/>
+      <c r="M112" s="56"/>
+      <c r="N112" s="56"/>
+      <c r="O112" s="56"/>
+      <c r="P112" s="56"/>
+      <c r="Q112" s="56"/>
+      <c r="R112" s="56"/>
+      <c r="S112" s="56"/>
+      <c r="T112" s="80"/>
+      <c r="U112" s="56"/>
+      <c r="V112" s="56"/>
+      <c r="W112" s="56"/>
+      <c r="X112" s="56"/>
+      <c r="Y112" s="56"/>
+      <c r="Z112" s="56"/>
+      <c r="AA112" s="56"/>
+      <c r="AB112" s="56"/>
+      <c r="AC112" s="56"/>
+      <c r="AD112" s="56"/>
+      <c r="AE112" s="56"/>
+      <c r="AF112" s="56"/>
+      <c r="AG112" s="56"/>
+      <c r="AH112" s="56"/>
+      <c r="AI112" s="56"/>
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B113" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="C113" s="71" t="s">
-        <v>370</v>
-      </c>
-      <c r="D113" s="71"/>
-      <c r="E113" s="71"/>
-      <c r="F113" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="G113" s="69" t="s">
-        <v>361</v>
-      </c>
-      <c r="H113" s="71"/>
-      <c r="I113" s="71"/>
-      <c r="J113" s="69"/>
-      <c r="K113" s="69"/>
-      <c r="L113" s="71"/>
-      <c r="M113" s="71"/>
-      <c r="N113" s="71"/>
-      <c r="O113" s="71"/>
-      <c r="P113" s="71"/>
-      <c r="Q113" s="71"/>
-      <c r="R113" s="71"/>
-      <c r="S113" s="71"/>
-      <c r="T113" s="71"/>
-      <c r="U113" s="71"/>
-      <c r="V113" s="71"/>
-      <c r="W113" s="71"/>
-      <c r="X113" s="71"/>
-      <c r="Y113" s="71"/>
-      <c r="Z113" s="71"/>
-      <c r="AA113" s="71"/>
-      <c r="AB113" s="71"/>
-      <c r="AC113" s="71"/>
-      <c r="AD113" s="71"/>
-      <c r="AE113" s="71"/>
-      <c r="AF113" s="71"/>
-      <c r="AG113" s="71"/>
-      <c r="AH113" s="71"/>
-      <c r="AI113" s="71"/>
+      <c r="A113" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="C113" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="56"/>
+      <c r="E113" s="56"/>
+      <c r="F113" s="56"/>
+      <c r="G113" s="56"/>
+      <c r="H113" s="56"/>
+      <c r="I113" s="56"/>
+      <c r="J113" s="56"/>
+      <c r="K113" s="80" t="s">
+        <v>434</v>
+      </c>
+      <c r="L113" s="56"/>
+      <c r="M113" s="56"/>
+      <c r="N113" s="56"/>
+      <c r="O113" s="56"/>
+      <c r="P113" s="56"/>
+      <c r="Q113" s="56"/>
+      <c r="R113" s="56"/>
+      <c r="S113" s="56"/>
+      <c r="T113" s="80"/>
+      <c r="U113" s="80"/>
+      <c r="V113" s="80"/>
+      <c r="W113" s="80"/>
+      <c r="X113" s="80"/>
+      <c r="Y113" s="80"/>
+      <c r="Z113" s="80"/>
+      <c r="AA113" s="80"/>
+      <c r="AB113" s="80"/>
+      <c r="AC113" s="80"/>
+      <c r="AD113" s="80"/>
+      <c r="AE113" s="80"/>
+      <c r="AF113" s="80"/>
+      <c r="AG113" s="80"/>
+      <c r="AH113" s="80"/>
+      <c r="AI113" s="80"/>
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B114" s="68" t="s">
-        <v>371</v>
-      </c>
-      <c r="C114" s="69" t="s">
-        <v>372</v>
-      </c>
-      <c r="D114" s="70"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="G114" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="H114" s="70"/>
-      <c r="I114" s="71"/>
-      <c r="J114" s="69"/>
-      <c r="K114" s="71"/>
-      <c r="L114" s="71"/>
-      <c r="M114" s="69"/>
-      <c r="N114" s="69"/>
-      <c r="O114" s="69"/>
-      <c r="P114" s="69"/>
-      <c r="Q114" s="69"/>
-      <c r="R114" s="69"/>
-      <c r="S114" s="69"/>
-      <c r="T114" s="69"/>
-      <c r="U114" s="71"/>
-      <c r="V114" s="69"/>
-      <c r="W114" s="71"/>
-      <c r="X114" s="71"/>
-      <c r="Y114" s="71"/>
-      <c r="Z114" s="71"/>
-      <c r="AA114" s="71"/>
-      <c r="AB114" s="71"/>
-      <c r="AC114" s="71"/>
-      <c r="AD114" s="71"/>
-      <c r="AE114" s="71"/>
-      <c r="AF114" s="71"/>
-      <c r="AG114" s="71"/>
-      <c r="AH114" s="71"/>
-      <c r="AI114" s="71"/>
+      <c r="A114" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B114" s="79" t="s">
+        <v>435</v>
+      </c>
+      <c r="C114" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="56"/>
+      <c r="E114" s="80"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56"/>
+      <c r="H114" s="56"/>
+      <c r="I114" s="80"/>
+      <c r="J114" s="80"/>
+      <c r="K114" s="80" t="s">
+        <v>436</v>
+      </c>
+      <c r="L114" s="80"/>
+      <c r="M114" s="80"/>
+      <c r="N114" s="80"/>
+      <c r="O114" s="80"/>
+      <c r="P114" s="80"/>
+      <c r="Q114" s="80"/>
+      <c r="R114" s="80"/>
+      <c r="S114" s="80"/>
+      <c r="T114" s="80"/>
+      <c r="U114" s="80"/>
+      <c r="V114" s="80"/>
+      <c r="W114" s="80"/>
+      <c r="X114" s="80"/>
+      <c r="Y114" s="80"/>
+      <c r="Z114" s="80"/>
+      <c r="AA114" s="80"/>
+      <c r="AB114" s="80"/>
+      <c r="AC114" s="80"/>
+      <c r="AD114" s="80"/>
+      <c r="AE114" s="80"/>
+      <c r="AF114" s="80"/>
+      <c r="AG114" s="80"/>
+      <c r="AH114" s="80"/>
+      <c r="AI114" s="80"/>
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B115" s="68" t="s">
-        <v>373</v>
-      </c>
-      <c r="C115" s="69" t="s">
-        <v>374</v>
-      </c>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="G115" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="H115" s="70"/>
-      <c r="I115" s="71"/>
-      <c r="J115" s="69"/>
-      <c r="K115" s="71"/>
-      <c r="L115" s="71"/>
-      <c r="M115" s="69"/>
-      <c r="N115" s="69"/>
-      <c r="O115" s="69"/>
-      <c r="P115" s="69"/>
-      <c r="Q115" s="69"/>
-      <c r="R115" s="69"/>
-      <c r="S115" s="69"/>
-      <c r="T115" s="69"/>
-      <c r="U115" s="71"/>
-      <c r="V115" s="69"/>
-      <c r="W115" s="71"/>
-      <c r="X115" s="71"/>
-      <c r="Y115" s="71"/>
-      <c r="Z115" s="71"/>
-      <c r="AA115" s="71"/>
-      <c r="AB115" s="71"/>
-      <c r="AC115" s="71"/>
-      <c r="AD115" s="71"/>
-      <c r="AE115" s="71"/>
-      <c r="AF115" s="71"/>
-      <c r="AG115" s="71"/>
-      <c r="AH115" s="71"/>
-      <c r="AI115" s="71"/>
+      <c r="A115" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115" s="79" t="s">
+        <v>437</v>
+      </c>
+      <c r="C115" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="56"/>
+      <c r="E115" s="56"/>
+      <c r="F115" s="56"/>
+      <c r="G115" s="56"/>
+      <c r="H115" s="56"/>
+      <c r="I115" s="56"/>
+      <c r="J115" s="56"/>
+      <c r="K115" s="56"/>
+      <c r="L115" s="56"/>
+      <c r="M115" s="56"/>
+      <c r="N115" s="56"/>
+      <c r="O115" s="56"/>
+      <c r="P115" s="56"/>
+      <c r="Q115" s="56"/>
+      <c r="R115" s="56"/>
+      <c r="S115" s="56"/>
+      <c r="T115" s="56"/>
+      <c r="U115" s="56"/>
+      <c r="V115" s="56"/>
+      <c r="W115" s="56"/>
+      <c r="X115" s="56"/>
+      <c r="Y115" s="56"/>
+      <c r="Z115" s="56"/>
+      <c r="AA115" s="56"/>
+      <c r="AB115" s="56"/>
+      <c r="AC115" s="56"/>
+      <c r="AD115" s="56"/>
+      <c r="AE115" s="56"/>
+      <c r="AF115" s="56"/>
+      <c r="AG115" s="56"/>
+      <c r="AH115" s="56"/>
+      <c r="AI115" s="56"/>
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B116" s="68" t="s">
-        <v>375</v>
-      </c>
-      <c r="C116" s="69" t="s">
-        <v>376</v>
-      </c>
-      <c r="D116" s="70"/>
-      <c r="E116" s="70"/>
-      <c r="F116" s="69" t="s">
-        <v>401</v>
-      </c>
-      <c r="G116" s="69" t="s">
-        <v>361</v>
-      </c>
-      <c r="H116" s="70"/>
-      <c r="I116" s="71"/>
-      <c r="J116" s="69"/>
-      <c r="K116" s="69"/>
-      <c r="L116" s="71"/>
-      <c r="M116" s="69"/>
-      <c r="N116" s="69"/>
-      <c r="O116" s="69"/>
-      <c r="P116" s="69"/>
-      <c r="Q116" s="69"/>
-      <c r="R116" s="69"/>
-      <c r="S116" s="69"/>
-      <c r="T116" s="69"/>
-      <c r="U116" s="71"/>
-      <c r="V116" s="69"/>
-      <c r="W116" s="71"/>
-      <c r="X116" s="71"/>
-      <c r="Y116" s="71"/>
-      <c r="Z116" s="71"/>
-      <c r="AA116" s="71"/>
-      <c r="AB116" s="71"/>
-      <c r="AC116" s="71"/>
-      <c r="AD116" s="71"/>
-      <c r="AE116" s="71"/>
-      <c r="AF116" s="71"/>
-      <c r="AG116" s="71"/>
-      <c r="AH116" s="71"/>
-      <c r="AI116" s="71"/>
+      <c r="A116" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B116" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C116" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" s="80"/>
+      <c r="E116" s="80"/>
+      <c r="F116" s="80"/>
+      <c r="G116" s="80"/>
+      <c r="H116" s="80"/>
+      <c r="I116" s="80"/>
+      <c r="J116" s="80"/>
+      <c r="K116" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="L116" s="80"/>
+      <c r="M116" s="80"/>
+      <c r="N116" s="80"/>
+      <c r="O116" s="80"/>
+      <c r="P116" s="80"/>
+      <c r="Q116" s="80"/>
+      <c r="R116" s="80"/>
+      <c r="S116" s="80"/>
+      <c r="T116" s="80"/>
+      <c r="U116" s="80"/>
+      <c r="V116" s="80"/>
+      <c r="W116" s="80"/>
+      <c r="X116" s="80"/>
+      <c r="Y116" s="80"/>
+      <c r="Z116" s="80"/>
+      <c r="AA116" s="80"/>
+      <c r="AB116" s="80"/>
+      <c r="AC116" s="80"/>
+      <c r="AD116" s="80"/>
+      <c r="AE116" s="80"/>
+      <c r="AF116" s="80"/>
+      <c r="AG116" s="80"/>
+      <c r="AH116" s="80"/>
+      <c r="AI116" s="80"/>
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B117" s="68" t="s">
-        <v>377</v>
-      </c>
-      <c r="C117" s="69" t="s">
-        <v>378</v>
-      </c>
-      <c r="D117" s="71"/>
-      <c r="E117" s="71"/>
-      <c r="F117" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="G117" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="H117" s="71"/>
-      <c r="I117" s="71"/>
-      <c r="J117" s="69"/>
-      <c r="K117" s="69"/>
-      <c r="L117" s="71"/>
-      <c r="M117" s="71"/>
-      <c r="N117" s="71"/>
-      <c r="O117" s="71"/>
-      <c r="P117" s="71"/>
-      <c r="Q117" s="71"/>
-      <c r="R117" s="71"/>
-      <c r="S117" s="71"/>
-      <c r="T117" s="71"/>
-      <c r="U117" s="71"/>
-      <c r="V117" s="71"/>
-      <c r="W117" s="71"/>
-      <c r="X117" s="71"/>
-      <c r="Y117" s="71"/>
-      <c r="Z117" s="71"/>
-      <c r="AA117" s="71"/>
-      <c r="AB117" s="71"/>
-      <c r="AC117" s="71"/>
-      <c r="AD117" s="71"/>
-      <c r="AE117" s="71"/>
-      <c r="AF117" s="71"/>
-      <c r="AG117" s="71"/>
-      <c r="AH117" s="71"/>
-      <c r="AI117" s="71"/>
+      <c r="A117" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B117" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D117" s="80"/>
+      <c r="E117" s="80"/>
+      <c r="F117" s="80"/>
+      <c r="G117" s="80"/>
+      <c r="H117" s="80"/>
+      <c r="I117" s="80"/>
+      <c r="J117" s="80"/>
+      <c r="K117" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="L117" s="80"/>
+      <c r="M117" s="80"/>
+      <c r="N117" s="80"/>
+      <c r="O117" s="80"/>
+      <c r="P117" s="80"/>
+      <c r="Q117" s="80"/>
+      <c r="R117" s="80"/>
+      <c r="S117" s="80"/>
+      <c r="T117" s="80"/>
+      <c r="U117" s="80"/>
+      <c r="V117" s="80"/>
+      <c r="W117" s="80"/>
+      <c r="X117" s="80"/>
+      <c r="Y117" s="80"/>
+      <c r="Z117" s="80"/>
+      <c r="AA117" s="80"/>
+      <c r="AB117" s="80"/>
+      <c r="AC117" s="80"/>
+      <c r="AD117" s="80"/>
+      <c r="AE117" s="80"/>
+      <c r="AF117" s="80"/>
+      <c r="AG117" s="80"/>
+      <c r="AH117" s="80"/>
+      <c r="AI117" s="80"/>
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B118" s="68" t="s">
-        <v>379</v>
-      </c>
-      <c r="C118" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="D118" s="71"/>
-      <c r="E118" s="71"/>
-      <c r="F118" s="69" t="s">
-        <v>402</v>
-      </c>
-      <c r="G118" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="H118" s="71"/>
-      <c r="I118" s="71"/>
-      <c r="J118" s="69"/>
-      <c r="K118" s="69"/>
-      <c r="L118" s="71"/>
-      <c r="M118" s="71"/>
-      <c r="N118" s="71"/>
-      <c r="O118" s="71"/>
-      <c r="P118" s="71"/>
-      <c r="Q118" s="71"/>
-      <c r="R118" s="71"/>
-      <c r="S118" s="71"/>
-      <c r="T118" s="71"/>
-      <c r="U118" s="71"/>
-      <c r="V118" s="71"/>
-      <c r="W118" s="71"/>
-      <c r="X118" s="71"/>
-      <c r="Y118" s="71"/>
-      <c r="Z118" s="71"/>
-      <c r="AA118" s="71"/>
-      <c r="AB118" s="71"/>
-      <c r="AC118" s="71"/>
-      <c r="AD118" s="71"/>
-      <c r="AE118" s="71"/>
-      <c r="AF118" s="71"/>
-      <c r="AG118" s="71"/>
-      <c r="AH118" s="71"/>
-      <c r="AI118" s="71"/>
+      <c r="A118" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" s="79" t="s">
+        <v>440</v>
+      </c>
+      <c r="C118" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D118" s="56"/>
+      <c r="E118" s="56"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56"/>
+      <c r="H118" s="56"/>
+      <c r="I118" s="56"/>
+      <c r="J118" s="56"/>
+      <c r="K118" s="56"/>
+      <c r="L118" s="56"/>
+      <c r="M118" s="56"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="56"/>
+      <c r="P118" s="56"/>
+      <c r="Q118" s="56"/>
+      <c r="R118" s="56"/>
+      <c r="S118" s="56"/>
+      <c r="T118" s="56"/>
+      <c r="U118" s="56"/>
+      <c r="V118" s="56"/>
+      <c r="W118" s="56"/>
+      <c r="X118" s="56"/>
+      <c r="Y118" s="56"/>
+      <c r="Z118" s="56"/>
+      <c r="AA118" s="56"/>
+      <c r="AB118" s="56"/>
+      <c r="AC118" s="56"/>
+      <c r="AD118" s="56"/>
+      <c r="AE118" s="56"/>
+      <c r="AF118" s="56"/>
+      <c r="AG118" s="56"/>
+      <c r="AH118" s="56"/>
+      <c r="AI118" s="56"/>
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B119" s="68" t="s">
-        <v>381</v>
-      </c>
-      <c r="C119" s="69" t="s">
-        <v>382</v>
-      </c>
-      <c r="D119" s="71"/>
-      <c r="E119" s="71"/>
-      <c r="F119" s="69" t="s">
-        <v>403</v>
-      </c>
-      <c r="G119" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="H119" s="71"/>
-      <c r="I119" s="71"/>
-      <c r="J119" s="69"/>
-      <c r="K119" s="69"/>
-      <c r="L119" s="71"/>
-      <c r="M119" s="71"/>
-      <c r="N119" s="71"/>
-      <c r="O119" s="71"/>
-      <c r="P119" s="71"/>
-      <c r="Q119" s="71"/>
-      <c r="R119" s="71"/>
-      <c r="S119" s="71"/>
-      <c r="T119" s="71"/>
-      <c r="U119" s="71"/>
-      <c r="V119" s="71"/>
-      <c r="W119" s="71"/>
-      <c r="X119" s="71"/>
-      <c r="Y119" s="71"/>
-      <c r="Z119" s="71"/>
-      <c r="AA119" s="71"/>
-      <c r="AB119" s="71"/>
-      <c r="AC119" s="71"/>
-      <c r="AD119" s="71"/>
-      <c r="AE119" s="71"/>
-      <c r="AF119" s="71"/>
-      <c r="AG119" s="71"/>
-      <c r="AH119" s="71"/>
-      <c r="AI119" s="71"/>
+      <c r="A119" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B119" s="79" t="s">
+        <v>441</v>
+      </c>
+      <c r="C119" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D119" s="56"/>
+      <c r="E119" s="56"/>
+      <c r="F119" s="56"/>
+      <c r="G119" s="56"/>
+      <c r="H119" s="56"/>
+      <c r="I119" s="56"/>
+      <c r="J119" s="56"/>
+      <c r="K119" s="80" t="s">
+        <v>442</v>
+      </c>
+      <c r="L119" s="56"/>
+      <c r="M119" s="56"/>
+      <c r="N119" s="56"/>
+      <c r="O119" s="56"/>
+      <c r="P119" s="56"/>
+      <c r="Q119" s="56"/>
+      <c r="R119" s="56"/>
+      <c r="S119" s="56"/>
+      <c r="T119" s="80"/>
+      <c r="U119" s="56"/>
+      <c r="V119" s="56"/>
+      <c r="W119" s="56"/>
+      <c r="X119" s="56"/>
+      <c r="Y119" s="56"/>
+      <c r="Z119" s="56"/>
+      <c r="AA119" s="56"/>
+      <c r="AB119" s="56"/>
+      <c r="AC119" s="56"/>
+      <c r="AD119" s="56"/>
+      <c r="AE119" s="56"/>
+      <c r="AF119" s="56"/>
+      <c r="AG119" s="56"/>
+      <c r="AH119" s="56"/>
+      <c r="AI119" s="56"/>
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B120" s="68" t="s">
-        <v>383</v>
-      </c>
-      <c r="C120" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="D120" s="71"/>
-      <c r="E120" s="71"/>
-      <c r="F120" s="69" t="s">
-        <v>404</v>
-      </c>
-      <c r="G120" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="H120" s="71"/>
-      <c r="I120" s="71"/>
-      <c r="J120" s="69"/>
-      <c r="K120" s="69"/>
-      <c r="L120" s="71"/>
-      <c r="M120" s="71"/>
-      <c r="N120" s="71"/>
-      <c r="O120" s="71"/>
-      <c r="P120" s="71"/>
-      <c r="Q120" s="71"/>
-      <c r="R120" s="71"/>
-      <c r="S120" s="71"/>
-      <c r="T120" s="71"/>
-      <c r="U120" s="71"/>
-      <c r="V120" s="71"/>
-      <c r="W120" s="71"/>
-      <c r="X120" s="71"/>
-      <c r="Y120" s="71"/>
-      <c r="Z120" s="71"/>
-      <c r="AA120" s="71"/>
-      <c r="AB120" s="71"/>
-      <c r="AC120" s="71"/>
-      <c r="AD120" s="71"/>
-      <c r="AE120" s="71"/>
-      <c r="AF120" s="71"/>
-      <c r="AG120" s="71"/>
-      <c r="AH120" s="71"/>
-      <c r="AI120" s="71"/>
+      <c r="A120" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B120" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="C120" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="56"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="56"/>
+      <c r="I120" s="56"/>
+      <c r="J120" s="56"/>
+      <c r="K120" s="80" t="s">
+        <v>444</v>
+      </c>
+      <c r="L120" s="56"/>
+      <c r="M120" s="56"/>
+      <c r="N120" s="56"/>
+      <c r="O120" s="56"/>
+      <c r="P120" s="56"/>
+      <c r="Q120" s="56"/>
+      <c r="R120" s="56"/>
+      <c r="S120" s="56"/>
+      <c r="T120" s="80"/>
+      <c r="U120" s="56"/>
+      <c r="V120" s="56"/>
+      <c r="W120" s="56"/>
+      <c r="X120" s="56"/>
+      <c r="Y120" s="56"/>
+      <c r="Z120" s="56"/>
+      <c r="AA120" s="56"/>
+      <c r="AB120" s="56"/>
+      <c r="AC120" s="56"/>
+      <c r="AD120" s="56"/>
+      <c r="AE120" s="56"/>
+      <c r="AF120" s="56"/>
+      <c r="AG120" s="56"/>
+      <c r="AH120" s="56"/>
+      <c r="AI120" s="56"/>
     </row>
     <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B121" s="68" t="s">
-        <v>384</v>
-      </c>
-      <c r="C121" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="D121" s="71"/>
-      <c r="E121" s="71"/>
-      <c r="F121" s="69" t="s">
-        <v>405</v>
-      </c>
-      <c r="G121" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="H121" s="71"/>
-      <c r="I121" s="71"/>
-      <c r="J121" s="69"/>
-      <c r="K121" s="69"/>
-      <c r="L121" s="71"/>
-      <c r="M121" s="71"/>
-      <c r="N121" s="71"/>
-      <c r="O121" s="71"/>
-      <c r="P121" s="71"/>
-      <c r="Q121" s="71"/>
-      <c r="R121" s="71"/>
-      <c r="S121" s="71"/>
-      <c r="T121" s="71"/>
-      <c r="U121" s="71"/>
-      <c r="V121" s="71"/>
-      <c r="W121" s="71"/>
-      <c r="X121" s="71"/>
-      <c r="Y121" s="71"/>
-      <c r="Z121" s="71"/>
-      <c r="AA121" s="71"/>
-      <c r="AB121" s="71"/>
-      <c r="AC121" s="71"/>
-      <c r="AD121" s="71"/>
-      <c r="AE121" s="71"/>
-      <c r="AF121" s="71"/>
-      <c r="AG121" s="71"/>
-      <c r="AH121" s="71"/>
-      <c r="AI121" s="71"/>
+      <c r="A121" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" s="79" t="s">
+        <v>445</v>
+      </c>
+      <c r="C121" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D121" s="56"/>
+      <c r="E121" s="56"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="80" t="s">
+        <v>446</v>
+      </c>
+      <c r="L121" s="56"/>
+      <c r="M121" s="56"/>
+      <c r="N121" s="56"/>
+      <c r="O121" s="56"/>
+      <c r="P121" s="56"/>
+      <c r="Q121" s="56"/>
+      <c r="R121" s="56"/>
+      <c r="S121" s="56"/>
+      <c r="T121" s="80"/>
+      <c r="U121" s="56"/>
+      <c r="V121" s="56"/>
+      <c r="W121" s="56"/>
+      <c r="X121" s="56"/>
+      <c r="Y121" s="56"/>
+      <c r="Z121" s="56"/>
+      <c r="AA121" s="56"/>
+      <c r="AB121" s="56"/>
+      <c r="AC121" s="56"/>
+      <c r="AD121" s="56"/>
+      <c r="AE121" s="56"/>
+      <c r="AF121" s="56"/>
+      <c r="AG121" s="56"/>
+      <c r="AH121" s="56"/>
+      <c r="AI121" s="56"/>
     </row>
     <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B122" s="68" t="s">
-        <v>385</v>
-      </c>
-      <c r="C122" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="D122" s="71"/>
-      <c r="E122" s="71"/>
-      <c r="F122" s="69" t="s">
-        <v>406</v>
-      </c>
-      <c r="G122" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="H122" s="71"/>
-      <c r="I122" s="71"/>
-      <c r="J122" s="69"/>
-      <c r="K122" s="69"/>
-      <c r="L122" s="71"/>
-      <c r="M122" s="71"/>
-      <c r="N122" s="71"/>
-      <c r="O122" s="71"/>
-      <c r="P122" s="71"/>
-      <c r="Q122" s="71"/>
-      <c r="R122" s="71"/>
-      <c r="S122" s="71"/>
-      <c r="T122" s="71"/>
-      <c r="U122" s="71"/>
-      <c r="V122" s="71"/>
-      <c r="W122" s="71"/>
-      <c r="X122" s="71"/>
-      <c r="Y122" s="71"/>
-      <c r="Z122" s="71"/>
-      <c r="AA122" s="71"/>
-      <c r="AB122" s="71"/>
-      <c r="AC122" s="71"/>
-      <c r="AD122" s="71"/>
-      <c r="AE122" s="71"/>
-      <c r="AF122" s="71"/>
-      <c r="AG122" s="71"/>
-      <c r="AH122" s="71"/>
-      <c r="AI122" s="71"/>
+      <c r="A122" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B122" s="79" t="s">
+        <v>447</v>
+      </c>
+      <c r="C122" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D122" s="56"/>
+      <c r="E122" s="80"/>
+      <c r="F122" s="56"/>
+      <c r="G122" s="56"/>
+      <c r="H122" s="56"/>
+      <c r="I122" s="80"/>
+      <c r="J122" s="80"/>
+      <c r="K122" s="80" t="s">
+        <v>448</v>
+      </c>
+      <c r="L122" s="80"/>
+      <c r="M122" s="80"/>
+      <c r="N122" s="80"/>
+      <c r="O122" s="80"/>
+      <c r="P122" s="80"/>
+      <c r="Q122" s="80"/>
+      <c r="R122" s="80"/>
+      <c r="S122" s="80"/>
+      <c r="T122" s="80"/>
+      <c r="U122" s="80"/>
+      <c r="V122" s="80"/>
+      <c r="W122" s="80"/>
+      <c r="X122" s="80"/>
+      <c r="Y122" s="80"/>
+      <c r="Z122" s="80"/>
+      <c r="AA122" s="80"/>
+      <c r="AB122" s="80"/>
+      <c r="AC122" s="80"/>
+      <c r="AD122" s="80"/>
+      <c r="AE122" s="80"/>
+      <c r="AF122" s="80"/>
+      <c r="AG122" s="80"/>
+      <c r="AH122" s="80"/>
+      <c r="AI122" s="80"/>
     </row>
     <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B123" s="68" t="s">
-        <v>386</v>
-      </c>
-      <c r="C123" s="69" t="s">
-        <v>184</v>
-      </c>
-      <c r="D123" s="71"/>
-      <c r="E123" s="71"/>
-      <c r="F123" s="69" t="s">
-        <v>407</v>
-      </c>
-      <c r="G123" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="H123" s="71"/>
-      <c r="I123" s="71"/>
-      <c r="J123" s="69"/>
-      <c r="K123" s="69"/>
-      <c r="L123" s="71"/>
-      <c r="M123" s="71"/>
-      <c r="N123" s="71"/>
-      <c r="O123" s="71"/>
-      <c r="P123" s="71"/>
-      <c r="Q123" s="71"/>
-      <c r="R123" s="71"/>
-      <c r="S123" s="71"/>
-      <c r="T123" s="71"/>
-      <c r="U123" s="71"/>
-      <c r="V123" s="71"/>
-      <c r="W123" s="71"/>
-      <c r="X123" s="71"/>
-      <c r="Y123" s="71"/>
-      <c r="Z123" s="71"/>
-      <c r="AA123" s="71"/>
-      <c r="AB123" s="71"/>
-      <c r="AC123" s="71"/>
-      <c r="AD123" s="71"/>
-      <c r="AE123" s="71"/>
-      <c r="AF123" s="71"/>
-      <c r="AG123" s="71"/>
-      <c r="AH123" s="71"/>
-      <c r="AI123" s="71"/>
+      <c r="A123" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123" s="79"/>
+      <c r="C123" s="56"/>
+      <c r="D123" s="56"/>
+      <c r="E123" s="56"/>
+      <c r="F123" s="56"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="56"/>
+      <c r="J123" s="56"/>
+      <c r="K123" s="56"/>
+      <c r="L123" s="56"/>
+      <c r="M123" s="56"/>
+      <c r="N123" s="56"/>
+      <c r="O123" s="56"/>
+      <c r="P123" s="56"/>
+      <c r="Q123" s="56"/>
+      <c r="R123" s="56"/>
+      <c r="S123" s="56"/>
+      <c r="T123" s="56"/>
+      <c r="U123" s="56"/>
+      <c r="V123" s="56"/>
+      <c r="W123" s="56"/>
+      <c r="X123" s="56"/>
+      <c r="Y123" s="56"/>
+      <c r="Z123" s="56"/>
+      <c r="AA123" s="56"/>
+      <c r="AB123" s="56"/>
+      <c r="AC123" s="56"/>
+      <c r="AD123" s="56"/>
+      <c r="AE123" s="56"/>
+      <c r="AF123" s="56"/>
+      <c r="AG123" s="56"/>
+      <c r="AH123" s="56"/>
+      <c r="AI123" s="56"/>
     </row>
     <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B124" s="68" t="s">
-        <v>387</v>
-      </c>
-      <c r="C124" s="69" t="s">
-        <v>186</v>
-      </c>
-      <c r="D124" s="71"/>
-      <c r="E124" s="71"/>
-      <c r="F124" s="69" t="s">
-        <v>408</v>
-      </c>
-      <c r="G124" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="H124" s="71"/>
-      <c r="I124" s="71"/>
-      <c r="J124" s="69"/>
-      <c r="K124" s="69"/>
-      <c r="L124" s="71"/>
-      <c r="M124" s="71"/>
-      <c r="N124" s="71"/>
-      <c r="O124" s="71"/>
-      <c r="P124" s="71"/>
-      <c r="Q124" s="71"/>
-      <c r="R124" s="71"/>
-      <c r="S124" s="71"/>
-      <c r="T124" s="71"/>
-      <c r="U124" s="71"/>
-      <c r="V124" s="71"/>
-      <c r="W124" s="71"/>
-      <c r="X124" s="71"/>
-      <c r="Y124" s="71"/>
-      <c r="Z124" s="71"/>
-      <c r="AA124" s="71"/>
-      <c r="AB124" s="71"/>
-      <c r="AC124" s="71"/>
-      <c r="AD124" s="71"/>
-      <c r="AE124" s="71"/>
-      <c r="AF124" s="71"/>
-      <c r="AG124" s="71"/>
-      <c r="AH124" s="71"/>
-      <c r="AI124" s="71"/>
+      <c r="A124" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B124" s="79"/>
+      <c r="C124" s="56"/>
+      <c r="D124" s="56"/>
+      <c r="E124" s="56"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="56"/>
+      <c r="H124" s="56"/>
+      <c r="I124" s="56"/>
+      <c r="J124" s="56"/>
+      <c r="K124" s="56"/>
+      <c r="L124" s="56"/>
+      <c r="M124" s="56"/>
+      <c r="N124" s="56"/>
+      <c r="O124" s="56"/>
+      <c r="P124" s="56"/>
+      <c r="Q124" s="56"/>
+      <c r="R124" s="56"/>
+      <c r="S124" s="56"/>
+      <c r="T124" s="56"/>
+      <c r="U124" s="56"/>
+      <c r="V124" s="56"/>
+      <c r="W124" s="56"/>
+      <c r="X124" s="56"/>
+      <c r="Y124" s="56"/>
+      <c r="Z124" s="56"/>
+      <c r="AA124" s="56"/>
+      <c r="AB124" s="56"/>
+      <c r="AC124" s="56"/>
+      <c r="AD124" s="56"/>
+      <c r="AE124" s="56"/>
+      <c r="AF124" s="56"/>
+      <c r="AG124" s="56"/>
+      <c r="AH124" s="56"/>
+      <c r="AI124" s="56"/>
     </row>
     <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B125" s="68" t="s">
-        <v>388</v>
-      </c>
-      <c r="C125" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="D125" s="71"/>
-      <c r="E125" s="71"/>
-      <c r="F125" s="69" t="s">
-        <v>401</v>
-      </c>
-      <c r="G125" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="H125" s="71"/>
-      <c r="I125" s="71"/>
-      <c r="J125" s="69"/>
-      <c r="K125" s="69"/>
-      <c r="L125" s="71"/>
-      <c r="M125" s="71"/>
-      <c r="N125" s="71"/>
-      <c r="O125" s="71"/>
-      <c r="P125" s="71"/>
-      <c r="Q125" s="71"/>
-      <c r="R125" s="71"/>
-      <c r="S125" s="71"/>
-      <c r="T125" s="71"/>
-      <c r="U125" s="71"/>
-      <c r="V125" s="71"/>
-      <c r="W125" s="71"/>
-      <c r="X125" s="71"/>
-      <c r="Y125" s="71"/>
-      <c r="Z125" s="71"/>
-      <c r="AA125" s="71"/>
-      <c r="AB125" s="71"/>
-      <c r="AC125" s="71"/>
-      <c r="AD125" s="71"/>
-      <c r="AE125" s="71"/>
-      <c r="AF125" s="71"/>
-      <c r="AG125" s="71"/>
-      <c r="AH125" s="71"/>
-      <c r="AI125" s="71"/>
+      <c r="A125" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" s="79"/>
+      <c r="C125" s="56"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="56"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="56"/>
+      <c r="K125" s="56"/>
+      <c r="L125" s="56"/>
+      <c r="M125" s="56"/>
+      <c r="N125" s="56"/>
+      <c r="O125" s="56"/>
+      <c r="P125" s="56"/>
+      <c r="Q125" s="56"/>
+      <c r="R125" s="56"/>
+      <c r="S125" s="56"/>
+      <c r="T125" s="56"/>
+      <c r="U125" s="56"/>
+      <c r="V125" s="56"/>
+      <c r="W125" s="56"/>
+      <c r="X125" s="56"/>
+      <c r="Y125" s="56"/>
+      <c r="Z125" s="56"/>
+      <c r="AA125" s="56"/>
+      <c r="AB125" s="56"/>
+      <c r="AC125" s="56"/>
+      <c r="AD125" s="56"/>
+      <c r="AE125" s="56"/>
+      <c r="AF125" s="56"/>
+      <c r="AG125" s="56"/>
+      <c r="AH125" s="56"/>
+      <c r="AI125" s="56"/>
     </row>
     <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B126" s="68" t="s">
-        <v>390</v>
-      </c>
-      <c r="C126" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="D126" s="71"/>
-      <c r="E126" s="71"/>
-      <c r="F126" s="69" t="s">
-        <v>401</v>
-      </c>
-      <c r="G126" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="H126" s="71"/>
-      <c r="I126" s="71"/>
-      <c r="J126" s="69"/>
-      <c r="K126" s="69"/>
-      <c r="L126" s="71"/>
-      <c r="M126" s="71"/>
-      <c r="N126" s="71"/>
-      <c r="O126" s="71"/>
-      <c r="P126" s="71"/>
-      <c r="Q126" s="71"/>
-      <c r="R126" s="71"/>
-      <c r="S126" s="71"/>
-      <c r="T126" s="71"/>
-      <c r="U126" s="71"/>
-      <c r="V126" s="71"/>
-      <c r="W126" s="71"/>
-      <c r="X126" s="71"/>
-      <c r="Y126" s="71"/>
-      <c r="Z126" s="71"/>
-      <c r="AA126" s="71"/>
-      <c r="AB126" s="71"/>
-      <c r="AC126" s="71"/>
-      <c r="AD126" s="71"/>
-      <c r="AE126" s="71"/>
-      <c r="AF126" s="71"/>
-      <c r="AG126" s="71"/>
-      <c r="AH126" s="71"/>
-      <c r="AI126" s="71"/>
+      <c r="A126" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B126" s="82" t="s">
+        <v>449</v>
+      </c>
+      <c r="C126" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="56"/>
+      <c r="E126" s="56"/>
+      <c r="F126" s="56"/>
+      <c r="G126" s="56"/>
+      <c r="H126" s="56"/>
+      <c r="I126" s="56"/>
+      <c r="J126" s="56"/>
+      <c r="K126" s="56" t="s">
+        <v>450</v>
+      </c>
+      <c r="L126" s="56"/>
+      <c r="M126" s="56"/>
+      <c r="N126" s="56"/>
+      <c r="O126" s="56"/>
+      <c r="P126" s="56"/>
+      <c r="Q126" s="56"/>
+      <c r="R126" s="56"/>
+      <c r="S126" s="56"/>
+      <c r="T126" s="56"/>
+      <c r="U126" s="56"/>
+      <c r="V126" s="56"/>
+      <c r="W126" s="56"/>
+      <c r="X126" s="56"/>
+      <c r="Y126" s="56"/>
+      <c r="Z126" s="56"/>
+      <c r="AA126" s="56"/>
+      <c r="AB126" s="56"/>
+      <c r="AC126" s="56"/>
+      <c r="AD126" s="56"/>
+      <c r="AE126" s="56"/>
+      <c r="AF126" s="56"/>
+      <c r="AG126" s="56"/>
+      <c r="AH126" s="56"/>
+      <c r="AI126" s="56"/>
     </row>
     <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B127" s="68" t="s">
-        <v>393</v>
-      </c>
-      <c r="C127" s="69" t="s">
-        <v>394</v>
-      </c>
-      <c r="D127" s="71"/>
-      <c r="E127" s="71"/>
-      <c r="F127" s="69" t="s">
-        <v>401</v>
-      </c>
-      <c r="G127" s="69"/>
-      <c r="H127" s="71"/>
-      <c r="I127" s="71"/>
-      <c r="J127" s="69"/>
-      <c r="K127" s="69"/>
-      <c r="L127" s="71"/>
-      <c r="M127" s="71"/>
-      <c r="N127" s="71"/>
-      <c r="O127" s="71"/>
-      <c r="P127" s="71"/>
-      <c r="Q127" s="71"/>
-      <c r="R127" s="71"/>
-      <c r="S127" s="71"/>
-      <c r="T127" s="71"/>
-      <c r="U127" s="71"/>
-      <c r="V127" s="71"/>
-      <c r="W127" s="71"/>
-      <c r="X127" s="71"/>
-      <c r="Y127" s="71"/>
-      <c r="Z127" s="71"/>
-      <c r="AA127" s="71"/>
-      <c r="AB127" s="71"/>
-      <c r="AC127" s="71"/>
-      <c r="AD127" s="71"/>
-      <c r="AE127" s="71"/>
-      <c r="AF127" s="71"/>
-      <c r="AG127" s="71"/>
-      <c r="AH127" s="71"/>
-      <c r="AI127" s="71"/>
-    </row>
-    <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="B128" s="68" t="s">
-        <v>395</v>
-      </c>
-      <c r="C128" s="69" t="s">
-        <v>396</v>
-      </c>
-      <c r="D128" s="71"/>
-      <c r="E128" s="71"/>
-      <c r="F128" s="69" t="s">
-        <v>401</v>
-      </c>
-      <c r="G128" s="69"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="71"/>
-      <c r="J128" s="69"/>
-      <c r="K128" s="69"/>
-      <c r="L128" s="71"/>
-      <c r="M128" s="71"/>
-      <c r="N128" s="71"/>
-      <c r="O128" s="71"/>
-      <c r="P128" s="71"/>
-      <c r="Q128" s="71"/>
-      <c r="R128" s="71"/>
-      <c r="S128" s="71"/>
-      <c r="T128" s="71"/>
-      <c r="U128" s="71"/>
-      <c r="V128" s="71"/>
-      <c r="W128" s="71"/>
-      <c r="X128" s="71"/>
-      <c r="Y128" s="71"/>
-      <c r="Z128" s="71"/>
-      <c r="AA128" s="71"/>
-      <c r="AB128" s="71"/>
-      <c r="AC128" s="71"/>
-      <c r="AD128" s="71"/>
-      <c r="AE128" s="71"/>
-      <c r="AF128" s="71"/>
-      <c r="AG128" s="71"/>
-      <c r="AH128" s="71"/>
-      <c r="AI128" s="71"/>
+      <c r="A127" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B127" s="78"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="56"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="40"/>
+      <c r="H127" s="40"/>
+      <c r="I127" s="56"/>
+      <c r="J127" s="56"/>
+      <c r="K127" s="56"/>
+      <c r="L127" s="56"/>
+      <c r="M127" s="51"/>
+      <c r="N127" s="51"/>
+      <c r="O127" s="51"/>
+      <c r="P127" s="51"/>
+      <c r="Q127" s="51"/>
+      <c r="R127" s="51"/>
+      <c r="S127" s="51"/>
+      <c r="T127" s="51"/>
+      <c r="U127" s="56"/>
+      <c r="V127" s="51"/>
+      <c r="W127" s="56"/>
+      <c r="X127" s="56"/>
+      <c r="Y127" s="56"/>
+      <c r="Z127" s="56"/>
+      <c r="AA127" s="56"/>
+      <c r="AB127" s="56"/>
+      <c r="AC127" s="56"/>
+      <c r="AD127" s="56"/>
+      <c r="AE127" s="56"/>
+      <c r="AF127" s="56"/>
+      <c r="AG127" s="56"/>
+      <c r="AH127" s="56"/>
+      <c r="AI127" s="56"/>
     </row>
     <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="68" t="s">
-        <v>349</v>
+        <v>32</v>
       </c>
       <c r="B129" s="68" t="s">
-        <v>397</v>
+        <v>347</v>
       </c>
       <c r="C129" s="69" t="s">
-        <v>398</v>
-      </c>
-      <c r="D129" s="71"/>
-      <c r="E129" s="71"/>
-      <c r="F129" s="69" t="s">
-        <v>401</v>
-      </c>
-      <c r="G129" s="69"/>
-      <c r="H129" s="71"/>
+        <v>35</v>
+      </c>
+      <c r="D129" s="70"/>
+      <c r="E129" s="70"/>
+      <c r="F129" s="71"/>
+      <c r="G129" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="H129" s="70"/>
       <c r="I129" s="71"/>
-      <c r="J129" s="69"/>
-      <c r="K129" s="69"/>
+      <c r="J129" s="71"/>
+      <c r="K129" s="71"/>
       <c r="L129" s="71"/>
-      <c r="M129" s="71"/>
-      <c r="N129" s="71"/>
-      <c r="O129" s="71"/>
-      <c r="P129" s="71"/>
-      <c r="Q129" s="71"/>
-      <c r="R129" s="71"/>
-      <c r="S129" s="71"/>
-      <c r="T129" s="71"/>
+      <c r="M129" s="69"/>
+      <c r="N129" s="69"/>
+      <c r="O129" s="69"/>
+      <c r="P129" s="69"/>
+      <c r="Q129" s="69"/>
+      <c r="R129" s="69"/>
+      <c r="S129" s="69"/>
+      <c r="T129" s="69"/>
       <c r="U129" s="71"/>
-      <c r="V129" s="71"/>
+      <c r="V129" s="69"/>
       <c r="W129" s="71"/>
       <c r="X129" s="71"/>
       <c r="Y129" s="71"/>
@@ -6923,37 +7001,43 @@
       <c r="AB129" s="71"/>
       <c r="AC129" s="71"/>
       <c r="AD129" s="71"/>
-      <c r="AE129" s="71"/>
+      <c r="AE129" s="71" t="s">
+        <v>39</v>
+      </c>
       <c r="AF129" s="71"/>
       <c r="AG129" s="71"/>
       <c r="AH129" s="71"/>
       <c r="AI129" s="71"/>
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B130" s="68"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="70"/>
-      <c r="E130" s="70"/>
+      <c r="A130" s="72" t="s">
+        <v>349</v>
+      </c>
+      <c r="B130" s="72" t="s">
+        <v>350</v>
+      </c>
+      <c r="C130" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="D130" s="71"/>
+      <c r="E130" s="71"/>
       <c r="F130" s="71"/>
       <c r="G130" s="71"/>
-      <c r="H130" s="70"/>
+      <c r="H130" s="71"/>
       <c r="I130" s="71"/>
       <c r="J130" s="71"/>
       <c r="K130" s="71"/>
       <c r="L130" s="71"/>
-      <c r="M130" s="69"/>
-      <c r="N130" s="69"/>
-      <c r="O130" s="69"/>
-      <c r="P130" s="69"/>
-      <c r="Q130" s="69"/>
-      <c r="R130" s="69"/>
-      <c r="S130" s="69"/>
-      <c r="T130" s="69"/>
+      <c r="M130" s="71"/>
+      <c r="N130" s="71"/>
+      <c r="O130" s="71"/>
+      <c r="P130" s="71"/>
+      <c r="Q130" s="71"/>
+      <c r="R130" s="71"/>
+      <c r="S130" s="71"/>
+      <c r="T130" s="71"/>
       <c r="U130" s="71"/>
-      <c r="V130" s="69"/>
+      <c r="V130" s="71"/>
       <c r="W130" s="71"/>
       <c r="X130" s="71"/>
       <c r="Y130" s="71"/>
@@ -6969,766 +7053,1917 @@
       <c r="AI130" s="71"/>
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="35"/>
-      <c r="C131" s="35"/>
-      <c r="E131" s="35"/>
-      <c r="AE131" s="35"/>
-      <c r="AF131" s="35"/>
-      <c r="AG131" s="35"/>
-      <c r="AH131" s="35"/>
-      <c r="AI131" s="35"/>
+      <c r="A131" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B131" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="C131" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="D131" s="71"/>
+      <c r="E131" s="71"/>
+      <c r="F131" s="71"/>
+      <c r="G131" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="H131" s="71"/>
+      <c r="I131" s="71"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="69"/>
+      <c r="L131" s="71"/>
+      <c r="M131" s="71"/>
+      <c r="N131" s="71"/>
+      <c r="O131" s="71"/>
+      <c r="P131" s="71"/>
+      <c r="Q131" s="71"/>
+      <c r="R131" s="71"/>
+      <c r="S131" s="71"/>
+      <c r="T131" s="71"/>
+      <c r="U131" s="71"/>
+      <c r="V131" s="71"/>
+      <c r="W131" s="71"/>
+      <c r="X131" s="71"/>
+      <c r="Y131" s="71"/>
+      <c r="Z131" s="71"/>
+      <c r="AA131" s="71"/>
+      <c r="AB131" s="71"/>
+      <c r="AC131" s="71"/>
+      <c r="AD131" s="71"/>
+      <c r="AE131" s="71"/>
+      <c r="AF131" s="71"/>
+      <c r="AG131" s="71"/>
+      <c r="AH131" s="71"/>
+      <c r="AI131" s="71"/>
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="73"/>
-      <c r="B132" s="73"/>
-      <c r="C132" s="74"/>
-      <c r="D132" s="74"/>
-      <c r="E132" s="74"/>
-      <c r="F132" s="74"/>
-      <c r="G132" s="75"/>
-      <c r="H132" s="74"/>
-      <c r="I132" s="74"/>
-      <c r="J132" s="74"/>
-      <c r="K132" s="75"/>
-      <c r="L132" s="74"/>
-      <c r="M132" s="74"/>
-      <c r="N132" s="74"/>
-      <c r="O132" s="74"/>
-      <c r="P132" s="74"/>
-      <c r="Q132" s="74"/>
-      <c r="R132" s="74"/>
-      <c r="S132" s="74"/>
-      <c r="T132" s="74"/>
-      <c r="U132" s="74"/>
-      <c r="V132" s="74"/>
-      <c r="W132" s="74"/>
-      <c r="X132" s="74"/>
-      <c r="Y132" s="74"/>
-      <c r="Z132" s="74"/>
-      <c r="AA132" s="74"/>
-      <c r="AB132" s="74"/>
-      <c r="AC132" s="74"/>
-      <c r="AD132" s="74"/>
-      <c r="AE132" s="75"/>
-      <c r="AF132" s="74"/>
-      <c r="AG132" s="74"/>
-      <c r="AH132" s="74"/>
-      <c r="AI132" s="74"/>
+      <c r="A132" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B132" s="68" t="s">
+        <v>355</v>
+      </c>
+      <c r="C132" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="D132" s="71"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="69"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="71"/>
+      <c r="J132" s="71"/>
+      <c r="K132" s="69"/>
+      <c r="L132" s="71"/>
+      <c r="M132" s="71"/>
+      <c r="N132" s="71"/>
+      <c r="O132" s="71"/>
+      <c r="P132" s="71"/>
+      <c r="Q132" s="71"/>
+      <c r="R132" s="71"/>
+      <c r="S132" s="71"/>
+      <c r="T132" s="71"/>
+      <c r="U132" s="71"/>
+      <c r="V132" s="71"/>
+      <c r="W132" s="71"/>
+      <c r="X132" s="71"/>
+      <c r="Y132" s="71"/>
+      <c r="Z132" s="71"/>
+      <c r="AA132" s="71"/>
+      <c r="AB132" s="71"/>
+      <c r="AC132" s="71"/>
+      <c r="AD132" s="71"/>
+      <c r="AE132" s="71"/>
+      <c r="AF132" s="71"/>
+      <c r="AG132" s="71"/>
+      <c r="AH132" s="71"/>
+      <c r="AI132" s="71"/>
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="73"/>
-      <c r="B133" s="76"/>
-      <c r="C133" s="74"/>
-      <c r="D133" s="74"/>
-      <c r="E133" s="74"/>
-      <c r="F133" s="74"/>
-      <c r="G133" s="74"/>
-      <c r="H133" s="74"/>
-      <c r="I133" s="74"/>
-      <c r="J133" s="74"/>
-      <c r="K133" s="74"/>
-      <c r="L133" s="74"/>
-      <c r="M133" s="74"/>
-      <c r="N133" s="74"/>
-      <c r="O133" s="74"/>
-      <c r="P133" s="74"/>
-      <c r="Q133" s="74"/>
-      <c r="R133" s="74"/>
-      <c r="S133" s="74"/>
-      <c r="T133" s="74"/>
-      <c r="U133" s="74"/>
-      <c r="V133" s="74"/>
-      <c r="W133" s="74"/>
-      <c r="X133" s="74"/>
-      <c r="Y133" s="74"/>
-      <c r="Z133" s="74"/>
-      <c r="AA133" s="74"/>
-      <c r="AB133" s="74"/>
-      <c r="AC133" s="74"/>
-      <c r="AD133" s="74"/>
-      <c r="AE133" s="74"/>
-      <c r="AF133" s="74"/>
-      <c r="AG133" s="75"/>
-      <c r="AH133" s="74"/>
-      <c r="AI133" s="74"/>
+      <c r="A133" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B133" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="C133" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="D133" s="71"/>
+      <c r="E133" s="71"/>
+      <c r="F133" s="71"/>
+      <c r="G133" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="H133" s="71"/>
+      <c r="I133" s="71"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="69"/>
+      <c r="L133" s="71"/>
+      <c r="M133" s="71"/>
+      <c r="N133" s="71"/>
+      <c r="O133" s="71"/>
+      <c r="P133" s="71"/>
+      <c r="Q133" s="71"/>
+      <c r="R133" s="71"/>
+      <c r="S133" s="71"/>
+      <c r="T133" s="71"/>
+      <c r="U133" s="71"/>
+      <c r="V133" s="71"/>
+      <c r="W133" s="71"/>
+      <c r="X133" s="71"/>
+      <c r="Y133" s="71"/>
+      <c r="Z133" s="71"/>
+      <c r="AA133" s="71"/>
+      <c r="AB133" s="71"/>
+      <c r="AC133" s="71"/>
+      <c r="AD133" s="71"/>
+      <c r="AE133" s="71"/>
+      <c r="AF133" s="71"/>
+      <c r="AG133" s="71"/>
+      <c r="AH133" s="71"/>
+      <c r="AI133" s="71"/>
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="73"/>
-      <c r="B134" s="76"/>
-      <c r="C134" s="74"/>
-      <c r="D134" s="74"/>
-      <c r="E134" s="74"/>
-      <c r="F134" s="74"/>
-      <c r="G134" s="74"/>
-      <c r="H134" s="74"/>
-      <c r="I134" s="74"/>
-      <c r="J134" s="74"/>
-      <c r="K134" s="74"/>
-      <c r="L134" s="74"/>
-      <c r="M134" s="74"/>
-      <c r="N134" s="74"/>
-      <c r="O134" s="74"/>
-      <c r="P134" s="74"/>
-      <c r="Q134" s="74"/>
-      <c r="R134" s="74"/>
-      <c r="S134" s="74"/>
-      <c r="T134" s="74"/>
-      <c r="U134" s="74"/>
-      <c r="V134" s="74"/>
-      <c r="W134" s="74"/>
-      <c r="X134" s="74"/>
-      <c r="Y134" s="74"/>
-      <c r="Z134" s="74"/>
-      <c r="AA134" s="74"/>
-      <c r="AB134" s="74"/>
-      <c r="AC134" s="74"/>
-      <c r="AD134" s="74"/>
-      <c r="AE134" s="74"/>
-      <c r="AF134" s="74"/>
-      <c r="AG134" s="75"/>
-      <c r="AH134" s="74"/>
-      <c r="AI134" s="74"/>
+      <c r="A134" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B134" s="68" t="s">
+        <v>359</v>
+      </c>
+      <c r="C134" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="D134" s="71"/>
+      <c r="E134" s="71"/>
+      <c r="F134" s="70"/>
+      <c r="G134" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="H134" s="71"/>
+      <c r="I134" s="71"/>
+      <c r="J134" s="70"/>
+      <c r="K134" s="69"/>
+      <c r="L134" s="71"/>
+      <c r="M134" s="71"/>
+      <c r="N134" s="71"/>
+      <c r="O134" s="71"/>
+      <c r="P134" s="71"/>
+      <c r="Q134" s="71"/>
+      <c r="R134" s="71"/>
+      <c r="S134" s="71"/>
+      <c r="T134" s="71"/>
+      <c r="U134" s="71"/>
+      <c r="V134" s="71"/>
+      <c r="W134" s="71"/>
+      <c r="X134" s="71"/>
+      <c r="Y134" s="71"/>
+      <c r="Z134" s="71"/>
+      <c r="AA134" s="71"/>
+      <c r="AB134" s="71"/>
+      <c r="AC134" s="71"/>
+      <c r="AD134" s="71"/>
+      <c r="AE134" s="71"/>
+      <c r="AF134" s="71"/>
+      <c r="AG134" s="71"/>
+      <c r="AH134" s="71"/>
+      <c r="AI134" s="71"/>
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="73"/>
-      <c r="B135" s="76"/>
-      <c r="C135" s="74"/>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="74"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="74"/>
-      <c r="I135" s="74"/>
-      <c r="J135" s="74"/>
-      <c r="K135" s="74"/>
-      <c r="L135" s="74"/>
-      <c r="M135" s="74"/>
-      <c r="N135" s="74"/>
-      <c r="O135" s="74"/>
-      <c r="P135" s="74"/>
-      <c r="Q135" s="74"/>
-      <c r="R135" s="74"/>
-      <c r="S135" s="74"/>
-      <c r="T135" s="74"/>
-      <c r="U135" s="74"/>
-      <c r="V135" s="74"/>
-      <c r="W135" s="74"/>
-      <c r="X135" s="74"/>
-      <c r="Y135" s="74"/>
-      <c r="Z135" s="74"/>
-      <c r="AA135" s="74"/>
-      <c r="AB135" s="74"/>
-      <c r="AC135" s="74"/>
-      <c r="AD135" s="74"/>
-      <c r="AE135" s="74"/>
-      <c r="AF135" s="74"/>
-      <c r="AG135" s="75"/>
-      <c r="AH135" s="74"/>
-      <c r="AI135" s="74"/>
+      <c r="A135" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B135" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="C135" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="D135" s="70"/>
+      <c r="E135" s="70"/>
+      <c r="F135" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="G135" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="H135" s="70"/>
+      <c r="I135" s="71"/>
+      <c r="J135" s="69"/>
+      <c r="K135" s="71"/>
+      <c r="L135" s="71"/>
+      <c r="M135" s="69"/>
+      <c r="N135" s="69"/>
+      <c r="O135" s="69"/>
+      <c r="P135" s="69"/>
+      <c r="Q135" s="69"/>
+      <c r="R135" s="69"/>
+      <c r="S135" s="69"/>
+      <c r="T135" s="69"/>
+      <c r="U135" s="71"/>
+      <c r="V135" s="69"/>
+      <c r="W135" s="71"/>
+      <c r="X135" s="71"/>
+      <c r="Y135" s="71"/>
+      <c r="Z135" s="71"/>
+      <c r="AA135" s="71"/>
+      <c r="AB135" s="71"/>
+      <c r="AC135" s="71"/>
+      <c r="AD135" s="71"/>
+      <c r="AE135" s="71"/>
+      <c r="AF135" s="71"/>
+      <c r="AG135" s="71"/>
+      <c r="AH135" s="71"/>
+      <c r="AI135" s="71"/>
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="73"/>
-      <c r="B136" s="76"/>
-      <c r="C136" s="74"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="74"/>
-      <c r="F136" s="74"/>
-      <c r="G136" s="74"/>
-      <c r="H136" s="74"/>
-      <c r="I136" s="74"/>
-      <c r="J136" s="74"/>
-      <c r="K136" s="74"/>
-      <c r="L136" s="74"/>
-      <c r="M136" s="74"/>
-      <c r="N136" s="74"/>
-      <c r="O136" s="74"/>
-      <c r="P136" s="74"/>
-      <c r="Q136" s="74"/>
-      <c r="R136" s="74"/>
-      <c r="S136" s="74"/>
-      <c r="T136" s="74"/>
-      <c r="U136" s="74"/>
-      <c r="V136" s="74"/>
-      <c r="W136" s="74"/>
-      <c r="X136" s="74"/>
-      <c r="Y136" s="74"/>
-      <c r="Z136" s="74"/>
-      <c r="AA136" s="74"/>
-      <c r="AB136" s="74"/>
-      <c r="AC136" s="74"/>
-      <c r="AD136" s="74"/>
-      <c r="AE136" s="74"/>
-      <c r="AF136" s="74"/>
-      <c r="AG136" s="75"/>
-      <c r="AH136" s="74"/>
-      <c r="AI136" s="74"/>
+      <c r="A136" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B136" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="C136" s="69" t="s">
+        <v>366</v>
+      </c>
+      <c r="D136" s="70"/>
+      <c r="E136" s="70"/>
+      <c r="F136" s="69" t="s">
+        <v>399</v>
+      </c>
+      <c r="G136" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="H136" s="70"/>
+      <c r="I136" s="71"/>
+      <c r="J136" s="69"/>
+      <c r="K136" s="71"/>
+      <c r="L136" s="71"/>
+      <c r="M136" s="69"/>
+      <c r="N136" s="69"/>
+      <c r="O136" s="69"/>
+      <c r="P136" s="69"/>
+      <c r="Q136" s="69"/>
+      <c r="R136" s="69"/>
+      <c r="S136" s="69"/>
+      <c r="T136" s="69"/>
+      <c r="U136" s="71"/>
+      <c r="V136" s="69"/>
+      <c r="W136" s="71"/>
+      <c r="X136" s="71"/>
+      <c r="Y136" s="71"/>
+      <c r="Z136" s="71"/>
+      <c r="AA136" s="71"/>
+      <c r="AB136" s="71"/>
+      <c r="AC136" s="71"/>
+      <c r="AD136" s="71"/>
+      <c r="AE136" s="71"/>
+      <c r="AF136" s="71"/>
+      <c r="AG136" s="71"/>
+      <c r="AH136" s="71"/>
+      <c r="AI136" s="71"/>
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="73"/>
-      <c r="B137" s="76"/>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="74"/>
-      <c r="H137" s="74"/>
-      <c r="I137" s="74"/>
-      <c r="J137" s="74"/>
-      <c r="K137" s="74"/>
-      <c r="L137" s="74"/>
-      <c r="M137" s="74"/>
-      <c r="N137" s="74"/>
-      <c r="O137" s="74"/>
-      <c r="P137" s="74"/>
-      <c r="Q137" s="74"/>
-      <c r="R137" s="74"/>
-      <c r="S137" s="74"/>
-      <c r="T137" s="74"/>
-      <c r="U137" s="74"/>
-      <c r="V137" s="74"/>
-      <c r="W137" s="74"/>
-      <c r="X137" s="74"/>
-      <c r="Y137" s="74"/>
-      <c r="Z137" s="74"/>
-      <c r="AA137" s="74"/>
-      <c r="AB137" s="74"/>
-      <c r="AC137" s="74"/>
-      <c r="AD137" s="74"/>
-      <c r="AE137" s="74"/>
-      <c r="AF137" s="74"/>
-      <c r="AG137" s="75"/>
-      <c r="AH137" s="74"/>
-      <c r="AI137" s="74"/>
+      <c r="A137" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B137" s="68" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" s="69" t="s">
+        <v>368</v>
+      </c>
+      <c r="D137" s="70"/>
+      <c r="E137" s="70"/>
+      <c r="F137" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="G137" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="H137" s="70"/>
+      <c r="I137" s="71"/>
+      <c r="J137" s="69"/>
+      <c r="K137" s="71"/>
+      <c r="L137" s="71"/>
+      <c r="M137" s="69"/>
+      <c r="N137" s="69"/>
+      <c r="O137" s="69"/>
+      <c r="P137" s="69"/>
+      <c r="Q137" s="69"/>
+      <c r="R137" s="69"/>
+      <c r="S137" s="69"/>
+      <c r="T137" s="69"/>
+      <c r="U137" s="71"/>
+      <c r="V137" s="69"/>
+      <c r="W137" s="71"/>
+      <c r="X137" s="71"/>
+      <c r="Y137" s="71"/>
+      <c r="Z137" s="71"/>
+      <c r="AA137" s="71"/>
+      <c r="AB137" s="71"/>
+      <c r="AC137" s="71"/>
+      <c r="AD137" s="71"/>
+      <c r="AE137" s="71"/>
+      <c r="AF137" s="71"/>
+      <c r="AG137" s="71"/>
+      <c r="AH137" s="71"/>
+      <c r="AI137" s="71"/>
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="73"/>
-      <c r="B138" s="76"/>
-      <c r="C138" s="74"/>
-      <c r="D138" s="74"/>
-      <c r="E138" s="74"/>
-      <c r="F138" s="74"/>
-      <c r="G138" s="74"/>
-      <c r="H138" s="74"/>
-      <c r="I138" s="74"/>
-      <c r="J138" s="74"/>
-      <c r="K138" s="74"/>
-      <c r="L138" s="74"/>
-      <c r="M138" s="74"/>
-      <c r="N138" s="74"/>
-      <c r="O138" s="74"/>
-      <c r="P138" s="74"/>
-      <c r="Q138" s="74"/>
-      <c r="R138" s="74"/>
-      <c r="S138" s="74"/>
-      <c r="T138" s="74"/>
-      <c r="U138" s="74"/>
-      <c r="V138" s="74"/>
-      <c r="W138" s="74"/>
-      <c r="X138" s="74"/>
-      <c r="Y138" s="74"/>
-      <c r="Z138" s="74"/>
-      <c r="AA138" s="74"/>
-      <c r="AB138" s="74"/>
-      <c r="AC138" s="74"/>
-      <c r="AD138" s="74"/>
-      <c r="AE138" s="74"/>
-      <c r="AF138" s="74"/>
-      <c r="AG138" s="75"/>
-      <c r="AH138" s="74"/>
-      <c r="AI138" s="74"/>
+      <c r="A138" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B138" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="C138" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="D138" s="71"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="G138" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="H138" s="71"/>
+      <c r="I138" s="71"/>
+      <c r="J138" s="69"/>
+      <c r="K138" s="69"/>
+      <c r="L138" s="71"/>
+      <c r="M138" s="71"/>
+      <c r="N138" s="71"/>
+      <c r="O138" s="71"/>
+      <c r="P138" s="71"/>
+      <c r="Q138" s="71"/>
+      <c r="R138" s="71"/>
+      <c r="S138" s="71"/>
+      <c r="T138" s="71"/>
+      <c r="U138" s="71"/>
+      <c r="V138" s="71"/>
+      <c r="W138" s="71"/>
+      <c r="X138" s="71"/>
+      <c r="Y138" s="71"/>
+      <c r="Z138" s="71"/>
+      <c r="AA138" s="71"/>
+      <c r="AB138" s="71"/>
+      <c r="AC138" s="71"/>
+      <c r="AD138" s="71"/>
+      <c r="AE138" s="71"/>
+      <c r="AF138" s="71"/>
+      <c r="AG138" s="71"/>
+      <c r="AH138" s="71"/>
+      <c r="AI138" s="71"/>
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="73"/>
-      <c r="B139" s="76"/>
-      <c r="C139" s="74"/>
-      <c r="D139" s="74"/>
-      <c r="E139" s="74"/>
-      <c r="F139" s="74"/>
-      <c r="G139" s="74"/>
-      <c r="H139" s="74"/>
-      <c r="I139" s="74"/>
-      <c r="J139" s="74"/>
-      <c r="K139" s="74"/>
-      <c r="L139" s="74"/>
-      <c r="M139" s="74"/>
-      <c r="N139" s="74"/>
-      <c r="O139" s="74"/>
-      <c r="P139" s="74"/>
-      <c r="Q139" s="74"/>
-      <c r="R139" s="74"/>
-      <c r="S139" s="74"/>
-      <c r="T139" s="74"/>
-      <c r="U139" s="74"/>
-      <c r="V139" s="74"/>
-      <c r="W139" s="74"/>
-      <c r="X139" s="74"/>
-      <c r="Y139" s="74"/>
-      <c r="Z139" s="74"/>
-      <c r="AA139" s="74"/>
-      <c r="AB139" s="74"/>
-      <c r="AC139" s="74"/>
-      <c r="AD139" s="74"/>
-      <c r="AE139" s="74"/>
-      <c r="AF139" s="74"/>
-      <c r="AG139" s="75"/>
-      <c r="AH139" s="74"/>
-      <c r="AI139" s="74"/>
+      <c r="A139" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B139" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C139" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="D139" s="70"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="G139" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="H139" s="70"/>
+      <c r="I139" s="71"/>
+      <c r="J139" s="69"/>
+      <c r="K139" s="71"/>
+      <c r="L139" s="71"/>
+      <c r="M139" s="69"/>
+      <c r="N139" s="69"/>
+      <c r="O139" s="69"/>
+      <c r="P139" s="69"/>
+      <c r="Q139" s="69"/>
+      <c r="R139" s="69"/>
+      <c r="S139" s="69"/>
+      <c r="T139" s="69"/>
+      <c r="U139" s="71"/>
+      <c r="V139" s="69"/>
+      <c r="W139" s="71"/>
+      <c r="X139" s="71"/>
+      <c r="Y139" s="71"/>
+      <c r="Z139" s="71"/>
+      <c r="AA139" s="71"/>
+      <c r="AB139" s="71"/>
+      <c r="AC139" s="71"/>
+      <c r="AD139" s="71"/>
+      <c r="AE139" s="71"/>
+      <c r="AF139" s="71"/>
+      <c r="AG139" s="71"/>
+      <c r="AH139" s="71"/>
+      <c r="AI139" s="71"/>
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="73"/>
-      <c r="B140" s="76"/>
-      <c r="C140" s="74"/>
-      <c r="D140" s="74"/>
-      <c r="E140" s="74"/>
-      <c r="F140" s="74"/>
-      <c r="G140" s="74"/>
-      <c r="H140" s="74"/>
-      <c r="I140" s="74"/>
-      <c r="J140" s="74"/>
-      <c r="K140" s="74"/>
-      <c r="L140" s="74"/>
-      <c r="M140" s="74"/>
-      <c r="N140" s="74"/>
-      <c r="O140" s="74"/>
-      <c r="P140" s="74"/>
-      <c r="Q140" s="74"/>
-      <c r="R140" s="74"/>
-      <c r="S140" s="74"/>
-      <c r="T140" s="74"/>
-      <c r="U140" s="74"/>
-      <c r="V140" s="74"/>
-      <c r="W140" s="74"/>
-      <c r="X140" s="74"/>
-      <c r="Y140" s="74"/>
-      <c r="Z140" s="74"/>
-      <c r="AA140" s="74"/>
-      <c r="AB140" s="74"/>
-      <c r="AC140" s="74"/>
-      <c r="AD140" s="74"/>
-      <c r="AE140" s="74"/>
-      <c r="AF140" s="74"/>
-      <c r="AG140" s="75"/>
-      <c r="AH140" s="74"/>
-      <c r="AI140" s="74"/>
+      <c r="A140" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B140" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="C140" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="D140" s="70"/>
+      <c r="E140" s="70"/>
+      <c r="F140" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="G140" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="H140" s="70"/>
+      <c r="I140" s="71"/>
+      <c r="J140" s="69"/>
+      <c r="K140" s="71"/>
+      <c r="L140" s="71"/>
+      <c r="M140" s="69"/>
+      <c r="N140" s="69"/>
+      <c r="O140" s="69"/>
+      <c r="P140" s="69"/>
+      <c r="Q140" s="69"/>
+      <c r="R140" s="69"/>
+      <c r="S140" s="69"/>
+      <c r="T140" s="69"/>
+      <c r="U140" s="71"/>
+      <c r="V140" s="69"/>
+      <c r="W140" s="71"/>
+      <c r="X140" s="71"/>
+      <c r="Y140" s="71"/>
+      <c r="Z140" s="71"/>
+      <c r="AA140" s="71"/>
+      <c r="AB140" s="71"/>
+      <c r="AC140" s="71"/>
+      <c r="AD140" s="71"/>
+      <c r="AE140" s="71"/>
+      <c r="AF140" s="71"/>
+      <c r="AG140" s="71"/>
+      <c r="AH140" s="71"/>
+      <c r="AI140" s="71"/>
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="73"/>
-      <c r="B141" s="76"/>
-      <c r="C141" s="74"/>
-      <c r="D141" s="74"/>
-      <c r="E141" s="74"/>
-      <c r="F141" s="74"/>
-      <c r="G141" s="74"/>
-      <c r="H141" s="74"/>
-      <c r="I141" s="74"/>
-      <c r="J141" s="74"/>
-      <c r="K141" s="74"/>
-      <c r="L141" s="74"/>
-      <c r="M141" s="74"/>
-      <c r="N141" s="74"/>
-      <c r="O141" s="74"/>
-      <c r="P141" s="74"/>
-      <c r="Q141" s="74"/>
-      <c r="R141" s="74"/>
-      <c r="S141" s="74"/>
-      <c r="T141" s="74"/>
-      <c r="U141" s="74"/>
-      <c r="V141" s="74"/>
-      <c r="W141" s="74"/>
-      <c r="X141" s="74"/>
-      <c r="Y141" s="74"/>
-      <c r="Z141" s="74"/>
-      <c r="AA141" s="74"/>
-      <c r="AB141" s="74"/>
-      <c r="AC141" s="74"/>
-      <c r="AD141" s="74"/>
-      <c r="AE141" s="74"/>
-      <c r="AF141" s="74"/>
-      <c r="AG141" s="75"/>
-      <c r="AH141" s="74"/>
-      <c r="AI141" s="74"/>
+      <c r="A141" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B141" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="C141" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="D141" s="70"/>
+      <c r="E141" s="70"/>
+      <c r="F141" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="G141" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="H141" s="70"/>
+      <c r="I141" s="71"/>
+      <c r="J141" s="69"/>
+      <c r="K141" s="69"/>
+      <c r="L141" s="71"/>
+      <c r="M141" s="69"/>
+      <c r="N141" s="69"/>
+      <c r="O141" s="69"/>
+      <c r="P141" s="69"/>
+      <c r="Q141" s="69"/>
+      <c r="R141" s="69"/>
+      <c r="S141" s="69"/>
+      <c r="T141" s="69"/>
+      <c r="U141" s="71"/>
+      <c r="V141" s="69"/>
+      <c r="W141" s="71"/>
+      <c r="X141" s="71"/>
+      <c r="Y141" s="71"/>
+      <c r="Z141" s="71"/>
+      <c r="AA141" s="71"/>
+      <c r="AB141" s="71"/>
+      <c r="AC141" s="71"/>
+      <c r="AD141" s="71"/>
+      <c r="AE141" s="71"/>
+      <c r="AF141" s="71"/>
+      <c r="AG141" s="71"/>
+      <c r="AH141" s="71"/>
+      <c r="AI141" s="71"/>
     </row>
     <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="73"/>
-      <c r="B142" s="76"/>
-      <c r="C142" s="74"/>
-      <c r="D142" s="74"/>
-      <c r="E142" s="74"/>
-      <c r="F142" s="74"/>
-      <c r="G142" s="74"/>
-      <c r="H142" s="74"/>
-      <c r="I142" s="74"/>
-      <c r="J142" s="74"/>
-      <c r="K142" s="74"/>
-      <c r="L142" s="74"/>
-      <c r="M142" s="74"/>
-      <c r="N142" s="74"/>
-      <c r="O142" s="74"/>
-      <c r="P142" s="74"/>
-      <c r="Q142" s="74"/>
-      <c r="R142" s="74"/>
-      <c r="S142" s="74"/>
-      <c r="T142" s="74"/>
-      <c r="U142" s="74"/>
-      <c r="V142" s="74"/>
-      <c r="W142" s="74"/>
-      <c r="X142" s="74"/>
-      <c r="Y142" s="74"/>
-      <c r="Z142" s="74"/>
-      <c r="AA142" s="74"/>
-      <c r="AB142" s="74"/>
-      <c r="AC142" s="74"/>
-      <c r="AD142" s="74"/>
-      <c r="AE142" s="74"/>
-      <c r="AF142" s="74"/>
-      <c r="AG142" s="75"/>
-      <c r="AH142" s="74"/>
-      <c r="AI142" s="74"/>
+      <c r="A142" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B142" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" s="69" t="s">
+        <v>378</v>
+      </c>
+      <c r="D142" s="71"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="G142" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="H142" s="71"/>
+      <c r="I142" s="71"/>
+      <c r="J142" s="69"/>
+      <c r="K142" s="69"/>
+      <c r="L142" s="71"/>
+      <c r="M142" s="71"/>
+      <c r="N142" s="71"/>
+      <c r="O142" s="71"/>
+      <c r="P142" s="71"/>
+      <c r="Q142" s="71"/>
+      <c r="R142" s="71"/>
+      <c r="S142" s="71"/>
+      <c r="T142" s="71"/>
+      <c r="U142" s="71"/>
+      <c r="V142" s="71"/>
+      <c r="W142" s="71"/>
+      <c r="X142" s="71"/>
+      <c r="Y142" s="71"/>
+      <c r="Z142" s="71"/>
+      <c r="AA142" s="71"/>
+      <c r="AB142" s="71"/>
+      <c r="AC142" s="71"/>
+      <c r="AD142" s="71"/>
+      <c r="AE142" s="71"/>
+      <c r="AF142" s="71"/>
+      <c r="AG142" s="71"/>
+      <c r="AH142" s="71"/>
+      <c r="AI142" s="71"/>
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="73"/>
-      <c r="B143" s="76"/>
-      <c r="C143" s="74"/>
-      <c r="D143" s="74"/>
-      <c r="E143" s="74"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="74"/>
-      <c r="H143" s="74"/>
-      <c r="I143" s="74"/>
-      <c r="J143" s="74"/>
-      <c r="K143" s="74"/>
-      <c r="L143" s="74"/>
-      <c r="M143" s="74"/>
-      <c r="N143" s="74"/>
-      <c r="O143" s="74"/>
-      <c r="P143" s="74"/>
-      <c r="Q143" s="74"/>
-      <c r="R143" s="74"/>
-      <c r="S143" s="74"/>
-      <c r="T143" s="74"/>
-      <c r="U143" s="74"/>
-      <c r="V143" s="74"/>
-      <c r="W143" s="74"/>
-      <c r="X143" s="74"/>
-      <c r="Y143" s="74"/>
-      <c r="Z143" s="74"/>
-      <c r="AA143" s="74"/>
-      <c r="AB143" s="74"/>
-      <c r="AC143" s="74"/>
-      <c r="AD143" s="74"/>
-      <c r="AE143" s="74"/>
-      <c r="AF143" s="74"/>
-      <c r="AG143" s="75"/>
-      <c r="AH143" s="74"/>
-      <c r="AI143" s="74"/>
+      <c r="A143" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B143" s="68" t="s">
+        <v>379</v>
+      </c>
+      <c r="C143" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="D143" s="71"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="G143" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="H143" s="71"/>
+      <c r="I143" s="71"/>
+      <c r="J143" s="69"/>
+      <c r="K143" s="69"/>
+      <c r="L143" s="71"/>
+      <c r="M143" s="71"/>
+      <c r="N143" s="71"/>
+      <c r="O143" s="71"/>
+      <c r="P143" s="71"/>
+      <c r="Q143" s="71"/>
+      <c r="R143" s="71"/>
+      <c r="S143" s="71"/>
+      <c r="T143" s="71"/>
+      <c r="U143" s="71"/>
+      <c r="V143" s="71"/>
+      <c r="W143" s="71"/>
+      <c r="X143" s="71"/>
+      <c r="Y143" s="71"/>
+      <c r="Z143" s="71"/>
+      <c r="AA143" s="71"/>
+      <c r="AB143" s="71"/>
+      <c r="AC143" s="71"/>
+      <c r="AD143" s="71"/>
+      <c r="AE143" s="71"/>
+      <c r="AF143" s="71"/>
+      <c r="AG143" s="71"/>
+      <c r="AH143" s="71"/>
+      <c r="AI143" s="71"/>
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="77"/>
-      <c r="B144" s="77"/>
-      <c r="C144" s="74"/>
-      <c r="D144" s="75"/>
-      <c r="E144" s="75"/>
-      <c r="F144" s="75"/>
-      <c r="G144" s="75"/>
-      <c r="H144" s="75"/>
-      <c r="I144" s="75"/>
-      <c r="J144" s="75"/>
-      <c r="K144" s="75"/>
-      <c r="L144" s="75"/>
-      <c r="M144" s="75"/>
-      <c r="N144" s="75"/>
-      <c r="O144" s="75"/>
-      <c r="P144" s="75"/>
-      <c r="Q144" s="75"/>
-      <c r="R144" s="75"/>
-      <c r="S144" s="75"/>
-      <c r="T144" s="75"/>
-      <c r="U144" s="75"/>
-      <c r="V144" s="75"/>
-      <c r="W144" s="75"/>
-      <c r="X144" s="75"/>
-      <c r="Y144" s="75"/>
-      <c r="Z144" s="75"/>
-      <c r="AA144" s="75"/>
-      <c r="AB144" s="75"/>
-      <c r="AC144" s="75"/>
-      <c r="AD144" s="75"/>
-      <c r="AE144" s="75"/>
-      <c r="AF144" s="75"/>
-      <c r="AG144" s="75"/>
-      <c r="AH144" s="75"/>
-      <c r="AI144" s="75"/>
+      <c r="A144" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B144" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="C144" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="D144" s="71"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="G144" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="H144" s="71"/>
+      <c r="I144" s="71"/>
+      <c r="J144" s="69"/>
+      <c r="K144" s="69"/>
+      <c r="L144" s="71"/>
+      <c r="M144" s="71"/>
+      <c r="N144" s="71"/>
+      <c r="O144" s="71"/>
+      <c r="P144" s="71"/>
+      <c r="Q144" s="71"/>
+      <c r="R144" s="71"/>
+      <c r="S144" s="71"/>
+      <c r="T144" s="71"/>
+      <c r="U144" s="71"/>
+      <c r="V144" s="71"/>
+      <c r="W144" s="71"/>
+      <c r="X144" s="71"/>
+      <c r="Y144" s="71"/>
+      <c r="Z144" s="71"/>
+      <c r="AA144" s="71"/>
+      <c r="AB144" s="71"/>
+      <c r="AC144" s="71"/>
+      <c r="AD144" s="71"/>
+      <c r="AE144" s="71"/>
+      <c r="AF144" s="71"/>
+      <c r="AG144" s="71"/>
+      <c r="AH144" s="71"/>
+      <c r="AI144" s="71"/>
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="73"/>
-      <c r="B145" s="76"/>
-      <c r="C145" s="74"/>
-      <c r="D145" s="74"/>
-      <c r="E145" s="74"/>
-      <c r="F145" s="74"/>
-      <c r="G145" s="74"/>
-      <c r="H145" s="74"/>
-      <c r="I145" s="74"/>
-      <c r="J145" s="74"/>
-      <c r="K145" s="74"/>
-      <c r="L145" s="74"/>
-      <c r="M145" s="74"/>
-      <c r="N145" s="74"/>
-      <c r="O145" s="74"/>
-      <c r="P145" s="74"/>
-      <c r="Q145" s="74"/>
-      <c r="R145" s="74"/>
-      <c r="S145" s="74"/>
-      <c r="T145" s="75"/>
-      <c r="U145" s="74"/>
-      <c r="V145" s="74"/>
-      <c r="W145" s="74"/>
-      <c r="X145" s="74"/>
-      <c r="Y145" s="74"/>
-      <c r="Z145" s="74"/>
-      <c r="AA145" s="74"/>
-      <c r="AB145" s="74"/>
-      <c r="AC145" s="74"/>
-      <c r="AD145" s="74"/>
-      <c r="AE145" s="74"/>
-      <c r="AF145" s="74"/>
-      <c r="AG145" s="75"/>
-      <c r="AH145" s="74"/>
-      <c r="AI145" s="74"/>
+      <c r="A145" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B145" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="C145" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D145" s="71"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="G145" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="H145" s="71"/>
+      <c r="I145" s="71"/>
+      <c r="J145" s="69"/>
+      <c r="K145" s="69"/>
+      <c r="L145" s="71"/>
+      <c r="M145" s="71"/>
+      <c r="N145" s="71"/>
+      <c r="O145" s="71"/>
+      <c r="P145" s="71"/>
+      <c r="Q145" s="71"/>
+      <c r="R145" s="71"/>
+      <c r="S145" s="71"/>
+      <c r="T145" s="71"/>
+      <c r="U145" s="71"/>
+      <c r="V145" s="71"/>
+      <c r="W145" s="71"/>
+      <c r="X145" s="71"/>
+      <c r="Y145" s="71"/>
+      <c r="Z145" s="71"/>
+      <c r="AA145" s="71"/>
+      <c r="AB145" s="71"/>
+      <c r="AC145" s="71"/>
+      <c r="AD145" s="71"/>
+      <c r="AE145" s="71"/>
+      <c r="AF145" s="71"/>
+      <c r="AG145" s="71"/>
+      <c r="AH145" s="71"/>
+      <c r="AI145" s="71"/>
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="73"/>
-      <c r="B146" s="76"/>
-      <c r="C146" s="74"/>
-      <c r="D146" s="74"/>
-      <c r="E146" s="74"/>
-      <c r="F146" s="74"/>
-      <c r="G146" s="74"/>
-      <c r="H146" s="74"/>
-      <c r="I146" s="74"/>
-      <c r="J146" s="74"/>
-      <c r="K146" s="74"/>
-      <c r="L146" s="74"/>
-      <c r="M146" s="74"/>
-      <c r="N146" s="74"/>
-      <c r="O146" s="74"/>
-      <c r="P146" s="74"/>
-      <c r="Q146" s="74"/>
-      <c r="R146" s="74"/>
-      <c r="S146" s="74"/>
-      <c r="T146" s="75"/>
-      <c r="U146" s="74"/>
-      <c r="V146" s="74"/>
-      <c r="W146" s="74"/>
-      <c r="X146" s="74"/>
-      <c r="Y146" s="74"/>
-      <c r="Z146" s="74"/>
-      <c r="AA146" s="74"/>
-      <c r="AB146" s="74"/>
-      <c r="AC146" s="74"/>
-      <c r="AD146" s="74"/>
-      <c r="AE146" s="74"/>
-      <c r="AF146" s="74"/>
-      <c r="AG146" s="75"/>
-      <c r="AH146" s="74"/>
-      <c r="AI146" s="74"/>
+      <c r="A146" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B146" s="68" t="s">
+        <v>384</v>
+      </c>
+      <c r="C146" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="D146" s="71"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="69" t="s">
+        <v>405</v>
+      </c>
+      <c r="G146" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="H146" s="71"/>
+      <c r="I146" s="71"/>
+      <c r="J146" s="69"/>
+      <c r="K146" s="69"/>
+      <c r="L146" s="71"/>
+      <c r="M146" s="71"/>
+      <c r="N146" s="71"/>
+      <c r="O146" s="71"/>
+      <c r="P146" s="71"/>
+      <c r="Q146" s="71"/>
+      <c r="R146" s="71"/>
+      <c r="S146" s="71"/>
+      <c r="T146" s="71"/>
+      <c r="U146" s="71"/>
+      <c r="V146" s="71"/>
+      <c r="W146" s="71"/>
+      <c r="X146" s="71"/>
+      <c r="Y146" s="71"/>
+      <c r="Z146" s="71"/>
+      <c r="AA146" s="71"/>
+      <c r="AB146" s="71"/>
+      <c r="AC146" s="71"/>
+      <c r="AD146" s="71"/>
+      <c r="AE146" s="71"/>
+      <c r="AF146" s="71"/>
+      <c r="AG146" s="71"/>
+      <c r="AH146" s="71"/>
+      <c r="AI146" s="71"/>
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="73"/>
-      <c r="B147" s="76"/>
-      <c r="C147" s="74"/>
-      <c r="D147" s="74"/>
-      <c r="E147" s="74"/>
-      <c r="F147" s="74"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="74"/>
-      <c r="I147" s="74"/>
-      <c r="J147" s="74"/>
-      <c r="K147" s="74"/>
-      <c r="L147" s="74"/>
-      <c r="M147" s="74"/>
-      <c r="N147" s="74"/>
-      <c r="O147" s="74"/>
-      <c r="P147" s="74"/>
-      <c r="Q147" s="74"/>
-      <c r="R147" s="74"/>
-      <c r="S147" s="74"/>
-      <c r="T147" s="75"/>
-      <c r="U147" s="74"/>
-      <c r="V147" s="74"/>
-      <c r="W147" s="74"/>
-      <c r="X147" s="74"/>
-      <c r="Y147" s="74"/>
-      <c r="Z147" s="74"/>
-      <c r="AA147" s="74"/>
-      <c r="AB147" s="74"/>
-      <c r="AC147" s="74"/>
-      <c r="AD147" s="74"/>
-      <c r="AE147" s="74"/>
-      <c r="AF147" s="74"/>
-      <c r="AG147" s="75"/>
-      <c r="AH147" s="74"/>
-      <c r="AI147" s="74"/>
+      <c r="A147" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B147" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="C147" s="69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D147" s="71"/>
+      <c r="E147" s="71"/>
+      <c r="F147" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="G147" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="H147" s="71"/>
+      <c r="I147" s="71"/>
+      <c r="J147" s="69"/>
+      <c r="K147" s="69"/>
+      <c r="L147" s="71"/>
+      <c r="M147" s="71"/>
+      <c r="N147" s="71"/>
+      <c r="O147" s="71"/>
+      <c r="P147" s="71"/>
+      <c r="Q147" s="71"/>
+      <c r="R147" s="71"/>
+      <c r="S147" s="71"/>
+      <c r="T147" s="71"/>
+      <c r="U147" s="71"/>
+      <c r="V147" s="71"/>
+      <c r="W147" s="71"/>
+      <c r="X147" s="71"/>
+      <c r="Y147" s="71"/>
+      <c r="Z147" s="71"/>
+      <c r="AA147" s="71"/>
+      <c r="AB147" s="71"/>
+      <c r="AC147" s="71"/>
+      <c r="AD147" s="71"/>
+      <c r="AE147" s="71"/>
+      <c r="AF147" s="71"/>
+      <c r="AG147" s="71"/>
+      <c r="AH147" s="71"/>
+      <c r="AI147" s="71"/>
     </row>
     <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="73"/>
-      <c r="B148" s="76"/>
-      <c r="C148" s="74"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="74"/>
-      <c r="F148" s="74"/>
-      <c r="G148" s="74"/>
-      <c r="H148" s="74"/>
-      <c r="I148" s="74"/>
-      <c r="J148" s="74"/>
-      <c r="K148" s="74"/>
-      <c r="L148" s="74"/>
-      <c r="M148" s="74"/>
-      <c r="N148" s="74"/>
-      <c r="O148" s="74"/>
-      <c r="P148" s="74"/>
-      <c r="Q148" s="74"/>
-      <c r="R148" s="74"/>
-      <c r="S148" s="74"/>
-      <c r="T148" s="75"/>
-      <c r="U148" s="74"/>
-      <c r="V148" s="74"/>
-      <c r="W148" s="74"/>
-      <c r="X148" s="74"/>
-      <c r="Y148" s="74"/>
-      <c r="Z148" s="74"/>
-      <c r="AA148" s="74"/>
-      <c r="AB148" s="74"/>
-      <c r="AC148" s="74"/>
-      <c r="AD148" s="74"/>
-      <c r="AE148" s="74"/>
-      <c r="AF148" s="74"/>
-      <c r="AG148" s="75"/>
-      <c r="AH148" s="74"/>
-      <c r="AI148" s="74"/>
+      <c r="A148" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B148" s="68" t="s">
+        <v>386</v>
+      </c>
+      <c r="C148" s="69" t="s">
+        <v>184</v>
+      </c>
+      <c r="D148" s="71"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="G148" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="H148" s="71"/>
+      <c r="I148" s="71"/>
+      <c r="J148" s="69"/>
+      <c r="K148" s="69"/>
+      <c r="L148" s="71"/>
+      <c r="M148" s="71"/>
+      <c r="N148" s="71"/>
+      <c r="O148" s="71"/>
+      <c r="P148" s="71"/>
+      <c r="Q148" s="71"/>
+      <c r="R148" s="71"/>
+      <c r="S148" s="71"/>
+      <c r="T148" s="71"/>
+      <c r="U148" s="71"/>
+      <c r="V148" s="71"/>
+      <c r="W148" s="71"/>
+      <c r="X148" s="71"/>
+      <c r="Y148" s="71"/>
+      <c r="Z148" s="71"/>
+      <c r="AA148" s="71"/>
+      <c r="AB148" s="71"/>
+      <c r="AC148" s="71"/>
+      <c r="AD148" s="71"/>
+      <c r="AE148" s="71"/>
+      <c r="AF148" s="71"/>
+      <c r="AG148" s="71"/>
+      <c r="AH148" s="71"/>
+      <c r="AI148" s="71"/>
     </row>
     <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="73"/>
-      <c r="B149" s="76"/>
-      <c r="C149" s="74"/>
-      <c r="D149" s="74"/>
-      <c r="E149" s="74"/>
-      <c r="F149" s="74"/>
-      <c r="G149" s="74"/>
-      <c r="H149" s="74"/>
-      <c r="I149" s="74"/>
-      <c r="J149" s="74"/>
-      <c r="K149" s="74"/>
-      <c r="L149" s="74"/>
-      <c r="M149" s="74"/>
-      <c r="N149" s="74"/>
-      <c r="O149" s="74"/>
-      <c r="P149" s="74"/>
-      <c r="Q149" s="74"/>
-      <c r="R149" s="74"/>
-      <c r="S149" s="74"/>
-      <c r="T149" s="75"/>
-      <c r="U149" s="74"/>
-      <c r="V149" s="74"/>
-      <c r="W149" s="74"/>
-      <c r="X149" s="74"/>
-      <c r="Y149" s="74"/>
-      <c r="Z149" s="74"/>
-      <c r="AA149" s="74"/>
-      <c r="AB149" s="74"/>
-      <c r="AC149" s="74"/>
-      <c r="AD149" s="74"/>
-      <c r="AE149" s="74"/>
-      <c r="AF149" s="74"/>
-      <c r="AG149" s="75"/>
-      <c r="AH149" s="74"/>
-      <c r="AI149" s="74"/>
+      <c r="A149" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B149" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="C149" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="D149" s="71"/>
+      <c r="E149" s="71"/>
+      <c r="F149" s="69" t="s">
+        <v>408</v>
+      </c>
+      <c r="G149" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="H149" s="71"/>
+      <c r="I149" s="71"/>
+      <c r="J149" s="69"/>
+      <c r="K149" s="69"/>
+      <c r="L149" s="71"/>
+      <c r="M149" s="71"/>
+      <c r="N149" s="71"/>
+      <c r="O149" s="71"/>
+      <c r="P149" s="71"/>
+      <c r="Q149" s="71"/>
+      <c r="R149" s="71"/>
+      <c r="S149" s="71"/>
+      <c r="T149" s="71"/>
+      <c r="U149" s="71"/>
+      <c r="V149" s="71"/>
+      <c r="W149" s="71"/>
+      <c r="X149" s="71"/>
+      <c r="Y149" s="71"/>
+      <c r="Z149" s="71"/>
+      <c r="AA149" s="71"/>
+      <c r="AB149" s="71"/>
+      <c r="AC149" s="71"/>
+      <c r="AD149" s="71"/>
+      <c r="AE149" s="71"/>
+      <c r="AF149" s="71"/>
+      <c r="AG149" s="71"/>
+      <c r="AH149" s="71"/>
+      <c r="AI149" s="71"/>
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="77"/>
-      <c r="B150" s="77"/>
-      <c r="C150" s="75"/>
-      <c r="D150" s="75"/>
-      <c r="E150" s="75"/>
-      <c r="F150" s="75"/>
-      <c r="G150" s="75"/>
-      <c r="H150" s="75"/>
-      <c r="I150" s="75"/>
-      <c r="J150" s="75"/>
-      <c r="K150" s="75"/>
-      <c r="L150" s="75"/>
-      <c r="M150" s="75"/>
-      <c r="N150" s="75"/>
-      <c r="O150" s="75"/>
-      <c r="P150" s="75"/>
-      <c r="Q150" s="75"/>
-      <c r="R150" s="75"/>
-      <c r="S150" s="75"/>
-      <c r="T150" s="75"/>
-      <c r="U150" s="75"/>
-      <c r="V150" s="75"/>
-      <c r="W150" s="75"/>
-      <c r="X150" s="75"/>
-      <c r="Y150" s="75"/>
-      <c r="Z150" s="75"/>
-      <c r="AA150" s="75"/>
-      <c r="AB150" s="75"/>
-      <c r="AC150" s="75"/>
-      <c r="AD150" s="75"/>
-      <c r="AE150" s="75"/>
-      <c r="AF150" s="75"/>
-      <c r="AG150" s="75"/>
-      <c r="AH150" s="75"/>
-      <c r="AI150" s="75"/>
+      <c r="A150" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B150" s="68" t="s">
+        <v>388</v>
+      </c>
+      <c r="C150" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="D150" s="71"/>
+      <c r="E150" s="71"/>
+      <c r="F150" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="G150" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="H150" s="71"/>
+      <c r="I150" s="71"/>
+      <c r="J150" s="69"/>
+      <c r="K150" s="69"/>
+      <c r="L150" s="71"/>
+      <c r="M150" s="71"/>
+      <c r="N150" s="71"/>
+      <c r="O150" s="71"/>
+      <c r="P150" s="71"/>
+      <c r="Q150" s="71"/>
+      <c r="R150" s="71"/>
+      <c r="S150" s="71"/>
+      <c r="T150" s="71"/>
+      <c r="U150" s="71"/>
+      <c r="V150" s="71"/>
+      <c r="W150" s="71"/>
+      <c r="X150" s="71"/>
+      <c r="Y150" s="71"/>
+      <c r="Z150" s="71"/>
+      <c r="AA150" s="71"/>
+      <c r="AB150" s="71"/>
+      <c r="AC150" s="71"/>
+      <c r="AD150" s="71"/>
+      <c r="AE150" s="71"/>
+      <c r="AF150" s="71"/>
+      <c r="AG150" s="71"/>
+      <c r="AH150" s="71"/>
+      <c r="AI150" s="71"/>
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="77"/>
-      <c r="B151" s="77"/>
-      <c r="C151" s="75"/>
-      <c r="D151" s="75"/>
-      <c r="E151" s="75"/>
-      <c r="F151" s="75"/>
-      <c r="G151" s="75"/>
-      <c r="H151" s="75"/>
-      <c r="I151" s="75"/>
-      <c r="J151" s="75"/>
-      <c r="K151" s="75"/>
-      <c r="L151" s="75"/>
-      <c r="M151" s="75"/>
-      <c r="N151" s="75"/>
-      <c r="O151" s="75"/>
-      <c r="P151" s="75"/>
-      <c r="Q151" s="75"/>
-      <c r="R151" s="75"/>
-      <c r="S151" s="75"/>
-      <c r="T151" s="75"/>
-      <c r="U151" s="75"/>
-      <c r="V151" s="75"/>
-      <c r="W151" s="75"/>
-      <c r="X151" s="75"/>
-      <c r="Y151" s="75"/>
-      <c r="Z151" s="75"/>
-      <c r="AA151" s="75"/>
-      <c r="AB151" s="75"/>
-      <c r="AC151" s="75"/>
-      <c r="AD151" s="75"/>
-      <c r="AE151" s="75"/>
-      <c r="AF151" s="75"/>
-      <c r="AG151" s="75"/>
-      <c r="AH151" s="75"/>
-      <c r="AI151" s="75"/>
+      <c r="A151" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B151" s="68" t="s">
+        <v>390</v>
+      </c>
+      <c r="C151" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="D151" s="71"/>
+      <c r="E151" s="71"/>
+      <c r="F151" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="G151" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="H151" s="71"/>
+      <c r="I151" s="71"/>
+      <c r="J151" s="69"/>
+      <c r="K151" s="69"/>
+      <c r="L151" s="71"/>
+      <c r="M151" s="71"/>
+      <c r="N151" s="71"/>
+      <c r="O151" s="71"/>
+      <c r="P151" s="71"/>
+      <c r="Q151" s="71"/>
+      <c r="R151" s="71"/>
+      <c r="S151" s="71"/>
+      <c r="T151" s="71"/>
+      <c r="U151" s="71"/>
+      <c r="V151" s="71"/>
+      <c r="W151" s="71"/>
+      <c r="X151" s="71"/>
+      <c r="Y151" s="71"/>
+      <c r="Z151" s="71"/>
+      <c r="AA151" s="71"/>
+      <c r="AB151" s="71"/>
+      <c r="AC151" s="71"/>
+      <c r="AD151" s="71"/>
+      <c r="AE151" s="71"/>
+      <c r="AF151" s="71"/>
+      <c r="AG151" s="71"/>
+      <c r="AH151" s="71"/>
+      <c r="AI151" s="71"/>
+    </row>
+    <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B152" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C152" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="D152" s="71"/>
+      <c r="E152" s="71"/>
+      <c r="F152" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="G152" s="69"/>
+      <c r="H152" s="71"/>
+      <c r="I152" s="71"/>
+      <c r="J152" s="69"/>
+      <c r="K152" s="69"/>
+      <c r="L152" s="71"/>
+      <c r="M152" s="71"/>
+      <c r="N152" s="71"/>
+      <c r="O152" s="71"/>
+      <c r="P152" s="71"/>
+      <c r="Q152" s="71"/>
+      <c r="R152" s="71"/>
+      <c r="S152" s="71"/>
+      <c r="T152" s="71"/>
+      <c r="U152" s="71"/>
+      <c r="V152" s="71"/>
+      <c r="W152" s="71"/>
+      <c r="X152" s="71"/>
+      <c r="Y152" s="71"/>
+      <c r="Z152" s="71"/>
+      <c r="AA152" s="71"/>
+      <c r="AB152" s="71"/>
+      <c r="AC152" s="71"/>
+      <c r="AD152" s="71"/>
+      <c r="AE152" s="71"/>
+      <c r="AF152" s="71"/>
+      <c r="AG152" s="71"/>
+      <c r="AH152" s="71"/>
+      <c r="AI152" s="71"/>
+    </row>
+    <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B153" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="C153" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="D153" s="71"/>
+      <c r="E153" s="71"/>
+      <c r="F153" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="G153" s="69"/>
+      <c r="H153" s="71"/>
+      <c r="I153" s="71"/>
+      <c r="J153" s="69"/>
+      <c r="K153" s="69"/>
+      <c r="L153" s="71"/>
+      <c r="M153" s="71"/>
+      <c r="N153" s="71"/>
+      <c r="O153" s="71"/>
+      <c r="P153" s="71"/>
+      <c r="Q153" s="71"/>
+      <c r="R153" s="71"/>
+      <c r="S153" s="71"/>
+      <c r="T153" s="71"/>
+      <c r="U153" s="71"/>
+      <c r="V153" s="71"/>
+      <c r="W153" s="71"/>
+      <c r="X153" s="71"/>
+      <c r="Y153" s="71"/>
+      <c r="Z153" s="71"/>
+      <c r="AA153" s="71"/>
+      <c r="AB153" s="71"/>
+      <c r="AC153" s="71"/>
+      <c r="AD153" s="71"/>
+      <c r="AE153" s="71"/>
+      <c r="AF153" s="71"/>
+      <c r="AG153" s="71"/>
+      <c r="AH153" s="71"/>
+      <c r="AI153" s="71"/>
+    </row>
+    <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="B154" s="68" t="s">
+        <v>397</v>
+      </c>
+      <c r="C154" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="D154" s="71"/>
+      <c r="E154" s="71"/>
+      <c r="F154" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="G154" s="69"/>
+      <c r="H154" s="71"/>
+      <c r="I154" s="71"/>
+      <c r="J154" s="69"/>
+      <c r="K154" s="69"/>
+      <c r="L154" s="71"/>
+      <c r="M154" s="71"/>
+      <c r="N154" s="71"/>
+      <c r="O154" s="71"/>
+      <c r="P154" s="71"/>
+      <c r="Q154" s="71"/>
+      <c r="R154" s="71"/>
+      <c r="S154" s="71"/>
+      <c r="T154" s="71"/>
+      <c r="U154" s="71"/>
+      <c r="V154" s="71"/>
+      <c r="W154" s="71"/>
+      <c r="X154" s="71"/>
+      <c r="Y154" s="71"/>
+      <c r="Z154" s="71"/>
+      <c r="AA154" s="71"/>
+      <c r="AB154" s="71"/>
+      <c r="AC154" s="71"/>
+      <c r="AD154" s="71"/>
+      <c r="AE154" s="71"/>
+      <c r="AF154" s="71"/>
+      <c r="AG154" s="71"/>
+      <c r="AH154" s="71"/>
+      <c r="AI154" s="71"/>
+    </row>
+    <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B155" s="68"/>
+      <c r="C155" s="69"/>
+      <c r="D155" s="70"/>
+      <c r="E155" s="70"/>
+      <c r="F155" s="71"/>
+      <c r="G155" s="71"/>
+      <c r="H155" s="70"/>
+      <c r="I155" s="71"/>
+      <c r="J155" s="71"/>
+      <c r="K155" s="71"/>
+      <c r="L155" s="71"/>
+      <c r="M155" s="69"/>
+      <c r="N155" s="69"/>
+      <c r="O155" s="69"/>
+      <c r="P155" s="69"/>
+      <c r="Q155" s="69"/>
+      <c r="R155" s="69"/>
+      <c r="S155" s="69"/>
+      <c r="T155" s="69"/>
+      <c r="U155" s="71"/>
+      <c r="V155" s="69"/>
+      <c r="W155" s="71"/>
+      <c r="X155" s="71"/>
+      <c r="Y155" s="71"/>
+      <c r="Z155" s="71"/>
+      <c r="AA155" s="71"/>
+      <c r="AB155" s="71"/>
+      <c r="AC155" s="71"/>
+      <c r="AD155" s="71"/>
+      <c r="AE155" s="71"/>
+      <c r="AF155" s="71"/>
+      <c r="AG155" s="71"/>
+      <c r="AH155" s="71"/>
+      <c r="AI155" s="71"/>
+    </row>
+    <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="35"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="E156" s="35"/>
+      <c r="AE156" s="35"/>
+      <c r="AF156" s="35"/>
+      <c r="AG156" s="35"/>
+      <c r="AH156" s="35"/>
+      <c r="AI156" s="35"/>
+    </row>
+    <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="73"/>
+      <c r="B157" s="73"/>
+      <c r="C157" s="74"/>
+      <c r="D157" s="74"/>
+      <c r="E157" s="74"/>
+      <c r="F157" s="74"/>
+      <c r="G157" s="75"/>
+      <c r="H157" s="74"/>
+      <c r="I157" s="74"/>
+      <c r="J157" s="74"/>
+      <c r="K157" s="75"/>
+      <c r="L157" s="74"/>
+      <c r="M157" s="74"/>
+      <c r="N157" s="74"/>
+      <c r="O157" s="74"/>
+      <c r="P157" s="74"/>
+      <c r="Q157" s="74"/>
+      <c r="R157" s="74"/>
+      <c r="S157" s="74"/>
+      <c r="T157" s="74"/>
+      <c r="U157" s="74"/>
+      <c r="V157" s="74"/>
+      <c r="W157" s="74"/>
+      <c r="X157" s="74"/>
+      <c r="Y157" s="74"/>
+      <c r="Z157" s="74"/>
+      <c r="AA157" s="74"/>
+      <c r="AB157" s="74"/>
+      <c r="AC157" s="74"/>
+      <c r="AD157" s="74"/>
+      <c r="AE157" s="75"/>
+      <c r="AF157" s="74"/>
+      <c r="AG157" s="74"/>
+      <c r="AH157" s="74"/>
+      <c r="AI157" s="74"/>
+    </row>
+    <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="73"/>
+      <c r="B158" s="76"/>
+      <c r="C158" s="74"/>
+      <c r="D158" s="74"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="74"/>
+      <c r="G158" s="74"/>
+      <c r="H158" s="74"/>
+      <c r="I158" s="74"/>
+      <c r="J158" s="74"/>
+      <c r="K158" s="74"/>
+      <c r="L158" s="74"/>
+      <c r="M158" s="74"/>
+      <c r="N158" s="74"/>
+      <c r="O158" s="74"/>
+      <c r="P158" s="74"/>
+      <c r="Q158" s="74"/>
+      <c r="R158" s="74"/>
+      <c r="S158" s="74"/>
+      <c r="T158" s="74"/>
+      <c r="U158" s="74"/>
+      <c r="V158" s="74"/>
+      <c r="W158" s="74"/>
+      <c r="X158" s="74"/>
+      <c r="Y158" s="74"/>
+      <c r="Z158" s="74"/>
+      <c r="AA158" s="74"/>
+      <c r="AB158" s="74"/>
+      <c r="AC158" s="74"/>
+      <c r="AD158" s="74"/>
+      <c r="AE158" s="74"/>
+      <c r="AF158" s="74"/>
+      <c r="AG158" s="75"/>
+      <c r="AH158" s="74"/>
+      <c r="AI158" s="74"/>
+    </row>
+    <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="73"/>
+      <c r="B159" s="76"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="74"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="74"/>
+      <c r="G159" s="74"/>
+      <c r="H159" s="74"/>
+      <c r="I159" s="74"/>
+      <c r="J159" s="74"/>
+      <c r="K159" s="74"/>
+      <c r="L159" s="74"/>
+      <c r="M159" s="74"/>
+      <c r="N159" s="74"/>
+      <c r="O159" s="74"/>
+      <c r="P159" s="74"/>
+      <c r="Q159" s="74"/>
+      <c r="R159" s="74"/>
+      <c r="S159" s="74"/>
+      <c r="T159" s="74"/>
+      <c r="U159" s="74"/>
+      <c r="V159" s="74"/>
+      <c r="W159" s="74"/>
+      <c r="X159" s="74"/>
+      <c r="Y159" s="74"/>
+      <c r="Z159" s="74"/>
+      <c r="AA159" s="74"/>
+      <c r="AB159" s="74"/>
+      <c r="AC159" s="74"/>
+      <c r="AD159" s="74"/>
+      <c r="AE159" s="74"/>
+      <c r="AF159" s="74"/>
+      <c r="AG159" s="75"/>
+      <c r="AH159" s="74"/>
+      <c r="AI159" s="74"/>
+    </row>
+    <row r="160" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="73"/>
+      <c r="B160" s="76"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="74"/>
+      <c r="E160" s="74"/>
+      <c r="F160" s="74"/>
+      <c r="G160" s="74"/>
+      <c r="H160" s="74"/>
+      <c r="I160" s="74"/>
+      <c r="J160" s="74"/>
+      <c r="K160" s="74"/>
+      <c r="L160" s="74"/>
+      <c r="M160" s="74"/>
+      <c r="N160" s="74"/>
+      <c r="O160" s="74"/>
+      <c r="P160" s="74"/>
+      <c r="Q160" s="74"/>
+      <c r="R160" s="74"/>
+      <c r="S160" s="74"/>
+      <c r="T160" s="74"/>
+      <c r="U160" s="74"/>
+      <c r="V160" s="74"/>
+      <c r="W160" s="74"/>
+      <c r="X160" s="74"/>
+      <c r="Y160" s="74"/>
+      <c r="Z160" s="74"/>
+      <c r="AA160" s="74"/>
+      <c r="AB160" s="74"/>
+      <c r="AC160" s="74"/>
+      <c r="AD160" s="74"/>
+      <c r="AE160" s="74"/>
+      <c r="AF160" s="74"/>
+      <c r="AG160" s="75"/>
+      <c r="AH160" s="74"/>
+      <c r="AI160" s="74"/>
+    </row>
+    <row r="161" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="73"/>
+      <c r="B161" s="76"/>
+      <c r="C161" s="74"/>
+      <c r="D161" s="74"/>
+      <c r="E161" s="74"/>
+      <c r="F161" s="74"/>
+      <c r="G161" s="74"/>
+      <c r="H161" s="74"/>
+      <c r="I161" s="74"/>
+      <c r="J161" s="74"/>
+      <c r="K161" s="74"/>
+      <c r="L161" s="74"/>
+      <c r="M161" s="74"/>
+      <c r="N161" s="74"/>
+      <c r="O161" s="74"/>
+      <c r="P161" s="74"/>
+      <c r="Q161" s="74"/>
+      <c r="R161" s="74"/>
+      <c r="S161" s="74"/>
+      <c r="T161" s="74"/>
+      <c r="U161" s="74"/>
+      <c r="V161" s="74"/>
+      <c r="W161" s="74"/>
+      <c r="X161" s="74"/>
+      <c r="Y161" s="74"/>
+      <c r="Z161" s="74"/>
+      <c r="AA161" s="74"/>
+      <c r="AB161" s="74"/>
+      <c r="AC161" s="74"/>
+      <c r="AD161" s="74"/>
+      <c r="AE161" s="74"/>
+      <c r="AF161" s="74"/>
+      <c r="AG161" s="75"/>
+      <c r="AH161" s="74"/>
+      <c r="AI161" s="74"/>
+    </row>
+    <row r="162" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="73"/>
+      <c r="B162" s="76"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="74"/>
+      <c r="E162" s="74"/>
+      <c r="F162" s="74"/>
+      <c r="G162" s="74"/>
+      <c r="H162" s="74"/>
+      <c r="I162" s="74"/>
+      <c r="J162" s="74"/>
+      <c r="K162" s="74"/>
+      <c r="L162" s="74"/>
+      <c r="M162" s="74"/>
+      <c r="N162" s="74"/>
+      <c r="O162" s="74"/>
+      <c r="P162" s="74"/>
+      <c r="Q162" s="74"/>
+      <c r="R162" s="74"/>
+      <c r="S162" s="74"/>
+      <c r="T162" s="74"/>
+      <c r="U162" s="74"/>
+      <c r="V162" s="74"/>
+      <c r="W162" s="74"/>
+      <c r="X162" s="74"/>
+      <c r="Y162" s="74"/>
+      <c r="Z162" s="74"/>
+      <c r="AA162" s="74"/>
+      <c r="AB162" s="74"/>
+      <c r="AC162" s="74"/>
+      <c r="AD162" s="74"/>
+      <c r="AE162" s="74"/>
+      <c r="AF162" s="74"/>
+      <c r="AG162" s="75"/>
+      <c r="AH162" s="74"/>
+      <c r="AI162" s="74"/>
+    </row>
+    <row r="163" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="73"/>
+      <c r="B163" s="76"/>
+      <c r="C163" s="74"/>
+      <c r="D163" s="74"/>
+      <c r="E163" s="74"/>
+      <c r="F163" s="74"/>
+      <c r="G163" s="74"/>
+      <c r="H163" s="74"/>
+      <c r="I163" s="74"/>
+      <c r="J163" s="74"/>
+      <c r="K163" s="74"/>
+      <c r="L163" s="74"/>
+      <c r="M163" s="74"/>
+      <c r="N163" s="74"/>
+      <c r="O163" s="74"/>
+      <c r="P163" s="74"/>
+      <c r="Q163" s="74"/>
+      <c r="R163" s="74"/>
+      <c r="S163" s="74"/>
+      <c r="T163" s="74"/>
+      <c r="U163" s="74"/>
+      <c r="V163" s="74"/>
+      <c r="W163" s="74"/>
+      <c r="X163" s="74"/>
+      <c r="Y163" s="74"/>
+      <c r="Z163" s="74"/>
+      <c r="AA163" s="74"/>
+      <c r="AB163" s="74"/>
+      <c r="AC163" s="74"/>
+      <c r="AD163" s="74"/>
+      <c r="AE163" s="74"/>
+      <c r="AF163" s="74"/>
+      <c r="AG163" s="75"/>
+      <c r="AH163" s="74"/>
+      <c r="AI163" s="74"/>
+    </row>
+    <row r="164" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="73"/>
+      <c r="B164" s="76"/>
+      <c r="C164" s="74"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="74"/>
+      <c r="F164" s="74"/>
+      <c r="G164" s="74"/>
+      <c r="H164" s="74"/>
+      <c r="I164" s="74"/>
+      <c r="J164" s="74"/>
+      <c r="K164" s="74"/>
+      <c r="L164" s="74"/>
+      <c r="M164" s="74"/>
+      <c r="N164" s="74"/>
+      <c r="O164" s="74"/>
+      <c r="P164" s="74"/>
+      <c r="Q164" s="74"/>
+      <c r="R164" s="74"/>
+      <c r="S164" s="74"/>
+      <c r="T164" s="74"/>
+      <c r="U164" s="74"/>
+      <c r="V164" s="74"/>
+      <c r="W164" s="74"/>
+      <c r="X164" s="74"/>
+      <c r="Y164" s="74"/>
+      <c r="Z164" s="74"/>
+      <c r="AA164" s="74"/>
+      <c r="AB164" s="74"/>
+      <c r="AC164" s="74"/>
+      <c r="AD164" s="74"/>
+      <c r="AE164" s="74"/>
+      <c r="AF164" s="74"/>
+      <c r="AG164" s="75"/>
+      <c r="AH164" s="74"/>
+      <c r="AI164" s="74"/>
+    </row>
+    <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="73"/>
+      <c r="B165" s="76"/>
+      <c r="C165" s="74"/>
+      <c r="D165" s="74"/>
+      <c r="E165" s="74"/>
+      <c r="F165" s="74"/>
+      <c r="G165" s="74"/>
+      <c r="H165" s="74"/>
+      <c r="I165" s="74"/>
+      <c r="J165" s="74"/>
+      <c r="K165" s="74"/>
+      <c r="L165" s="74"/>
+      <c r="M165" s="74"/>
+      <c r="N165" s="74"/>
+      <c r="O165" s="74"/>
+      <c r="P165" s="74"/>
+      <c r="Q165" s="74"/>
+      <c r="R165" s="74"/>
+      <c r="S165" s="74"/>
+      <c r="T165" s="74"/>
+      <c r="U165" s="74"/>
+      <c r="V165" s="74"/>
+      <c r="W165" s="74"/>
+      <c r="X165" s="74"/>
+      <c r="Y165" s="74"/>
+      <c r="Z165" s="74"/>
+      <c r="AA165" s="74"/>
+      <c r="AB165" s="74"/>
+      <c r="AC165" s="74"/>
+      <c r="AD165" s="74"/>
+      <c r="AE165" s="74"/>
+      <c r="AF165" s="74"/>
+      <c r="AG165" s="75"/>
+      <c r="AH165" s="74"/>
+      <c r="AI165" s="74"/>
+    </row>
+    <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="73"/>
+      <c r="B166" s="76"/>
+      <c r="C166" s="74"/>
+      <c r="D166" s="74"/>
+      <c r="E166" s="74"/>
+      <c r="F166" s="74"/>
+      <c r="G166" s="74"/>
+      <c r="H166" s="74"/>
+      <c r="I166" s="74"/>
+      <c r="J166" s="74"/>
+      <c r="K166" s="74"/>
+      <c r="L166" s="74"/>
+      <c r="M166" s="74"/>
+      <c r="N166" s="74"/>
+      <c r="O166" s="74"/>
+      <c r="P166" s="74"/>
+      <c r="Q166" s="74"/>
+      <c r="R166" s="74"/>
+      <c r="S166" s="74"/>
+      <c r="T166" s="74"/>
+      <c r="U166" s="74"/>
+      <c r="V166" s="74"/>
+      <c r="W166" s="74"/>
+      <c r="X166" s="74"/>
+      <c r="Y166" s="74"/>
+      <c r="Z166" s="74"/>
+      <c r="AA166" s="74"/>
+      <c r="AB166" s="74"/>
+      <c r="AC166" s="74"/>
+      <c r="AD166" s="74"/>
+      <c r="AE166" s="74"/>
+      <c r="AF166" s="74"/>
+      <c r="AG166" s="75"/>
+      <c r="AH166" s="74"/>
+      <c r="AI166" s="74"/>
+    </row>
+    <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="73"/>
+      <c r="B167" s="76"/>
+      <c r="C167" s="74"/>
+      <c r="D167" s="74"/>
+      <c r="E167" s="74"/>
+      <c r="F167" s="74"/>
+      <c r="G167" s="74"/>
+      <c r="H167" s="74"/>
+      <c r="I167" s="74"/>
+      <c r="J167" s="74"/>
+      <c r="K167" s="74"/>
+      <c r="L167" s="74"/>
+      <c r="M167" s="74"/>
+      <c r="N167" s="74"/>
+      <c r="O167" s="74"/>
+      <c r="P167" s="74"/>
+      <c r="Q167" s="74"/>
+      <c r="R167" s="74"/>
+      <c r="S167" s="74"/>
+      <c r="T167" s="74"/>
+      <c r="U167" s="74"/>
+      <c r="V167" s="74"/>
+      <c r="W167" s="74"/>
+      <c r="X167" s="74"/>
+      <c r="Y167" s="74"/>
+      <c r="Z167" s="74"/>
+      <c r="AA167" s="74"/>
+      <c r="AB167" s="74"/>
+      <c r="AC167" s="74"/>
+      <c r="AD167" s="74"/>
+      <c r="AE167" s="74"/>
+      <c r="AF167" s="74"/>
+      <c r="AG167" s="75"/>
+      <c r="AH167" s="74"/>
+      <c r="AI167" s="74"/>
+    </row>
+    <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="73"/>
+      <c r="B168" s="76"/>
+      <c r="C168" s="74"/>
+      <c r="D168" s="74"/>
+      <c r="E168" s="74"/>
+      <c r="F168" s="74"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="74"/>
+      <c r="I168" s="74"/>
+      <c r="J168" s="74"/>
+      <c r="K168" s="74"/>
+      <c r="L168" s="74"/>
+      <c r="M168" s="74"/>
+      <c r="N168" s="74"/>
+      <c r="O168" s="74"/>
+      <c r="P168" s="74"/>
+      <c r="Q168" s="74"/>
+      <c r="R168" s="74"/>
+      <c r="S168" s="74"/>
+      <c r="T168" s="74"/>
+      <c r="U168" s="74"/>
+      <c r="V168" s="74"/>
+      <c r="W168" s="74"/>
+      <c r="X168" s="74"/>
+      <c r="Y168" s="74"/>
+      <c r="Z168" s="74"/>
+      <c r="AA168" s="74"/>
+      <c r="AB168" s="74"/>
+      <c r="AC168" s="74"/>
+      <c r="AD168" s="74"/>
+      <c r="AE168" s="74"/>
+      <c r="AF168" s="74"/>
+      <c r="AG168" s="75"/>
+      <c r="AH168" s="74"/>
+      <c r="AI168" s="74"/>
+    </row>
+    <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="77"/>
+      <c r="B169" s="77"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="75"/>
+      <c r="E169" s="75"/>
+      <c r="F169" s="75"/>
+      <c r="G169" s="75"/>
+      <c r="H169" s="75"/>
+      <c r="I169" s="75"/>
+      <c r="J169" s="75"/>
+      <c r="K169" s="75"/>
+      <c r="L169" s="75"/>
+      <c r="M169" s="75"/>
+      <c r="N169" s="75"/>
+      <c r="O169" s="75"/>
+      <c r="P169" s="75"/>
+      <c r="Q169" s="75"/>
+      <c r="R169" s="75"/>
+      <c r="S169" s="75"/>
+      <c r="T169" s="75"/>
+      <c r="U169" s="75"/>
+      <c r="V169" s="75"/>
+      <c r="W169" s="75"/>
+      <c r="X169" s="75"/>
+      <c r="Y169" s="75"/>
+      <c r="Z169" s="75"/>
+      <c r="AA169" s="75"/>
+      <c r="AB169" s="75"/>
+      <c r="AC169" s="75"/>
+      <c r="AD169" s="75"/>
+      <c r="AE169" s="75"/>
+      <c r="AF169" s="75"/>
+      <c r="AG169" s="75"/>
+      <c r="AH169" s="75"/>
+      <c r="AI169" s="75"/>
+    </row>
+    <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="73"/>
+      <c r="B170" s="76"/>
+      <c r="C170" s="74"/>
+      <c r="D170" s="74"/>
+      <c r="E170" s="74"/>
+      <c r="F170" s="74"/>
+      <c r="G170" s="74"/>
+      <c r="H170" s="74"/>
+      <c r="I170" s="74"/>
+      <c r="J170" s="74"/>
+      <c r="K170" s="74"/>
+      <c r="L170" s="74"/>
+      <c r="M170" s="74"/>
+      <c r="N170" s="74"/>
+      <c r="O170" s="74"/>
+      <c r="P170" s="74"/>
+      <c r="Q170" s="74"/>
+      <c r="R170" s="74"/>
+      <c r="S170" s="74"/>
+      <c r="T170" s="75"/>
+      <c r="U170" s="74"/>
+      <c r="V170" s="74"/>
+      <c r="W170" s="74"/>
+      <c r="X170" s="74"/>
+      <c r="Y170" s="74"/>
+      <c r="Z170" s="74"/>
+      <c r="AA170" s="74"/>
+      <c r="AB170" s="74"/>
+      <c r="AC170" s="74"/>
+      <c r="AD170" s="74"/>
+      <c r="AE170" s="74"/>
+      <c r="AF170" s="74"/>
+      <c r="AG170" s="75"/>
+      <c r="AH170" s="74"/>
+      <c r="AI170" s="74"/>
+    </row>
+    <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="73"/>
+      <c r="B171" s="76"/>
+      <c r="C171" s="74"/>
+      <c r="D171" s="74"/>
+      <c r="E171" s="74"/>
+      <c r="F171" s="74"/>
+      <c r="G171" s="74"/>
+      <c r="H171" s="74"/>
+      <c r="I171" s="74"/>
+      <c r="J171" s="74"/>
+      <c r="K171" s="74"/>
+      <c r="L171" s="74"/>
+      <c r="M171" s="74"/>
+      <c r="N171" s="74"/>
+      <c r="O171" s="74"/>
+      <c r="P171" s="74"/>
+      <c r="Q171" s="74"/>
+      <c r="R171" s="74"/>
+      <c r="S171" s="74"/>
+      <c r="T171" s="75"/>
+      <c r="U171" s="74"/>
+      <c r="V171" s="74"/>
+      <c r="W171" s="74"/>
+      <c r="X171" s="74"/>
+      <c r="Y171" s="74"/>
+      <c r="Z171" s="74"/>
+      <c r="AA171" s="74"/>
+      <c r="AB171" s="74"/>
+      <c r="AC171" s="74"/>
+      <c r="AD171" s="74"/>
+      <c r="AE171" s="74"/>
+      <c r="AF171" s="74"/>
+      <c r="AG171" s="75"/>
+      <c r="AH171" s="74"/>
+      <c r="AI171" s="74"/>
+    </row>
+    <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="73"/>
+      <c r="B172" s="76"/>
+      <c r="C172" s="74"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="74"/>
+      <c r="G172" s="74"/>
+      <c r="H172" s="74"/>
+      <c r="I172" s="74"/>
+      <c r="J172" s="74"/>
+      <c r="K172" s="74"/>
+      <c r="L172" s="74"/>
+      <c r="M172" s="74"/>
+      <c r="N172" s="74"/>
+      <c r="O172" s="74"/>
+      <c r="P172" s="74"/>
+      <c r="Q172" s="74"/>
+      <c r="R172" s="74"/>
+      <c r="S172" s="74"/>
+      <c r="T172" s="75"/>
+      <c r="U172" s="74"/>
+      <c r="V172" s="74"/>
+      <c r="W172" s="74"/>
+      <c r="X172" s="74"/>
+      <c r="Y172" s="74"/>
+      <c r="Z172" s="74"/>
+      <c r="AA172" s="74"/>
+      <c r="AB172" s="74"/>
+      <c r="AC172" s="74"/>
+      <c r="AD172" s="74"/>
+      <c r="AE172" s="74"/>
+      <c r="AF172" s="74"/>
+      <c r="AG172" s="75"/>
+      <c r="AH172" s="74"/>
+      <c r="AI172" s="74"/>
+    </row>
+    <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="73"/>
+      <c r="B173" s="76"/>
+      <c r="C173" s="74"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
+      <c r="F173" s="74"/>
+      <c r="G173" s="74"/>
+      <c r="H173" s="74"/>
+      <c r="I173" s="74"/>
+      <c r="J173" s="74"/>
+      <c r="K173" s="74"/>
+      <c r="L173" s="74"/>
+      <c r="M173" s="74"/>
+      <c r="N173" s="74"/>
+      <c r="O173" s="74"/>
+      <c r="P173" s="74"/>
+      <c r="Q173" s="74"/>
+      <c r="R173" s="74"/>
+      <c r="S173" s="74"/>
+      <c r="T173" s="75"/>
+      <c r="U173" s="74"/>
+      <c r="V173" s="74"/>
+      <c r="W173" s="74"/>
+      <c r="X173" s="74"/>
+      <c r="Y173" s="74"/>
+      <c r="Z173" s="74"/>
+      <c r="AA173" s="74"/>
+      <c r="AB173" s="74"/>
+      <c r="AC173" s="74"/>
+      <c r="AD173" s="74"/>
+      <c r="AE173" s="74"/>
+      <c r="AF173" s="74"/>
+      <c r="AG173" s="75"/>
+      <c r="AH173" s="74"/>
+      <c r="AI173" s="74"/>
+    </row>
+    <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="73"/>
+      <c r="B174" s="76"/>
+      <c r="C174" s="74"/>
+      <c r="D174" s="74"/>
+      <c r="E174" s="74"/>
+      <c r="F174" s="74"/>
+      <c r="G174" s="74"/>
+      <c r="H174" s="74"/>
+      <c r="I174" s="74"/>
+      <c r="J174" s="74"/>
+      <c r="K174" s="74"/>
+      <c r="L174" s="74"/>
+      <c r="M174" s="74"/>
+      <c r="N174" s="74"/>
+      <c r="O174" s="74"/>
+      <c r="P174" s="74"/>
+      <c r="Q174" s="74"/>
+      <c r="R174" s="74"/>
+      <c r="S174" s="74"/>
+      <c r="T174" s="75"/>
+      <c r="U174" s="74"/>
+      <c r="V174" s="74"/>
+      <c r="W174" s="74"/>
+      <c r="X174" s="74"/>
+      <c r="Y174" s="74"/>
+      <c r="Z174" s="74"/>
+      <c r="AA174" s="74"/>
+      <c r="AB174" s="74"/>
+      <c r="AC174" s="74"/>
+      <c r="AD174" s="74"/>
+      <c r="AE174" s="74"/>
+      <c r="AF174" s="74"/>
+      <c r="AG174" s="75"/>
+      <c r="AH174" s="74"/>
+      <c r="AI174" s="74"/>
+    </row>
+    <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="77"/>
+      <c r="B175" s="77"/>
+      <c r="C175" s="75"/>
+      <c r="D175" s="75"/>
+      <c r="E175" s="75"/>
+      <c r="F175" s="75"/>
+      <c r="G175" s="75"/>
+      <c r="H175" s="75"/>
+      <c r="I175" s="75"/>
+      <c r="J175" s="75"/>
+      <c r="K175" s="75"/>
+      <c r="L175" s="75"/>
+      <c r="M175" s="75"/>
+      <c r="N175" s="75"/>
+      <c r="O175" s="75"/>
+      <c r="P175" s="75"/>
+      <c r="Q175" s="75"/>
+      <c r="R175" s="75"/>
+      <c r="S175" s="75"/>
+      <c r="T175" s="75"/>
+      <c r="U175" s="75"/>
+      <c r="V175" s="75"/>
+      <c r="W175" s="75"/>
+      <c r="X175" s="75"/>
+      <c r="Y175" s="75"/>
+      <c r="Z175" s="75"/>
+      <c r="AA175" s="75"/>
+      <c r="AB175" s="75"/>
+      <c r="AC175" s="75"/>
+      <c r="AD175" s="75"/>
+      <c r="AE175" s="75"/>
+      <c r="AF175" s="75"/>
+      <c r="AG175" s="75"/>
+      <c r="AH175" s="75"/>
+      <c r="AI175" s="75"/>
+    </row>
+    <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="77"/>
+      <c r="B176" s="77"/>
+      <c r="C176" s="75"/>
+      <c r="D176" s="75"/>
+      <c r="E176" s="75"/>
+      <c r="F176" s="75"/>
+      <c r="G176" s="75"/>
+      <c r="H176" s="75"/>
+      <c r="I176" s="75"/>
+      <c r="J176" s="75"/>
+      <c r="K176" s="75"/>
+      <c r="L176" s="75"/>
+      <c r="M176" s="75"/>
+      <c r="N176" s="75"/>
+      <c r="O176" s="75"/>
+      <c r="P176" s="75"/>
+      <c r="Q176" s="75"/>
+      <c r="R176" s="75"/>
+      <c r="S176" s="75"/>
+      <c r="T176" s="75"/>
+      <c r="U176" s="75"/>
+      <c r="V176" s="75"/>
+      <c r="W176" s="75"/>
+      <c r="X176" s="75"/>
+      <c r="Y176" s="75"/>
+      <c r="Z176" s="75"/>
+      <c r="AA176" s="75"/>
+      <c r="AB176" s="75"/>
+      <c r="AC176" s="75"/>
+      <c r="AD176" s="75"/>
+      <c r="AE176" s="75"/>
+      <c r="AF176" s="75"/>
+      <c r="AG176" s="75"/>
+      <c r="AH176" s="75"/>
+      <c r="AI176" s="75"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="I88:I102 E9:F9 E2:F5 E12:F18 D21:E86 I104:I151">
+    <dataValidation type="list" allowBlank="1" sqref="I129:I176 E9:F9 E2:F5 E12:F18 D21:E86 I88:I104 I108:I127 E104:E127">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J20">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A104:A130">
+    <dataValidation type="list" allowBlank="1" sqref="A129:A155 A104:A127">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8487,7 +9722,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44131.587359375</v>
+        <v>44131.598429166668</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="456">
   <si>
     <t>list_name</t>
   </si>
@@ -1384,6 +1384,21 @@
   </si>
   <si>
     <t>${death_report}</t>
+  </si>
+  <si>
+    <t>places</t>
+  </si>
+  <si>
+    <t>health_facility</t>
+  </si>
+  <si>
+    <t>Health facility</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>Home</t>
   </si>
 </sst>
 </file>
@@ -2065,11 +2080,11 @@
   </sheetPr>
   <dimension ref="A1:AJ176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C105" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F105" sqref="F105"/>
+      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8977,11 +8992,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P104"/>
+  <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9218,7 +9233,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="s">
         <v>325</v>
       </c>
@@ -9229,7 +9244,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
         <v>325</v>
       </c>
@@ -9240,7 +9255,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
         <v>323</v>
       </c>
@@ -9251,7 +9266,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
         <v>323</v>
       </c>
@@ -9262,7 +9277,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
         <v>323</v>
       </c>
@@ -9273,57 +9288,141 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21"/>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
+      <c r="S22" s="52"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="52" t="s">
+        <v>451</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="52"/>
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="20"/>
       <c r="C27" s="21"/>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="20"/>
       <c r="C28" s="21"/>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="20"/>
       <c r="C29" s="21"/>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="20"/>
       <c r="C30" s="21"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
@@ -9722,7 +9821,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44131.598429166668</v>
+        <v>44132.330654282407</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="455">
   <si>
     <t>list_name</t>
   </si>
@@ -1060,9 +1060,6 @@
   </si>
   <si>
     <t>Is date of first symptom onset known?</t>
-  </si>
-  <si>
-    <t>${sympton_existence} = 'yes'</t>
   </si>
   <si>
     <t>. &lt;= ${form_date}</t>
@@ -2080,11 +2077,11 @@
   </sheetPr>
   <dimension ref="A1:AJ176"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C102" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3308,7 +3305,7 @@
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40" t="s">
-        <v>343</v>
+        <v>400</v>
       </c>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
@@ -3347,12 +3344,12 @@
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
       <c r="I33" s="67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
@@ -3423,7 +3420,7 @@
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -5922,10 +5919,10 @@
         <v>32</v>
       </c>
       <c r="B104" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="C104" s="51" t="s">
         <v>409</v>
-      </c>
-      <c r="C104" s="51" t="s">
-        <v>410</v>
       </c>
       <c r="D104" s="40"/>
       <c r="E104" s="56"/>
@@ -5965,22 +5962,22 @@
         <v>193</v>
       </c>
       <c r="B105" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="C105" s="51" t="s">
         <v>411</v>
-      </c>
-      <c r="C105" s="51" t="s">
-        <v>412</v>
       </c>
       <c r="D105" s="40"/>
       <c r="E105" s="56" t="s">
         <v>56</v>
       </c>
       <c r="F105" s="56" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G105" s="40"/>
       <c r="H105" s="40"/>
       <c r="I105" s="51" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J105" s="56"/>
       <c r="K105" s="56"/>
@@ -6011,13 +6008,13 @@
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="B106" s="78" t="s">
         <v>414</v>
       </c>
-      <c r="B106" s="78" t="s">
+      <c r="C106" s="51" t="s">
         <v>415</v>
-      </c>
-      <c r="C106" s="51" t="s">
-        <v>416</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="56" t="s">
@@ -6056,13 +6053,13 @@
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="78" t="s">
+        <v>416</v>
+      </c>
+      <c r="B107" s="78" t="s">
         <v>417</v>
       </c>
-      <c r="B107" s="78" t="s">
+      <c r="C107" s="51" t="s">
         <v>418</v>
-      </c>
-      <c r="C107" s="51" t="s">
-        <v>419</v>
       </c>
       <c r="D107" s="40"/>
       <c r="E107" s="56" t="s">
@@ -6072,7 +6069,7 @@
       <c r="G107" s="40"/>
       <c r="H107" s="40"/>
       <c r="I107" s="56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J107" s="56"/>
       <c r="K107" s="56"/>
@@ -6103,13 +6100,13 @@
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="78" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B108" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="C108" s="51" t="s">
         <v>421</v>
-      </c>
-      <c r="C108" s="51" t="s">
-        <v>422</v>
       </c>
       <c r="D108" s="40"/>
       <c r="E108" s="56"/>
@@ -6146,18 +6143,18 @@
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="78" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B109" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="C109" s="51" t="s">
         <v>424</v>
-      </c>
-      <c r="C109" s="51" t="s">
-        <v>425</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="56"/>
       <c r="F109" s="56" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G109" s="40"/>
       <c r="H109" s="40"/>
@@ -6196,7 +6193,7 @@
         <v>32</v>
       </c>
       <c r="B110" s="79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>35</v>
@@ -6204,7 +6201,7 @@
       <c r="D110" s="56"/>
       <c r="E110" s="56"/>
       <c r="F110" s="56" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G110" s="56"/>
       <c r="H110" s="56"/>
@@ -6236,7 +6233,7 @@
       <c r="AF110" s="56"/>
       <c r="AG110" s="56"/>
       <c r="AH110" s="81" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AI110" s="56"/>
     </row>
@@ -6245,7 +6242,7 @@
         <v>95</v>
       </c>
       <c r="B111" s="79" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>35</v>
@@ -6258,7 +6255,7 @@
       <c r="I111" s="80"/>
       <c r="J111" s="80"/>
       <c r="K111" s="80" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L111" s="80"/>
       <c r="M111" s="80"/>
@@ -6293,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="80" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D112" s="56"/>
       <c r="E112" s="56"/>
@@ -6303,7 +6300,7 @@
       <c r="I112" s="56"/>
       <c r="J112" s="56"/>
       <c r="K112" s="80" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L112" s="56"/>
       <c r="M112" s="56"/>
@@ -6335,7 +6332,7 @@
         <v>95</v>
       </c>
       <c r="B113" s="79" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>35</v>
@@ -6348,7 +6345,7 @@
       <c r="I113" s="56"/>
       <c r="J113" s="56"/>
       <c r="K113" s="80" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L113" s="56"/>
       <c r="M113" s="56"/>
@@ -6380,7 +6377,7 @@
         <v>95</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C114" s="80" t="s">
         <v>35</v>
@@ -6393,7 +6390,7 @@
       <c r="I114" s="80"/>
       <c r="J114" s="80"/>
       <c r="K114" s="80" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L114" s="80"/>
       <c r="M114" s="80"/>
@@ -6425,7 +6422,7 @@
         <v>32</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>35</v>
@@ -6481,7 +6478,7 @@
       <c r="I116" s="80"/>
       <c r="J116" s="80"/>
       <c r="K116" s="80" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L116" s="80"/>
       <c r="M116" s="80"/>
@@ -6526,7 +6523,7 @@
       <c r="I117" s="80"/>
       <c r="J117" s="80"/>
       <c r="K117" s="80" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L117" s="80"/>
       <c r="M117" s="80"/>
@@ -6558,7 +6555,7 @@
         <v>32</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>35</v>
@@ -6601,7 +6598,7 @@
         <v>95</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>35</v>
@@ -6614,7 +6611,7 @@
       <c r="I119" s="56"/>
       <c r="J119" s="56"/>
       <c r="K119" s="80" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L119" s="56"/>
       <c r="M119" s="56"/>
@@ -6646,7 +6643,7 @@
         <v>95</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>35</v>
@@ -6659,7 +6656,7 @@
       <c r="I120" s="56"/>
       <c r="J120" s="56"/>
       <c r="K120" s="80" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L120" s="56"/>
       <c r="M120" s="56"/>
@@ -6691,7 +6688,7 @@
         <v>95</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C121" s="80" t="s">
         <v>35</v>
@@ -6704,7 +6701,7 @@
       <c r="I121" s="56"/>
       <c r="J121" s="56"/>
       <c r="K121" s="80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L121" s="56"/>
       <c r="M121" s="56"/>
@@ -6736,7 +6733,7 @@
         <v>95</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>35</v>
@@ -6749,7 +6746,7 @@
       <c r="I122" s="80"/>
       <c r="J122" s="80"/>
       <c r="K122" s="80" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L122" s="80"/>
       <c r="M122" s="80"/>
@@ -6898,7 +6895,7 @@
         <v>95</v>
       </c>
       <c r="B126" s="82" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C126" s="56" t="s">
         <v>35</v>
@@ -6911,7 +6908,7 @@
       <c r="I126" s="56"/>
       <c r="J126" s="56"/>
       <c r="K126" s="56" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="L126" s="56"/>
       <c r="M126" s="56"/>
@@ -6982,7 +6979,7 @@
         <v>32</v>
       </c>
       <c r="B129" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C129" s="69" t="s">
         <v>35</v>
@@ -6991,7 +6988,7 @@
       <c r="E129" s="70"/>
       <c r="F129" s="71"/>
       <c r="G129" s="71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H129" s="70"/>
       <c r="I129" s="71"/>
@@ -7026,13 +7023,13 @@
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="B130" s="72" t="s">
         <v>349</v>
       </c>
-      <c r="B130" s="72" t="s">
+      <c r="C130" s="69" t="s">
         <v>350</v>
-      </c>
-      <c r="C130" s="69" t="s">
-        <v>351</v>
       </c>
       <c r="D130" s="71"/>
       <c r="E130" s="71"/>
@@ -7069,19 +7066,19 @@
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B131" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="C131" s="69" t="s">
         <v>352</v>
-      </c>
-      <c r="C131" s="69" t="s">
-        <v>353</v>
       </c>
       <c r="D131" s="71"/>
       <c r="E131" s="71"/>
       <c r="F131" s="71"/>
       <c r="G131" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H131" s="71"/>
       <c r="I131" s="71"/>
@@ -7114,13 +7111,13 @@
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B132" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="C132" s="69" t="s">
         <v>355</v>
-      </c>
-      <c r="C132" s="69" t="s">
-        <v>356</v>
       </c>
       <c r="D132" s="71"/>
       <c r="E132" s="71"/>
@@ -7157,19 +7154,19 @@
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B133" s="68" t="s">
+        <v>356</v>
+      </c>
+      <c r="C133" s="69" t="s">
         <v>357</v>
-      </c>
-      <c r="C133" s="69" t="s">
-        <v>358</v>
       </c>
       <c r="D133" s="71"/>
       <c r="E133" s="71"/>
       <c r="F133" s="71"/>
       <c r="G133" s="69" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H133" s="71"/>
       <c r="I133" s="71"/>
@@ -7202,19 +7199,19 @@
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B134" s="68" t="s">
+        <v>358</v>
+      </c>
+      <c r="C134" s="71" t="s">
         <v>359</v>
-      </c>
-      <c r="C134" s="71" t="s">
-        <v>360</v>
       </c>
       <c r="D134" s="71"/>
       <c r="E134" s="71"/>
       <c r="F134" s="70"/>
       <c r="G134" s="69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H134" s="71"/>
       <c r="I134" s="71"/>
@@ -7247,21 +7244,21 @@
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B135" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="C135" s="69" t="s">
         <v>362</v>
-      </c>
-      <c r="C135" s="69" t="s">
-        <v>363</v>
       </c>
       <c r="D135" s="70"/>
       <c r="E135" s="70"/>
       <c r="F135" s="69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G135" s="71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H135" s="70"/>
       <c r="I135" s="71"/>
@@ -7294,21 +7291,21 @@
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B136" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="C136" s="69" t="s">
         <v>365</v>
-      </c>
-      <c r="C136" s="69" t="s">
-        <v>366</v>
       </c>
       <c r="D136" s="70"/>
       <c r="E136" s="70"/>
       <c r="F136" s="69" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G136" s="71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H136" s="70"/>
       <c r="I136" s="71"/>
@@ -7341,21 +7338,21 @@
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B137" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="C137" s="69" t="s">
         <v>367</v>
-      </c>
-      <c r="C137" s="69" t="s">
-        <v>368</v>
       </c>
       <c r="D137" s="70"/>
       <c r="E137" s="70"/>
       <c r="F137" s="69" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G137" s="71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H137" s="70"/>
       <c r="I137" s="71"/>
@@ -7388,21 +7385,21 @@
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B138" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" s="71" t="s">
         <v>369</v>
-      </c>
-      <c r="C138" s="71" t="s">
-        <v>370</v>
       </c>
       <c r="D138" s="71"/>
       <c r="E138" s="71"/>
       <c r="F138" s="69" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G138" s="69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H138" s="71"/>
       <c r="I138" s="71"/>
@@ -7435,21 +7432,21 @@
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B139" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="C139" s="69" t="s">
         <v>371</v>
-      </c>
-      <c r="C139" s="69" t="s">
-        <v>372</v>
       </c>
       <c r="D139" s="70"/>
       <c r="E139" s="70"/>
       <c r="F139" s="69" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G139" s="71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H139" s="70"/>
       <c r="I139" s="71"/>
@@ -7482,21 +7479,21 @@
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B140" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="C140" s="69" t="s">
         <v>373</v>
-      </c>
-      <c r="C140" s="69" t="s">
-        <v>374</v>
       </c>
       <c r="D140" s="70"/>
       <c r="E140" s="70"/>
       <c r="F140" s="69" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G140" s="71" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H140" s="70"/>
       <c r="I140" s="71"/>
@@ -7529,21 +7526,21 @@
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B141" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="C141" s="69" t="s">
         <v>375</v>
-      </c>
-      <c r="C141" s="69" t="s">
-        <v>376</v>
       </c>
       <c r="D141" s="70"/>
       <c r="E141" s="70"/>
       <c r="F141" s="69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G141" s="69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H141" s="70"/>
       <c r="I141" s="71"/>
@@ -7576,21 +7573,21 @@
     </row>
     <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B142" s="68" t="s">
+        <v>376</v>
+      </c>
+      <c r="C142" s="69" t="s">
         <v>377</v>
-      </c>
-      <c r="C142" s="69" t="s">
-        <v>378</v>
       </c>
       <c r="D142" s="71"/>
       <c r="E142" s="71"/>
       <c r="F142" s="69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G142" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H142" s="71"/>
       <c r="I142" s="71"/>
@@ -7623,21 +7620,21 @@
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B143" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" s="69" t="s">
         <v>379</v>
-      </c>
-      <c r="C143" s="69" t="s">
-        <v>380</v>
       </c>
       <c r="D143" s="71"/>
       <c r="E143" s="71"/>
       <c r="F143" s="69" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G143" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H143" s="71"/>
       <c r="I143" s="71"/>
@@ -7670,21 +7667,21 @@
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B144" s="68" t="s">
+        <v>380</v>
+      </c>
+      <c r="C144" s="69" t="s">
         <v>381</v>
-      </c>
-      <c r="C144" s="69" t="s">
-        <v>382</v>
       </c>
       <c r="D144" s="71"/>
       <c r="E144" s="71"/>
       <c r="F144" s="69" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G144" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H144" s="71"/>
       <c r="I144" s="71"/>
@@ -7717,10 +7714,10 @@
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B145" s="68" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C145" s="69" t="s">
         <v>178</v>
@@ -7728,10 +7725,10 @@
       <c r="D145" s="71"/>
       <c r="E145" s="71"/>
       <c r="F145" s="69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G145" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H145" s="71"/>
       <c r="I145" s="71"/>
@@ -7764,10 +7761,10 @@
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B146" s="68" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C146" s="69" t="s">
         <v>180</v>
@@ -7775,10 +7772,10 @@
       <c r="D146" s="71"/>
       <c r="E146" s="71"/>
       <c r="F146" s="69" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G146" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H146" s="71"/>
       <c r="I146" s="71"/>
@@ -7811,10 +7808,10 @@
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B147" s="68" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C147" s="69" t="s">
         <v>182</v>
@@ -7822,10 +7819,10 @@
       <c r="D147" s="71"/>
       <c r="E147" s="71"/>
       <c r="F147" s="69" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G147" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H147" s="71"/>
       <c r="I147" s="71"/>
@@ -7858,10 +7855,10 @@
     </row>
     <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B148" s="68" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C148" s="69" t="s">
         <v>184</v>
@@ -7869,10 +7866,10 @@
       <c r="D148" s="71"/>
       <c r="E148" s="71"/>
       <c r="F148" s="69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G148" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H148" s="71"/>
       <c r="I148" s="71"/>
@@ -7905,10 +7902,10 @@
     </row>
     <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B149" s="68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C149" s="69" t="s">
         <v>186</v>
@@ -7916,10 +7913,10 @@
       <c r="D149" s="71"/>
       <c r="E149" s="71"/>
       <c r="F149" s="69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G149" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H149" s="71"/>
       <c r="I149" s="71"/>
@@ -7952,21 +7949,21 @@
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B150" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="C150" s="69" t="s">
         <v>388</v>
-      </c>
-      <c r="C150" s="69" t="s">
-        <v>389</v>
       </c>
       <c r="D150" s="71"/>
       <c r="E150" s="71"/>
       <c r="F150" s="69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G150" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H150" s="71"/>
       <c r="I150" s="71"/>
@@ -7999,21 +7996,21 @@
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B151" s="68" t="s">
+        <v>389</v>
+      </c>
+      <c r="C151" s="69" t="s">
         <v>390</v>
-      </c>
-      <c r="C151" s="69" t="s">
-        <v>391</v>
       </c>
       <c r="D151" s="71"/>
       <c r="E151" s="71"/>
       <c r="F151" s="69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G151" s="69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H151" s="71"/>
       <c r="I151" s="71"/>
@@ -8046,18 +8043,18 @@
     </row>
     <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B152" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="C152" s="69" t="s">
         <v>393</v>
-      </c>
-      <c r="C152" s="69" t="s">
-        <v>394</v>
       </c>
       <c r="D152" s="71"/>
       <c r="E152" s="71"/>
       <c r="F152" s="69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G152" s="69"/>
       <c r="H152" s="71"/>
@@ -8091,18 +8088,18 @@
     </row>
     <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B153" s="68" t="s">
+        <v>394</v>
+      </c>
+      <c r="C153" s="69" t="s">
         <v>395</v>
-      </c>
-      <c r="C153" s="69" t="s">
-        <v>396</v>
       </c>
       <c r="D153" s="71"/>
       <c r="E153" s="71"/>
       <c r="F153" s="69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G153" s="69"/>
       <c r="H153" s="71"/>
@@ -8136,18 +8133,18 @@
     </row>
     <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B154" s="68" t="s">
+        <v>396</v>
+      </c>
+      <c r="C154" s="69" t="s">
         <v>397</v>
-      </c>
-      <c r="C154" s="69" t="s">
-        <v>398</v>
       </c>
       <c r="D154" s="71"/>
       <c r="E154" s="71"/>
       <c r="F154" s="69" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G154" s="69"/>
       <c r="H154" s="71"/>
@@ -8994,7 +8991,7 @@
   </sheetPr>
   <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD24"/>
     </sheetView>
@@ -9290,13 +9287,13 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>451</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="C22" s="52" t="s">
         <v>452</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>453</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
@@ -9323,13 +9320,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B23" s="52" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23" s="52" t="s">
         <v>454</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>455</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -9356,7 +9353,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>53</v>
@@ -9821,7 +9818,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44132.330654282407</v>
+        <v>44132.336721412037</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="456">
   <si>
     <t>list_name</t>
   </si>
@@ -1396,6 +1396,9 @@
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>current_status</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2084,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2955,7 +2958,7 @@
         <v>196</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>325</v>
+        <v>455</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>35</v>
@@ -3027,7 +3030,7 @@
         <v>212</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>325</v>
+        <v>455</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="40"/>
@@ -9818,7 +9821,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44132.336721412037</v>
+        <v>44132.33898148148</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="8" t="s">

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="455">
   <si>
     <t>list_name</t>
   </si>
@@ -921,9 +921,6 @@
     <t>temperature</t>
   </si>
   <si>
-    <t>specify maximum temperature: °C</t>
-  </si>
-  <si>
     <t>select_one trimester</t>
   </si>
   <si>
@@ -1125,12 +1122,6 @@
     <t>li</t>
   </si>
   <si>
-    <t>r_condition_unwell</t>
-  </si>
-  <si>
-    <t>Alive and unwell</t>
-  </si>
-  <si>
     <t>r_condition_deceased</t>
   </si>
   <si>
@@ -1399,6 +1390,12 @@
   </si>
   <si>
     <t>current_status</t>
+  </si>
+  <si>
+    <t>Specify maximum temperature: °C</t>
+  </si>
+  <si>
+    <t>pages</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1795,6 +1792,9 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2078,13 +2078,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ176"/>
+  <dimension ref="A1:AJ175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="A136" sqref="A136:XFD136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2330,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -2419,10 +2419,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>308</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>309</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
@@ -2499,10 +2499,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="61" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>310</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>311</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -2545,10 +2545,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>312</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>313</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -2838,7 +2838,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>35</v>
@@ -2851,7 +2851,7 @@
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
       <c r="K19" s="65" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
@@ -2884,7 +2884,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>35</v>
@@ -2897,7 +2897,7 @@
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
@@ -2958,7 +2958,7 @@
         <v>196</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>35</v>
@@ -2990,13 +2990,13 @@
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="B23" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="C23" s="40" t="s">
         <v>325</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>326</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>56</v>
@@ -3030,7 +3030,7 @@
         <v>212</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="40"/>
@@ -3092,14 +3092,16 @@
         <v>196</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>35</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+      <c r="F26" s="43" t="s">
+        <v>395</v>
+      </c>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
       <c r="I26" s="43"/>
@@ -3124,13 +3126,13 @@
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="B27" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="C27" s="40" t="s">
         <v>337</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>323</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>338</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>56</v>
@@ -3164,7 +3166,7 @@
         <v>212</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="40"/>
@@ -3233,7 +3235,9 @@
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
+      <c r="F30" s="43" t="s">
+        <v>395</v>
+      </c>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
       <c r="I30" s="43"/>
@@ -3261,10 +3265,10 @@
         <v>169</v>
       </c>
       <c r="B31" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="C31" s="40" t="s">
         <v>339</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>340</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>56</v>
@@ -3298,17 +3302,17 @@
         <v>169</v>
       </c>
       <c r="B32" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>341</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>342</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
@@ -3347,12 +3351,12 @@
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
       <c r="I33" s="67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
@@ -3387,7 +3391,9 @@
         <v>56</v>
       </c>
       <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
+      <c r="F34" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
@@ -3418,12 +3424,12 @@
         <v>295</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>296</v>
+        <v>453</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -3461,7 +3467,9 @@
         <v>56</v>
       </c>
       <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
+      <c r="F36" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
@@ -3498,7 +3506,9 @@
         <v>56</v>
       </c>
       <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
+      <c r="F37" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
@@ -3535,7 +3545,9 @@
         <v>56</v>
       </c>
       <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="F38" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -3572,7 +3584,9 @@
         <v>56</v>
       </c>
       <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
+      <c r="F39" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
@@ -3609,7 +3623,9 @@
         <v>56</v>
       </c>
       <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
+      <c r="F40" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
@@ -3646,7 +3662,9 @@
         <v>56</v>
       </c>
       <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
+      <c r="F41" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
@@ -3683,7 +3701,9 @@
         <v>56</v>
       </c>
       <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
+      <c r="F42" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
@@ -3720,7 +3740,9 @@
         <v>56</v>
       </c>
       <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
+      <c r="F43" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
@@ -3757,7 +3779,9 @@
         <v>56</v>
       </c>
       <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
+      <c r="F44" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
       <c r="I44" s="40"/>
@@ -3794,7 +3818,9 @@
         <v>56</v>
       </c>
       <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
+      <c r="F45" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
@@ -3831,7 +3857,9 @@
         <v>56</v>
       </c>
       <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
+      <c r="F46" s="40" t="s">
+        <v>397</v>
+      </c>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
       <c r="I46" s="40"/>
@@ -4166,7 +4194,7 @@
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
       <c r="F56" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
@@ -4203,7 +4231,7 @@
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
       <c r="F57" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
@@ -4644,7 +4672,7 @@
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
       <c r="F70" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
@@ -4681,7 +4709,7 @@
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="F71" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
@@ -4718,7 +4746,7 @@
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
       <c r="F72" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -4755,7 +4783,7 @@
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
       <c r="F73" s="56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
@@ -4895,7 +4923,7 @@
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
       <c r="F77" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
@@ -4932,7 +4960,7 @@
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
       <c r="F78" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
@@ -4969,7 +4997,7 @@
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
       <c r="F79" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
@@ -5006,7 +5034,7 @@
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="F80" s="56" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
@@ -5146,7 +5174,7 @@
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
       <c r="F84" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G84" s="40"/>
       <c r="H84" s="40"/>
@@ -5583,18 +5611,18 @@
     </row>
     <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="B96" s="50" t="s">
         <v>297</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="C96" s="40" t="s">
         <v>298</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>299</v>
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
       <c r="F96" s="40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
@@ -5922,10 +5950,10 @@
         <v>32</v>
       </c>
       <c r="B104" s="78" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D104" s="40"/>
       <c r="E104" s="56"/>
@@ -5965,22 +5993,22 @@
         <v>193</v>
       </c>
       <c r="B105" s="78" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C105" s="51" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D105" s="40"/>
       <c r="E105" s="56" t="s">
         <v>56</v>
       </c>
       <c r="F105" s="56" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G105" s="40"/>
       <c r="H105" s="40"/>
       <c r="I105" s="51" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="J105" s="56"/>
       <c r="K105" s="56"/>
@@ -6011,13 +6039,13 @@
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="78" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B106" s="78" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C106" s="51" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="56" t="s">
@@ -6056,13 +6084,13 @@
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="78" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B107" s="78" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C107" s="51" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D107" s="40"/>
       <c r="E107" s="56" t="s">
@@ -6072,7 +6100,7 @@
       <c r="G107" s="40"/>
       <c r="H107" s="40"/>
       <c r="I107" s="56" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="J107" s="56"/>
       <c r="K107" s="56"/>
@@ -6103,13 +6131,13 @@
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="78" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B108" s="78" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C108" s="51" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D108" s="40"/>
       <c r="E108" s="56"/>
@@ -6146,18 +6174,18 @@
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="78" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B109" s="78" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C109" s="51" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="56"/>
       <c r="F109" s="56" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G109" s="40"/>
       <c r="H109" s="40"/>
@@ -6196,7 +6224,7 @@
         <v>32</v>
       </c>
       <c r="B110" s="79" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>35</v>
@@ -6204,7 +6232,7 @@
       <c r="D110" s="56"/>
       <c r="E110" s="56"/>
       <c r="F110" s="56" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G110" s="56"/>
       <c r="H110" s="56"/>
@@ -6236,7 +6264,7 @@
       <c r="AF110" s="56"/>
       <c r="AG110" s="56"/>
       <c r="AH110" s="81" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="AI110" s="56"/>
     </row>
@@ -6245,7 +6273,7 @@
         <v>95</v>
       </c>
       <c r="B111" s="79" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>35</v>
@@ -6258,7 +6286,7 @@
       <c r="I111" s="80"/>
       <c r="J111" s="80"/>
       <c r="K111" s="80" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L111" s="80"/>
       <c r="M111" s="80"/>
@@ -6293,7 +6321,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="80" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D112" s="56"/>
       <c r="E112" s="56"/>
@@ -6303,7 +6331,7 @@
       <c r="I112" s="56"/>
       <c r="J112" s="56"/>
       <c r="K112" s="80" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L112" s="56"/>
       <c r="M112" s="56"/>
@@ -6335,7 +6363,7 @@
         <v>95</v>
       </c>
       <c r="B113" s="79" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>35</v>
@@ -6348,7 +6376,7 @@
       <c r="I113" s="56"/>
       <c r="J113" s="56"/>
       <c r="K113" s="80" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L113" s="56"/>
       <c r="M113" s="56"/>
@@ -6380,7 +6408,7 @@
         <v>95</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C114" s="80" t="s">
         <v>35</v>
@@ -6393,7 +6421,7 @@
       <c r="I114" s="80"/>
       <c r="J114" s="80"/>
       <c r="K114" s="80" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L114" s="80"/>
       <c r="M114" s="80"/>
@@ -6425,7 +6453,7 @@
         <v>32</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>35</v>
@@ -6481,7 +6509,7 @@
       <c r="I116" s="80"/>
       <c r="J116" s="80"/>
       <c r="K116" s="80" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L116" s="80"/>
       <c r="M116" s="80"/>
@@ -6526,7 +6554,7 @@
       <c r="I117" s="80"/>
       <c r="J117" s="80"/>
       <c r="K117" s="80" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L117" s="80"/>
       <c r="M117" s="80"/>
@@ -6558,7 +6586,7 @@
         <v>32</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>35</v>
@@ -6601,7 +6629,7 @@
         <v>95</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>35</v>
@@ -6614,7 +6642,7 @@
       <c r="I119" s="56"/>
       <c r="J119" s="56"/>
       <c r="K119" s="80" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L119" s="56"/>
       <c r="M119" s="56"/>
@@ -6646,7 +6674,7 @@
         <v>95</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>35</v>
@@ -6659,7 +6687,7 @@
       <c r="I120" s="56"/>
       <c r="J120" s="56"/>
       <c r="K120" s="80" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L120" s="56"/>
       <c r="M120" s="56"/>
@@ -6691,7 +6719,7 @@
         <v>95</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C121" s="80" t="s">
         <v>35</v>
@@ -6704,7 +6732,7 @@
       <c r="I121" s="56"/>
       <c r="J121" s="56"/>
       <c r="K121" s="80" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L121" s="56"/>
       <c r="M121" s="56"/>
@@ -6736,7 +6764,7 @@
         <v>95</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>35</v>
@@ -6749,7 +6777,7 @@
       <c r="I122" s="80"/>
       <c r="J122" s="80"/>
       <c r="K122" s="80" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L122" s="80"/>
       <c r="M122" s="80"/>
@@ -6898,7 +6926,7 @@
         <v>95</v>
       </c>
       <c r="B126" s="82" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C126" s="56" t="s">
         <v>35</v>
@@ -6911,7 +6939,7 @@
       <c r="I126" s="56"/>
       <c r="J126" s="56"/>
       <c r="K126" s="56" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L126" s="56"/>
       <c r="M126" s="56"/>
@@ -6982,7 +7010,7 @@
         <v>32</v>
       </c>
       <c r="B129" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C129" s="69" t="s">
         <v>35</v>
@@ -6991,7 +7019,7 @@
       <c r="E129" s="70"/>
       <c r="F129" s="71"/>
       <c r="G129" s="71" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H129" s="70"/>
       <c r="I129" s="71"/>
@@ -7026,13 +7054,13 @@
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="72" t="s">
+        <v>347</v>
+      </c>
+      <c r="B130" s="72" t="s">
         <v>348</v>
       </c>
-      <c r="B130" s="72" t="s">
+      <c r="C130" s="69" t="s">
         <v>349</v>
-      </c>
-      <c r="C130" s="69" t="s">
-        <v>350</v>
       </c>
       <c r="D130" s="71"/>
       <c r="E130" s="71"/>
@@ -7069,19 +7097,19 @@
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B131" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="C131" s="69" t="s">
         <v>351</v>
-      </c>
-      <c r="C131" s="69" t="s">
-        <v>352</v>
       </c>
       <c r="D131" s="71"/>
       <c r="E131" s="71"/>
       <c r="F131" s="71"/>
       <c r="G131" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H131" s="71"/>
       <c r="I131" s="71"/>
@@ -7114,13 +7142,13 @@
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B132" s="68" t="s">
+        <v>353</v>
+      </c>
+      <c r="C132" s="69" t="s">
         <v>354</v>
-      </c>
-      <c r="C132" s="69" t="s">
-        <v>355</v>
       </c>
       <c r="D132" s="71"/>
       <c r="E132" s="71"/>
@@ -7157,19 +7185,19 @@
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B133" s="68" t="s">
+        <v>355</v>
+      </c>
+      <c r="C133" s="69" t="s">
         <v>356</v>
-      </c>
-      <c r="C133" s="69" t="s">
-        <v>357</v>
       </c>
       <c r="D133" s="71"/>
       <c r="E133" s="71"/>
       <c r="F133" s="71"/>
       <c r="G133" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H133" s="71"/>
       <c r="I133" s="71"/>
@@ -7202,19 +7230,19 @@
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B134" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="C134" s="71" t="s">
         <v>358</v>
-      </c>
-      <c r="C134" s="71" t="s">
-        <v>359</v>
       </c>
       <c r="D134" s="71"/>
       <c r="E134" s="71"/>
       <c r="F134" s="70"/>
       <c r="G134" s="69" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H134" s="71"/>
       <c r="I134" s="71"/>
@@ -7247,21 +7275,21 @@
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B135" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="C135" s="69" t="s">
         <v>361</v>
-      </c>
-      <c r="C135" s="69" t="s">
-        <v>362</v>
       </c>
       <c r="D135" s="70"/>
       <c r="E135" s="70"/>
       <c r="F135" s="69" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G135" s="71" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H135" s="70"/>
       <c r="I135" s="71"/>
@@ -7294,21 +7322,21 @@
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B136" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="C136" s="69" t="s">
         <v>364</v>
-      </c>
-      <c r="C136" s="69" t="s">
-        <v>365</v>
       </c>
       <c r="D136" s="70"/>
       <c r="E136" s="70"/>
       <c r="F136" s="69" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G136" s="71" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H136" s="70"/>
       <c r="I136" s="71"/>
@@ -7341,37 +7369,37 @@
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B137" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="C137" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="C137" s="69" t="s">
-        <v>367</v>
-      </c>
-      <c r="D137" s="70"/>
-      <c r="E137" s="70"/>
+      <c r="D137" s="71"/>
+      <c r="E137" s="71"/>
       <c r="F137" s="69" t="s">
-        <v>399</v>
-      </c>
-      <c r="G137" s="71" t="s">
-        <v>363</v>
-      </c>
-      <c r="H137" s="70"/>
+        <v>396</v>
+      </c>
+      <c r="G137" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="H137" s="71"/>
       <c r="I137" s="71"/>
       <c r="J137" s="69"/>
-      <c r="K137" s="71"/>
+      <c r="K137" s="69"/>
       <c r="L137" s="71"/>
-      <c r="M137" s="69"/>
-      <c r="N137" s="69"/>
-      <c r="O137" s="69"/>
-      <c r="P137" s="69"/>
-      <c r="Q137" s="69"/>
-      <c r="R137" s="69"/>
-      <c r="S137" s="69"/>
-      <c r="T137" s="69"/>
+      <c r="M137" s="71"/>
+      <c r="N137" s="71"/>
+      <c r="O137" s="71"/>
+      <c r="P137" s="71"/>
+      <c r="Q137" s="71"/>
+      <c r="R137" s="71"/>
+      <c r="S137" s="71"/>
+      <c r="T137" s="71"/>
       <c r="U137" s="71"/>
-      <c r="V137" s="69"/>
+      <c r="V137" s="71"/>
       <c r="W137" s="71"/>
       <c r="X137" s="71"/>
       <c r="Y137" s="71"/>
@@ -7388,37 +7416,37 @@
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B138" s="68" t="s">
+        <v>367</v>
+      </c>
+      <c r="C138" s="69" t="s">
         <v>368</v>
       </c>
-      <c r="C138" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="D138" s="71"/>
-      <c r="E138" s="71"/>
+      <c r="D138" s="70"/>
+      <c r="E138" s="70"/>
       <c r="F138" s="69" t="s">
-        <v>399</v>
-      </c>
-      <c r="G138" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="H138" s="71"/>
+        <v>396</v>
+      </c>
+      <c r="G138" s="71" t="s">
+        <v>362</v>
+      </c>
+      <c r="H138" s="70"/>
       <c r="I138" s="71"/>
       <c r="J138" s="69"/>
-      <c r="K138" s="69"/>
+      <c r="K138" s="71"/>
       <c r="L138" s="71"/>
-      <c r="M138" s="71"/>
-      <c r="N138" s="71"/>
-      <c r="O138" s="71"/>
-      <c r="P138" s="71"/>
-      <c r="Q138" s="71"/>
-      <c r="R138" s="71"/>
-      <c r="S138" s="71"/>
-      <c r="T138" s="71"/>
+      <c r="M138" s="69"/>
+      <c r="N138" s="69"/>
+      <c r="O138" s="69"/>
+      <c r="P138" s="69"/>
+      <c r="Q138" s="69"/>
+      <c r="R138" s="69"/>
+      <c r="S138" s="69"/>
+      <c r="T138" s="69"/>
       <c r="U138" s="71"/>
-      <c r="V138" s="71"/>
+      <c r="V138" s="69"/>
       <c r="W138" s="71"/>
       <c r="X138" s="71"/>
       <c r="Y138" s="71"/>
@@ -7435,21 +7463,21 @@
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B139" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="C139" s="69" t="s">
         <v>370</v>
-      </c>
-      <c r="C139" s="69" t="s">
-        <v>371</v>
       </c>
       <c r="D139" s="70"/>
       <c r="E139" s="70"/>
       <c r="F139" s="69" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G139" s="71" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H139" s="70"/>
       <c r="I139" s="71"/>
@@ -7482,26 +7510,26 @@
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B140" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C140" s="69" t="s">
         <v>372</v>
-      </c>
-      <c r="C140" s="69" t="s">
-        <v>373</v>
       </c>
       <c r="D140" s="70"/>
       <c r="E140" s="70"/>
       <c r="F140" s="69" t="s">
-        <v>399</v>
-      </c>
-      <c r="G140" s="71" t="s">
-        <v>363</v>
+        <v>397</v>
+      </c>
+      <c r="G140" s="69" t="s">
+        <v>359</v>
       </c>
       <c r="H140" s="70"/>
       <c r="I140" s="71"/>
       <c r="J140" s="69"/>
-      <c r="K140" s="71"/>
+      <c r="K140" s="69"/>
       <c r="L140" s="71"/>
       <c r="M140" s="69"/>
       <c r="N140" s="69"/>
@@ -7529,37 +7557,37 @@
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B141" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="C141" s="69" t="s">
         <v>374</v>
       </c>
-      <c r="C141" s="69" t="s">
-        <v>375</v>
-      </c>
-      <c r="D141" s="70"/>
-      <c r="E141" s="70"/>
+      <c r="D141" s="71"/>
+      <c r="E141" s="71"/>
       <c r="F141" s="69" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="G141" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="H141" s="70"/>
+        <v>362</v>
+      </c>
+      <c r="H141" s="71"/>
       <c r="I141" s="71"/>
       <c r="J141" s="69"/>
       <c r="K141" s="69"/>
       <c r="L141" s="71"/>
-      <c r="M141" s="69"/>
-      <c r="N141" s="69"/>
-      <c r="O141" s="69"/>
-      <c r="P141" s="69"/>
-      <c r="Q141" s="69"/>
-      <c r="R141" s="69"/>
-      <c r="S141" s="69"/>
-      <c r="T141" s="69"/>
+      <c r="M141" s="71"/>
+      <c r="N141" s="71"/>
+      <c r="O141" s="71"/>
+      <c r="P141" s="71"/>
+      <c r="Q141" s="71"/>
+      <c r="R141" s="71"/>
+      <c r="S141" s="71"/>
+      <c r="T141" s="71"/>
       <c r="U141" s="71"/>
-      <c r="V141" s="69"/>
+      <c r="V141" s="71"/>
       <c r="W141" s="71"/>
       <c r="X141" s="71"/>
       <c r="Y141" s="71"/>
@@ -7576,21 +7604,21 @@
     </row>
     <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B142" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="C142" s="69" t="s">
         <v>376</v>
-      </c>
-      <c r="C142" s="69" t="s">
-        <v>377</v>
       </c>
       <c r="D142" s="71"/>
       <c r="E142" s="71"/>
       <c r="F142" s="69" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="G142" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H142" s="71"/>
       <c r="I142" s="71"/>
@@ -7623,21 +7651,21 @@
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B143" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="C143" s="69" t="s">
         <v>378</v>
-      </c>
-      <c r="C143" s="69" t="s">
-        <v>379</v>
       </c>
       <c r="D143" s="71"/>
       <c r="E143" s="71"/>
       <c r="F143" s="69" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G143" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H143" s="71"/>
       <c r="I143" s="71"/>
@@ -7670,21 +7698,21 @@
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B144" s="68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C144" s="69" t="s">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="D144" s="71"/>
       <c r="E144" s="71"/>
       <c r="F144" s="69" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G144" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H144" s="71"/>
       <c r="I144" s="71"/>
@@ -7717,21 +7745,21 @@
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B145" s="68" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C145" s="69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D145" s="71"/>
       <c r="E145" s="71"/>
       <c r="F145" s="69" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G145" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H145" s="71"/>
       <c r="I145" s="71"/>
@@ -7764,21 +7792,21 @@
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B146" s="68" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C146" s="69" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D146" s="71"/>
       <c r="E146" s="71"/>
       <c r="F146" s="69" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G146" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H146" s="71"/>
       <c r="I146" s="71"/>
@@ -7811,21 +7839,21 @@
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B147" s="68" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C147" s="69" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D147" s="71"/>
       <c r="E147" s="71"/>
       <c r="F147" s="69" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G147" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H147" s="71"/>
       <c r="I147" s="71"/>
@@ -7858,21 +7886,21 @@
     </row>
     <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B148" s="68" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C148" s="69" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D148" s="71"/>
       <c r="E148" s="71"/>
       <c r="F148" s="69" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G148" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H148" s="71"/>
       <c r="I148" s="71"/>
@@ -7905,21 +7933,21 @@
     </row>
     <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B149" s="68" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C149" s="69" t="s">
-        <v>186</v>
+        <v>385</v>
       </c>
       <c r="D149" s="71"/>
       <c r="E149" s="71"/>
       <c r="F149" s="69" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G149" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H149" s="71"/>
       <c r="I149" s="71"/>
@@ -7952,21 +7980,21 @@
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B150" s="68" t="s">
+        <v>386</v>
+      </c>
+      <c r="C150" s="69" t="s">
         <v>387</v>
-      </c>
-      <c r="C150" s="69" t="s">
-        <v>388</v>
       </c>
       <c r="D150" s="71"/>
       <c r="E150" s="71"/>
       <c r="F150" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G150" s="69" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="H150" s="71"/>
       <c r="I150" s="71"/>
@@ -7999,7 +8027,7 @@
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B151" s="68" t="s">
         <v>389</v>
@@ -8010,11 +8038,9 @@
       <c r="D151" s="71"/>
       <c r="E151" s="71"/>
       <c r="F151" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="G151" s="69" t="s">
-        <v>391</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G151" s="69"/>
       <c r="H151" s="71"/>
       <c r="I151" s="71"/>
       <c r="J151" s="69"/>
@@ -8046,18 +8072,18 @@
     </row>
     <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B152" s="68" t="s">
+        <v>391</v>
+      </c>
+      <c r="C152" s="69" t="s">
         <v>392</v>
-      </c>
-      <c r="C152" s="69" t="s">
-        <v>393</v>
       </c>
       <c r="D152" s="71"/>
       <c r="E152" s="71"/>
       <c r="F152" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G152" s="69"/>
       <c r="H152" s="71"/>
@@ -8091,18 +8117,18 @@
     </row>
     <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B153" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C153" s="69" t="s">
         <v>394</v>
-      </c>
-      <c r="C153" s="69" t="s">
-        <v>395</v>
       </c>
       <c r="D153" s="71"/>
       <c r="E153" s="71"/>
       <c r="F153" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G153" s="69"/>
       <c r="H153" s="71"/>
@@ -8136,35 +8162,29 @@
     </row>
     <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68" t="s">
-        <v>348</v>
-      </c>
-      <c r="B154" s="68" t="s">
-        <v>396</v>
-      </c>
-      <c r="C154" s="69" t="s">
-        <v>397</v>
-      </c>
-      <c r="D154" s="71"/>
-      <c r="E154" s="71"/>
-      <c r="F154" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="G154" s="69"/>
-      <c r="H154" s="71"/>
+        <v>63</v>
+      </c>
+      <c r="B154" s="68"/>
+      <c r="C154" s="69"/>
+      <c r="D154" s="70"/>
+      <c r="E154" s="70"/>
+      <c r="F154" s="71"/>
+      <c r="G154" s="71"/>
+      <c r="H154" s="70"/>
       <c r="I154" s="71"/>
-      <c r="J154" s="69"/>
-      <c r="K154" s="69"/>
+      <c r="J154" s="71"/>
+      <c r="K154" s="71"/>
       <c r="L154" s="71"/>
-      <c r="M154" s="71"/>
-      <c r="N154" s="71"/>
-      <c r="O154" s="71"/>
-      <c r="P154" s="71"/>
-      <c r="Q154" s="71"/>
-      <c r="R154" s="71"/>
-      <c r="S154" s="71"/>
-      <c r="T154" s="71"/>
+      <c r="M154" s="69"/>
+      <c r="N154" s="69"/>
+      <c r="O154" s="69"/>
+      <c r="P154" s="69"/>
+      <c r="Q154" s="69"/>
+      <c r="R154" s="69"/>
+      <c r="S154" s="69"/>
+      <c r="T154" s="69"/>
       <c r="U154" s="71"/>
-      <c r="V154" s="71"/>
+      <c r="V154" s="69"/>
       <c r="W154" s="71"/>
       <c r="X154" s="71"/>
       <c r="Y154" s="71"/>
@@ -8180,67 +8200,65 @@
       <c r="AI154" s="71"/>
     </row>
     <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B155" s="68"/>
-      <c r="C155" s="69"/>
-      <c r="D155" s="70"/>
-      <c r="E155" s="70"/>
-      <c r="F155" s="71"/>
-      <c r="G155" s="71"/>
-      <c r="H155" s="70"/>
-      <c r="I155" s="71"/>
-      <c r="J155" s="71"/>
-      <c r="K155" s="71"/>
-      <c r="L155" s="71"/>
-      <c r="M155" s="69"/>
-      <c r="N155" s="69"/>
-      <c r="O155" s="69"/>
-      <c r="P155" s="69"/>
-      <c r="Q155" s="69"/>
-      <c r="R155" s="69"/>
-      <c r="S155" s="69"/>
-      <c r="T155" s="69"/>
-      <c r="U155" s="71"/>
-      <c r="V155" s="69"/>
-      <c r="W155" s="71"/>
-      <c r="X155" s="71"/>
-      <c r="Y155" s="71"/>
-      <c r="Z155" s="71"/>
-      <c r="AA155" s="71"/>
-      <c r="AB155" s="71"/>
-      <c r="AC155" s="71"/>
-      <c r="AD155" s="71"/>
-      <c r="AE155" s="71"/>
-      <c r="AF155" s="71"/>
-      <c r="AG155" s="71"/>
-      <c r="AH155" s="71"/>
-      <c r="AI155" s="71"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="35"/>
+      <c r="E155" s="35"/>
+      <c r="AE155" s="35"/>
+      <c r="AF155" s="35"/>
+      <c r="AG155" s="35"/>
+      <c r="AH155" s="35"/>
+      <c r="AI155" s="35"/>
     </row>
     <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
-      <c r="B156" s="35"/>
-      <c r="C156" s="35"/>
-      <c r="E156" s="35"/>
-      <c r="AE156" s="35"/>
-      <c r="AF156" s="35"/>
-      <c r="AG156" s="35"/>
-      <c r="AH156" s="35"/>
-      <c r="AI156" s="35"/>
+      <c r="A156" s="73"/>
+      <c r="B156" s="73"/>
+      <c r="C156" s="74"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="74"/>
+      <c r="G156" s="75"/>
+      <c r="H156" s="74"/>
+      <c r="I156" s="74"/>
+      <c r="J156" s="74"/>
+      <c r="K156" s="75"/>
+      <c r="L156" s="74"/>
+      <c r="M156" s="74"/>
+      <c r="N156" s="74"/>
+      <c r="O156" s="74"/>
+      <c r="P156" s="74"/>
+      <c r="Q156" s="74"/>
+      <c r="R156" s="74"/>
+      <c r="S156" s="74"/>
+      <c r="T156" s="74"/>
+      <c r="U156" s="74"/>
+      <c r="V156" s="74"/>
+      <c r="W156" s="74"/>
+      <c r="X156" s="74"/>
+      <c r="Y156" s="74"/>
+      <c r="Z156" s="74"/>
+      <c r="AA156" s="74"/>
+      <c r="AB156" s="74"/>
+      <c r="AC156" s="74"/>
+      <c r="AD156" s="74"/>
+      <c r="AE156" s="75"/>
+      <c r="AF156" s="74"/>
+      <c r="AG156" s="74"/>
+      <c r="AH156" s="74"/>
+      <c r="AI156" s="74"/>
     </row>
     <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="73"/>
-      <c r="B157" s="73"/>
+      <c r="B157" s="76"/>
       <c r="C157" s="74"/>
       <c r="D157" s="74"/>
       <c r="E157" s="74"/>
       <c r="F157" s="74"/>
-      <c r="G157" s="75"/>
+      <c r="G157" s="74"/>
       <c r="H157" s="74"/>
       <c r="I157" s="74"/>
       <c r="J157" s="74"/>
-      <c r="K157" s="75"/>
+      <c r="K157" s="74"/>
       <c r="L157" s="74"/>
       <c r="M157" s="74"/>
       <c r="N157" s="74"/>
@@ -8260,9 +8278,9 @@
       <c r="AB157" s="74"/>
       <c r="AC157" s="74"/>
       <c r="AD157" s="74"/>
-      <c r="AE157" s="75"/>
+      <c r="AE157" s="74"/>
       <c r="AF157" s="74"/>
-      <c r="AG157" s="74"/>
+      <c r="AG157" s="75"/>
       <c r="AH157" s="74"/>
       <c r="AI157" s="74"/>
     </row>
@@ -8637,78 +8655,78 @@
       <c r="AI167" s="74"/>
     </row>
     <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="73"/>
-      <c r="B168" s="76"/>
+      <c r="A168" s="77"/>
+      <c r="B168" s="77"/>
       <c r="C168" s="74"/>
-      <c r="D168" s="74"/>
-      <c r="E168" s="74"/>
-      <c r="F168" s="74"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="74"/>
-      <c r="I168" s="74"/>
-      <c r="J168" s="74"/>
-      <c r="K168" s="74"/>
-      <c r="L168" s="74"/>
-      <c r="M168" s="74"/>
-      <c r="N168" s="74"/>
-      <c r="O168" s="74"/>
-      <c r="P168" s="74"/>
-      <c r="Q168" s="74"/>
-      <c r="R168" s="74"/>
-      <c r="S168" s="74"/>
-      <c r="T168" s="74"/>
-      <c r="U168" s="74"/>
-      <c r="V168" s="74"/>
-      <c r="W168" s="74"/>
-      <c r="X168" s="74"/>
-      <c r="Y168" s="74"/>
-      <c r="Z168" s="74"/>
-      <c r="AA168" s="74"/>
-      <c r="AB168" s="74"/>
-      <c r="AC168" s="74"/>
-      <c r="AD168" s="74"/>
-      <c r="AE168" s="74"/>
-      <c r="AF168" s="74"/>
+      <c r="D168" s="75"/>
+      <c r="E168" s="75"/>
+      <c r="F168" s="75"/>
+      <c r="G168" s="75"/>
+      <c r="H168" s="75"/>
+      <c r="I168" s="75"/>
+      <c r="J168" s="75"/>
+      <c r="K168" s="75"/>
+      <c r="L168" s="75"/>
+      <c r="M168" s="75"/>
+      <c r="N168" s="75"/>
+      <c r="O168" s="75"/>
+      <c r="P168" s="75"/>
+      <c r="Q168" s="75"/>
+      <c r="R168" s="75"/>
+      <c r="S168" s="75"/>
+      <c r="T168" s="75"/>
+      <c r="U168" s="75"/>
+      <c r="V168" s="75"/>
+      <c r="W168" s="75"/>
+      <c r="X168" s="75"/>
+      <c r="Y168" s="75"/>
+      <c r="Z168" s="75"/>
+      <c r="AA168" s="75"/>
+      <c r="AB168" s="75"/>
+      <c r="AC168" s="75"/>
+      <c r="AD168" s="75"/>
+      <c r="AE168" s="75"/>
+      <c r="AF168" s="75"/>
       <c r="AG168" s="75"/>
-      <c r="AH168" s="74"/>
-      <c r="AI168" s="74"/>
+      <c r="AH168" s="75"/>
+      <c r="AI168" s="75"/>
     </row>
     <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="77"/>
-      <c r="B169" s="77"/>
+      <c r="A169" s="73"/>
+      <c r="B169" s="76"/>
       <c r="C169" s="74"/>
-      <c r="D169" s="75"/>
-      <c r="E169" s="75"/>
-      <c r="F169" s="75"/>
-      <c r="G169" s="75"/>
-      <c r="H169" s="75"/>
-      <c r="I169" s="75"/>
-      <c r="J169" s="75"/>
-      <c r="K169" s="75"/>
-      <c r="L169" s="75"/>
-      <c r="M169" s="75"/>
-      <c r="N169" s="75"/>
-      <c r="O169" s="75"/>
-      <c r="P169" s="75"/>
-      <c r="Q169" s="75"/>
-      <c r="R169" s="75"/>
-      <c r="S169" s="75"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="74"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="74"/>
+      <c r="I169" s="74"/>
+      <c r="J169" s="74"/>
+      <c r="K169" s="74"/>
+      <c r="L169" s="74"/>
+      <c r="M169" s="74"/>
+      <c r="N169" s="74"/>
+      <c r="O169" s="74"/>
+      <c r="P169" s="74"/>
+      <c r="Q169" s="74"/>
+      <c r="R169" s="74"/>
+      <c r="S169" s="74"/>
       <c r="T169" s="75"/>
-      <c r="U169" s="75"/>
-      <c r="V169" s="75"/>
-      <c r="W169" s="75"/>
-      <c r="X169" s="75"/>
-      <c r="Y169" s="75"/>
-      <c r="Z169" s="75"/>
-      <c r="AA169" s="75"/>
-      <c r="AB169" s="75"/>
-      <c r="AC169" s="75"/>
-      <c r="AD169" s="75"/>
-      <c r="AE169" s="75"/>
-      <c r="AF169" s="75"/>
+      <c r="U169" s="74"/>
+      <c r="V169" s="74"/>
+      <c r="W169" s="74"/>
+      <c r="X169" s="74"/>
+      <c r="Y169" s="74"/>
+      <c r="Z169" s="74"/>
+      <c r="AA169" s="74"/>
+      <c r="AB169" s="74"/>
+      <c r="AC169" s="74"/>
+      <c r="AD169" s="74"/>
+      <c r="AE169" s="74"/>
+      <c r="AF169" s="74"/>
       <c r="AG169" s="75"/>
-      <c r="AH169" s="75"/>
-      <c r="AI169" s="75"/>
+      <c r="AH169" s="74"/>
+      <c r="AI169" s="74"/>
     </row>
     <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="73"/>
@@ -8859,41 +8877,41 @@
       <c r="AI173" s="74"/>
     </row>
     <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="73"/>
-      <c r="B174" s="76"/>
-      <c r="C174" s="74"/>
-      <c r="D174" s="74"/>
-      <c r="E174" s="74"/>
-      <c r="F174" s="74"/>
-      <c r="G174" s="74"/>
-      <c r="H174" s="74"/>
-      <c r="I174" s="74"/>
-      <c r="J174" s="74"/>
-      <c r="K174" s="74"/>
-      <c r="L174" s="74"/>
-      <c r="M174" s="74"/>
-      <c r="N174" s="74"/>
-      <c r="O174" s="74"/>
-      <c r="P174" s="74"/>
-      <c r="Q174" s="74"/>
-      <c r="R174" s="74"/>
-      <c r="S174" s="74"/>
+      <c r="A174" s="77"/>
+      <c r="B174" s="77"/>
+      <c r="C174" s="75"/>
+      <c r="D174" s="75"/>
+      <c r="E174" s="75"/>
+      <c r="F174" s="75"/>
+      <c r="G174" s="75"/>
+      <c r="H174" s="75"/>
+      <c r="I174" s="75"/>
+      <c r="J174" s="75"/>
+      <c r="K174" s="75"/>
+      <c r="L174" s="75"/>
+      <c r="M174" s="75"/>
+      <c r="N174" s="75"/>
+      <c r="O174" s="75"/>
+      <c r="P174" s="75"/>
+      <c r="Q174" s="75"/>
+      <c r="R174" s="75"/>
+      <c r="S174" s="75"/>
       <c r="T174" s="75"/>
-      <c r="U174" s="74"/>
-      <c r="V174" s="74"/>
-      <c r="W174" s="74"/>
-      <c r="X174" s="74"/>
-      <c r="Y174" s="74"/>
-      <c r="Z174" s="74"/>
-      <c r="AA174" s="74"/>
-      <c r="AB174" s="74"/>
-      <c r="AC174" s="74"/>
-      <c r="AD174" s="74"/>
-      <c r="AE174" s="74"/>
-      <c r="AF174" s="74"/>
+      <c r="U174" s="75"/>
+      <c r="V174" s="75"/>
+      <c r="W174" s="75"/>
+      <c r="X174" s="75"/>
+      <c r="Y174" s="75"/>
+      <c r="Z174" s="75"/>
+      <c r="AA174" s="75"/>
+      <c r="AB174" s="75"/>
+      <c r="AC174" s="75"/>
+      <c r="AD174" s="75"/>
+      <c r="AE174" s="75"/>
+      <c r="AF174" s="75"/>
       <c r="AG174" s="75"/>
-      <c r="AH174" s="74"/>
-      <c r="AI174" s="74"/>
+      <c r="AH174" s="75"/>
+      <c r="AI174" s="75"/>
     </row>
     <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="77"/>
@@ -8932,53 +8950,16 @@
       <c r="AH175" s="75"/>
       <c r="AI175" s="75"/>
     </row>
-    <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="77"/>
-      <c r="B176" s="77"/>
-      <c r="C176" s="75"/>
-      <c r="D176" s="75"/>
-      <c r="E176" s="75"/>
-      <c r="F176" s="75"/>
-      <c r="G176" s="75"/>
-      <c r="H176" s="75"/>
-      <c r="I176" s="75"/>
-      <c r="J176" s="75"/>
-      <c r="K176" s="75"/>
-      <c r="L176" s="75"/>
-      <c r="M176" s="75"/>
-      <c r="N176" s="75"/>
-      <c r="O176" s="75"/>
-      <c r="P176" s="75"/>
-      <c r="Q176" s="75"/>
-      <c r="R176" s="75"/>
-      <c r="S176" s="75"/>
-      <c r="T176" s="75"/>
-      <c r="U176" s="75"/>
-      <c r="V176" s="75"/>
-      <c r="W176" s="75"/>
-      <c r="X176" s="75"/>
-      <c r="Y176" s="75"/>
-      <c r="Z176" s="75"/>
-      <c r="AA176" s="75"/>
-      <c r="AB176" s="75"/>
-      <c r="AC176" s="75"/>
-      <c r="AD176" s="75"/>
-      <c r="AE176" s="75"/>
-      <c r="AF176" s="75"/>
-      <c r="AG176" s="75"/>
-      <c r="AH176" s="75"/>
-      <c r="AI176" s="75"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="I129:I176 E9:F9 E2:F5 E12:F18 D21:E86 I88:I104 I108:I127 E104:E127">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 D21:E86 I88:I104 I108:I127 E104:E127 I129:I175">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J20">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A129:A155 A104:A127">
+    <dataValidation type="list" allowBlank="1" sqref="A104:A127 A129:A154">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9191,40 +9172,40 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>301</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>99</v>
@@ -9235,68 +9216,68 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B17" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>327</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B18" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>329</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B19" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="67" t="s">
         <v>331</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B20" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C20" s="67" t="s">
         <v>333</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B21" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" s="67" t="s">
         <v>335</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
@@ -9323,13 +9304,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
+        <v>447</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>450</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>453</v>
-      </c>
       <c r="C23" s="52" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -9356,7 +9337,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>53</v>
@@ -9757,9 +9738,9 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9821,9 +9802,11 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44132.33898148148</v>
-      </c>
-      <c r="D2" s="8"/>
+        <v>44132.366028124998</v>
+      </c>
+      <c r="D2" s="84" t="s">
+        <v>454</v>
+      </c>
       <c r="E2" s="8" t="s">
         <v>29</v>
       </c>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="452">
   <si>
     <t>list_name</t>
   </si>
@@ -734,9 +734,6 @@
     <t>local_travell</t>
   </si>
   <si>
-    <t>Local Travell</t>
-  </si>
-  <si>
     <t>domestic_travell</t>
   </si>
   <si>
@@ -794,16 +791,10 @@
     <t>int_cities</t>
   </si>
   <si>
-    <t>Internation Travell</t>
-  </si>
-  <si>
     <t>Have you traveled within the last 14 days **internationally**?</t>
   </si>
   <si>
     <t>contact_confirmed_cases</t>
-  </si>
-  <si>
-    <t>Contact with confirmed cases</t>
   </si>
   <si>
     <t xml:space="preserve">In the past 14 days, have you had contact with anyone with suspected or confirmed COVID-19 infection?
@@ -2081,10 +2072,10 @@
   <dimension ref="A1:AJ175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A136" sqref="A136:XFD136"/>
+      <selection pane="bottomRight" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2330,7 +2321,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -2419,10 +2410,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
@@ -2499,10 +2490,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -2545,10 +2536,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -2838,7 +2829,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>35</v>
@@ -2851,7 +2842,7 @@
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
       <c r="K19" s="65" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
@@ -2884,7 +2875,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>35</v>
@@ -2897,7 +2888,7 @@
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
@@ -2958,7 +2949,7 @@
         <v>196</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>35</v>
@@ -2990,13 +2981,13 @@
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B23" s="50" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>56</v>
@@ -3030,7 +3021,7 @@
         <v>212</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C24" s="51"/>
       <c r="D24" s="40"/>
@@ -3092,7 +3083,7 @@
         <v>196</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>35</v>
@@ -3100,7 +3091,7 @@
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
@@ -3126,13 +3117,13 @@
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="50" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D27" s="40" t="s">
         <v>56</v>
@@ -3166,7 +3157,7 @@
         <v>212</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="40"/>
@@ -3236,7 +3227,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="43" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>
@@ -3265,10 +3256,10 @@
         <v>169</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D31" s="40" t="s">
         <v>56</v>
@@ -3302,17 +3293,17 @@
         <v>169</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="40"/>
       <c r="F32" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
@@ -3351,12 +3342,12 @@
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
       <c r="I33" s="67" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
@@ -3392,7 +3383,7 @@
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -3418,18 +3409,18 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -3468,7 +3459,7 @@
       </c>
       <c r="E36" s="40"/>
       <c r="F36" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
@@ -3507,7 +3498,7 @@
       </c>
       <c r="E37" s="40"/>
       <c r="F37" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
@@ -3546,7 +3537,7 @@
       </c>
       <c r="E38" s="40"/>
       <c r="F38" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
@@ -3585,7 +3576,7 @@
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -3624,7 +3615,7 @@
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -3663,7 +3654,7 @@
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
@@ -3702,7 +3693,7 @@
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
@@ -3741,7 +3732,7 @@
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
@@ -3780,7 +3771,7 @@
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
@@ -3819,7 +3810,7 @@
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
@@ -3858,7 +3849,7 @@
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
@@ -3956,7 +3947,9 @@
       </c>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
+      <c r="F49" s="43" t="s">
+        <v>392</v>
+      </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43"/>
       <c r="I49" s="43"/>
@@ -4123,7 +4116,9 @@
       </c>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
+      <c r="F54" s="43" t="s">
+        <v>392</v>
+      </c>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
       <c r="I54" s="40"/>
@@ -4194,7 +4189,7 @@
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
       <c r="F56" s="56" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
@@ -4231,7 +4226,7 @@
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
       <c r="F57" s="56" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
@@ -4329,7 +4324,9 @@
       </c>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
+      <c r="F60" s="43" t="s">
+        <v>392</v>
+      </c>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
       <c r="I60" s="40"/>
@@ -4566,7 +4563,9 @@
       </c>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
+      <c r="F67" s="43" t="s">
+        <v>392</v>
+      </c>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
       <c r="I67" s="40"/>
@@ -4597,7 +4596,7 @@
         <v>233</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
@@ -4626,13 +4625,13 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C69" s="51" t="s">
         <v>238</v>
-      </c>
-      <c r="B69" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="C69" s="51" t="s">
-        <v>239</v>
       </c>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
@@ -4664,15 +4663,15 @@
         <v>193</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
       <c r="F70" s="56" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
@@ -4701,15 +4700,15 @@
         <v>193</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="F71" s="56" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
@@ -4735,18 +4734,18 @@
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
       <c r="F72" s="56" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -4772,18 +4771,18 @@
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
       <c r="F73" s="56" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
@@ -4845,10 +4844,10 @@
         <v>196</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
@@ -4877,13 +4876,13 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
@@ -4915,15 +4914,15 @@
         <v>193</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
       <c r="F77" s="56" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
@@ -4952,15 +4951,15 @@
         <v>193</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
       <c r="F78" s="56" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
@@ -4986,18 +4985,18 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B79" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
       <c r="F79" s="56" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
@@ -5023,18 +5022,18 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B80" s="50" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="F80" s="56" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
@@ -5063,7 +5062,7 @@
         <v>212</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C81" s="58"/>
       <c r="D81" s="58"/>
@@ -5096,10 +5095,10 @@
         <v>196</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>257</v>
+        <v>35</v>
       </c>
       <c r="D82" s="40"/>
       <c r="E82" s="40"/>
@@ -5128,13 +5127,13 @@
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B83" s="50" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D83" s="40"/>
       <c r="E83" s="40"/>
@@ -5166,15 +5165,15 @@
         <v>193</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
       <c r="F84" s="56" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G84" s="40"/>
       <c r="H84" s="40"/>
@@ -5203,7 +5202,7 @@
         <v>212</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C85" s="40"/>
       <c r="D85" s="40"/>
@@ -5269,14 +5268,16 @@
         <v>32</v>
       </c>
       <c r="B88" s="50" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
+      <c r="F88" s="40" t="s">
+        <v>392</v>
+      </c>
       <c r="G88" s="40" t="s">
         <v>38</v>
       </c>
@@ -5313,10 +5314,10 @@
         <v>169</v>
       </c>
       <c r="B89" s="50" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D89" s="40"/>
       <c r="E89" s="40"/>
@@ -5356,10 +5357,10 @@
         <v>169</v>
       </c>
       <c r="B90" s="50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D90" s="40"/>
       <c r="E90" s="40"/>
@@ -5399,10 +5400,10 @@
         <v>169</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
@@ -5442,10 +5443,10 @@
         <v>169</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
@@ -5485,10 +5486,10 @@
         <v>169</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D93" s="40"/>
       <c r="E93" s="40"/>
@@ -5528,10 +5529,10 @@
         <v>169</v>
       </c>
       <c r="B94" s="50" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D94" s="40"/>
       <c r="E94" s="40"/>
@@ -5571,10 +5572,10 @@
         <v>169</v>
       </c>
       <c r="B95" s="50" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D95" s="40"/>
       <c r="E95" s="40"/>
@@ -5611,18 +5612,18 @@
     </row>
     <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="50" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
       <c r="F96" s="40" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
@@ -5659,10 +5660,10 @@
         <v>169</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D97" s="40"/>
       <c r="E97" s="40"/>
@@ -5702,10 +5703,10 @@
         <v>169</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D98" s="40"/>
       <c r="E98" s="40"/>
@@ -5745,10 +5746,10 @@
         <v>169</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C99" s="51" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D99" s="40"/>
       <c r="E99" s="40"/>
@@ -5788,10 +5789,10 @@
         <v>169</v>
       </c>
       <c r="B100" s="50" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D100" s="40"/>
       <c r="E100" s="40"/>
@@ -5831,10 +5832,10 @@
         <v>169</v>
       </c>
       <c r="B101" s="50" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C101" s="51" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
@@ -5950,14 +5951,16 @@
         <v>32</v>
       </c>
       <c r="B104" s="78" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D104" s="40"/>
       <c r="E104" s="56"/>
-      <c r="F104" s="40"/>
+      <c r="F104" s="56" t="s">
+        <v>393</v>
+      </c>
       <c r="G104" s="40"/>
       <c r="H104" s="40"/>
       <c r="I104" s="56"/>
@@ -5993,22 +5996,20 @@
         <v>193</v>
       </c>
       <c r="B105" s="78" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C105" s="51" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D105" s="40"/>
       <c r="E105" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="F105" s="56" t="s">
-        <v>396</v>
-      </c>
+      <c r="F105" s="56"/>
       <c r="G105" s="40"/>
       <c r="H105" s="40"/>
       <c r="I105" s="51" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J105" s="56"/>
       <c r="K105" s="56"/>
@@ -6039,13 +6040,13 @@
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="78" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B106" s="78" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C106" s="51" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="56" t="s">
@@ -6084,13 +6085,13 @@
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="78" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B107" s="78" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C107" s="51" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D107" s="40"/>
       <c r="E107" s="56" t="s">
@@ -6100,7 +6101,7 @@
       <c r="G107" s="40"/>
       <c r="H107" s="40"/>
       <c r="I107" s="56" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J107" s="56"/>
       <c r="K107" s="56"/>
@@ -6131,13 +6132,13 @@
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="78" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B108" s="78" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C108" s="51" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D108" s="40"/>
       <c r="E108" s="56"/>
@@ -6174,18 +6175,18 @@
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="78" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B109" s="78" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C109" s="51" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="56"/>
       <c r="F109" s="56" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G109" s="40"/>
       <c r="H109" s="40"/>
@@ -6224,7 +6225,7 @@
         <v>32</v>
       </c>
       <c r="B110" s="79" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>35</v>
@@ -6232,7 +6233,7 @@
       <c r="D110" s="56"/>
       <c r="E110" s="56"/>
       <c r="F110" s="56" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G110" s="56"/>
       <c r="H110" s="56"/>
@@ -6264,7 +6265,7 @@
       <c r="AF110" s="56"/>
       <c r="AG110" s="56"/>
       <c r="AH110" s="81" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="AI110" s="56"/>
     </row>
@@ -6273,7 +6274,7 @@
         <v>95</v>
       </c>
       <c r="B111" s="79" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>35</v>
@@ -6286,7 +6287,7 @@
       <c r="I111" s="80"/>
       <c r="J111" s="80"/>
       <c r="K111" s="80" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L111" s="80"/>
       <c r="M111" s="80"/>
@@ -6321,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="80" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D112" s="56"/>
       <c r="E112" s="56"/>
@@ -6331,7 +6332,7 @@
       <c r="I112" s="56"/>
       <c r="J112" s="56"/>
       <c r="K112" s="80" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L112" s="56"/>
       <c r="M112" s="56"/>
@@ -6363,7 +6364,7 @@
         <v>95</v>
       </c>
       <c r="B113" s="79" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>35</v>
@@ -6376,7 +6377,7 @@
       <c r="I113" s="56"/>
       <c r="J113" s="56"/>
       <c r="K113" s="80" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L113" s="56"/>
       <c r="M113" s="56"/>
@@ -6408,7 +6409,7 @@
         <v>95</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C114" s="80" t="s">
         <v>35</v>
@@ -6421,7 +6422,7 @@
       <c r="I114" s="80"/>
       <c r="J114" s="80"/>
       <c r="K114" s="80" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L114" s="80"/>
       <c r="M114" s="80"/>
@@ -6453,7 +6454,7 @@
         <v>32</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>35</v>
@@ -6509,7 +6510,7 @@
       <c r="I116" s="80"/>
       <c r="J116" s="80"/>
       <c r="K116" s="80" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L116" s="80"/>
       <c r="M116" s="80"/>
@@ -6554,7 +6555,7 @@
       <c r="I117" s="80"/>
       <c r="J117" s="80"/>
       <c r="K117" s="80" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L117" s="80"/>
       <c r="M117" s="80"/>
@@ -6586,7 +6587,7 @@
         <v>32</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>35</v>
@@ -6629,7 +6630,7 @@
         <v>95</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>35</v>
@@ -6642,7 +6643,7 @@
       <c r="I119" s="56"/>
       <c r="J119" s="56"/>
       <c r="K119" s="80" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L119" s="56"/>
       <c r="M119" s="56"/>
@@ -6674,7 +6675,7 @@
         <v>95</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>35</v>
@@ -6687,7 +6688,7 @@
       <c r="I120" s="56"/>
       <c r="J120" s="56"/>
       <c r="K120" s="80" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L120" s="56"/>
       <c r="M120" s="56"/>
@@ -6719,7 +6720,7 @@
         <v>95</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C121" s="80" t="s">
         <v>35</v>
@@ -6732,7 +6733,7 @@
       <c r="I121" s="56"/>
       <c r="J121" s="56"/>
       <c r="K121" s="80" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L121" s="56"/>
       <c r="M121" s="56"/>
@@ -6764,7 +6765,7 @@
         <v>95</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>35</v>
@@ -6777,7 +6778,7 @@
       <c r="I122" s="80"/>
       <c r="J122" s="80"/>
       <c r="K122" s="80" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L122" s="80"/>
       <c r="M122" s="80"/>
@@ -6926,7 +6927,7 @@
         <v>95</v>
       </c>
       <c r="B126" s="82" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C126" s="56" t="s">
         <v>35</v>
@@ -6939,7 +6940,7 @@
       <c r="I126" s="56"/>
       <c r="J126" s="56"/>
       <c r="K126" s="56" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L126" s="56"/>
       <c r="M126" s="56"/>
@@ -7010,7 +7011,7 @@
         <v>32</v>
       </c>
       <c r="B129" s="68" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C129" s="69" t="s">
         <v>35</v>
@@ -7019,7 +7020,7 @@
       <c r="E129" s="70"/>
       <c r="F129" s="71"/>
       <c r="G129" s="71" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H129" s="70"/>
       <c r="I129" s="71"/>
@@ -7054,13 +7055,13 @@
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="72" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B130" s="72" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C130" s="69" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D130" s="71"/>
       <c r="E130" s="71"/>
@@ -7097,19 +7098,19 @@
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="68" t="s">
+        <v>344</v>
+      </c>
+      <c r="B131" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="B131" s="68" t="s">
-        <v>350</v>
-      </c>
       <c r="C131" s="69" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D131" s="71"/>
       <c r="E131" s="71"/>
       <c r="F131" s="71"/>
       <c r="G131" s="69" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H131" s="71"/>
       <c r="I131" s="71"/>
@@ -7142,13 +7143,13 @@
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B132" s="68" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C132" s="69" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D132" s="71"/>
       <c r="E132" s="71"/>
@@ -7185,19 +7186,19 @@
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B133" s="68" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C133" s="69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D133" s="71"/>
       <c r="E133" s="71"/>
       <c r="F133" s="71"/>
       <c r="G133" s="69" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H133" s="71"/>
       <c r="I133" s="71"/>
@@ -7230,19 +7231,19 @@
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B134" s="68" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C134" s="71" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D134" s="71"/>
       <c r="E134" s="71"/>
       <c r="F134" s="70"/>
       <c r="G134" s="69" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H134" s="71"/>
       <c r="I134" s="71"/>
@@ -7275,21 +7276,21 @@
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B135" s="68" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C135" s="69" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D135" s="70"/>
       <c r="E135" s="70"/>
       <c r="F135" s="69" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G135" s="71" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H135" s="70"/>
       <c r="I135" s="71"/>
@@ -7322,21 +7323,21 @@
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B136" s="68" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C136" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D136" s="70"/>
       <c r="E136" s="70"/>
       <c r="F136" s="69" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G136" s="71" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H136" s="70"/>
       <c r="I136" s="71"/>
@@ -7369,21 +7370,21 @@
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B137" s="68" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C137" s="71" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D137" s="71"/>
       <c r="E137" s="71"/>
       <c r="F137" s="69" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G137" s="69" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H137" s="71"/>
       <c r="I137" s="71"/>
@@ -7416,21 +7417,21 @@
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B138" s="68" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C138" s="69" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D138" s="70"/>
       <c r="E138" s="70"/>
       <c r="F138" s="69" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G138" s="71" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H138" s="70"/>
       <c r="I138" s="71"/>
@@ -7463,21 +7464,21 @@
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B139" s="68" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C139" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D139" s="70"/>
       <c r="E139" s="70"/>
       <c r="F139" s="69" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G139" s="71" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H139" s="70"/>
       <c r="I139" s="71"/>
@@ -7510,21 +7511,21 @@
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B140" s="68" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C140" s="69" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D140" s="70"/>
       <c r="E140" s="70"/>
       <c r="F140" s="69" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G140" s="69" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H140" s="70"/>
       <c r="I140" s="71"/>
@@ -7557,21 +7558,21 @@
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B141" s="68" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C141" s="69" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D141" s="71"/>
       <c r="E141" s="71"/>
       <c r="F141" s="69" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G141" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H141" s="71"/>
       <c r="I141" s="71"/>
@@ -7604,21 +7605,21 @@
     </row>
     <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B142" s="68" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C142" s="69" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D142" s="71"/>
       <c r="E142" s="71"/>
       <c r="F142" s="69" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G142" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H142" s="71"/>
       <c r="I142" s="71"/>
@@ -7651,21 +7652,21 @@
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B143" s="68" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C143" s="69" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D143" s="71"/>
       <c r="E143" s="71"/>
       <c r="F143" s="69" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G143" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H143" s="71"/>
       <c r="I143" s="71"/>
@@ -7698,10 +7699,10 @@
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B144" s="68" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C144" s="69" t="s">
         <v>178</v>
@@ -7709,10 +7710,10 @@
       <c r="D144" s="71"/>
       <c r="E144" s="71"/>
       <c r="F144" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G144" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H144" s="71"/>
       <c r="I144" s="71"/>
@@ -7745,10 +7746,10 @@
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B145" s="68" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C145" s="69" t="s">
         <v>180</v>
@@ -7756,10 +7757,10 @@
       <c r="D145" s="71"/>
       <c r="E145" s="71"/>
       <c r="F145" s="69" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G145" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H145" s="71"/>
       <c r="I145" s="71"/>
@@ -7792,10 +7793,10 @@
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B146" s="68" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C146" s="69" t="s">
         <v>182</v>
@@ -7803,10 +7804,10 @@
       <c r="D146" s="71"/>
       <c r="E146" s="71"/>
       <c r="F146" s="69" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G146" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H146" s="71"/>
       <c r="I146" s="71"/>
@@ -7839,10 +7840,10 @@
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B147" s="68" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C147" s="69" t="s">
         <v>184</v>
@@ -7850,10 +7851,10 @@
       <c r="D147" s="71"/>
       <c r="E147" s="71"/>
       <c r="F147" s="69" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G147" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H147" s="71"/>
       <c r="I147" s="71"/>
@@ -7886,10 +7887,10 @@
     </row>
     <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B148" s="68" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C148" s="69" t="s">
         <v>186</v>
@@ -7897,10 +7898,10 @@
       <c r="D148" s="71"/>
       <c r="E148" s="71"/>
       <c r="F148" s="69" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G148" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H148" s="71"/>
       <c r="I148" s="71"/>
@@ -7933,21 +7934,21 @@
     </row>
     <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B149" s="68" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C149" s="69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D149" s="71"/>
       <c r="E149" s="71"/>
       <c r="F149" s="69" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G149" s="69" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H149" s="71"/>
       <c r="I149" s="71"/>
@@ -7980,21 +7981,21 @@
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B150" s="68" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C150" s="69" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D150" s="71"/>
       <c r="E150" s="71"/>
       <c r="F150" s="69" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G150" s="69" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H150" s="71"/>
       <c r="I150" s="71"/>
@@ -8027,18 +8028,18 @@
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B151" s="68" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C151" s="69" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D151" s="71"/>
       <c r="E151" s="71"/>
       <c r="F151" s="69" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G151" s="69"/>
       <c r="H151" s="71"/>
@@ -8072,18 +8073,18 @@
     </row>
     <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B152" s="68" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D152" s="71"/>
       <c r="E152" s="71"/>
       <c r="F152" s="69" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G152" s="69"/>
       <c r="H152" s="71"/>
@@ -8117,18 +8118,18 @@
     </row>
     <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B153" s="68" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C153" s="69" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D153" s="71"/>
       <c r="E153" s="71"/>
       <c r="F153" s="69" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G153" s="69"/>
       <c r="H153" s="71"/>
@@ -9117,7 +9118,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>56</v>
@@ -9128,7 +9129,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>57</v>
@@ -9139,145 +9140,145 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>266</v>
-      </c>
       <c r="C12" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>300</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>301</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="C15" s="21" t="s">
         <v>302</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>324</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C19" s="67" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
@@ -9304,13 +9305,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
+        <v>444</v>
+      </c>
+      <c r="B23" s="52" t="s">
         <v>447</v>
       </c>
-      <c r="B23" s="52" t="s">
-        <v>450</v>
-      </c>
       <c r="C23" s="52" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -9337,7 +9338,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>53</v>
@@ -9802,10 +9803,10 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44132.366028124998</v>
+        <v>44132.37412951389</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="451">
   <si>
     <t>list_name</t>
   </si>
@@ -903,9 +903,6 @@
     <t>miscarriage</t>
   </si>
   <si>
-    <t>Recurrent miscarriages (for Females)</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -1050,9 +1047,6 @@
     <t>Is date of first symptom onset known?</t>
   </si>
   <si>
-    <t>. &lt;= ${form_date}</t>
-  </si>
-  <si>
     <t>${onset_known} = 'yes'</t>
   </si>
   <si>
@@ -1281,15 +1275,6 @@
     <t>After reporting a death, the person’s profile will be locked. If reported in error, you may undo the death report from the profile.</t>
   </si>
   <si>
-    <t>../patient_death_date != '' and ../patient_death_place != ''</t>
-  </si>
-  <si>
-    <t>death_baby_note</t>
-  </si>
-  <si>
-    <t>If babies were delivered, you will have the chance to report on them Next &gt;.</t>
-  </si>
-  <si>
     <t>../patient_death_date != '' and ../patient_death_place != '' and ../patient_death_birth = 'yes'</t>
   </si>
   <si>
@@ -1387,6 +1372,18 @@
   </si>
   <si>
     <t>pages</t>
+  </si>
+  <si>
+    <t>Recurrent miscarriages</t>
+  </si>
+  <si>
+    <t>patient_sex</t>
+  </si>
+  <si>
+    <t>../inputs/contact/sex</t>
+  </si>
+  <si>
+    <t>${patient_sex} = 'female'</t>
   </si>
 </sst>
 </file>
@@ -2071,11 +2068,11 @@
   </sheetPr>
   <dimension ref="A1:AJ175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C121" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F105" sqref="F105"/>
+      <selection pane="bottomRight" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2318,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -2410,10 +2407,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>304</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>305</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
@@ -2490,10 +2487,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>306</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>307</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -2536,10 +2533,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>308</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>309</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -2829,7 +2826,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>35</v>
@@ -2842,7 +2839,7 @@
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
       <c r="K19" s="65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
@@ -2875,7 +2872,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>35</v>
@@ -2888,7 +2885,7 @@
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
@@ -2915,116 +2912,128 @@
       <c r="AI20" s="66"/>
       <c r="AJ20" s="66"/>
     </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
-      <c r="Z21" s="41"/>
-      <c r="AA21" s="41"/>
-    </row>
-    <row r="22" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+    <row r="21" spans="1:36" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="64" t="s">
+        <v>448</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="65"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="65"/>
+      <c r="AG21" s="65"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+    </row>
+    <row r="23" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>449</v>
-      </c>
-      <c r="C22" s="42" t="s">
+      <c r="B23" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="C23" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-    </row>
-    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+    </row>
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="C24" s="40" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="D23" s="40" t="s">
+      <c r="D24" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="41"/>
-      <c r="AA23" s="41"/>
-    </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>449</v>
-      </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="40"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
       <c r="G24" s="40"/>
@@ -3050,9 +3059,13 @@
       <c r="AA24" s="41"/>
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" s="51"/>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
       <c r="F25" s="40"/>
@@ -3078,89 +3091,85 @@
       <c r="Z25" s="41"/>
       <c r="AA25" s="41"/>
     </row>
-    <row r="26" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+    </row>
+    <row r="27" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="B26" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="C26" s="42" t="s">
+      <c r="B27" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="C27" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-    </row>
-    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+    </row>
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>333</v>
       </c>
-      <c r="B27" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="D27" s="40" t="s">
+      <c r="D28" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-    </row>
-    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="40"/>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
@@ -3186,9 +3195,13 @@
       <c r="AA28" s="41"/>
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="C29" s="51"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
@@ -3214,97 +3227,87 @@
       <c r="Z29" s="41"/>
       <c r="AA29" s="41"/>
     </row>
-    <row r="30" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="40"/>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+      <c r="AA30" s="41"/>
+    </row>
+    <row r="31" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B31" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C31" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
-      <c r="U30" s="44"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="44"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="44"/>
-    </row>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="C31" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="D31" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
     </row>
     <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
         <v>169</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="40"/>
-      <c r="F32" s="40" t="s">
-        <v>394</v>
-      </c>
+      <c r="F32" s="40"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
@@ -3329,26 +3332,24 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>194</v>
+        <v>336</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>195</v>
+        <v>337</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
-      <c r="I33" s="67" t="s">
-        <v>339</v>
-      </c>
+      <c r="I33" s="40"/>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
       <c r="L33" s="40"/>
@@ -3370,24 +3371,24 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
+      <c r="I34" s="67"/>
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
       <c r="L34" s="40"/>
@@ -3409,18 +3410,20 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="50" t="s">
-        <v>291</v>
+        <v>169</v>
       </c>
       <c r="B35" s="50" t="s">
-        <v>292</v>
+        <v>160</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>450</v>
-      </c>
-      <c r="D35" s="40"/>
+        <v>191</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E35" s="40"/>
       <c r="F35" s="40" t="s">
-        <v>341</v>
+        <v>392</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -3446,20 +3449,18 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="40" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
@@ -3488,17 +3489,17 @@
         <v>169</v>
       </c>
       <c r="B37" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="51" t="s">
-        <v>172</v>
+        <v>159</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>170</v>
       </c>
       <c r="D37" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E37" s="40"/>
       <c r="F37" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
@@ -3527,17 +3528,17 @@
         <v>169</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C38" s="51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E38" s="40"/>
       <c r="F38" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
@@ -3566,17 +3567,17 @@
         <v>169</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -3605,17 +3606,17 @@
         <v>169</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>178</v>
+        <v>175</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>176</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -3644,17 +3645,17 @@
         <v>169</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
@@ -3683,17 +3684,17 @@
         <v>169</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D42" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
@@ -3722,17 +3723,17 @@
         <v>169</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
@@ -3761,17 +3762,17 @@
         <v>169</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
@@ -3800,17 +3801,17 @@
         <v>169</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
@@ -3839,17 +3840,17 @@
         <v>169</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D46" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
@@ -3873,149 +3874,153 @@
       <c r="Z46" s="41"/>
       <c r="AA46" s="41"/>
     </row>
-    <row r="47" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+    </row>
+    <row r="48" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B48" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
-      <c r="Z47" s="44"/>
-      <c r="AA47" s="44"/>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
-    </row>
-    <row r="49" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+      <c r="C48" s="47"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="36"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="41"/>
+      <c r="AA49" s="41"/>
+    </row>
+    <row r="50" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B50" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C50" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="44"/>
-      <c r="AA49" s="44"/>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="41"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="41"/>
-      <c r="V50" s="41"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="41"/>
-      <c r="Y50" s="41"/>
-      <c r="Z50" s="41"/>
-      <c r="AA50" s="41"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
@@ -4043,13 +4048,15 @@
       <c r="AA51" s="41"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="51"/>
+      <c r="A52" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>201</v>
+      </c>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
@@ -4076,9 +4083,13 @@
       <c r="AA52" s="41"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
+      <c r="A53" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" s="51"/>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
       <c r="F53" s="40"/>
@@ -4105,20 +4116,12 @@
       <c r="AA53" s="41"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="C54" s="42" t="s">
-        <v>214</v>
-      </c>
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
-      <c r="F54" s="43" t="s">
-        <v>392</v>
-      </c>
+      <c r="F54" s="40"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
       <c r="I54" s="40"/>
@@ -4142,18 +4145,20 @@
       <c r="AA54" s="41"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B55" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>215</v>
+      <c r="A55" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>214</v>
       </c>
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
+      <c r="F55" s="43" t="s">
+        <v>390</v>
+      </c>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
       <c r="I55" s="40"/>
@@ -4178,19 +4183,17 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="50" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="B56" s="50" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
-      <c r="F56" s="56" t="s">
-        <v>314</v>
-      </c>
+      <c r="F56" s="40"/>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
       <c r="I56" s="40"/>
@@ -4215,18 +4218,18 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
       <c r="F57" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
@@ -4251,16 +4254,20 @@
       <c r="AA57" s="41"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" s="42"/>
+      <c r="A58" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>200</v>
+      </c>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
+      <c r="F58" s="56" t="s">
+        <v>313</v>
+      </c>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
       <c r="I58" s="40"/>
@@ -4283,10 +4290,14 @@
       <c r="Z58" s="41"/>
       <c r="AA58" s="41"/>
     </row>
-    <row r="59" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="42"/>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
       <c r="F59" s="40"/>
@@ -4312,21 +4323,13 @@
       <c r="Z59" s="41"/>
       <c r="AA59" s="41"/>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>222</v>
-      </c>
+    <row r="60" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
-      <c r="F60" s="43" t="s">
-        <v>392</v>
-      </c>
+      <c r="F60" s="40"/>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
       <c r="I60" s="40"/>
@@ -4350,18 +4353,20 @@
       <c r="AA60" s="41"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>223</v>
+      <c r="A61" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>222</v>
       </c>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
+      <c r="F61" s="43" t="s">
+        <v>390</v>
+      </c>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
       <c r="I61" s="40"/>
@@ -4389,14 +4394,14 @@
         <v>169</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
-      <c r="F62" s="56"/>
+      <c r="F62" s="40"/>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
       <c r="I62" s="40"/>
@@ -4424,10 +4429,10 @@
         <v>169</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
@@ -4459,10 +4464,10 @@
         <v>169</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
@@ -4490,16 +4495,18 @@
       <c r="AA64" s="41"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="C65" s="42"/>
+      <c r="A65" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>226</v>
+      </c>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
+      <c r="F65" s="56"/>
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
       <c r="I65" s="40"/>
@@ -4522,10 +4529,14 @@
       <c r="Z65" s="41"/>
       <c r="AA65" s="41"/>
     </row>
-    <row r="66" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C66" s="42"/>
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
       <c r="F66" s="40"/>
@@ -4551,21 +4562,13 @@
       <c r="Z66" s="41"/>
       <c r="AA66" s="41"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="C67" s="42" t="s">
-        <v>232</v>
-      </c>
+    <row r="67" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
-      <c r="F67" s="43" t="s">
-        <v>392</v>
-      </c>
+      <c r="F67" s="40"/>
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
       <c r="I67" s="40"/>
@@ -4589,18 +4592,20 @@
       <c r="AA67" s="41"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="C68" s="40" t="s">
-        <v>35</v>
+      <c r="B68" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>232</v>
       </c>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
+      <c r="F68" s="43" t="s">
+        <v>390</v>
+      </c>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
       <c r="I68" s="40"/>
@@ -4624,18 +4629,18 @@
       <c r="AA68" s="41"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B69" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="C69" s="51" t="s">
-        <v>238</v>
+      <c r="A69" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
-      <c r="F69" s="56"/>
+      <c r="F69" s="40"/>
       <c r="G69" s="40"/>
       <c r="H69" s="40"/>
       <c r="I69" s="40"/>
@@ -4660,19 +4665,17 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C70" s="40" t="s">
-        <v>239</v>
+        <v>234</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>238</v>
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
-      <c r="F70" s="56" t="s">
-        <v>315</v>
-      </c>
+      <c r="F70" s="56"/>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
       <c r="I70" s="40"/>
@@ -4700,15 +4703,15 @@
         <v>193</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="F71" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
@@ -4734,18 +4737,18 @@
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="50" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
       <c r="F72" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -4774,15 +4777,15 @@
         <v>245</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
       <c r="F73" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
@@ -4806,87 +4809,89 @@
       <c r="Z73" s="41"/>
       <c r="AA73" s="41"/>
     </row>
-    <row r="74" spans="1:27" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="57" t="s">
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="40"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="40"/>
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="41"/>
+      <c r="W74" s="41"/>
+      <c r="X74" s="41"/>
+      <c r="Y74" s="41"/>
+      <c r="Z74" s="41"/>
+      <c r="AA74" s="41"/>
+    </row>
+    <row r="75" spans="1:27" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="B74" s="57" t="s">
+      <c r="B75" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="58"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="58"/>
-      <c r="N74" s="58"/>
-      <c r="O74" s="58"/>
-      <c r="P74" s="58"/>
-      <c r="Q74" s="58"/>
-      <c r="R74" s="58"/>
-      <c r="S74" s="60"/>
-      <c r="T74" s="60"/>
-      <c r="U74" s="60"/>
-      <c r="V74" s="60"/>
-      <c r="W74" s="60"/>
-      <c r="X74" s="60"/>
-      <c r="Y74" s="60"/>
-      <c r="Z74" s="60"/>
-      <c r="AA74" s="60"/>
-    </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="57" t="s">
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
+      <c r="L75" s="58"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="58"/>
+      <c r="O75" s="58"/>
+      <c r="P75" s="58"/>
+      <c r="Q75" s="58"/>
+      <c r="R75" s="58"/>
+      <c r="S75" s="60"/>
+      <c r="T75" s="60"/>
+      <c r="U75" s="60"/>
+      <c r="V75" s="60"/>
+      <c r="W75" s="60"/>
+      <c r="X75" s="60"/>
+      <c r="Y75" s="60"/>
+      <c r="Z75" s="60"/>
+      <c r="AA75" s="60"/>
+    </row>
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="B75" s="57" t="s">
+      <c r="B76" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C75" s="40" t="s">
+      <c r="C76" s="40" t="s">
         <v>35</v>
-      </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="40"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="40"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="41"/>
-      <c r="T75" s="41"/>
-      <c r="U75" s="41"/>
-      <c r="V75" s="41"/>
-      <c r="W75" s="41"/>
-      <c r="X75" s="41"/>
-      <c r="Y75" s="41"/>
-      <c r="Z75" s="41"/>
-      <c r="AA75" s="41"/>
-    </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>253</v>
       </c>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
-      <c r="F76" s="56"/>
+      <c r="F76" s="40"/>
       <c r="G76" s="40"/>
       <c r="H76" s="40"/>
       <c r="I76" s="40"/>
@@ -4911,19 +4916,17 @@
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="B77" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C77" s="40" t="s">
-        <v>239</v>
+        <v>259</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>253</v>
       </c>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
-      <c r="F77" s="56" t="s">
-        <v>316</v>
-      </c>
+      <c r="F77" s="56"/>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
       <c r="I77" s="40"/>
@@ -4951,15 +4954,15 @@
         <v>193</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
       <c r="F78" s="56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
@@ -4985,18 +4988,18 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="50" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="B79" s="50" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
       <c r="F79" s="56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
@@ -5025,15 +5028,15 @@
         <v>245</v>
       </c>
       <c r="B80" s="50" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="F80" s="56" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
@@ -5057,83 +5060,85 @@
       <c r="Z80" s="41"/>
       <c r="AA80" s="41"/>
     </row>
-    <row r="81" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="57" t="s">
+    <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="G81" s="40"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="40"/>
+      <c r="R81" s="40"/>
+      <c r="S81" s="41"/>
+      <c r="T81" s="41"/>
+      <c r="U81" s="41"/>
+      <c r="V81" s="41"/>
+      <c r="W81" s="41"/>
+      <c r="X81" s="41"/>
+      <c r="Y81" s="41"/>
+      <c r="Z81" s="41"/>
+      <c r="AA81" s="41"/>
+    </row>
+    <row r="82" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="B81" s="57" t="s">
+      <c r="B82" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="C81" s="58"/>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="59"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="58"/>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58"/>
-      <c r="K81" s="58"/>
-      <c r="L81" s="58"/>
-      <c r="M81" s="58"/>
-      <c r="N81" s="58"/>
-      <c r="O81" s="58"/>
-      <c r="P81" s="58"/>
-      <c r="Q81" s="58"/>
-      <c r="R81" s="58"/>
-      <c r="S81" s="60"/>
-      <c r="T81" s="60"/>
-      <c r="U81" s="60"/>
-      <c r="V81" s="60"/>
-      <c r="W81" s="60"/>
-      <c r="X81" s="60"/>
-      <c r="Y81" s="60"/>
-      <c r="Z81" s="60"/>
-      <c r="AA81" s="60"/>
-    </row>
-    <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="57" t="s">
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="58"/>
+      <c r="O82" s="58"/>
+      <c r="P82" s="58"/>
+      <c r="Q82" s="58"/>
+      <c r="R82" s="58"/>
+      <c r="S82" s="60"/>
+      <c r="T82" s="60"/>
+      <c r="U82" s="60"/>
+      <c r="V82" s="60"/>
+      <c r="W82" s="60"/>
+      <c r="X82" s="60"/>
+      <c r="Y82" s="60"/>
+      <c r="Z82" s="60"/>
+      <c r="AA82" s="60"/>
+    </row>
+    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="B82" s="57" t="s">
+      <c r="B83" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="C82" s="40" t="s">
+      <c r="C83" s="40" t="s">
         <v>35</v>
-      </c>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="41"/>
-      <c r="U82" s="41"/>
-      <c r="V82" s="41"/>
-      <c r="W82" s="41"/>
-      <c r="X82" s="41"/>
-      <c r="Y82" s="41"/>
-      <c r="Z82" s="41"/>
-      <c r="AA82" s="41"/>
-    </row>
-    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B83" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>255</v>
       </c>
       <c r="D83" s="40"/>
       <c r="E83" s="40"/>
@@ -5162,19 +5167,17 @@
     </row>
     <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="50" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="C84" s="40" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>255</v>
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
-      <c r="F84" s="56" t="s">
-        <v>317</v>
-      </c>
+      <c r="F84" s="56"/>
       <c r="G84" s="40"/>
       <c r="H84" s="40"/>
       <c r="I84" s="40"/>
@@ -5198,16 +5201,20 @@
       <c r="AA84" s="41"/>
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="B85" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="C85" s="40"/>
+      <c r="A85" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>258</v>
+      </c>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
-      <c r="F85" s="56"/>
+      <c r="F85" s="56" t="s">
+        <v>316</v>
+      </c>
       <c r="G85" s="40"/>
       <c r="H85" s="40"/>
       <c r="I85" s="40"/>
@@ -5231,16 +5238,16 @@
       <c r="AA85" s="41"/>
     </row>
     <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
+      <c r="A86" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="B86" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="C86" s="42"/>
+      <c r="B86" s="57" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" s="40"/>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
+      <c r="F86" s="56"/>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
       <c r="I86" s="40"/>
@@ -5263,70 +5270,60 @@
       <c r="Z86" s="41"/>
       <c r="AA86" s="41"/>
     </row>
-    <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="C88" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="G88" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
-      <c r="N88" s="40"/>
-      <c r="O88" s="40"/>
-      <c r="P88" s="40"/>
-      <c r="Q88" s="40"/>
-      <c r="R88" s="40"/>
-      <c r="S88" s="40"/>
-      <c r="T88" s="40"/>
-      <c r="U88" s="40"/>
-      <c r="V88" s="40"/>
-      <c r="W88" s="40"/>
-      <c r="X88" s="40"/>
-      <c r="Y88" s="40"/>
-      <c r="Z88" s="40"/>
-      <c r="AA88" s="40"/>
-      <c r="AB88" s="40"/>
-      <c r="AC88" s="40"/>
-      <c r="AD88" s="40"/>
-      <c r="AE88" s="40"/>
-      <c r="AF88" s="40"/>
-      <c r="AG88" s="40"/>
-      <c r="AH88" s="40"/>
-      <c r="AI88" s="40"/>
+    <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="42"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="40"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="40"/>
+      <c r="O87" s="40"/>
+      <c r="P87" s="40"/>
+      <c r="Q87" s="40"/>
+      <c r="R87" s="40"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="41"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+      <c r="AA87" s="41"/>
     </row>
     <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="50" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="B89" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D89" s="40"/>
       <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
+      <c r="F89" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="G89" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H89" s="40"/>
       <c r="I89" s="40"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
       <c r="L89" s="40"/>
       <c r="M89" s="40"/>
       <c r="N89" s="40"/>
@@ -5357,10 +5354,10 @@
         <v>169</v>
       </c>
       <c r="B90" s="50" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D90" s="40"/>
       <c r="E90" s="40"/>
@@ -5400,10 +5397,10 @@
         <v>169</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
@@ -5443,10 +5440,10 @@
         <v>169</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
@@ -5486,10 +5483,10 @@
         <v>169</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D93" s="40"/>
       <c r="E93" s="40"/>
@@ -5529,10 +5526,10 @@
         <v>169</v>
       </c>
       <c r="B94" s="50" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D94" s="40"/>
       <c r="E94" s="40"/>
@@ -5572,10 +5569,10 @@
         <v>169</v>
       </c>
       <c r="B95" s="50" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D95" s="40"/>
       <c r="E95" s="40"/>
@@ -5612,18 +5609,18 @@
     </row>
     <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="50" t="s">
-        <v>293</v>
+        <v>169</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
       <c r="F96" s="40" t="s">
-        <v>318</v>
+        <v>450</v>
       </c>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
@@ -5657,17 +5654,19 @@
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="50" t="s">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="D97" s="40"/>
       <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
+      <c r="F97" s="40" t="s">
+        <v>317</v>
+      </c>
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
       <c r="I97" s="40"/>
@@ -5703,10 +5702,10 @@
         <v>169</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D98" s="40"/>
       <c r="E98" s="40"/>
@@ -5746,10 +5745,10 @@
         <v>169</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="C99" s="51" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="C99" s="40" t="s">
+        <v>284</v>
       </c>
       <c r="D99" s="40"/>
       <c r="E99" s="40"/>
@@ -5789,10 +5788,10 @@
         <v>169</v>
       </c>
       <c r="B100" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C100" s="40" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>286</v>
       </c>
       <c r="D100" s="40"/>
       <c r="E100" s="40"/>
@@ -5832,10 +5831,10 @@
         <v>169</v>
       </c>
       <c r="B101" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="C101" s="51" t="s">
-        <v>290</v>
+        <v>287</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>288</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
@@ -5872,13 +5871,19 @@
     </row>
     <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B102" s="50"/>
-      <c r="C102" s="40"/>
+        <v>169</v>
+      </c>
+      <c r="B102" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" s="51" t="s">
+        <v>447</v>
+      </c>
       <c r="D102" s="40"/>
       <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
+      <c r="F102" s="40" t="s">
+        <v>450</v>
+      </c>
       <c r="G102" s="40"/>
       <c r="H102" s="40"/>
       <c r="I102" s="40"/>
@@ -5909,108 +5914,100 @@
       <c r="AH102" s="40"/>
       <c r="AI102" s="40"/>
     </row>
-    <row r="103" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="54"/>
-      <c r="B103" s="54"/>
-      <c r="C103" s="54"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="54"/>
-      <c r="F103" s="54"/>
-      <c r="G103" s="54"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="54"/>
-      <c r="J103" s="54"/>
-      <c r="K103" s="54"/>
-      <c r="L103" s="54"/>
-      <c r="M103" s="54"/>
-      <c r="N103" s="54"/>
-      <c r="O103" s="54"/>
-      <c r="P103" s="54"/>
-      <c r="Q103" s="54"/>
-      <c r="R103" s="54"/>
-      <c r="S103" s="54"/>
-      <c r="T103" s="54"/>
-      <c r="U103" s="54"/>
-      <c r="V103" s="54"/>
-      <c r="W103" s="54"/>
-      <c r="X103" s="54"/>
-      <c r="Y103" s="54"/>
-      <c r="Z103" s="54"/>
-      <c r="AA103" s="54"/>
-      <c r="AB103" s="54"/>
-      <c r="AC103" s="54"/>
-      <c r="AD103" s="54"/>
-      <c r="AE103" s="54"/>
-      <c r="AF103" s="54"/>
-      <c r="AG103" s="54"/>
-      <c r="AH103" s="54"/>
-      <c r="AI103" s="54"/>
-    </row>
-    <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B104" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="C104" s="51" t="s">
-        <v>403</v>
-      </c>
-      <c r="D104" s="40"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56" t="s">
-        <v>393</v>
-      </c>
-      <c r="G104" s="40"/>
-      <c r="H104" s="40"/>
-      <c r="I104" s="56"/>
-      <c r="J104" s="56"/>
-      <c r="K104" s="56"/>
-      <c r="L104" s="51"/>
-      <c r="M104" s="51"/>
-      <c r="N104" s="51"/>
-      <c r="O104" s="51"/>
-      <c r="P104" s="51"/>
-      <c r="Q104" s="51"/>
-      <c r="R104" s="51"/>
-      <c r="S104" s="51"/>
-      <c r="T104" s="51"/>
-      <c r="U104" s="56"/>
-      <c r="V104" s="51"/>
-      <c r="W104" s="56"/>
-      <c r="X104" s="56"/>
-      <c r="Y104" s="56"/>
-      <c r="Z104" s="56"/>
-      <c r="AA104" s="56"/>
-      <c r="AB104" s="56"/>
-      <c r="AC104" s="56"/>
-      <c r="AD104" s="56"/>
-      <c r="AE104" s="56"/>
-      <c r="AF104" s="56"/>
-      <c r="AG104" s="56"/>
-      <c r="AH104" s="56"/>
-      <c r="AI104" s="56"/>
+    <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="50"/>
+      <c r="C103" s="40"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="40"/>
+      <c r="F103" s="40"/>
+      <c r="G103" s="40"/>
+      <c r="H103" s="40"/>
+      <c r="I103" s="40"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="40"/>
+      <c r="L103" s="40"/>
+      <c r="M103" s="40"/>
+      <c r="N103" s="40"/>
+      <c r="O103" s="40"/>
+      <c r="P103" s="40"/>
+      <c r="Q103" s="40"/>
+      <c r="R103" s="40"/>
+      <c r="S103" s="40"/>
+      <c r="T103" s="40"/>
+      <c r="U103" s="40"/>
+      <c r="V103" s="40"/>
+      <c r="W103" s="40"/>
+      <c r="X103" s="40"/>
+      <c r="Y103" s="40"/>
+      <c r="Z103" s="40"/>
+      <c r="AA103" s="40"/>
+      <c r="AB103" s="40"/>
+      <c r="AC103" s="40"/>
+      <c r="AD103" s="40"/>
+      <c r="AE103" s="40"/>
+      <c r="AF103" s="40"/>
+      <c r="AG103" s="40"/>
+      <c r="AH103" s="40"/>
+      <c r="AI103" s="40"/>
+    </row>
+    <row r="104" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="54"/>
+      <c r="B104" s="54"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="54"/>
+      <c r="F104" s="54"/>
+      <c r="G104" s="54"/>
+      <c r="H104" s="54"/>
+      <c r="I104" s="54"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="54"/>
+      <c r="L104" s="54"/>
+      <c r="M104" s="54"/>
+      <c r="N104" s="54"/>
+      <c r="O104" s="54"/>
+      <c r="P104" s="54"/>
+      <c r="Q104" s="54"/>
+      <c r="R104" s="54"/>
+      <c r="S104" s="54"/>
+      <c r="T104" s="54"/>
+      <c r="U104" s="54"/>
+      <c r="V104" s="54"/>
+      <c r="W104" s="54"/>
+      <c r="X104" s="54"/>
+      <c r="Y104" s="54"/>
+      <c r="Z104" s="54"/>
+      <c r="AA104" s="54"/>
+      <c r="AB104" s="54"/>
+      <c r="AC104" s="54"/>
+      <c r="AD104" s="54"/>
+      <c r="AE104" s="54"/>
+      <c r="AF104" s="54"/>
+      <c r="AG104" s="54"/>
+      <c r="AH104" s="54"/>
+      <c r="AI104" s="54"/>
     </row>
     <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="78" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="B105" s="78" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C105" s="51" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D105" s="40"/>
-      <c r="E105" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56" t="s">
+        <v>391</v>
+      </c>
       <c r="G105" s="40"/>
       <c r="H105" s="40"/>
-      <c r="I105" s="51" t="s">
-        <v>406</v>
-      </c>
+      <c r="I105" s="56"/>
       <c r="J105" s="56"/>
       <c r="K105" s="56"/>
       <c r="L105" s="51"/>
@@ -6040,13 +6037,13 @@
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="78" t="s">
-        <v>407</v>
+        <v>193</v>
       </c>
       <c r="B106" s="78" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C106" s="51" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="56" t="s">
@@ -6055,10 +6052,12 @@
       <c r="F106" s="56"/>
       <c r="G106" s="40"/>
       <c r="H106" s="40"/>
-      <c r="I106" s="56"/>
+      <c r="I106" s="51" t="s">
+        <v>404</v>
+      </c>
       <c r="J106" s="56"/>
       <c r="K106" s="56"/>
-      <c r="L106" s="56"/>
+      <c r="L106" s="51"/>
       <c r="M106" s="51"/>
       <c r="N106" s="51"/>
       <c r="O106" s="51"/>
@@ -6085,24 +6084,22 @@
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="78" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B107" s="78" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C107" s="51" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D107" s="40"/>
       <c r="E107" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F107" s="56"/>
       <c r="G107" s="40"/>
       <c r="H107" s="40"/>
-      <c r="I107" s="56" t="s">
-        <v>413</v>
-      </c>
+      <c r="I107" s="56"/>
       <c r="J107" s="56"/>
       <c r="K107" s="56"/>
       <c r="L107" s="56"/>
@@ -6132,20 +6129,24 @@
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="78" t="s">
-        <v>344</v>
+        <v>408</v>
       </c>
       <c r="B108" s="78" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C108" s="51" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D108" s="40"/>
-      <c r="E108" s="56"/>
+      <c r="E108" s="56" t="s">
+        <v>57</v>
+      </c>
       <c r="F108" s="56"/>
       <c r="G108" s="40"/>
       <c r="H108" s="40"/>
-      <c r="I108" s="56"/>
+      <c r="I108" s="56" t="s">
+        <v>411</v>
+      </c>
       <c r="J108" s="56"/>
       <c r="K108" s="56"/>
       <c r="L108" s="56"/>
@@ -6175,19 +6176,17 @@
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="78" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B109" s="78" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C109" s="51" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="56"/>
-      <c r="F109" s="56" t="s">
-        <v>416</v>
-      </c>
+      <c r="F109" s="56"/>
       <c r="G109" s="40"/>
       <c r="H109" s="40"/>
       <c r="I109" s="56"/>
@@ -6212,9 +6211,7 @@
       <c r="AB109" s="56"/>
       <c r="AC109" s="56"/>
       <c r="AD109" s="56"/>
-      <c r="AE109" s="56" t="s">
-        <v>39</v>
-      </c>
+      <c r="AE109" s="56"/>
       <c r="AF109" s="56"/>
       <c r="AG109" s="56"/>
       <c r="AH109" s="56"/>
@@ -6225,7 +6222,7 @@
         <v>32</v>
       </c>
       <c r="B110" s="79" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C110" s="80" t="s">
         <v>35</v>
@@ -6233,7 +6230,7 @@
       <c r="D110" s="56"/>
       <c r="E110" s="56"/>
       <c r="F110" s="56" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G110" s="56"/>
       <c r="H110" s="56"/>
@@ -6265,7 +6262,7 @@
       <c r="AF110" s="56"/>
       <c r="AG110" s="56"/>
       <c r="AH110" s="81" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="AI110" s="56"/>
     </row>
@@ -6274,7 +6271,7 @@
         <v>95</v>
       </c>
       <c r="B111" s="79" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>35</v>
@@ -6287,7 +6284,7 @@
       <c r="I111" s="80"/>
       <c r="J111" s="80"/>
       <c r="K111" s="80" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L111" s="80"/>
       <c r="M111" s="80"/>
@@ -6322,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="C112" s="80" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D112" s="56"/>
       <c r="E112" s="56"/>
@@ -6332,7 +6329,7 @@
       <c r="I112" s="56"/>
       <c r="J112" s="56"/>
       <c r="K112" s="80" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L112" s="56"/>
       <c r="M112" s="56"/>
@@ -6364,7 +6361,7 @@
         <v>95</v>
       </c>
       <c r="B113" s="79" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C113" s="80" t="s">
         <v>35</v>
@@ -6377,7 +6374,7 @@
       <c r="I113" s="56"/>
       <c r="J113" s="56"/>
       <c r="K113" s="80" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="L113" s="56"/>
       <c r="M113" s="56"/>
@@ -6409,7 +6406,7 @@
         <v>95</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C114" s="80" t="s">
         <v>35</v>
@@ -6422,7 +6419,7 @@
       <c r="I114" s="80"/>
       <c r="J114" s="80"/>
       <c r="K114" s="80" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="L114" s="80"/>
       <c r="M114" s="80"/>
@@ -6454,7 +6451,7 @@
         <v>32</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>35</v>
@@ -6510,7 +6507,7 @@
       <c r="I116" s="80"/>
       <c r="J116" s="80"/>
       <c r="K116" s="80" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L116" s="80"/>
       <c r="M116" s="80"/>
@@ -6555,7 +6552,7 @@
       <c r="I117" s="80"/>
       <c r="J117" s="80"/>
       <c r="K117" s="80" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L117" s="80"/>
       <c r="M117" s="80"/>
@@ -6587,7 +6584,7 @@
         <v>32</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>35</v>
@@ -6630,7 +6627,7 @@
         <v>95</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>35</v>
@@ -6643,7 +6640,7 @@
       <c r="I119" s="56"/>
       <c r="J119" s="56"/>
       <c r="K119" s="80" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L119" s="56"/>
       <c r="M119" s="56"/>
@@ -6675,7 +6672,7 @@
         <v>95</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>35</v>
@@ -6688,7 +6685,7 @@
       <c r="I120" s="56"/>
       <c r="J120" s="56"/>
       <c r="K120" s="80" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="L120" s="56"/>
       <c r="M120" s="56"/>
@@ -6720,7 +6717,7 @@
         <v>95</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C121" s="80" t="s">
         <v>35</v>
@@ -6733,7 +6730,7 @@
       <c r="I121" s="56"/>
       <c r="J121" s="56"/>
       <c r="K121" s="80" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L121" s="56"/>
       <c r="M121" s="56"/>
@@ -6765,7 +6762,7 @@
         <v>95</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>35</v>
@@ -6778,7 +6775,7 @@
       <c r="I122" s="80"/>
       <c r="J122" s="80"/>
       <c r="K122" s="80" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L122" s="80"/>
       <c r="M122" s="80"/>
@@ -6927,7 +6924,7 @@
         <v>95</v>
       </c>
       <c r="B126" s="82" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C126" s="56" t="s">
         <v>35</v>
@@ -6940,7 +6937,7 @@
       <c r="I126" s="56"/>
       <c r="J126" s="56"/>
       <c r="K126" s="56" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="L126" s="56"/>
       <c r="M126" s="56"/>
@@ -7011,7 +7008,7 @@
         <v>32</v>
       </c>
       <c r="B129" s="68" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C129" s="69" t="s">
         <v>35</v>
@@ -7020,7 +7017,7 @@
       <c r="E129" s="70"/>
       <c r="F129" s="71"/>
       <c r="G129" s="71" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H129" s="70"/>
       <c r="I129" s="71"/>
@@ -7055,13 +7052,13 @@
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="B130" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="C130" s="69" t="s">
         <v>344</v>
-      </c>
-      <c r="B130" s="72" t="s">
-        <v>345</v>
-      </c>
-      <c r="C130" s="69" t="s">
-        <v>346</v>
       </c>
       <c r="D130" s="71"/>
       <c r="E130" s="71"/>
@@ -7098,19 +7095,19 @@
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B131" s="68" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C131" s="69" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D131" s="71"/>
       <c r="E131" s="71"/>
       <c r="F131" s="71"/>
       <c r="G131" s="69" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H131" s="71"/>
       <c r="I131" s="71"/>
@@ -7143,13 +7140,13 @@
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B132" s="68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C132" s="69" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D132" s="71"/>
       <c r="E132" s="71"/>
@@ -7186,19 +7183,19 @@
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B133" s="68" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C133" s="69" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D133" s="71"/>
       <c r="E133" s="71"/>
       <c r="F133" s="71"/>
       <c r="G133" s="69" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H133" s="71"/>
       <c r="I133" s="71"/>
@@ -7231,19 +7228,19 @@
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B134" s="68" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C134" s="71" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D134" s="71"/>
       <c r="E134" s="71"/>
       <c r="F134" s="70"/>
       <c r="G134" s="69" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H134" s="71"/>
       <c r="I134" s="71"/>
@@ -7276,21 +7273,21 @@
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B135" s="68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C135" s="69" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D135" s="70"/>
       <c r="E135" s="70"/>
       <c r="F135" s="69" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G135" s="71" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H135" s="70"/>
       <c r="I135" s="71"/>
@@ -7323,21 +7320,21 @@
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B136" s="68" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C136" s="69" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D136" s="70"/>
       <c r="E136" s="70"/>
       <c r="F136" s="69" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G136" s="71" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H136" s="70"/>
       <c r="I136" s="71"/>
@@ -7370,21 +7367,21 @@
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B137" s="68" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C137" s="71" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D137" s="71"/>
       <c r="E137" s="71"/>
       <c r="F137" s="69" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G137" s="69" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H137" s="71"/>
       <c r="I137" s="71"/>
@@ -7417,21 +7414,21 @@
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B138" s="68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C138" s="69" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D138" s="70"/>
       <c r="E138" s="70"/>
       <c r="F138" s="69" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G138" s="71" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H138" s="70"/>
       <c r="I138" s="71"/>
@@ -7464,21 +7461,21 @@
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B139" s="68" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C139" s="69" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D139" s="70"/>
       <c r="E139" s="70"/>
       <c r="F139" s="69" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G139" s="71" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H139" s="70"/>
       <c r="I139" s="71"/>
@@ -7511,21 +7508,21 @@
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B140" s="68" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C140" s="69" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D140" s="70"/>
       <c r="E140" s="70"/>
       <c r="F140" s="69" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G140" s="69" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H140" s="70"/>
       <c r="I140" s="71"/>
@@ -7558,21 +7555,21 @@
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B141" s="68" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C141" s="69" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D141" s="71"/>
       <c r="E141" s="71"/>
       <c r="F141" s="69" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G141" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H141" s="71"/>
       <c r="I141" s="71"/>
@@ -7605,21 +7602,21 @@
     </row>
     <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B142" s="68" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C142" s="69" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D142" s="71"/>
       <c r="E142" s="71"/>
       <c r="F142" s="69" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G142" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H142" s="71"/>
       <c r="I142" s="71"/>
@@ -7652,21 +7649,21 @@
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B143" s="68" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C143" s="69" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D143" s="71"/>
       <c r="E143" s="71"/>
       <c r="F143" s="69" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G143" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H143" s="71"/>
       <c r="I143" s="71"/>
@@ -7699,10 +7696,10 @@
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B144" s="68" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C144" s="69" t="s">
         <v>178</v>
@@ -7710,10 +7707,10 @@
       <c r="D144" s="71"/>
       <c r="E144" s="71"/>
       <c r="F144" s="69" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G144" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H144" s="71"/>
       <c r="I144" s="71"/>
@@ -7746,10 +7743,10 @@
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B145" s="68" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C145" s="69" t="s">
         <v>180</v>
@@ -7757,10 +7754,10 @@
       <c r="D145" s="71"/>
       <c r="E145" s="71"/>
       <c r="F145" s="69" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G145" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H145" s="71"/>
       <c r="I145" s="71"/>
@@ -7793,10 +7790,10 @@
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B146" s="68" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C146" s="69" t="s">
         <v>182</v>
@@ -7804,10 +7801,10 @@
       <c r="D146" s="71"/>
       <c r="E146" s="71"/>
       <c r="F146" s="69" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G146" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H146" s="71"/>
       <c r="I146" s="71"/>
@@ -7840,10 +7837,10 @@
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B147" s="68" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C147" s="69" t="s">
         <v>184</v>
@@ -7851,10 +7848,10 @@
       <c r="D147" s="71"/>
       <c r="E147" s="71"/>
       <c r="F147" s="69" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G147" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H147" s="71"/>
       <c r="I147" s="71"/>
@@ -7887,10 +7884,10 @@
     </row>
     <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B148" s="68" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C148" s="69" t="s">
         <v>186</v>
@@ -7898,10 +7895,10 @@
       <c r="D148" s="71"/>
       <c r="E148" s="71"/>
       <c r="F148" s="69" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G148" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H148" s="71"/>
       <c r="I148" s="71"/>
@@ -7934,21 +7931,21 @@
     </row>
     <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B149" s="68" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C149" s="69" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D149" s="71"/>
       <c r="E149" s="71"/>
       <c r="F149" s="69" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G149" s="69" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H149" s="71"/>
       <c r="I149" s="71"/>
@@ -7981,21 +7978,21 @@
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B150" s="68" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C150" s="69" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D150" s="71"/>
       <c r="E150" s="71"/>
       <c r="F150" s="69" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G150" s="69" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H150" s="71"/>
       <c r="I150" s="71"/>
@@ -8028,18 +8025,18 @@
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B151" s="68" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C151" s="69" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D151" s="71"/>
       <c r="E151" s="71"/>
       <c r="F151" s="69" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G151" s="69"/>
       <c r="H151" s="71"/>
@@ -8073,18 +8070,18 @@
     </row>
     <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B152" s="68" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D152" s="71"/>
       <c r="E152" s="71"/>
       <c r="F152" s="69" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G152" s="69"/>
       <c r="H152" s="71"/>
@@ -8118,18 +8115,18 @@
     </row>
     <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B153" s="68" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C153" s="69" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D153" s="71"/>
       <c r="E153" s="71"/>
       <c r="F153" s="69" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G153" s="69"/>
       <c r="H153" s="71"/>
@@ -8952,15 +8949,15 @@
       <c r="AI175" s="75"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 D21:E86 I88:I104 I108:I127 E104:E127 I129:I175">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 D22:E87 I89:I105 I129:I175 E105:E127 I109:I127">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J20">
+    <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J21">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A104:A127 A129:A154">
+    <dataValidation type="list" allowBlank="1" sqref="A129:A154 A105:A127">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9173,40 +9170,40 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>297</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>99</v>
@@ -9217,68 +9214,68 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B17" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>323</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B18" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>325</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B19" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="67" t="s">
         <v>327</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B20" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="67" t="s">
         <v>329</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B21" s="67" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="67" t="s">
         <v>331</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
@@ -9305,13 +9302,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -9338,7 +9335,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>53</v>
@@ -9739,7 +9736,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
@@ -9803,10 +9800,10 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44132.37412951389</v>
+        <v>44132.404415393517</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="455">
   <si>
     <t>list_name</t>
   </si>
@@ -678,9 +678,6 @@
   </si>
   <si>
     <t>Were other samples collected?</t>
-  </si>
-  <si>
-    <t>select_multiple extra_samples</t>
   </si>
   <si>
     <t>other_samples_collected</t>
@@ -1384,6 +1381,21 @@
   </si>
   <si>
     <t>${patient_sex} = 'female'</t>
+  </si>
+  <si>
+    <t>initial_sample</t>
+  </si>
+  <si>
+    <t>Was an initial CoVID 19 sample collected?</t>
+  </si>
+  <si>
+    <t>${initial_sample} = 'yes'</t>
+  </si>
+  <si>
+    <t>select_multiple extra_samples or_other</t>
+  </si>
+  <si>
+    <t>table-list</t>
   </si>
 </sst>
 </file>
@@ -2066,13 +2078,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ175"/>
+  <dimension ref="A1:AJ176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F96" sqref="F96"/>
+      <selection pane="bottomRight" activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2318,7 +2330,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -2407,10 +2419,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>303</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>304</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
@@ -2487,10 +2499,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>305</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>306</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -2533,10 +2545,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>307</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>308</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -2826,7 +2838,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>35</v>
@@ -2839,7 +2851,7 @@
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
       <c r="K19" s="65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
@@ -2872,7 +2884,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>35</v>
@@ -2885,7 +2897,7 @@
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
@@ -2917,7 +2929,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>35</v>
@@ -2930,7 +2942,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="65"/>
       <c r="K21" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
@@ -2991,7 +3003,7 @@
         <v>196</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>35</v>
@@ -2999,7 +3011,9 @@
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
+      <c r="G23" s="43" t="s">
+        <v>38</v>
+      </c>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
       <c r="J23" s="43"/>
@@ -3023,13 +3037,13 @@
     </row>
     <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="C24" s="40" t="s">
         <v>320</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>321</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>56</v>
@@ -3063,7 +3077,7 @@
         <v>212</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="40"/>
@@ -3125,7 +3139,7 @@
         <v>196</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>35</v>
@@ -3133,9 +3147,11 @@
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="G27" s="43"/>
+        <v>389</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>38</v>
+      </c>
       <c r="H27" s="43"/>
       <c r="I27" s="43"/>
       <c r="J27" s="43"/>
@@ -3159,13 +3175,13 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>332</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>333</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>56</v>
@@ -3199,7 +3215,7 @@
         <v>212</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="40"/>
@@ -3269,9 +3285,11 @@
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="G31" s="43"/>
+        <v>389</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>38</v>
+      </c>
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
       <c r="J31" s="43"/>
@@ -3298,10 +3316,10 @@
         <v>169</v>
       </c>
       <c r="B32" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>334</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>335</v>
       </c>
       <c r="D32" s="40" t="s">
         <v>56</v>
@@ -3335,17 +3353,17 @@
         <v>169</v>
       </c>
       <c r="B33" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>336</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>337</v>
       </c>
       <c r="D33" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E33" s="40"/>
       <c r="F33" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
@@ -3384,7 +3402,7 @@
       </c>
       <c r="E34" s="40"/>
       <c r="F34" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
@@ -3423,7 +3441,7 @@
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
@@ -3449,18 +3467,18 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="B36" s="50" t="s">
-        <v>291</v>
-      </c>
       <c r="C36" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
@@ -3499,7 +3517,7 @@
       </c>
       <c r="E37" s="40"/>
       <c r="F37" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
@@ -3538,7 +3556,7 @@
       </c>
       <c r="E38" s="40"/>
       <c r="F38" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
@@ -3577,7 +3595,7 @@
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -3616,7 +3634,7 @@
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -3655,7 +3673,7 @@
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
@@ -3694,7 +3712,7 @@
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
@@ -3733,7 +3751,7 @@
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
@@ -3772,7 +3790,7 @@
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
@@ -3811,7 +3829,7 @@
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
@@ -3850,7 +3868,7 @@
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
@@ -3889,7 +3907,7 @@
       </c>
       <c r="E47" s="40"/>
       <c r="F47" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
@@ -3988,9 +4006,11 @@
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="G50" s="43"/>
+        <v>389</v>
+      </c>
+      <c r="G50" s="43" t="s">
+        <v>38</v>
+      </c>
       <c r="H50" s="43"/>
       <c r="I50" s="43"/>
       <c r="J50" s="43"/>
@@ -4014,13 +4034,13 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>199</v>
+        <v>450</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>200</v>
+        <v>451</v>
       </c>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
@@ -4049,17 +4069,19 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
+      <c r="F52" s="40" t="s">
+        <v>452</v>
+      </c>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
       <c r="I52" s="40"/>
@@ -4083,16 +4105,20 @@
       <c r="AA52" s="41"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B53" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="51"/>
+      <c r="A53" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>201</v>
+      </c>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
+      <c r="F53" s="40" t="s">
+        <v>452</v>
+      </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
@@ -4116,9 +4142,13 @@
       <c r="AA53" s="41"/>
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
+      <c r="A54" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="51"/>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="F54" s="40"/>
@@ -4145,20 +4175,12 @@
       <c r="AA54" s="41"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="C55" s="42" t="s">
-        <v>214</v>
-      </c>
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
-      <c r="F55" s="43" t="s">
-        <v>390</v>
-      </c>
+      <c r="F55" s="40"/>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
       <c r="I55" s="40"/>
@@ -4182,19 +4204,23 @@
       <c r="AA55" s="41"/>
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B56" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>215</v>
+      <c r="A56" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>214</v>
       </c>
       <c r="D56" s="40"/>
       <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
+      <c r="F56" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H56" s="40"/>
       <c r="I56" s="40"/>
       <c r="J56" s="40"/>
@@ -4218,19 +4244,17 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
-      <c r="F57" s="56" t="s">
-        <v>313</v>
-      </c>
+      <c r="F57" s="40"/>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
       <c r="I57" s="40"/>
@@ -4255,18 +4279,18 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
-        <v>193</v>
+        <v>453</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
       <c r="F58" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
@@ -4291,16 +4315,20 @@
       <c r="AA58" s="41"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B59" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="C59" s="42"/>
+      <c r="A59" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>200</v>
+      </c>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
+      <c r="F59" s="56" t="s">
+        <v>312</v>
+      </c>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
       <c r="I59" s="40"/>
@@ -4323,10 +4351,14 @@
       <c r="Z59" s="41"/>
       <c r="AA59" s="41"/>
     </row>
-    <row r="60" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" s="42"/>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
       <c r="F60" s="40"/>
@@ -4352,21 +4384,13 @@
       <c r="Z60" s="41"/>
       <c r="AA60" s="41"/>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B61" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>222</v>
-      </c>
+    <row r="61" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
-      <c r="F61" s="43" t="s">
-        <v>390</v>
-      </c>
+      <c r="F61" s="40"/>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
       <c r="I61" s="40"/>
@@ -4390,19 +4414,23 @@
       <c r="AA61" s="41"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C62" s="40" t="s">
-        <v>223</v>
+      <c r="A62" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>221</v>
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
+      <c r="F62" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G62" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H62" s="40"/>
       <c r="I62" s="40"/>
       <c r="J62" s="40"/>
@@ -4429,14 +4457,14 @@
         <v>169</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
-      <c r="F63" s="56"/>
+      <c r="F63" s="40"/>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
       <c r="I63" s="40"/>
@@ -4464,10 +4492,10 @@
         <v>169</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
@@ -4499,10 +4527,10 @@
         <v>169</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
@@ -4530,16 +4558,18 @@
       <c r="AA65" s="41"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="C66" s="42"/>
+      <c r="A66" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>225</v>
+      </c>
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
       <c r="I66" s="40"/>
@@ -4562,10 +4592,14 @@
       <c r="Z66" s="41"/>
       <c r="AA66" s="41"/>
     </row>
-    <row r="67" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="42"/>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
@@ -4591,21 +4625,13 @@
       <c r="Z67" s="41"/>
       <c r="AA67" s="41"/>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>232</v>
-      </c>
+    <row r="68" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
-      <c r="F68" s="43" t="s">
-        <v>390</v>
-      </c>
+      <c r="F68" s="40"/>
       <c r="G68" s="40"/>
       <c r="H68" s="40"/>
       <c r="I68" s="40"/>
@@ -4629,19 +4655,23 @@
       <c r="AA68" s="41"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="57" t="s">
+      <c r="A69" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="B69" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>35</v>
+      <c r="B69" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>231</v>
       </c>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="40"/>
+      <c r="F69" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G69" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H69" s="40"/>
       <c r="I69" s="40"/>
       <c r="J69" s="40"/>
@@ -4664,18 +4694,18 @@
       <c r="AA69" s="41"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B70" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" s="51" t="s">
-        <v>238</v>
+      <c r="A70" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
-      <c r="F70" s="56"/>
+      <c r="F70" s="40"/>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
       <c r="I70" s="40"/>
@@ -4700,19 +4730,17 @@
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="50" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C71" s="40" t="s">
-        <v>239</v>
+        <v>233</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>237</v>
       </c>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
-      <c r="F71" s="56" t="s">
-        <v>314</v>
-      </c>
+      <c r="F71" s="56"/>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
       <c r="I71" s="40"/>
@@ -4740,15 +4768,15 @@
         <v>193</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
       <c r="F72" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -4774,18 +4802,18 @@
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
       <c r="F73" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
@@ -4811,18 +4839,18 @@
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
       <c r="F74" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G74" s="40"/>
       <c r="H74" s="40"/>
@@ -4846,87 +4874,89 @@
       <c r="Z74" s="41"/>
       <c r="AA74" s="41"/>
     </row>
-    <row r="75" spans="1:27" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="57" t="s">
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="56" t="s">
+        <v>313</v>
+      </c>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="40"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="41"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="41"/>
+      <c r="W75" s="41"/>
+      <c r="X75" s="41"/>
+      <c r="Y75" s="41"/>
+      <c r="Z75" s="41"/>
+      <c r="AA75" s="41"/>
+    </row>
+    <row r="76" spans="1:27" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="B75" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="58"/>
-      <c r="P75" s="58"/>
-      <c r="Q75" s="58"/>
-      <c r="R75" s="58"/>
-      <c r="S75" s="60"/>
-      <c r="T75" s="60"/>
-      <c r="U75" s="60"/>
-      <c r="V75" s="60"/>
-      <c r="W75" s="60"/>
-      <c r="X75" s="60"/>
-      <c r="Y75" s="60"/>
-      <c r="Z75" s="60"/>
-      <c r="AA75" s="60"/>
-    </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="57" t="s">
+      <c r="B76" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="58"/>
+      <c r="J76" s="58"/>
+      <c r="K76" s="58"/>
+      <c r="L76" s="58"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="58"/>
+      <c r="O76" s="58"/>
+      <c r="P76" s="58"/>
+      <c r="Q76" s="58"/>
+      <c r="R76" s="58"/>
+      <c r="S76" s="60"/>
+      <c r="T76" s="60"/>
+      <c r="U76" s="60"/>
+      <c r="V76" s="60"/>
+      <c r="W76" s="60"/>
+      <c r="X76" s="60"/>
+      <c r="Y76" s="60"/>
+      <c r="Z76" s="60"/>
+      <c r="AA76" s="60"/>
+    </row>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="C76" s="40" t="s">
+      <c r="B77" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C77" s="40" t="s">
         <v>35</v>
-      </c>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="40"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="40"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="41"/>
-      <c r="T76" s="41"/>
-      <c r="U76" s="41"/>
-      <c r="V76" s="41"/>
-      <c r="W76" s="41"/>
-      <c r="X76" s="41"/>
-      <c r="Y76" s="41"/>
-      <c r="Z76" s="41"/>
-      <c r="AA76" s="41"/>
-    </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B77" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>253</v>
       </c>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
-      <c r="F77" s="56"/>
+      <c r="F77" s="40"/>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
       <c r="I77" s="40"/>
@@ -4951,19 +4981,17 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="50" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C78" s="40" t="s">
-        <v>239</v>
+        <v>258</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>252</v>
       </c>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
-      <c r="F78" s="56" t="s">
-        <v>315</v>
-      </c>
+      <c r="F78" s="56"/>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
       <c r="I78" s="40"/>
@@ -4994,12 +5022,12 @@
         <v>247</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
       <c r="F79" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
@@ -5025,18 +5053,18 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="50" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="B80" s="50" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="F80" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
@@ -5062,18 +5090,18 @@
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B81" s="50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
       <c r="F81" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
@@ -5097,83 +5125,85 @@
       <c r="Z81" s="41"/>
       <c r="AA81" s="41"/>
     </row>
-    <row r="82" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="57" t="s">
+    <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="56" t="s">
+        <v>314</v>
+      </c>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="41"/>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="41"/>
+      <c r="AA82" s="41"/>
+    </row>
+    <row r="83" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="B82" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="58"/>
-      <c r="P82" s="58"/>
-      <c r="Q82" s="58"/>
-      <c r="R82" s="58"/>
-      <c r="S82" s="60"/>
-      <c r="T82" s="60"/>
-      <c r="U82" s="60"/>
-      <c r="V82" s="60"/>
-      <c r="W82" s="60"/>
-      <c r="X82" s="60"/>
-      <c r="Y82" s="60"/>
-      <c r="Z82" s="60"/>
-      <c r="AA82" s="60"/>
-    </row>
-    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="57" t="s">
+      <c r="B83" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" s="58"/>
+      <c r="D83" s="58"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="58"/>
+      <c r="J83" s="58"/>
+      <c r="K83" s="58"/>
+      <c r="L83" s="58"/>
+      <c r="M83" s="58"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="58"/>
+      <c r="P83" s="58"/>
+      <c r="Q83" s="58"/>
+      <c r="R83" s="58"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="60"/>
+      <c r="V83" s="60"/>
+      <c r="W83" s="60"/>
+      <c r="X83" s="60"/>
+      <c r="Y83" s="60"/>
+      <c r="Z83" s="60"/>
+      <c r="AA83" s="60"/>
+    </row>
+    <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="B83" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="C83" s="40" t="s">
+      <c r="B84" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="C84" s="40" t="s">
         <v>35</v>
-      </c>
-      <c r="D83" s="40"/>
-      <c r="E83" s="40"/>
-      <c r="F83" s="56"/>
-      <c r="G83" s="40"/>
-      <c r="H83" s="40"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="40"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="40"/>
-      <c r="O83" s="40"/>
-      <c r="P83" s="40"/>
-      <c r="Q83" s="40"/>
-      <c r="R83" s="40"/>
-      <c r="S83" s="41"/>
-      <c r="T83" s="41"/>
-      <c r="U83" s="41"/>
-      <c r="V83" s="41"/>
-      <c r="W83" s="41"/>
-      <c r="X83" s="41"/>
-      <c r="Y83" s="41"/>
-      <c r="Z83" s="41"/>
-      <c r="AA83" s="41"/>
-    </row>
-    <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="B84" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="C84" s="51" t="s">
-        <v>255</v>
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
@@ -5202,19 +5232,17 @@
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="50" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="C85" s="40" t="s">
-        <v>258</v>
+        <v>255</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>254</v>
       </c>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
-      <c r="F85" s="56" t="s">
-        <v>316</v>
-      </c>
+      <c r="F85" s="56"/>
       <c r="G85" s="40"/>
       <c r="H85" s="40"/>
       <c r="I85" s="40"/>
@@ -5238,16 +5266,20 @@
       <c r="AA85" s="41"/>
     </row>
     <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="B86" s="57" t="s">
-        <v>254</v>
-      </c>
-      <c r="C86" s="40"/>
+      <c r="A86" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="40" t="s">
+        <v>257</v>
+      </c>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
-      <c r="F86" s="56"/>
+      <c r="F86" s="56" t="s">
+        <v>315</v>
+      </c>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
       <c r="I86" s="40"/>
@@ -5271,16 +5303,16 @@
       <c r="AA86" s="41"/>
     </row>
     <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="42" t="s">
+      <c r="A87" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="B87" s="42" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="42"/>
+      <c r="B87" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="C87" s="40"/>
       <c r="D87" s="40"/>
       <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
+      <c r="F87" s="56"/>
       <c r="G87" s="40"/>
       <c r="H87" s="40"/>
       <c r="I87" s="40"/>
@@ -5303,70 +5335,60 @@
       <c r="Z87" s="41"/>
       <c r="AA87" s="41"/>
     </row>
-    <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B89" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>266</v>
-      </c>
-      <c r="D89" s="40"/>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="G89" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H89" s="40"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
-      <c r="N89" s="40"/>
-      <c r="O89" s="40"/>
-      <c r="P89" s="40"/>
-      <c r="Q89" s="40"/>
-      <c r="R89" s="40"/>
-      <c r="S89" s="40"/>
-      <c r="T89" s="40"/>
-      <c r="U89" s="40"/>
-      <c r="V89" s="40"/>
-      <c r="W89" s="40"/>
-      <c r="X89" s="40"/>
-      <c r="Y89" s="40"/>
-      <c r="Z89" s="40"/>
-      <c r="AA89" s="40"/>
-      <c r="AB89" s="40"/>
-      <c r="AC89" s="40"/>
-      <c r="AD89" s="40"/>
-      <c r="AE89" s="40"/>
-      <c r="AF89" s="40"/>
-      <c r="AG89" s="40"/>
-      <c r="AH89" s="40"/>
-      <c r="AI89" s="40"/>
+    <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="42"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="40"/>
+      <c r="G88" s="40"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="40"/>
+      <c r="Q88" s="40"/>
+      <c r="R88" s="40"/>
+      <c r="S88" s="41"/>
+      <c r="T88" s="41"/>
+      <c r="U88" s="41"/>
+      <c r="V88" s="41"/>
+      <c r="W88" s="41"/>
+      <c r="X88" s="41"/>
+      <c r="Y88" s="41"/>
+      <c r="Z88" s="41"/>
+      <c r="AA88" s="41"/>
     </row>
     <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="50" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="B90" s="50" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D90" s="40"/>
       <c r="E90" s="40"/>
-      <c r="F90" s="40"/>
-      <c r="G90" s="40"/>
+      <c r="F90" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="G90" s="40" t="s">
+        <v>454</v>
+      </c>
       <c r="H90" s="40"/>
       <c r="I90" s="40"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
       <c r="N90" s="40"/>
@@ -5397,10 +5419,10 @@
         <v>169</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
@@ -5440,10 +5462,10 @@
         <v>169</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
@@ -5483,10 +5505,10 @@
         <v>169</v>
       </c>
       <c r="B93" s="50" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D93" s="40"/>
       <c r="E93" s="40"/>
@@ -5526,10 +5548,10 @@
         <v>169</v>
       </c>
       <c r="B94" s="50" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D94" s="40"/>
       <c r="E94" s="40"/>
@@ -5569,10 +5591,10 @@
         <v>169</v>
       </c>
       <c r="B95" s="50" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D95" s="40"/>
       <c r="E95" s="40"/>
@@ -5612,16 +5634,14 @@
         <v>169</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
-      <c r="F96" s="40" t="s">
-        <v>450</v>
-      </c>
+      <c r="F96" s="40"/>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
       <c r="I96" s="40"/>
@@ -5654,18 +5674,18 @@
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="50" t="s">
-        <v>292</v>
+        <v>169</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D97" s="40"/>
       <c r="E97" s="40"/>
       <c r="F97" s="40" t="s">
-        <v>317</v>
+        <v>449</v>
       </c>
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
@@ -5699,17 +5719,19 @@
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="50" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D98" s="40"/>
       <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
+      <c r="F98" s="40" t="s">
+        <v>316</v>
+      </c>
       <c r="G98" s="40"/>
       <c r="H98" s="40"/>
       <c r="I98" s="40"/>
@@ -5745,10 +5767,10 @@
         <v>169</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D99" s="40"/>
       <c r="E99" s="40"/>
@@ -5788,10 +5810,10 @@
         <v>169</v>
       </c>
       <c r="B100" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="C100" s="51" t="s">
-        <v>286</v>
+        <v>282</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>283</v>
       </c>
       <c r="D100" s="40"/>
       <c r="E100" s="40"/>
@@ -5831,10 +5853,10 @@
         <v>169</v>
       </c>
       <c r="B101" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C101" s="40" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="C101" s="51" t="s">
+        <v>285</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
@@ -5874,16 +5896,14 @@
         <v>169</v>
       </c>
       <c r="B102" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="C102" s="51" t="s">
-        <v>447</v>
+        <v>286</v>
+      </c>
+      <c r="C102" s="40" t="s">
+        <v>287</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="40"/>
-      <c r="F102" s="40" t="s">
-        <v>450</v>
-      </c>
+      <c r="F102" s="40"/>
       <c r="G102" s="40"/>
       <c r="H102" s="40"/>
       <c r="I102" s="40"/>
@@ -5916,13 +5936,19 @@
     </row>
     <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B103" s="50"/>
-      <c r="C103" s="40"/>
+        <v>169</v>
+      </c>
+      <c r="B103" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="51" t="s">
+        <v>446</v>
+      </c>
       <c r="D103" s="40"/>
       <c r="E103" s="40"/>
-      <c r="F103" s="40"/>
+      <c r="F103" s="40" t="s">
+        <v>449</v>
+      </c>
       <c r="G103" s="40"/>
       <c r="H103" s="40"/>
       <c r="I103" s="40"/>
@@ -5953,108 +5979,102 @@
       <c r="AH103" s="40"/>
       <c r="AI103" s="40"/>
     </row>
-    <row r="104" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="54"/>
-      <c r="B104" s="54"/>
-      <c r="C104" s="54"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="54"/>
-      <c r="F104" s="54"/>
-      <c r="G104" s="54"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="54"/>
-      <c r="J104" s="54"/>
-      <c r="K104" s="54"/>
-      <c r="L104" s="54"/>
-      <c r="M104" s="54"/>
-      <c r="N104" s="54"/>
-      <c r="O104" s="54"/>
-      <c r="P104" s="54"/>
-      <c r="Q104" s="54"/>
-      <c r="R104" s="54"/>
-      <c r="S104" s="54"/>
-      <c r="T104" s="54"/>
-      <c r="U104" s="54"/>
-      <c r="V104" s="54"/>
-      <c r="W104" s="54"/>
-      <c r="X104" s="54"/>
-      <c r="Y104" s="54"/>
-      <c r="Z104" s="54"/>
-      <c r="AA104" s="54"/>
-      <c r="AB104" s="54"/>
-      <c r="AC104" s="54"/>
-      <c r="AD104" s="54"/>
-      <c r="AE104" s="54"/>
-      <c r="AF104" s="54"/>
-      <c r="AG104" s="54"/>
-      <c r="AH104" s="54"/>
-      <c r="AI104" s="54"/>
-    </row>
-    <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B105" s="78" t="s">
-        <v>400</v>
-      </c>
-      <c r="C105" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="D105" s="40"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="G105" s="40"/>
-      <c r="H105" s="40"/>
-      <c r="I105" s="56"/>
-      <c r="J105" s="56"/>
-      <c r="K105" s="56"/>
-      <c r="L105" s="51"/>
-      <c r="M105" s="51"/>
-      <c r="N105" s="51"/>
-      <c r="O105" s="51"/>
-      <c r="P105" s="51"/>
-      <c r="Q105" s="51"/>
-      <c r="R105" s="51"/>
-      <c r="S105" s="51"/>
-      <c r="T105" s="51"/>
-      <c r="U105" s="56"/>
-      <c r="V105" s="51"/>
-      <c r="W105" s="56"/>
-      <c r="X105" s="56"/>
-      <c r="Y105" s="56"/>
-      <c r="Z105" s="56"/>
-      <c r="AA105" s="56"/>
-      <c r="AB105" s="56"/>
-      <c r="AC105" s="56"/>
-      <c r="AD105" s="56"/>
-      <c r="AE105" s="56"/>
-      <c r="AF105" s="56"/>
-      <c r="AG105" s="56"/>
-      <c r="AH105" s="56"/>
-      <c r="AI105" s="56"/>
+    <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" s="50"/>
+      <c r="C104" s="40"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="40"/>
+      <c r="G104" s="40"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="40"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="40"/>
+      <c r="L104" s="40"/>
+      <c r="M104" s="40"/>
+      <c r="N104" s="40"/>
+      <c r="O104" s="40"/>
+      <c r="P104" s="40"/>
+      <c r="Q104" s="40"/>
+      <c r="R104" s="40"/>
+      <c r="S104" s="40"/>
+      <c r="T104" s="40"/>
+      <c r="U104" s="40"/>
+      <c r="V104" s="40"/>
+      <c r="W104" s="40"/>
+      <c r="X104" s="40"/>
+      <c r="Y104" s="40"/>
+      <c r="Z104" s="40"/>
+      <c r="AA104" s="40"/>
+      <c r="AB104" s="40"/>
+      <c r="AC104" s="40"/>
+      <c r="AD104" s="40"/>
+      <c r="AE104" s="40"/>
+      <c r="AF104" s="40"/>
+      <c r="AG104" s="40"/>
+      <c r="AH104" s="40"/>
+      <c r="AI104" s="40"/>
+    </row>
+    <row r="105" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="54"/>
+      <c r="B105" s="54"/>
+      <c r="C105" s="54"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="54"/>
+      <c r="H105" s="54"/>
+      <c r="I105" s="54"/>
+      <c r="J105" s="54"/>
+      <c r="K105" s="54"/>
+      <c r="L105" s="54"/>
+      <c r="M105" s="54"/>
+      <c r="N105" s="54"/>
+      <c r="O105" s="54"/>
+      <c r="P105" s="54"/>
+      <c r="Q105" s="54"/>
+      <c r="R105" s="54"/>
+      <c r="S105" s="54"/>
+      <c r="T105" s="54"/>
+      <c r="U105" s="54"/>
+      <c r="V105" s="54"/>
+      <c r="W105" s="54"/>
+      <c r="X105" s="54"/>
+      <c r="Y105" s="54"/>
+      <c r="Z105" s="54"/>
+      <c r="AA105" s="54"/>
+      <c r="AB105" s="54"/>
+      <c r="AC105" s="54"/>
+      <c r="AD105" s="54"/>
+      <c r="AE105" s="54"/>
+      <c r="AF105" s="54"/>
+      <c r="AG105" s="54"/>
+      <c r="AH105" s="54"/>
+      <c r="AI105" s="54"/>
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="78" t="s">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="B106" s="78" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C106" s="51" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D106" s="40"/>
-      <c r="E106" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F106" s="56"/>
-      <c r="G106" s="40"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G106" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H106" s="40"/>
-      <c r="I106" s="51" t="s">
-        <v>404</v>
-      </c>
+      <c r="I106" s="56"/>
       <c r="J106" s="56"/>
       <c r="K106" s="56"/>
       <c r="L106" s="51"/>
@@ -6084,13 +6104,13 @@
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="78" t="s">
-        <v>405</v>
+        <v>193</v>
       </c>
       <c r="B107" s="78" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C107" s="51" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D107" s="40"/>
       <c r="E107" s="56" t="s">
@@ -6099,10 +6119,12 @@
       <c r="F107" s="56"/>
       <c r="G107" s="40"/>
       <c r="H107" s="40"/>
-      <c r="I107" s="56"/>
+      <c r="I107" s="51" t="s">
+        <v>403</v>
+      </c>
       <c r="J107" s="56"/>
       <c r="K107" s="56"/>
-      <c r="L107" s="56"/>
+      <c r="L107" s="51"/>
       <c r="M107" s="51"/>
       <c r="N107" s="51"/>
       <c r="O107" s="51"/>
@@ -6129,24 +6151,22 @@
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="78" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B108" s="78" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C108" s="51" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D108" s="40"/>
       <c r="E108" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F108" s="56"/>
       <c r="G108" s="40"/>
       <c r="H108" s="40"/>
-      <c r="I108" s="56" t="s">
-        <v>411</v>
-      </c>
+      <c r="I108" s="56"/>
       <c r="J108" s="56"/>
       <c r="K108" s="56"/>
       <c r="L108" s="56"/>
@@ -6176,20 +6196,24 @@
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="78" t="s">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="B109" s="78" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C109" s="51" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D109" s="40"/>
-      <c r="E109" s="56"/>
+      <c r="E109" s="56" t="s">
+        <v>57</v>
+      </c>
       <c r="F109" s="56"/>
       <c r="G109" s="40"/>
       <c r="H109" s="40"/>
-      <c r="I109" s="56"/>
+      <c r="I109" s="56" t="s">
+        <v>410</v>
+      </c>
       <c r="J109" s="56"/>
       <c r="K109" s="56"/>
       <c r="L109" s="56"/>
@@ -6218,36 +6242,34 @@
       <c r="AI109" s="56"/>
     </row>
     <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B110" s="79" t="s">
-        <v>415</v>
-      </c>
-      <c r="C110" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D110" s="56"/>
+      <c r="A110" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="C110" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="D110" s="40"/>
       <c r="E110" s="56"/>
-      <c r="F110" s="56" t="s">
-        <v>414</v>
-      </c>
-      <c r="G110" s="56"/>
-      <c r="H110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
       <c r="I110" s="56"/>
-      <c r="J110" s="80"/>
+      <c r="J110" s="56"/>
       <c r="K110" s="56"/>
       <c r="L110" s="56"/>
-      <c r="M110" s="56"/>
-      <c r="N110" s="56"/>
-      <c r="O110" s="80"/>
-      <c r="P110" s="56"/>
-      <c r="Q110" s="56"/>
-      <c r="R110" s="56"/>
-      <c r="S110" s="56"/>
-      <c r="T110" s="56"/>
+      <c r="M110" s="51"/>
+      <c r="N110" s="51"/>
+      <c r="O110" s="51"/>
+      <c r="P110" s="51"/>
+      <c r="Q110" s="51"/>
+      <c r="R110" s="51"/>
+      <c r="S110" s="51"/>
+      <c r="T110" s="51"/>
       <c r="U110" s="56"/>
-      <c r="V110" s="56"/>
+      <c r="V110" s="51"/>
       <c r="W110" s="56"/>
       <c r="X110" s="56"/>
       <c r="Y110" s="56"/>
@@ -6256,83 +6278,83 @@
       <c r="AB110" s="56"/>
       <c r="AC110" s="56"/>
       <c r="AD110" s="56"/>
-      <c r="AE110" s="56" t="s">
-        <v>39</v>
-      </c>
+      <c r="AE110" s="56"/>
       <c r="AF110" s="56"/>
       <c r="AG110" s="56"/>
-      <c r="AH110" s="81" t="s">
-        <v>416</v>
-      </c>
+      <c r="AH110" s="56"/>
       <c r="AI110" s="56"/>
     </row>
     <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="79" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B111" s="79" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C111" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D111" s="56"/>
-      <c r="E111" s="80"/>
-      <c r="F111" s="56"/>
+      <c r="E111" s="56"/>
+      <c r="F111" s="56" t="s">
+        <v>413</v>
+      </c>
       <c r="G111" s="56"/>
       <c r="H111" s="56"/>
-      <c r="I111" s="80"/>
+      <c r="I111" s="56"/>
       <c r="J111" s="80"/>
-      <c r="K111" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="L111" s="80"/>
-      <c r="M111" s="80"/>
+      <c r="K111" s="56"/>
+      <c r="L111" s="56"/>
+      <c r="M111" s="56"/>
       <c r="N111" s="56"/>
-      <c r="O111" s="56"/>
+      <c r="O111" s="80"/>
       <c r="P111" s="56"/>
       <c r="Q111" s="56"/>
       <c r="R111" s="56"/>
       <c r="S111" s="56"/>
-      <c r="T111" s="80"/>
-      <c r="U111" s="80"/>
-      <c r="V111" s="80"/>
-      <c r="W111" s="80"/>
-      <c r="X111" s="80"/>
-      <c r="Y111" s="80"/>
-      <c r="Z111" s="80"/>
-      <c r="AA111" s="80"/>
-      <c r="AB111" s="80"/>
-      <c r="AC111" s="80"/>
-      <c r="AD111" s="80"/>
-      <c r="AE111" s="80"/>
-      <c r="AF111" s="80"/>
-      <c r="AG111" s="80"/>
-      <c r="AH111" s="80"/>
-      <c r="AI111" s="80"/>
+      <c r="T111" s="56"/>
+      <c r="U111" s="56"/>
+      <c r="V111" s="56"/>
+      <c r="W111" s="56"/>
+      <c r="X111" s="56"/>
+      <c r="Y111" s="56"/>
+      <c r="Z111" s="56"/>
+      <c r="AA111" s="56"/>
+      <c r="AB111" s="56"/>
+      <c r="AC111" s="56"/>
+      <c r="AD111" s="56"/>
+      <c r="AE111" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF111" s="56"/>
+      <c r="AG111" s="56"/>
+      <c r="AH111" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI111" s="56"/>
     </row>
     <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B112" s="79" t="s">
-        <v>1</v>
+        <v>416</v>
       </c>
       <c r="C112" s="80" t="s">
-        <v>419</v>
+        <v>35</v>
       </c>
       <c r="D112" s="56"/>
-      <c r="E112" s="56"/>
+      <c r="E112" s="80"/>
       <c r="F112" s="56"/>
       <c r="G112" s="56"/>
       <c r="H112" s="56"/>
-      <c r="I112" s="56"/>
-      <c r="J112" s="56"/>
+      <c r="I112" s="80"/>
+      <c r="J112" s="80"/>
       <c r="K112" s="80" t="s">
-        <v>420</v>
-      </c>
-      <c r="L112" s="56"/>
-      <c r="M112" s="56"/>
+        <v>417</v>
+      </c>
+      <c r="L112" s="80"/>
+      <c r="M112" s="80"/>
       <c r="N112" s="56"/>
       <c r="O112" s="56"/>
       <c r="P112" s="56"/>
@@ -6340,31 +6362,31 @@
       <c r="R112" s="56"/>
       <c r="S112" s="56"/>
       <c r="T112" s="80"/>
-      <c r="U112" s="56"/>
-      <c r="V112" s="56"/>
-      <c r="W112" s="56"/>
-      <c r="X112" s="56"/>
-      <c r="Y112" s="56"/>
-      <c r="Z112" s="56"/>
-      <c r="AA112" s="56"/>
-      <c r="AB112" s="56"/>
-      <c r="AC112" s="56"/>
-      <c r="AD112" s="56"/>
-      <c r="AE112" s="56"/>
-      <c r="AF112" s="56"/>
-      <c r="AG112" s="56"/>
-      <c r="AH112" s="56"/>
-      <c r="AI112" s="56"/>
+      <c r="U112" s="80"/>
+      <c r="V112" s="80"/>
+      <c r="W112" s="80"/>
+      <c r="X112" s="80"/>
+      <c r="Y112" s="80"/>
+      <c r="Z112" s="80"/>
+      <c r="AA112" s="80"/>
+      <c r="AB112" s="80"/>
+      <c r="AC112" s="80"/>
+      <c r="AD112" s="80"/>
+      <c r="AE112" s="80"/>
+      <c r="AF112" s="80"/>
+      <c r="AG112" s="80"/>
+      <c r="AH112" s="80"/>
+      <c r="AI112" s="80"/>
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B113" s="79" t="s">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="C113" s="80" t="s">
-        <v>35</v>
+        <v>418</v>
       </c>
       <c r="D113" s="56"/>
       <c r="E113" s="56"/>
@@ -6374,7 +6396,7 @@
       <c r="I113" s="56"/>
       <c r="J113" s="56"/>
       <c r="K113" s="80" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L113" s="56"/>
       <c r="M113" s="56"/>
@@ -6385,50 +6407,50 @@
       <c r="R113" s="56"/>
       <c r="S113" s="56"/>
       <c r="T113" s="80"/>
-      <c r="U113" s="80"/>
-      <c r="V113" s="80"/>
-      <c r="W113" s="80"/>
-      <c r="X113" s="80"/>
-      <c r="Y113" s="80"/>
-      <c r="Z113" s="80"/>
-      <c r="AA113" s="80"/>
-      <c r="AB113" s="80"/>
-      <c r="AC113" s="80"/>
-      <c r="AD113" s="80"/>
-      <c r="AE113" s="80"/>
-      <c r="AF113" s="80"/>
-      <c r="AG113" s="80"/>
-      <c r="AH113" s="80"/>
-      <c r="AI113" s="80"/>
+      <c r="U113" s="56"/>
+      <c r="V113" s="56"/>
+      <c r="W113" s="56"/>
+      <c r="X113" s="56"/>
+      <c r="Y113" s="56"/>
+      <c r="Z113" s="56"/>
+      <c r="AA113" s="56"/>
+      <c r="AB113" s="56"/>
+      <c r="AC113" s="56"/>
+      <c r="AD113" s="56"/>
+      <c r="AE113" s="56"/>
+      <c r="AF113" s="56"/>
+      <c r="AG113" s="56"/>
+      <c r="AH113" s="56"/>
+      <c r="AI113" s="56"/>
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C114" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D114" s="56"/>
-      <c r="E114" s="80"/>
+      <c r="E114" s="56"/>
       <c r="F114" s="56"/>
       <c r="G114" s="56"/>
       <c r="H114" s="56"/>
-      <c r="I114" s="80"/>
-      <c r="J114" s="80"/>
+      <c r="I114" s="56"/>
+      <c r="J114" s="56"/>
       <c r="K114" s="80" t="s">
-        <v>424</v>
-      </c>
-      <c r="L114" s="80"/>
-      <c r="M114" s="80"/>
-      <c r="N114" s="80"/>
-      <c r="O114" s="80"/>
-      <c r="P114" s="80"/>
-      <c r="Q114" s="80"/>
-      <c r="R114" s="80"/>
-      <c r="S114" s="80"/>
+        <v>421</v>
+      </c>
+      <c r="L114" s="56"/>
+      <c r="M114" s="56"/>
+      <c r="N114" s="56"/>
+      <c r="O114" s="56"/>
+      <c r="P114" s="56"/>
+      <c r="Q114" s="56"/>
+      <c r="R114" s="56"/>
+      <c r="S114" s="56"/>
       <c r="T114" s="80"/>
       <c r="U114" s="80"/>
       <c r="V114" s="80"/>
@@ -6448,98 +6470,98 @@
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="79" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C115" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D115" s="56"/>
-      <c r="E115" s="56"/>
+      <c r="E115" s="80"/>
       <c r="F115" s="56"/>
       <c r="G115" s="56"/>
       <c r="H115" s="56"/>
-      <c r="I115" s="56"/>
-      <c r="J115" s="56"/>
-      <c r="K115" s="56"/>
-      <c r="L115" s="56"/>
-      <c r="M115" s="56"/>
-      <c r="N115" s="56"/>
-      <c r="O115" s="56"/>
-      <c r="P115" s="56"/>
-      <c r="Q115" s="56"/>
-      <c r="R115" s="56"/>
-      <c r="S115" s="56"/>
-      <c r="T115" s="56"/>
-      <c r="U115" s="56"/>
-      <c r="V115" s="56"/>
-      <c r="W115" s="56"/>
-      <c r="X115" s="56"/>
-      <c r="Y115" s="56"/>
-      <c r="Z115" s="56"/>
-      <c r="AA115" s="56"/>
-      <c r="AB115" s="56"/>
-      <c r="AC115" s="56"/>
-      <c r="AD115" s="56"/>
-      <c r="AE115" s="56"/>
-      <c r="AF115" s="56"/>
-      <c r="AG115" s="56"/>
-      <c r="AH115" s="56"/>
-      <c r="AI115" s="56"/>
+      <c r="I115" s="80"/>
+      <c r="J115" s="80"/>
+      <c r="K115" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="L115" s="80"/>
+      <c r="M115" s="80"/>
+      <c r="N115" s="80"/>
+      <c r="O115" s="80"/>
+      <c r="P115" s="80"/>
+      <c r="Q115" s="80"/>
+      <c r="R115" s="80"/>
+      <c r="S115" s="80"/>
+      <c r="T115" s="80"/>
+      <c r="U115" s="80"/>
+      <c r="V115" s="80"/>
+      <c r="W115" s="80"/>
+      <c r="X115" s="80"/>
+      <c r="Y115" s="80"/>
+      <c r="Z115" s="80"/>
+      <c r="AA115" s="80"/>
+      <c r="AB115" s="80"/>
+      <c r="AC115" s="80"/>
+      <c r="AD115" s="80"/>
+      <c r="AE115" s="80"/>
+      <c r="AF115" s="80"/>
+      <c r="AG115" s="80"/>
+      <c r="AH115" s="80"/>
+      <c r="AI115" s="80"/>
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="79" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B116" s="79" t="s">
-        <v>48</v>
+        <v>424</v>
       </c>
       <c r="C116" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D116" s="80"/>
-      <c r="E116" s="80"/>
-      <c r="F116" s="80"/>
-      <c r="G116" s="80"/>
-      <c r="H116" s="80"/>
-      <c r="I116" s="80"/>
-      <c r="J116" s="80"/>
-      <c r="K116" s="80" t="s">
-        <v>426</v>
-      </c>
-      <c r="L116" s="80"/>
-      <c r="M116" s="80"/>
-      <c r="N116" s="80"/>
-      <c r="O116" s="80"/>
-      <c r="P116" s="80"/>
-      <c r="Q116" s="80"/>
-      <c r="R116" s="80"/>
-      <c r="S116" s="80"/>
-      <c r="T116" s="80"/>
-      <c r="U116" s="80"/>
-      <c r="V116" s="80"/>
-      <c r="W116" s="80"/>
-      <c r="X116" s="80"/>
-      <c r="Y116" s="80"/>
-      <c r="Z116" s="80"/>
-      <c r="AA116" s="80"/>
-      <c r="AB116" s="80"/>
-      <c r="AC116" s="80"/>
-      <c r="AD116" s="80"/>
-      <c r="AE116" s="80"/>
-      <c r="AF116" s="80"/>
-      <c r="AG116" s="80"/>
-      <c r="AH116" s="80"/>
-      <c r="AI116" s="80"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="56"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="56"/>
+      <c r="K116" s="56"/>
+      <c r="L116" s="56"/>
+      <c r="M116" s="56"/>
+      <c r="N116" s="56"/>
+      <c r="O116" s="56"/>
+      <c r="P116" s="56"/>
+      <c r="Q116" s="56"/>
+      <c r="R116" s="56"/>
+      <c r="S116" s="56"/>
+      <c r="T116" s="56"/>
+      <c r="U116" s="56"/>
+      <c r="V116" s="56"/>
+      <c r="W116" s="56"/>
+      <c r="X116" s="56"/>
+      <c r="Y116" s="56"/>
+      <c r="Z116" s="56"/>
+      <c r="AA116" s="56"/>
+      <c r="AB116" s="56"/>
+      <c r="AC116" s="56"/>
+      <c r="AD116" s="56"/>
+      <c r="AE116" s="56"/>
+      <c r="AF116" s="56"/>
+      <c r="AG116" s="56"/>
+      <c r="AH116" s="56"/>
+      <c r="AI116" s="56"/>
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B117" s="79" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="C117" s="80" t="s">
         <v>35</v>
@@ -6552,7 +6574,7 @@
       <c r="I117" s="80"/>
       <c r="J117" s="80"/>
       <c r="K117" s="80" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L117" s="80"/>
       <c r="M117" s="80"/>
@@ -6581,53 +6603,55 @@
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="79" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>428</v>
+        <v>164</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D118" s="56"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="56"/>
-      <c r="G118" s="56"/>
-      <c r="H118" s="56"/>
-      <c r="I118" s="56"/>
-      <c r="J118" s="56"/>
-      <c r="K118" s="56"/>
-      <c r="L118" s="56"/>
-      <c r="M118" s="56"/>
-      <c r="N118" s="56"/>
-      <c r="O118" s="56"/>
-      <c r="P118" s="56"/>
-      <c r="Q118" s="56"/>
-      <c r="R118" s="56"/>
-      <c r="S118" s="56"/>
-      <c r="T118" s="56"/>
-      <c r="U118" s="56"/>
-      <c r="V118" s="56"/>
-      <c r="W118" s="56"/>
-      <c r="X118" s="56"/>
-      <c r="Y118" s="56"/>
-      <c r="Z118" s="56"/>
-      <c r="AA118" s="56"/>
-      <c r="AB118" s="56"/>
-      <c r="AC118" s="56"/>
-      <c r="AD118" s="56"/>
-      <c r="AE118" s="56"/>
-      <c r="AF118" s="56"/>
-      <c r="AG118" s="56"/>
-      <c r="AH118" s="56"/>
-      <c r="AI118" s="56"/>
+      <c r="D118" s="80"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="80"/>
+      <c r="G118" s="80"/>
+      <c r="H118" s="80"/>
+      <c r="I118" s="80"/>
+      <c r="J118" s="80"/>
+      <c r="K118" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="L118" s="80"/>
+      <c r="M118" s="80"/>
+      <c r="N118" s="80"/>
+      <c r="O118" s="80"/>
+      <c r="P118" s="80"/>
+      <c r="Q118" s="80"/>
+      <c r="R118" s="80"/>
+      <c r="S118" s="80"/>
+      <c r="T118" s="80"/>
+      <c r="U118" s="80"/>
+      <c r="V118" s="80"/>
+      <c r="W118" s="80"/>
+      <c r="X118" s="80"/>
+      <c r="Y118" s="80"/>
+      <c r="Z118" s="80"/>
+      <c r="AA118" s="80"/>
+      <c r="AB118" s="80"/>
+      <c r="AC118" s="80"/>
+      <c r="AD118" s="80"/>
+      <c r="AE118" s="80"/>
+      <c r="AF118" s="80"/>
+      <c r="AG118" s="80"/>
+      <c r="AH118" s="80"/>
+      <c r="AI118" s="80"/>
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="79" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C119" s="80" t="s">
         <v>35</v>
@@ -6639,9 +6663,7 @@
       <c r="H119" s="56"/>
       <c r="I119" s="56"/>
       <c r="J119" s="56"/>
-      <c r="K119" s="80" t="s">
-        <v>430</v>
-      </c>
+      <c r="K119" s="56"/>
       <c r="L119" s="56"/>
       <c r="M119" s="56"/>
       <c r="N119" s="56"/>
@@ -6650,7 +6672,7 @@
       <c r="Q119" s="56"/>
       <c r="R119" s="56"/>
       <c r="S119" s="56"/>
-      <c r="T119" s="80"/>
+      <c r="T119" s="56"/>
       <c r="U119" s="56"/>
       <c r="V119" s="56"/>
       <c r="W119" s="56"/>
@@ -6672,7 +6694,7 @@
         <v>95</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>35</v>
@@ -6685,7 +6707,7 @@
       <c r="I120" s="56"/>
       <c r="J120" s="56"/>
       <c r="K120" s="80" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L120" s="56"/>
       <c r="M120" s="56"/>
@@ -6717,7 +6739,7 @@
         <v>95</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C121" s="80" t="s">
         <v>35</v>
@@ -6730,7 +6752,7 @@
       <c r="I121" s="56"/>
       <c r="J121" s="56"/>
       <c r="K121" s="80" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L121" s="56"/>
       <c r="M121" s="56"/>
@@ -6762,84 +6784,90 @@
         <v>95</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D122" s="56"/>
-      <c r="E122" s="80"/>
+      <c r="E122" s="56"/>
       <c r="F122" s="56"/>
       <c r="G122" s="56"/>
       <c r="H122" s="56"/>
-      <c r="I122" s="80"/>
-      <c r="J122" s="80"/>
+      <c r="I122" s="56"/>
+      <c r="J122" s="56"/>
       <c r="K122" s="80" t="s">
-        <v>436</v>
-      </c>
-      <c r="L122" s="80"/>
-      <c r="M122" s="80"/>
-      <c r="N122" s="80"/>
-      <c r="O122" s="80"/>
-      <c r="P122" s="80"/>
-      <c r="Q122" s="80"/>
-      <c r="R122" s="80"/>
-      <c r="S122" s="80"/>
+        <v>433</v>
+      </c>
+      <c r="L122" s="56"/>
+      <c r="M122" s="56"/>
+      <c r="N122" s="56"/>
+      <c r="O122" s="56"/>
+      <c r="P122" s="56"/>
+      <c r="Q122" s="56"/>
+      <c r="R122" s="56"/>
+      <c r="S122" s="56"/>
       <c r="T122" s="80"/>
-      <c r="U122" s="80"/>
-      <c r="V122" s="80"/>
-      <c r="W122" s="80"/>
-      <c r="X122" s="80"/>
-      <c r="Y122" s="80"/>
-      <c r="Z122" s="80"/>
-      <c r="AA122" s="80"/>
-      <c r="AB122" s="80"/>
-      <c r="AC122" s="80"/>
-      <c r="AD122" s="80"/>
-      <c r="AE122" s="80"/>
-      <c r="AF122" s="80"/>
-      <c r="AG122" s="80"/>
-      <c r="AH122" s="80"/>
-      <c r="AI122" s="80"/>
+      <c r="U122" s="56"/>
+      <c r="V122" s="56"/>
+      <c r="W122" s="56"/>
+      <c r="X122" s="56"/>
+      <c r="Y122" s="56"/>
+      <c r="Z122" s="56"/>
+      <c r="AA122" s="56"/>
+      <c r="AB122" s="56"/>
+      <c r="AC122" s="56"/>
+      <c r="AD122" s="56"/>
+      <c r="AE122" s="56"/>
+      <c r="AF122" s="56"/>
+      <c r="AG122" s="56"/>
+      <c r="AH122" s="56"/>
+      <c r="AI122" s="56"/>
     </row>
     <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B123" s="79"/>
-      <c r="C123" s="56"/>
+        <v>95</v>
+      </c>
+      <c r="B123" s="79" t="s">
+        <v>434</v>
+      </c>
+      <c r="C123" s="80" t="s">
+        <v>35</v>
+      </c>
       <c r="D123" s="56"/>
-      <c r="E123" s="56"/>
+      <c r="E123" s="80"/>
       <c r="F123" s="56"/>
       <c r="G123" s="56"/>
       <c r="H123" s="56"/>
-      <c r="I123" s="56"/>
-      <c r="J123" s="56"/>
-      <c r="K123" s="56"/>
-      <c r="L123" s="56"/>
-      <c r="M123" s="56"/>
-      <c r="N123" s="56"/>
-      <c r="O123" s="56"/>
-      <c r="P123" s="56"/>
-      <c r="Q123" s="56"/>
-      <c r="R123" s="56"/>
-      <c r="S123" s="56"/>
-      <c r="T123" s="56"/>
-      <c r="U123" s="56"/>
-      <c r="V123" s="56"/>
-      <c r="W123" s="56"/>
-      <c r="X123" s="56"/>
-      <c r="Y123" s="56"/>
-      <c r="Z123" s="56"/>
-      <c r="AA123" s="56"/>
-      <c r="AB123" s="56"/>
-      <c r="AC123" s="56"/>
-      <c r="AD123" s="56"/>
-      <c r="AE123" s="56"/>
-      <c r="AF123" s="56"/>
-      <c r="AG123" s="56"/>
-      <c r="AH123" s="56"/>
-      <c r="AI123" s="56"/>
+      <c r="I123" s="80"/>
+      <c r="J123" s="80"/>
+      <c r="K123" s="80" t="s">
+        <v>435</v>
+      </c>
+      <c r="L123" s="80"/>
+      <c r="M123" s="80"/>
+      <c r="N123" s="80"/>
+      <c r="O123" s="80"/>
+      <c r="P123" s="80"/>
+      <c r="Q123" s="80"/>
+      <c r="R123" s="80"/>
+      <c r="S123" s="80"/>
+      <c r="T123" s="80"/>
+      <c r="U123" s="80"/>
+      <c r="V123" s="80"/>
+      <c r="W123" s="80"/>
+      <c r="X123" s="80"/>
+      <c r="Y123" s="80"/>
+      <c r="Z123" s="80"/>
+      <c r="AA123" s="80"/>
+      <c r="AB123" s="80"/>
+      <c r="AC123" s="80"/>
+      <c r="AD123" s="80"/>
+      <c r="AE123" s="80"/>
+      <c r="AF123" s="80"/>
+      <c r="AG123" s="80"/>
+      <c r="AH123" s="80"/>
+      <c r="AI123" s="80"/>
     </row>
     <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="79" t="s">
@@ -6920,15 +6948,11 @@
       <c r="AI125" s="56"/>
     </row>
     <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="B126" s="82" t="s">
-        <v>437</v>
-      </c>
-      <c r="C126" s="56" t="s">
-        <v>35</v>
-      </c>
+      <c r="A126" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B126" s="79"/>
+      <c r="C126" s="56"/>
       <c r="D126" s="56"/>
       <c r="E126" s="56"/>
       <c r="F126" s="56"/>
@@ -6936,9 +6960,7 @@
       <c r="H126" s="56"/>
       <c r="I126" s="56"/>
       <c r="J126" s="56"/>
-      <c r="K126" s="56" t="s">
-        <v>438</v>
-      </c>
+      <c r="K126" s="56"/>
       <c r="L126" s="56"/>
       <c r="M126" s="56"/>
       <c r="N126" s="56"/>
@@ -6965,30 +6987,36 @@
       <c r="AI126" s="56"/>
     </row>
     <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B127" s="78"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="40"/>
+      <c r="A127" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B127" s="82" t="s">
+        <v>436</v>
+      </c>
+      <c r="C127" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" s="56"/>
       <c r="E127" s="56"/>
-      <c r="F127" s="40"/>
-      <c r="G127" s="40"/>
-      <c r="H127" s="40"/>
+      <c r="F127" s="56"/>
+      <c r="G127" s="56"/>
+      <c r="H127" s="56"/>
       <c r="I127" s="56"/>
       <c r="J127" s="56"/>
-      <c r="K127" s="56"/>
+      <c r="K127" s="56" t="s">
+        <v>437</v>
+      </c>
       <c r="L127" s="56"/>
-      <c r="M127" s="51"/>
-      <c r="N127" s="51"/>
-      <c r="O127" s="51"/>
-      <c r="P127" s="51"/>
-      <c r="Q127" s="51"/>
-      <c r="R127" s="51"/>
-      <c r="S127" s="51"/>
-      <c r="T127" s="51"/>
+      <c r="M127" s="56"/>
+      <c r="N127" s="56"/>
+      <c r="O127" s="56"/>
+      <c r="P127" s="56"/>
+      <c r="Q127" s="56"/>
+      <c r="R127" s="56"/>
+      <c r="S127" s="56"/>
+      <c r="T127" s="56"/>
       <c r="U127" s="56"/>
-      <c r="V127" s="51"/>
+      <c r="V127" s="56"/>
       <c r="W127" s="56"/>
       <c r="X127" s="56"/>
       <c r="Y127" s="56"/>
@@ -7003,82 +7031,76 @@
       <c r="AH127" s="56"/>
       <c r="AI127" s="56"/>
     </row>
-    <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="68" t="s">
+    <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B128" s="78"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="56"/>
+      <c r="F128" s="40"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="56"/>
+      <c r="J128" s="56"/>
+      <c r="K128" s="56"/>
+      <c r="L128" s="56"/>
+      <c r="M128" s="51"/>
+      <c r="N128" s="51"/>
+      <c r="O128" s="51"/>
+      <c r="P128" s="51"/>
+      <c r="Q128" s="51"/>
+      <c r="R128" s="51"/>
+      <c r="S128" s="51"/>
+      <c r="T128" s="51"/>
+      <c r="U128" s="56"/>
+      <c r="V128" s="51"/>
+      <c r="W128" s="56"/>
+      <c r="X128" s="56"/>
+      <c r="Y128" s="56"/>
+      <c r="Z128" s="56"/>
+      <c r="AA128" s="56"/>
+      <c r="AB128" s="56"/>
+      <c r="AC128" s="56"/>
+      <c r="AD128" s="56"/>
+      <c r="AE128" s="56"/>
+      <c r="AF128" s="56"/>
+      <c r="AG128" s="56"/>
+      <c r="AH128" s="56"/>
+      <c r="AI128" s="56"/>
+    </row>
+    <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B129" s="68" t="s">
+      <c r="B130" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="C130" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="70"/>
+      <c r="E130" s="70"/>
+      <c r="F130" s="71"/>
+      <c r="G130" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="C129" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D129" s="70"/>
-      <c r="E129" s="70"/>
-      <c r="F129" s="71"/>
-      <c r="G129" s="71" t="s">
-        <v>341</v>
-      </c>
-      <c r="H129" s="70"/>
-      <c r="I129" s="71"/>
-      <c r="J129" s="71"/>
-      <c r="K129" s="71"/>
-      <c r="L129" s="71"/>
-      <c r="M129" s="69"/>
-      <c r="N129" s="69"/>
-      <c r="O129" s="69"/>
-      <c r="P129" s="69"/>
-      <c r="Q129" s="69"/>
-      <c r="R129" s="69"/>
-      <c r="S129" s="69"/>
-      <c r="T129" s="69"/>
-      <c r="U129" s="71"/>
-      <c r="V129" s="69"/>
-      <c r="W129" s="71"/>
-      <c r="X129" s="71"/>
-      <c r="Y129" s="71"/>
-      <c r="Z129" s="71"/>
-      <c r="AA129" s="71"/>
-      <c r="AB129" s="71"/>
-      <c r="AC129" s="71"/>
-      <c r="AD129" s="71"/>
-      <c r="AE129" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF129" s="71"/>
-      <c r="AG129" s="71"/>
-      <c r="AH129" s="71"/>
-      <c r="AI129" s="71"/>
-    </row>
-    <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="72" t="s">
-        <v>342</v>
-      </c>
-      <c r="B130" s="72" t="s">
-        <v>343</v>
-      </c>
-      <c r="C130" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="D130" s="71"/>
-      <c r="E130" s="71"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71"/>
-      <c r="H130" s="71"/>
+      <c r="H130" s="70"/>
       <c r="I130" s="71"/>
       <c r="J130" s="71"/>
       <c r="K130" s="71"/>
       <c r="L130" s="71"/>
-      <c r="M130" s="71"/>
-      <c r="N130" s="71"/>
-      <c r="O130" s="71"/>
-      <c r="P130" s="71"/>
-      <c r="Q130" s="71"/>
-      <c r="R130" s="71"/>
-      <c r="S130" s="71"/>
-      <c r="T130" s="71"/>
+      <c r="M130" s="69"/>
+      <c r="N130" s="69"/>
+      <c r="O130" s="69"/>
+      <c r="P130" s="69"/>
+      <c r="Q130" s="69"/>
+      <c r="R130" s="69"/>
+      <c r="S130" s="69"/>
+      <c r="T130" s="69"/>
       <c r="U130" s="71"/>
-      <c r="V130" s="71"/>
+      <c r="V130" s="69"/>
       <c r="W130" s="71"/>
       <c r="X130" s="71"/>
       <c r="Y130" s="71"/>
@@ -7087,32 +7109,32 @@
       <c r="AB130" s="71"/>
       <c r="AC130" s="71"/>
       <c r="AD130" s="71"/>
-      <c r="AE130" s="71"/>
+      <c r="AE130" s="71" t="s">
+        <v>39</v>
+      </c>
       <c r="AF130" s="71"/>
       <c r="AG130" s="71"/>
       <c r="AH130" s="71"/>
       <c r="AI130" s="71"/>
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="68" t="s">
+      <c r="A131" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="B131" s="72" t="s">
         <v>342</v>
       </c>
-      <c r="B131" s="68" t="s">
-        <v>345</v>
-      </c>
       <c r="C131" s="69" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D131" s="71"/>
       <c r="E131" s="71"/>
       <c r="F131" s="71"/>
-      <c r="G131" s="69" t="s">
-        <v>347</v>
-      </c>
+      <c r="G131" s="71"/>
       <c r="H131" s="71"/>
       <c r="I131" s="71"/>
       <c r="J131" s="71"/>
-      <c r="K131" s="69"/>
+      <c r="K131" s="71"/>
       <c r="L131" s="71"/>
       <c r="M131" s="71"/>
       <c r="N131" s="71"/>
@@ -7140,18 +7162,20 @@
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B132" s="68" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C132" s="69" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D132" s="71"/>
       <c r="E132" s="71"/>
       <c r="F132" s="71"/>
-      <c r="G132" s="69"/>
+      <c r="G132" s="69" t="s">
+        <v>346</v>
+      </c>
       <c r="H132" s="71"/>
       <c r="I132" s="71"/>
       <c r="J132" s="71"/>
@@ -7183,20 +7207,18 @@
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B133" s="68" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C133" s="69" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D133" s="71"/>
       <c r="E133" s="71"/>
       <c r="F133" s="71"/>
-      <c r="G133" s="69" t="s">
-        <v>347</v>
-      </c>
+      <c r="G133" s="69"/>
       <c r="H133" s="71"/>
       <c r="I133" s="71"/>
       <c r="J133" s="71"/>
@@ -7228,23 +7250,23 @@
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B134" s="68" t="s">
-        <v>352</v>
-      </c>
-      <c r="C134" s="71" t="s">
-        <v>353</v>
+        <v>349</v>
+      </c>
+      <c r="C134" s="69" t="s">
+        <v>350</v>
       </c>
       <c r="D134" s="71"/>
       <c r="E134" s="71"/>
-      <c r="F134" s="70"/>
+      <c r="F134" s="71"/>
       <c r="G134" s="69" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="H134" s="71"/>
       <c r="I134" s="71"/>
-      <c r="J134" s="70"/>
+      <c r="J134" s="71"/>
       <c r="K134" s="69"/>
       <c r="L134" s="71"/>
       <c r="M134" s="71"/>
@@ -7273,37 +7295,35 @@
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B135" s="68" t="s">
-        <v>355</v>
-      </c>
-      <c r="C135" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="D135" s="70"/>
-      <c r="E135" s="70"/>
-      <c r="F135" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="G135" s="71" t="s">
-        <v>357</v>
-      </c>
-      <c r="H135" s="70"/>
+        <v>351</v>
+      </c>
+      <c r="C135" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="D135" s="71"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="70"/>
+      <c r="G135" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H135" s="71"/>
       <c r="I135" s="71"/>
-      <c r="J135" s="69"/>
-      <c r="K135" s="71"/>
+      <c r="J135" s="70"/>
+      <c r="K135" s="69"/>
       <c r="L135" s="71"/>
-      <c r="M135" s="69"/>
-      <c r="N135" s="69"/>
-      <c r="O135" s="69"/>
-      <c r="P135" s="69"/>
-      <c r="Q135" s="69"/>
-      <c r="R135" s="69"/>
-      <c r="S135" s="69"/>
-      <c r="T135" s="69"/>
+      <c r="M135" s="71"/>
+      <c r="N135" s="71"/>
+      <c r="O135" s="71"/>
+      <c r="P135" s="71"/>
+      <c r="Q135" s="71"/>
+      <c r="R135" s="71"/>
+      <c r="S135" s="71"/>
+      <c r="T135" s="71"/>
       <c r="U135" s="71"/>
-      <c r="V135" s="69"/>
+      <c r="V135" s="71"/>
       <c r="W135" s="71"/>
       <c r="X135" s="71"/>
       <c r="Y135" s="71"/>
@@ -7320,21 +7340,21 @@
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B136" s="68" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C136" s="69" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D136" s="70"/>
       <c r="E136" s="70"/>
       <c r="F136" s="69" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G136" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H136" s="70"/>
       <c r="I136" s="71"/>
@@ -7367,37 +7387,37 @@
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B137" s="68" t="s">
-        <v>360</v>
-      </c>
-      <c r="C137" s="71" t="s">
-        <v>361</v>
-      </c>
-      <c r="D137" s="71"/>
-      <c r="E137" s="71"/>
+        <v>357</v>
+      </c>
+      <c r="C137" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="D137" s="70"/>
+      <c r="E137" s="70"/>
       <c r="F137" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="G137" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="H137" s="71"/>
+        <v>390</v>
+      </c>
+      <c r="G137" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="H137" s="70"/>
       <c r="I137" s="71"/>
       <c r="J137" s="69"/>
-      <c r="K137" s="69"/>
+      <c r="K137" s="71"/>
       <c r="L137" s="71"/>
-      <c r="M137" s="71"/>
-      <c r="N137" s="71"/>
-      <c r="O137" s="71"/>
-      <c r="P137" s="71"/>
-      <c r="Q137" s="71"/>
-      <c r="R137" s="71"/>
-      <c r="S137" s="71"/>
-      <c r="T137" s="71"/>
+      <c r="M137" s="69"/>
+      <c r="N137" s="69"/>
+      <c r="O137" s="69"/>
+      <c r="P137" s="69"/>
+      <c r="Q137" s="69"/>
+      <c r="R137" s="69"/>
+      <c r="S137" s="69"/>
+      <c r="T137" s="69"/>
       <c r="U137" s="71"/>
-      <c r="V137" s="71"/>
+      <c r="V137" s="69"/>
       <c r="W137" s="71"/>
       <c r="X137" s="71"/>
       <c r="Y137" s="71"/>
@@ -7414,37 +7434,37 @@
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B138" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="C138" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="D138" s="70"/>
-      <c r="E138" s="70"/>
+        <v>359</v>
+      </c>
+      <c r="C138" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="D138" s="71"/>
+      <c r="E138" s="71"/>
       <c r="F138" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="G138" s="71" t="s">
-        <v>357</v>
-      </c>
-      <c r="H138" s="70"/>
+        <v>390</v>
+      </c>
+      <c r="G138" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H138" s="71"/>
       <c r="I138" s="71"/>
       <c r="J138" s="69"/>
-      <c r="K138" s="71"/>
+      <c r="K138" s="69"/>
       <c r="L138" s="71"/>
-      <c r="M138" s="69"/>
-      <c r="N138" s="69"/>
-      <c r="O138" s="69"/>
-      <c r="P138" s="69"/>
-      <c r="Q138" s="69"/>
-      <c r="R138" s="69"/>
-      <c r="S138" s="69"/>
-      <c r="T138" s="69"/>
+      <c r="M138" s="71"/>
+      <c r="N138" s="71"/>
+      <c r="O138" s="71"/>
+      <c r="P138" s="71"/>
+      <c r="Q138" s="71"/>
+      <c r="R138" s="71"/>
+      <c r="S138" s="71"/>
+      <c r="T138" s="71"/>
       <c r="U138" s="71"/>
-      <c r="V138" s="69"/>
+      <c r="V138" s="71"/>
       <c r="W138" s="71"/>
       <c r="X138" s="71"/>
       <c r="Y138" s="71"/>
@@ -7461,21 +7481,21 @@
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B139" s="68" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C139" s="69" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D139" s="70"/>
       <c r="E139" s="70"/>
       <c r="F139" s="69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G139" s="71" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H139" s="70"/>
       <c r="I139" s="71"/>
@@ -7508,26 +7528,26 @@
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B140" s="68" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C140" s="69" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D140" s="70"/>
       <c r="E140" s="70"/>
       <c r="F140" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="G140" s="69" t="s">
-        <v>354</v>
+        <v>390</v>
+      </c>
+      <c r="G140" s="71" t="s">
+        <v>356</v>
       </c>
       <c r="H140" s="70"/>
       <c r="I140" s="71"/>
       <c r="J140" s="69"/>
-      <c r="K140" s="69"/>
+      <c r="K140" s="71"/>
       <c r="L140" s="71"/>
       <c r="M140" s="69"/>
       <c r="N140" s="69"/>
@@ -7555,37 +7575,37 @@
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B141" s="68" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C141" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="D141" s="71"/>
-      <c r="E141" s="71"/>
+        <v>366</v>
+      </c>
+      <c r="D141" s="70"/>
+      <c r="E141" s="70"/>
       <c r="F141" s="69" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="G141" s="69" t="s">
-        <v>357</v>
-      </c>
-      <c r="H141" s="71"/>
+        <v>353</v>
+      </c>
+      <c r="H141" s="70"/>
       <c r="I141" s="71"/>
       <c r="J141" s="69"/>
       <c r="K141" s="69"/>
       <c r="L141" s="71"/>
-      <c r="M141" s="71"/>
-      <c r="N141" s="71"/>
-      <c r="O141" s="71"/>
-      <c r="P141" s="71"/>
-      <c r="Q141" s="71"/>
-      <c r="R141" s="71"/>
-      <c r="S141" s="71"/>
-      <c r="T141" s="71"/>
+      <c r="M141" s="69"/>
+      <c r="N141" s="69"/>
+      <c r="O141" s="69"/>
+      <c r="P141" s="69"/>
+      <c r="Q141" s="69"/>
+      <c r="R141" s="69"/>
+      <c r="S141" s="69"/>
+      <c r="T141" s="69"/>
       <c r="U141" s="71"/>
-      <c r="V141" s="71"/>
+      <c r="V141" s="69"/>
       <c r="W141" s="71"/>
       <c r="X141" s="71"/>
       <c r="Y141" s="71"/>
@@ -7602,21 +7622,21 @@
     </row>
     <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B142" s="68" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C142" s="69" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D142" s="71"/>
       <c r="E142" s="71"/>
       <c r="F142" s="69" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="G142" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H142" s="71"/>
       <c r="I142" s="71"/>
@@ -7649,21 +7669,21 @@
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B143" s="68" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C143" s="69" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D143" s="71"/>
       <c r="E143" s="71"/>
       <c r="F143" s="69" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G143" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H143" s="71"/>
       <c r="I143" s="71"/>
@@ -7696,21 +7716,21 @@
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B144" s="68" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C144" s="69" t="s">
-        <v>178</v>
+        <v>372</v>
       </c>
       <c r="D144" s="71"/>
       <c r="E144" s="71"/>
       <c r="F144" s="69" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G144" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H144" s="71"/>
       <c r="I144" s="71"/>
@@ -7743,21 +7763,21 @@
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B145" s="68" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C145" s="69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D145" s="71"/>
       <c r="E145" s="71"/>
       <c r="F145" s="69" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G145" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H145" s="71"/>
       <c r="I145" s="71"/>
@@ -7790,21 +7810,21 @@
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B146" s="68" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C146" s="69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D146" s="71"/>
       <c r="E146" s="71"/>
       <c r="F146" s="69" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G146" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H146" s="71"/>
       <c r="I146" s="71"/>
@@ -7837,21 +7857,21 @@
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B147" s="68" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C147" s="69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D147" s="71"/>
       <c r="E147" s="71"/>
       <c r="F147" s="69" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G147" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H147" s="71"/>
       <c r="I147" s="71"/>
@@ -7884,21 +7904,21 @@
     </row>
     <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B148" s="68" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C148" s="69" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D148" s="71"/>
       <c r="E148" s="71"/>
       <c r="F148" s="69" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G148" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H148" s="71"/>
       <c r="I148" s="71"/>
@@ -7931,21 +7951,21 @@
     </row>
     <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B149" s="68" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C149" s="69" t="s">
-        <v>380</v>
+        <v>186</v>
       </c>
       <c r="D149" s="71"/>
       <c r="E149" s="71"/>
       <c r="F149" s="69" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G149" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H149" s="71"/>
       <c r="I149" s="71"/>
@@ -7978,21 +7998,21 @@
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B150" s="68" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C150" s="69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D150" s="71"/>
       <c r="E150" s="71"/>
       <c r="F150" s="69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G150" s="69" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="H150" s="71"/>
       <c r="I150" s="71"/>
@@ -8025,20 +8045,22 @@
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B151" s="68" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C151" s="69" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D151" s="71"/>
       <c r="E151" s="71"/>
       <c r="F151" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="G151" s="69"/>
+        <v>391</v>
+      </c>
+      <c r="G151" s="69" t="s">
+        <v>382</v>
+      </c>
       <c r="H151" s="71"/>
       <c r="I151" s="71"/>
       <c r="J151" s="69"/>
@@ -8070,18 +8092,18 @@
     </row>
     <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B152" s="68" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D152" s="71"/>
       <c r="E152" s="71"/>
       <c r="F152" s="69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G152" s="69"/>
       <c r="H152" s="71"/>
@@ -8115,18 +8137,18 @@
     </row>
     <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B153" s="68" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C153" s="69" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D153" s="71"/>
       <c r="E153" s="71"/>
       <c r="F153" s="69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G153" s="69"/>
       <c r="H153" s="71"/>
@@ -8160,29 +8182,35 @@
     </row>
     <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B154" s="68"/>
-      <c r="C154" s="69"/>
-      <c r="D154" s="70"/>
-      <c r="E154" s="70"/>
-      <c r="F154" s="71"/>
-      <c r="G154" s="71"/>
-      <c r="H154" s="70"/>
+        <v>341</v>
+      </c>
+      <c r="B154" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="C154" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="D154" s="71"/>
+      <c r="E154" s="71"/>
+      <c r="F154" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="G154" s="69"/>
+      <c r="H154" s="71"/>
       <c r="I154" s="71"/>
-      <c r="J154" s="71"/>
-      <c r="K154" s="71"/>
+      <c r="J154" s="69"/>
+      <c r="K154" s="69"/>
       <c r="L154" s="71"/>
-      <c r="M154" s="69"/>
-      <c r="N154" s="69"/>
-      <c r="O154" s="69"/>
-      <c r="P154" s="69"/>
-      <c r="Q154" s="69"/>
-      <c r="R154" s="69"/>
-      <c r="S154" s="69"/>
-      <c r="T154" s="69"/>
+      <c r="M154" s="71"/>
+      <c r="N154" s="71"/>
+      <c r="O154" s="71"/>
+      <c r="P154" s="71"/>
+      <c r="Q154" s="71"/>
+      <c r="R154" s="71"/>
+      <c r="S154" s="71"/>
+      <c r="T154" s="71"/>
       <c r="U154" s="71"/>
-      <c r="V154" s="69"/>
+      <c r="V154" s="71"/>
       <c r="W154" s="71"/>
       <c r="X154" s="71"/>
       <c r="Y154" s="71"/>
@@ -8198,65 +8226,67 @@
       <c r="AI154" s="71"/>
     </row>
     <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="35"/>
-      <c r="B155" s="35"/>
-      <c r="C155" s="35"/>
-      <c r="E155" s="35"/>
-      <c r="AE155" s="35"/>
-      <c r="AF155" s="35"/>
-      <c r="AG155" s="35"/>
-      <c r="AH155" s="35"/>
-      <c r="AI155" s="35"/>
+      <c r="A155" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B155" s="68"/>
+      <c r="C155" s="69"/>
+      <c r="D155" s="70"/>
+      <c r="E155" s="70"/>
+      <c r="F155" s="71"/>
+      <c r="G155" s="71"/>
+      <c r="H155" s="70"/>
+      <c r="I155" s="71"/>
+      <c r="J155" s="71"/>
+      <c r="K155" s="71"/>
+      <c r="L155" s="71"/>
+      <c r="M155" s="69"/>
+      <c r="N155" s="69"/>
+      <c r="O155" s="69"/>
+      <c r="P155" s="69"/>
+      <c r="Q155" s="69"/>
+      <c r="R155" s="69"/>
+      <c r="S155" s="69"/>
+      <c r="T155" s="69"/>
+      <c r="U155" s="71"/>
+      <c r="V155" s="69"/>
+      <c r="W155" s="71"/>
+      <c r="X155" s="71"/>
+      <c r="Y155" s="71"/>
+      <c r="Z155" s="71"/>
+      <c r="AA155" s="71"/>
+      <c r="AB155" s="71"/>
+      <c r="AC155" s="71"/>
+      <c r="AD155" s="71"/>
+      <c r="AE155" s="71"/>
+      <c r="AF155" s="71"/>
+      <c r="AG155" s="71"/>
+      <c r="AH155" s="71"/>
+      <c r="AI155" s="71"/>
     </row>
     <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="73"/>
-      <c r="B156" s="73"/>
-      <c r="C156" s="74"/>
-      <c r="D156" s="74"/>
-      <c r="E156" s="74"/>
-      <c r="F156" s="74"/>
-      <c r="G156" s="75"/>
-      <c r="H156" s="74"/>
-      <c r="I156" s="74"/>
-      <c r="J156" s="74"/>
-      <c r="K156" s="75"/>
-      <c r="L156" s="74"/>
-      <c r="M156" s="74"/>
-      <c r="N156" s="74"/>
-      <c r="O156" s="74"/>
-      <c r="P156" s="74"/>
-      <c r="Q156" s="74"/>
-      <c r="R156" s="74"/>
-      <c r="S156" s="74"/>
-      <c r="T156" s="74"/>
-      <c r="U156" s="74"/>
-      <c r="V156" s="74"/>
-      <c r="W156" s="74"/>
-      <c r="X156" s="74"/>
-      <c r="Y156" s="74"/>
-      <c r="Z156" s="74"/>
-      <c r="AA156" s="74"/>
-      <c r="AB156" s="74"/>
-      <c r="AC156" s="74"/>
-      <c r="AD156" s="74"/>
-      <c r="AE156" s="75"/>
-      <c r="AF156" s="74"/>
-      <c r="AG156" s="74"/>
-      <c r="AH156" s="74"/>
-      <c r="AI156" s="74"/>
+      <c r="A156" s="35"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="E156" s="35"/>
+      <c r="AE156" s="35"/>
+      <c r="AF156" s="35"/>
+      <c r="AG156" s="35"/>
+      <c r="AH156" s="35"/>
+      <c r="AI156" s="35"/>
     </row>
     <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="73"/>
-      <c r="B157" s="76"/>
+      <c r="B157" s="73"/>
       <c r="C157" s="74"/>
       <c r="D157" s="74"/>
       <c r="E157" s="74"/>
       <c r="F157" s="74"/>
-      <c r="G157" s="74"/>
+      <c r="G157" s="75"/>
       <c r="H157" s="74"/>
       <c r="I157" s="74"/>
       <c r="J157" s="74"/>
-      <c r="K157" s="74"/>
+      <c r="K157" s="75"/>
       <c r="L157" s="74"/>
       <c r="M157" s="74"/>
       <c r="N157" s="74"/>
@@ -8276,9 +8306,9 @@
       <c r="AB157" s="74"/>
       <c r="AC157" s="74"/>
       <c r="AD157" s="74"/>
-      <c r="AE157" s="74"/>
+      <c r="AE157" s="75"/>
       <c r="AF157" s="74"/>
-      <c r="AG157" s="75"/>
+      <c r="AG157" s="74"/>
       <c r="AH157" s="74"/>
       <c r="AI157" s="74"/>
     </row>
@@ -8653,78 +8683,78 @@
       <c r="AI167" s="74"/>
     </row>
     <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="77"/>
-      <c r="B168" s="77"/>
+      <c r="A168" s="73"/>
+      <c r="B168" s="76"/>
       <c r="C168" s="74"/>
-      <c r="D168" s="75"/>
-      <c r="E168" s="75"/>
-      <c r="F168" s="75"/>
-      <c r="G168" s="75"/>
-      <c r="H168" s="75"/>
-      <c r="I168" s="75"/>
-      <c r="J168" s="75"/>
-      <c r="K168" s="75"/>
-      <c r="L168" s="75"/>
-      <c r="M168" s="75"/>
-      <c r="N168" s="75"/>
-      <c r="O168" s="75"/>
-      <c r="P168" s="75"/>
-      <c r="Q168" s="75"/>
-      <c r="R168" s="75"/>
-      <c r="S168" s="75"/>
-      <c r="T168" s="75"/>
-      <c r="U168" s="75"/>
-      <c r="V168" s="75"/>
-      <c r="W168" s="75"/>
-      <c r="X168" s="75"/>
-      <c r="Y168" s="75"/>
-      <c r="Z168" s="75"/>
-      <c r="AA168" s="75"/>
-      <c r="AB168" s="75"/>
-      <c r="AC168" s="75"/>
-      <c r="AD168" s="75"/>
-      <c r="AE168" s="75"/>
-      <c r="AF168" s="75"/>
+      <c r="D168" s="74"/>
+      <c r="E168" s="74"/>
+      <c r="F168" s="74"/>
+      <c r="G168" s="74"/>
+      <c r="H168" s="74"/>
+      <c r="I168" s="74"/>
+      <c r="J168" s="74"/>
+      <c r="K168" s="74"/>
+      <c r="L168" s="74"/>
+      <c r="M168" s="74"/>
+      <c r="N168" s="74"/>
+      <c r="O168" s="74"/>
+      <c r="P168" s="74"/>
+      <c r="Q168" s="74"/>
+      <c r="R168" s="74"/>
+      <c r="S168" s="74"/>
+      <c r="T168" s="74"/>
+      <c r="U168" s="74"/>
+      <c r="V168" s="74"/>
+      <c r="W168" s="74"/>
+      <c r="X168" s="74"/>
+      <c r="Y168" s="74"/>
+      <c r="Z168" s="74"/>
+      <c r="AA168" s="74"/>
+      <c r="AB168" s="74"/>
+      <c r="AC168" s="74"/>
+      <c r="AD168" s="74"/>
+      <c r="AE168" s="74"/>
+      <c r="AF168" s="74"/>
       <c r="AG168" s="75"/>
-      <c r="AH168" s="75"/>
-      <c r="AI168" s="75"/>
+      <c r="AH168" s="74"/>
+      <c r="AI168" s="74"/>
     </row>
     <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="73"/>
-      <c r="B169" s="76"/>
+      <c r="A169" s="77"/>
+      <c r="B169" s="77"/>
       <c r="C169" s="74"/>
-      <c r="D169" s="74"/>
-      <c r="E169" s="74"/>
-      <c r="F169" s="74"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="74"/>
-      <c r="I169" s="74"/>
-      <c r="J169" s="74"/>
-      <c r="K169" s="74"/>
-      <c r="L169" s="74"/>
-      <c r="M169" s="74"/>
-      <c r="N169" s="74"/>
-      <c r="O169" s="74"/>
-      <c r="P169" s="74"/>
-      <c r="Q169" s="74"/>
-      <c r="R169" s="74"/>
-      <c r="S169" s="74"/>
+      <c r="D169" s="75"/>
+      <c r="E169" s="75"/>
+      <c r="F169" s="75"/>
+      <c r="G169" s="75"/>
+      <c r="H169" s="75"/>
+      <c r="I169" s="75"/>
+      <c r="J169" s="75"/>
+      <c r="K169" s="75"/>
+      <c r="L169" s="75"/>
+      <c r="M169" s="75"/>
+      <c r="N169" s="75"/>
+      <c r="O169" s="75"/>
+      <c r="P169" s="75"/>
+      <c r="Q169" s="75"/>
+      <c r="R169" s="75"/>
+      <c r="S169" s="75"/>
       <c r="T169" s="75"/>
-      <c r="U169" s="74"/>
-      <c r="V169" s="74"/>
-      <c r="W169" s="74"/>
-      <c r="X169" s="74"/>
-      <c r="Y169" s="74"/>
-      <c r="Z169" s="74"/>
-      <c r="AA169" s="74"/>
-      <c r="AB169" s="74"/>
-      <c r="AC169" s="74"/>
-      <c r="AD169" s="74"/>
-      <c r="AE169" s="74"/>
-      <c r="AF169" s="74"/>
+      <c r="U169" s="75"/>
+      <c r="V169" s="75"/>
+      <c r="W169" s="75"/>
+      <c r="X169" s="75"/>
+      <c r="Y169" s="75"/>
+      <c r="Z169" s="75"/>
+      <c r="AA169" s="75"/>
+      <c r="AB169" s="75"/>
+      <c r="AC169" s="75"/>
+      <c r="AD169" s="75"/>
+      <c r="AE169" s="75"/>
+      <c r="AF169" s="75"/>
       <c r="AG169" s="75"/>
-      <c r="AH169" s="74"/>
-      <c r="AI169" s="74"/>
+      <c r="AH169" s="75"/>
+      <c r="AI169" s="75"/>
     </row>
     <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="73"/>
@@ -8875,41 +8905,41 @@
       <c r="AI173" s="74"/>
     </row>
     <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="77"/>
-      <c r="B174" s="77"/>
-      <c r="C174" s="75"/>
-      <c r="D174" s="75"/>
-      <c r="E174" s="75"/>
-      <c r="F174" s="75"/>
-      <c r="G174" s="75"/>
-      <c r="H174" s="75"/>
-      <c r="I174" s="75"/>
-      <c r="J174" s="75"/>
-      <c r="K174" s="75"/>
-      <c r="L174" s="75"/>
-      <c r="M174" s="75"/>
-      <c r="N174" s="75"/>
-      <c r="O174" s="75"/>
-      <c r="P174" s="75"/>
-      <c r="Q174" s="75"/>
-      <c r="R174" s="75"/>
-      <c r="S174" s="75"/>
+      <c r="A174" s="73"/>
+      <c r="B174" s="76"/>
+      <c r="C174" s="74"/>
+      <c r="D174" s="74"/>
+      <c r="E174" s="74"/>
+      <c r="F174" s="74"/>
+      <c r="G174" s="74"/>
+      <c r="H174" s="74"/>
+      <c r="I174" s="74"/>
+      <c r="J174" s="74"/>
+      <c r="K174" s="74"/>
+      <c r="L174" s="74"/>
+      <c r="M174" s="74"/>
+      <c r="N174" s="74"/>
+      <c r="O174" s="74"/>
+      <c r="P174" s="74"/>
+      <c r="Q174" s="74"/>
+      <c r="R174" s="74"/>
+      <c r="S174" s="74"/>
       <c r="T174" s="75"/>
-      <c r="U174" s="75"/>
-      <c r="V174" s="75"/>
-      <c r="W174" s="75"/>
-      <c r="X174" s="75"/>
-      <c r="Y174" s="75"/>
-      <c r="Z174" s="75"/>
-      <c r="AA174" s="75"/>
-      <c r="AB174" s="75"/>
-      <c r="AC174" s="75"/>
-      <c r="AD174" s="75"/>
-      <c r="AE174" s="75"/>
-      <c r="AF174" s="75"/>
+      <c r="U174" s="74"/>
+      <c r="V174" s="74"/>
+      <c r="W174" s="74"/>
+      <c r="X174" s="74"/>
+      <c r="Y174" s="74"/>
+      <c r="Z174" s="74"/>
+      <c r="AA174" s="74"/>
+      <c r="AB174" s="74"/>
+      <c r="AC174" s="74"/>
+      <c r="AD174" s="74"/>
+      <c r="AE174" s="74"/>
+      <c r="AF174" s="74"/>
       <c r="AG174" s="75"/>
-      <c r="AH174" s="75"/>
-      <c r="AI174" s="75"/>
+      <c r="AH174" s="74"/>
+      <c r="AI174" s="74"/>
     </row>
     <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="77"/>
@@ -8948,16 +8978,53 @@
       <c r="AH175" s="75"/>
       <c r="AI175" s="75"/>
     </row>
+    <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="77"/>
+      <c r="B176" s="77"/>
+      <c r="C176" s="75"/>
+      <c r="D176" s="75"/>
+      <c r="E176" s="75"/>
+      <c r="F176" s="75"/>
+      <c r="G176" s="75"/>
+      <c r="H176" s="75"/>
+      <c r="I176" s="75"/>
+      <c r="J176" s="75"/>
+      <c r="K176" s="75"/>
+      <c r="L176" s="75"/>
+      <c r="M176" s="75"/>
+      <c r="N176" s="75"/>
+      <c r="O176" s="75"/>
+      <c r="P176" s="75"/>
+      <c r="Q176" s="75"/>
+      <c r="R176" s="75"/>
+      <c r="S176" s="75"/>
+      <c r="T176" s="75"/>
+      <c r="U176" s="75"/>
+      <c r="V176" s="75"/>
+      <c r="W176" s="75"/>
+      <c r="X176" s="75"/>
+      <c r="Y176" s="75"/>
+      <c r="Z176" s="75"/>
+      <c r="AA176" s="75"/>
+      <c r="AB176" s="75"/>
+      <c r="AC176" s="75"/>
+      <c r="AD176" s="75"/>
+      <c r="AE176" s="75"/>
+      <c r="AF176" s="75"/>
+      <c r="AG176" s="75"/>
+      <c r="AH176" s="75"/>
+      <c r="AI176" s="75"/>
+    </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 D22:E87 I89:I105 I129:I175 E105:E127 I109:I127">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 I110:I128 I90:I106 I130:I176 E106:E128 D22:E88">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J21">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A129:A154 A105:A127">
+    <dataValidation type="list" allowBlank="1" sqref="A130:A155 A106:A128">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9115,7 +9182,7 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>56</v>
@@ -9126,7 +9193,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>57</v>
@@ -9137,145 +9204,145 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>261</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>296</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B17" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>322</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B18" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>324</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B19" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="67" t="s">
         <v>326</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B20" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="67" t="s">
         <v>328</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B21" s="67" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="67" t="s">
         <v>330</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>439</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="C22" s="52" t="s">
         <v>440</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>441</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
@@ -9302,13 +9369,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B23" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="C23" s="52" t="s">
         <v>442</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>443</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -9335,7 +9402,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>53</v>
@@ -9800,10 +9867,10 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44132.404415393517</v>
+        <v>44132.423503703707</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="454">
   <si>
     <t>list_name</t>
   </si>
@@ -1393,9 +1393,6 @@
   </si>
   <si>
     <t>select_multiple extra_samples or_other</t>
-  </si>
-  <si>
-    <t>table-list</t>
   </si>
 </sst>
 </file>
@@ -2081,10 +2078,10 @@
   <dimension ref="A1:AJ176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F124" sqref="F124"/>
+      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5384,7 +5381,7 @@
         <v>389</v>
       </c>
       <c r="G90" s="40" t="s">
-        <v>454</v>
+        <v>38</v>
       </c>
       <c r="H90" s="40"/>
       <c r="I90" s="40"/>
@@ -9867,7 +9864,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44132.423503703707</v>
+        <v>44132.450331712964</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>445</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="461">
   <si>
     <t>list_name</t>
   </si>
@@ -1386,13 +1386,34 @@
     <t>initial_sample</t>
   </si>
   <si>
-    <t>Was an initial CoVID 19 sample collected?</t>
-  </si>
-  <si>
     <t>${initial_sample} = 'yes'</t>
   </si>
   <si>
     <t>select_multiple extra_samples or_other</t>
+  </si>
+  <si>
+    <t>Was an initial COVID 19 sample collected?</t>
+  </si>
+  <si>
+    <t>case_contact</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>chief</t>
+  </si>
+  <si>
+    <t>Chief</t>
+  </si>
+  <si>
+    <t>village</t>
+  </si>
+  <si>
+    <t>Village</t>
   </si>
 </sst>
 </file>
@@ -1632,7 +1653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1792,6 +1813,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2075,13 +2097,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ176"/>
+  <dimension ref="A1:AJ182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G90" sqref="G90"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3172,17 +3194,15 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>317</v>
+        <v>455</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="D28" s="40"/>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
@@ -3208,13 +3228,15 @@
       <c r="AA28" s="41"/>
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="C29" s="51"/>
+      <c r="A29" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>458</v>
+      </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
@@ -3241,9 +3263,15 @@
       <c r="AA29" s="41"/>
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>460</v>
+      </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
       <c r="F30" s="40"/>
@@ -3269,141 +3297,125 @@
       <c r="Z30" s="41"/>
       <c r="AA30" s="41"/>
     </row>
-    <row r="31" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+    </row>
+    <row r="32" spans="1:36" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="85"/>
+    </row>
+    <row r="33" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="G31" s="43" t="s">
+      <c r="G33" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-    </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="D32" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="41"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>193</v>
+        <v>331</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>194</v>
+        <v>317</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>195</v>
+        <v>332</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="40"/>
-      <c r="F34" s="40" t="s">
-        <v>337</v>
-      </c>
+      <c r="F34" s="40"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
-      <c r="I34" s="67"/>
+      <c r="I34" s="40"/>
       <c r="J34" s="40"/>
       <c r="K34" s="40"/>
       <c r="L34" s="40"/>
@@ -3424,22 +3436,16 @@
       <c r="AA34" s="41"/>
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="40" t="s">
-        <v>56</v>
-      </c>
+      <c r="A35" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="40" t="s">
-        <v>391</v>
-      </c>
+      <c r="F35" s="40"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
@@ -3463,20 +3469,12 @@
       <c r="AA35" s="41"/>
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>444</v>
-      </c>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
-      <c r="F36" s="40" t="s">
-        <v>338</v>
-      </c>
+      <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
@@ -3499,62 +3497,60 @@
       <c r="Z36" s="41"/>
       <c r="AA36" s="41"/>
     </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40" t="s">
-        <v>391</v>
-      </c>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-      <c r="V37" s="41"/>
-      <c r="W37" s="41"/>
-      <c r="X37" s="41"/>
-      <c r="Y37" s="41"/>
-      <c r="Z37" s="41"/>
-      <c r="AA37" s="41"/>
+    <row r="37" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G37" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
+      <c r="AA37" s="44"/>
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
         <v>169</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>172</v>
+        <v>333</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>334</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E38" s="40"/>
-      <c r="F38" s="40" t="s">
-        <v>391</v>
-      </c>
+      <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -3582,10 +3578,10 @@
         <v>169</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>174</v>
+        <v>335</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>336</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>56</v>
@@ -3618,24 +3614,24 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>176</v>
+        <v>194</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>195</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="40"/>
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
@@ -3660,10 +3656,10 @@
         <v>169</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>56</v>
@@ -3696,20 +3692,18 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>169</v>
+        <v>289</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>179</v>
+        <v>290</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="D42" s="40"/>
       <c r="E42" s="40"/>
       <c r="F42" s="40" t="s">
-        <v>391</v>
+        <v>338</v>
       </c>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
@@ -3738,10 +3732,10 @@
         <v>169</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>56</v>
@@ -3777,10 +3771,10 @@
         <v>169</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>184</v>
+        <v>171</v>
+      </c>
+      <c r="C44" s="51" t="s">
+        <v>172</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>56</v>
@@ -3816,10 +3810,10 @@
         <v>169</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>186</v>
+        <v>173</v>
+      </c>
+      <c r="C45" s="51" t="s">
+        <v>174</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>56</v>
@@ -3855,10 +3849,10 @@
         <v>169</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>188</v>
+        <v>175</v>
+      </c>
+      <c r="C46" s="51" t="s">
+        <v>176</v>
       </c>
       <c r="D46" s="40" t="s">
         <v>56</v>
@@ -3894,10 +3888,10 @@
         <v>169</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D47" s="40" t="s">
         <v>56</v>
@@ -3928,46 +3922,62 @@
       <c r="Z47" s="41"/>
       <c r="AA47" s="41"/>
     </row>
-    <row r="48" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+      <c r="AA48" s="41"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="36"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="40"/>
+      <c r="A49" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
+      <c r="F49" s="40" t="s">
+        <v>391</v>
+      </c>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
@@ -3990,58 +4000,62 @@
       <c r="Z49" s="41"/>
       <c r="AA49" s="41"/>
     </row>
-    <row r="50" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="44"/>
-      <c r="T50" s="44"/>
-      <c r="U50" s="44"/>
-      <c r="V50" s="44"/>
-      <c r="W50" s="44"/>
-      <c r="X50" s="44"/>
-      <c r="Y50" s="44"/>
-      <c r="Z50" s="44"/>
-      <c r="AA50" s="44"/>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D50" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
+      <c r="AA50" s="41"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>169</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>450</v>
+        <v>185</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="D51" s="40"/>
+        <v>186</v>
+      </c>
+      <c r="D51" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
+      <c r="F51" s="40" t="s">
+        <v>391</v>
+      </c>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -4066,18 +4080,20 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="40"/>
+        <v>188</v>
+      </c>
+      <c r="D52" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E52" s="40"/>
       <c r="F52" s="40" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
@@ -4103,18 +4119,20 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="40"/>
+        <v>190</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E53" s="40"/>
       <c r="F53" s="40" t="s">
-        <v>452</v>
+        <v>391</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -4138,43 +4156,43 @@
       <c r="Z53" s="41"/>
       <c r="AA53" s="41"/>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="41"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
+    <row r="54" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="Z54" s="44"/>
+      <c r="AA54" s="44"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="55"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="36"/>
       <c r="D55" s="40"/>
       <c r="E55" s="40"/>
       <c r="F55" s="40"/>
@@ -4200,54 +4218,54 @@
       <c r="Z55" s="41"/>
       <c r="AA55" s="41"/>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B56" s="42" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
+        <v>198</v>
+      </c>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
       <c r="F56" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="G56" s="40" t="s">
+      <c r="G56" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H56" s="40"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="40"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="40"/>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="41"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="41"/>
-      <c r="V56" s="41"/>
-      <c r="W56" s="41"/>
-      <c r="X56" s="41"/>
-      <c r="Y56" s="41"/>
-      <c r="Z56" s="41"/>
-      <c r="AA56" s="41"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="44"/>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="44"/>
+      <c r="AA56" s="44"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
         <v>169</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>219</v>
+        <v>450</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>215</v>
+        <v>453</v>
       </c>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
@@ -4276,18 +4294,18 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
-        <v>453</v>
+        <v>193</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
-      <c r="F58" s="56" t="s">
-        <v>312</v>
+      <c r="F58" s="40" t="s">
+        <v>451</v>
       </c>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
@@ -4313,18 +4331,18 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
-      <c r="F59" s="56" t="s">
-        <v>312</v>
+      <c r="F59" s="40" t="s">
+        <v>451</v>
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
@@ -4353,9 +4371,9 @@
         <v>212</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="C60" s="42"/>
+        <v>197</v>
+      </c>
+      <c r="C60" s="51"/>
       <c r="D60" s="40"/>
       <c r="E60" s="40"/>
       <c r="F60" s="40"/>
@@ -4381,10 +4399,10 @@
       <c r="Z60" s="41"/>
       <c r="AA60" s="41"/>
     </row>
-    <row r="61" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="54"/>
       <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="40"/>
       <c r="E61" s="40"/>
       <c r="F61" s="40"/>
@@ -4415,10 +4433,10 @@
         <v>196</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
@@ -4454,10 +4472,10 @@
         <v>169</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
@@ -4486,17 +4504,19 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
-        <v>169</v>
+        <v>452</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
-      <c r="F64" s="56"/>
+      <c r="F64" s="56" t="s">
+        <v>312</v>
+      </c>
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
       <c r="I64" s="40"/>
@@ -4521,17 +4541,19 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
-      <c r="F65" s="56"/>
+      <c r="F65" s="56" t="s">
+        <v>312</v>
+      </c>
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
       <c r="I65" s="40"/>
@@ -4555,18 +4577,16 @@
       <c r="AA65" s="41"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>225</v>
-      </c>
+      <c r="A66" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="42"/>
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
-      <c r="F66" s="56"/>
+      <c r="F66" s="40"/>
       <c r="G66" s="40"/>
       <c r="H66" s="40"/>
       <c r="I66" s="40"/>
@@ -4589,14 +4609,10 @@
       <c r="Z66" s="41"/>
       <c r="AA66" s="41"/>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B67" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="C67" s="42"/>
+    <row r="67" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="40"/>
       <c r="E67" s="40"/>
       <c r="F67" s="40"/>
@@ -4622,14 +4638,24 @@
       <c r="Z67" s="41"/>
       <c r="AA67" s="41"/>
     </row>
-    <row r="68" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>221</v>
+      </c>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
+      <c r="F68" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H68" s="40"/>
       <c r="I68" s="40"/>
       <c r="J68" s="40"/>
@@ -4652,23 +4678,19 @@
       <c r="AA68" s="41"/>
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B69" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>231</v>
+      <c r="A69" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" s="40" t="s">
+        <v>222</v>
       </c>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
-      <c r="F69" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="G69" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
       <c r="H69" s="40"/>
       <c r="I69" s="40"/>
       <c r="J69" s="40"/>
@@ -4691,18 +4713,18 @@
       <c r="AA69" s="41"/>
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="B70" s="57" t="s">
-        <v>232</v>
+      <c r="A70" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="50" t="s">
+        <v>227</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
-      <c r="F70" s="40"/>
+      <c r="F70" s="56"/>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
       <c r="I70" s="40"/>
@@ -4727,13 +4749,13 @@
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="50" t="s">
-        <v>236</v>
+        <v>169</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>237</v>
+        <v>228</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>224</v>
       </c>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
@@ -4762,19 +4784,17 @@
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="50" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
-      <c r="F72" s="56" t="s">
-        <v>313</v>
-      </c>
+      <c r="F72" s="56"/>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
       <c r="I72" s="40"/>
@@ -4798,20 +4818,16 @@
       <c r="AA72" s="41"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="B73" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>239</v>
-      </c>
+      <c r="A73" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C73" s="42"/>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
-      <c r="F73" s="56" t="s">
-        <v>313</v>
-      </c>
+      <c r="F73" s="40"/>
       <c r="G73" s="40"/>
       <c r="H73" s="40"/>
       <c r="I73" s="40"/>
@@ -4834,21 +4850,13 @@
       <c r="Z73" s="41"/>
       <c r="AA73" s="41"/>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="B74" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>242</v>
-      </c>
+    <row r="74" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
-      <c r="F74" s="56" t="s">
-        <v>313</v>
-      </c>
+      <c r="F74" s="40"/>
       <c r="G74" s="40"/>
       <c r="H74" s="40"/>
       <c r="I74" s="40"/>
@@ -4872,21 +4880,23 @@
       <c r="AA74" s="41"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="B75" s="50" t="s">
-        <v>249</v>
-      </c>
-      <c r="C75" s="40" t="s">
-        <v>243</v>
+      <c r="A75" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="42" t="s">
+        <v>231</v>
       </c>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
-      <c r="F75" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="G75" s="40"/>
+      <c r="F75" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G75" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H75" s="40"/>
       <c r="I75" s="40"/>
       <c r="J75" s="40"/>
@@ -4908,52 +4918,54 @@
       <c r="Z75" s="41"/>
       <c r="AA75" s="41"/>
     </row>
-    <row r="76" spans="1:27" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B76" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="C76" s="58"/>
-      <c r="D76" s="58"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="59"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="58"/>
-      <c r="K76" s="58"/>
-      <c r="L76" s="58"/>
-      <c r="M76" s="58"/>
-      <c r="N76" s="58"/>
-      <c r="O76" s="58"/>
-      <c r="P76" s="58"/>
-      <c r="Q76" s="58"/>
-      <c r="R76" s="58"/>
-      <c r="S76" s="60"/>
-      <c r="T76" s="60"/>
-      <c r="U76" s="60"/>
-      <c r="V76" s="60"/>
-      <c r="W76" s="60"/>
-      <c r="X76" s="60"/>
-      <c r="Y76" s="60"/>
-      <c r="Z76" s="60"/>
-      <c r="AA76" s="60"/>
+      <c r="C76" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="41"/>
+      <c r="U76" s="41"/>
+      <c r="V76" s="41"/>
+      <c r="W76" s="41"/>
+      <c r="X76" s="41"/>
+      <c r="Y76" s="41"/>
+      <c r="Z76" s="41"/>
+      <c r="AA76" s="41"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="B77" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="40" t="s">
-        <v>35</v>
+      <c r="A77" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>237</v>
       </c>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
+      <c r="F77" s="56"/>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
       <c r="I77" s="40"/>
@@ -4978,17 +4990,19 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="50" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>252</v>
+        <v>240</v>
+      </c>
+      <c r="C78" s="40" t="s">
+        <v>238</v>
       </c>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
-      <c r="F78" s="56"/>
+      <c r="F78" s="56" t="s">
+        <v>313</v>
+      </c>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
       <c r="I78" s="40"/>
@@ -5016,15 +5030,15 @@
         <v>193</v>
       </c>
       <c r="B79" s="50" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
       <c r="F79" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
@@ -5050,18 +5064,18 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="50" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="B80" s="50" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="F80" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
@@ -5090,15 +5104,15 @@
         <v>244</v>
       </c>
       <c r="B81" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
       <c r="F81" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
@@ -5122,85 +5136,83 @@
       <c r="Z81" s="41"/>
       <c r="AA81" s="41"/>
     </row>
-    <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="B82" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="56" t="s">
-        <v>314</v>
-      </c>
-      <c r="G82" s="40"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="40"/>
-      <c r="N82" s="40"/>
-      <c r="O82" s="40"/>
-      <c r="P82" s="40"/>
-      <c r="Q82" s="40"/>
-      <c r="R82" s="40"/>
-      <c r="S82" s="41"/>
-      <c r="T82" s="41"/>
-      <c r="U82" s="41"/>
-      <c r="V82" s="41"/>
-      <c r="W82" s="41"/>
-      <c r="X82" s="41"/>
-      <c r="Y82" s="41"/>
-      <c r="Z82" s="41"/>
-      <c r="AA82" s="41"/>
-    </row>
-    <row r="83" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B82" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+      <c r="L82" s="58"/>
+      <c r="M82" s="58"/>
+      <c r="N82" s="58"/>
+      <c r="O82" s="58"/>
+      <c r="P82" s="58"/>
+      <c r="Q82" s="58"/>
+      <c r="R82" s="58"/>
+      <c r="S82" s="60"/>
+      <c r="T82" s="60"/>
+      <c r="U82" s="60"/>
+      <c r="V82" s="60"/>
+      <c r="W82" s="60"/>
+      <c r="X82" s="60"/>
+      <c r="Y82" s="60"/>
+      <c r="Z82" s="60"/>
+      <c r="AA82" s="60"/>
+    </row>
+    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="57" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B83" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="C83" s="58"/>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58"/>
-      <c r="K83" s="58"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="58"/>
-      <c r="N83" s="58"/>
-      <c r="O83" s="58"/>
-      <c r="P83" s="58"/>
-      <c r="Q83" s="58"/>
-      <c r="R83" s="58"/>
-      <c r="S83" s="60"/>
-      <c r="T83" s="60"/>
-      <c r="U83" s="60"/>
-      <c r="V83" s="60"/>
-      <c r="W83" s="60"/>
-      <c r="X83" s="60"/>
-      <c r="Y83" s="60"/>
-      <c r="Z83" s="60"/>
-      <c r="AA83" s="60"/>
+      <c r="C83" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
+      <c r="N83" s="40"/>
+      <c r="O83" s="40"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="40"/>
+      <c r="R83" s="40"/>
+      <c r="S83" s="41"/>
+      <c r="T83" s="41"/>
+      <c r="U83" s="41"/>
+      <c r="V83" s="41"/>
+      <c r="W83" s="41"/>
+      <c r="X83" s="41"/>
+      <c r="Y83" s="41"/>
+      <c r="Z83" s="41"/>
+      <c r="AA83" s="41"/>
     </row>
     <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="57" t="s">
-        <v>196</v>
-      </c>
-      <c r="B84" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="C84" s="40" t="s">
-        <v>35</v>
+      <c r="A84" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>252</v>
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
@@ -5229,17 +5241,19 @@
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="50" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="C85" s="51" t="s">
-        <v>254</v>
+        <v>247</v>
+      </c>
+      <c r="C85" s="40" t="s">
+        <v>238</v>
       </c>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
-      <c r="F85" s="56"/>
+      <c r="F85" s="56" t="s">
+        <v>314</v>
+      </c>
       <c r="G85" s="40"/>
       <c r="H85" s="40"/>
       <c r="I85" s="40"/>
@@ -5267,15 +5281,15 @@
         <v>193</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
       <c r="F86" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
@@ -5300,16 +5314,20 @@
       <c r="AA86" s="41"/>
     </row>
     <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="B87" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="C87" s="40"/>
+      <c r="A87" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="40" t="s">
+        <v>242</v>
+      </c>
       <c r="D87" s="40"/>
       <c r="E87" s="40"/>
-      <c r="F87" s="56"/>
+      <c r="F87" s="56" t="s">
+        <v>314</v>
+      </c>
       <c r="G87" s="40"/>
       <c r="H87" s="40"/>
       <c r="I87" s="40"/>
@@ -5333,16 +5351,20 @@
       <c r="AA87" s="41"/>
     </row>
     <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C88" s="42"/>
+      <c r="A88" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B88" s="50" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>243</v>
+      </c>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
+      <c r="F88" s="56" t="s">
+        <v>314</v>
+      </c>
       <c r="G88" s="40"/>
       <c r="H88" s="40"/>
       <c r="I88" s="40"/>
@@ -5365,27 +5387,57 @@
       <c r="Z88" s="41"/>
       <c r="AA88" s="41"/>
     </row>
+    <row r="89" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B89" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58"/>
+      <c r="L89" s="58"/>
+      <c r="M89" s="58"/>
+      <c r="N89" s="58"/>
+      <c r="O89" s="58"/>
+      <c r="P89" s="58"/>
+      <c r="Q89" s="58"/>
+      <c r="R89" s="58"/>
+      <c r="S89" s="60"/>
+      <c r="T89" s="60"/>
+      <c r="U89" s="60"/>
+      <c r="V89" s="60"/>
+      <c r="W89" s="60"/>
+      <c r="X89" s="60"/>
+      <c r="Y89" s="60"/>
+      <c r="Z89" s="60"/>
+      <c r="AA89" s="60"/>
+    </row>
     <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B90" s="50" t="s">
-        <v>264</v>
+      <c r="A90" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" s="57" t="s">
+        <v>253</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="D90" s="40"/>
       <c r="E90" s="40"/>
-      <c r="F90" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="G90" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="F90" s="56"/>
+      <c r="G90" s="40"/>
       <c r="H90" s="40"/>
       <c r="I90" s="40"/>
       <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
       <c r="N90" s="40"/>
@@ -5393,37 +5445,29 @@
       <c r="P90" s="40"/>
       <c r="Q90" s="40"/>
       <c r="R90" s="40"/>
-      <c r="S90" s="40"/>
-      <c r="T90" s="40"/>
-      <c r="U90" s="40"/>
-      <c r="V90" s="40"/>
-      <c r="W90" s="40"/>
-      <c r="X90" s="40"/>
-      <c r="Y90" s="40"/>
-      <c r="Z90" s="40"/>
-      <c r="AA90" s="40"/>
-      <c r="AB90" s="40"/>
-      <c r="AC90" s="40"/>
-      <c r="AD90" s="40"/>
-      <c r="AE90" s="40"/>
-      <c r="AF90" s="40"/>
-      <c r="AG90" s="40"/>
-      <c r="AH90" s="40"/>
-      <c r="AI90" s="40"/>
+      <c r="S90" s="41"/>
+      <c r="T90" s="41"/>
+      <c r="U90" s="41"/>
+      <c r="V90" s="41"/>
+      <c r="W90" s="41"/>
+      <c r="X90" s="41"/>
+      <c r="Y90" s="41"/>
+      <c r="Z90" s="41"/>
+      <c r="AA90" s="41"/>
     </row>
     <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="50" t="s">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>267</v>
+        <v>255</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>254</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
-      <c r="F91" s="40"/>
+      <c r="F91" s="56"/>
       <c r="G91" s="40"/>
       <c r="H91" s="40"/>
       <c r="I91" s="40"/>
@@ -5436,37 +5480,31 @@
       <c r="P91" s="40"/>
       <c r="Q91" s="40"/>
       <c r="R91" s="40"/>
-      <c r="S91" s="40"/>
-      <c r="T91" s="40"/>
-      <c r="U91" s="40"/>
-      <c r="V91" s="40"/>
-      <c r="W91" s="40"/>
-      <c r="X91" s="40"/>
-      <c r="Y91" s="40"/>
-      <c r="Z91" s="40"/>
-      <c r="AA91" s="40"/>
-      <c r="AB91" s="40"/>
-      <c r="AC91" s="40"/>
-      <c r="AD91" s="40"/>
-      <c r="AE91" s="40"/>
-      <c r="AF91" s="40"/>
-      <c r="AG91" s="40"/>
-      <c r="AH91" s="40"/>
-      <c r="AI91" s="40"/>
+      <c r="S91" s="41"/>
+      <c r="T91" s="41"/>
+      <c r="U91" s="41"/>
+      <c r="V91" s="41"/>
+      <c r="W91" s="41"/>
+      <c r="X91" s="41"/>
+      <c r="Y91" s="41"/>
+      <c r="Z91" s="41"/>
+      <c r="AA91" s="41"/>
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="50" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
+      <c r="F92" s="56" t="s">
+        <v>315</v>
+      </c>
       <c r="G92" s="40"/>
       <c r="H92" s="40"/>
       <c r="I92" s="40"/>
@@ -5479,37 +5517,27 @@
       <c r="P92" s="40"/>
       <c r="Q92" s="40"/>
       <c r="R92" s="40"/>
-      <c r="S92" s="40"/>
-      <c r="T92" s="40"/>
-      <c r="U92" s="40"/>
-      <c r="V92" s="40"/>
-      <c r="W92" s="40"/>
-      <c r="X92" s="40"/>
-      <c r="Y92" s="40"/>
-      <c r="Z92" s="40"/>
-      <c r="AA92" s="40"/>
-      <c r="AB92" s="40"/>
-      <c r="AC92" s="40"/>
-      <c r="AD92" s="40"/>
-      <c r="AE92" s="40"/>
-      <c r="AF92" s="40"/>
-      <c r="AG92" s="40"/>
-      <c r="AH92" s="40"/>
-      <c r="AI92" s="40"/>
+      <c r="S92" s="41"/>
+      <c r="T92" s="41"/>
+      <c r="U92" s="41"/>
+      <c r="V92" s="41"/>
+      <c r="W92" s="41"/>
+      <c r="X92" s="41"/>
+      <c r="Y92" s="41"/>
+      <c r="Z92" s="41"/>
+      <c r="AA92" s="41"/>
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B93" s="50" t="s">
-        <v>270</v>
-      </c>
-      <c r="C93" s="40" t="s">
-        <v>271</v>
-      </c>
+      <c r="A93" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B93" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" s="40"/>
       <c r="D93" s="40"/>
       <c r="E93" s="40"/>
-      <c r="F93" s="40"/>
+      <c r="F93" s="56"/>
       <c r="G93" s="40"/>
       <c r="H93" s="40"/>
       <c r="I93" s="40"/>
@@ -5522,34 +5550,24 @@
       <c r="P93" s="40"/>
       <c r="Q93" s="40"/>
       <c r="R93" s="40"/>
-      <c r="S93" s="40"/>
-      <c r="T93" s="40"/>
-      <c r="U93" s="40"/>
-      <c r="V93" s="40"/>
-      <c r="W93" s="40"/>
-      <c r="X93" s="40"/>
-      <c r="Y93" s="40"/>
-      <c r="Z93" s="40"/>
-      <c r="AA93" s="40"/>
-      <c r="AB93" s="40"/>
-      <c r="AC93" s="40"/>
-      <c r="AD93" s="40"/>
-      <c r="AE93" s="40"/>
-      <c r="AF93" s="40"/>
-      <c r="AG93" s="40"/>
-      <c r="AH93" s="40"/>
-      <c r="AI93" s="40"/>
+      <c r="S93" s="41"/>
+      <c r="T93" s="41"/>
+      <c r="U93" s="41"/>
+      <c r="V93" s="41"/>
+      <c r="W93" s="41"/>
+      <c r="X93" s="41"/>
+      <c r="Y93" s="41"/>
+      <c r="Z93" s="41"/>
+      <c r="AA93" s="41"/>
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B94" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="C94" s="40" t="s">
-        <v>273</v>
-      </c>
+      <c r="A94" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C94" s="42"/>
       <c r="D94" s="40"/>
       <c r="E94" s="40"/>
       <c r="F94" s="40"/>
@@ -5565,85 +5583,37 @@
       <c r="P94" s="40"/>
       <c r="Q94" s="40"/>
       <c r="R94" s="40"/>
-      <c r="S94" s="40"/>
-      <c r="T94" s="40"/>
-      <c r="U94" s="40"/>
-      <c r="V94" s="40"/>
-      <c r="W94" s="40"/>
-      <c r="X94" s="40"/>
-      <c r="Y94" s="40"/>
-      <c r="Z94" s="40"/>
-      <c r="AA94" s="40"/>
-      <c r="AB94" s="40"/>
-      <c r="AC94" s="40"/>
-      <c r="AD94" s="40"/>
-      <c r="AE94" s="40"/>
-      <c r="AF94" s="40"/>
-      <c r="AG94" s="40"/>
-      <c r="AH94" s="40"/>
-      <c r="AI94" s="40"/>
-    </row>
-    <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="B95" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>275</v>
-      </c>
-      <c r="D95" s="40"/>
-      <c r="E95" s="40"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="40"/>
-      <c r="L95" s="40"/>
-      <c r="M95" s="40"/>
-      <c r="N95" s="40"/>
-      <c r="O95" s="40"/>
-      <c r="P95" s="40"/>
-      <c r="Q95" s="40"/>
-      <c r="R95" s="40"/>
-      <c r="S95" s="40"/>
-      <c r="T95" s="40"/>
-      <c r="U95" s="40"/>
-      <c r="V95" s="40"/>
-      <c r="W95" s="40"/>
-      <c r="X95" s="40"/>
-      <c r="Y95" s="40"/>
-      <c r="Z95" s="40"/>
-      <c r="AA95" s="40"/>
-      <c r="AB95" s="40"/>
-      <c r="AC95" s="40"/>
-      <c r="AD95" s="40"/>
-      <c r="AE95" s="40"/>
-      <c r="AF95" s="40"/>
-      <c r="AG95" s="40"/>
-      <c r="AH95" s="40"/>
-      <c r="AI95" s="40"/>
+      <c r="S94" s="41"/>
+      <c r="T94" s="41"/>
+      <c r="U94" s="41"/>
+      <c r="V94" s="41"/>
+      <c r="W94" s="41"/>
+      <c r="X94" s="41"/>
+      <c r="Y94" s="41"/>
+      <c r="Z94" s="41"/>
+      <c r="AA94" s="41"/>
     </row>
     <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="50" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="40"/>
+      <c r="F96" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="G96" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H96" s="40"/>
       <c r="I96" s="40"/>
       <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
       <c r="N96" s="40"/>
@@ -5674,16 +5644,14 @@
         <v>169</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D97" s="40"/>
       <c r="E97" s="40"/>
-      <c r="F97" s="40" t="s">
-        <v>449</v>
-      </c>
+      <c r="F97" s="40"/>
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
       <c r="I97" s="40"/>
@@ -5716,19 +5684,17 @@
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="50" t="s">
-        <v>291</v>
+        <v>169</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="D98" s="40"/>
       <c r="E98" s="40"/>
-      <c r="F98" s="40" t="s">
-        <v>316</v>
-      </c>
+      <c r="F98" s="40"/>
       <c r="G98" s="40"/>
       <c r="H98" s="40"/>
       <c r="I98" s="40"/>
@@ -5764,10 +5730,10 @@
         <v>169</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D99" s="40"/>
       <c r="E99" s="40"/>
@@ -5807,10 +5773,10 @@
         <v>169</v>
       </c>
       <c r="B100" s="50" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C100" s="40" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D100" s="40"/>
       <c r="E100" s="40"/>
@@ -5850,10 +5816,10 @@
         <v>169</v>
       </c>
       <c r="B101" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="C101" s="51" t="s">
-        <v>285</v>
+        <v>274</v>
+      </c>
+      <c r="C101" s="40" t="s">
+        <v>275</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
@@ -5893,10 +5859,10 @@
         <v>169</v>
       </c>
       <c r="B102" s="50" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C102" s="40" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="40"/>
@@ -5936,10 +5902,10 @@
         <v>169</v>
       </c>
       <c r="B103" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="C103" s="51" t="s">
-        <v>446</v>
+        <v>278</v>
+      </c>
+      <c r="C103" s="40" t="s">
+        <v>279</v>
       </c>
       <c r="D103" s="40"/>
       <c r="E103" s="40"/>
@@ -5978,13 +5944,19 @@
     </row>
     <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B104" s="50"/>
-      <c r="C104" s="40"/>
+        <v>291</v>
+      </c>
+      <c r="B104" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>293</v>
+      </c>
       <c r="D104" s="40"/>
       <c r="E104" s="40"/>
-      <c r="F104" s="40"/>
+      <c r="F104" s="40" t="s">
+        <v>316</v>
+      </c>
       <c r="G104" s="40"/>
       <c r="H104" s="40"/>
       <c r="I104" s="40"/>
@@ -6015,397 +5987,379 @@
       <c r="AH104" s="40"/>
       <c r="AI104" s="40"/>
     </row>
-    <row r="105" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="54"/>
-      <c r="B105" s="54"/>
-      <c r="C105" s="54"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="54"/>
-      <c r="F105" s="54"/>
-      <c r="G105" s="54"/>
-      <c r="H105" s="54"/>
-      <c r="I105" s="54"/>
-      <c r="J105" s="54"/>
-      <c r="K105" s="54"/>
-      <c r="L105" s="54"/>
-      <c r="M105" s="54"/>
-      <c r="N105" s="54"/>
-      <c r="O105" s="54"/>
-      <c r="P105" s="54"/>
-      <c r="Q105" s="54"/>
-      <c r="R105" s="54"/>
-      <c r="S105" s="54"/>
-      <c r="T105" s="54"/>
-      <c r="U105" s="54"/>
-      <c r="V105" s="54"/>
-      <c r="W105" s="54"/>
-      <c r="X105" s="54"/>
-      <c r="Y105" s="54"/>
-      <c r="Z105" s="54"/>
-      <c r="AA105" s="54"/>
-      <c r="AB105" s="54"/>
-      <c r="AC105" s="54"/>
-      <c r="AD105" s="54"/>
-      <c r="AE105" s="54"/>
-      <c r="AF105" s="54"/>
-      <c r="AG105" s="54"/>
-      <c r="AH105" s="54"/>
-      <c r="AI105" s="54"/>
+    <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B105" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D105" s="40"/>
+      <c r="E105" s="40"/>
+      <c r="F105" s="40"/>
+      <c r="G105" s="40"/>
+      <c r="H105" s="40"/>
+      <c r="I105" s="40"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="40"/>
+      <c r="L105" s="40"/>
+      <c r="M105" s="40"/>
+      <c r="N105" s="40"/>
+      <c r="O105" s="40"/>
+      <c r="P105" s="40"/>
+      <c r="Q105" s="40"/>
+      <c r="R105" s="40"/>
+      <c r="S105" s="40"/>
+      <c r="T105" s="40"/>
+      <c r="U105" s="40"/>
+      <c r="V105" s="40"/>
+      <c r="W105" s="40"/>
+      <c r="X105" s="40"/>
+      <c r="Y105" s="40"/>
+      <c r="Z105" s="40"/>
+      <c r="AA105" s="40"/>
+      <c r="AB105" s="40"/>
+      <c r="AC105" s="40"/>
+      <c r="AD105" s="40"/>
+      <c r="AE105" s="40"/>
+      <c r="AF105" s="40"/>
+      <c r="AG105" s="40"/>
+      <c r="AH105" s="40"/>
+      <c r="AI105" s="40"/>
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B106" s="78" t="s">
-        <v>399</v>
-      </c>
-      <c r="C106" s="51" t="s">
-        <v>400</v>
+      <c r="A106" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B106" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="C106" s="40" t="s">
+        <v>283</v>
       </c>
       <c r="D106" s="40"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="56" t="s">
-        <v>390</v>
-      </c>
-      <c r="G106" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
       <c r="H106" s="40"/>
-      <c r="I106" s="56"/>
-      <c r="J106" s="56"/>
-      <c r="K106" s="56"/>
-      <c r="L106" s="51"/>
-      <c r="M106" s="51"/>
-      <c r="N106" s="51"/>
-      <c r="O106" s="51"/>
-      <c r="P106" s="51"/>
-      <c r="Q106" s="51"/>
-      <c r="R106" s="51"/>
-      <c r="S106" s="51"/>
-      <c r="T106" s="51"/>
-      <c r="U106" s="56"/>
-      <c r="V106" s="51"/>
-      <c r="W106" s="56"/>
-      <c r="X106" s="56"/>
-      <c r="Y106" s="56"/>
-      <c r="Z106" s="56"/>
-      <c r="AA106" s="56"/>
-      <c r="AB106" s="56"/>
-      <c r="AC106" s="56"/>
-      <c r="AD106" s="56"/>
-      <c r="AE106" s="56"/>
-      <c r="AF106" s="56"/>
-      <c r="AG106" s="56"/>
-      <c r="AH106" s="56"/>
-      <c r="AI106" s="56"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="40"/>
+      <c r="L106" s="40"/>
+      <c r="M106" s="40"/>
+      <c r="N106" s="40"/>
+      <c r="O106" s="40"/>
+      <c r="P106" s="40"/>
+      <c r="Q106" s="40"/>
+      <c r="R106" s="40"/>
+      <c r="S106" s="40"/>
+      <c r="T106" s="40"/>
+      <c r="U106" s="40"/>
+      <c r="V106" s="40"/>
+      <c r="W106" s="40"/>
+      <c r="X106" s="40"/>
+      <c r="Y106" s="40"/>
+      <c r="Z106" s="40"/>
+      <c r="AA106" s="40"/>
+      <c r="AB106" s="40"/>
+      <c r="AC106" s="40"/>
+      <c r="AD106" s="40"/>
+      <c r="AE106" s="40"/>
+      <c r="AF106" s="40"/>
+      <c r="AG106" s="40"/>
+      <c r="AH106" s="40"/>
+      <c r="AI106" s="40"/>
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="78" t="s">
-        <v>193</v>
-      </c>
-      <c r="B107" s="78" t="s">
-        <v>401</v>
+      <c r="A107" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" s="50" t="s">
+        <v>284</v>
       </c>
       <c r="C107" s="51" t="s">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="D107" s="40"/>
-      <c r="E107" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F107" s="56"/>
+      <c r="E107" s="40"/>
+      <c r="F107" s="40"/>
       <c r="G107" s="40"/>
       <c r="H107" s="40"/>
-      <c r="I107" s="51" t="s">
-        <v>403</v>
-      </c>
-      <c r="J107" s="56"/>
-      <c r="K107" s="56"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="51"/>
-      <c r="O107" s="51"/>
-      <c r="P107" s="51"/>
-      <c r="Q107" s="51"/>
-      <c r="R107" s="51"/>
-      <c r="S107" s="51"/>
-      <c r="T107" s="51"/>
-      <c r="U107" s="56"/>
-      <c r="V107" s="51"/>
-      <c r="W107" s="56"/>
-      <c r="X107" s="56"/>
-      <c r="Y107" s="56"/>
-      <c r="Z107" s="56"/>
-      <c r="AA107" s="56"/>
-      <c r="AB107" s="56"/>
-      <c r="AC107" s="56"/>
-      <c r="AD107" s="56"/>
-      <c r="AE107" s="56"/>
-      <c r="AF107" s="56"/>
-      <c r="AG107" s="56"/>
-      <c r="AH107" s="56"/>
-      <c r="AI107" s="56"/>
+      <c r="I107" s="40"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="40"/>
+      <c r="L107" s="40"/>
+      <c r="M107" s="40"/>
+      <c r="N107" s="40"/>
+      <c r="O107" s="40"/>
+      <c r="P107" s="40"/>
+      <c r="Q107" s="40"/>
+      <c r="R107" s="40"/>
+      <c r="S107" s="40"/>
+      <c r="T107" s="40"/>
+      <c r="U107" s="40"/>
+      <c r="V107" s="40"/>
+      <c r="W107" s="40"/>
+      <c r="X107" s="40"/>
+      <c r="Y107" s="40"/>
+      <c r="Z107" s="40"/>
+      <c r="AA107" s="40"/>
+      <c r="AB107" s="40"/>
+      <c r="AC107" s="40"/>
+      <c r="AD107" s="40"/>
+      <c r="AE107" s="40"/>
+      <c r="AF107" s="40"/>
+      <c r="AG107" s="40"/>
+      <c r="AH107" s="40"/>
+      <c r="AI107" s="40"/>
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="B108" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="C108" s="51" t="s">
-        <v>406</v>
+      <c r="A108" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>287</v>
       </c>
       <c r="D108" s="40"/>
-      <c r="E108" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F108" s="56"/>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40"/>
       <c r="G108" s="40"/>
       <c r="H108" s="40"/>
-      <c r="I108" s="56"/>
-      <c r="J108" s="56"/>
-      <c r="K108" s="56"/>
-      <c r="L108" s="56"/>
-      <c r="M108" s="51"/>
-      <c r="N108" s="51"/>
-      <c r="O108" s="51"/>
-      <c r="P108" s="51"/>
-      <c r="Q108" s="51"/>
-      <c r="R108" s="51"/>
-      <c r="S108" s="51"/>
-      <c r="T108" s="51"/>
-      <c r="U108" s="56"/>
-      <c r="V108" s="51"/>
-      <c r="W108" s="56"/>
-      <c r="X108" s="56"/>
-      <c r="Y108" s="56"/>
-      <c r="Z108" s="56"/>
-      <c r="AA108" s="56"/>
-      <c r="AB108" s="56"/>
-      <c r="AC108" s="56"/>
-      <c r="AD108" s="56"/>
-      <c r="AE108" s="56"/>
-      <c r="AF108" s="56"/>
-      <c r="AG108" s="56"/>
-      <c r="AH108" s="56"/>
-      <c r="AI108" s="56"/>
+      <c r="I108" s="40"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="40"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="40"/>
+      <c r="O108" s="40"/>
+      <c r="P108" s="40"/>
+      <c r="Q108" s="40"/>
+      <c r="R108" s="40"/>
+      <c r="S108" s="40"/>
+      <c r="T108" s="40"/>
+      <c r="U108" s="40"/>
+      <c r="V108" s="40"/>
+      <c r="W108" s="40"/>
+      <c r="X108" s="40"/>
+      <c r="Y108" s="40"/>
+      <c r="Z108" s="40"/>
+      <c r="AA108" s="40"/>
+      <c r="AB108" s="40"/>
+      <c r="AC108" s="40"/>
+      <c r="AD108" s="40"/>
+      <c r="AE108" s="40"/>
+      <c r="AF108" s="40"/>
+      <c r="AG108" s="40"/>
+      <c r="AH108" s="40"/>
+      <c r="AI108" s="40"/>
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="78" t="s">
-        <v>407</v>
-      </c>
-      <c r="B109" s="78" t="s">
-        <v>408</v>
+      <c r="A109" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>288</v>
       </c>
       <c r="C109" s="51" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="D109" s="40"/>
-      <c r="E109" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="F109" s="56"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40" t="s">
+        <v>449</v>
+      </c>
       <c r="G109" s="40"/>
       <c r="H109" s="40"/>
-      <c r="I109" s="56" t="s">
-        <v>410</v>
-      </c>
-      <c r="J109" s="56"/>
-      <c r="K109" s="56"/>
-      <c r="L109" s="56"/>
-      <c r="M109" s="51"/>
-      <c r="N109" s="51"/>
-      <c r="O109" s="51"/>
-      <c r="P109" s="51"/>
-      <c r="Q109" s="51"/>
-      <c r="R109" s="51"/>
-      <c r="S109" s="51"/>
-      <c r="T109" s="51"/>
-      <c r="U109" s="56"/>
-      <c r="V109" s="51"/>
-      <c r="W109" s="56"/>
-      <c r="X109" s="56"/>
-      <c r="Y109" s="56"/>
-      <c r="Z109" s="56"/>
-      <c r="AA109" s="56"/>
-      <c r="AB109" s="56"/>
-      <c r="AC109" s="56"/>
-      <c r="AD109" s="56"/>
-      <c r="AE109" s="56"/>
-      <c r="AF109" s="56"/>
-      <c r="AG109" s="56"/>
-      <c r="AH109" s="56"/>
-      <c r="AI109" s="56"/>
+      <c r="I109" s="40"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="40"/>
+      <c r="L109" s="40"/>
+      <c r="M109" s="40"/>
+      <c r="N109" s="40"/>
+      <c r="O109" s="40"/>
+      <c r="P109" s="40"/>
+      <c r="Q109" s="40"/>
+      <c r="R109" s="40"/>
+      <c r="S109" s="40"/>
+      <c r="T109" s="40"/>
+      <c r="U109" s="40"/>
+      <c r="V109" s="40"/>
+      <c r="W109" s="40"/>
+      <c r="X109" s="40"/>
+      <c r="Y109" s="40"/>
+      <c r="Z109" s="40"/>
+      <c r="AA109" s="40"/>
+      <c r="AB109" s="40"/>
+      <c r="AC109" s="40"/>
+      <c r="AD109" s="40"/>
+      <c r="AE109" s="40"/>
+      <c r="AF109" s="40"/>
+      <c r="AG109" s="40"/>
+      <c r="AH109" s="40"/>
+      <c r="AI109" s="40"/>
     </row>
     <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="78" t="s">
-        <v>341</v>
-      </c>
-      <c r="B110" s="78" t="s">
-        <v>411</v>
-      </c>
-      <c r="C110" s="51" t="s">
-        <v>412</v>
-      </c>
+      <c r="A110" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" s="50"/>
+      <c r="C110" s="40"/>
       <c r="D110" s="40"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
       <c r="G110" s="40"/>
       <c r="H110" s="40"/>
-      <c r="I110" s="56"/>
-      <c r="J110" s="56"/>
-      <c r="K110" s="56"/>
-      <c r="L110" s="56"/>
-      <c r="M110" s="51"/>
-      <c r="N110" s="51"/>
-      <c r="O110" s="51"/>
-      <c r="P110" s="51"/>
-      <c r="Q110" s="51"/>
-      <c r="R110" s="51"/>
-      <c r="S110" s="51"/>
-      <c r="T110" s="51"/>
-      <c r="U110" s="56"/>
-      <c r="V110" s="51"/>
-      <c r="W110" s="56"/>
-      <c r="X110" s="56"/>
-      <c r="Y110" s="56"/>
-      <c r="Z110" s="56"/>
-      <c r="AA110" s="56"/>
-      <c r="AB110" s="56"/>
-      <c r="AC110" s="56"/>
-      <c r="AD110" s="56"/>
-      <c r="AE110" s="56"/>
-      <c r="AF110" s="56"/>
-      <c r="AG110" s="56"/>
-      <c r="AH110" s="56"/>
-      <c r="AI110" s="56"/>
-    </row>
-    <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="79" t="s">
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="40"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
+      <c r="N110" s="40"/>
+      <c r="O110" s="40"/>
+      <c r="P110" s="40"/>
+      <c r="Q110" s="40"/>
+      <c r="R110" s="40"/>
+      <c r="S110" s="40"/>
+      <c r="T110" s="40"/>
+      <c r="U110" s="40"/>
+      <c r="V110" s="40"/>
+      <c r="W110" s="40"/>
+      <c r="X110" s="40"/>
+      <c r="Y110" s="40"/>
+      <c r="Z110" s="40"/>
+      <c r="AA110" s="40"/>
+      <c r="AB110" s="40"/>
+      <c r="AC110" s="40"/>
+      <c r="AD110" s="40"/>
+      <c r="AE110" s="40"/>
+      <c r="AF110" s="40"/>
+      <c r="AG110" s="40"/>
+      <c r="AH110" s="40"/>
+      <c r="AI110" s="40"/>
+    </row>
+    <row r="111" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="54"/>
+      <c r="B111" s="54"/>
+      <c r="C111" s="54"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="54"/>
+      <c r="H111" s="54"/>
+      <c r="I111" s="54"/>
+      <c r="J111" s="54"/>
+      <c r="K111" s="54"/>
+      <c r="L111" s="54"/>
+      <c r="M111" s="54"/>
+      <c r="N111" s="54"/>
+      <c r="O111" s="54"/>
+      <c r="P111" s="54"/>
+      <c r="Q111" s="54"/>
+      <c r="R111" s="54"/>
+      <c r="S111" s="54"/>
+      <c r="T111" s="54"/>
+      <c r="U111" s="54"/>
+      <c r="V111" s="54"/>
+      <c r="W111" s="54"/>
+      <c r="X111" s="54"/>
+      <c r="Y111" s="54"/>
+      <c r="Z111" s="54"/>
+      <c r="AA111" s="54"/>
+      <c r="AB111" s="54"/>
+      <c r="AC111" s="54"/>
+      <c r="AD111" s="54"/>
+      <c r="AE111" s="54"/>
+      <c r="AF111" s="54"/>
+      <c r="AG111" s="54"/>
+      <c r="AH111" s="54"/>
+      <c r="AI111" s="54"/>
+    </row>
+    <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B111" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="C111" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="56"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="G111" s="56"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="56"/>
-      <c r="J111" s="80"/>
-      <c r="K111" s="56"/>
-      <c r="L111" s="56"/>
-      <c r="M111" s="56"/>
-      <c r="N111" s="56"/>
-      <c r="O111" s="80"/>
-      <c r="P111" s="56"/>
-      <c r="Q111" s="56"/>
-      <c r="R111" s="56"/>
-      <c r="S111" s="56"/>
-      <c r="T111" s="56"/>
-      <c r="U111" s="56"/>
-      <c r="V111" s="56"/>
-      <c r="W111" s="56"/>
-      <c r="X111" s="56"/>
-      <c r="Y111" s="56"/>
-      <c r="Z111" s="56"/>
-      <c r="AA111" s="56"/>
-      <c r="AB111" s="56"/>
-      <c r="AC111" s="56"/>
-      <c r="AD111" s="56"/>
-      <c r="AE111" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF111" s="56"/>
-      <c r="AG111" s="56"/>
-      <c r="AH111" s="81" t="s">
-        <v>415</v>
-      </c>
-      <c r="AI111" s="56"/>
-    </row>
-    <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B112" s="79" t="s">
-        <v>416</v>
-      </c>
-      <c r="C112" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D112" s="56"/>
-      <c r="E112" s="80"/>
-      <c r="F112" s="56"/>
-      <c r="G112" s="56"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="80"/>
-      <c r="J112" s="80"/>
-      <c r="K112" s="80" t="s">
-        <v>417</v>
-      </c>
-      <c r="L112" s="80"/>
-      <c r="M112" s="80"/>
-      <c r="N112" s="56"/>
-      <c r="O112" s="56"/>
-      <c r="P112" s="56"/>
-      <c r="Q112" s="56"/>
-      <c r="R112" s="56"/>
-      <c r="S112" s="56"/>
-      <c r="T112" s="80"/>
-      <c r="U112" s="80"/>
-      <c r="V112" s="80"/>
-      <c r="W112" s="80"/>
-      <c r="X112" s="80"/>
-      <c r="Y112" s="80"/>
-      <c r="Z112" s="80"/>
-      <c r="AA112" s="80"/>
-      <c r="AB112" s="80"/>
-      <c r="AC112" s="80"/>
-      <c r="AD112" s="80"/>
-      <c r="AE112" s="80"/>
-      <c r="AF112" s="80"/>
-      <c r="AG112" s="80"/>
-      <c r="AH112" s="80"/>
-      <c r="AI112" s="80"/>
+      <c r="B112" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="C112" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="D112" s="40"/>
+      <c r="E112" s="56"/>
+      <c r="F112" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G112" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H112" s="40"/>
+      <c r="I112" s="56"/>
+      <c r="J112" s="56"/>
+      <c r="K112" s="56"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
+      <c r="O112" s="51"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="51"/>
+      <c r="R112" s="51"/>
+      <c r="S112" s="51"/>
+      <c r="T112" s="51"/>
+      <c r="U112" s="56"/>
+      <c r="V112" s="51"/>
+      <c r="W112" s="56"/>
+      <c r="X112" s="56"/>
+      <c r="Y112" s="56"/>
+      <c r="Z112" s="56"/>
+      <c r="AA112" s="56"/>
+      <c r="AB112" s="56"/>
+      <c r="AC112" s="56"/>
+      <c r="AD112" s="56"/>
+      <c r="AE112" s="56"/>
+      <c r="AF112" s="56"/>
+      <c r="AG112" s="56"/>
+      <c r="AH112" s="56"/>
+      <c r="AI112" s="56"/>
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B113" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C113" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="D113" s="56"/>
-      <c r="E113" s="56"/>
+      <c r="A113" s="78" t="s">
+        <v>193</v>
+      </c>
+      <c r="B113" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="C113" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="D113" s="40"/>
+      <c r="E113" s="56" t="s">
+        <v>56</v>
+      </c>
       <c r="F113" s="56"/>
-      <c r="G113" s="56"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="56"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="40"/>
+      <c r="I113" s="51" t="s">
+        <v>403</v>
+      </c>
       <c r="J113" s="56"/>
-      <c r="K113" s="80" t="s">
-        <v>419</v>
-      </c>
-      <c r="L113" s="56"/>
-      <c r="M113" s="56"/>
-      <c r="N113" s="56"/>
-      <c r="O113" s="56"/>
-      <c r="P113" s="56"/>
-      <c r="Q113" s="56"/>
-      <c r="R113" s="56"/>
-      <c r="S113" s="56"/>
-      <c r="T113" s="80"/>
+      <c r="K113" s="56"/>
+      <c r="L113" s="51"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="51"/>
+      <c r="T113" s="51"/>
       <c r="U113" s="56"/>
-      <c r="V113" s="56"/>
+      <c r="V113" s="51"/>
       <c r="W113" s="56"/>
       <c r="X113" s="56"/>
       <c r="Y113" s="56"/>
@@ -6421,124 +6375,126 @@
       <c r="AI113" s="56"/>
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B114" s="79" t="s">
-        <v>420</v>
-      </c>
-      <c r="C114" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
+      <c r="A114" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="B114" s="78" t="s">
+        <v>405</v>
+      </c>
+      <c r="C114" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="D114" s="40"/>
+      <c r="E114" s="56" t="s">
+        <v>56</v>
+      </c>
       <c r="F114" s="56"/>
-      <c r="G114" s="56"/>
-      <c r="H114" s="56"/>
+      <c r="G114" s="40"/>
+      <c r="H114" s="40"/>
       <c r="I114" s="56"/>
       <c r="J114" s="56"/>
-      <c r="K114" s="80" t="s">
-        <v>421</v>
-      </c>
+      <c r="K114" s="56"/>
       <c r="L114" s="56"/>
-      <c r="M114" s="56"/>
-      <c r="N114" s="56"/>
-      <c r="O114" s="56"/>
-      <c r="P114" s="56"/>
-      <c r="Q114" s="56"/>
-      <c r="R114" s="56"/>
-      <c r="S114" s="56"/>
-      <c r="T114" s="80"/>
-      <c r="U114" s="80"/>
-      <c r="V114" s="80"/>
-      <c r="W114" s="80"/>
-      <c r="X114" s="80"/>
-      <c r="Y114" s="80"/>
-      <c r="Z114" s="80"/>
-      <c r="AA114" s="80"/>
-      <c r="AB114" s="80"/>
-      <c r="AC114" s="80"/>
-      <c r="AD114" s="80"/>
-      <c r="AE114" s="80"/>
-      <c r="AF114" s="80"/>
-      <c r="AG114" s="80"/>
-      <c r="AH114" s="80"/>
-      <c r="AI114" s="80"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="51"/>
+      <c r="O114" s="51"/>
+      <c r="P114" s="51"/>
+      <c r="Q114" s="51"/>
+      <c r="R114" s="51"/>
+      <c r="S114" s="51"/>
+      <c r="T114" s="51"/>
+      <c r="U114" s="56"/>
+      <c r="V114" s="51"/>
+      <c r="W114" s="56"/>
+      <c r="X114" s="56"/>
+      <c r="Y114" s="56"/>
+      <c r="Z114" s="56"/>
+      <c r="AA114" s="56"/>
+      <c r="AB114" s="56"/>
+      <c r="AC114" s="56"/>
+      <c r="AD114" s="56"/>
+      <c r="AE114" s="56"/>
+      <c r="AF114" s="56"/>
+      <c r="AG114" s="56"/>
+      <c r="AH114" s="56"/>
+      <c r="AI114" s="56"/>
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B115" s="79" t="s">
-        <v>422</v>
-      </c>
-      <c r="C115" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D115" s="56"/>
-      <c r="E115" s="80"/>
+      <c r="A115" s="78" t="s">
+        <v>407</v>
+      </c>
+      <c r="B115" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="C115" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="D115" s="40"/>
+      <c r="E115" s="56" t="s">
+        <v>57</v>
+      </c>
       <c r="F115" s="56"/>
-      <c r="G115" s="56"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="80"/>
-      <c r="J115" s="80"/>
-      <c r="K115" s="80" t="s">
-        <v>423</v>
-      </c>
-      <c r="L115" s="80"/>
-      <c r="M115" s="80"/>
-      <c r="N115" s="80"/>
-      <c r="O115" s="80"/>
-      <c r="P115" s="80"/>
-      <c r="Q115" s="80"/>
-      <c r="R115" s="80"/>
-      <c r="S115" s="80"/>
-      <c r="T115" s="80"/>
-      <c r="U115" s="80"/>
-      <c r="V115" s="80"/>
-      <c r="W115" s="80"/>
-      <c r="X115" s="80"/>
-      <c r="Y115" s="80"/>
-      <c r="Z115" s="80"/>
-      <c r="AA115" s="80"/>
-      <c r="AB115" s="80"/>
-      <c r="AC115" s="80"/>
-      <c r="AD115" s="80"/>
-      <c r="AE115" s="80"/>
-      <c r="AF115" s="80"/>
-      <c r="AG115" s="80"/>
-      <c r="AH115" s="80"/>
-      <c r="AI115" s="80"/>
+      <c r="G115" s="40"/>
+      <c r="H115" s="40"/>
+      <c r="I115" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="J115" s="56"/>
+      <c r="K115" s="56"/>
+      <c r="L115" s="56"/>
+      <c r="M115" s="51"/>
+      <c r="N115" s="51"/>
+      <c r="O115" s="51"/>
+      <c r="P115" s="51"/>
+      <c r="Q115" s="51"/>
+      <c r="R115" s="51"/>
+      <c r="S115" s="51"/>
+      <c r="T115" s="51"/>
+      <c r="U115" s="56"/>
+      <c r="V115" s="51"/>
+      <c r="W115" s="56"/>
+      <c r="X115" s="56"/>
+      <c r="Y115" s="56"/>
+      <c r="Z115" s="56"/>
+      <c r="AA115" s="56"/>
+      <c r="AB115" s="56"/>
+      <c r="AC115" s="56"/>
+      <c r="AD115" s="56"/>
+      <c r="AE115" s="56"/>
+      <c r="AF115" s="56"/>
+      <c r="AG115" s="56"/>
+      <c r="AH115" s="56"/>
+      <c r="AI115" s="56"/>
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B116" s="79" t="s">
-        <v>424</v>
-      </c>
-      <c r="C116" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D116" s="56"/>
+      <c r="A116" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="B116" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="C116" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="D116" s="40"/>
       <c r="E116" s="56"/>
       <c r="F116" s="56"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="56"/>
+      <c r="G116" s="40"/>
+      <c r="H116" s="40"/>
       <c r="I116" s="56"/>
       <c r="J116" s="56"/>
       <c r="K116" s="56"/>
       <c r="L116" s="56"/>
-      <c r="M116" s="56"/>
-      <c r="N116" s="56"/>
-      <c r="O116" s="56"/>
-      <c r="P116" s="56"/>
-      <c r="Q116" s="56"/>
-      <c r="R116" s="56"/>
-      <c r="S116" s="56"/>
-      <c r="T116" s="56"/>
+      <c r="M116" s="51"/>
+      <c r="N116" s="51"/>
+      <c r="O116" s="51"/>
+      <c r="P116" s="51"/>
+      <c r="Q116" s="51"/>
+      <c r="R116" s="51"/>
+      <c r="S116" s="51"/>
+      <c r="T116" s="51"/>
       <c r="U116" s="56"/>
-      <c r="V116" s="56"/>
+      <c r="V116" s="51"/>
       <c r="W116" s="56"/>
       <c r="X116" s="56"/>
       <c r="Y116" s="56"/>
@@ -6555,77 +6511,81 @@
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="79" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B117" s="79" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
       <c r="C117" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D117" s="80"/>
-      <c r="E117" s="80"/>
-      <c r="F117" s="80"/>
-      <c r="G117" s="80"/>
-      <c r="H117" s="80"/>
-      <c r="I117" s="80"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="56"/>
+      <c r="F117" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="G117" s="56"/>
+      <c r="H117" s="56"/>
+      <c r="I117" s="56"/>
       <c r="J117" s="80"/>
-      <c r="K117" s="80" t="s">
-        <v>425</v>
-      </c>
-      <c r="L117" s="80"/>
-      <c r="M117" s="80"/>
-      <c r="N117" s="80"/>
+      <c r="K117" s="56"/>
+      <c r="L117" s="56"/>
+      <c r="M117" s="56"/>
+      <c r="N117" s="56"/>
       <c r="O117" s="80"/>
-      <c r="P117" s="80"/>
-      <c r="Q117" s="80"/>
-      <c r="R117" s="80"/>
-      <c r="S117" s="80"/>
-      <c r="T117" s="80"/>
-      <c r="U117" s="80"/>
-      <c r="V117" s="80"/>
-      <c r="W117" s="80"/>
-      <c r="X117" s="80"/>
-      <c r="Y117" s="80"/>
-      <c r="Z117" s="80"/>
-      <c r="AA117" s="80"/>
-      <c r="AB117" s="80"/>
-      <c r="AC117" s="80"/>
-      <c r="AD117" s="80"/>
-      <c r="AE117" s="80"/>
-      <c r="AF117" s="80"/>
-      <c r="AG117" s="80"/>
-      <c r="AH117" s="80"/>
-      <c r="AI117" s="80"/>
+      <c r="P117" s="56"/>
+      <c r="Q117" s="56"/>
+      <c r="R117" s="56"/>
+      <c r="S117" s="56"/>
+      <c r="T117" s="56"/>
+      <c r="U117" s="56"/>
+      <c r="V117" s="56"/>
+      <c r="W117" s="56"/>
+      <c r="X117" s="56"/>
+      <c r="Y117" s="56"/>
+      <c r="Z117" s="56"/>
+      <c r="AA117" s="56"/>
+      <c r="AB117" s="56"/>
+      <c r="AC117" s="56"/>
+      <c r="AD117" s="56"/>
+      <c r="AE117" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF117" s="56"/>
+      <c r="AG117" s="56"/>
+      <c r="AH117" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI117" s="56"/>
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>164</v>
+        <v>416</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D118" s="80"/>
+      <c r="D118" s="56"/>
       <c r="E118" s="80"/>
-      <c r="F118" s="80"/>
-      <c r="G118" s="80"/>
-      <c r="H118" s="80"/>
+      <c r="F118" s="56"/>
+      <c r="G118" s="56"/>
+      <c r="H118" s="56"/>
       <c r="I118" s="80"/>
       <c r="J118" s="80"/>
       <c r="K118" s="80" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="L118" s="80"/>
       <c r="M118" s="80"/>
-      <c r="N118" s="80"/>
-      <c r="O118" s="80"/>
-      <c r="P118" s="80"/>
-      <c r="Q118" s="80"/>
-      <c r="R118" s="80"/>
-      <c r="S118" s="80"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="56"/>
+      <c r="P118" s="56"/>
+      <c r="Q118" s="56"/>
+      <c r="R118" s="56"/>
+      <c r="S118" s="56"/>
       <c r="T118" s="80"/>
       <c r="U118" s="80"/>
       <c r="V118" s="80"/>
@@ -6645,13 +6605,13 @@
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="79" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>427</v>
+        <v>1</v>
       </c>
       <c r="C119" s="80" t="s">
-        <v>35</v>
+        <v>418</v>
       </c>
       <c r="D119" s="56"/>
       <c r="E119" s="56"/>
@@ -6660,7 +6620,9 @@
       <c r="H119" s="56"/>
       <c r="I119" s="56"/>
       <c r="J119" s="56"/>
-      <c r="K119" s="56"/>
+      <c r="K119" s="80" t="s">
+        <v>419</v>
+      </c>
       <c r="L119" s="56"/>
       <c r="M119" s="56"/>
       <c r="N119" s="56"/>
@@ -6669,7 +6631,7 @@
       <c r="Q119" s="56"/>
       <c r="R119" s="56"/>
       <c r="S119" s="56"/>
-      <c r="T119" s="56"/>
+      <c r="T119" s="80"/>
       <c r="U119" s="56"/>
       <c r="V119" s="56"/>
       <c r="W119" s="56"/>
@@ -6691,7 +6653,7 @@
         <v>95</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>35</v>
@@ -6704,7 +6666,7 @@
       <c r="I120" s="56"/>
       <c r="J120" s="56"/>
       <c r="K120" s="80" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="L120" s="56"/>
       <c r="M120" s="56"/>
@@ -6715,73 +6677,73 @@
       <c r="R120" s="56"/>
       <c r="S120" s="56"/>
       <c r="T120" s="80"/>
-      <c r="U120" s="56"/>
-      <c r="V120" s="56"/>
-      <c r="W120" s="56"/>
-      <c r="X120" s="56"/>
-      <c r="Y120" s="56"/>
-      <c r="Z120" s="56"/>
-      <c r="AA120" s="56"/>
-      <c r="AB120" s="56"/>
-      <c r="AC120" s="56"/>
-      <c r="AD120" s="56"/>
-      <c r="AE120" s="56"/>
-      <c r="AF120" s="56"/>
-      <c r="AG120" s="56"/>
-      <c r="AH120" s="56"/>
-      <c r="AI120" s="56"/>
+      <c r="U120" s="80"/>
+      <c r="V120" s="80"/>
+      <c r="W120" s="80"/>
+      <c r="X120" s="80"/>
+      <c r="Y120" s="80"/>
+      <c r="Z120" s="80"/>
+      <c r="AA120" s="80"/>
+      <c r="AB120" s="80"/>
+      <c r="AC120" s="80"/>
+      <c r="AD120" s="80"/>
+      <c r="AE120" s="80"/>
+      <c r="AF120" s="80"/>
+      <c r="AG120" s="80"/>
+      <c r="AH120" s="80"/>
+      <c r="AI120" s="80"/>
     </row>
     <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C121" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D121" s="56"/>
-      <c r="E121" s="56"/>
+      <c r="E121" s="80"/>
       <c r="F121" s="56"/>
       <c r="G121" s="56"/>
       <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
+      <c r="I121" s="80"/>
+      <c r="J121" s="80"/>
       <c r="K121" s="80" t="s">
-        <v>431</v>
-      </c>
-      <c r="L121" s="56"/>
-      <c r="M121" s="56"/>
-      <c r="N121" s="56"/>
-      <c r="O121" s="56"/>
-      <c r="P121" s="56"/>
-      <c r="Q121" s="56"/>
-      <c r="R121" s="56"/>
-      <c r="S121" s="56"/>
+        <v>423</v>
+      </c>
+      <c r="L121" s="80"/>
+      <c r="M121" s="80"/>
+      <c r="N121" s="80"/>
+      <c r="O121" s="80"/>
+      <c r="P121" s="80"/>
+      <c r="Q121" s="80"/>
+      <c r="R121" s="80"/>
+      <c r="S121" s="80"/>
       <c r="T121" s="80"/>
-      <c r="U121" s="56"/>
-      <c r="V121" s="56"/>
-      <c r="W121" s="56"/>
-      <c r="X121" s="56"/>
-      <c r="Y121" s="56"/>
-      <c r="Z121" s="56"/>
-      <c r="AA121" s="56"/>
-      <c r="AB121" s="56"/>
-      <c r="AC121" s="56"/>
-      <c r="AD121" s="56"/>
-      <c r="AE121" s="56"/>
-      <c r="AF121" s="56"/>
-      <c r="AG121" s="56"/>
-      <c r="AH121" s="56"/>
-      <c r="AI121" s="56"/>
+      <c r="U121" s="80"/>
+      <c r="V121" s="80"/>
+      <c r="W121" s="80"/>
+      <c r="X121" s="80"/>
+      <c r="Y121" s="80"/>
+      <c r="Z121" s="80"/>
+      <c r="AA121" s="80"/>
+      <c r="AB121" s="80"/>
+      <c r="AC121" s="80"/>
+      <c r="AD121" s="80"/>
+      <c r="AE121" s="80"/>
+      <c r="AF121" s="80"/>
+      <c r="AG121" s="80"/>
+      <c r="AH121" s="80"/>
+      <c r="AI121" s="80"/>
     </row>
     <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="79" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>35</v>
@@ -6793,9 +6755,7 @@
       <c r="H122" s="56"/>
       <c r="I122" s="56"/>
       <c r="J122" s="56"/>
-      <c r="K122" s="80" t="s">
-        <v>433</v>
-      </c>
+      <c r="K122" s="56"/>
       <c r="L122" s="56"/>
       <c r="M122" s="56"/>
       <c r="N122" s="56"/>
@@ -6804,7 +6764,7 @@
       <c r="Q122" s="56"/>
       <c r="R122" s="56"/>
       <c r="S122" s="56"/>
-      <c r="T122" s="80"/>
+      <c r="T122" s="56"/>
       <c r="U122" s="56"/>
       <c r="V122" s="56"/>
       <c r="W122" s="56"/>
@@ -6826,20 +6786,20 @@
         <v>95</v>
       </c>
       <c r="B123" s="79" t="s">
-        <v>434</v>
+        <v>48</v>
       </c>
       <c r="C123" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D123" s="56"/>
+      <c r="D123" s="80"/>
       <c r="E123" s="80"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="56"/>
-      <c r="H123" s="56"/>
+      <c r="F123" s="80"/>
+      <c r="G123" s="80"/>
+      <c r="H123" s="80"/>
       <c r="I123" s="80"/>
       <c r="J123" s="80"/>
       <c r="K123" s="80" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="L123" s="80"/>
       <c r="M123" s="80"/>
@@ -6868,49 +6828,59 @@
     </row>
     <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B124" s="79"/>
-      <c r="C124" s="56"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="56"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="56"/>
-      <c r="J124" s="56"/>
-      <c r="K124" s="56"/>
-      <c r="L124" s="56"/>
-      <c r="M124" s="56"/>
-      <c r="N124" s="56"/>
-      <c r="O124" s="56"/>
-      <c r="P124" s="56"/>
-      <c r="Q124" s="56"/>
-      <c r="R124" s="56"/>
-      <c r="S124" s="56"/>
-      <c r="T124" s="56"/>
-      <c r="U124" s="56"/>
-      <c r="V124" s="56"/>
-      <c r="W124" s="56"/>
-      <c r="X124" s="56"/>
-      <c r="Y124" s="56"/>
-      <c r="Z124" s="56"/>
-      <c r="AA124" s="56"/>
-      <c r="AB124" s="56"/>
-      <c r="AC124" s="56"/>
-      <c r="AD124" s="56"/>
-      <c r="AE124" s="56"/>
-      <c r="AF124" s="56"/>
-      <c r="AG124" s="56"/>
-      <c r="AH124" s="56"/>
-      <c r="AI124" s="56"/>
+        <v>95</v>
+      </c>
+      <c r="B124" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C124" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="80"/>
+      <c r="E124" s="80"/>
+      <c r="F124" s="80"/>
+      <c r="G124" s="80"/>
+      <c r="H124" s="80"/>
+      <c r="I124" s="80"/>
+      <c r="J124" s="80"/>
+      <c r="K124" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="L124" s="80"/>
+      <c r="M124" s="80"/>
+      <c r="N124" s="80"/>
+      <c r="O124" s="80"/>
+      <c r="P124" s="80"/>
+      <c r="Q124" s="80"/>
+      <c r="R124" s="80"/>
+      <c r="S124" s="80"/>
+      <c r="T124" s="80"/>
+      <c r="U124" s="80"/>
+      <c r="V124" s="80"/>
+      <c r="W124" s="80"/>
+      <c r="X124" s="80"/>
+      <c r="Y124" s="80"/>
+      <c r="Z124" s="80"/>
+      <c r="AA124" s="80"/>
+      <c r="AB124" s="80"/>
+      <c r="AC124" s="80"/>
+      <c r="AD124" s="80"/>
+      <c r="AE124" s="80"/>
+      <c r="AF124" s="80"/>
+      <c r="AG124" s="80"/>
+      <c r="AH124" s="80"/>
+      <c r="AI124" s="80"/>
     </row>
     <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B125" s="79"/>
-      <c r="C125" s="56"/>
+        <v>32</v>
+      </c>
+      <c r="B125" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="C125" s="80" t="s">
+        <v>35</v>
+      </c>
       <c r="D125" s="56"/>
       <c r="E125" s="56"/>
       <c r="F125" s="56"/>
@@ -6946,10 +6916,14 @@
     </row>
     <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B126" s="79"/>
-      <c r="C126" s="56"/>
+        <v>95</v>
+      </c>
+      <c r="B126" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="C126" s="80" t="s">
+        <v>35</v>
+      </c>
       <c r="D126" s="56"/>
       <c r="E126" s="56"/>
       <c r="F126" s="56"/>
@@ -6957,7 +6931,9 @@
       <c r="H126" s="56"/>
       <c r="I126" s="56"/>
       <c r="J126" s="56"/>
-      <c r="K126" s="56"/>
+      <c r="K126" s="80" t="s">
+        <v>429</v>
+      </c>
       <c r="L126" s="56"/>
       <c r="M126" s="56"/>
       <c r="N126" s="56"/>
@@ -6966,7 +6942,7 @@
       <c r="Q126" s="56"/>
       <c r="R126" s="56"/>
       <c r="S126" s="56"/>
-      <c r="T126" s="56"/>
+      <c r="T126" s="80"/>
       <c r="U126" s="56"/>
       <c r="V126" s="56"/>
       <c r="W126" s="56"/>
@@ -6984,13 +6960,13 @@
       <c r="AI126" s="56"/>
     </row>
     <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="82" t="s">
+      <c r="A127" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="B127" s="82" t="s">
-        <v>436</v>
-      </c>
-      <c r="C127" s="56" t="s">
+      <c r="B127" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="C127" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D127" s="56"/>
@@ -7000,8 +6976,8 @@
       <c r="H127" s="56"/>
       <c r="I127" s="56"/>
       <c r="J127" s="56"/>
-      <c r="K127" s="56" t="s">
-        <v>437</v>
+      <c r="K127" s="80" t="s">
+        <v>431</v>
       </c>
       <c r="L127" s="56"/>
       <c r="M127" s="56"/>
@@ -7011,7 +6987,7 @@
       <c r="Q127" s="56"/>
       <c r="R127" s="56"/>
       <c r="S127" s="56"/>
-      <c r="T127" s="56"/>
+      <c r="T127" s="80"/>
       <c r="U127" s="56"/>
       <c r="V127" s="56"/>
       <c r="W127" s="56"/>
@@ -7029,30 +7005,36 @@
       <c r="AI127" s="56"/>
     </row>
     <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B128" s="78"/>
-      <c r="C128" s="51"/>
-      <c r="D128" s="40"/>
+      <c r="A128" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B128" s="79" t="s">
+        <v>432</v>
+      </c>
+      <c r="C128" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128" s="56"/>
       <c r="E128" s="56"/>
-      <c r="F128" s="40"/>
-      <c r="G128" s="40"/>
-      <c r="H128" s="40"/>
+      <c r="F128" s="56"/>
+      <c r="G128" s="56"/>
+      <c r="H128" s="56"/>
       <c r="I128" s="56"/>
       <c r="J128" s="56"/>
-      <c r="K128" s="56"/>
+      <c r="K128" s="80" t="s">
+        <v>433</v>
+      </c>
       <c r="L128" s="56"/>
-      <c r="M128" s="51"/>
-      <c r="N128" s="51"/>
-      <c r="O128" s="51"/>
-      <c r="P128" s="51"/>
-      <c r="Q128" s="51"/>
-      <c r="R128" s="51"/>
-      <c r="S128" s="51"/>
-      <c r="T128" s="51"/>
+      <c r="M128" s="56"/>
+      <c r="N128" s="56"/>
+      <c r="O128" s="56"/>
+      <c r="P128" s="56"/>
+      <c r="Q128" s="56"/>
+      <c r="R128" s="56"/>
+      <c r="S128" s="56"/>
+      <c r="T128" s="80"/>
       <c r="U128" s="56"/>
-      <c r="V128" s="51"/>
+      <c r="V128" s="56"/>
       <c r="W128" s="56"/>
       <c r="X128" s="56"/>
       <c r="Y128" s="56"/>
@@ -7067,295 +7049,271 @@
       <c r="AH128" s="56"/>
       <c r="AI128" s="56"/>
     </row>
+    <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B129" s="79" t="s">
+        <v>434</v>
+      </c>
+      <c r="C129" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="56"/>
+      <c r="E129" s="80"/>
+      <c r="F129" s="56"/>
+      <c r="G129" s="56"/>
+      <c r="H129" s="56"/>
+      <c r="I129" s="80"/>
+      <c r="J129" s="80"/>
+      <c r="K129" s="80" t="s">
+        <v>435</v>
+      </c>
+      <c r="L129" s="80"/>
+      <c r="M129" s="80"/>
+      <c r="N129" s="80"/>
+      <c r="O129" s="80"/>
+      <c r="P129" s="80"/>
+      <c r="Q129" s="80"/>
+      <c r="R129" s="80"/>
+      <c r="S129" s="80"/>
+      <c r="T129" s="80"/>
+      <c r="U129" s="80"/>
+      <c r="V129" s="80"/>
+      <c r="W129" s="80"/>
+      <c r="X129" s="80"/>
+      <c r="Y129" s="80"/>
+      <c r="Z129" s="80"/>
+      <c r="AA129" s="80"/>
+      <c r="AB129" s="80"/>
+      <c r="AC129" s="80"/>
+      <c r="AD129" s="80"/>
+      <c r="AE129" s="80"/>
+      <c r="AF129" s="80"/>
+      <c r="AG129" s="80"/>
+      <c r="AH129" s="80"/>
+      <c r="AI129" s="80"/>
+    </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B130" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="C130" s="69" t="s">
+      <c r="A130" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130" s="79"/>
+      <c r="C130" s="56"/>
+      <c r="D130" s="56"/>
+      <c r="E130" s="56"/>
+      <c r="F130" s="56"/>
+      <c r="G130" s="56"/>
+      <c r="H130" s="56"/>
+      <c r="I130" s="56"/>
+      <c r="J130" s="56"/>
+      <c r="K130" s="56"/>
+      <c r="L130" s="56"/>
+      <c r="M130" s="56"/>
+      <c r="N130" s="56"/>
+      <c r="O130" s="56"/>
+      <c r="P130" s="56"/>
+      <c r="Q130" s="56"/>
+      <c r="R130" s="56"/>
+      <c r="S130" s="56"/>
+      <c r="T130" s="56"/>
+      <c r="U130" s="56"/>
+      <c r="V130" s="56"/>
+      <c r="W130" s="56"/>
+      <c r="X130" s="56"/>
+      <c r="Y130" s="56"/>
+      <c r="Z130" s="56"/>
+      <c r="AA130" s="56"/>
+      <c r="AB130" s="56"/>
+      <c r="AC130" s="56"/>
+      <c r="AD130" s="56"/>
+      <c r="AE130" s="56"/>
+      <c r="AF130" s="56"/>
+      <c r="AG130" s="56"/>
+      <c r="AH130" s="56"/>
+      <c r="AI130" s="56"/>
+    </row>
+    <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B131" s="79"/>
+      <c r="C131" s="56"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="56"/>
+      <c r="F131" s="56"/>
+      <c r="G131" s="56"/>
+      <c r="H131" s="56"/>
+      <c r="I131" s="56"/>
+      <c r="J131" s="56"/>
+      <c r="K131" s="56"/>
+      <c r="L131" s="56"/>
+      <c r="M131" s="56"/>
+      <c r="N131" s="56"/>
+      <c r="O131" s="56"/>
+      <c r="P131" s="56"/>
+      <c r="Q131" s="56"/>
+      <c r="R131" s="56"/>
+      <c r="S131" s="56"/>
+      <c r="T131" s="56"/>
+      <c r="U131" s="56"/>
+      <c r="V131" s="56"/>
+      <c r="W131" s="56"/>
+      <c r="X131" s="56"/>
+      <c r="Y131" s="56"/>
+      <c r="Z131" s="56"/>
+      <c r="AA131" s="56"/>
+      <c r="AB131" s="56"/>
+      <c r="AC131" s="56"/>
+      <c r="AD131" s="56"/>
+      <c r="AE131" s="56"/>
+      <c r="AF131" s="56"/>
+      <c r="AG131" s="56"/>
+      <c r="AH131" s="56"/>
+      <c r="AI131" s="56"/>
+    </row>
+    <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" s="79"/>
+      <c r="C132" s="56"/>
+      <c r="D132" s="56"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="56"/>
+      <c r="H132" s="56"/>
+      <c r="I132" s="56"/>
+      <c r="J132" s="56"/>
+      <c r="K132" s="56"/>
+      <c r="L132" s="56"/>
+      <c r="M132" s="56"/>
+      <c r="N132" s="56"/>
+      <c r="O132" s="56"/>
+      <c r="P132" s="56"/>
+      <c r="Q132" s="56"/>
+      <c r="R132" s="56"/>
+      <c r="S132" s="56"/>
+      <c r="T132" s="56"/>
+      <c r="U132" s="56"/>
+      <c r="V132" s="56"/>
+      <c r="W132" s="56"/>
+      <c r="X132" s="56"/>
+      <c r="Y132" s="56"/>
+      <c r="Z132" s="56"/>
+      <c r="AA132" s="56"/>
+      <c r="AB132" s="56"/>
+      <c r="AC132" s="56"/>
+      <c r="AD132" s="56"/>
+      <c r="AE132" s="56"/>
+      <c r="AF132" s="56"/>
+      <c r="AG132" s="56"/>
+      <c r="AH132" s="56"/>
+      <c r="AI132" s="56"/>
+    </row>
+    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B133" s="82" t="s">
+        <v>436</v>
+      </c>
+      <c r="C133" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D130" s="70"/>
-      <c r="E130" s="70"/>
-      <c r="F130" s="71"/>
-      <c r="G130" s="71" t="s">
-        <v>340</v>
-      </c>
-      <c r="H130" s="70"/>
-      <c r="I130" s="71"/>
-      <c r="J130" s="71"/>
-      <c r="K130" s="71"/>
-      <c r="L130" s="71"/>
-      <c r="M130" s="69"/>
-      <c r="N130" s="69"/>
-      <c r="O130" s="69"/>
-      <c r="P130" s="69"/>
-      <c r="Q130" s="69"/>
-      <c r="R130" s="69"/>
-      <c r="S130" s="69"/>
-      <c r="T130" s="69"/>
-      <c r="U130" s="71"/>
-      <c r="V130" s="69"/>
-      <c r="W130" s="71"/>
-      <c r="X130" s="71"/>
-      <c r="Y130" s="71"/>
-      <c r="Z130" s="71"/>
-      <c r="AA130" s="71"/>
-      <c r="AB130" s="71"/>
-      <c r="AC130" s="71"/>
-      <c r="AD130" s="71"/>
-      <c r="AE130" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF130" s="71"/>
-      <c r="AG130" s="71"/>
-      <c r="AH130" s="71"/>
-      <c r="AI130" s="71"/>
-    </row>
-    <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="B131" s="72" t="s">
-        <v>342</v>
-      </c>
-      <c r="C131" s="69" t="s">
-        <v>343</v>
-      </c>
-      <c r="D131" s="71"/>
-      <c r="E131" s="71"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="71"/>
-      <c r="J131" s="71"/>
-      <c r="K131" s="71"/>
-      <c r="L131" s="71"/>
-      <c r="M131" s="71"/>
-      <c r="N131" s="71"/>
-      <c r="O131" s="71"/>
-      <c r="P131" s="71"/>
-      <c r="Q131" s="71"/>
-      <c r="R131" s="71"/>
-      <c r="S131" s="71"/>
-      <c r="T131" s="71"/>
-      <c r="U131" s="71"/>
-      <c r="V131" s="71"/>
-      <c r="W131" s="71"/>
-      <c r="X131" s="71"/>
-      <c r="Y131" s="71"/>
-      <c r="Z131" s="71"/>
-      <c r="AA131" s="71"/>
-      <c r="AB131" s="71"/>
-      <c r="AC131" s="71"/>
-      <c r="AD131" s="71"/>
-      <c r="AE131" s="71"/>
-      <c r="AF131" s="71"/>
-      <c r="AG131" s="71"/>
-      <c r="AH131" s="71"/>
-      <c r="AI131" s="71"/>
-    </row>
-    <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="68" t="s">
-        <v>341</v>
-      </c>
-      <c r="B132" s="68" t="s">
-        <v>344</v>
-      </c>
-      <c r="C132" s="69" t="s">
-        <v>345</v>
-      </c>
-      <c r="D132" s="71"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="H132" s="71"/>
-      <c r="I132" s="71"/>
-      <c r="J132" s="71"/>
-      <c r="K132" s="69"/>
-      <c r="L132" s="71"/>
-      <c r="M132" s="71"/>
-      <c r="N132" s="71"/>
-      <c r="O132" s="71"/>
-      <c r="P132" s="71"/>
-      <c r="Q132" s="71"/>
-      <c r="R132" s="71"/>
-      <c r="S132" s="71"/>
-      <c r="T132" s="71"/>
-      <c r="U132" s="71"/>
-      <c r="V132" s="71"/>
-      <c r="W132" s="71"/>
-      <c r="X132" s="71"/>
-      <c r="Y132" s="71"/>
-      <c r="Z132" s="71"/>
-      <c r="AA132" s="71"/>
-      <c r="AB132" s="71"/>
-      <c r="AC132" s="71"/>
-      <c r="AD132" s="71"/>
-      <c r="AE132" s="71"/>
-      <c r="AF132" s="71"/>
-      <c r="AG132" s="71"/>
-      <c r="AH132" s="71"/>
-      <c r="AI132" s="71"/>
-    </row>
-    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="68" t="s">
-        <v>341</v>
-      </c>
-      <c r="B133" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="C133" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="D133" s="71"/>
-      <c r="E133" s="71"/>
-      <c r="F133" s="71"/>
-      <c r="G133" s="69"/>
-      <c r="H133" s="71"/>
-      <c r="I133" s="71"/>
-      <c r="J133" s="71"/>
-      <c r="K133" s="69"/>
-      <c r="L133" s="71"/>
-      <c r="M133" s="71"/>
-      <c r="N133" s="71"/>
-      <c r="O133" s="71"/>
-      <c r="P133" s="71"/>
-      <c r="Q133" s="71"/>
-      <c r="R133" s="71"/>
-      <c r="S133" s="71"/>
-      <c r="T133" s="71"/>
-      <c r="U133" s="71"/>
-      <c r="V133" s="71"/>
-      <c r="W133" s="71"/>
-      <c r="X133" s="71"/>
-      <c r="Y133" s="71"/>
-      <c r="Z133" s="71"/>
-      <c r="AA133" s="71"/>
-      <c r="AB133" s="71"/>
-      <c r="AC133" s="71"/>
-      <c r="AD133" s="71"/>
-      <c r="AE133" s="71"/>
-      <c r="AF133" s="71"/>
-      <c r="AG133" s="71"/>
-      <c r="AH133" s="71"/>
-      <c r="AI133" s="71"/>
+      <c r="D133" s="56"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="56"/>
+      <c r="G133" s="56"/>
+      <c r="H133" s="56"/>
+      <c r="I133" s="56"/>
+      <c r="J133" s="56"/>
+      <c r="K133" s="56" t="s">
+        <v>437</v>
+      </c>
+      <c r="L133" s="56"/>
+      <c r="M133" s="56"/>
+      <c r="N133" s="56"/>
+      <c r="O133" s="56"/>
+      <c r="P133" s="56"/>
+      <c r="Q133" s="56"/>
+      <c r="R133" s="56"/>
+      <c r="S133" s="56"/>
+      <c r="T133" s="56"/>
+      <c r="U133" s="56"/>
+      <c r="V133" s="56"/>
+      <c r="W133" s="56"/>
+      <c r="X133" s="56"/>
+      <c r="Y133" s="56"/>
+      <c r="Z133" s="56"/>
+      <c r="AA133" s="56"/>
+      <c r="AB133" s="56"/>
+      <c r="AC133" s="56"/>
+      <c r="AD133" s="56"/>
+      <c r="AE133" s="56"/>
+      <c r="AF133" s="56"/>
+      <c r="AG133" s="56"/>
+      <c r="AH133" s="56"/>
+      <c r="AI133" s="56"/>
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="68" t="s">
-        <v>341</v>
-      </c>
-      <c r="B134" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="C134" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="D134" s="71"/>
-      <c r="E134" s="71"/>
-      <c r="F134" s="71"/>
-      <c r="G134" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="H134" s="71"/>
-      <c r="I134" s="71"/>
-      <c r="J134" s="71"/>
-      <c r="K134" s="69"/>
-      <c r="L134" s="71"/>
-      <c r="M134" s="71"/>
-      <c r="N134" s="71"/>
-      <c r="O134" s="71"/>
-      <c r="P134" s="71"/>
-      <c r="Q134" s="71"/>
-      <c r="R134" s="71"/>
-      <c r="S134" s="71"/>
-      <c r="T134" s="71"/>
-      <c r="U134" s="71"/>
-      <c r="V134" s="71"/>
-      <c r="W134" s="71"/>
-      <c r="X134" s="71"/>
-      <c r="Y134" s="71"/>
-      <c r="Z134" s="71"/>
-      <c r="AA134" s="71"/>
-      <c r="AB134" s="71"/>
-      <c r="AC134" s="71"/>
-      <c r="AD134" s="71"/>
-      <c r="AE134" s="71"/>
-      <c r="AF134" s="71"/>
-      <c r="AG134" s="71"/>
-      <c r="AH134" s="71"/>
-      <c r="AI134" s="71"/>
-    </row>
-    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="68" t="s">
-        <v>341</v>
-      </c>
-      <c r="B135" s="68" t="s">
-        <v>351</v>
-      </c>
-      <c r="C135" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="D135" s="71"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="70"/>
-      <c r="G135" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="H135" s="71"/>
-      <c r="I135" s="71"/>
-      <c r="J135" s="70"/>
-      <c r="K135" s="69"/>
-      <c r="L135" s="71"/>
-      <c r="M135" s="71"/>
-      <c r="N135" s="71"/>
-      <c r="O135" s="71"/>
-      <c r="P135" s="71"/>
-      <c r="Q135" s="71"/>
-      <c r="R135" s="71"/>
-      <c r="S135" s="71"/>
-      <c r="T135" s="71"/>
-      <c r="U135" s="71"/>
-      <c r="V135" s="71"/>
-      <c r="W135" s="71"/>
-      <c r="X135" s="71"/>
-      <c r="Y135" s="71"/>
-      <c r="Z135" s="71"/>
-      <c r="AA135" s="71"/>
-      <c r="AB135" s="71"/>
-      <c r="AC135" s="71"/>
-      <c r="AD135" s="71"/>
-      <c r="AE135" s="71"/>
-      <c r="AF135" s="71"/>
-      <c r="AG135" s="71"/>
-      <c r="AH135" s="71"/>
-      <c r="AI135" s="71"/>
+      <c r="A134" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B134" s="78"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="40"/>
+      <c r="G134" s="40"/>
+      <c r="H134" s="40"/>
+      <c r="I134" s="56"/>
+      <c r="J134" s="56"/>
+      <c r="K134" s="56"/>
+      <c r="L134" s="56"/>
+      <c r="M134" s="51"/>
+      <c r="N134" s="51"/>
+      <c r="O134" s="51"/>
+      <c r="P134" s="51"/>
+      <c r="Q134" s="51"/>
+      <c r="R134" s="51"/>
+      <c r="S134" s="51"/>
+      <c r="T134" s="51"/>
+      <c r="U134" s="56"/>
+      <c r="V134" s="51"/>
+      <c r="W134" s="56"/>
+      <c r="X134" s="56"/>
+      <c r="Y134" s="56"/>
+      <c r="Z134" s="56"/>
+      <c r="AA134" s="56"/>
+      <c r="AB134" s="56"/>
+      <c r="AC134" s="56"/>
+      <c r="AD134" s="56"/>
+      <c r="AE134" s="56"/>
+      <c r="AF134" s="56"/>
+      <c r="AG134" s="56"/>
+      <c r="AH134" s="56"/>
+      <c r="AI134" s="56"/>
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="68" t="s">
-        <v>341</v>
+        <v>32</v>
       </c>
       <c r="B136" s="68" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C136" s="69" t="s">
-        <v>355</v>
+        <v>35</v>
       </c>
       <c r="D136" s="70"/>
       <c r="E136" s="70"/>
-      <c r="F136" s="69" t="s">
-        <v>389</v>
-      </c>
+      <c r="F136" s="71"/>
       <c r="G136" s="71" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="H136" s="70"/>
       <c r="I136" s="71"/>
-      <c r="J136" s="69"/>
+      <c r="J136" s="71"/>
       <c r="K136" s="71"/>
       <c r="L136" s="71"/>
       <c r="M136" s="69"/>
@@ -7376,45 +7334,43 @@
       <c r="AB136" s="71"/>
       <c r="AC136" s="71"/>
       <c r="AD136" s="71"/>
-      <c r="AE136" s="71"/>
+      <c r="AE136" s="71" t="s">
+        <v>39</v>
+      </c>
       <c r="AF136" s="71"/>
       <c r="AG136" s="71"/>
       <c r="AH136" s="71"/>
       <c r="AI136" s="71"/>
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="68" t="s">
+      <c r="A137" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="B137" s="68" t="s">
-        <v>357</v>
+      <c r="B137" s="72" t="s">
+        <v>342</v>
       </c>
       <c r="C137" s="69" t="s">
-        <v>358</v>
-      </c>
-      <c r="D137" s="70"/>
-      <c r="E137" s="70"/>
-      <c r="F137" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="G137" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="H137" s="70"/>
+        <v>343</v>
+      </c>
+      <c r="D137" s="71"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="71"/>
+      <c r="G137" s="71"/>
+      <c r="H137" s="71"/>
       <c r="I137" s="71"/>
-      <c r="J137" s="69"/>
+      <c r="J137" s="71"/>
       <c r="K137" s="71"/>
       <c r="L137" s="71"/>
-      <c r="M137" s="69"/>
-      <c r="N137" s="69"/>
-      <c r="O137" s="69"/>
-      <c r="P137" s="69"/>
-      <c r="Q137" s="69"/>
-      <c r="R137" s="69"/>
-      <c r="S137" s="69"/>
-      <c r="T137" s="69"/>
+      <c r="M137" s="71"/>
+      <c r="N137" s="71"/>
+      <c r="O137" s="71"/>
+      <c r="P137" s="71"/>
+      <c r="Q137" s="71"/>
+      <c r="R137" s="71"/>
+      <c r="S137" s="71"/>
+      <c r="T137" s="71"/>
       <c r="U137" s="71"/>
-      <c r="V137" s="69"/>
+      <c r="V137" s="71"/>
       <c r="W137" s="71"/>
       <c r="X137" s="71"/>
       <c r="Y137" s="71"/>
@@ -7434,22 +7390,20 @@
         <v>341</v>
       </c>
       <c r="B138" s="68" t="s">
-        <v>359</v>
-      </c>
-      <c r="C138" s="71" t="s">
-        <v>360</v>
+        <v>344</v>
+      </c>
+      <c r="C138" s="69" t="s">
+        <v>345</v>
       </c>
       <c r="D138" s="71"/>
       <c r="E138" s="71"/>
-      <c r="F138" s="69" t="s">
-        <v>390</v>
-      </c>
+      <c r="F138" s="71"/>
       <c r="G138" s="69" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="H138" s="71"/>
       <c r="I138" s="71"/>
-      <c r="J138" s="69"/>
+      <c r="J138" s="71"/>
       <c r="K138" s="69"/>
       <c r="L138" s="71"/>
       <c r="M138" s="71"/>
@@ -7481,34 +7435,30 @@
         <v>341</v>
       </c>
       <c r="B139" s="68" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="C139" s="69" t="s">
-        <v>362</v>
-      </c>
-      <c r="D139" s="70"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="G139" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="H139" s="70"/>
+        <v>348</v>
+      </c>
+      <c r="D139" s="71"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="71"/>
+      <c r="G139" s="69"/>
+      <c r="H139" s="71"/>
       <c r="I139" s="71"/>
-      <c r="J139" s="69"/>
-      <c r="K139" s="71"/>
+      <c r="J139" s="71"/>
+      <c r="K139" s="69"/>
       <c r="L139" s="71"/>
-      <c r="M139" s="69"/>
-      <c r="N139" s="69"/>
-      <c r="O139" s="69"/>
-      <c r="P139" s="69"/>
-      <c r="Q139" s="69"/>
-      <c r="R139" s="69"/>
-      <c r="S139" s="69"/>
-      <c r="T139" s="69"/>
+      <c r="M139" s="71"/>
+      <c r="N139" s="71"/>
+      <c r="O139" s="71"/>
+      <c r="P139" s="71"/>
+      <c r="Q139" s="71"/>
+      <c r="R139" s="71"/>
+      <c r="S139" s="71"/>
+      <c r="T139" s="71"/>
       <c r="U139" s="71"/>
-      <c r="V139" s="69"/>
+      <c r="V139" s="71"/>
       <c r="W139" s="71"/>
       <c r="X139" s="71"/>
       <c r="Y139" s="71"/>
@@ -7528,34 +7478,32 @@
         <v>341</v>
       </c>
       <c r="B140" s="68" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C140" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="D140" s="70"/>
-      <c r="E140" s="70"/>
-      <c r="F140" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="G140" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="H140" s="70"/>
+        <v>350</v>
+      </c>
+      <c r="D140" s="71"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="H140" s="71"/>
       <c r="I140" s="71"/>
-      <c r="J140" s="69"/>
-      <c r="K140" s="71"/>
+      <c r="J140" s="71"/>
+      <c r="K140" s="69"/>
       <c r="L140" s="71"/>
-      <c r="M140" s="69"/>
-      <c r="N140" s="69"/>
-      <c r="O140" s="69"/>
-      <c r="P140" s="69"/>
-      <c r="Q140" s="69"/>
-      <c r="R140" s="69"/>
-      <c r="S140" s="69"/>
-      <c r="T140" s="69"/>
+      <c r="M140" s="71"/>
+      <c r="N140" s="71"/>
+      <c r="O140" s="71"/>
+      <c r="P140" s="71"/>
+      <c r="Q140" s="71"/>
+      <c r="R140" s="71"/>
+      <c r="S140" s="71"/>
+      <c r="T140" s="71"/>
       <c r="U140" s="71"/>
-      <c r="V140" s="69"/>
+      <c r="V140" s="71"/>
       <c r="W140" s="71"/>
       <c r="X140" s="71"/>
       <c r="Y140" s="71"/>
@@ -7575,34 +7523,32 @@
         <v>341</v>
       </c>
       <c r="B141" s="68" t="s">
-        <v>365</v>
-      </c>
-      <c r="C141" s="69" t="s">
-        <v>366</v>
-      </c>
-      <c r="D141" s="70"/>
-      <c r="E141" s="70"/>
-      <c r="F141" s="69" t="s">
-        <v>391</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="C141" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="D141" s="71"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="70"/>
       <c r="G141" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="H141" s="70"/>
+      <c r="H141" s="71"/>
       <c r="I141" s="71"/>
-      <c r="J141" s="69"/>
+      <c r="J141" s="70"/>
       <c r="K141" s="69"/>
       <c r="L141" s="71"/>
-      <c r="M141" s="69"/>
-      <c r="N141" s="69"/>
-      <c r="O141" s="69"/>
-      <c r="P141" s="69"/>
-      <c r="Q141" s="69"/>
-      <c r="R141" s="69"/>
-      <c r="S141" s="69"/>
-      <c r="T141" s="69"/>
+      <c r="M141" s="71"/>
+      <c r="N141" s="71"/>
+      <c r="O141" s="71"/>
+      <c r="P141" s="71"/>
+      <c r="Q141" s="71"/>
+      <c r="R141" s="71"/>
+      <c r="S141" s="71"/>
+      <c r="T141" s="71"/>
       <c r="U141" s="71"/>
-      <c r="V141" s="69"/>
+      <c r="V141" s="71"/>
       <c r="W141" s="71"/>
       <c r="X141" s="71"/>
       <c r="Y141" s="71"/>
@@ -7622,34 +7568,34 @@
         <v>341</v>
       </c>
       <c r="B142" s="68" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C142" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="D142" s="71"/>
-      <c r="E142" s="71"/>
+        <v>355</v>
+      </c>
+      <c r="D142" s="70"/>
+      <c r="E142" s="70"/>
       <c r="F142" s="69" t="s">
-        <v>338</v>
-      </c>
-      <c r="G142" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="G142" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="H142" s="71"/>
+      <c r="H142" s="70"/>
       <c r="I142" s="71"/>
       <c r="J142" s="69"/>
-      <c r="K142" s="69"/>
+      <c r="K142" s="71"/>
       <c r="L142" s="71"/>
-      <c r="M142" s="71"/>
-      <c r="N142" s="71"/>
-      <c r="O142" s="71"/>
-      <c r="P142" s="71"/>
-      <c r="Q142" s="71"/>
-      <c r="R142" s="71"/>
-      <c r="S142" s="71"/>
-      <c r="T142" s="71"/>
+      <c r="M142" s="69"/>
+      <c r="N142" s="69"/>
+      <c r="O142" s="69"/>
+      <c r="P142" s="69"/>
+      <c r="Q142" s="69"/>
+      <c r="R142" s="69"/>
+      <c r="S142" s="69"/>
+      <c r="T142" s="69"/>
       <c r="U142" s="71"/>
-      <c r="V142" s="71"/>
+      <c r="V142" s="69"/>
       <c r="W142" s="71"/>
       <c r="X142" s="71"/>
       <c r="Y142" s="71"/>
@@ -7669,34 +7615,34 @@
         <v>341</v>
       </c>
       <c r="B143" s="68" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C143" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="D143" s="71"/>
-      <c r="E143" s="71"/>
+        <v>358</v>
+      </c>
+      <c r="D143" s="70"/>
+      <c r="E143" s="70"/>
       <c r="F143" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="G143" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="G143" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="H143" s="71"/>
+      <c r="H143" s="70"/>
       <c r="I143" s="71"/>
       <c r="J143" s="69"/>
-      <c r="K143" s="69"/>
+      <c r="K143" s="71"/>
       <c r="L143" s="71"/>
-      <c r="M143" s="71"/>
-      <c r="N143" s="71"/>
-      <c r="O143" s="71"/>
-      <c r="P143" s="71"/>
-      <c r="Q143" s="71"/>
-      <c r="R143" s="71"/>
-      <c r="S143" s="71"/>
-      <c r="T143" s="71"/>
+      <c r="M143" s="69"/>
+      <c r="N143" s="69"/>
+      <c r="O143" s="69"/>
+      <c r="P143" s="69"/>
+      <c r="Q143" s="69"/>
+      <c r="R143" s="69"/>
+      <c r="S143" s="69"/>
+      <c r="T143" s="69"/>
       <c r="U143" s="71"/>
-      <c r="V143" s="71"/>
+      <c r="V143" s="69"/>
       <c r="W143" s="71"/>
       <c r="X143" s="71"/>
       <c r="Y143" s="71"/>
@@ -7716,18 +7662,18 @@
         <v>341</v>
       </c>
       <c r="B144" s="68" t="s">
-        <v>371</v>
-      </c>
-      <c r="C144" s="69" t="s">
-        <v>372</v>
+        <v>359</v>
+      </c>
+      <c r="C144" s="71" t="s">
+        <v>360</v>
       </c>
       <c r="D144" s="71"/>
       <c r="E144" s="71"/>
       <c r="F144" s="69" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G144" s="69" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H144" s="71"/>
       <c r="I144" s="71"/>
@@ -7763,34 +7709,34 @@
         <v>341</v>
       </c>
       <c r="B145" s="68" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C145" s="69" t="s">
-        <v>178</v>
-      </c>
-      <c r="D145" s="71"/>
-      <c r="E145" s="71"/>
+        <v>362</v>
+      </c>
+      <c r="D145" s="70"/>
+      <c r="E145" s="70"/>
       <c r="F145" s="69" t="s">
-        <v>394</v>
-      </c>
-      <c r="G145" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="G145" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="H145" s="71"/>
+      <c r="H145" s="70"/>
       <c r="I145" s="71"/>
       <c r="J145" s="69"/>
-      <c r="K145" s="69"/>
+      <c r="K145" s="71"/>
       <c r="L145" s="71"/>
-      <c r="M145" s="71"/>
-      <c r="N145" s="71"/>
-      <c r="O145" s="71"/>
-      <c r="P145" s="71"/>
-      <c r="Q145" s="71"/>
-      <c r="R145" s="71"/>
-      <c r="S145" s="71"/>
-      <c r="T145" s="71"/>
+      <c r="M145" s="69"/>
+      <c r="N145" s="69"/>
+      <c r="O145" s="69"/>
+      <c r="P145" s="69"/>
+      <c r="Q145" s="69"/>
+      <c r="R145" s="69"/>
+      <c r="S145" s="69"/>
+      <c r="T145" s="69"/>
       <c r="U145" s="71"/>
-      <c r="V145" s="71"/>
+      <c r="V145" s="69"/>
       <c r="W145" s="71"/>
       <c r="X145" s="71"/>
       <c r="Y145" s="71"/>
@@ -7810,34 +7756,34 @@
         <v>341</v>
       </c>
       <c r="B146" s="68" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C146" s="69" t="s">
-        <v>180</v>
-      </c>
-      <c r="D146" s="71"/>
-      <c r="E146" s="71"/>
+        <v>364</v>
+      </c>
+      <c r="D146" s="70"/>
+      <c r="E146" s="70"/>
       <c r="F146" s="69" t="s">
-        <v>395</v>
-      </c>
-      <c r="G146" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="G146" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="H146" s="71"/>
+      <c r="H146" s="70"/>
       <c r="I146" s="71"/>
       <c r="J146" s="69"/>
-      <c r="K146" s="69"/>
+      <c r="K146" s="71"/>
       <c r="L146" s="71"/>
-      <c r="M146" s="71"/>
-      <c r="N146" s="71"/>
-      <c r="O146" s="71"/>
-      <c r="P146" s="71"/>
-      <c r="Q146" s="71"/>
-      <c r="R146" s="71"/>
-      <c r="S146" s="71"/>
-      <c r="T146" s="71"/>
+      <c r="M146" s="69"/>
+      <c r="N146" s="69"/>
+      <c r="O146" s="69"/>
+      <c r="P146" s="69"/>
+      <c r="Q146" s="69"/>
+      <c r="R146" s="69"/>
+      <c r="S146" s="69"/>
+      <c r="T146" s="69"/>
       <c r="U146" s="71"/>
-      <c r="V146" s="71"/>
+      <c r="V146" s="69"/>
       <c r="W146" s="71"/>
       <c r="X146" s="71"/>
       <c r="Y146" s="71"/>
@@ -7857,34 +7803,34 @@
         <v>341</v>
       </c>
       <c r="B147" s="68" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C147" s="69" t="s">
-        <v>182</v>
-      </c>
-      <c r="D147" s="71"/>
-      <c r="E147" s="71"/>
+        <v>366</v>
+      </c>
+      <c r="D147" s="70"/>
+      <c r="E147" s="70"/>
       <c r="F147" s="69" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G147" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="H147" s="71"/>
+        <v>353</v>
+      </c>
+      <c r="H147" s="70"/>
       <c r="I147" s="71"/>
       <c r="J147" s="69"/>
       <c r="K147" s="69"/>
       <c r="L147" s="71"/>
-      <c r="M147" s="71"/>
-      <c r="N147" s="71"/>
-      <c r="O147" s="71"/>
-      <c r="P147" s="71"/>
-      <c r="Q147" s="71"/>
-      <c r="R147" s="71"/>
-      <c r="S147" s="71"/>
-      <c r="T147" s="71"/>
+      <c r="M147" s="69"/>
+      <c r="N147" s="69"/>
+      <c r="O147" s="69"/>
+      <c r="P147" s="69"/>
+      <c r="Q147" s="69"/>
+      <c r="R147" s="69"/>
+      <c r="S147" s="69"/>
+      <c r="T147" s="69"/>
       <c r="U147" s="71"/>
-      <c r="V147" s="71"/>
+      <c r="V147" s="69"/>
       <c r="W147" s="71"/>
       <c r="X147" s="71"/>
       <c r="Y147" s="71"/>
@@ -7904,15 +7850,15 @@
         <v>341</v>
       </c>
       <c r="B148" s="68" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C148" s="69" t="s">
-        <v>184</v>
+        <v>368</v>
       </c>
       <c r="D148" s="71"/>
       <c r="E148" s="71"/>
       <c r="F148" s="69" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="G148" s="69" t="s">
         <v>356</v>
@@ -7951,15 +7897,15 @@
         <v>341</v>
       </c>
       <c r="B149" s="68" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C149" s="69" t="s">
-        <v>186</v>
+        <v>370</v>
       </c>
       <c r="D149" s="71"/>
       <c r="E149" s="71"/>
       <c r="F149" s="69" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G149" s="69" t="s">
         <v>356</v>
@@ -7998,15 +7944,15 @@
         <v>341</v>
       </c>
       <c r="B150" s="68" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C150" s="69" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D150" s="71"/>
       <c r="E150" s="71"/>
       <c r="F150" s="69" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G150" s="69" t="s">
         <v>356</v>
@@ -8045,18 +7991,18 @@
         <v>341</v>
       </c>
       <c r="B151" s="68" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C151" s="69" t="s">
-        <v>381</v>
+        <v>178</v>
       </c>
       <c r="D151" s="71"/>
       <c r="E151" s="71"/>
       <c r="F151" s="69" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G151" s="69" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="H151" s="71"/>
       <c r="I151" s="71"/>
@@ -8092,17 +8038,19 @@
         <v>341</v>
       </c>
       <c r="B152" s="68" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>384</v>
+        <v>180</v>
       </c>
       <c r="D152" s="71"/>
       <c r="E152" s="71"/>
       <c r="F152" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="G152" s="69"/>
+        <v>395</v>
+      </c>
+      <c r="G152" s="69" t="s">
+        <v>356</v>
+      </c>
       <c r="H152" s="71"/>
       <c r="I152" s="71"/>
       <c r="J152" s="69"/>
@@ -8137,17 +8085,19 @@
         <v>341</v>
       </c>
       <c r="B153" s="68" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C153" s="69" t="s">
-        <v>386</v>
+        <v>182</v>
       </c>
       <c r="D153" s="71"/>
       <c r="E153" s="71"/>
       <c r="F153" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="G153" s="69"/>
+        <v>396</v>
+      </c>
+      <c r="G153" s="69" t="s">
+        <v>356</v>
+      </c>
       <c r="H153" s="71"/>
       <c r="I153" s="71"/>
       <c r="J153" s="69"/>
@@ -8182,17 +8132,19 @@
         <v>341</v>
       </c>
       <c r="B154" s="68" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C154" s="69" t="s">
-        <v>388</v>
+        <v>184</v>
       </c>
       <c r="D154" s="71"/>
       <c r="E154" s="71"/>
       <c r="F154" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="G154" s="69"/>
+        <v>397</v>
+      </c>
+      <c r="G154" s="69" t="s">
+        <v>356</v>
+      </c>
       <c r="H154" s="71"/>
       <c r="I154" s="71"/>
       <c r="J154" s="69"/>
@@ -8224,29 +8176,37 @@
     </row>
     <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B155" s="68"/>
-      <c r="C155" s="69"/>
-      <c r="D155" s="70"/>
-      <c r="E155" s="70"/>
-      <c r="F155" s="71"/>
-      <c r="G155" s="71"/>
-      <c r="H155" s="70"/>
+        <v>341</v>
+      </c>
+      <c r="B155" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="C155" s="69" t="s">
+        <v>186</v>
+      </c>
+      <c r="D155" s="71"/>
+      <c r="E155" s="71"/>
+      <c r="F155" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="G155" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="H155" s="71"/>
       <c r="I155" s="71"/>
-      <c r="J155" s="71"/>
-      <c r="K155" s="71"/>
+      <c r="J155" s="69"/>
+      <c r="K155" s="69"/>
       <c r="L155" s="71"/>
-      <c r="M155" s="69"/>
-      <c r="N155" s="69"/>
-      <c r="O155" s="69"/>
-      <c r="P155" s="69"/>
-      <c r="Q155" s="69"/>
-      <c r="R155" s="69"/>
-      <c r="S155" s="69"/>
-      <c r="T155" s="69"/>
+      <c r="M155" s="71"/>
+      <c r="N155" s="71"/>
+      <c r="O155" s="71"/>
+      <c r="P155" s="71"/>
+      <c r="Q155" s="71"/>
+      <c r="R155" s="71"/>
+      <c r="S155" s="71"/>
+      <c r="T155" s="71"/>
       <c r="U155" s="71"/>
-      <c r="V155" s="69"/>
+      <c r="V155" s="71"/>
       <c r="W155" s="71"/>
       <c r="X155" s="71"/>
       <c r="Y155" s="71"/>
@@ -8262,250 +8222,296 @@
       <c r="AI155" s="71"/>
     </row>
     <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="35"/>
-      <c r="B156" s="35"/>
-      <c r="C156" s="35"/>
-      <c r="E156" s="35"/>
-      <c r="AE156" s="35"/>
-      <c r="AF156" s="35"/>
-      <c r="AG156" s="35"/>
-      <c r="AH156" s="35"/>
-      <c r="AI156" s="35"/>
+      <c r="A156" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B156" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="C156" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="D156" s="71"/>
+      <c r="E156" s="71"/>
+      <c r="F156" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="G156" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="H156" s="71"/>
+      <c r="I156" s="71"/>
+      <c r="J156" s="69"/>
+      <c r="K156" s="69"/>
+      <c r="L156" s="71"/>
+      <c r="M156" s="71"/>
+      <c r="N156" s="71"/>
+      <c r="O156" s="71"/>
+      <c r="P156" s="71"/>
+      <c r="Q156" s="71"/>
+      <c r="R156" s="71"/>
+      <c r="S156" s="71"/>
+      <c r="T156" s="71"/>
+      <c r="U156" s="71"/>
+      <c r="V156" s="71"/>
+      <c r="W156" s="71"/>
+      <c r="X156" s="71"/>
+      <c r="Y156" s="71"/>
+      <c r="Z156" s="71"/>
+      <c r="AA156" s="71"/>
+      <c r="AB156" s="71"/>
+      <c r="AC156" s="71"/>
+      <c r="AD156" s="71"/>
+      <c r="AE156" s="71"/>
+      <c r="AF156" s="71"/>
+      <c r="AG156" s="71"/>
+      <c r="AH156" s="71"/>
+      <c r="AI156" s="71"/>
     </row>
     <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="73"/>
-      <c r="B157" s="73"/>
-      <c r="C157" s="74"/>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="74"/>
-      <c r="G157" s="75"/>
-      <c r="H157" s="74"/>
-      <c r="I157" s="74"/>
-      <c r="J157" s="74"/>
-      <c r="K157" s="75"/>
-      <c r="L157" s="74"/>
-      <c r="M157" s="74"/>
-      <c r="N157" s="74"/>
-      <c r="O157" s="74"/>
-      <c r="P157" s="74"/>
-      <c r="Q157" s="74"/>
-      <c r="R157" s="74"/>
-      <c r="S157" s="74"/>
-      <c r="T157" s="74"/>
-      <c r="U157" s="74"/>
-      <c r="V157" s="74"/>
-      <c r="W157" s="74"/>
-      <c r="X157" s="74"/>
-      <c r="Y157" s="74"/>
-      <c r="Z157" s="74"/>
-      <c r="AA157" s="74"/>
-      <c r="AB157" s="74"/>
-      <c r="AC157" s="74"/>
-      <c r="AD157" s="74"/>
-      <c r="AE157" s="75"/>
-      <c r="AF157" s="74"/>
-      <c r="AG157" s="74"/>
-      <c r="AH157" s="74"/>
-      <c r="AI157" s="74"/>
+      <c r="A157" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B157" s="68" t="s">
+        <v>380</v>
+      </c>
+      <c r="C157" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="D157" s="71"/>
+      <c r="E157" s="71"/>
+      <c r="F157" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="G157" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="H157" s="71"/>
+      <c r="I157" s="71"/>
+      <c r="J157" s="69"/>
+      <c r="K157" s="69"/>
+      <c r="L157" s="71"/>
+      <c r="M157" s="71"/>
+      <c r="N157" s="71"/>
+      <c r="O157" s="71"/>
+      <c r="P157" s="71"/>
+      <c r="Q157" s="71"/>
+      <c r="R157" s="71"/>
+      <c r="S157" s="71"/>
+      <c r="T157" s="71"/>
+      <c r="U157" s="71"/>
+      <c r="V157" s="71"/>
+      <c r="W157" s="71"/>
+      <c r="X157" s="71"/>
+      <c r="Y157" s="71"/>
+      <c r="Z157" s="71"/>
+      <c r="AA157" s="71"/>
+      <c r="AB157" s="71"/>
+      <c r="AC157" s="71"/>
+      <c r="AD157" s="71"/>
+      <c r="AE157" s="71"/>
+      <c r="AF157" s="71"/>
+      <c r="AG157" s="71"/>
+      <c r="AH157" s="71"/>
+      <c r="AI157" s="71"/>
     </row>
     <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="73"/>
-      <c r="B158" s="76"/>
-      <c r="C158" s="74"/>
-      <c r="D158" s="74"/>
-      <c r="E158" s="74"/>
-      <c r="F158" s="74"/>
-      <c r="G158" s="74"/>
-      <c r="H158" s="74"/>
-      <c r="I158" s="74"/>
-      <c r="J158" s="74"/>
-      <c r="K158" s="74"/>
-      <c r="L158" s="74"/>
-      <c r="M158" s="74"/>
-      <c r="N158" s="74"/>
-      <c r="O158" s="74"/>
-      <c r="P158" s="74"/>
-      <c r="Q158" s="74"/>
-      <c r="R158" s="74"/>
-      <c r="S158" s="74"/>
-      <c r="T158" s="74"/>
-      <c r="U158" s="74"/>
-      <c r="V158" s="74"/>
-      <c r="W158" s="74"/>
-      <c r="X158" s="74"/>
-      <c r="Y158" s="74"/>
-      <c r="Z158" s="74"/>
-      <c r="AA158" s="74"/>
-      <c r="AB158" s="74"/>
-      <c r="AC158" s="74"/>
-      <c r="AD158" s="74"/>
-      <c r="AE158" s="74"/>
-      <c r="AF158" s="74"/>
-      <c r="AG158" s="75"/>
-      <c r="AH158" s="74"/>
-      <c r="AI158" s="74"/>
+      <c r="A158" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B158" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="C158" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="D158" s="71"/>
+      <c r="E158" s="71"/>
+      <c r="F158" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="G158" s="69"/>
+      <c r="H158" s="71"/>
+      <c r="I158" s="71"/>
+      <c r="J158" s="69"/>
+      <c r="K158" s="69"/>
+      <c r="L158" s="71"/>
+      <c r="M158" s="71"/>
+      <c r="N158" s="71"/>
+      <c r="O158" s="71"/>
+      <c r="P158" s="71"/>
+      <c r="Q158" s="71"/>
+      <c r="R158" s="71"/>
+      <c r="S158" s="71"/>
+      <c r="T158" s="71"/>
+      <c r="U158" s="71"/>
+      <c r="V158" s="71"/>
+      <c r="W158" s="71"/>
+      <c r="X158" s="71"/>
+      <c r="Y158" s="71"/>
+      <c r="Z158" s="71"/>
+      <c r="AA158" s="71"/>
+      <c r="AB158" s="71"/>
+      <c r="AC158" s="71"/>
+      <c r="AD158" s="71"/>
+      <c r="AE158" s="71"/>
+      <c r="AF158" s="71"/>
+      <c r="AG158" s="71"/>
+      <c r="AH158" s="71"/>
+      <c r="AI158" s="71"/>
     </row>
     <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="73"/>
-      <c r="B159" s="76"/>
-      <c r="C159" s="74"/>
-      <c r="D159" s="74"/>
-      <c r="E159" s="74"/>
-      <c r="F159" s="74"/>
-      <c r="G159" s="74"/>
-      <c r="H159" s="74"/>
-      <c r="I159" s="74"/>
-      <c r="J159" s="74"/>
-      <c r="K159" s="74"/>
-      <c r="L159" s="74"/>
-      <c r="M159" s="74"/>
-      <c r="N159" s="74"/>
-      <c r="O159" s="74"/>
-      <c r="P159" s="74"/>
-      <c r="Q159" s="74"/>
-      <c r="R159" s="74"/>
-      <c r="S159" s="74"/>
-      <c r="T159" s="74"/>
-      <c r="U159" s="74"/>
-      <c r="V159" s="74"/>
-      <c r="W159" s="74"/>
-      <c r="X159" s="74"/>
-      <c r="Y159" s="74"/>
-      <c r="Z159" s="74"/>
-      <c r="AA159" s="74"/>
-      <c r="AB159" s="74"/>
-      <c r="AC159" s="74"/>
-      <c r="AD159" s="74"/>
-      <c r="AE159" s="74"/>
-      <c r="AF159" s="74"/>
-      <c r="AG159" s="75"/>
-      <c r="AH159" s="74"/>
-      <c r="AI159" s="74"/>
+      <c r="A159" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B159" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="C159" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="D159" s="71"/>
+      <c r="E159" s="71"/>
+      <c r="F159" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="G159" s="69"/>
+      <c r="H159" s="71"/>
+      <c r="I159" s="71"/>
+      <c r="J159" s="69"/>
+      <c r="K159" s="69"/>
+      <c r="L159" s="71"/>
+      <c r="M159" s="71"/>
+      <c r="N159" s="71"/>
+      <c r="O159" s="71"/>
+      <c r="P159" s="71"/>
+      <c r="Q159" s="71"/>
+      <c r="R159" s="71"/>
+      <c r="S159" s="71"/>
+      <c r="T159" s="71"/>
+      <c r="U159" s="71"/>
+      <c r="V159" s="71"/>
+      <c r="W159" s="71"/>
+      <c r="X159" s="71"/>
+      <c r="Y159" s="71"/>
+      <c r="Z159" s="71"/>
+      <c r="AA159" s="71"/>
+      <c r="AB159" s="71"/>
+      <c r="AC159" s="71"/>
+      <c r="AD159" s="71"/>
+      <c r="AE159" s="71"/>
+      <c r="AF159" s="71"/>
+      <c r="AG159" s="71"/>
+      <c r="AH159" s="71"/>
+      <c r="AI159" s="71"/>
     </row>
     <row r="160" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="73"/>
-      <c r="B160" s="76"/>
-      <c r="C160" s="74"/>
-      <c r="D160" s="74"/>
-      <c r="E160" s="74"/>
-      <c r="F160" s="74"/>
-      <c r="G160" s="74"/>
-      <c r="H160" s="74"/>
-      <c r="I160" s="74"/>
-      <c r="J160" s="74"/>
-      <c r="K160" s="74"/>
-      <c r="L160" s="74"/>
-      <c r="M160" s="74"/>
-      <c r="N160" s="74"/>
-      <c r="O160" s="74"/>
-      <c r="P160" s="74"/>
-      <c r="Q160" s="74"/>
-      <c r="R160" s="74"/>
-      <c r="S160" s="74"/>
-      <c r="T160" s="74"/>
-      <c r="U160" s="74"/>
-      <c r="V160" s="74"/>
-      <c r="W160" s="74"/>
-      <c r="X160" s="74"/>
-      <c r="Y160" s="74"/>
-      <c r="Z160" s="74"/>
-      <c r="AA160" s="74"/>
-      <c r="AB160" s="74"/>
-      <c r="AC160" s="74"/>
-      <c r="AD160" s="74"/>
-      <c r="AE160" s="74"/>
-      <c r="AF160" s="74"/>
-      <c r="AG160" s="75"/>
-      <c r="AH160" s="74"/>
-      <c r="AI160" s="74"/>
+      <c r="A160" s="68" t="s">
+        <v>341</v>
+      </c>
+      <c r="B160" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="C160" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="D160" s="71"/>
+      <c r="E160" s="71"/>
+      <c r="F160" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="G160" s="69"/>
+      <c r="H160" s="71"/>
+      <c r="I160" s="71"/>
+      <c r="J160" s="69"/>
+      <c r="K160" s="69"/>
+      <c r="L160" s="71"/>
+      <c r="M160" s="71"/>
+      <c r="N160" s="71"/>
+      <c r="O160" s="71"/>
+      <c r="P160" s="71"/>
+      <c r="Q160" s="71"/>
+      <c r="R160" s="71"/>
+      <c r="S160" s="71"/>
+      <c r="T160" s="71"/>
+      <c r="U160" s="71"/>
+      <c r="V160" s="71"/>
+      <c r="W160" s="71"/>
+      <c r="X160" s="71"/>
+      <c r="Y160" s="71"/>
+      <c r="Z160" s="71"/>
+      <c r="AA160" s="71"/>
+      <c r="AB160" s="71"/>
+      <c r="AC160" s="71"/>
+      <c r="AD160" s="71"/>
+      <c r="AE160" s="71"/>
+      <c r="AF160" s="71"/>
+      <c r="AG160" s="71"/>
+      <c r="AH160" s="71"/>
+      <c r="AI160" s="71"/>
     </row>
     <row r="161" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="73"/>
-      <c r="B161" s="76"/>
-      <c r="C161" s="74"/>
-      <c r="D161" s="74"/>
-      <c r="E161" s="74"/>
-      <c r="F161" s="74"/>
-      <c r="G161" s="74"/>
-      <c r="H161" s="74"/>
-      <c r="I161" s="74"/>
-      <c r="J161" s="74"/>
-      <c r="K161" s="74"/>
-      <c r="L161" s="74"/>
-      <c r="M161" s="74"/>
-      <c r="N161" s="74"/>
-      <c r="O161" s="74"/>
-      <c r="P161" s="74"/>
-      <c r="Q161" s="74"/>
-      <c r="R161" s="74"/>
-      <c r="S161" s="74"/>
-      <c r="T161" s="74"/>
-      <c r="U161" s="74"/>
-      <c r="V161" s="74"/>
-      <c r="W161" s="74"/>
-      <c r="X161" s="74"/>
-      <c r="Y161" s="74"/>
-      <c r="Z161" s="74"/>
-      <c r="AA161" s="74"/>
-      <c r="AB161" s="74"/>
-      <c r="AC161" s="74"/>
-      <c r="AD161" s="74"/>
-      <c r="AE161" s="74"/>
-      <c r="AF161" s="74"/>
-      <c r="AG161" s="75"/>
-      <c r="AH161" s="74"/>
-      <c r="AI161" s="74"/>
+      <c r="A161" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B161" s="68"/>
+      <c r="C161" s="69"/>
+      <c r="D161" s="70"/>
+      <c r="E161" s="70"/>
+      <c r="F161" s="71"/>
+      <c r="G161" s="71"/>
+      <c r="H161" s="70"/>
+      <c r="I161" s="71"/>
+      <c r="J161" s="71"/>
+      <c r="K161" s="71"/>
+      <c r="L161" s="71"/>
+      <c r="M161" s="69"/>
+      <c r="N161" s="69"/>
+      <c r="O161" s="69"/>
+      <c r="P161" s="69"/>
+      <c r="Q161" s="69"/>
+      <c r="R161" s="69"/>
+      <c r="S161" s="69"/>
+      <c r="T161" s="69"/>
+      <c r="U161" s="71"/>
+      <c r="V161" s="69"/>
+      <c r="W161" s="71"/>
+      <c r="X161" s="71"/>
+      <c r="Y161" s="71"/>
+      <c r="Z161" s="71"/>
+      <c r="AA161" s="71"/>
+      <c r="AB161" s="71"/>
+      <c r="AC161" s="71"/>
+      <c r="AD161" s="71"/>
+      <c r="AE161" s="71"/>
+      <c r="AF161" s="71"/>
+      <c r="AG161" s="71"/>
+      <c r="AH161" s="71"/>
+      <c r="AI161" s="71"/>
     </row>
     <row r="162" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="73"/>
-      <c r="B162" s="76"/>
-      <c r="C162" s="74"/>
-      <c r="D162" s="74"/>
-      <c r="E162" s="74"/>
-      <c r="F162" s="74"/>
-      <c r="G162" s="74"/>
-      <c r="H162" s="74"/>
-      <c r="I162" s="74"/>
-      <c r="J162" s="74"/>
-      <c r="K162" s="74"/>
-      <c r="L162" s="74"/>
-      <c r="M162" s="74"/>
-      <c r="N162" s="74"/>
-      <c r="O162" s="74"/>
-      <c r="P162" s="74"/>
-      <c r="Q162" s="74"/>
-      <c r="R162" s="74"/>
-      <c r="S162" s="74"/>
-      <c r="T162" s="74"/>
-      <c r="U162" s="74"/>
-      <c r="V162" s="74"/>
-      <c r="W162" s="74"/>
-      <c r="X162" s="74"/>
-      <c r="Y162" s="74"/>
-      <c r="Z162" s="74"/>
-      <c r="AA162" s="74"/>
-      <c r="AB162" s="74"/>
-      <c r="AC162" s="74"/>
-      <c r="AD162" s="74"/>
-      <c r="AE162" s="74"/>
-      <c r="AF162" s="74"/>
-      <c r="AG162" s="75"/>
-      <c r="AH162" s="74"/>
-      <c r="AI162" s="74"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="35"/>
+      <c r="C162" s="35"/>
+      <c r="E162" s="35"/>
+      <c r="AE162" s="35"/>
+      <c r="AF162" s="35"/>
+      <c r="AG162" s="35"/>
+      <c r="AH162" s="35"/>
+      <c r="AI162" s="35"/>
     </row>
     <row r="163" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="73"/>
-      <c r="B163" s="76"/>
+      <c r="B163" s="73"/>
       <c r="C163" s="74"/>
       <c r="D163" s="74"/>
       <c r="E163" s="74"/>
       <c r="F163" s="74"/>
-      <c r="G163" s="74"/>
+      <c r="G163" s="75"/>
       <c r="H163" s="74"/>
       <c r="I163" s="74"/>
       <c r="J163" s="74"/>
-      <c r="K163" s="74"/>
+      <c r="K163" s="75"/>
       <c r="L163" s="74"/>
       <c r="M163" s="74"/>
       <c r="N163" s="74"/>
@@ -8525,9 +8531,9 @@
       <c r="AB163" s="74"/>
       <c r="AC163" s="74"/>
       <c r="AD163" s="74"/>
-      <c r="AE163" s="74"/>
+      <c r="AE163" s="75"/>
       <c r="AF163" s="74"/>
-      <c r="AG163" s="75"/>
+      <c r="AG163" s="74"/>
       <c r="AH163" s="74"/>
       <c r="AI163" s="74"/>
     </row>
@@ -8717,41 +8723,41 @@
       <c r="AI168" s="74"/>
     </row>
     <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="77"/>
-      <c r="B169" s="77"/>
+      <c r="A169" s="73"/>
+      <c r="B169" s="76"/>
       <c r="C169" s="74"/>
-      <c r="D169" s="75"/>
-      <c r="E169" s="75"/>
-      <c r="F169" s="75"/>
-      <c r="G169" s="75"/>
-      <c r="H169" s="75"/>
-      <c r="I169" s="75"/>
-      <c r="J169" s="75"/>
-      <c r="K169" s="75"/>
-      <c r="L169" s="75"/>
-      <c r="M169" s="75"/>
-      <c r="N169" s="75"/>
-      <c r="O169" s="75"/>
-      <c r="P169" s="75"/>
-      <c r="Q169" s="75"/>
-      <c r="R169" s="75"/>
-      <c r="S169" s="75"/>
-      <c r="T169" s="75"/>
-      <c r="U169" s="75"/>
-      <c r="V169" s="75"/>
-      <c r="W169" s="75"/>
-      <c r="X169" s="75"/>
-      <c r="Y169" s="75"/>
-      <c r="Z169" s="75"/>
-      <c r="AA169" s="75"/>
-      <c r="AB169" s="75"/>
-      <c r="AC169" s="75"/>
-      <c r="AD169" s="75"/>
-      <c r="AE169" s="75"/>
-      <c r="AF169" s="75"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="74"/>
+      <c r="F169" s="74"/>
+      <c r="G169" s="74"/>
+      <c r="H169" s="74"/>
+      <c r="I169" s="74"/>
+      <c r="J169" s="74"/>
+      <c r="K169" s="74"/>
+      <c r="L169" s="74"/>
+      <c r="M169" s="74"/>
+      <c r="N169" s="74"/>
+      <c r="O169" s="74"/>
+      <c r="P169" s="74"/>
+      <c r="Q169" s="74"/>
+      <c r="R169" s="74"/>
+      <c r="S169" s="74"/>
+      <c r="T169" s="74"/>
+      <c r="U169" s="74"/>
+      <c r="V169" s="74"/>
+      <c r="W169" s="74"/>
+      <c r="X169" s="74"/>
+      <c r="Y169" s="74"/>
+      <c r="Z169" s="74"/>
+      <c r="AA169" s="74"/>
+      <c r="AB169" s="74"/>
+      <c r="AC169" s="74"/>
+      <c r="AD169" s="74"/>
+      <c r="AE169" s="74"/>
+      <c r="AF169" s="74"/>
       <c r="AG169" s="75"/>
-      <c r="AH169" s="75"/>
-      <c r="AI169" s="75"/>
+      <c r="AH169" s="74"/>
+      <c r="AI169" s="74"/>
     </row>
     <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="73"/>
@@ -8773,7 +8779,7 @@
       <c r="Q170" s="74"/>
       <c r="R170" s="74"/>
       <c r="S170" s="74"/>
-      <c r="T170" s="75"/>
+      <c r="T170" s="74"/>
       <c r="U170" s="74"/>
       <c r="V170" s="74"/>
       <c r="W170" s="74"/>
@@ -8810,7 +8816,7 @@
       <c r="Q171" s="74"/>
       <c r="R171" s="74"/>
       <c r="S171" s="74"/>
-      <c r="T171" s="75"/>
+      <c r="T171" s="74"/>
       <c r="U171" s="74"/>
       <c r="V171" s="74"/>
       <c r="W171" s="74"/>
@@ -8847,7 +8853,7 @@
       <c r="Q172" s="74"/>
       <c r="R172" s="74"/>
       <c r="S172" s="74"/>
-      <c r="T172" s="75"/>
+      <c r="T172" s="74"/>
       <c r="U172" s="74"/>
       <c r="V172" s="74"/>
       <c r="W172" s="74"/>
@@ -8884,7 +8890,7 @@
       <c r="Q173" s="74"/>
       <c r="R173" s="74"/>
       <c r="S173" s="74"/>
-      <c r="T173" s="75"/>
+      <c r="T173" s="74"/>
       <c r="U173" s="74"/>
       <c r="V173" s="74"/>
       <c r="W173" s="74"/>
@@ -8921,7 +8927,7 @@
       <c r="Q174" s="74"/>
       <c r="R174" s="74"/>
       <c r="S174" s="74"/>
-      <c r="T174" s="75"/>
+      <c r="T174" s="74"/>
       <c r="U174" s="74"/>
       <c r="V174" s="74"/>
       <c r="W174" s="74"/>
@@ -8941,7 +8947,7 @@
     <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="77"/>
       <c r="B175" s="77"/>
-      <c r="C175" s="75"/>
+      <c r="C175" s="74"/>
       <c r="D175" s="75"/>
       <c r="E175" s="75"/>
       <c r="F175" s="75"/>
@@ -8976,52 +8982,274 @@
       <c r="AI175" s="75"/>
     </row>
     <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="77"/>
-      <c r="B176" s="77"/>
-      <c r="C176" s="75"/>
-      <c r="D176" s="75"/>
-      <c r="E176" s="75"/>
-      <c r="F176" s="75"/>
-      <c r="G176" s="75"/>
-      <c r="H176" s="75"/>
-      <c r="I176" s="75"/>
-      <c r="J176" s="75"/>
-      <c r="K176" s="75"/>
-      <c r="L176" s="75"/>
-      <c r="M176" s="75"/>
-      <c r="N176" s="75"/>
-      <c r="O176" s="75"/>
-      <c r="P176" s="75"/>
-      <c r="Q176" s="75"/>
-      <c r="R176" s="75"/>
-      <c r="S176" s="75"/>
+      <c r="A176" s="73"/>
+      <c r="B176" s="76"/>
+      <c r="C176" s="74"/>
+      <c r="D176" s="74"/>
+      <c r="E176" s="74"/>
+      <c r="F176" s="74"/>
+      <c r="G176" s="74"/>
+      <c r="H176" s="74"/>
+      <c r="I176" s="74"/>
+      <c r="J176" s="74"/>
+      <c r="K176" s="74"/>
+      <c r="L176" s="74"/>
+      <c r="M176" s="74"/>
+      <c r="N176" s="74"/>
+      <c r="O176" s="74"/>
+      <c r="P176" s="74"/>
+      <c r="Q176" s="74"/>
+      <c r="R176" s="74"/>
+      <c r="S176" s="74"/>
       <c r="T176" s="75"/>
-      <c r="U176" s="75"/>
-      <c r="V176" s="75"/>
-      <c r="W176" s="75"/>
-      <c r="X176" s="75"/>
-      <c r="Y176" s="75"/>
-      <c r="Z176" s="75"/>
-      <c r="AA176" s="75"/>
-      <c r="AB176" s="75"/>
-      <c r="AC176" s="75"/>
-      <c r="AD176" s="75"/>
-      <c r="AE176" s="75"/>
-      <c r="AF176" s="75"/>
+      <c r="U176" s="74"/>
+      <c r="V176" s="74"/>
+      <c r="W176" s="74"/>
+      <c r="X176" s="74"/>
+      <c r="Y176" s="74"/>
+      <c r="Z176" s="74"/>
+      <c r="AA176" s="74"/>
+      <c r="AB176" s="74"/>
+      <c r="AC176" s="74"/>
+      <c r="AD176" s="74"/>
+      <c r="AE176" s="74"/>
+      <c r="AF176" s="74"/>
       <c r="AG176" s="75"/>
-      <c r="AH176" s="75"/>
-      <c r="AI176" s="75"/>
+      <c r="AH176" s="74"/>
+      <c r="AI176" s="74"/>
+    </row>
+    <row r="177" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="73"/>
+      <c r="B177" s="76"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="74"/>
+      <c r="E177" s="74"/>
+      <c r="F177" s="74"/>
+      <c r="G177" s="74"/>
+      <c r="H177" s="74"/>
+      <c r="I177" s="74"/>
+      <c r="J177" s="74"/>
+      <c r="K177" s="74"/>
+      <c r="L177" s="74"/>
+      <c r="M177" s="74"/>
+      <c r="N177" s="74"/>
+      <c r="O177" s="74"/>
+      <c r="P177" s="74"/>
+      <c r="Q177" s="74"/>
+      <c r="R177" s="74"/>
+      <c r="S177" s="74"/>
+      <c r="T177" s="75"/>
+      <c r="U177" s="74"/>
+      <c r="V177" s="74"/>
+      <c r="W177" s="74"/>
+      <c r="X177" s="74"/>
+      <c r="Y177" s="74"/>
+      <c r="Z177" s="74"/>
+      <c r="AA177" s="74"/>
+      <c r="AB177" s="74"/>
+      <c r="AC177" s="74"/>
+      <c r="AD177" s="74"/>
+      <c r="AE177" s="74"/>
+      <c r="AF177" s="74"/>
+      <c r="AG177" s="75"/>
+      <c r="AH177" s="74"/>
+      <c r="AI177" s="74"/>
+    </row>
+    <row r="178" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="73"/>
+      <c r="B178" s="76"/>
+      <c r="C178" s="74"/>
+      <c r="D178" s="74"/>
+      <c r="E178" s="74"/>
+      <c r="F178" s="74"/>
+      <c r="G178" s="74"/>
+      <c r="H178" s="74"/>
+      <c r="I178" s="74"/>
+      <c r="J178" s="74"/>
+      <c r="K178" s="74"/>
+      <c r="L178" s="74"/>
+      <c r="M178" s="74"/>
+      <c r="N178" s="74"/>
+      <c r="O178" s="74"/>
+      <c r="P178" s="74"/>
+      <c r="Q178" s="74"/>
+      <c r="R178" s="74"/>
+      <c r="S178" s="74"/>
+      <c r="T178" s="75"/>
+      <c r="U178" s="74"/>
+      <c r="V178" s="74"/>
+      <c r="W178" s="74"/>
+      <c r="X178" s="74"/>
+      <c r="Y178" s="74"/>
+      <c r="Z178" s="74"/>
+      <c r="AA178" s="74"/>
+      <c r="AB178" s="74"/>
+      <c r="AC178" s="74"/>
+      <c r="AD178" s="74"/>
+      <c r="AE178" s="74"/>
+      <c r="AF178" s="74"/>
+      <c r="AG178" s="75"/>
+      <c r="AH178" s="74"/>
+      <c r="AI178" s="74"/>
+    </row>
+    <row r="179" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="73"/>
+      <c r="B179" s="76"/>
+      <c r="C179" s="74"/>
+      <c r="D179" s="74"/>
+      <c r="E179" s="74"/>
+      <c r="F179" s="74"/>
+      <c r="G179" s="74"/>
+      <c r="H179" s="74"/>
+      <c r="I179" s="74"/>
+      <c r="J179" s="74"/>
+      <c r="K179" s="74"/>
+      <c r="L179" s="74"/>
+      <c r="M179" s="74"/>
+      <c r="N179" s="74"/>
+      <c r="O179" s="74"/>
+      <c r="P179" s="74"/>
+      <c r="Q179" s="74"/>
+      <c r="R179" s="74"/>
+      <c r="S179" s="74"/>
+      <c r="T179" s="75"/>
+      <c r="U179" s="74"/>
+      <c r="V179" s="74"/>
+      <c r="W179" s="74"/>
+      <c r="X179" s="74"/>
+      <c r="Y179" s="74"/>
+      <c r="Z179" s="74"/>
+      <c r="AA179" s="74"/>
+      <c r="AB179" s="74"/>
+      <c r="AC179" s="74"/>
+      <c r="AD179" s="74"/>
+      <c r="AE179" s="74"/>
+      <c r="AF179" s="74"/>
+      <c r="AG179" s="75"/>
+      <c r="AH179" s="74"/>
+      <c r="AI179" s="74"/>
+    </row>
+    <row r="180" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="73"/>
+      <c r="B180" s="76"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="74"/>
+      <c r="E180" s="74"/>
+      <c r="F180" s="74"/>
+      <c r="G180" s="74"/>
+      <c r="H180" s="74"/>
+      <c r="I180" s="74"/>
+      <c r="J180" s="74"/>
+      <c r="K180" s="74"/>
+      <c r="L180" s="74"/>
+      <c r="M180" s="74"/>
+      <c r="N180" s="74"/>
+      <c r="O180" s="74"/>
+      <c r="P180" s="74"/>
+      <c r="Q180" s="74"/>
+      <c r="R180" s="74"/>
+      <c r="S180" s="74"/>
+      <c r="T180" s="75"/>
+      <c r="U180" s="74"/>
+      <c r="V180" s="74"/>
+      <c r="W180" s="74"/>
+      <c r="X180" s="74"/>
+      <c r="Y180" s="74"/>
+      <c r="Z180" s="74"/>
+      <c r="AA180" s="74"/>
+      <c r="AB180" s="74"/>
+      <c r="AC180" s="74"/>
+      <c r="AD180" s="74"/>
+      <c r="AE180" s="74"/>
+      <c r="AF180" s="74"/>
+      <c r="AG180" s="75"/>
+      <c r="AH180" s="74"/>
+      <c r="AI180" s="74"/>
+    </row>
+    <row r="181" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="77"/>
+      <c r="B181" s="77"/>
+      <c r="C181" s="75"/>
+      <c r="D181" s="75"/>
+      <c r="E181" s="75"/>
+      <c r="F181" s="75"/>
+      <c r="G181" s="75"/>
+      <c r="H181" s="75"/>
+      <c r="I181" s="75"/>
+      <c r="J181" s="75"/>
+      <c r="K181" s="75"/>
+      <c r="L181" s="75"/>
+      <c r="M181" s="75"/>
+      <c r="N181" s="75"/>
+      <c r="O181" s="75"/>
+      <c r="P181" s="75"/>
+      <c r="Q181" s="75"/>
+      <c r="R181" s="75"/>
+      <c r="S181" s="75"/>
+      <c r="T181" s="75"/>
+      <c r="U181" s="75"/>
+      <c r="V181" s="75"/>
+      <c r="W181" s="75"/>
+      <c r="X181" s="75"/>
+      <c r="Y181" s="75"/>
+      <c r="Z181" s="75"/>
+      <c r="AA181" s="75"/>
+      <c r="AB181" s="75"/>
+      <c r="AC181" s="75"/>
+      <c r="AD181" s="75"/>
+      <c r="AE181" s="75"/>
+      <c r="AF181" s="75"/>
+      <c r="AG181" s="75"/>
+      <c r="AH181" s="75"/>
+      <c r="AI181" s="75"/>
+    </row>
+    <row r="182" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="77"/>
+      <c r="B182" s="77"/>
+      <c r="C182" s="75"/>
+      <c r="D182" s="75"/>
+      <c r="E182" s="75"/>
+      <c r="F182" s="75"/>
+      <c r="G182" s="75"/>
+      <c r="H182" s="75"/>
+      <c r="I182" s="75"/>
+      <c r="J182" s="75"/>
+      <c r="K182" s="75"/>
+      <c r="L182" s="75"/>
+      <c r="M182" s="75"/>
+      <c r="N182" s="75"/>
+      <c r="O182" s="75"/>
+      <c r="P182" s="75"/>
+      <c r="Q182" s="75"/>
+      <c r="R182" s="75"/>
+      <c r="S182" s="75"/>
+      <c r="T182" s="75"/>
+      <c r="U182" s="75"/>
+      <c r="V182" s="75"/>
+      <c r="W182" s="75"/>
+      <c r="X182" s="75"/>
+      <c r="Y182" s="75"/>
+      <c r="Z182" s="75"/>
+      <c r="AA182" s="75"/>
+      <c r="AB182" s="75"/>
+      <c r="AC182" s="75"/>
+      <c r="AD182" s="75"/>
+      <c r="AE182" s="75"/>
+      <c r="AF182" s="75"/>
+      <c r="AG182" s="75"/>
+      <c r="AH182" s="75"/>
+      <c r="AI182" s="75"/>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 I110:I128 I90:I106 I130:I176 E106:E128 D22:E88">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 I116:I134 I96:I112 I136:I182 E112:E134 D22:E94">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J21">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A130:A155 A106:A128">
+    <dataValidation type="list" allowBlank="1" sqref="A136:A161 A112:A134">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9864,7 +10092,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44132.450331712964</v>
+        <v>44132.635624421295</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>445</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -17,7 +17,7 @@
     <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="462">
   <si>
     <t>list_name</t>
   </si>
@@ -1414,6 +1414,9 @@
   </si>
   <si>
     <t>Village</t>
+  </si>
+  <si>
+    <t>Patient Contact Details</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2106,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3158,10 +3161,10 @@
         <v>196</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>317</v>
+        <v>454</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>35</v>
+        <v>461</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
@@ -10092,7 +10095,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44132.635624421295</v>
+        <v>44132.641793402778</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>445</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -2103,10 +2103,10 @@
   <dimension ref="A1:AJ182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3164,7 +3164,7 @@
         <v>454</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>461</v>
+        <v>35</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
@@ -3197,15 +3197,17 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>244</v>
+        <v>331</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>455</v>
+        <v>317</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>456</v>
-      </c>
-      <c r="D28" s="40"/>
+        <v>332</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
@@ -3231,15 +3233,13 @@
       <c r="AA28" s="41"/>
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>457</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>458</v>
-      </c>
+      <c r="A29" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29" s="51"/>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
       <c r="F29" s="40"/>
@@ -3265,155 +3265,155 @@
       <c r="Z29" s="41"/>
       <c r="AA29" s="41"/>
     </row>
-    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>459</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>460</v>
-      </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40"/>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-    </row>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="85"/>
+    </row>
+    <row r="31" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="B31" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-    </row>
-    <row r="32" spans="1:36" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="85"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="85"/>
-      <c r="AA32" s="85"/>
-    </row>
-    <row r="33" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>454</v>
-      </c>
-      <c r="C33" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43" t="s">
+      <c r="C31" s="42" t="s">
+        <v>461</v>
+      </c>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="G33" s="43" t="s">
+      <c r="G31" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
+      <c r="AA31" s="44"/>
+    </row>
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>456</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+      <c r="AA32" s="41"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>458</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>317</v>
+        <v>459</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>332</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="D34" s="40"/>
       <c r="E34" s="40"/>
       <c r="F34" s="40"/>
       <c r="G34" s="40"/>
@@ -3443,7 +3443,7 @@
         <v>212</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>317</v>
+        <v>454</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="40"/>
@@ -10095,7 +10095,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44132.641793402778</v>
+        <v>44132.64285625</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>445</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -530,9 +530,6 @@
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>forma0</t>
-  </si>
-  <si>
     <t>Form A0 - Minimum data reporting form</t>
   </si>
   <si>
@@ -1417,6 +1414,9 @@
   </si>
   <si>
     <t>Patient Contact Details</t>
+  </si>
+  <si>
+    <t>form_a0</t>
   </si>
 </sst>
 </file>
@@ -1437,40 +1437,48 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2102,7 +2110,7 @@
   </sheetPr>
   <dimension ref="A1:AJ182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2352,7 +2360,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -2441,10 +2449,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>302</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>303</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
@@ -2521,10 +2529,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>304</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>305</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -2567,10 +2575,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>306</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>307</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -2860,7 +2868,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>35</v>
@@ -2873,7 +2881,7 @@
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
       <c r="K19" s="65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
@@ -2906,7 +2914,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>35</v>
@@ -2919,7 +2927,7 @@
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
@@ -2951,7 +2959,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>35</v>
@@ -2964,7 +2972,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="65"/>
       <c r="K21" s="38" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
@@ -3022,10 +3030,10 @@
     </row>
     <row r="23" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>35</v>
@@ -3059,13 +3067,13 @@
     </row>
     <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="C24" s="40" t="s">
         <v>319</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>320</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>56</v>
@@ -3096,10 +3104,10 @@
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="40"/>
@@ -3158,10 +3166,10 @@
     </row>
     <row r="27" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>35</v>
@@ -3169,7 +3177,7 @@
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>38</v>
@@ -3197,13 +3205,13 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>331</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>332</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>56</v>
@@ -3234,10 +3242,10 @@
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="40"/>
@@ -3296,18 +3304,18 @@
     </row>
     <row r="31" spans="1:36" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>38</v>
@@ -3335,13 +3343,13 @@
     </row>
     <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B32" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>455</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>456</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -3370,13 +3378,13 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B33" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>457</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>458</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -3405,13 +3413,13 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B34" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="C34" s="40" t="s">
         <v>459</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>460</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
@@ -3440,10 +3448,10 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="40"/>
@@ -3505,15 +3513,15 @@
         <v>32</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>38</v>
@@ -3541,13 +3549,13 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" s="40" t="s">
         <v>333</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>334</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>56</v>
@@ -3578,20 +3586,20 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B39" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="C39" s="40" t="s">
         <v>335</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>336</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -3617,20 +3625,20 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="C40" s="40" t="s">
         <v>194</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>195</v>
       </c>
       <c r="D40" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -3656,20 +3664,20 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B41" s="50" t="s">
         <v>160</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D41" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
@@ -3695,18 +3703,18 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B42" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="B42" s="50" t="s">
-        <v>290</v>
-      </c>
       <c r="C42" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
       <c r="F42" s="40" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
@@ -3732,20 +3740,20 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B43" s="50" t="s">
         <v>159</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D43" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
@@ -3771,20 +3779,20 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B44" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="51" t="s">
         <v>171</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>172</v>
       </c>
       <c r="D44" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
@@ -3810,20 +3818,20 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B45" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="51" t="s">
         <v>173</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>174</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
@@ -3849,20 +3857,20 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B46" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="51" t="s">
         <v>175</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>176</v>
       </c>
       <c r="D46" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
@@ -3888,20 +3896,20 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="40" t="s">
         <v>177</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>178</v>
       </c>
       <c r="D47" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E47" s="40"/>
       <c r="F47" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
@@ -3927,20 +3935,20 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="40" t="s">
         <v>179</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>180</v>
       </c>
       <c r="D48" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="40"/>
       <c r="F48" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
@@ -3966,20 +3974,20 @@
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="40" t="s">
         <v>181</v>
-      </c>
-      <c r="C49" s="40" t="s">
-        <v>182</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E49" s="40"/>
       <c r="F49" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
@@ -4005,20 +4013,20 @@
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B50" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="40" t="s">
         <v>183</v>
-      </c>
-      <c r="C50" s="40" t="s">
-        <v>184</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E50" s="40"/>
       <c r="F50" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
@@ -4044,20 +4052,20 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B51" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="40" t="s">
         <v>185</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>186</v>
       </c>
       <c r="D51" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E51" s="40"/>
       <c r="F51" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
@@ -4083,20 +4091,20 @@
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B52" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C52" s="40" t="s">
         <v>187</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>188</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E52" s="40"/>
       <c r="F52" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
@@ -4122,20 +4130,20 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="40" t="s">
         <v>189</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>190</v>
       </c>
       <c r="D53" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E53" s="40"/>
       <c r="F53" s="40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -4164,7 +4172,7 @@
         <v>63</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="43"/>
@@ -4223,18 +4231,18 @@
     </row>
     <row r="56" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="C56" s="42" t="s">
         <v>197</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>198</v>
       </c>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G56" s="43" t="s">
         <v>38</v>
@@ -4262,13 +4270,13 @@
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
@@ -4297,18 +4305,18 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B58" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C58" s="40" t="s">
         <v>199</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>200</v>
       </c>
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
       <c r="F58" s="40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
@@ -4334,18 +4342,18 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
       <c r="F59" s="40" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
@@ -4371,10 +4379,10 @@
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B60" s="42" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C60" s="51"/>
       <c r="D60" s="40"/>
@@ -4433,18 +4441,18 @@
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B62" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" s="42" t="s">
         <v>213</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>214</v>
       </c>
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
       <c r="F62" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G62" s="40" t="s">
         <v>38</v>
@@ -4472,13 +4480,13 @@
     </row>
     <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D63" s="40"/>
       <c r="E63" s="40"/>
@@ -4507,18 +4515,18 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B64" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="C64" s="40" t="s">
-        <v>217</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="40"/>
       <c r="F64" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
@@ -4544,18 +4552,18 @@
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B65" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="40"/>
       <c r="E65" s="40"/>
       <c r="F65" s="56" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
@@ -4581,10 +4589,10 @@
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="42" t="s">
         <v>212</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>213</v>
       </c>
       <c r="C66" s="42"/>
       <c r="D66" s="40"/>
@@ -4643,18 +4651,18 @@
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B68" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" s="42" t="s">
         <v>220</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>221</v>
       </c>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="F68" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>38</v>
@@ -4682,13 +4690,13 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B69" s="50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
@@ -4717,13 +4725,13 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
@@ -4752,13 +4760,13 @@
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
@@ -4787,13 +4795,13 @@
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
@@ -4822,10 +4830,10 @@
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C73" s="42"/>
       <c r="D73" s="40"/>
@@ -4884,18 +4892,18 @@
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" s="42" t="s">
         <v>230</v>
-      </c>
-      <c r="C75" s="42" t="s">
-        <v>231</v>
       </c>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
       <c r="F75" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>38</v>
@@ -4923,10 +4931,10 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C76" s="40" t="s">
         <v>35</v>
@@ -4958,13 +4966,13 @@
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="51" t="s">
         <v>236</v>
-      </c>
-      <c r="B77" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>237</v>
       </c>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
@@ -4993,18 +5001,18 @@
     </row>
     <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B78" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
       <c r="F78" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
@@ -5030,18 +5038,18 @@
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B79" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C79" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
       <c r="F79" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G79" s="40"/>
       <c r="H79" s="40"/>
@@ -5067,18 +5075,18 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B80" s="50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
       <c r="F80" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
@@ -5104,18 +5112,18 @@
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B81" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
       <c r="F81" s="56" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
@@ -5141,10 +5149,10 @@
     </row>
     <row r="82" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="58"/>
       <c r="D82" s="58"/>
@@ -5174,10 +5182,10 @@
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B83" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C83" s="40" t="s">
         <v>35</v>
@@ -5209,13 +5217,13 @@
     </row>
     <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B84" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
@@ -5244,18 +5252,18 @@
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B85" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
       <c r="F85" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G85" s="40"/>
       <c r="H85" s="40"/>
@@ -5281,18 +5289,18 @@
     </row>
     <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B86" s="50" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
       <c r="F86" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G86" s="40"/>
       <c r="H86" s="40"/>
@@ -5318,18 +5326,18 @@
     </row>
     <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B87" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="40"/>
       <c r="E87" s="40"/>
       <c r="F87" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G87" s="40"/>
       <c r="H87" s="40"/>
@@ -5355,18 +5363,18 @@
     </row>
     <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B88" s="50" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
       <c r="F88" s="56" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G88" s="40"/>
       <c r="H88" s="40"/>
@@ -5392,10 +5400,10 @@
     </row>
     <row r="89" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C89" s="58"/>
       <c r="D89" s="58"/>
@@ -5425,10 +5433,10 @@
     </row>
     <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B90" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>35</v>
@@ -5460,13 +5468,13 @@
     </row>
     <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C91" s="51" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
@@ -5495,18 +5503,18 @@
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B92" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="40" t="s">
         <v>256</v>
-      </c>
-      <c r="C92" s="40" t="s">
-        <v>257</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
       <c r="F92" s="56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G92" s="40"/>
       <c r="H92" s="40"/>
@@ -5532,10 +5540,10 @@
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="57" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C93" s="40"/>
       <c r="D93" s="40"/>
@@ -5565,10 +5573,10 @@
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C94" s="42"/>
       <c r="D94" s="40"/>
@@ -5601,15 +5609,15 @@
         <v>32</v>
       </c>
       <c r="B96" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" s="40" t="s">
         <v>264</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>265</v>
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
       <c r="F96" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G96" s="40" t="s">
         <v>38</v>
@@ -5644,13 +5652,13 @@
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B97" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="C97" s="40" t="s">
         <v>266</v>
-      </c>
-      <c r="C97" s="40" t="s">
-        <v>267</v>
       </c>
       <c r="D97" s="40"/>
       <c r="E97" s="40"/>
@@ -5687,13 +5695,13 @@
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B98" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="40" t="s">
         <v>268</v>
-      </c>
-      <c r="C98" s="40" t="s">
-        <v>269</v>
       </c>
       <c r="D98" s="40"/>
       <c r="E98" s="40"/>
@@ -5730,13 +5738,13 @@
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B99" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="C99" s="40" t="s">
         <v>270</v>
-      </c>
-      <c r="C99" s="40" t="s">
-        <v>271</v>
       </c>
       <c r="D99" s="40"/>
       <c r="E99" s="40"/>
@@ -5773,13 +5781,13 @@
     </row>
     <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B100" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C100" s="40" t="s">
         <v>272</v>
-      </c>
-      <c r="C100" s="40" t="s">
-        <v>273</v>
       </c>
       <c r="D100" s="40"/>
       <c r="E100" s="40"/>
@@ -5816,13 +5824,13 @@
     </row>
     <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B101" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" s="40" t="s">
         <v>274</v>
-      </c>
-      <c r="C101" s="40" t="s">
-        <v>275</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
@@ -5859,13 +5867,13 @@
     </row>
     <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B102" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="C102" s="40" t="s">
         <v>276</v>
-      </c>
-      <c r="C102" s="40" t="s">
-        <v>277</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="40"/>
@@ -5902,18 +5910,18 @@
     </row>
     <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B103" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" s="40" t="s">
         <v>278</v>
-      </c>
-      <c r="C103" s="40" t="s">
-        <v>279</v>
       </c>
       <c r="D103" s="40"/>
       <c r="E103" s="40"/>
       <c r="F103" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G103" s="40"/>
       <c r="H103" s="40"/>
@@ -5947,18 +5955,18 @@
     </row>
     <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B104" s="50" t="s">
         <v>291</v>
       </c>
-      <c r="B104" s="50" t="s">
+      <c r="C104" s="40" t="s">
         <v>292</v>
-      </c>
-      <c r="C104" s="40" t="s">
-        <v>293</v>
       </c>
       <c r="D104" s="40"/>
       <c r="E104" s="40"/>
       <c r="F104" s="40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G104" s="40"/>
       <c r="H104" s="40"/>
@@ -5992,13 +6000,13 @@
     </row>
     <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B105" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C105" s="40" t="s">
         <v>280</v>
-      </c>
-      <c r="C105" s="40" t="s">
-        <v>281</v>
       </c>
       <c r="D105" s="40"/>
       <c r="E105" s="40"/>
@@ -6035,13 +6043,13 @@
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B106" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="C106" s="40" t="s">
         <v>282</v>
-      </c>
-      <c r="C106" s="40" t="s">
-        <v>283</v>
       </c>
       <c r="D106" s="40"/>
       <c r="E106" s="40"/>
@@ -6078,13 +6086,13 @@
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B107" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" s="51" t="s">
         <v>284</v>
-      </c>
-      <c r="C107" s="51" t="s">
-        <v>285</v>
       </c>
       <c r="D107" s="40"/>
       <c r="E107" s="40"/>
@@ -6121,13 +6129,13 @@
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B108" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="40" t="s">
         <v>286</v>
-      </c>
-      <c r="C108" s="40" t="s">
-        <v>287</v>
       </c>
       <c r="D108" s="40"/>
       <c r="E108" s="40"/>
@@ -6164,18 +6172,18 @@
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B109" s="50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C109" s="51" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="40"/>
       <c r="F109" s="40" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G109" s="40"/>
       <c r="H109" s="40"/>
@@ -6288,15 +6296,15 @@
         <v>32</v>
       </c>
       <c r="B112" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="C112" s="51" t="s">
         <v>399</v>
-      </c>
-      <c r="C112" s="51" t="s">
-        <v>400</v>
       </c>
       <c r="D112" s="40"/>
       <c r="E112" s="56"/>
       <c r="F112" s="56" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G112" s="40" t="s">
         <v>38</v>
@@ -6332,13 +6340,13 @@
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="78" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B113" s="78" t="s">
+        <v>400</v>
+      </c>
+      <c r="C113" s="51" t="s">
         <v>401</v>
-      </c>
-      <c r="C113" s="51" t="s">
-        <v>402</v>
       </c>
       <c r="D113" s="40"/>
       <c r="E113" s="56" t="s">
@@ -6348,7 +6356,7 @@
       <c r="G113" s="40"/>
       <c r="H113" s="40"/>
       <c r="I113" s="51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J113" s="56"/>
       <c r="K113" s="56"/>
@@ -6379,13 +6387,13 @@
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="B114" s="78" t="s">
         <v>404</v>
       </c>
-      <c r="B114" s="78" t="s">
+      <c r="C114" s="51" t="s">
         <v>405</v>
-      </c>
-      <c r="C114" s="51" t="s">
-        <v>406</v>
       </c>
       <c r="D114" s="40"/>
       <c r="E114" s="56" t="s">
@@ -6424,13 +6432,13 @@
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="78" t="s">
+        <v>406</v>
+      </c>
+      <c r="B115" s="78" t="s">
         <v>407</v>
       </c>
-      <c r="B115" s="78" t="s">
+      <c r="C115" s="51" t="s">
         <v>408</v>
-      </c>
-      <c r="C115" s="51" t="s">
-        <v>409</v>
       </c>
       <c r="D115" s="40"/>
       <c r="E115" s="56" t="s">
@@ -6440,7 +6448,7 @@
       <c r="G115" s="40"/>
       <c r="H115" s="40"/>
       <c r="I115" s="56" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J115" s="56"/>
       <c r="K115" s="56"/>
@@ -6471,13 +6479,13 @@
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="78" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B116" s="78" t="s">
+        <v>410</v>
+      </c>
+      <c r="C116" s="51" t="s">
         <v>411</v>
-      </c>
-      <c r="C116" s="51" t="s">
-        <v>412</v>
       </c>
       <c r="D116" s="40"/>
       <c r="E116" s="56"/>
@@ -6517,7 +6525,7 @@
         <v>32</v>
       </c>
       <c r="B117" s="79" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C117" s="80" t="s">
         <v>35</v>
@@ -6525,7 +6533,7 @@
       <c r="D117" s="56"/>
       <c r="E117" s="56"/>
       <c r="F117" s="56" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G117" s="56"/>
       <c r="H117" s="56"/>
@@ -6557,7 +6565,7 @@
       <c r="AF117" s="56"/>
       <c r="AG117" s="56"/>
       <c r="AH117" s="81" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AI117" s="56"/>
     </row>
@@ -6566,7 +6574,7 @@
         <v>95</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>35</v>
@@ -6579,7 +6587,7 @@
       <c r="I118" s="80"/>
       <c r="J118" s="80"/>
       <c r="K118" s="80" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="L118" s="80"/>
       <c r="M118" s="80"/>
@@ -6614,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="80" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D119" s="56"/>
       <c r="E119" s="56"/>
@@ -6624,7 +6632,7 @@
       <c r="I119" s="56"/>
       <c r="J119" s="56"/>
       <c r="K119" s="80" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L119" s="56"/>
       <c r="M119" s="56"/>
@@ -6656,7 +6664,7 @@
         <v>95</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>35</v>
@@ -6669,7 +6677,7 @@
       <c r="I120" s="56"/>
       <c r="J120" s="56"/>
       <c r="K120" s="80" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="L120" s="56"/>
       <c r="M120" s="56"/>
@@ -6701,7 +6709,7 @@
         <v>95</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C121" s="80" t="s">
         <v>35</v>
@@ -6714,7 +6722,7 @@
       <c r="I121" s="80"/>
       <c r="J121" s="80"/>
       <c r="K121" s="80" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="L121" s="80"/>
       <c r="M121" s="80"/>
@@ -6746,7 +6754,7 @@
         <v>32</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>35</v>
@@ -6802,7 +6810,7 @@
       <c r="I123" s="80"/>
       <c r="J123" s="80"/>
       <c r="K123" s="80" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L123" s="80"/>
       <c r="M123" s="80"/>
@@ -6847,7 +6855,7 @@
       <c r="I124" s="80"/>
       <c r="J124" s="80"/>
       <c r="K124" s="80" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L124" s="80"/>
       <c r="M124" s="80"/>
@@ -6879,7 +6887,7 @@
         <v>32</v>
       </c>
       <c r="B125" s="79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>35</v>
@@ -6922,7 +6930,7 @@
         <v>95</v>
       </c>
       <c r="B126" s="79" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C126" s="80" t="s">
         <v>35</v>
@@ -6935,7 +6943,7 @@
       <c r="I126" s="56"/>
       <c r="J126" s="56"/>
       <c r="K126" s="80" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="L126" s="56"/>
       <c r="M126" s="56"/>
@@ -6967,7 +6975,7 @@
         <v>95</v>
       </c>
       <c r="B127" s="79" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C127" s="80" t="s">
         <v>35</v>
@@ -6980,7 +6988,7 @@
       <c r="I127" s="56"/>
       <c r="J127" s="56"/>
       <c r="K127" s="80" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L127" s="56"/>
       <c r="M127" s="56"/>
@@ -7012,7 +7020,7 @@
         <v>95</v>
       </c>
       <c r="B128" s="79" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C128" s="80" t="s">
         <v>35</v>
@@ -7025,7 +7033,7 @@
       <c r="I128" s="56"/>
       <c r="J128" s="56"/>
       <c r="K128" s="80" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L128" s="56"/>
       <c r="M128" s="56"/>
@@ -7057,7 +7065,7 @@
         <v>95</v>
       </c>
       <c r="B129" s="79" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>35</v>
@@ -7070,7 +7078,7 @@
       <c r="I129" s="80"/>
       <c r="J129" s="80"/>
       <c r="K129" s="80" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L129" s="80"/>
       <c r="M129" s="80"/>
@@ -7219,7 +7227,7 @@
         <v>95</v>
       </c>
       <c r="B133" s="82" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C133" s="56" t="s">
         <v>35</v>
@@ -7232,7 +7240,7 @@
       <c r="I133" s="56"/>
       <c r="J133" s="56"/>
       <c r="K133" s="56" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="L133" s="56"/>
       <c r="M133" s="56"/>
@@ -7303,7 +7311,7 @@
         <v>32</v>
       </c>
       <c r="B136" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C136" s="69" t="s">
         <v>35</v>
@@ -7312,7 +7320,7 @@
       <c r="E136" s="70"/>
       <c r="F136" s="71"/>
       <c r="G136" s="71" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H136" s="70"/>
       <c r="I136" s="71"/>
@@ -7347,13 +7355,13 @@
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="72" t="s">
+        <v>340</v>
+      </c>
+      <c r="B137" s="72" t="s">
         <v>341</v>
       </c>
-      <c r="B137" s="72" t="s">
+      <c r="C137" s="69" t="s">
         <v>342</v>
-      </c>
-      <c r="C137" s="69" t="s">
-        <v>343</v>
       </c>
       <c r="D137" s="71"/>
       <c r="E137" s="71"/>
@@ -7390,19 +7398,19 @@
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B138" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" s="69" t="s">
         <v>344</v>
-      </c>
-      <c r="C138" s="69" t="s">
-        <v>345</v>
       </c>
       <c r="D138" s="71"/>
       <c r="E138" s="71"/>
       <c r="F138" s="71"/>
       <c r="G138" s="69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H138" s="71"/>
       <c r="I138" s="71"/>
@@ -7435,13 +7443,13 @@
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B139" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="C139" s="69" t="s">
         <v>347</v>
-      </c>
-      <c r="C139" s="69" t="s">
-        <v>348</v>
       </c>
       <c r="D139" s="71"/>
       <c r="E139" s="71"/>
@@ -7478,19 +7486,19 @@
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B140" s="68" t="s">
+        <v>348</v>
+      </c>
+      <c r="C140" s="69" t="s">
         <v>349</v>
-      </c>
-      <c r="C140" s="69" t="s">
-        <v>350</v>
       </c>
       <c r="D140" s="71"/>
       <c r="E140" s="71"/>
       <c r="F140" s="71"/>
       <c r="G140" s="69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H140" s="71"/>
       <c r="I140" s="71"/>
@@ -7523,19 +7531,19 @@
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B141" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="C141" s="71" t="s">
         <v>351</v>
-      </c>
-      <c r="C141" s="71" t="s">
-        <v>352</v>
       </c>
       <c r="D141" s="71"/>
       <c r="E141" s="71"/>
       <c r="F141" s="70"/>
       <c r="G141" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H141" s="71"/>
       <c r="I141" s="71"/>
@@ -7568,21 +7576,21 @@
     </row>
     <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B142" s="68" t="s">
+        <v>353</v>
+      </c>
+      <c r="C142" s="69" t="s">
         <v>354</v>
-      </c>
-      <c r="C142" s="69" t="s">
-        <v>355</v>
       </c>
       <c r="D142" s="70"/>
       <c r="E142" s="70"/>
       <c r="F142" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G142" s="71" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H142" s="70"/>
       <c r="I142" s="71"/>
@@ -7615,21 +7623,21 @@
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B143" s="68" t="s">
+        <v>356</v>
+      </c>
+      <c r="C143" s="69" t="s">
         <v>357</v>
-      </c>
-      <c r="C143" s="69" t="s">
-        <v>358</v>
       </c>
       <c r="D143" s="70"/>
       <c r="E143" s="70"/>
       <c r="F143" s="69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G143" s="71" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H143" s="70"/>
       <c r="I143" s="71"/>
@@ -7662,21 +7670,21 @@
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B144" s="68" t="s">
+        <v>358</v>
+      </c>
+      <c r="C144" s="71" t="s">
         <v>359</v>
-      </c>
-      <c r="C144" s="71" t="s">
-        <v>360</v>
       </c>
       <c r="D144" s="71"/>
       <c r="E144" s="71"/>
       <c r="F144" s="69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G144" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H144" s="71"/>
       <c r="I144" s="71"/>
@@ -7709,21 +7717,21 @@
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B145" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="C145" s="69" t="s">
         <v>361</v>
-      </c>
-      <c r="C145" s="69" t="s">
-        <v>362</v>
       </c>
       <c r="D145" s="70"/>
       <c r="E145" s="70"/>
       <c r="F145" s="69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G145" s="71" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H145" s="70"/>
       <c r="I145" s="71"/>
@@ -7756,21 +7764,21 @@
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B146" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="C146" s="69" t="s">
         <v>363</v>
-      </c>
-      <c r="C146" s="69" t="s">
-        <v>364</v>
       </c>
       <c r="D146" s="70"/>
       <c r="E146" s="70"/>
       <c r="F146" s="69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G146" s="71" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H146" s="70"/>
       <c r="I146" s="71"/>
@@ -7803,21 +7811,21 @@
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B147" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="C147" s="69" t="s">
         <v>365</v>
-      </c>
-      <c r="C147" s="69" t="s">
-        <v>366</v>
       </c>
       <c r="D147" s="70"/>
       <c r="E147" s="70"/>
       <c r="F147" s="69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G147" s="69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H147" s="70"/>
       <c r="I147" s="71"/>
@@ -7850,21 +7858,21 @@
     </row>
     <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B148" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="C148" s="69" t="s">
         <v>367</v>
-      </c>
-      <c r="C148" s="69" t="s">
-        <v>368</v>
       </c>
       <c r="D148" s="71"/>
       <c r="E148" s="71"/>
       <c r="F148" s="69" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G148" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H148" s="71"/>
       <c r="I148" s="71"/>
@@ -7897,21 +7905,21 @@
     </row>
     <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B149" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="C149" s="69" t="s">
         <v>369</v>
-      </c>
-      <c r="C149" s="69" t="s">
-        <v>370</v>
       </c>
       <c r="D149" s="71"/>
       <c r="E149" s="71"/>
       <c r="F149" s="69" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G149" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H149" s="71"/>
       <c r="I149" s="71"/>
@@ -7944,21 +7952,21 @@
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B150" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="C150" s="69" t="s">
         <v>371</v>
-      </c>
-      <c r="C150" s="69" t="s">
-        <v>372</v>
       </c>
       <c r="D150" s="71"/>
       <c r="E150" s="71"/>
       <c r="F150" s="69" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G150" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H150" s="71"/>
       <c r="I150" s="71"/>
@@ -7991,21 +7999,21 @@
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B151" s="68" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C151" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D151" s="71"/>
       <c r="E151" s="71"/>
       <c r="F151" s="69" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G151" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H151" s="71"/>
       <c r="I151" s="71"/>
@@ -8038,21 +8046,21 @@
     </row>
     <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B152" s="68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D152" s="71"/>
       <c r="E152" s="71"/>
       <c r="F152" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G152" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H152" s="71"/>
       <c r="I152" s="71"/>
@@ -8085,21 +8093,21 @@
     </row>
     <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B153" s="68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C153" s="69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D153" s="71"/>
       <c r="E153" s="71"/>
       <c r="F153" s="69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G153" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H153" s="71"/>
       <c r="I153" s="71"/>
@@ -8132,21 +8140,21 @@
     </row>
     <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B154" s="68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C154" s="69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D154" s="71"/>
       <c r="E154" s="71"/>
       <c r="F154" s="69" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G154" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H154" s="71"/>
       <c r="I154" s="71"/>
@@ -8179,21 +8187,21 @@
     </row>
     <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B155" s="68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C155" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D155" s="71"/>
       <c r="E155" s="71"/>
       <c r="F155" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G155" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H155" s="71"/>
       <c r="I155" s="71"/>
@@ -8226,21 +8234,21 @@
     </row>
     <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B156" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="C156" s="69" t="s">
         <v>378</v>
-      </c>
-      <c r="C156" s="69" t="s">
-        <v>379</v>
       </c>
       <c r="D156" s="71"/>
       <c r="E156" s="71"/>
       <c r="F156" s="69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G156" s="69" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H156" s="71"/>
       <c r="I156" s="71"/>
@@ -8273,21 +8281,21 @@
     </row>
     <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B157" s="68" t="s">
+        <v>379</v>
+      </c>
+      <c r="C157" s="69" t="s">
         <v>380</v>
-      </c>
-      <c r="C157" s="69" t="s">
-        <v>381</v>
       </c>
       <c r="D157" s="71"/>
       <c r="E157" s="71"/>
       <c r="F157" s="69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G157" s="69" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H157" s="71"/>
       <c r="I157" s="71"/>
@@ -8320,18 +8328,18 @@
     </row>
     <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B158" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="C158" s="69" t="s">
         <v>383</v>
-      </c>
-      <c r="C158" s="69" t="s">
-        <v>384</v>
       </c>
       <c r="D158" s="71"/>
       <c r="E158" s="71"/>
       <c r="F158" s="69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G158" s="69"/>
       <c r="H158" s="71"/>
@@ -8365,18 +8373,18 @@
     </row>
     <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B159" s="68" t="s">
+        <v>384</v>
+      </c>
+      <c r="C159" s="69" t="s">
         <v>385</v>
-      </c>
-      <c r="C159" s="69" t="s">
-        <v>386</v>
       </c>
       <c r="D159" s="71"/>
       <c r="E159" s="71"/>
       <c r="F159" s="69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G159" s="69"/>
       <c r="H159" s="71"/>
@@ -8410,18 +8418,18 @@
     </row>
     <row r="160" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B160" s="68" t="s">
+        <v>386</v>
+      </c>
+      <c r="C160" s="69" t="s">
         <v>387</v>
-      </c>
-      <c r="C160" s="69" t="s">
-        <v>388</v>
       </c>
       <c r="D160" s="71"/>
       <c r="E160" s="71"/>
       <c r="F160" s="69" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G160" s="69"/>
       <c r="H160" s="71"/>
@@ -9340,13 +9348,13 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="C4" s="53" t="s">
         <v>204</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>205</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -9364,13 +9372,13 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>206</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>207</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -9388,29 +9396,29 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>208</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="52" t="s">
         <v>148</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>56</v>
@@ -9421,7 +9429,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>57</v>
@@ -9432,145 +9440,145 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>295</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B17" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>321</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>323</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B19" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="67" t="s">
         <v>325</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B20" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" s="67" t="s">
         <v>327</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B21" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="C21" s="67" t="s">
         <v>329</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="C22" s="52" t="s">
         <v>439</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>440</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
@@ -9597,13 +9605,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B23" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="C23" s="52" t="s">
         <v>441</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>442</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -9630,7 +9638,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>53</v>
@@ -10031,9 +10039,9 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10088,17 +10096,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>166</v>
+        <v>461</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44132.64285625</v>
+        <v>44135.52058877315</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="463">
   <si>
     <t>list_name</t>
   </si>
@@ -1417,6 +1417,9 @@
   </si>
   <si>
     <t>form_a0</t>
+  </si>
+  <si>
+    <t>case_status_</t>
   </si>
 </sst>
 </file>
@@ -2110,11 +2113,11 @@
   </sheetPr>
   <dimension ref="A1:AJ182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3169,7 +3172,7 @@
         <v>195</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>35</v>
@@ -3245,7 +3248,7 @@
         <v>211</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>316</v>
+        <v>462</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="40"/>
@@ -10039,7 +10042,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -10103,7 +10106,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44135.52058877315</v>
+        <v>44135.52517685185</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>444</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="472">
   <si>
     <t>list_name</t>
   </si>
@@ -1020,9 +1020,6 @@
     <t>confirmed</t>
   </si>
   <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
     <t>select_one case_status</t>
   </si>
   <si>
@@ -1420,6 +1417,36 @@
   </si>
   <si>
     <t>case_status_</t>
+  </si>
+  <si>
+    <t>Lab Confirmed</t>
+  </si>
+  <si>
+    <t>care_giver</t>
+  </si>
+  <si>
+    <t>caregiver_name</t>
+  </si>
+  <si>
+    <t>Caregiver First Name</t>
+  </si>
+  <si>
+    <t>caregiver_surname</t>
+  </si>
+  <si>
+    <t>Caregiver Surname</t>
+  </si>
+  <si>
+    <t>caregiver_phone</t>
+  </si>
+  <si>
+    <t>Caregiver Phone Number</t>
+  </si>
+  <si>
+    <t>caregiver_phone_alt</t>
+  </si>
+  <si>
+    <t>Caregiver Alternate Phone Number</t>
   </si>
 </sst>
 </file>
@@ -1667,7 +1694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1828,6 +1855,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2111,13 +2139,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ182"/>
+  <dimension ref="A1:AJ189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2962,7 +2990,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>35</v>
@@ -2975,7 +3003,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="65"/>
       <c r="K21" s="38" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
@@ -3036,7 +3064,7 @@
         <v>195</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>35</v>
@@ -3110,7 +3138,7 @@
         <v>211</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="40"/>
@@ -3172,7 +3200,7 @@
         <v>195</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>35</v>
@@ -3180,7 +3208,7 @@
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>38</v>
@@ -3208,13 +3236,13 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B28" s="50" t="s">
         <v>316</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>56</v>
@@ -3248,7 +3276,7 @@
         <v>211</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="40"/>
@@ -3310,15 +3338,15 @@
         <v>195</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>38</v>
@@ -3349,10 +3377,10 @@
         <v>243</v>
       </c>
       <c r="B32" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>454</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>455</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -3384,10 +3412,10 @@
         <v>243</v>
       </c>
       <c r="B33" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>456</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>457</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -3419,10 +3447,10 @@
         <v>243</v>
       </c>
       <c r="B34" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="C34" s="40" t="s">
         <v>458</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>459</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
@@ -3454,7 +3482,7 @@
         <v>211</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="40"/>
@@ -3524,7 +3552,7 @@
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>38</v>
@@ -3555,10 +3583,10 @@
         <v>168</v>
       </c>
       <c r="B38" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="C38" s="40" t="s">
         <v>332</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>333</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>56</v>
@@ -3592,17 +3620,17 @@
         <v>168</v>
       </c>
       <c r="B39" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" s="40" t="s">
         <v>334</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>335</v>
       </c>
       <c r="D39" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E39" s="40"/>
       <c r="F39" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -3641,7 +3669,7 @@
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -3680,7 +3708,7 @@
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
@@ -3712,12 +3740,12 @@
         <v>289</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
       <c r="F42" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
@@ -3756,7 +3784,7 @@
       </c>
       <c r="E43" s="40"/>
       <c r="F43" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
@@ -3795,7 +3823,7 @@
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
@@ -3834,7 +3862,7 @@
       </c>
       <c r="E45" s="40"/>
       <c r="F45" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
@@ -3873,7 +3901,7 @@
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
@@ -3912,7 +3940,7 @@
       </c>
       <c r="E47" s="40"/>
       <c r="F47" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
@@ -3951,7 +3979,7 @@
       </c>
       <c r="E48" s="40"/>
       <c r="F48" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
@@ -3990,7 +4018,7 @@
       </c>
       <c r="E49" s="40"/>
       <c r="F49" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
@@ -4029,7 +4057,7 @@
       </c>
       <c r="E50" s="40"/>
       <c r="F50" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
@@ -4068,7 +4096,7 @@
       </c>
       <c r="E51" s="40"/>
       <c r="F51" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
@@ -4107,7 +4135,7 @@
       </c>
       <c r="E52" s="40"/>
       <c r="F52" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
@@ -4146,7 +4174,7 @@
       </c>
       <c r="E53" s="40"/>
       <c r="F53" s="40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -4245,7 +4273,7 @@
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G56" s="43" t="s">
         <v>38</v>
@@ -4276,10 +4304,10 @@
         <v>168</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C57" s="40" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D57" s="40"/>
       <c r="E57" s="40"/>
@@ -4319,7 +4347,7 @@
       <c r="D58" s="40"/>
       <c r="E58" s="40"/>
       <c r="F58" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
@@ -4356,7 +4384,7 @@
       <c r="D59" s="40"/>
       <c r="E59" s="40"/>
       <c r="F59" s="40" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
@@ -4455,7 +4483,7 @@
       <c r="D62" s="40"/>
       <c r="E62" s="40"/>
       <c r="F62" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G62" s="40" t="s">
         <v>38</v>
@@ -4518,7 +4546,7 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B64" s="50" t="s">
         <v>215</v>
@@ -4665,7 +4693,7 @@
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
       <c r="F68" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>38</v>
@@ -4906,7 +4934,7 @@
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
       <c r="F75" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>38</v>
@@ -5620,7 +5648,7 @@
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
       <c r="F96" s="40" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G96" s="40" t="s">
         <v>38</v>
@@ -5924,7 +5952,7 @@
       <c r="D103" s="40"/>
       <c r="E103" s="40"/>
       <c r="F103" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G103" s="40"/>
       <c r="H103" s="40"/>
@@ -6181,12 +6209,12 @@
         <v>287</v>
       </c>
       <c r="C109" s="51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D109" s="40"/>
       <c r="E109" s="40"/>
       <c r="F109" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G109" s="40"/>
       <c r="H109" s="40"/>
@@ -6299,15 +6327,15 @@
         <v>32</v>
       </c>
       <c r="B112" s="78" t="s">
+        <v>397</v>
+      </c>
+      <c r="C112" s="51" t="s">
         <v>398</v>
-      </c>
-      <c r="C112" s="51" t="s">
-        <v>399</v>
       </c>
       <c r="D112" s="40"/>
       <c r="E112" s="56"/>
       <c r="F112" s="56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G112" s="40" t="s">
         <v>38</v>
@@ -6346,10 +6374,10 @@
         <v>192</v>
       </c>
       <c r="B113" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="C113" s="51" t="s">
         <v>400</v>
-      </c>
-      <c r="C113" s="51" t="s">
-        <v>401</v>
       </c>
       <c r="D113" s="40"/>
       <c r="E113" s="56" t="s">
@@ -6359,7 +6387,7 @@
       <c r="G113" s="40"/>
       <c r="H113" s="40"/>
       <c r="I113" s="51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J113" s="56"/>
       <c r="K113" s="56"/>
@@ -6390,13 +6418,13 @@
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="B114" s="78" t="s">
         <v>403</v>
       </c>
-      <c r="B114" s="78" t="s">
+      <c r="C114" s="51" t="s">
         <v>404</v>
-      </c>
-      <c r="C114" s="51" t="s">
-        <v>405</v>
       </c>
       <c r="D114" s="40"/>
       <c r="E114" s="56" t="s">
@@ -6435,13 +6463,13 @@
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="78" t="s">
+        <v>405</v>
+      </c>
+      <c r="B115" s="78" t="s">
         <v>406</v>
       </c>
-      <c r="B115" s="78" t="s">
+      <c r="C115" s="51" t="s">
         <v>407</v>
-      </c>
-      <c r="C115" s="51" t="s">
-        <v>408</v>
       </c>
       <c r="D115" s="40"/>
       <c r="E115" s="56" t="s">
@@ -6451,7 +6479,7 @@
       <c r="G115" s="40"/>
       <c r="H115" s="40"/>
       <c r="I115" s="56" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J115" s="56"/>
       <c r="K115" s="56"/>
@@ -6482,13 +6510,13 @@
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="78" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B116" s="78" t="s">
+        <v>409</v>
+      </c>
+      <c r="C116" s="51" t="s">
         <v>410</v>
-      </c>
-      <c r="C116" s="51" t="s">
-        <v>411</v>
       </c>
       <c r="D116" s="40"/>
       <c r="E116" s="56"/>
@@ -6528,7 +6556,7 @@
         <v>32</v>
       </c>
       <c r="B117" s="79" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C117" s="80" t="s">
         <v>35</v>
@@ -6536,7 +6564,7 @@
       <c r="D117" s="56"/>
       <c r="E117" s="56"/>
       <c r="F117" s="56" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G117" s="56"/>
       <c r="H117" s="56"/>
@@ -6568,7 +6596,7 @@
       <c r="AF117" s="56"/>
       <c r="AG117" s="56"/>
       <c r="AH117" s="81" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AI117" s="56"/>
     </row>
@@ -6577,7 +6605,7 @@
         <v>95</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C118" s="80" t="s">
         <v>35</v>
@@ -6590,7 +6618,7 @@
       <c r="I118" s="80"/>
       <c r="J118" s="80"/>
       <c r="K118" s="80" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="L118" s="80"/>
       <c r="M118" s="80"/>
@@ -6625,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="80" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D119" s="56"/>
       <c r="E119" s="56"/>
@@ -6635,7 +6663,7 @@
       <c r="I119" s="56"/>
       <c r="J119" s="56"/>
       <c r="K119" s="80" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L119" s="56"/>
       <c r="M119" s="56"/>
@@ -6667,7 +6695,7 @@
         <v>95</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C120" s="80" t="s">
         <v>35</v>
@@ -6680,7 +6708,7 @@
       <c r="I120" s="56"/>
       <c r="J120" s="56"/>
       <c r="K120" s="80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L120" s="56"/>
       <c r="M120" s="56"/>
@@ -6712,7 +6740,7 @@
         <v>95</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C121" s="80" t="s">
         <v>35</v>
@@ -6725,7 +6753,7 @@
       <c r="I121" s="80"/>
       <c r="J121" s="80"/>
       <c r="K121" s="80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L121" s="80"/>
       <c r="M121" s="80"/>
@@ -6757,7 +6785,7 @@
         <v>32</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C122" s="80" t="s">
         <v>35</v>
@@ -6813,7 +6841,7 @@
       <c r="I123" s="80"/>
       <c r="J123" s="80"/>
       <c r="K123" s="80" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L123" s="80"/>
       <c r="M123" s="80"/>
@@ -6858,7 +6886,7 @@
       <c r="I124" s="80"/>
       <c r="J124" s="80"/>
       <c r="K124" s="80" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L124" s="80"/>
       <c r="M124" s="80"/>
@@ -6890,7 +6918,7 @@
         <v>32</v>
       </c>
       <c r="B125" s="79" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C125" s="80" t="s">
         <v>35</v>
@@ -6933,7 +6961,7 @@
         <v>95</v>
       </c>
       <c r="B126" s="79" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C126" s="80" t="s">
         <v>35</v>
@@ -6946,7 +6974,7 @@
       <c r="I126" s="56"/>
       <c r="J126" s="56"/>
       <c r="K126" s="80" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L126" s="56"/>
       <c r="M126" s="56"/>
@@ -6978,7 +7006,7 @@
         <v>95</v>
       </c>
       <c r="B127" s="79" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C127" s="80" t="s">
         <v>35</v>
@@ -6991,7 +7019,7 @@
       <c r="I127" s="56"/>
       <c r="J127" s="56"/>
       <c r="K127" s="80" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="L127" s="56"/>
       <c r="M127" s="56"/>
@@ -7023,7 +7051,7 @@
         <v>95</v>
       </c>
       <c r="B128" s="79" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C128" s="80" t="s">
         <v>35</v>
@@ -7036,7 +7064,7 @@
       <c r="I128" s="56"/>
       <c r="J128" s="56"/>
       <c r="K128" s="80" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L128" s="56"/>
       <c r="M128" s="56"/>
@@ -7068,7 +7096,7 @@
         <v>95</v>
       </c>
       <c r="B129" s="79" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C129" s="80" t="s">
         <v>35</v>
@@ -7081,7 +7109,7 @@
       <c r="I129" s="80"/>
       <c r="J129" s="80"/>
       <c r="K129" s="80" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L129" s="80"/>
       <c r="M129" s="80"/>
@@ -7230,7 +7258,7 @@
         <v>95</v>
       </c>
       <c r="B133" s="82" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C133" s="56" t="s">
         <v>35</v>
@@ -7243,7 +7271,7 @@
       <c r="I133" s="56"/>
       <c r="J133" s="56"/>
       <c r="K133" s="56" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="L133" s="56"/>
       <c r="M133" s="56"/>
@@ -7309,342 +7337,272 @@
       <c r="AH134" s="56"/>
       <c r="AI134" s="56"/>
     </row>
-    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="B136" s="68" t="s">
-        <v>338</v>
-      </c>
-      <c r="C136" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="D136" s="70"/>
-      <c r="E136" s="70"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="71" t="s">
-        <v>339</v>
-      </c>
-      <c r="H136" s="70"/>
-      <c r="I136" s="71"/>
-      <c r="J136" s="71"/>
-      <c r="K136" s="71"/>
-      <c r="L136" s="71"/>
-      <c r="M136" s="69"/>
-      <c r="N136" s="69"/>
-      <c r="O136" s="69"/>
-      <c r="P136" s="69"/>
-      <c r="Q136" s="69"/>
-      <c r="R136" s="69"/>
-      <c r="S136" s="69"/>
-      <c r="T136" s="69"/>
-      <c r="U136" s="71"/>
-      <c r="V136" s="69"/>
-      <c r="W136" s="71"/>
-      <c r="X136" s="71"/>
-      <c r="Y136" s="71"/>
-      <c r="Z136" s="71"/>
-      <c r="AA136" s="71"/>
-      <c r="AB136" s="71"/>
-      <c r="AC136" s="71"/>
-      <c r="AD136" s="71"/>
-      <c r="AE136" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF136" s="71"/>
-      <c r="AG136" s="71"/>
-      <c r="AH136" s="71"/>
-      <c r="AI136" s="71"/>
+    <row r="135" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="55"/>
+      <c r="B135" s="55"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="86"/>
+      <c r="F135" s="54"/>
+      <c r="G135" s="54"/>
+      <c r="H135" s="54"/>
+      <c r="I135" s="86"/>
+      <c r="J135" s="86"/>
+      <c r="K135" s="86"/>
+      <c r="L135" s="86"/>
+      <c r="M135" s="55"/>
+      <c r="N135" s="55"/>
+      <c r="O135" s="55"/>
+      <c r="P135" s="55"/>
+      <c r="Q135" s="55"/>
+      <c r="R135" s="55"/>
+      <c r="S135" s="55"/>
+      <c r="T135" s="55"/>
+      <c r="U135" s="86"/>
+      <c r="V135" s="55"/>
+      <c r="W135" s="86"/>
+      <c r="X135" s="86"/>
+      <c r="Y135" s="86"/>
+      <c r="Z135" s="86"/>
+      <c r="AA135" s="86"/>
+      <c r="AB135" s="86"/>
+      <c r="AC135" s="86"/>
+      <c r="AD135" s="86"/>
+      <c r="AE135" s="86"/>
+      <c r="AF135" s="86"/>
+      <c r="AG135" s="86"/>
+      <c r="AH135" s="86"/>
+      <c r="AI135" s="86"/>
+    </row>
+    <row r="136" spans="1:35" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B136" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="C136" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D136" s="43"/>
+      <c r="E136" s="43"/>
+      <c r="F136" s="43"/>
+      <c r="G136" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="43"/>
+      <c r="J136" s="43"/>
+      <c r="K136" s="43"/>
+      <c r="L136" s="43"/>
+      <c r="M136" s="43"/>
+      <c r="N136" s="43"/>
+      <c r="O136" s="43"/>
+      <c r="P136" s="43"/>
+      <c r="Q136" s="43"/>
+      <c r="R136" s="43"/>
+      <c r="S136" s="44"/>
+      <c r="T136" s="44"/>
+      <c r="U136" s="44"/>
+      <c r="V136" s="44"/>
+      <c r="W136" s="44"/>
+      <c r="X136" s="44"/>
+      <c r="Y136" s="44"/>
+      <c r="Z136" s="44"/>
+      <c r="AA136" s="44"/>
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="72" t="s">
-        <v>340</v>
-      </c>
-      <c r="B137" s="72" t="s">
-        <v>341</v>
-      </c>
-      <c r="C137" s="69" t="s">
-        <v>342</v>
-      </c>
-      <c r="D137" s="71"/>
-      <c r="E137" s="71"/>
-      <c r="F137" s="71"/>
-      <c r="G137" s="71"/>
-      <c r="H137" s="71"/>
-      <c r="I137" s="71"/>
-      <c r="J137" s="71"/>
-      <c r="K137" s="71"/>
-      <c r="L137" s="71"/>
-      <c r="M137" s="71"/>
-      <c r="N137" s="71"/>
-      <c r="O137" s="71"/>
-      <c r="P137" s="71"/>
-      <c r="Q137" s="71"/>
-      <c r="R137" s="71"/>
-      <c r="S137" s="71"/>
-      <c r="T137" s="71"/>
-      <c r="U137" s="71"/>
-      <c r="V137" s="71"/>
-      <c r="W137" s="71"/>
-      <c r="X137" s="71"/>
-      <c r="Y137" s="71"/>
-      <c r="Z137" s="71"/>
-      <c r="AA137" s="71"/>
-      <c r="AB137" s="71"/>
-      <c r="AC137" s="71"/>
-      <c r="AD137" s="71"/>
-      <c r="AE137" s="71"/>
-      <c r="AF137" s="71"/>
-      <c r="AG137" s="71"/>
-      <c r="AH137" s="71"/>
-      <c r="AI137" s="71"/>
+      <c r="A137" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B137" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="C137" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
+      <c r="F137" s="40"/>
+      <c r="G137" s="40"/>
+      <c r="H137" s="40"/>
+      <c r="I137" s="40"/>
+      <c r="J137" s="40"/>
+      <c r="K137" s="40"/>
+      <c r="L137" s="40"/>
+      <c r="M137" s="40"/>
+      <c r="N137" s="40"/>
+      <c r="O137" s="40"/>
+      <c r="P137" s="40"/>
+      <c r="Q137" s="40"/>
+      <c r="R137" s="40"/>
+      <c r="S137" s="41"/>
+      <c r="T137" s="41"/>
+      <c r="U137" s="41"/>
+      <c r="V137" s="41"/>
+      <c r="W137" s="41"/>
+      <c r="X137" s="41"/>
+      <c r="Y137" s="41"/>
+      <c r="Z137" s="41"/>
+      <c r="AA137" s="41"/>
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="B138" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="C138" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="D138" s="71"/>
-      <c r="E138" s="71"/>
-      <c r="F138" s="71"/>
-      <c r="G138" s="69" t="s">
-        <v>345</v>
-      </c>
-      <c r="H138" s="71"/>
-      <c r="I138" s="71"/>
-      <c r="J138" s="71"/>
-      <c r="K138" s="69"/>
-      <c r="L138" s="71"/>
-      <c r="M138" s="71"/>
-      <c r="N138" s="71"/>
-      <c r="O138" s="71"/>
-      <c r="P138" s="71"/>
-      <c r="Q138" s="71"/>
-      <c r="R138" s="71"/>
-      <c r="S138" s="71"/>
-      <c r="T138" s="71"/>
-      <c r="U138" s="71"/>
-      <c r="V138" s="71"/>
-      <c r="W138" s="71"/>
-      <c r="X138" s="71"/>
-      <c r="Y138" s="71"/>
-      <c r="Z138" s="71"/>
-      <c r="AA138" s="71"/>
-      <c r="AB138" s="71"/>
-      <c r="AC138" s="71"/>
-      <c r="AD138" s="71"/>
-      <c r="AE138" s="71"/>
-      <c r="AF138" s="71"/>
-      <c r="AG138" s="71"/>
-      <c r="AH138" s="71"/>
-      <c r="AI138" s="71"/>
+      <c r="A138" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B138" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="C138" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="D138" s="40"/>
+      <c r="E138" s="40"/>
+      <c r="F138" s="40"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
+      <c r="I138" s="40"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="40"/>
+      <c r="L138" s="40"/>
+      <c r="M138" s="40"/>
+      <c r="N138" s="40"/>
+      <c r="O138" s="40"/>
+      <c r="P138" s="40"/>
+      <c r="Q138" s="40"/>
+      <c r="R138" s="40"/>
+      <c r="S138" s="41"/>
+      <c r="T138" s="41"/>
+      <c r="U138" s="41"/>
+      <c r="V138" s="41"/>
+      <c r="W138" s="41"/>
+      <c r="X138" s="41"/>
+      <c r="Y138" s="41"/>
+      <c r="Z138" s="41"/>
+      <c r="AA138" s="41"/>
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="B139" s="68" t="s">
-        <v>346</v>
-      </c>
-      <c r="C139" s="69" t="s">
-        <v>347</v>
-      </c>
-      <c r="D139" s="71"/>
-      <c r="E139" s="71"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="69"/>
-      <c r="H139" s="71"/>
-      <c r="I139" s="71"/>
-      <c r="J139" s="71"/>
-      <c r="K139" s="69"/>
-      <c r="L139" s="71"/>
-      <c r="M139" s="71"/>
-      <c r="N139" s="71"/>
-      <c r="O139" s="71"/>
-      <c r="P139" s="71"/>
-      <c r="Q139" s="71"/>
-      <c r="R139" s="71"/>
-      <c r="S139" s="71"/>
-      <c r="T139" s="71"/>
-      <c r="U139" s="71"/>
-      <c r="V139" s="71"/>
-      <c r="W139" s="71"/>
-      <c r="X139" s="71"/>
-      <c r="Y139" s="71"/>
-      <c r="Z139" s="71"/>
-      <c r="AA139" s="71"/>
-      <c r="AB139" s="71"/>
-      <c r="AC139" s="71"/>
-      <c r="AD139" s="71"/>
-      <c r="AE139" s="71"/>
-      <c r="AF139" s="71"/>
-      <c r="AG139" s="71"/>
-      <c r="AH139" s="71"/>
-      <c r="AI139" s="71"/>
+      <c r="A139" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B139" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="C139" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="D139" s="40"/>
+      <c r="E139" s="40"/>
+      <c r="F139" s="40"/>
+      <c r="G139" s="40"/>
+      <c r="H139" s="40"/>
+      <c r="I139" s="40"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="40"/>
+      <c r="L139" s="40"/>
+      <c r="M139" s="40"/>
+      <c r="N139" s="40"/>
+      <c r="O139" s="40"/>
+      <c r="P139" s="40"/>
+      <c r="Q139" s="40"/>
+      <c r="R139" s="40"/>
+      <c r="S139" s="41"/>
+      <c r="T139" s="41"/>
+      <c r="U139" s="41"/>
+      <c r="V139" s="41"/>
+      <c r="W139" s="41"/>
+      <c r="X139" s="41"/>
+      <c r="Y139" s="41"/>
+      <c r="Z139" s="41"/>
+      <c r="AA139" s="41"/>
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="B140" s="68" t="s">
-        <v>348</v>
-      </c>
-      <c r="C140" s="69" t="s">
-        <v>349</v>
-      </c>
-      <c r="D140" s="71"/>
-      <c r="E140" s="71"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="69" t="s">
-        <v>345</v>
-      </c>
-      <c r="H140" s="71"/>
-      <c r="I140" s="71"/>
-      <c r="J140" s="71"/>
-      <c r="K140" s="69"/>
-      <c r="L140" s="71"/>
-      <c r="M140" s="71"/>
-      <c r="N140" s="71"/>
-      <c r="O140" s="71"/>
-      <c r="P140" s="71"/>
-      <c r="Q140" s="71"/>
-      <c r="R140" s="71"/>
-      <c r="S140" s="71"/>
-      <c r="T140" s="71"/>
-      <c r="U140" s="71"/>
-      <c r="V140" s="71"/>
-      <c r="W140" s="71"/>
-      <c r="X140" s="71"/>
-      <c r="Y140" s="71"/>
-      <c r="Z140" s="71"/>
-      <c r="AA140" s="71"/>
-      <c r="AB140" s="71"/>
-      <c r="AC140" s="71"/>
-      <c r="AD140" s="71"/>
-      <c r="AE140" s="71"/>
-      <c r="AF140" s="71"/>
-      <c r="AG140" s="71"/>
-      <c r="AH140" s="71"/>
-      <c r="AI140" s="71"/>
+      <c r="A140" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="B140" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="C140" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="40"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="40"/>
+      <c r="I140" s="40"/>
+      <c r="J140" s="40"/>
+      <c r="K140" s="40"/>
+      <c r="L140" s="40"/>
+      <c r="M140" s="40"/>
+      <c r="N140" s="40"/>
+      <c r="O140" s="40"/>
+      <c r="P140" s="40"/>
+      <c r="Q140" s="40"/>
+      <c r="R140" s="40"/>
+      <c r="S140" s="41"/>
+      <c r="T140" s="41"/>
+      <c r="U140" s="41"/>
+      <c r="V140" s="41"/>
+      <c r="W140" s="41"/>
+      <c r="X140" s="41"/>
+      <c r="Y140" s="41"/>
+      <c r="Z140" s="41"/>
+      <c r="AA140" s="41"/>
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="B141" s="68" t="s">
-        <v>350</v>
-      </c>
-      <c r="C141" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="D141" s="71"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="70"/>
-      <c r="G141" s="69" t="s">
-        <v>352</v>
-      </c>
-      <c r="H141" s="71"/>
-      <c r="I141" s="71"/>
-      <c r="J141" s="70"/>
-      <c r="K141" s="69"/>
-      <c r="L141" s="71"/>
-      <c r="M141" s="71"/>
-      <c r="N141" s="71"/>
-      <c r="O141" s="71"/>
-      <c r="P141" s="71"/>
-      <c r="Q141" s="71"/>
-      <c r="R141" s="71"/>
-      <c r="S141" s="71"/>
-      <c r="T141" s="71"/>
-      <c r="U141" s="71"/>
-      <c r="V141" s="71"/>
-      <c r="W141" s="71"/>
-      <c r="X141" s="71"/>
-      <c r="Y141" s="71"/>
-      <c r="Z141" s="71"/>
-      <c r="AA141" s="71"/>
-      <c r="AB141" s="71"/>
-      <c r="AC141" s="71"/>
-      <c r="AD141" s="71"/>
-      <c r="AE141" s="71"/>
-      <c r="AF141" s="71"/>
-      <c r="AG141" s="71"/>
-      <c r="AH141" s="71"/>
-      <c r="AI141" s="71"/>
-    </row>
-    <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="B142" s="68" t="s">
-        <v>353</v>
-      </c>
-      <c r="C142" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="D142" s="70"/>
-      <c r="E142" s="70"/>
-      <c r="F142" s="69" t="s">
-        <v>388</v>
-      </c>
-      <c r="G142" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="H142" s="70"/>
-      <c r="I142" s="71"/>
-      <c r="J142" s="69"/>
-      <c r="K142" s="71"/>
-      <c r="L142" s="71"/>
-      <c r="M142" s="69"/>
-      <c r="N142" s="69"/>
-      <c r="O142" s="69"/>
-      <c r="P142" s="69"/>
-      <c r="Q142" s="69"/>
-      <c r="R142" s="69"/>
-      <c r="S142" s="69"/>
-      <c r="T142" s="69"/>
-      <c r="U142" s="71"/>
-      <c r="V142" s="69"/>
-      <c r="W142" s="71"/>
-      <c r="X142" s="71"/>
-      <c r="Y142" s="71"/>
-      <c r="Z142" s="71"/>
-      <c r="AA142" s="71"/>
-      <c r="AB142" s="71"/>
-      <c r="AC142" s="71"/>
-      <c r="AD142" s="71"/>
-      <c r="AE142" s="71"/>
-      <c r="AF142" s="71"/>
-      <c r="AG142" s="71"/>
-      <c r="AH142" s="71"/>
-      <c r="AI142" s="71"/>
+      <c r="A141" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B141" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="C141" s="51"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="40"/>
+      <c r="F141" s="40"/>
+      <c r="G141" s="40"/>
+      <c r="H141" s="40"/>
+      <c r="I141" s="40"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="40"/>
+      <c r="L141" s="40"/>
+      <c r="M141" s="40"/>
+      <c r="N141" s="40"/>
+      <c r="O141" s="40"/>
+      <c r="P141" s="40"/>
+      <c r="Q141" s="40"/>
+      <c r="R141" s="40"/>
+      <c r="S141" s="41"/>
+      <c r="T141" s="41"/>
+      <c r="U141" s="41"/>
+      <c r="V141" s="41"/>
+      <c r="W141" s="41"/>
+      <c r="X141" s="41"/>
+      <c r="Y141" s="41"/>
+      <c r="Z141" s="41"/>
+      <c r="AA141" s="41"/>
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="68" t="s">
-        <v>340</v>
+        <v>32</v>
       </c>
       <c r="B143" s="68" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C143" s="69" t="s">
-        <v>357</v>
+        <v>35</v>
       </c>
       <c r="D143" s="70"/>
       <c r="E143" s="70"/>
-      <c r="F143" s="69" t="s">
-        <v>389</v>
-      </c>
+      <c r="F143" s="71"/>
       <c r="G143" s="71" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="H143" s="70"/>
       <c r="I143" s="71"/>
-      <c r="J143" s="69"/>
+      <c r="J143" s="71"/>
       <c r="K143" s="71"/>
       <c r="L143" s="71"/>
       <c r="M143" s="69"/>
@@ -7665,34 +7623,32 @@
       <c r="AB143" s="71"/>
       <c r="AC143" s="71"/>
       <c r="AD143" s="71"/>
-      <c r="AE143" s="71"/>
+      <c r="AE143" s="71" t="s">
+        <v>39</v>
+      </c>
       <c r="AF143" s="71"/>
       <c r="AG143" s="71"/>
       <c r="AH143" s="71"/>
       <c r="AI143" s="71"/>
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="68" t="s">
+      <c r="A144" s="72" t="s">
+        <v>339</v>
+      </c>
+      <c r="B144" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="B144" s="68" t="s">
-        <v>358</v>
-      </c>
-      <c r="C144" s="71" t="s">
-        <v>359</v>
+      <c r="C144" s="69" t="s">
+        <v>341</v>
       </c>
       <c r="D144" s="71"/>
       <c r="E144" s="71"/>
-      <c r="F144" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="G144" s="69" t="s">
-        <v>352</v>
-      </c>
+      <c r="F144" s="71"/>
+      <c r="G144" s="71"/>
       <c r="H144" s="71"/>
       <c r="I144" s="71"/>
-      <c r="J144" s="69"/>
-      <c r="K144" s="69"/>
+      <c r="J144" s="71"/>
+      <c r="K144" s="71"/>
       <c r="L144" s="71"/>
       <c r="M144" s="71"/>
       <c r="N144" s="71"/>
@@ -7720,37 +7676,35 @@
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B145" s="68" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C145" s="69" t="s">
-        <v>361</v>
-      </c>
-      <c r="D145" s="70"/>
-      <c r="E145" s="70"/>
-      <c r="F145" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="G145" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="H145" s="70"/>
+        <v>343</v>
+      </c>
+      <c r="D145" s="71"/>
+      <c r="E145" s="71"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="H145" s="71"/>
       <c r="I145" s="71"/>
-      <c r="J145" s="69"/>
-      <c r="K145" s="71"/>
+      <c r="J145" s="71"/>
+      <c r="K145" s="69"/>
       <c r="L145" s="71"/>
-      <c r="M145" s="69"/>
-      <c r="N145" s="69"/>
-      <c r="O145" s="69"/>
-      <c r="P145" s="69"/>
-      <c r="Q145" s="69"/>
-      <c r="R145" s="69"/>
-      <c r="S145" s="69"/>
-      <c r="T145" s="69"/>
+      <c r="M145" s="71"/>
+      <c r="N145" s="71"/>
+      <c r="O145" s="71"/>
+      <c r="P145" s="71"/>
+      <c r="Q145" s="71"/>
+      <c r="R145" s="71"/>
+      <c r="S145" s="71"/>
+      <c r="T145" s="71"/>
       <c r="U145" s="71"/>
-      <c r="V145" s="69"/>
+      <c r="V145" s="71"/>
       <c r="W145" s="71"/>
       <c r="X145" s="71"/>
       <c r="Y145" s="71"/>
@@ -7767,37 +7721,33 @@
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B146" s="68" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C146" s="69" t="s">
-        <v>363</v>
-      </c>
-      <c r="D146" s="70"/>
-      <c r="E146" s="70"/>
-      <c r="F146" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="G146" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="H146" s="70"/>
+        <v>346</v>
+      </c>
+      <c r="D146" s="71"/>
+      <c r="E146" s="71"/>
+      <c r="F146" s="71"/>
+      <c r="G146" s="69"/>
+      <c r="H146" s="71"/>
       <c r="I146" s="71"/>
-      <c r="J146" s="69"/>
-      <c r="K146" s="71"/>
+      <c r="J146" s="71"/>
+      <c r="K146" s="69"/>
       <c r="L146" s="71"/>
-      <c r="M146" s="69"/>
-      <c r="N146" s="69"/>
-      <c r="O146" s="69"/>
-      <c r="P146" s="69"/>
-      <c r="Q146" s="69"/>
-      <c r="R146" s="69"/>
-      <c r="S146" s="69"/>
-      <c r="T146" s="69"/>
+      <c r="M146" s="71"/>
+      <c r="N146" s="71"/>
+      <c r="O146" s="71"/>
+      <c r="P146" s="71"/>
+      <c r="Q146" s="71"/>
+      <c r="R146" s="71"/>
+      <c r="S146" s="71"/>
+      <c r="T146" s="71"/>
       <c r="U146" s="71"/>
-      <c r="V146" s="69"/>
+      <c r="V146" s="71"/>
       <c r="W146" s="71"/>
       <c r="X146" s="71"/>
       <c r="Y146" s="71"/>
@@ -7814,37 +7764,35 @@
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B147" s="68" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="C147" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="D147" s="70"/>
-      <c r="E147" s="70"/>
-      <c r="F147" s="69" t="s">
-        <v>390</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="D147" s="71"/>
+      <c r="E147" s="71"/>
+      <c r="F147" s="71"/>
       <c r="G147" s="69" t="s">
-        <v>352</v>
-      </c>
-      <c r="H147" s="70"/>
+        <v>344</v>
+      </c>
+      <c r="H147" s="71"/>
       <c r="I147" s="71"/>
-      <c r="J147" s="69"/>
+      <c r="J147" s="71"/>
       <c r="K147" s="69"/>
       <c r="L147" s="71"/>
-      <c r="M147" s="69"/>
-      <c r="N147" s="69"/>
-      <c r="O147" s="69"/>
-      <c r="P147" s="69"/>
-      <c r="Q147" s="69"/>
-      <c r="R147" s="69"/>
-      <c r="S147" s="69"/>
-      <c r="T147" s="69"/>
+      <c r="M147" s="71"/>
+      <c r="N147" s="71"/>
+      <c r="O147" s="71"/>
+      <c r="P147" s="71"/>
+      <c r="Q147" s="71"/>
+      <c r="R147" s="71"/>
+      <c r="S147" s="71"/>
+      <c r="T147" s="71"/>
       <c r="U147" s="71"/>
-      <c r="V147" s="69"/>
+      <c r="V147" s="71"/>
       <c r="W147" s="71"/>
       <c r="X147" s="71"/>
       <c r="Y147" s="71"/>
@@ -7861,25 +7809,23 @@
     </row>
     <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B148" s="68" t="s">
-        <v>366</v>
-      </c>
-      <c r="C148" s="69" t="s">
-        <v>367</v>
+        <v>349</v>
+      </c>
+      <c r="C148" s="71" t="s">
+        <v>350</v>
       </c>
       <c r="D148" s="71"/>
       <c r="E148" s="71"/>
-      <c r="F148" s="69" t="s">
-        <v>337</v>
-      </c>
+      <c r="F148" s="70"/>
       <c r="G148" s="69" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H148" s="71"/>
       <c r="I148" s="71"/>
-      <c r="J148" s="69"/>
+      <c r="J148" s="70"/>
       <c r="K148" s="69"/>
       <c r="L148" s="71"/>
       <c r="M148" s="71"/>
@@ -7908,37 +7854,37 @@
     </row>
     <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B149" s="68" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C149" s="69" t="s">
-        <v>369</v>
-      </c>
-      <c r="D149" s="71"/>
-      <c r="E149" s="71"/>
+        <v>353</v>
+      </c>
+      <c r="D149" s="70"/>
+      <c r="E149" s="70"/>
       <c r="F149" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="G149" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="H149" s="71"/>
+        <v>387</v>
+      </c>
+      <c r="G149" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="H149" s="70"/>
       <c r="I149" s="71"/>
       <c r="J149" s="69"/>
-      <c r="K149" s="69"/>
+      <c r="K149" s="71"/>
       <c r="L149" s="71"/>
-      <c r="M149" s="71"/>
-      <c r="N149" s="71"/>
-      <c r="O149" s="71"/>
-      <c r="P149" s="71"/>
-      <c r="Q149" s="71"/>
-      <c r="R149" s="71"/>
-      <c r="S149" s="71"/>
-      <c r="T149" s="71"/>
+      <c r="M149" s="69"/>
+      <c r="N149" s="69"/>
+      <c r="O149" s="69"/>
+      <c r="P149" s="69"/>
+      <c r="Q149" s="69"/>
+      <c r="R149" s="69"/>
+      <c r="S149" s="69"/>
+      <c r="T149" s="69"/>
       <c r="U149" s="71"/>
-      <c r="V149" s="71"/>
+      <c r="V149" s="69"/>
       <c r="W149" s="71"/>
       <c r="X149" s="71"/>
       <c r="Y149" s="71"/>
@@ -7955,37 +7901,37 @@
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B150" s="68" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C150" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="D150" s="71"/>
-      <c r="E150" s="71"/>
+        <v>356</v>
+      </c>
+      <c r="D150" s="70"/>
+      <c r="E150" s="70"/>
       <c r="F150" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="G150" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="H150" s="71"/>
+        <v>388</v>
+      </c>
+      <c r="G150" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="H150" s="70"/>
       <c r="I150" s="71"/>
       <c r="J150" s="69"/>
-      <c r="K150" s="69"/>
+      <c r="K150" s="71"/>
       <c r="L150" s="71"/>
-      <c r="M150" s="71"/>
-      <c r="N150" s="71"/>
-      <c r="O150" s="71"/>
-      <c r="P150" s="71"/>
-      <c r="Q150" s="71"/>
-      <c r="R150" s="71"/>
-      <c r="S150" s="71"/>
-      <c r="T150" s="71"/>
+      <c r="M150" s="69"/>
+      <c r="N150" s="69"/>
+      <c r="O150" s="69"/>
+      <c r="P150" s="69"/>
+      <c r="Q150" s="69"/>
+      <c r="R150" s="69"/>
+      <c r="S150" s="69"/>
+      <c r="T150" s="69"/>
       <c r="U150" s="71"/>
-      <c r="V150" s="71"/>
+      <c r="V150" s="69"/>
       <c r="W150" s="71"/>
       <c r="X150" s="71"/>
       <c r="Y150" s="71"/>
@@ -8002,21 +7948,21 @@
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B151" s="68" t="s">
-        <v>372</v>
-      </c>
-      <c r="C151" s="69" t="s">
-        <v>177</v>
+        <v>357</v>
+      </c>
+      <c r="C151" s="71" t="s">
+        <v>358</v>
       </c>
       <c r="D151" s="71"/>
       <c r="E151" s="71"/>
       <c r="F151" s="69" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G151" s="69" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H151" s="71"/>
       <c r="I151" s="71"/>
@@ -8049,37 +7995,37 @@
     </row>
     <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B152" s="68" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C152" s="69" t="s">
-        <v>179</v>
-      </c>
-      <c r="D152" s="71"/>
-      <c r="E152" s="71"/>
+        <v>360</v>
+      </c>
+      <c r="D152" s="70"/>
+      <c r="E152" s="70"/>
       <c r="F152" s="69" t="s">
-        <v>394</v>
-      </c>
-      <c r="G152" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="H152" s="71"/>
+        <v>388</v>
+      </c>
+      <c r="G152" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="H152" s="70"/>
       <c r="I152" s="71"/>
       <c r="J152" s="69"/>
-      <c r="K152" s="69"/>
+      <c r="K152" s="71"/>
       <c r="L152" s="71"/>
-      <c r="M152" s="71"/>
-      <c r="N152" s="71"/>
-      <c r="O152" s="71"/>
-      <c r="P152" s="71"/>
-      <c r="Q152" s="71"/>
-      <c r="R152" s="71"/>
-      <c r="S152" s="71"/>
-      <c r="T152" s="71"/>
+      <c r="M152" s="69"/>
+      <c r="N152" s="69"/>
+      <c r="O152" s="69"/>
+      <c r="P152" s="69"/>
+      <c r="Q152" s="69"/>
+      <c r="R152" s="69"/>
+      <c r="S152" s="69"/>
+      <c r="T152" s="69"/>
       <c r="U152" s="71"/>
-      <c r="V152" s="71"/>
+      <c r="V152" s="69"/>
       <c r="W152" s="71"/>
       <c r="X152" s="71"/>
       <c r="Y152" s="71"/>
@@ -8096,37 +8042,37 @@
     </row>
     <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B153" s="68" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C153" s="69" t="s">
-        <v>181</v>
-      </c>
-      <c r="D153" s="71"/>
-      <c r="E153" s="71"/>
+        <v>362</v>
+      </c>
+      <c r="D153" s="70"/>
+      <c r="E153" s="70"/>
       <c r="F153" s="69" t="s">
-        <v>395</v>
-      </c>
-      <c r="G153" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="H153" s="71"/>
+        <v>388</v>
+      </c>
+      <c r="G153" s="71" t="s">
+        <v>354</v>
+      </c>
+      <c r="H153" s="70"/>
       <c r="I153" s="71"/>
       <c r="J153" s="69"/>
-      <c r="K153" s="69"/>
+      <c r="K153" s="71"/>
       <c r="L153" s="71"/>
-      <c r="M153" s="71"/>
-      <c r="N153" s="71"/>
-      <c r="O153" s="71"/>
-      <c r="P153" s="71"/>
-      <c r="Q153" s="71"/>
-      <c r="R153" s="71"/>
-      <c r="S153" s="71"/>
-      <c r="T153" s="71"/>
+      <c r="M153" s="69"/>
+      <c r="N153" s="69"/>
+      <c r="O153" s="69"/>
+      <c r="P153" s="69"/>
+      <c r="Q153" s="69"/>
+      <c r="R153" s="69"/>
+      <c r="S153" s="69"/>
+      <c r="T153" s="69"/>
       <c r="U153" s="71"/>
-      <c r="V153" s="71"/>
+      <c r="V153" s="69"/>
       <c r="W153" s="71"/>
       <c r="X153" s="71"/>
       <c r="Y153" s="71"/>
@@ -8143,37 +8089,37 @@
     </row>
     <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B154" s="68" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C154" s="69" t="s">
-        <v>183</v>
-      </c>
-      <c r="D154" s="71"/>
-      <c r="E154" s="71"/>
+        <v>364</v>
+      </c>
+      <c r="D154" s="70"/>
+      <c r="E154" s="70"/>
       <c r="F154" s="69" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="G154" s="69" t="s">
-        <v>355</v>
-      </c>
-      <c r="H154" s="71"/>
+        <v>351</v>
+      </c>
+      <c r="H154" s="70"/>
       <c r="I154" s="71"/>
       <c r="J154" s="69"/>
       <c r="K154" s="69"/>
       <c r="L154" s="71"/>
-      <c r="M154" s="71"/>
-      <c r="N154" s="71"/>
-      <c r="O154" s="71"/>
-      <c r="P154" s="71"/>
-      <c r="Q154" s="71"/>
-      <c r="R154" s="71"/>
-      <c r="S154" s="71"/>
-      <c r="T154" s="71"/>
+      <c r="M154" s="69"/>
+      <c r="N154" s="69"/>
+      <c r="O154" s="69"/>
+      <c r="P154" s="69"/>
+      <c r="Q154" s="69"/>
+      <c r="R154" s="69"/>
+      <c r="S154" s="69"/>
+      <c r="T154" s="69"/>
       <c r="U154" s="71"/>
-      <c r="V154" s="71"/>
+      <c r="V154" s="69"/>
       <c r="W154" s="71"/>
       <c r="X154" s="71"/>
       <c r="Y154" s="71"/>
@@ -8190,21 +8136,21 @@
     </row>
     <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B155" s="68" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C155" s="69" t="s">
-        <v>185</v>
+        <v>366</v>
       </c>
       <c r="D155" s="71"/>
       <c r="E155" s="71"/>
       <c r="F155" s="69" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="G155" s="69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H155" s="71"/>
       <c r="I155" s="71"/>
@@ -8237,13 +8183,13 @@
     </row>
     <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B156" s="68" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C156" s="69" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D156" s="71"/>
       <c r="E156" s="71"/>
@@ -8251,7 +8197,7 @@
         <v>390</v>
       </c>
       <c r="G156" s="69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H156" s="71"/>
       <c r="I156" s="71"/>
@@ -8284,21 +8230,21 @@
     </row>
     <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B157" s="68" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C157" s="69" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D157" s="71"/>
       <c r="E157" s="71"/>
       <c r="F157" s="69" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G157" s="69" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="H157" s="71"/>
       <c r="I157" s="71"/>
@@ -8331,20 +8277,22 @@
     </row>
     <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B158" s="68" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C158" s="69" t="s">
-        <v>383</v>
+        <v>177</v>
       </c>
       <c r="D158" s="71"/>
       <c r="E158" s="71"/>
       <c r="F158" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="G158" s="69"/>
+        <v>392</v>
+      </c>
+      <c r="G158" s="69" t="s">
+        <v>354</v>
+      </c>
       <c r="H158" s="71"/>
       <c r="I158" s="71"/>
       <c r="J158" s="69"/>
@@ -8376,20 +8324,22 @@
     </row>
     <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B159" s="68" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C159" s="69" t="s">
-        <v>385</v>
+        <v>179</v>
       </c>
       <c r="D159" s="71"/>
       <c r="E159" s="71"/>
       <c r="F159" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="G159" s="69"/>
+        <v>393</v>
+      </c>
+      <c r="G159" s="69" t="s">
+        <v>354</v>
+      </c>
       <c r="H159" s="71"/>
       <c r="I159" s="71"/>
       <c r="J159" s="69"/>
@@ -8421,20 +8371,22 @@
     </row>
     <row r="160" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B160" s="68" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>387</v>
+        <v>181</v>
       </c>
       <c r="D160" s="71"/>
       <c r="E160" s="71"/>
       <c r="F160" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="G160" s="69"/>
+        <v>394</v>
+      </c>
+      <c r="G160" s="69" t="s">
+        <v>354</v>
+      </c>
       <c r="H160" s="71"/>
       <c r="I160" s="71"/>
       <c r="J160" s="69"/>
@@ -8466,29 +8418,37 @@
     </row>
     <row r="161" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B161" s="68"/>
-      <c r="C161" s="69"/>
-      <c r="D161" s="70"/>
-      <c r="E161" s="70"/>
-      <c r="F161" s="71"/>
-      <c r="G161" s="71"/>
-      <c r="H161" s="70"/>
+        <v>339</v>
+      </c>
+      <c r="B161" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="C161" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D161" s="71"/>
+      <c r="E161" s="71"/>
+      <c r="F161" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="G161" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="H161" s="71"/>
       <c r="I161" s="71"/>
-      <c r="J161" s="71"/>
-      <c r="K161" s="71"/>
+      <c r="J161" s="69"/>
+      <c r="K161" s="69"/>
       <c r="L161" s="71"/>
-      <c r="M161" s="69"/>
-      <c r="N161" s="69"/>
-      <c r="O161" s="69"/>
-      <c r="P161" s="69"/>
-      <c r="Q161" s="69"/>
-      <c r="R161" s="69"/>
-      <c r="S161" s="69"/>
-      <c r="T161" s="69"/>
+      <c r="M161" s="71"/>
+      <c r="N161" s="71"/>
+      <c r="O161" s="71"/>
+      <c r="P161" s="71"/>
+      <c r="Q161" s="71"/>
+      <c r="R161" s="71"/>
+      <c r="S161" s="71"/>
+      <c r="T161" s="71"/>
       <c r="U161" s="71"/>
-      <c r="V161" s="69"/>
+      <c r="V161" s="71"/>
       <c r="W161" s="71"/>
       <c r="X161" s="71"/>
       <c r="Y161" s="71"/>
@@ -8504,287 +8464,343 @@
       <c r="AI161" s="71"/>
     </row>
     <row r="162" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="35"/>
-      <c r="B162" s="35"/>
-      <c r="C162" s="35"/>
-      <c r="E162" s="35"/>
-      <c r="AE162" s="35"/>
-      <c r="AF162" s="35"/>
-      <c r="AG162" s="35"/>
-      <c r="AH162" s="35"/>
-      <c r="AI162" s="35"/>
+      <c r="A162" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B162" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="C162" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D162" s="71"/>
+      <c r="E162" s="71"/>
+      <c r="F162" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="G162" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="H162" s="71"/>
+      <c r="I162" s="71"/>
+      <c r="J162" s="69"/>
+      <c r="K162" s="69"/>
+      <c r="L162" s="71"/>
+      <c r="M162" s="71"/>
+      <c r="N162" s="71"/>
+      <c r="O162" s="71"/>
+      <c r="P162" s="71"/>
+      <c r="Q162" s="71"/>
+      <c r="R162" s="71"/>
+      <c r="S162" s="71"/>
+      <c r="T162" s="71"/>
+      <c r="U162" s="71"/>
+      <c r="V162" s="71"/>
+      <c r="W162" s="71"/>
+      <c r="X162" s="71"/>
+      <c r="Y162" s="71"/>
+      <c r="Z162" s="71"/>
+      <c r="AA162" s="71"/>
+      <c r="AB162" s="71"/>
+      <c r="AC162" s="71"/>
+      <c r="AD162" s="71"/>
+      <c r="AE162" s="71"/>
+      <c r="AF162" s="71"/>
+      <c r="AG162" s="71"/>
+      <c r="AH162" s="71"/>
+      <c r="AI162" s="71"/>
     </row>
     <row r="163" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="73"/>
-      <c r="B163" s="73"/>
-      <c r="C163" s="74"/>
-      <c r="D163" s="74"/>
-      <c r="E163" s="74"/>
-      <c r="F163" s="74"/>
-      <c r="G163" s="75"/>
-      <c r="H163" s="74"/>
-      <c r="I163" s="74"/>
-      <c r="J163" s="74"/>
-      <c r="K163" s="75"/>
-      <c r="L163" s="74"/>
-      <c r="M163" s="74"/>
-      <c r="N163" s="74"/>
-      <c r="O163" s="74"/>
-      <c r="P163" s="74"/>
-      <c r="Q163" s="74"/>
-      <c r="R163" s="74"/>
-      <c r="S163" s="74"/>
-      <c r="T163" s="74"/>
-      <c r="U163" s="74"/>
-      <c r="V163" s="74"/>
-      <c r="W163" s="74"/>
-      <c r="X163" s="74"/>
-      <c r="Y163" s="74"/>
-      <c r="Z163" s="74"/>
-      <c r="AA163" s="74"/>
-      <c r="AB163" s="74"/>
-      <c r="AC163" s="74"/>
-      <c r="AD163" s="74"/>
-      <c r="AE163" s="75"/>
-      <c r="AF163" s="74"/>
-      <c r="AG163" s="74"/>
-      <c r="AH163" s="74"/>
-      <c r="AI163" s="74"/>
+      <c r="A163" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B163" s="68" t="s">
+        <v>376</v>
+      </c>
+      <c r="C163" s="69" t="s">
+        <v>377</v>
+      </c>
+      <c r="D163" s="71"/>
+      <c r="E163" s="71"/>
+      <c r="F163" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="G163" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="H163" s="71"/>
+      <c r="I163" s="71"/>
+      <c r="J163" s="69"/>
+      <c r="K163" s="69"/>
+      <c r="L163" s="71"/>
+      <c r="M163" s="71"/>
+      <c r="N163" s="71"/>
+      <c r="O163" s="71"/>
+      <c r="P163" s="71"/>
+      <c r="Q163" s="71"/>
+      <c r="R163" s="71"/>
+      <c r="S163" s="71"/>
+      <c r="T163" s="71"/>
+      <c r="U163" s="71"/>
+      <c r="V163" s="71"/>
+      <c r="W163" s="71"/>
+      <c r="X163" s="71"/>
+      <c r="Y163" s="71"/>
+      <c r="Z163" s="71"/>
+      <c r="AA163" s="71"/>
+      <c r="AB163" s="71"/>
+      <c r="AC163" s="71"/>
+      <c r="AD163" s="71"/>
+      <c r="AE163" s="71"/>
+      <c r="AF163" s="71"/>
+      <c r="AG163" s="71"/>
+      <c r="AH163" s="71"/>
+      <c r="AI163" s="71"/>
     </row>
     <row r="164" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="73"/>
-      <c r="B164" s="76"/>
-      <c r="C164" s="74"/>
-      <c r="D164" s="74"/>
-      <c r="E164" s="74"/>
-      <c r="F164" s="74"/>
-      <c r="G164" s="74"/>
-      <c r="H164" s="74"/>
-      <c r="I164" s="74"/>
-      <c r="J164" s="74"/>
-      <c r="K164" s="74"/>
-      <c r="L164" s="74"/>
-      <c r="M164" s="74"/>
-      <c r="N164" s="74"/>
-      <c r="O164" s="74"/>
-      <c r="P164" s="74"/>
-      <c r="Q164" s="74"/>
-      <c r="R164" s="74"/>
-      <c r="S164" s="74"/>
-      <c r="T164" s="74"/>
-      <c r="U164" s="74"/>
-      <c r="V164" s="74"/>
-      <c r="W164" s="74"/>
-      <c r="X164" s="74"/>
-      <c r="Y164" s="74"/>
-      <c r="Z164" s="74"/>
-      <c r="AA164" s="74"/>
-      <c r="AB164" s="74"/>
-      <c r="AC164" s="74"/>
-      <c r="AD164" s="74"/>
-      <c r="AE164" s="74"/>
-      <c r="AF164" s="74"/>
-      <c r="AG164" s="75"/>
-      <c r="AH164" s="74"/>
-      <c r="AI164" s="74"/>
+      <c r="A164" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B164" s="68" t="s">
+        <v>378</v>
+      </c>
+      <c r="C164" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="D164" s="71"/>
+      <c r="E164" s="71"/>
+      <c r="F164" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="G164" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="H164" s="71"/>
+      <c r="I164" s="71"/>
+      <c r="J164" s="69"/>
+      <c r="K164" s="69"/>
+      <c r="L164" s="71"/>
+      <c r="M164" s="71"/>
+      <c r="N164" s="71"/>
+      <c r="O164" s="71"/>
+      <c r="P164" s="71"/>
+      <c r="Q164" s="71"/>
+      <c r="R164" s="71"/>
+      <c r="S164" s="71"/>
+      <c r="T164" s="71"/>
+      <c r="U164" s="71"/>
+      <c r="V164" s="71"/>
+      <c r="W164" s="71"/>
+      <c r="X164" s="71"/>
+      <c r="Y164" s="71"/>
+      <c r="Z164" s="71"/>
+      <c r="AA164" s="71"/>
+      <c r="AB164" s="71"/>
+      <c r="AC164" s="71"/>
+      <c r="AD164" s="71"/>
+      <c r="AE164" s="71"/>
+      <c r="AF164" s="71"/>
+      <c r="AG164" s="71"/>
+      <c r="AH164" s="71"/>
+      <c r="AI164" s="71"/>
     </row>
     <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="73"/>
-      <c r="B165" s="76"/>
-      <c r="C165" s="74"/>
-      <c r="D165" s="74"/>
-      <c r="E165" s="74"/>
-      <c r="F165" s="74"/>
-      <c r="G165" s="74"/>
-      <c r="H165" s="74"/>
-      <c r="I165" s="74"/>
-      <c r="J165" s="74"/>
-      <c r="K165" s="74"/>
-      <c r="L165" s="74"/>
-      <c r="M165" s="74"/>
-      <c r="N165" s="74"/>
-      <c r="O165" s="74"/>
-      <c r="P165" s="74"/>
-      <c r="Q165" s="74"/>
-      <c r="R165" s="74"/>
-      <c r="S165" s="74"/>
-      <c r="T165" s="74"/>
-      <c r="U165" s="74"/>
-      <c r="V165" s="74"/>
-      <c r="W165" s="74"/>
-      <c r="X165" s="74"/>
-      <c r="Y165" s="74"/>
-      <c r="Z165" s="74"/>
-      <c r="AA165" s="74"/>
-      <c r="AB165" s="74"/>
-      <c r="AC165" s="74"/>
-      <c r="AD165" s="74"/>
-      <c r="AE165" s="74"/>
-      <c r="AF165" s="74"/>
-      <c r="AG165" s="75"/>
-      <c r="AH165" s="74"/>
-      <c r="AI165" s="74"/>
+      <c r="A165" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B165" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="C165" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="D165" s="71"/>
+      <c r="E165" s="71"/>
+      <c r="F165" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="G165" s="69"/>
+      <c r="H165" s="71"/>
+      <c r="I165" s="71"/>
+      <c r="J165" s="69"/>
+      <c r="K165" s="69"/>
+      <c r="L165" s="71"/>
+      <c r="M165" s="71"/>
+      <c r="N165" s="71"/>
+      <c r="O165" s="71"/>
+      <c r="P165" s="71"/>
+      <c r="Q165" s="71"/>
+      <c r="R165" s="71"/>
+      <c r="S165" s="71"/>
+      <c r="T165" s="71"/>
+      <c r="U165" s="71"/>
+      <c r="V165" s="71"/>
+      <c r="W165" s="71"/>
+      <c r="X165" s="71"/>
+      <c r="Y165" s="71"/>
+      <c r="Z165" s="71"/>
+      <c r="AA165" s="71"/>
+      <c r="AB165" s="71"/>
+      <c r="AC165" s="71"/>
+      <c r="AD165" s="71"/>
+      <c r="AE165" s="71"/>
+      <c r="AF165" s="71"/>
+      <c r="AG165" s="71"/>
+      <c r="AH165" s="71"/>
+      <c r="AI165" s="71"/>
     </row>
     <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="73"/>
-      <c r="B166" s="76"/>
-      <c r="C166" s="74"/>
-      <c r="D166" s="74"/>
-      <c r="E166" s="74"/>
-      <c r="F166" s="74"/>
-      <c r="G166" s="74"/>
-      <c r="H166" s="74"/>
-      <c r="I166" s="74"/>
-      <c r="J166" s="74"/>
-      <c r="K166" s="74"/>
-      <c r="L166" s="74"/>
-      <c r="M166" s="74"/>
-      <c r="N166" s="74"/>
-      <c r="O166" s="74"/>
-      <c r="P166" s="74"/>
-      <c r="Q166" s="74"/>
-      <c r="R166" s="74"/>
-      <c r="S166" s="74"/>
-      <c r="T166" s="74"/>
-      <c r="U166" s="74"/>
-      <c r="V166" s="74"/>
-      <c r="W166" s="74"/>
-      <c r="X166" s="74"/>
-      <c r="Y166" s="74"/>
-      <c r="Z166" s="74"/>
-      <c r="AA166" s="74"/>
-      <c r="AB166" s="74"/>
-      <c r="AC166" s="74"/>
-      <c r="AD166" s="74"/>
-      <c r="AE166" s="74"/>
-      <c r="AF166" s="74"/>
-      <c r="AG166" s="75"/>
-      <c r="AH166" s="74"/>
-      <c r="AI166" s="74"/>
+      <c r="A166" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B166" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="C166" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="D166" s="71"/>
+      <c r="E166" s="71"/>
+      <c r="F166" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="G166" s="69"/>
+      <c r="H166" s="71"/>
+      <c r="I166" s="71"/>
+      <c r="J166" s="69"/>
+      <c r="K166" s="69"/>
+      <c r="L166" s="71"/>
+      <c r="M166" s="71"/>
+      <c r="N166" s="71"/>
+      <c r="O166" s="71"/>
+      <c r="P166" s="71"/>
+      <c r="Q166" s="71"/>
+      <c r="R166" s="71"/>
+      <c r="S166" s="71"/>
+      <c r="T166" s="71"/>
+      <c r="U166" s="71"/>
+      <c r="V166" s="71"/>
+      <c r="W166" s="71"/>
+      <c r="X166" s="71"/>
+      <c r="Y166" s="71"/>
+      <c r="Z166" s="71"/>
+      <c r="AA166" s="71"/>
+      <c r="AB166" s="71"/>
+      <c r="AC166" s="71"/>
+      <c r="AD166" s="71"/>
+      <c r="AE166" s="71"/>
+      <c r="AF166" s="71"/>
+      <c r="AG166" s="71"/>
+      <c r="AH166" s="71"/>
+      <c r="AI166" s="71"/>
     </row>
     <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="73"/>
-      <c r="B167" s="76"/>
-      <c r="C167" s="74"/>
-      <c r="D167" s="74"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="74"/>
-      <c r="G167" s="74"/>
-      <c r="H167" s="74"/>
-      <c r="I167" s="74"/>
-      <c r="J167" s="74"/>
-      <c r="K167" s="74"/>
-      <c r="L167" s="74"/>
-      <c r="M167" s="74"/>
-      <c r="N167" s="74"/>
-      <c r="O167" s="74"/>
-      <c r="P167" s="74"/>
-      <c r="Q167" s="74"/>
-      <c r="R167" s="74"/>
-      <c r="S167" s="74"/>
-      <c r="T167" s="74"/>
-      <c r="U167" s="74"/>
-      <c r="V167" s="74"/>
-      <c r="W167" s="74"/>
-      <c r="X167" s="74"/>
-      <c r="Y167" s="74"/>
-      <c r="Z167" s="74"/>
-      <c r="AA167" s="74"/>
-      <c r="AB167" s="74"/>
-      <c r="AC167" s="74"/>
-      <c r="AD167" s="74"/>
-      <c r="AE167" s="74"/>
-      <c r="AF167" s="74"/>
-      <c r="AG167" s="75"/>
-      <c r="AH167" s="74"/>
-      <c r="AI167" s="74"/>
+      <c r="A167" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="B167" s="68" t="s">
+        <v>385</v>
+      </c>
+      <c r="C167" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="D167" s="71"/>
+      <c r="E167" s="71"/>
+      <c r="F167" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="G167" s="69"/>
+      <c r="H167" s="71"/>
+      <c r="I167" s="71"/>
+      <c r="J167" s="69"/>
+      <c r="K167" s="69"/>
+      <c r="L167" s="71"/>
+      <c r="M167" s="71"/>
+      <c r="N167" s="71"/>
+      <c r="O167" s="71"/>
+      <c r="P167" s="71"/>
+      <c r="Q167" s="71"/>
+      <c r="R167" s="71"/>
+      <c r="S167" s="71"/>
+      <c r="T167" s="71"/>
+      <c r="U167" s="71"/>
+      <c r="V167" s="71"/>
+      <c r="W167" s="71"/>
+      <c r="X167" s="71"/>
+      <c r="Y167" s="71"/>
+      <c r="Z167" s="71"/>
+      <c r="AA167" s="71"/>
+      <c r="AB167" s="71"/>
+      <c r="AC167" s="71"/>
+      <c r="AD167" s="71"/>
+      <c r="AE167" s="71"/>
+      <c r="AF167" s="71"/>
+      <c r="AG167" s="71"/>
+      <c r="AH167" s="71"/>
+      <c r="AI167" s="71"/>
     </row>
     <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="73"/>
-      <c r="B168" s="76"/>
-      <c r="C168" s="74"/>
-      <c r="D168" s="74"/>
-      <c r="E168" s="74"/>
-      <c r="F168" s="74"/>
-      <c r="G168" s="74"/>
-      <c r="H168" s="74"/>
-      <c r="I168" s="74"/>
-      <c r="J168" s="74"/>
-      <c r="K168" s="74"/>
-      <c r="L168" s="74"/>
-      <c r="M168" s="74"/>
-      <c r="N168" s="74"/>
-      <c r="O168" s="74"/>
-      <c r="P168" s="74"/>
-      <c r="Q168" s="74"/>
-      <c r="R168" s="74"/>
-      <c r="S168" s="74"/>
-      <c r="T168" s="74"/>
-      <c r="U168" s="74"/>
-      <c r="V168" s="74"/>
-      <c r="W168" s="74"/>
-      <c r="X168" s="74"/>
-      <c r="Y168" s="74"/>
-      <c r="Z168" s="74"/>
-      <c r="AA168" s="74"/>
-      <c r="AB168" s="74"/>
-      <c r="AC168" s="74"/>
-      <c r="AD168" s="74"/>
-      <c r="AE168" s="74"/>
-      <c r="AF168" s="74"/>
-      <c r="AG168" s="75"/>
-      <c r="AH168" s="74"/>
-      <c r="AI168" s="74"/>
+      <c r="A168" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B168" s="68"/>
+      <c r="C168" s="69"/>
+      <c r="D168" s="70"/>
+      <c r="E168" s="70"/>
+      <c r="F168" s="71"/>
+      <c r="G168" s="71"/>
+      <c r="H168" s="70"/>
+      <c r="I168" s="71"/>
+      <c r="J168" s="71"/>
+      <c r="K168" s="71"/>
+      <c r="L168" s="71"/>
+      <c r="M168" s="69"/>
+      <c r="N168" s="69"/>
+      <c r="O168" s="69"/>
+      <c r="P168" s="69"/>
+      <c r="Q168" s="69"/>
+      <c r="R168" s="69"/>
+      <c r="S168" s="69"/>
+      <c r="T168" s="69"/>
+      <c r="U168" s="71"/>
+      <c r="V168" s="69"/>
+      <c r="W168" s="71"/>
+      <c r="X168" s="71"/>
+      <c r="Y168" s="71"/>
+      <c r="Z168" s="71"/>
+      <c r="AA168" s="71"/>
+      <c r="AB168" s="71"/>
+      <c r="AC168" s="71"/>
+      <c r="AD168" s="71"/>
+      <c r="AE168" s="71"/>
+      <c r="AF168" s="71"/>
+      <c r="AG168" s="71"/>
+      <c r="AH168" s="71"/>
+      <c r="AI168" s="71"/>
     </row>
     <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="73"/>
-      <c r="B169" s="76"/>
-      <c r="C169" s="74"/>
-      <c r="D169" s="74"/>
-      <c r="E169" s="74"/>
-      <c r="F169" s="74"/>
-      <c r="G169" s="74"/>
-      <c r="H169" s="74"/>
-      <c r="I169" s="74"/>
-      <c r="J169" s="74"/>
-      <c r="K169" s="74"/>
-      <c r="L169" s="74"/>
-      <c r="M169" s="74"/>
-      <c r="N169" s="74"/>
-      <c r="O169" s="74"/>
-      <c r="P169" s="74"/>
-      <c r="Q169" s="74"/>
-      <c r="R169" s="74"/>
-      <c r="S169" s="74"/>
-      <c r="T169" s="74"/>
-      <c r="U169" s="74"/>
-      <c r="V169" s="74"/>
-      <c r="W169" s="74"/>
-      <c r="X169" s="74"/>
-      <c r="Y169" s="74"/>
-      <c r="Z169" s="74"/>
-      <c r="AA169" s="74"/>
-      <c r="AB169" s="74"/>
-      <c r="AC169" s="74"/>
-      <c r="AD169" s="74"/>
-      <c r="AE169" s="74"/>
-      <c r="AF169" s="74"/>
-      <c r="AG169" s="75"/>
-      <c r="AH169" s="74"/>
-      <c r="AI169" s="74"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="35"/>
+      <c r="C169" s="35"/>
+      <c r="E169" s="35"/>
+      <c r="AE169" s="35"/>
+      <c r="AF169" s="35"/>
+      <c r="AG169" s="35"/>
+      <c r="AH169" s="35"/>
+      <c r="AI169" s="35"/>
     </row>
     <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="73"/>
-      <c r="B170" s="76"/>
+      <c r="B170" s="73"/>
       <c r="C170" s="74"/>
       <c r="D170" s="74"/>
       <c r="E170" s="74"/>
       <c r="F170" s="74"/>
-      <c r="G170" s="74"/>
+      <c r="G170" s="75"/>
       <c r="H170" s="74"/>
       <c r="I170" s="74"/>
       <c r="J170" s="74"/>
-      <c r="K170" s="74"/>
+      <c r="K170" s="75"/>
       <c r="L170" s="74"/>
       <c r="M170" s="74"/>
       <c r="N170" s="74"/>
@@ -8804,9 +8820,9 @@
       <c r="AB170" s="74"/>
       <c r="AC170" s="74"/>
       <c r="AD170" s="74"/>
-      <c r="AE170" s="74"/>
+      <c r="AE170" s="75"/>
       <c r="AF170" s="74"/>
-      <c r="AG170" s="75"/>
+      <c r="AG170" s="74"/>
       <c r="AH170" s="74"/>
       <c r="AI170" s="74"/>
     </row>
@@ -8959,41 +8975,41 @@
       <c r="AI174" s="74"/>
     </row>
     <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="77"/>
-      <c r="B175" s="77"/>
+      <c r="A175" s="73"/>
+      <c r="B175" s="76"/>
       <c r="C175" s="74"/>
-      <c r="D175" s="75"/>
-      <c r="E175" s="75"/>
-      <c r="F175" s="75"/>
-      <c r="G175" s="75"/>
-      <c r="H175" s="75"/>
-      <c r="I175" s="75"/>
-      <c r="J175" s="75"/>
-      <c r="K175" s="75"/>
-      <c r="L175" s="75"/>
-      <c r="M175" s="75"/>
-      <c r="N175" s="75"/>
-      <c r="O175" s="75"/>
-      <c r="P175" s="75"/>
-      <c r="Q175" s="75"/>
-      <c r="R175" s="75"/>
-      <c r="S175" s="75"/>
-      <c r="T175" s="75"/>
-      <c r="U175" s="75"/>
-      <c r="V175" s="75"/>
-      <c r="W175" s="75"/>
-      <c r="X175" s="75"/>
-      <c r="Y175" s="75"/>
-      <c r="Z175" s="75"/>
-      <c r="AA175" s="75"/>
-      <c r="AB175" s="75"/>
-      <c r="AC175" s="75"/>
-      <c r="AD175" s="75"/>
-      <c r="AE175" s="75"/>
-      <c r="AF175" s="75"/>
+      <c r="D175" s="74"/>
+      <c r="E175" s="74"/>
+      <c r="F175" s="74"/>
+      <c r="G175" s="74"/>
+      <c r="H175" s="74"/>
+      <c r="I175" s="74"/>
+      <c r="J175" s="74"/>
+      <c r="K175" s="74"/>
+      <c r="L175" s="74"/>
+      <c r="M175" s="74"/>
+      <c r="N175" s="74"/>
+      <c r="O175" s="74"/>
+      <c r="P175" s="74"/>
+      <c r="Q175" s="74"/>
+      <c r="R175" s="74"/>
+      <c r="S175" s="74"/>
+      <c r="T175" s="74"/>
+      <c r="U175" s="74"/>
+      <c r="V175" s="74"/>
+      <c r="W175" s="74"/>
+      <c r="X175" s="74"/>
+      <c r="Y175" s="74"/>
+      <c r="Z175" s="74"/>
+      <c r="AA175" s="74"/>
+      <c r="AB175" s="74"/>
+      <c r="AC175" s="74"/>
+      <c r="AD175" s="74"/>
+      <c r="AE175" s="74"/>
+      <c r="AF175" s="74"/>
       <c r="AG175" s="75"/>
-      <c r="AH175" s="75"/>
-      <c r="AI175" s="75"/>
+      <c r="AH175" s="74"/>
+      <c r="AI175" s="74"/>
     </row>
     <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="73"/>
@@ -9015,7 +9031,7 @@
       <c r="Q176" s="74"/>
       <c r="R176" s="74"/>
       <c r="S176" s="74"/>
-      <c r="T176" s="75"/>
+      <c r="T176" s="74"/>
       <c r="U176" s="74"/>
       <c r="V176" s="74"/>
       <c r="W176" s="74"/>
@@ -9052,7 +9068,7 @@
       <c r="Q177" s="74"/>
       <c r="R177" s="74"/>
       <c r="S177" s="74"/>
-      <c r="T177" s="75"/>
+      <c r="T177" s="74"/>
       <c r="U177" s="74"/>
       <c r="V177" s="74"/>
       <c r="W177" s="74"/>
@@ -9089,7 +9105,7 @@
       <c r="Q178" s="74"/>
       <c r="R178" s="74"/>
       <c r="S178" s="74"/>
-      <c r="T178" s="75"/>
+      <c r="T178" s="74"/>
       <c r="U178" s="74"/>
       <c r="V178" s="74"/>
       <c r="W178" s="74"/>
@@ -9126,7 +9142,7 @@
       <c r="Q179" s="74"/>
       <c r="R179" s="74"/>
       <c r="S179" s="74"/>
-      <c r="T179" s="75"/>
+      <c r="T179" s="74"/>
       <c r="U179" s="74"/>
       <c r="V179" s="74"/>
       <c r="W179" s="74"/>
@@ -9163,7 +9179,7 @@
       <c r="Q180" s="74"/>
       <c r="R180" s="74"/>
       <c r="S180" s="74"/>
-      <c r="T180" s="75"/>
+      <c r="T180" s="74"/>
       <c r="U180" s="74"/>
       <c r="V180" s="74"/>
       <c r="W180" s="74"/>
@@ -9181,46 +9197,46 @@
       <c r="AI180" s="74"/>
     </row>
     <row r="181" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="77"/>
-      <c r="B181" s="77"/>
-      <c r="C181" s="75"/>
-      <c r="D181" s="75"/>
-      <c r="E181" s="75"/>
-      <c r="F181" s="75"/>
-      <c r="G181" s="75"/>
-      <c r="H181" s="75"/>
-      <c r="I181" s="75"/>
-      <c r="J181" s="75"/>
-      <c r="K181" s="75"/>
-      <c r="L181" s="75"/>
-      <c r="M181" s="75"/>
-      <c r="N181" s="75"/>
-      <c r="O181" s="75"/>
-      <c r="P181" s="75"/>
-      <c r="Q181" s="75"/>
-      <c r="R181" s="75"/>
-      <c r="S181" s="75"/>
-      <c r="T181" s="75"/>
-      <c r="U181" s="75"/>
-      <c r="V181" s="75"/>
-      <c r="W181" s="75"/>
-      <c r="X181" s="75"/>
-      <c r="Y181" s="75"/>
-      <c r="Z181" s="75"/>
-      <c r="AA181" s="75"/>
-      <c r="AB181" s="75"/>
-      <c r="AC181" s="75"/>
-      <c r="AD181" s="75"/>
-      <c r="AE181" s="75"/>
-      <c r="AF181" s="75"/>
+      <c r="A181" s="73"/>
+      <c r="B181" s="76"/>
+      <c r="C181" s="74"/>
+      <c r="D181" s="74"/>
+      <c r="E181" s="74"/>
+      <c r="F181" s="74"/>
+      <c r="G181" s="74"/>
+      <c r="H181" s="74"/>
+      <c r="I181" s="74"/>
+      <c r="J181" s="74"/>
+      <c r="K181" s="74"/>
+      <c r="L181" s="74"/>
+      <c r="M181" s="74"/>
+      <c r="N181" s="74"/>
+      <c r="O181" s="74"/>
+      <c r="P181" s="74"/>
+      <c r="Q181" s="74"/>
+      <c r="R181" s="74"/>
+      <c r="S181" s="74"/>
+      <c r="T181" s="74"/>
+      <c r="U181" s="74"/>
+      <c r="V181" s="74"/>
+      <c r="W181" s="74"/>
+      <c r="X181" s="74"/>
+      <c r="Y181" s="74"/>
+      <c r="Z181" s="74"/>
+      <c r="AA181" s="74"/>
+      <c r="AB181" s="74"/>
+      <c r="AC181" s="74"/>
+      <c r="AD181" s="74"/>
+      <c r="AE181" s="74"/>
+      <c r="AF181" s="74"/>
       <c r="AG181" s="75"/>
-      <c r="AH181" s="75"/>
-      <c r="AI181" s="75"/>
+      <c r="AH181" s="74"/>
+      <c r="AI181" s="74"/>
     </row>
     <row r="182" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="77"/>
       <c r="B182" s="77"/>
-      <c r="C182" s="75"/>
+      <c r="C182" s="74"/>
       <c r="D182" s="75"/>
       <c r="E182" s="75"/>
       <c r="F182" s="75"/>
@@ -9254,16 +9270,275 @@
       <c r="AH182" s="75"/>
       <c r="AI182" s="75"/>
     </row>
+    <row r="183" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="73"/>
+      <c r="B183" s="76"/>
+      <c r="C183" s="74"/>
+      <c r="D183" s="74"/>
+      <c r="E183" s="74"/>
+      <c r="F183" s="74"/>
+      <c r="G183" s="74"/>
+      <c r="H183" s="74"/>
+      <c r="I183" s="74"/>
+      <c r="J183" s="74"/>
+      <c r="K183" s="74"/>
+      <c r="L183" s="74"/>
+      <c r="M183" s="74"/>
+      <c r="N183" s="74"/>
+      <c r="O183" s="74"/>
+      <c r="P183" s="74"/>
+      <c r="Q183" s="74"/>
+      <c r="R183" s="74"/>
+      <c r="S183" s="74"/>
+      <c r="T183" s="75"/>
+      <c r="U183" s="74"/>
+      <c r="V183" s="74"/>
+      <c r="W183" s="74"/>
+      <c r="X183" s="74"/>
+      <c r="Y183" s="74"/>
+      <c r="Z183" s="74"/>
+      <c r="AA183" s="74"/>
+      <c r="AB183" s="74"/>
+      <c r="AC183" s="74"/>
+      <c r="AD183" s="74"/>
+      <c r="AE183" s="74"/>
+      <c r="AF183" s="74"/>
+      <c r="AG183" s="75"/>
+      <c r="AH183" s="74"/>
+      <c r="AI183" s="74"/>
+    </row>
+    <row r="184" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="73"/>
+      <c r="B184" s="76"/>
+      <c r="C184" s="74"/>
+      <c r="D184" s="74"/>
+      <c r="E184" s="74"/>
+      <c r="F184" s="74"/>
+      <c r="G184" s="74"/>
+      <c r="H184" s="74"/>
+      <c r="I184" s="74"/>
+      <c r="J184" s="74"/>
+      <c r="K184" s="74"/>
+      <c r="L184" s="74"/>
+      <c r="M184" s="74"/>
+      <c r="N184" s="74"/>
+      <c r="O184" s="74"/>
+      <c r="P184" s="74"/>
+      <c r="Q184" s="74"/>
+      <c r="R184" s="74"/>
+      <c r="S184" s="74"/>
+      <c r="T184" s="75"/>
+      <c r="U184" s="74"/>
+      <c r="V184" s="74"/>
+      <c r="W184" s="74"/>
+      <c r="X184" s="74"/>
+      <c r="Y184" s="74"/>
+      <c r="Z184" s="74"/>
+      <c r="AA184" s="74"/>
+      <c r="AB184" s="74"/>
+      <c r="AC184" s="74"/>
+      <c r="AD184" s="74"/>
+      <c r="AE184" s="74"/>
+      <c r="AF184" s="74"/>
+      <c r="AG184" s="75"/>
+      <c r="AH184" s="74"/>
+      <c r="AI184" s="74"/>
+    </row>
+    <row r="185" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="73"/>
+      <c r="B185" s="76"/>
+      <c r="C185" s="74"/>
+      <c r="D185" s="74"/>
+      <c r="E185" s="74"/>
+      <c r="F185" s="74"/>
+      <c r="G185" s="74"/>
+      <c r="H185" s="74"/>
+      <c r="I185" s="74"/>
+      <c r="J185" s="74"/>
+      <c r="K185" s="74"/>
+      <c r="L185" s="74"/>
+      <c r="M185" s="74"/>
+      <c r="N185" s="74"/>
+      <c r="O185" s="74"/>
+      <c r="P185" s="74"/>
+      <c r="Q185" s="74"/>
+      <c r="R185" s="74"/>
+      <c r="S185" s="74"/>
+      <c r="T185" s="75"/>
+      <c r="U185" s="74"/>
+      <c r="V185" s="74"/>
+      <c r="W185" s="74"/>
+      <c r="X185" s="74"/>
+      <c r="Y185" s="74"/>
+      <c r="Z185" s="74"/>
+      <c r="AA185" s="74"/>
+      <c r="AB185" s="74"/>
+      <c r="AC185" s="74"/>
+      <c r="AD185" s="74"/>
+      <c r="AE185" s="74"/>
+      <c r="AF185" s="74"/>
+      <c r="AG185" s="75"/>
+      <c r="AH185" s="74"/>
+      <c r="AI185" s="74"/>
+    </row>
+    <row r="186" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="73"/>
+      <c r="B186" s="76"/>
+      <c r="C186" s="74"/>
+      <c r="D186" s="74"/>
+      <c r="E186" s="74"/>
+      <c r="F186" s="74"/>
+      <c r="G186" s="74"/>
+      <c r="H186" s="74"/>
+      <c r="I186" s="74"/>
+      <c r="J186" s="74"/>
+      <c r="K186" s="74"/>
+      <c r="L186" s="74"/>
+      <c r="M186" s="74"/>
+      <c r="N186" s="74"/>
+      <c r="O186" s="74"/>
+      <c r="P186" s="74"/>
+      <c r="Q186" s="74"/>
+      <c r="R186" s="74"/>
+      <c r="S186" s="74"/>
+      <c r="T186" s="75"/>
+      <c r="U186" s="74"/>
+      <c r="V186" s="74"/>
+      <c r="W186" s="74"/>
+      <c r="X186" s="74"/>
+      <c r="Y186" s="74"/>
+      <c r="Z186" s="74"/>
+      <c r="AA186" s="74"/>
+      <c r="AB186" s="74"/>
+      <c r="AC186" s="74"/>
+      <c r="AD186" s="74"/>
+      <c r="AE186" s="74"/>
+      <c r="AF186" s="74"/>
+      <c r="AG186" s="75"/>
+      <c r="AH186" s="74"/>
+      <c r="AI186" s="74"/>
+    </row>
+    <row r="187" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="73"/>
+      <c r="B187" s="76"/>
+      <c r="C187" s="74"/>
+      <c r="D187" s="74"/>
+      <c r="E187" s="74"/>
+      <c r="F187" s="74"/>
+      <c r="G187" s="74"/>
+      <c r="H187" s="74"/>
+      <c r="I187" s="74"/>
+      <c r="J187" s="74"/>
+      <c r="K187" s="74"/>
+      <c r="L187" s="74"/>
+      <c r="M187" s="74"/>
+      <c r="N187" s="74"/>
+      <c r="O187" s="74"/>
+      <c r="P187" s="74"/>
+      <c r="Q187" s="74"/>
+      <c r="R187" s="74"/>
+      <c r="S187" s="74"/>
+      <c r="T187" s="75"/>
+      <c r="U187" s="74"/>
+      <c r="V187" s="74"/>
+      <c r="W187" s="74"/>
+      <c r="X187" s="74"/>
+      <c r="Y187" s="74"/>
+      <c r="Z187" s="74"/>
+      <c r="AA187" s="74"/>
+      <c r="AB187" s="74"/>
+      <c r="AC187" s="74"/>
+      <c r="AD187" s="74"/>
+      <c r="AE187" s="74"/>
+      <c r="AF187" s="74"/>
+      <c r="AG187" s="75"/>
+      <c r="AH187" s="74"/>
+      <c r="AI187" s="74"/>
+    </row>
+    <row r="188" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="77"/>
+      <c r="B188" s="77"/>
+      <c r="C188" s="75"/>
+      <c r="D188" s="75"/>
+      <c r="E188" s="75"/>
+      <c r="F188" s="75"/>
+      <c r="G188" s="75"/>
+      <c r="H188" s="75"/>
+      <c r="I188" s="75"/>
+      <c r="J188" s="75"/>
+      <c r="K188" s="75"/>
+      <c r="L188" s="75"/>
+      <c r="M188" s="75"/>
+      <c r="N188" s="75"/>
+      <c r="O188" s="75"/>
+      <c r="P188" s="75"/>
+      <c r="Q188" s="75"/>
+      <c r="R188" s="75"/>
+      <c r="S188" s="75"/>
+      <c r="T188" s="75"/>
+      <c r="U188" s="75"/>
+      <c r="V188" s="75"/>
+      <c r="W188" s="75"/>
+      <c r="X188" s="75"/>
+      <c r="Y188" s="75"/>
+      <c r="Z188" s="75"/>
+      <c r="AA188" s="75"/>
+      <c r="AB188" s="75"/>
+      <c r="AC188" s="75"/>
+      <c r="AD188" s="75"/>
+      <c r="AE188" s="75"/>
+      <c r="AF188" s="75"/>
+      <c r="AG188" s="75"/>
+      <c r="AH188" s="75"/>
+      <c r="AI188" s="75"/>
+    </row>
+    <row r="189" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="77"/>
+      <c r="B189" s="77"/>
+      <c r="C189" s="75"/>
+      <c r="D189" s="75"/>
+      <c r="E189" s="75"/>
+      <c r="F189" s="75"/>
+      <c r="G189" s="75"/>
+      <c r="H189" s="75"/>
+      <c r="I189" s="75"/>
+      <c r="J189" s="75"/>
+      <c r="K189" s="75"/>
+      <c r="L189" s="75"/>
+      <c r="M189" s="75"/>
+      <c r="N189" s="75"/>
+      <c r="O189" s="75"/>
+      <c r="P189" s="75"/>
+      <c r="Q189" s="75"/>
+      <c r="R189" s="75"/>
+      <c r="S189" s="75"/>
+      <c r="T189" s="75"/>
+      <c r="U189" s="75"/>
+      <c r="V189" s="75"/>
+      <c r="W189" s="75"/>
+      <c r="X189" s="75"/>
+      <c r="Y189" s="75"/>
+      <c r="Z189" s="75"/>
+      <c r="AA189" s="75"/>
+      <c r="AB189" s="75"/>
+      <c r="AC189" s="75"/>
+      <c r="AD189" s="75"/>
+      <c r="AE189" s="75"/>
+      <c r="AF189" s="75"/>
+      <c r="AG189" s="75"/>
+      <c r="AH189" s="75"/>
+      <c r="AI189" s="75"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 I116:I134 I96:I112 I136:I182 E112:E134 D22:E94">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 E112:E135 I96:I112 I143:I189 D22:E94 I116:I135 D136:E141">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J21">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A136:A161 A112:A134">
+    <dataValidation type="list" allowBlank="1" sqref="A143:A168 A112:A135">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9281,7 +9556,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD24"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9570,18 +9845,18 @@
         <v>328</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>329</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
+        <v>436</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>437</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="C22" s="52" t="s">
         <v>438</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>439</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
@@ -9608,13 +9883,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B23" s="52" t="s">
+        <v>439</v>
+      </c>
+      <c r="C23" s="52" t="s">
         <v>440</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>441</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -9641,7 +9916,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>53</v>
@@ -10102,14 +10377,14 @@
         <v>166</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44135.52517685185</v>
+        <v>44136.615710300925</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="486">
   <si>
     <t>list_name</t>
   </si>
@@ -825,9 +825,6 @@
     <t>existing_conditions</t>
   </si>
   <si>
-    <t>Underlying Conditions</t>
-  </si>
-  <si>
     <t>hiv</t>
   </si>
   <si>
@@ -1447,6 +1444,51 @@
   </si>
   <si>
     <t>Caregiver Alternate Phone Number</t>
+  </si>
+  <si>
+    <t>comorbidities</t>
+  </si>
+  <si>
+    <t>Any underlying conditions or comorbities?</t>
+  </si>
+  <si>
+    <t>case_comorbidities</t>
+  </si>
+  <si>
+    <t>${yes_no_un} = 'yes'</t>
+  </si>
+  <si>
+    <t>Clinical Status</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>case_isolation</t>
+  </si>
+  <si>
+    <t>Is ${patient_name} in isolation with Infection Control Practice in place?</t>
+  </si>
+  <si>
+    <t>date_isolation</t>
+  </si>
+  <si>
+    <t>Date of isolation</t>
+  </si>
+  <si>
+    <t>caregiver_availability</t>
+  </si>
+  <si>
+    <t>caregiver_available</t>
+  </si>
+  <si>
+    <t>Does ${patient_name}  have a Home Based Caregiver?</t>
+  </si>
+  <si>
+    <t>Patient  Caregiver Contact Details</t>
+  </si>
+  <si>
+    <t>${caregiver_available} = 'yes'</t>
   </si>
 </sst>
 </file>
@@ -2139,13 +2181,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ189"/>
+  <dimension ref="A1:AJ203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C128" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A140" sqref="A140"/>
+      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2433,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -2480,10 +2522,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>301</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>302</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
@@ -2560,10 +2602,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="61" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>303</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>304</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -2606,10 +2648,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="62" t="s">
         <v>305</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>306</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -2899,7 +2941,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>35</v>
@@ -2912,7 +2954,7 @@
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
       <c r="K19" s="65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
@@ -2945,7 +2987,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>35</v>
@@ -2958,7 +3000,7 @@
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
@@ -2990,7 +3032,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>35</v>
@@ -3003,7 +3045,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="65"/>
       <c r="K21" s="38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
@@ -3064,7 +3106,7 @@
         <v>195</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>35</v>
@@ -3098,13 +3140,13 @@
     </row>
     <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="C24" s="40" t="s">
         <v>318</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>319</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>56</v>
@@ -3138,7 +3180,7 @@
         <v>211</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="40"/>
@@ -3200,7 +3242,7 @@
         <v>195</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>35</v>
@@ -3208,7 +3250,7 @@
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>38</v>
@@ -3236,13 +3278,13 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" s="40" t="s">
         <v>329</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="C28" s="40" t="s">
-        <v>330</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>56</v>
@@ -3276,7 +3318,7 @@
         <v>211</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="40"/>
@@ -3338,15 +3380,15 @@
         <v>195</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>38</v>
@@ -3377,10 +3419,10 @@
         <v>243</v>
       </c>
       <c r="B32" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="C32" s="40" t="s">
         <v>453</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>454</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -3412,10 +3454,10 @@
         <v>243</v>
       </c>
       <c r="B33" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="C33" s="40" t="s">
         <v>455</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>456</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -3447,10 +3489,10 @@
         <v>243</v>
       </c>
       <c r="B34" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="C34" s="40" t="s">
         <v>457</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>458</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
@@ -3482,7 +3524,7 @@
         <v>211</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="40"/>
@@ -3510,49 +3552,49 @@
       <c r="Z35" s="41"/>
       <c r="AA35" s="41"/>
     </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41"/>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41"/>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41"/>
+    <row r="36" spans="1:27" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="85"/>
+      <c r="X36" s="85"/>
+      <c r="Y36" s="85"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="85"/>
     </row>
     <row r="37" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>167</v>
+        <v>481</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>38</v>
@@ -3580,13 +3622,13 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>331</v>
+        <v>482</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>332</v>
+        <v>483</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>56</v>
@@ -3616,22 +3658,16 @@
       <c r="AA38" s="41"/>
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>334</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>56</v>
-      </c>
+      <c r="A39" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>481</v>
+      </c>
+      <c r="C39" s="51"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="40"/>
-      <c r="F39" s="40" t="s">
-        <v>389</v>
-      </c>
+      <c r="F39" s="40"/>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
@@ -3654,99 +3690,87 @@
       <c r="Z39" s="41"/>
       <c r="AA39" s="41"/>
     </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B40" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40" t="s">
-        <v>335</v>
-      </c>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="67"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="40"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="40"/>
-      <c r="Q40" s="40"/>
-      <c r="R40" s="40"/>
-      <c r="S40" s="41"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="41"/>
-      <c r="V40" s="41"/>
-      <c r="W40" s="41"/>
-      <c r="X40" s="41"/>
-      <c r="Y40" s="41"/>
-      <c r="Z40" s="41"/>
-      <c r="AA40" s="41"/>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="40"/>
-      <c r="N41" s="40"/>
-      <c r="O41" s="40"/>
-      <c r="P41" s="40"/>
-      <c r="Q41" s="40"/>
-      <c r="R41" s="40"/>
-      <c r="S41" s="41"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="41"/>
-      <c r="V41" s="41"/>
-      <c r="W41" s="41"/>
-      <c r="X41" s="41"/>
-      <c r="Y41" s="41"/>
-      <c r="Z41" s="41"/>
-      <c r="AA41" s="41"/>
+    <row r="40" spans="1:27" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="85"/>
+      <c r="X40" s="85"/>
+      <c r="Y40" s="85"/>
+      <c r="Z40" s="85"/>
+      <c r="AA40" s="85"/>
+    </row>
+    <row r="41" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
+      <c r="AA41" s="44"/>
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>289</v>
+        <v>463</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
-      <c r="F42" s="40" t="s">
-        <v>336</v>
-      </c>
+      <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
@@ -3771,21 +3795,17 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>159</v>
+        <v>465</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="D43" s="40"/>
       <c r="E43" s="40"/>
-      <c r="F43" s="40" t="s">
-        <v>389</v>
-      </c>
+      <c r="F43" s="40"/>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
@@ -3810,21 +3830,17 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="D44" s="40"/>
       <c r="E44" s="40"/>
-      <c r="F44" s="40" t="s">
-        <v>389</v>
-      </c>
+      <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
       <c r="I44" s="40"/>
@@ -3849,21 +3865,17 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="D45" s="40"/>
       <c r="E45" s="40"/>
-      <c r="F45" s="40" t="s">
-        <v>389</v>
-      </c>
+      <c r="F45" s="40"/>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
@@ -3887,22 +3899,16 @@
       <c r="AA45" s="41"/>
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B46" s="50" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>56</v>
-      </c>
+      <c r="A46" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="40"/>
-      <c r="F46" s="40" t="s">
-        <v>389</v>
-      </c>
+      <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
       <c r="I46" s="40"/>
@@ -3926,22 +3932,12 @@
       <c r="AA46" s="41"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>176</v>
-      </c>
-      <c r="C47" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>56</v>
-      </c>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="40"/>
-      <c r="F47" s="40" t="s">
-        <v>389</v>
-      </c>
+      <c r="F47" s="40"/>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
       <c r="I47" s="40"/>
@@ -3964,62 +3960,60 @@
       <c r="Z47" s="41"/>
       <c r="AA47" s="41"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="41"/>
-      <c r="Y48" s="41"/>
-      <c r="Z48" s="41"/>
-      <c r="AA48" s="41"/>
+    <row r="48" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>180</v>
+        <v>330</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E49" s="40"/>
-      <c r="F49" s="40" t="s">
-        <v>389</v>
-      </c>
+      <c r="F49" s="40"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
@@ -4047,17 +4041,17 @@
         <v>168</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>182</v>
+        <v>332</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>183</v>
+        <v>333</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E50" s="40"/>
       <c r="F50" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
@@ -4083,24 +4077,24 @@
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D51" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E51" s="40"/>
       <c r="F51" s="40" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
+      <c r="I51" s="67"/>
       <c r="J51" s="40"/>
       <c r="K51" s="40"/>
       <c r="L51" s="40"/>
@@ -4125,17 +4119,17 @@
         <v>168</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E52" s="40"/>
       <c r="F52" s="40" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
@@ -4161,20 +4155,18 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>188</v>
+        <v>288</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="D53" s="40"/>
       <c r="E53" s="40"/>
       <c r="F53" s="40" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -4198,46 +4190,62 @@
       <c r="Z53" s="41"/>
       <c r="AA53" s="41"/>
     </row>
-    <row r="54" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="44"/>
-      <c r="AA54" s="44"/>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="40"/>
+      <c r="A55" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
+      <c r="F55" s="40" t="s">
+        <v>388</v>
+      </c>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
       <c r="I55" s="40"/>
@@ -4260,58 +4268,62 @@
       <c r="Z55" s="41"/>
       <c r="AA55" s="41"/>
     </row>
-    <row r="56" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="G56" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="44"/>
-      <c r="T56" s="44"/>
-      <c r="U56" s="44"/>
-      <c r="V56" s="44"/>
-      <c r="W56" s="44"/>
-      <c r="X56" s="44"/>
-      <c r="Y56" s="44"/>
-      <c r="Z56" s="44"/>
-      <c r="AA56" s="44"/>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="41"/>
+      <c r="W56" s="41"/>
+      <c r="X56" s="41"/>
+      <c r="Y56" s="41"/>
+      <c r="Z56" s="41"/>
+      <c r="AA56" s="41"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="50" t="s">
         <v>168</v>
       </c>
       <c r="B57" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>451</v>
-      </c>
-      <c r="D57" s="40"/>
+        <v>174</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
+      <c r="F57" s="40" t="s">
+        <v>388</v>
+      </c>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
       <c r="I57" s="40"/>
@@ -4336,18 +4348,20 @@
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="50" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="D58" s="40"/>
+        <v>177</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E58" s="40"/>
       <c r="F58" s="40" t="s">
-        <v>449</v>
+        <v>388</v>
       </c>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
@@ -4373,18 +4387,20 @@
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="50" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C59" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="D59" s="40"/>
+        <v>179</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E59" s="40"/>
       <c r="F59" s="40" t="s">
-        <v>449</v>
+        <v>388</v>
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
@@ -4409,16 +4425,22 @@
       <c r="AA59" s="41"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B60" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="51"/>
-      <c r="D60" s="40"/>
+      <c r="A60" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
+      <c r="F60" s="40" t="s">
+        <v>388</v>
+      </c>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
       <c r="I60" s="40"/>
@@ -4442,12 +4464,22 @@
       <c r="AA60" s="41"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="40"/>
+      <c r="A61" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
+      <c r="F61" s="40" t="s">
+        <v>388</v>
+      </c>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
       <c r="I61" s="40"/>
@@ -4471,23 +4503,23 @@
       <c r="AA61" s="41"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D62" s="40"/>
+      <c r="A62" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E62" s="40"/>
-      <c r="F62" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="G62" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="F62" s="40" t="s">
+        <v>388</v>
+      </c>
+      <c r="G62" s="40"/>
       <c r="H62" s="40"/>
       <c r="I62" s="40"/>
       <c r="J62" s="40"/>
@@ -4514,14 +4546,18 @@
         <v>168</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="C63" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D63" s="40"/>
+        <v>187</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
+      <c r="F63" s="40" t="s">
+        <v>388</v>
+      </c>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
       <c r="I63" s="40"/>
@@ -4546,18 +4582,20 @@
     </row>
     <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="50" t="s">
-        <v>450</v>
+        <v>168</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="C64" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="D64" s="40"/>
+        <v>189</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E64" s="40"/>
-      <c r="F64" s="56" t="s">
-        <v>311</v>
+      <c r="F64" s="40" t="s">
+        <v>388</v>
       </c>
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
@@ -4581,51 +4619,43 @@
       <c r="Z64" s="41"/>
       <c r="AA64" s="41"/>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B65" s="50" t="s">
-        <v>217</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="56" t="s">
-        <v>311</v>
-      </c>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="41"/>
-      <c r="T65" s="41"/>
-      <c r="U65" s="41"/>
-      <c r="V65" s="41"/>
-      <c r="W65" s="41"/>
-      <c r="X65" s="41"/>
-      <c r="Y65" s="41"/>
-      <c r="Z65" s="41"/>
-      <c r="AA65" s="41"/>
+    <row r="65" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
+      <c r="N65" s="43"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
+      <c r="Y65" s="44"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="44"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B66" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="C66" s="42"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="36"/>
       <c r="D66" s="40"/>
       <c r="E66" s="40"/>
       <c r="F66" s="40"/>
@@ -4651,53 +4681,59 @@
       <c r="Z66" s="41"/>
       <c r="AA66" s="41"/>
     </row>
-    <row r="67" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="41"/>
-      <c r="U67" s="41"/>
-      <c r="V67" s="41"/>
-      <c r="W67" s="41"/>
-      <c r="X67" s="41"/>
-      <c r="Y67" s="41"/>
-      <c r="Z67" s="41"/>
-      <c r="AA67" s="41"/>
+    <row r="67" spans="1:27" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G67" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
+      <c r="N67" s="43"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
     </row>
     <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B68" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C68" s="42" t="s">
-        <v>220</v>
+      <c r="A68" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>450</v>
       </c>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
-      <c r="F68" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="G68" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
       <c r="H68" s="40"/>
       <c r="I68" s="40"/>
       <c r="J68" s="40"/>
@@ -4721,17 +4757,19 @@
     </row>
     <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="50" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B69" s="50" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
-      <c r="F69" s="40"/>
+      <c r="F69" s="40" t="s">
+        <v>448</v>
+      </c>
       <c r="G69" s="40"/>
       <c r="H69" s="40"/>
       <c r="I69" s="40"/>
@@ -4756,17 +4794,19 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
-      <c r="F70" s="56"/>
+      <c r="F70" s="40" t="s">
+        <v>448</v>
+      </c>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
       <c r="I70" s="40"/>
@@ -4790,18 +4830,16 @@
       <c r="AA70" s="41"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B71" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="C71" s="40" t="s">
-        <v>223</v>
-      </c>
+      <c r="A71" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C71" s="51"/>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
-      <c r="F71" s="56"/>
+      <c r="F71" s="40"/>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
       <c r="I71" s="40"/>
@@ -4825,18 +4863,12 @@
       <c r="AA71" s="41"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="C72" s="40" t="s">
-        <v>224</v>
-      </c>
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
-      <c r="F72" s="56"/>
+      <c r="F72" s="40"/>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
       <c r="I72" s="40"/>
@@ -4861,16 +4893,22 @@
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="B73" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C73" s="42"/>
+        <v>212</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>213</v>
+      </c>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
+      <c r="F73" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G73" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H73" s="40"/>
       <c r="I73" s="40"/>
       <c r="J73" s="40"/>
@@ -4892,10 +4930,16 @@
       <c r="Z73" s="41"/>
       <c r="AA73" s="41"/>
     </row>
-    <row r="74" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>214</v>
+      </c>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
       <c r="F74" s="40"/>
@@ -4922,23 +4966,21 @@
       <c r="AA74" s="41"/>
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B75" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="C75" s="42" t="s">
-        <v>230</v>
+      <c r="A75" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>216</v>
       </c>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
-      <c r="F75" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="G75" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="F75" s="56" t="s">
+        <v>310</v>
+      </c>
+      <c r="G75" s="40"/>
       <c r="H75" s="40"/>
       <c r="I75" s="40"/>
       <c r="J75" s="40"/>
@@ -4961,18 +5003,20 @@
       <c r="AA75" s="41"/>
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="B76" s="57" t="s">
-        <v>231</v>
+      <c r="A76" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>217</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>35</v>
+        <v>199</v>
       </c>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
+      <c r="F76" s="56" t="s">
+        <v>310</v>
+      </c>
       <c r="G76" s="40"/>
       <c r="H76" s="40"/>
       <c r="I76" s="40"/>
@@ -4996,18 +5040,16 @@
       <c r="AA76" s="41"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B77" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>236</v>
-      </c>
+      <c r="A77" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="42"/>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
-      <c r="F77" s="56"/>
+      <c r="F77" s="40"/>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
       <c r="I77" s="40"/>
@@ -5030,21 +5072,13 @@
       <c r="Z77" s="41"/>
       <c r="AA77" s="41"/>
     </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B78" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="C78" s="40" t="s">
-        <v>237</v>
-      </c>
+    <row r="78" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
-      <c r="F78" s="56" t="s">
-        <v>312</v>
-      </c>
+      <c r="F78" s="40"/>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
       <c r="I78" s="40"/>
@@ -5068,21 +5102,23 @@
       <c r="AA78" s="41"/>
     </row>
     <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B79" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>238</v>
+      <c r="A79" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>220</v>
       </c>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
-      <c r="F79" s="56" t="s">
-        <v>312</v>
-      </c>
-      <c r="G79" s="40"/>
+      <c r="F79" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G79" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H79" s="40"/>
       <c r="I79" s="40"/>
       <c r="J79" s="40"/>
@@ -5106,19 +5142,17 @@
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="50" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="B80" s="50" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C80" s="40" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
-      <c r="F80" s="56" t="s">
-        <v>312</v>
-      </c>
+      <c r="F80" s="40"/>
       <c r="G80" s="40"/>
       <c r="H80" s="40"/>
       <c r="I80" s="40"/>
@@ -5141,21 +5175,19 @@
       <c r="Z80" s="41"/>
       <c r="AA80" s="41"/>
     </row>
-    <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="50" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="B81" s="50" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
-      <c r="F81" s="56" t="s">
-        <v>312</v>
-      </c>
+      <c r="F81" s="56"/>
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
       <c r="I81" s="40"/>
@@ -5178,52 +5210,54 @@
       <c r="Z81" s="41"/>
       <c r="AA81" s="41"/>
     </row>
-    <row r="82" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="B82" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="C82" s="58"/>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="59"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58"/>
-      <c r="K82" s="58"/>
-      <c r="L82" s="58"/>
-      <c r="M82" s="58"/>
-      <c r="N82" s="58"/>
-      <c r="O82" s="58"/>
-      <c r="P82" s="58"/>
-      <c r="Q82" s="58"/>
-      <c r="R82" s="58"/>
-      <c r="S82" s="60"/>
-      <c r="T82" s="60"/>
-      <c r="U82" s="60"/>
-      <c r="V82" s="60"/>
-      <c r="W82" s="60"/>
-      <c r="X82" s="60"/>
-      <c r="Y82" s="60"/>
-      <c r="Z82" s="60"/>
-      <c r="AA82" s="60"/>
-    </row>
-    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="B83" s="57" t="s">
-        <v>244</v>
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
+      <c r="M82" s="40"/>
+      <c r="N82" s="40"/>
+      <c r="O82" s="40"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="40"/>
+      <c r="R82" s="40"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="41"/>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="41"/>
+      <c r="AA82" s="41"/>
+    </row>
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="50" t="s">
+        <v>228</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>35</v>
+        <v>224</v>
       </c>
       <c r="D83" s="40"/>
       <c r="E83" s="40"/>
-      <c r="F83" s="40"/>
+      <c r="F83" s="56"/>
       <c r="G83" s="40"/>
       <c r="H83" s="40"/>
       <c r="I83" s="40"/>
@@ -5246,19 +5280,17 @@
       <c r="Z83" s="41"/>
       <c r="AA83" s="41"/>
     </row>
-    <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B84" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="C84" s="51" t="s">
-        <v>251</v>
-      </c>
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B84" s="42" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="42"/>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
-      <c r="F84" s="56"/>
+      <c r="F84" s="40"/>
       <c r="G84" s="40"/>
       <c r="H84" s="40"/>
       <c r="I84" s="40"/>
@@ -5281,21 +5313,13 @@
       <c r="Z84" s="41"/>
       <c r="AA84" s="41"/>
     </row>
-    <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B85" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C85" s="40" t="s">
-        <v>237</v>
-      </c>
+    <row r="85" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="54"/>
+      <c r="B85" s="54"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
-      <c r="F85" s="56" t="s">
-        <v>313</v>
-      </c>
+      <c r="F85" s="40"/>
       <c r="G85" s="40"/>
       <c r="H85" s="40"/>
       <c r="I85" s="40"/>
@@ -5318,22 +5342,24 @@
       <c r="Z85" s="41"/>
       <c r="AA85" s="41"/>
     </row>
-    <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="50" t="s">
-        <v>192</v>
-      </c>
-      <c r="B86" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C86" s="40" t="s">
-        <v>238</v>
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="42" t="s">
+        <v>230</v>
       </c>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
-      <c r="F86" s="56" t="s">
-        <v>313</v>
-      </c>
-      <c r="G86" s="40"/>
+      <c r="F86" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G86" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H86" s="40"/>
       <c r="I86" s="40"/>
       <c r="J86" s="40"/>
@@ -5355,21 +5381,19 @@
       <c r="Z86" s="41"/>
       <c r="AA86" s="41"/>
     </row>
-    <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="B87" s="50" t="s">
-        <v>249</v>
+    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B87" s="57" t="s">
+        <v>231</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>241</v>
+        <v>35</v>
       </c>
       <c r="D87" s="40"/>
       <c r="E87" s="40"/>
-      <c r="F87" s="56" t="s">
-        <v>313</v>
-      </c>
+      <c r="F87" s="40"/>
       <c r="G87" s="40"/>
       <c r="H87" s="40"/>
       <c r="I87" s="40"/>
@@ -5392,21 +5416,19 @@
       <c r="Z87" s="41"/>
       <c r="AA87" s="41"/>
     </row>
-    <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="50" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B88" s="50" t="s">
-        <v>250</v>
-      </c>
-      <c r="C88" s="40" t="s">
-        <v>242</v>
+        <v>232</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>236</v>
       </c>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
-      <c r="F88" s="56" t="s">
-        <v>313</v>
-      </c>
+      <c r="F88" s="56"/>
       <c r="G88" s="40"/>
       <c r="H88" s="40"/>
       <c r="I88" s="40"/>
@@ -5429,52 +5451,58 @@
       <c r="Z88" s="41"/>
       <c r="AA88" s="41"/>
     </row>
-    <row r="89" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="B89" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="C89" s="58"/>
-      <c r="D89" s="58"/>
-      <c r="E89" s="58"/>
-      <c r="F89" s="59"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="58"/>
-      <c r="I89" s="58"/>
-      <c r="J89" s="58"/>
-      <c r="K89" s="58"/>
-      <c r="L89" s="58"/>
-      <c r="M89" s="58"/>
-      <c r="N89" s="58"/>
-      <c r="O89" s="58"/>
-      <c r="P89" s="58"/>
-      <c r="Q89" s="58"/>
-      <c r="R89" s="58"/>
-      <c r="S89" s="60"/>
-      <c r="T89" s="60"/>
-      <c r="U89" s="60"/>
-      <c r="V89" s="60"/>
-      <c r="W89" s="60"/>
-      <c r="X89" s="60"/>
-      <c r="Y89" s="60"/>
-      <c r="Z89" s="60"/>
-      <c r="AA89" s="60"/>
-    </row>
-    <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="57" t="s">
-        <v>195</v>
-      </c>
-      <c r="B90" s="57" t="s">
-        <v>252</v>
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" s="40"/>
+      <c r="E89" s="40"/>
+      <c r="F89" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="G89" s="40"/>
+      <c r="H89" s="40"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="40"/>
+      <c r="Q89" s="40"/>
+      <c r="R89" s="40"/>
+      <c r="S89" s="41"/>
+      <c r="T89" s="41"/>
+      <c r="U89" s="41"/>
+      <c r="V89" s="41"/>
+      <c r="W89" s="41"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="41"/>
+      <c r="Z89" s="41"/>
+      <c r="AA89" s="41"/>
+    </row>
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="50" t="s">
+        <v>240</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="D90" s="40"/>
       <c r="E90" s="40"/>
-      <c r="F90" s="56"/>
+      <c r="F90" s="56" t="s">
+        <v>311</v>
+      </c>
       <c r="G90" s="40"/>
       <c r="H90" s="40"/>
       <c r="I90" s="40"/>
@@ -5497,19 +5525,21 @@
       <c r="Z90" s="41"/>
       <c r="AA90" s="41"/>
     </row>
-    <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="50" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="C91" s="51" t="s">
-        <v>253</v>
+        <v>247</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>241</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
-      <c r="F91" s="56"/>
+      <c r="F91" s="56" t="s">
+        <v>311</v>
+      </c>
       <c r="G91" s="40"/>
       <c r="H91" s="40"/>
       <c r="I91" s="40"/>
@@ -5532,20 +5562,20 @@
       <c r="Z91" s="41"/>
       <c r="AA91" s="41"/>
     </row>
-    <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="50" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
       <c r="F92" s="56" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G92" s="40"/>
       <c r="H92" s="40"/>
@@ -5569,47 +5599,49 @@
       <c r="Z92" s="41"/>
       <c r="AA92" s="41"/>
     </row>
-    <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="57" t="s">
         <v>211</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C93" s="40"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="40"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="40"/>
-      <c r="H93" s="40"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="40"/>
-      <c r="O93" s="40"/>
-      <c r="P93" s="40"/>
-      <c r="Q93" s="40"/>
-      <c r="R93" s="40"/>
-      <c r="S93" s="41"/>
-      <c r="T93" s="41"/>
-      <c r="U93" s="41"/>
-      <c r="V93" s="41"/>
-      <c r="W93" s="41"/>
-      <c r="X93" s="41"/>
-      <c r="Y93" s="41"/>
-      <c r="Z93" s="41"/>
-      <c r="AA93" s="41"/>
-    </row>
-    <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B94" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="C94" s="42"/>
+        <v>231</v>
+      </c>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58"/>
+      <c r="L93" s="58"/>
+      <c r="M93" s="58"/>
+      <c r="N93" s="58"/>
+      <c r="O93" s="58"/>
+      <c r="P93" s="58"/>
+      <c r="Q93" s="58"/>
+      <c r="R93" s="58"/>
+      <c r="S93" s="60"/>
+      <c r="T93" s="60"/>
+      <c r="U93" s="60"/>
+      <c r="V93" s="60"/>
+      <c r="W93" s="60"/>
+      <c r="X93" s="60"/>
+      <c r="Y93" s="60"/>
+      <c r="Z93" s="60"/>
+      <c r="AA93" s="60"/>
+    </row>
+    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>35</v>
+      </c>
       <c r="D94" s="40"/>
       <c r="E94" s="40"/>
       <c r="F94" s="40"/>
@@ -5635,27 +5667,61 @@
       <c r="Z94" s="41"/>
       <c r="AA94" s="41"/>
     </row>
-    <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B95" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>251</v>
+      </c>
+      <c r="D95" s="40"/>
+      <c r="E95" s="40"/>
+      <c r="F95" s="56"/>
+      <c r="G95" s="40"/>
+      <c r="H95" s="40"/>
+      <c r="I95" s="40"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="40"/>
+      <c r="O95" s="40"/>
+      <c r="P95" s="40"/>
+      <c r="Q95" s="40"/>
+      <c r="R95" s="40"/>
+      <c r="S95" s="41"/>
+      <c r="T95" s="41"/>
+      <c r="U95" s="41"/>
+      <c r="V95" s="41"/>
+      <c r="W95" s="41"/>
+      <c r="X95" s="41"/>
+      <c r="Y95" s="41"/>
+      <c r="Z95" s="41"/>
+      <c r="AA95" s="41"/>
+    </row>
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="50" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
-      <c r="F96" s="40" t="s">
-        <v>387</v>
-      </c>
-      <c r="G96" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="F96" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="G96" s="40"/>
       <c r="H96" s="40"/>
       <c r="I96" s="40"/>
       <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
       <c r="N96" s="40"/>
@@ -5663,37 +5729,31 @@
       <c r="P96" s="40"/>
       <c r="Q96" s="40"/>
       <c r="R96" s="40"/>
-      <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="40"/>
-      <c r="V96" s="40"/>
-      <c r="W96" s="40"/>
-      <c r="X96" s="40"/>
-      <c r="Y96" s="40"/>
-      <c r="Z96" s="40"/>
-      <c r="AA96" s="40"/>
-      <c r="AB96" s="40"/>
-      <c r="AC96" s="40"/>
-      <c r="AD96" s="40"/>
-      <c r="AE96" s="40"/>
-      <c r="AF96" s="40"/>
-      <c r="AG96" s="40"/>
-      <c r="AH96" s="40"/>
-      <c r="AI96" s="40"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="41"/>
+      <c r="W96" s="41"/>
+      <c r="X96" s="41"/>
+      <c r="Y96" s="41"/>
+      <c r="Z96" s="41"/>
+      <c r="AA96" s="41"/>
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="50" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="D97" s="40"/>
       <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
+      <c r="F97" s="56" t="s">
+        <v>312</v>
+      </c>
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
       <c r="I97" s="40"/>
@@ -5706,37 +5766,31 @@
       <c r="P97" s="40"/>
       <c r="Q97" s="40"/>
       <c r="R97" s="40"/>
-      <c r="S97" s="40"/>
-      <c r="T97" s="40"/>
-      <c r="U97" s="40"/>
-      <c r="V97" s="40"/>
-      <c r="W97" s="40"/>
-      <c r="X97" s="40"/>
-      <c r="Y97" s="40"/>
-      <c r="Z97" s="40"/>
-      <c r="AA97" s="40"/>
-      <c r="AB97" s="40"/>
-      <c r="AC97" s="40"/>
-      <c r="AD97" s="40"/>
-      <c r="AE97" s="40"/>
-      <c r="AF97" s="40"/>
-      <c r="AG97" s="40"/>
-      <c r="AH97" s="40"/>
-      <c r="AI97" s="40"/>
+      <c r="S97" s="41"/>
+      <c r="T97" s="41"/>
+      <c r="U97" s="41"/>
+      <c r="V97" s="41"/>
+      <c r="W97" s="41"/>
+      <c r="X97" s="41"/>
+      <c r="Y97" s="41"/>
+      <c r="Z97" s="41"/>
+      <c r="AA97" s="41"/>
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="50" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D98" s="40"/>
       <c r="E98" s="40"/>
-      <c r="F98" s="40"/>
+      <c r="F98" s="56" t="s">
+        <v>312</v>
+      </c>
       <c r="G98" s="40"/>
       <c r="H98" s="40"/>
       <c r="I98" s="40"/>
@@ -5749,37 +5803,31 @@
       <c r="P98" s="40"/>
       <c r="Q98" s="40"/>
       <c r="R98" s="40"/>
-      <c r="S98" s="40"/>
-      <c r="T98" s="40"/>
-      <c r="U98" s="40"/>
-      <c r="V98" s="40"/>
-      <c r="W98" s="40"/>
-      <c r="X98" s="40"/>
-      <c r="Y98" s="40"/>
-      <c r="Z98" s="40"/>
-      <c r="AA98" s="40"/>
-      <c r="AB98" s="40"/>
-      <c r="AC98" s="40"/>
-      <c r="AD98" s="40"/>
-      <c r="AE98" s="40"/>
-      <c r="AF98" s="40"/>
-      <c r="AG98" s="40"/>
-      <c r="AH98" s="40"/>
-      <c r="AI98" s="40"/>
+      <c r="S98" s="41"/>
+      <c r="T98" s="41"/>
+      <c r="U98" s="41"/>
+      <c r="V98" s="41"/>
+      <c r="W98" s="41"/>
+      <c r="X98" s="41"/>
+      <c r="Y98" s="41"/>
+      <c r="Z98" s="41"/>
+      <c r="AA98" s="41"/>
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="50" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="D99" s="40"/>
       <c r="E99" s="40"/>
-      <c r="F99" s="40"/>
+      <c r="F99" s="56" t="s">
+        <v>312</v>
+      </c>
       <c r="G99" s="40"/>
       <c r="H99" s="40"/>
       <c r="I99" s="40"/>
@@ -5792,80 +5840,62 @@
       <c r="P99" s="40"/>
       <c r="Q99" s="40"/>
       <c r="R99" s="40"/>
-      <c r="S99" s="40"/>
-      <c r="T99" s="40"/>
-      <c r="U99" s="40"/>
-      <c r="V99" s="40"/>
-      <c r="W99" s="40"/>
-      <c r="X99" s="40"/>
-      <c r="Y99" s="40"/>
-      <c r="Z99" s="40"/>
-      <c r="AA99" s="40"/>
-      <c r="AB99" s="40"/>
-      <c r="AC99" s="40"/>
-      <c r="AD99" s="40"/>
-      <c r="AE99" s="40"/>
-      <c r="AF99" s="40"/>
-      <c r="AG99" s="40"/>
-      <c r="AH99" s="40"/>
-      <c r="AI99" s="40"/>
-    </row>
-    <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B100" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="C100" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="D100" s="40"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="40"/>
-      <c r="K100" s="40"/>
-      <c r="L100" s="40"/>
-      <c r="M100" s="40"/>
-      <c r="N100" s="40"/>
-      <c r="O100" s="40"/>
-      <c r="P100" s="40"/>
-      <c r="Q100" s="40"/>
-      <c r="R100" s="40"/>
-      <c r="S100" s="40"/>
-      <c r="T100" s="40"/>
-      <c r="U100" s="40"/>
-      <c r="V100" s="40"/>
-      <c r="W100" s="40"/>
-      <c r="X100" s="40"/>
-      <c r="Y100" s="40"/>
-      <c r="Z100" s="40"/>
-      <c r="AA100" s="40"/>
-      <c r="AB100" s="40"/>
-      <c r="AC100" s="40"/>
-      <c r="AD100" s="40"/>
-      <c r="AE100" s="40"/>
-      <c r="AF100" s="40"/>
-      <c r="AG100" s="40"/>
-      <c r="AH100" s="40"/>
-      <c r="AI100" s="40"/>
+      <c r="S99" s="41"/>
+      <c r="T99" s="41"/>
+      <c r="U99" s="41"/>
+      <c r="V99" s="41"/>
+      <c r="W99" s="41"/>
+      <c r="X99" s="41"/>
+      <c r="Y99" s="41"/>
+      <c r="Z99" s="41"/>
+      <c r="AA99" s="41"/>
+    </row>
+    <row r="100" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="58"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58"/>
+      <c r="K100" s="58"/>
+      <c r="L100" s="58"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="58"/>
+      <c r="O100" s="58"/>
+      <c r="P100" s="58"/>
+      <c r="Q100" s="58"/>
+      <c r="R100" s="58"/>
+      <c r="S100" s="60"/>
+      <c r="T100" s="60"/>
+      <c r="U100" s="60"/>
+      <c r="V100" s="60"/>
+      <c r="W100" s="60"/>
+      <c r="X100" s="60"/>
+      <c r="Y100" s="60"/>
+      <c r="Z100" s="60"/>
+      <c r="AA100" s="60"/>
     </row>
     <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B101" s="50" t="s">
-        <v>273</v>
+      <c r="A101" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="57" t="s">
+        <v>252</v>
       </c>
       <c r="C101" s="40" t="s">
-        <v>274</v>
+        <v>35</v>
       </c>
       <c r="D101" s="40"/>
       <c r="E101" s="40"/>
-      <c r="F101" s="40"/>
+      <c r="F101" s="56"/>
       <c r="G101" s="40"/>
       <c r="H101" s="40"/>
       <c r="I101" s="40"/>
@@ -5878,37 +5908,29 @@
       <c r="P101" s="40"/>
       <c r="Q101" s="40"/>
       <c r="R101" s="40"/>
-      <c r="S101" s="40"/>
-      <c r="T101" s="40"/>
-      <c r="U101" s="40"/>
-      <c r="V101" s="40"/>
-      <c r="W101" s="40"/>
-      <c r="X101" s="40"/>
-      <c r="Y101" s="40"/>
-      <c r="Z101" s="40"/>
-      <c r="AA101" s="40"/>
-      <c r="AB101" s="40"/>
-      <c r="AC101" s="40"/>
-      <c r="AD101" s="40"/>
-      <c r="AE101" s="40"/>
-      <c r="AF101" s="40"/>
-      <c r="AG101" s="40"/>
-      <c r="AH101" s="40"/>
-      <c r="AI101" s="40"/>
+      <c r="S101" s="41"/>
+      <c r="T101" s="41"/>
+      <c r="U101" s="41"/>
+      <c r="V101" s="41"/>
+      <c r="W101" s="41"/>
+      <c r="X101" s="41"/>
+      <c r="Y101" s="41"/>
+      <c r="Z101" s="41"/>
+      <c r="AA101" s="41"/>
     </row>
     <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="50" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="B102" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="C102" s="40" t="s">
-        <v>276</v>
+        <v>254</v>
+      </c>
+      <c r="C102" s="51" t="s">
+        <v>253</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="40"/>
-      <c r="F102" s="40"/>
+      <c r="F102" s="56"/>
       <c r="G102" s="40"/>
       <c r="H102" s="40"/>
       <c r="I102" s="40"/>
@@ -5921,38 +5943,30 @@
       <c r="P102" s="40"/>
       <c r="Q102" s="40"/>
       <c r="R102" s="40"/>
-      <c r="S102" s="40"/>
-      <c r="T102" s="40"/>
-      <c r="U102" s="40"/>
-      <c r="V102" s="40"/>
-      <c r="W102" s="40"/>
-      <c r="X102" s="40"/>
-      <c r="Y102" s="40"/>
-      <c r="Z102" s="40"/>
-      <c r="AA102" s="40"/>
-      <c r="AB102" s="40"/>
-      <c r="AC102" s="40"/>
-      <c r="AD102" s="40"/>
-      <c r="AE102" s="40"/>
-      <c r="AF102" s="40"/>
-      <c r="AG102" s="40"/>
-      <c r="AH102" s="40"/>
-      <c r="AI102" s="40"/>
+      <c r="S102" s="41"/>
+      <c r="T102" s="41"/>
+      <c r="U102" s="41"/>
+      <c r="V102" s="41"/>
+      <c r="W102" s="41"/>
+      <c r="X102" s="41"/>
+      <c r="Y102" s="41"/>
+      <c r="Z102" s="41"/>
+      <c r="AA102" s="41"/>
     </row>
     <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="50" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="B103" s="50" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="C103" s="40" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="D103" s="40"/>
       <c r="E103" s="40"/>
-      <c r="F103" s="40" t="s">
-        <v>447</v>
+      <c r="F103" s="56" t="s">
+        <v>313</v>
       </c>
       <c r="G103" s="40"/>
       <c r="H103" s="40"/>
@@ -5966,39 +5980,27 @@
       <c r="P103" s="40"/>
       <c r="Q103" s="40"/>
       <c r="R103" s="40"/>
-      <c r="S103" s="40"/>
-      <c r="T103" s="40"/>
-      <c r="U103" s="40"/>
-      <c r="V103" s="40"/>
-      <c r="W103" s="40"/>
-      <c r="X103" s="40"/>
-      <c r="Y103" s="40"/>
-      <c r="Z103" s="40"/>
-      <c r="AA103" s="40"/>
-      <c r="AB103" s="40"/>
-      <c r="AC103" s="40"/>
-      <c r="AD103" s="40"/>
-      <c r="AE103" s="40"/>
-      <c r="AF103" s="40"/>
-      <c r="AG103" s="40"/>
-      <c r="AH103" s="40"/>
-      <c r="AI103" s="40"/>
+      <c r="S103" s="41"/>
+      <c r="T103" s="41"/>
+      <c r="U103" s="41"/>
+      <c r="V103" s="41"/>
+      <c r="W103" s="41"/>
+      <c r="X103" s="41"/>
+      <c r="Y103" s="41"/>
+      <c r="Z103" s="41"/>
+      <c r="AA103" s="41"/>
     </row>
     <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="B104" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="C104" s="40" t="s">
-        <v>292</v>
-      </c>
+      <c r="A104" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" s="40"/>
       <c r="D104" s="40"/>
       <c r="E104" s="40"/>
-      <c r="F104" s="40" t="s">
-        <v>315</v>
-      </c>
+      <c r="F104" s="56"/>
       <c r="G104" s="40"/>
       <c r="H104" s="40"/>
       <c r="I104" s="40"/>
@@ -6011,34 +6013,24 @@
       <c r="P104" s="40"/>
       <c r="Q104" s="40"/>
       <c r="R104" s="40"/>
-      <c r="S104" s="40"/>
-      <c r="T104" s="40"/>
-      <c r="U104" s="40"/>
-      <c r="V104" s="40"/>
-      <c r="W104" s="40"/>
-      <c r="X104" s="40"/>
-      <c r="Y104" s="40"/>
-      <c r="Z104" s="40"/>
-      <c r="AA104" s="40"/>
-      <c r="AB104" s="40"/>
-      <c r="AC104" s="40"/>
-      <c r="AD104" s="40"/>
-      <c r="AE104" s="40"/>
-      <c r="AF104" s="40"/>
-      <c r="AG104" s="40"/>
-      <c r="AH104" s="40"/>
-      <c r="AI104" s="40"/>
+      <c r="S104" s="41"/>
+      <c r="T104" s="41"/>
+      <c r="U104" s="41"/>
+      <c r="V104" s="41"/>
+      <c r="W104" s="41"/>
+      <c r="X104" s="41"/>
+      <c r="Y104" s="41"/>
+      <c r="Z104" s="41"/>
+      <c r="AA104" s="41"/>
     </row>
     <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B105" s="50" t="s">
-        <v>279</v>
-      </c>
-      <c r="C105" s="40" t="s">
-        <v>280</v>
-      </c>
+      <c r="A105" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="42"/>
       <c r="D105" s="40"/>
       <c r="E105" s="40"/>
       <c r="F105" s="40"/>
@@ -6054,121 +6046,97 @@
       <c r="P105" s="40"/>
       <c r="Q105" s="40"/>
       <c r="R105" s="40"/>
-      <c r="S105" s="40"/>
-      <c r="T105" s="40"/>
-      <c r="U105" s="40"/>
-      <c r="V105" s="40"/>
-      <c r="W105" s="40"/>
-      <c r="X105" s="40"/>
-      <c r="Y105" s="40"/>
-      <c r="Z105" s="40"/>
-      <c r="AA105" s="40"/>
-      <c r="AB105" s="40"/>
-      <c r="AC105" s="40"/>
-      <c r="AD105" s="40"/>
-      <c r="AE105" s="40"/>
-      <c r="AF105" s="40"/>
-      <c r="AG105" s="40"/>
-      <c r="AH105" s="40"/>
-      <c r="AI105" s="40"/>
-    </row>
-    <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B106" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="C106" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="D106" s="40"/>
-      <c r="E106" s="40"/>
-      <c r="F106" s="40"/>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="40"/>
-      <c r="N106" s="40"/>
-      <c r="O106" s="40"/>
-      <c r="P106" s="40"/>
-      <c r="Q106" s="40"/>
-      <c r="R106" s="40"/>
-      <c r="S106" s="40"/>
-      <c r="T106" s="40"/>
-      <c r="U106" s="40"/>
-      <c r="V106" s="40"/>
-      <c r="W106" s="40"/>
-      <c r="X106" s="40"/>
-      <c r="Y106" s="40"/>
-      <c r="Z106" s="40"/>
-      <c r="AA106" s="40"/>
-      <c r="AB106" s="40"/>
-      <c r="AC106" s="40"/>
-      <c r="AD106" s="40"/>
-      <c r="AE106" s="40"/>
-      <c r="AF106" s="40"/>
-      <c r="AG106" s="40"/>
-      <c r="AH106" s="40"/>
-      <c r="AI106" s="40"/>
-    </row>
-    <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="C107" s="51" t="s">
-        <v>284</v>
-      </c>
-      <c r="D107" s="40"/>
-      <c r="E107" s="40"/>
-      <c r="F107" s="40"/>
-      <c r="G107" s="40"/>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="40"/>
-      <c r="M107" s="40"/>
-      <c r="N107" s="40"/>
-      <c r="O107" s="40"/>
-      <c r="P107" s="40"/>
-      <c r="Q107" s="40"/>
-      <c r="R107" s="40"/>
-      <c r="S107" s="40"/>
-      <c r="T107" s="40"/>
-      <c r="U107" s="40"/>
-      <c r="V107" s="40"/>
-      <c r="W107" s="40"/>
-      <c r="X107" s="40"/>
-      <c r="Y107" s="40"/>
-      <c r="Z107" s="40"/>
-      <c r="AA107" s="40"/>
-      <c r="AB107" s="40"/>
-      <c r="AC107" s="40"/>
-      <c r="AD107" s="40"/>
-      <c r="AE107" s="40"/>
-      <c r="AF107" s="40"/>
-      <c r="AG107" s="40"/>
-      <c r="AH107" s="40"/>
-      <c r="AI107" s="40"/>
+      <c r="S105" s="41"/>
+      <c r="T105" s="41"/>
+      <c r="U105" s="41"/>
+      <c r="V105" s="41"/>
+      <c r="W105" s="41"/>
+      <c r="X105" s="41"/>
+      <c r="Y105" s="41"/>
+      <c r="Z105" s="41"/>
+      <c r="AA105" s="41"/>
+    </row>
+    <row r="106" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="54"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
+      <c r="L106" s="54"/>
+      <c r="M106" s="54"/>
+      <c r="N106" s="54"/>
+      <c r="O106" s="54"/>
+      <c r="P106" s="54"/>
+      <c r="Q106" s="54"/>
+      <c r="R106" s="54"/>
+      <c r="S106" s="85"/>
+      <c r="T106" s="85"/>
+      <c r="U106" s="85"/>
+      <c r="V106" s="85"/>
+      <c r="W106" s="85"/>
+      <c r="X106" s="85"/>
+      <c r="Y106" s="85"/>
+      <c r="Z106" s="85"/>
+      <c r="AA106" s="85"/>
+    </row>
+    <row r="107" spans="1:35" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G107" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H107" s="43"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
+      <c r="M107" s="43"/>
+      <c r="N107" s="43"/>
+      <c r="O107" s="43"/>
+      <c r="P107" s="43"/>
+      <c r="Q107" s="43"/>
+      <c r="R107" s="43"/>
+      <c r="S107" s="44"/>
+      <c r="T107" s="44"/>
+      <c r="U107" s="44"/>
+      <c r="V107" s="44"/>
+      <c r="W107" s="44"/>
+      <c r="X107" s="44"/>
+      <c r="Y107" s="44"/>
+      <c r="Z107" s="44"/>
+      <c r="AA107" s="44"/>
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="50" t="s">
-        <v>168</v>
+        <v>235</v>
       </c>
       <c r="B108" s="50" t="s">
-        <v>285</v>
+        <v>473</v>
       </c>
       <c r="C108" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="D108" s="40"/>
+        <v>472</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E108" s="40"/>
       <c r="F108" s="40"/>
       <c r="G108" s="40"/>
@@ -6183,39 +6151,27 @@
       <c r="P108" s="40"/>
       <c r="Q108" s="40"/>
       <c r="R108" s="40"/>
-      <c r="S108" s="40"/>
-      <c r="T108" s="40"/>
-      <c r="U108" s="40"/>
-      <c r="V108" s="40"/>
-      <c r="W108" s="40"/>
-      <c r="X108" s="40"/>
-      <c r="Y108" s="40"/>
-      <c r="Z108" s="40"/>
-      <c r="AA108" s="40"/>
-      <c r="AB108" s="40"/>
-      <c r="AC108" s="40"/>
-      <c r="AD108" s="40"/>
-      <c r="AE108" s="40"/>
-      <c r="AF108" s="40"/>
-      <c r="AG108" s="40"/>
-      <c r="AH108" s="40"/>
-      <c r="AI108" s="40"/>
+      <c r="S108" s="41"/>
+      <c r="T108" s="41"/>
+      <c r="U108" s="41"/>
+      <c r="V108" s="41"/>
+      <c r="W108" s="41"/>
+      <c r="X108" s="41"/>
+      <c r="Y108" s="41"/>
+      <c r="Z108" s="41"/>
+      <c r="AA108" s="41"/>
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B109" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="C109" s="51" t="s">
-        <v>444</v>
-      </c>
+      <c r="A109" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="C109" s="51"/>
       <c r="D109" s="40"/>
       <c r="E109" s="40"/>
-      <c r="F109" s="40" t="s">
-        <v>447</v>
-      </c>
+      <c r="F109" s="40"/>
       <c r="G109" s="40"/>
       <c r="H109" s="40"/>
       <c r="I109" s="40"/>
@@ -6228,1017 +6184,935 @@
       <c r="P109" s="40"/>
       <c r="Q109" s="40"/>
       <c r="R109" s="40"/>
-      <c r="S109" s="40"/>
-      <c r="T109" s="40"/>
-      <c r="U109" s="40"/>
-      <c r="V109" s="40"/>
-      <c r="W109" s="40"/>
-      <c r="X109" s="40"/>
-      <c r="Y109" s="40"/>
-      <c r="Z109" s="40"/>
-      <c r="AA109" s="40"/>
-      <c r="AB109" s="40"/>
-      <c r="AC109" s="40"/>
-      <c r="AD109" s="40"/>
-      <c r="AE109" s="40"/>
-      <c r="AF109" s="40"/>
-      <c r="AG109" s="40"/>
-      <c r="AH109" s="40"/>
-      <c r="AI109" s="40"/>
-    </row>
-    <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B110" s="50"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="40"/>
-      <c r="F110" s="40"/>
-      <c r="G110" s="40"/>
-      <c r="H110" s="40"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="40"/>
-      <c r="K110" s="40"/>
-      <c r="L110" s="40"/>
-      <c r="M110" s="40"/>
-      <c r="N110" s="40"/>
-      <c r="O110" s="40"/>
-      <c r="P110" s="40"/>
-      <c r="Q110" s="40"/>
-      <c r="R110" s="40"/>
-      <c r="S110" s="40"/>
-      <c r="T110" s="40"/>
-      <c r="U110" s="40"/>
-      <c r="V110" s="40"/>
-      <c r="W110" s="40"/>
-      <c r="X110" s="40"/>
-      <c r="Y110" s="40"/>
-      <c r="Z110" s="40"/>
-      <c r="AA110" s="40"/>
-      <c r="AB110" s="40"/>
-      <c r="AC110" s="40"/>
-      <c r="AD110" s="40"/>
-      <c r="AE110" s="40"/>
-      <c r="AF110" s="40"/>
-      <c r="AG110" s="40"/>
-      <c r="AH110" s="40"/>
-      <c r="AI110" s="40"/>
-    </row>
-    <row r="111" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="54"/>
-      <c r="B111" s="54"/>
-      <c r="C111" s="54"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="54"/>
-      <c r="F111" s="54"/>
-      <c r="G111" s="54"/>
-      <c r="H111" s="54"/>
-      <c r="I111" s="54"/>
-      <c r="J111" s="54"/>
-      <c r="K111" s="54"/>
-      <c r="L111" s="54"/>
-      <c r="M111" s="54"/>
-      <c r="N111" s="54"/>
-      <c r="O111" s="54"/>
-      <c r="P111" s="54"/>
-      <c r="Q111" s="54"/>
-      <c r="R111" s="54"/>
-      <c r="S111" s="54"/>
-      <c r="T111" s="54"/>
-      <c r="U111" s="54"/>
-      <c r="V111" s="54"/>
-      <c r="W111" s="54"/>
-      <c r="X111" s="54"/>
-      <c r="Y111" s="54"/>
-      <c r="Z111" s="54"/>
-      <c r="AA111" s="54"/>
-      <c r="AB111" s="54"/>
-      <c r="AC111" s="54"/>
-      <c r="AD111" s="54"/>
-      <c r="AE111" s="54"/>
-      <c r="AF111" s="54"/>
-      <c r="AG111" s="54"/>
-      <c r="AH111" s="54"/>
-      <c r="AI111" s="54"/>
+      <c r="S109" s="41"/>
+      <c r="T109" s="41"/>
+      <c r="U109" s="41"/>
+      <c r="V109" s="41"/>
+      <c r="W109" s="41"/>
+      <c r="X109" s="41"/>
+      <c r="Y109" s="41"/>
+      <c r="Z109" s="41"/>
+      <c r="AA109" s="41"/>
+    </row>
+    <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="B111" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C111" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="D111" s="40"/>
+      <c r="E111" s="40"/>
+      <c r="F111" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="G111" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H111" s="40"/>
+      <c r="I111" s="40"/>
+      <c r="J111" s="40"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="40"/>
+      <c r="N111" s="40"/>
+      <c r="O111" s="40"/>
+      <c r="P111" s="40"/>
+      <c r="Q111" s="40"/>
+      <c r="R111" s="40"/>
+      <c r="S111" s="40"/>
+      <c r="T111" s="40"/>
+      <c r="U111" s="40"/>
+      <c r="V111" s="40"/>
+      <c r="W111" s="40"/>
+      <c r="X111" s="40"/>
+      <c r="Y111" s="40"/>
+      <c r="Z111" s="40"/>
+      <c r="AA111" s="40"/>
+      <c r="AB111" s="40"/>
+      <c r="AC111" s="40"/>
+      <c r="AD111" s="40"/>
+      <c r="AE111" s="40"/>
+      <c r="AF111" s="40"/>
+      <c r="AG111" s="40"/>
+      <c r="AH111" s="40"/>
+      <c r="AI111" s="40"/>
     </row>
     <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B112" s="78" t="s">
-        <v>397</v>
-      </c>
-      <c r="C112" s="51" t="s">
-        <v>398</v>
-      </c>
-      <c r="D112" s="40"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="56" t="s">
-        <v>388</v>
-      </c>
-      <c r="G112" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="A112" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B112" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="D112" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="40"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
       <c r="H112" s="40"/>
-      <c r="I112" s="56"/>
-      <c r="J112" s="56"/>
-      <c r="K112" s="56"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="51"/>
-      <c r="N112" s="51"/>
-      <c r="O112" s="51"/>
-      <c r="P112" s="51"/>
-      <c r="Q112" s="51"/>
-      <c r="R112" s="51"/>
-      <c r="S112" s="51"/>
-      <c r="T112" s="51"/>
-      <c r="U112" s="56"/>
-      <c r="V112" s="51"/>
-      <c r="W112" s="56"/>
-      <c r="X112" s="56"/>
-      <c r="Y112" s="56"/>
-      <c r="Z112" s="56"/>
-      <c r="AA112" s="56"/>
-      <c r="AB112" s="56"/>
-      <c r="AC112" s="56"/>
-      <c r="AD112" s="56"/>
-      <c r="AE112" s="56"/>
-      <c r="AF112" s="56"/>
-      <c r="AG112" s="56"/>
-      <c r="AH112" s="56"/>
-      <c r="AI112" s="56"/>
+      <c r="I112" s="40"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="40"/>
+      <c r="L112" s="40"/>
+      <c r="M112" s="40"/>
+      <c r="N112" s="40"/>
+      <c r="O112" s="40"/>
+      <c r="P112" s="40"/>
+      <c r="Q112" s="40"/>
+      <c r="R112" s="40"/>
+      <c r="S112" s="40"/>
+      <c r="T112" s="40"/>
+      <c r="U112" s="40"/>
+      <c r="V112" s="40"/>
+      <c r="W112" s="40"/>
+      <c r="X112" s="40"/>
+      <c r="Y112" s="40"/>
+      <c r="Z112" s="40"/>
+      <c r="AA112" s="40"/>
+      <c r="AB112" s="40"/>
+      <c r="AC112" s="40"/>
+      <c r="AD112" s="40"/>
+      <c r="AE112" s="40"/>
+      <c r="AF112" s="40"/>
+      <c r="AG112" s="40"/>
+      <c r="AH112" s="40"/>
+      <c r="AI112" s="40"/>
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="78" t="s">
-        <v>192</v>
-      </c>
-      <c r="B113" s="78" t="s">
-        <v>399</v>
-      </c>
-      <c r="C113" s="51" t="s">
-        <v>400</v>
-      </c>
-      <c r="D113" s="40"/>
-      <c r="E113" s="56" t="s">
+      <c r="A113" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="C113" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="D113" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F113" s="56"/>
+      <c r="E113" s="40"/>
+      <c r="F113" s="40"/>
       <c r="G113" s="40"/>
       <c r="H113" s="40"/>
-      <c r="I113" s="51" t="s">
-        <v>401</v>
-      </c>
-      <c r="J113" s="56"/>
-      <c r="K113" s="56"/>
-      <c r="L113" s="51"/>
-      <c r="M113" s="51"/>
-      <c r="N113" s="51"/>
-      <c r="O113" s="51"/>
-      <c r="P113" s="51"/>
-      <c r="Q113" s="51"/>
-      <c r="R113" s="51"/>
-      <c r="S113" s="51"/>
-      <c r="T113" s="51"/>
-      <c r="U113" s="56"/>
-      <c r="V113" s="51"/>
-      <c r="W113" s="56"/>
-      <c r="X113" s="56"/>
-      <c r="Y113" s="56"/>
-      <c r="Z113" s="56"/>
-      <c r="AA113" s="56"/>
-      <c r="AB113" s="56"/>
-      <c r="AC113" s="56"/>
-      <c r="AD113" s="56"/>
-      <c r="AE113" s="56"/>
-      <c r="AF113" s="56"/>
-      <c r="AG113" s="56"/>
-      <c r="AH113" s="56"/>
-      <c r="AI113" s="56"/>
+      <c r="I113" s="40"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="40"/>
+      <c r="L113" s="40"/>
+      <c r="M113" s="40"/>
+      <c r="N113" s="40"/>
+      <c r="O113" s="40"/>
+      <c r="P113" s="40"/>
+      <c r="Q113" s="40"/>
+      <c r="R113" s="40"/>
+      <c r="S113" s="40"/>
+      <c r="T113" s="40"/>
+      <c r="U113" s="40"/>
+      <c r="V113" s="40"/>
+      <c r="W113" s="40"/>
+      <c r="X113" s="40"/>
+      <c r="Y113" s="40"/>
+      <c r="Z113" s="40"/>
+      <c r="AA113" s="40"/>
+      <c r="AB113" s="40"/>
+      <c r="AC113" s="40"/>
+      <c r="AD113" s="40"/>
+      <c r="AE113" s="40"/>
+      <c r="AF113" s="40"/>
+      <c r="AG113" s="40"/>
+      <c r="AH113" s="40"/>
+      <c r="AI113" s="40"/>
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="B114" s="78" t="s">
-        <v>403</v>
-      </c>
-      <c r="C114" s="51" t="s">
-        <v>404</v>
-      </c>
-      <c r="D114" s="40"/>
-      <c r="E114" s="56" t="s">
+      <c r="A114" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C114" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="D114" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F114" s="56"/>
+      <c r="E114" s="40"/>
+      <c r="F114" s="40"/>
       <c r="G114" s="40"/>
       <c r="H114" s="40"/>
-      <c r="I114" s="56"/>
-      <c r="J114" s="56"/>
-      <c r="K114" s="56"/>
-      <c r="L114" s="56"/>
-      <c r="M114" s="51"/>
-      <c r="N114" s="51"/>
-      <c r="O114" s="51"/>
-      <c r="P114" s="51"/>
-      <c r="Q114" s="51"/>
-      <c r="R114" s="51"/>
-      <c r="S114" s="51"/>
-      <c r="T114" s="51"/>
-      <c r="U114" s="56"/>
-      <c r="V114" s="51"/>
-      <c r="W114" s="56"/>
-      <c r="X114" s="56"/>
-      <c r="Y114" s="56"/>
-      <c r="Z114" s="56"/>
-      <c r="AA114" s="56"/>
-      <c r="AB114" s="56"/>
-      <c r="AC114" s="56"/>
-      <c r="AD114" s="56"/>
-      <c r="AE114" s="56"/>
-      <c r="AF114" s="56"/>
-      <c r="AG114" s="56"/>
-      <c r="AH114" s="56"/>
-      <c r="AI114" s="56"/>
+      <c r="I114" s="40"/>
+      <c r="J114" s="40"/>
+      <c r="K114" s="40"/>
+      <c r="L114" s="40"/>
+      <c r="M114" s="40"/>
+      <c r="N114" s="40"/>
+      <c r="O114" s="40"/>
+      <c r="P114" s="40"/>
+      <c r="Q114" s="40"/>
+      <c r="R114" s="40"/>
+      <c r="S114" s="40"/>
+      <c r="T114" s="40"/>
+      <c r="U114" s="40"/>
+      <c r="V114" s="40"/>
+      <c r="W114" s="40"/>
+      <c r="X114" s="40"/>
+      <c r="Y114" s="40"/>
+      <c r="Z114" s="40"/>
+      <c r="AA114" s="40"/>
+      <c r="AB114" s="40"/>
+      <c r="AC114" s="40"/>
+      <c r="AD114" s="40"/>
+      <c r="AE114" s="40"/>
+      <c r="AF114" s="40"/>
+      <c r="AG114" s="40"/>
+      <c r="AH114" s="40"/>
+      <c r="AI114" s="40"/>
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="B115" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="C115" s="51" t="s">
-        <v>407</v>
-      </c>
-      <c r="D115" s="40"/>
-      <c r="E115" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="F115" s="56"/>
+      <c r="A115" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B115" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="C115" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D115" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E115" s="40"/>
+      <c r="F115" s="40"/>
       <c r="G115" s="40"/>
       <c r="H115" s="40"/>
-      <c r="I115" s="56" t="s">
-        <v>408</v>
-      </c>
-      <c r="J115" s="56"/>
-      <c r="K115" s="56"/>
-      <c r="L115" s="56"/>
-      <c r="M115" s="51"/>
-      <c r="N115" s="51"/>
-      <c r="O115" s="51"/>
-      <c r="P115" s="51"/>
-      <c r="Q115" s="51"/>
-      <c r="R115" s="51"/>
-      <c r="S115" s="51"/>
-      <c r="T115" s="51"/>
-      <c r="U115" s="56"/>
-      <c r="V115" s="51"/>
-      <c r="W115" s="56"/>
-      <c r="X115" s="56"/>
-      <c r="Y115" s="56"/>
-      <c r="Z115" s="56"/>
-      <c r="AA115" s="56"/>
-      <c r="AB115" s="56"/>
-      <c r="AC115" s="56"/>
-      <c r="AD115" s="56"/>
-      <c r="AE115" s="56"/>
-      <c r="AF115" s="56"/>
-      <c r="AG115" s="56"/>
-      <c r="AH115" s="56"/>
-      <c r="AI115" s="56"/>
+      <c r="I115" s="40"/>
+      <c r="J115" s="40"/>
+      <c r="K115" s="40"/>
+      <c r="L115" s="40"/>
+      <c r="M115" s="40"/>
+      <c r="N115" s="40"/>
+      <c r="O115" s="40"/>
+      <c r="P115" s="40"/>
+      <c r="Q115" s="40"/>
+      <c r="R115" s="40"/>
+      <c r="S115" s="40"/>
+      <c r="T115" s="40"/>
+      <c r="U115" s="40"/>
+      <c r="V115" s="40"/>
+      <c r="W115" s="40"/>
+      <c r="X115" s="40"/>
+      <c r="Y115" s="40"/>
+      <c r="Z115" s="40"/>
+      <c r="AA115" s="40"/>
+      <c r="AB115" s="40"/>
+      <c r="AC115" s="40"/>
+      <c r="AD115" s="40"/>
+      <c r="AE115" s="40"/>
+      <c r="AF115" s="40"/>
+      <c r="AG115" s="40"/>
+      <c r="AH115" s="40"/>
+      <c r="AI115" s="40"/>
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="78" t="s">
-        <v>339</v>
-      </c>
-      <c r="B116" s="78" t="s">
-        <v>409</v>
-      </c>
-      <c r="C116" s="51" t="s">
-        <v>410</v>
-      </c>
-      <c r="D116" s="40"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
+      <c r="A116" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="C116" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="D116" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" s="40"/>
+      <c r="F116" s="40"/>
       <c r="G116" s="40"/>
       <c r="H116" s="40"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="56"/>
-      <c r="K116" s="56"/>
-      <c r="L116" s="56"/>
-      <c r="M116" s="51"/>
-      <c r="N116" s="51"/>
-      <c r="O116" s="51"/>
-      <c r="P116" s="51"/>
-      <c r="Q116" s="51"/>
-      <c r="R116" s="51"/>
-      <c r="S116" s="51"/>
-      <c r="T116" s="51"/>
-      <c r="U116" s="56"/>
-      <c r="V116" s="51"/>
-      <c r="W116" s="56"/>
-      <c r="X116" s="56"/>
-      <c r="Y116" s="56"/>
-      <c r="Z116" s="56"/>
-      <c r="AA116" s="56"/>
-      <c r="AB116" s="56"/>
-      <c r="AC116" s="56"/>
-      <c r="AD116" s="56"/>
-      <c r="AE116" s="56"/>
-      <c r="AF116" s="56"/>
-      <c r="AG116" s="56"/>
-      <c r="AH116" s="56"/>
-      <c r="AI116" s="56"/>
+      <c r="I116" s="40"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="40"/>
+      <c r="L116" s="40"/>
+      <c r="M116" s="40"/>
+      <c r="N116" s="40"/>
+      <c r="O116" s="40"/>
+      <c r="P116" s="40"/>
+      <c r="Q116" s="40"/>
+      <c r="R116" s="40"/>
+      <c r="S116" s="40"/>
+      <c r="T116" s="40"/>
+      <c r="U116" s="40"/>
+      <c r="V116" s="40"/>
+      <c r="W116" s="40"/>
+      <c r="X116" s="40"/>
+      <c r="Y116" s="40"/>
+      <c r="Z116" s="40"/>
+      <c r="AA116" s="40"/>
+      <c r="AB116" s="40"/>
+      <c r="AC116" s="40"/>
+      <c r="AD116" s="40"/>
+      <c r="AE116" s="40"/>
+      <c r="AF116" s="40"/>
+      <c r="AG116" s="40"/>
+      <c r="AH116" s="40"/>
+      <c r="AI116" s="40"/>
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="79" t="s">
+      <c r="A117" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B117" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C117" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="D117" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E117" s="40"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
+      <c r="H117" s="40"/>
+      <c r="I117" s="40"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="40"/>
+      <c r="L117" s="40"/>
+      <c r="M117" s="40"/>
+      <c r="N117" s="40"/>
+      <c r="O117" s="40"/>
+      <c r="P117" s="40"/>
+      <c r="Q117" s="40"/>
+      <c r="R117" s="40"/>
+      <c r="S117" s="40"/>
+      <c r="T117" s="40"/>
+      <c r="U117" s="40"/>
+      <c r="V117" s="40"/>
+      <c r="W117" s="40"/>
+      <c r="X117" s="40"/>
+      <c r="Y117" s="40"/>
+      <c r="Z117" s="40"/>
+      <c r="AA117" s="40"/>
+      <c r="AB117" s="40"/>
+      <c r="AC117" s="40"/>
+      <c r="AD117" s="40"/>
+      <c r="AE117" s="40"/>
+      <c r="AF117" s="40"/>
+      <c r="AG117" s="40"/>
+      <c r="AH117" s="40"/>
+      <c r="AI117" s="40"/>
+    </row>
+    <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B118" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="C118" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D118" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E118" s="40"/>
+      <c r="F118" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="40"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="40"/>
+      <c r="N118" s="40"/>
+      <c r="O118" s="40"/>
+      <c r="P118" s="40"/>
+      <c r="Q118" s="40"/>
+      <c r="R118" s="40"/>
+      <c r="S118" s="40"/>
+      <c r="T118" s="40"/>
+      <c r="U118" s="40"/>
+      <c r="V118" s="40"/>
+      <c r="W118" s="40"/>
+      <c r="X118" s="40"/>
+      <c r="Y118" s="40"/>
+      <c r="Z118" s="40"/>
+      <c r="AA118" s="40"/>
+      <c r="AB118" s="40"/>
+      <c r="AC118" s="40"/>
+      <c r="AD118" s="40"/>
+      <c r="AE118" s="40"/>
+      <c r="AF118" s="40"/>
+      <c r="AG118" s="40"/>
+      <c r="AH118" s="40"/>
+      <c r="AI118" s="40"/>
+    </row>
+    <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="B119" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="C119" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D119" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E119" s="40"/>
+      <c r="F119" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="G119" s="40"/>
+      <c r="H119" s="40"/>
+      <c r="I119" s="40"/>
+      <c r="J119" s="40"/>
+      <c r="K119" s="40"/>
+      <c r="L119" s="40"/>
+      <c r="M119" s="40"/>
+      <c r="N119" s="40"/>
+      <c r="O119" s="40"/>
+      <c r="P119" s="40"/>
+      <c r="Q119" s="40"/>
+      <c r="R119" s="40"/>
+      <c r="S119" s="40"/>
+      <c r="T119" s="40"/>
+      <c r="U119" s="40"/>
+      <c r="V119" s="40"/>
+      <c r="W119" s="40"/>
+      <c r="X119" s="40"/>
+      <c r="Y119" s="40"/>
+      <c r="Z119" s="40"/>
+      <c r="AA119" s="40"/>
+      <c r="AB119" s="40"/>
+      <c r="AC119" s="40"/>
+      <c r="AD119" s="40"/>
+      <c r="AE119" s="40"/>
+      <c r="AF119" s="40"/>
+      <c r="AG119" s="40"/>
+      <c r="AH119" s="40"/>
+      <c r="AI119" s="40"/>
+    </row>
+    <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B120" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="C120" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="40"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
+      <c r="N120" s="40"/>
+      <c r="O120" s="40"/>
+      <c r="P120" s="40"/>
+      <c r="Q120" s="40"/>
+      <c r="R120" s="40"/>
+      <c r="S120" s="40"/>
+      <c r="T120" s="40"/>
+      <c r="U120" s="40"/>
+      <c r="V120" s="40"/>
+      <c r="W120" s="40"/>
+      <c r="X120" s="40"/>
+      <c r="Y120" s="40"/>
+      <c r="Z120" s="40"/>
+      <c r="AA120" s="40"/>
+      <c r="AB120" s="40"/>
+      <c r="AC120" s="40"/>
+      <c r="AD120" s="40"/>
+      <c r="AE120" s="40"/>
+      <c r="AF120" s="40"/>
+      <c r="AG120" s="40"/>
+      <c r="AH120" s="40"/>
+      <c r="AI120" s="40"/>
+    </row>
+    <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B121" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C121" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D121" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E121" s="40"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="40"/>
+      <c r="H121" s="40"/>
+      <c r="I121" s="40"/>
+      <c r="J121" s="40"/>
+      <c r="K121" s="40"/>
+      <c r="L121" s="40"/>
+      <c r="M121" s="40"/>
+      <c r="N121" s="40"/>
+      <c r="O121" s="40"/>
+      <c r="P121" s="40"/>
+      <c r="Q121" s="40"/>
+      <c r="R121" s="40"/>
+      <c r="S121" s="40"/>
+      <c r="T121" s="40"/>
+      <c r="U121" s="40"/>
+      <c r="V121" s="40"/>
+      <c r="W121" s="40"/>
+      <c r="X121" s="40"/>
+      <c r="Y121" s="40"/>
+      <c r="Z121" s="40"/>
+      <c r="AA121" s="40"/>
+      <c r="AB121" s="40"/>
+      <c r="AC121" s="40"/>
+      <c r="AD121" s="40"/>
+      <c r="AE121" s="40"/>
+      <c r="AF121" s="40"/>
+      <c r="AG121" s="40"/>
+      <c r="AH121" s="40"/>
+      <c r="AI121" s="40"/>
+    </row>
+    <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="C122" s="51" t="s">
+        <v>283</v>
+      </c>
+      <c r="D122" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E122" s="40"/>
+      <c r="F122" s="40"/>
+      <c r="G122" s="40"/>
+      <c r="H122" s="40"/>
+      <c r="I122" s="40"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="40"/>
+      <c r="L122" s="40"/>
+      <c r="M122" s="40"/>
+      <c r="N122" s="40"/>
+      <c r="O122" s="40"/>
+      <c r="P122" s="40"/>
+      <c r="Q122" s="40"/>
+      <c r="R122" s="40"/>
+      <c r="S122" s="40"/>
+      <c r="T122" s="40"/>
+      <c r="U122" s="40"/>
+      <c r="V122" s="40"/>
+      <c r="W122" s="40"/>
+      <c r="X122" s="40"/>
+      <c r="Y122" s="40"/>
+      <c r="Z122" s="40"/>
+      <c r="AA122" s="40"/>
+      <c r="AB122" s="40"/>
+      <c r="AC122" s="40"/>
+      <c r="AD122" s="40"/>
+      <c r="AE122" s="40"/>
+      <c r="AF122" s="40"/>
+      <c r="AG122" s="40"/>
+      <c r="AH122" s="40"/>
+      <c r="AI122" s="40"/>
+    </row>
+    <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B123" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C123" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D123" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E123" s="40"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="40"/>
+      <c r="I123" s="40"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="40"/>
+      <c r="L123" s="40"/>
+      <c r="M123" s="40"/>
+      <c r="N123" s="40"/>
+      <c r="O123" s="40"/>
+      <c r="P123" s="40"/>
+      <c r="Q123" s="40"/>
+      <c r="R123" s="40"/>
+      <c r="S123" s="40"/>
+      <c r="T123" s="40"/>
+      <c r="U123" s="40"/>
+      <c r="V123" s="40"/>
+      <c r="W123" s="40"/>
+      <c r="X123" s="40"/>
+      <c r="Y123" s="40"/>
+      <c r="Z123" s="40"/>
+      <c r="AA123" s="40"/>
+      <c r="AB123" s="40"/>
+      <c r="AC123" s="40"/>
+      <c r="AD123" s="40"/>
+      <c r="AE123" s="40"/>
+      <c r="AF123" s="40"/>
+      <c r="AG123" s="40"/>
+      <c r="AH123" s="40"/>
+      <c r="AI123" s="40"/>
+    </row>
+    <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="C124" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="D124" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="G124" s="40"/>
+      <c r="H124" s="40"/>
+      <c r="I124" s="40"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="40"/>
+      <c r="L124" s="40"/>
+      <c r="M124" s="40"/>
+      <c r="N124" s="40"/>
+      <c r="O124" s="40"/>
+      <c r="P124" s="40"/>
+      <c r="Q124" s="40"/>
+      <c r="R124" s="40"/>
+      <c r="S124" s="40"/>
+      <c r="T124" s="40"/>
+      <c r="U124" s="40"/>
+      <c r="V124" s="40"/>
+      <c r="W124" s="40"/>
+      <c r="X124" s="40"/>
+      <c r="Y124" s="40"/>
+      <c r="Z124" s="40"/>
+      <c r="AA124" s="40"/>
+      <c r="AB124" s="40"/>
+      <c r="AC124" s="40"/>
+      <c r="AD124" s="40"/>
+      <c r="AE124" s="40"/>
+      <c r="AF124" s="40"/>
+      <c r="AG124" s="40"/>
+      <c r="AH124" s="40"/>
+      <c r="AI124" s="40"/>
+    </row>
+    <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" s="50"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="40"/>
+      <c r="H125" s="40"/>
+      <c r="I125" s="40"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="40"/>
+      <c r="L125" s="40"/>
+      <c r="M125" s="40"/>
+      <c r="N125" s="40"/>
+      <c r="O125" s="40"/>
+      <c r="P125" s="40"/>
+      <c r="Q125" s="40"/>
+      <c r="R125" s="40"/>
+      <c r="S125" s="40"/>
+      <c r="T125" s="40"/>
+      <c r="U125" s="40"/>
+      <c r="V125" s="40"/>
+      <c r="W125" s="40"/>
+      <c r="X125" s="40"/>
+      <c r="Y125" s="40"/>
+      <c r="Z125" s="40"/>
+      <c r="AA125" s="40"/>
+      <c r="AB125" s="40"/>
+      <c r="AC125" s="40"/>
+      <c r="AD125" s="40"/>
+      <c r="AE125" s="40"/>
+      <c r="AF125" s="40"/>
+      <c r="AG125" s="40"/>
+      <c r="AH125" s="40"/>
+      <c r="AI125" s="40"/>
+    </row>
+    <row r="126" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="54"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
+      <c r="L126" s="54"/>
+      <c r="M126" s="54"/>
+      <c r="N126" s="54"/>
+      <c r="O126" s="54"/>
+      <c r="P126" s="54"/>
+      <c r="Q126" s="54"/>
+      <c r="R126" s="54"/>
+      <c r="S126" s="85"/>
+      <c r="T126" s="85"/>
+      <c r="U126" s="85"/>
+      <c r="V126" s="85"/>
+      <c r="W126" s="85"/>
+      <c r="X126" s="85"/>
+      <c r="Y126" s="85"/>
+      <c r="Z126" s="85"/>
+      <c r="AA126" s="85"/>
+    </row>
+    <row r="127" spans="1:35" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B127" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="C127" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" s="43"/>
+      <c r="E127" s="43"/>
+      <c r="F127" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G127" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H127" s="43"/>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43"/>
+      <c r="M127" s="43"/>
+      <c r="N127" s="43"/>
+      <c r="O127" s="43"/>
+      <c r="P127" s="43"/>
+      <c r="Q127" s="43"/>
+      <c r="R127" s="43"/>
+      <c r="S127" s="44"/>
+      <c r="T127" s="44"/>
+      <c r="U127" s="44"/>
+      <c r="V127" s="44"/>
+      <c r="W127" s="44"/>
+      <c r="X127" s="44"/>
+      <c r="Y127" s="44"/>
+      <c r="Z127" s="44"/>
+      <c r="AA127" s="44"/>
+    </row>
+    <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="B128" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="C128" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="D128" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128" s="40"/>
+      <c r="F128" s="40"/>
+      <c r="G128" s="40"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="40"/>
+      <c r="J128" s="40"/>
+      <c r="K128" s="40"/>
+      <c r="L128" s="40"/>
+      <c r="M128" s="40"/>
+      <c r="N128" s="40"/>
+      <c r="O128" s="40"/>
+      <c r="P128" s="40"/>
+      <c r="Q128" s="40"/>
+      <c r="R128" s="40"/>
+      <c r="S128" s="41"/>
+      <c r="T128" s="41"/>
+      <c r="U128" s="41"/>
+      <c r="V128" s="41"/>
+      <c r="W128" s="41"/>
+      <c r="X128" s="41"/>
+      <c r="Y128" s="41"/>
+      <c r="Z128" s="41"/>
+      <c r="AA128" s="41"/>
+    </row>
+    <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B129" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="C129" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="D129" s="40"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="40"/>
+      <c r="I129" s="40"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="40"/>
+      <c r="L129" s="40"/>
+      <c r="M129" s="40"/>
+      <c r="N129" s="40"/>
+      <c r="O129" s="40"/>
+      <c r="P129" s="40"/>
+      <c r="Q129" s="40"/>
+      <c r="R129" s="40"/>
+      <c r="S129" s="41"/>
+      <c r="T129" s="41"/>
+      <c r="U129" s="41"/>
+      <c r="V129" s="41"/>
+      <c r="W129" s="41"/>
+      <c r="X129" s="41"/>
+      <c r="Y129" s="41"/>
+      <c r="Z129" s="41"/>
+      <c r="AA129" s="41"/>
+    </row>
+    <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B130" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="C130" s="51"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="40"/>
+      <c r="F130" s="40"/>
+      <c r="G130" s="40"/>
+      <c r="H130" s="40"/>
+      <c r="I130" s="40"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="40"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
+      <c r="N130" s="40"/>
+      <c r="O130" s="40"/>
+      <c r="P130" s="40"/>
+      <c r="Q130" s="40"/>
+      <c r="R130" s="40"/>
+      <c r="S130" s="41"/>
+      <c r="T130" s="41"/>
+      <c r="U130" s="41"/>
+      <c r="V130" s="41"/>
+      <c r="W130" s="41"/>
+      <c r="X130" s="41"/>
+      <c r="Y130" s="41"/>
+      <c r="Z130" s="41"/>
+      <c r="AA130" s="41"/>
+    </row>
+    <row r="131" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="54"/>
+      <c r="B131" s="54"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="54"/>
+      <c r="F131" s="54"/>
+      <c r="G131" s="54"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="54"/>
+      <c r="J131" s="54"/>
+      <c r="K131" s="54"/>
+      <c r="L131" s="54"/>
+      <c r="M131" s="54"/>
+      <c r="N131" s="54"/>
+      <c r="O131" s="54"/>
+      <c r="P131" s="54"/>
+      <c r="Q131" s="54"/>
+      <c r="R131" s="54"/>
+      <c r="S131" s="54"/>
+      <c r="T131" s="54"/>
+      <c r="U131" s="54"/>
+      <c r="V131" s="54"/>
+      <c r="W131" s="54"/>
+      <c r="X131" s="54"/>
+      <c r="Y131" s="54"/>
+      <c r="Z131" s="54"/>
+      <c r="AA131" s="54"/>
+      <c r="AB131" s="54"/>
+      <c r="AC131" s="54"/>
+      <c r="AD131" s="54"/>
+      <c r="AE131" s="54"/>
+      <c r="AF131" s="54"/>
+      <c r="AG131" s="54"/>
+      <c r="AH131" s="54"/>
+      <c r="AI131" s="54"/>
+    </row>
+    <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B117" s="79" t="s">
-        <v>412</v>
-      </c>
-      <c r="C117" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D117" s="56"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56" t="s">
-        <v>411</v>
-      </c>
-      <c r="G117" s="56"/>
-      <c r="H117" s="56"/>
-      <c r="I117" s="56"/>
-      <c r="J117" s="80"/>
-      <c r="K117" s="56"/>
-      <c r="L117" s="56"/>
-      <c r="M117" s="56"/>
-      <c r="N117" s="56"/>
-      <c r="O117" s="80"/>
-      <c r="P117" s="56"/>
-      <c r="Q117" s="56"/>
-      <c r="R117" s="56"/>
-      <c r="S117" s="56"/>
-      <c r="T117" s="56"/>
-      <c r="U117" s="56"/>
-      <c r="V117" s="56"/>
-      <c r="W117" s="56"/>
-      <c r="X117" s="56"/>
-      <c r="Y117" s="56"/>
-      <c r="Z117" s="56"/>
-      <c r="AA117" s="56"/>
-      <c r="AB117" s="56"/>
-      <c r="AC117" s="56"/>
-      <c r="AD117" s="56"/>
-      <c r="AE117" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF117" s="56"/>
-      <c r="AG117" s="56"/>
-      <c r="AH117" s="81" t="s">
-        <v>413</v>
-      </c>
-      <c r="AI117" s="56"/>
-    </row>
-    <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B118" s="79" t="s">
-        <v>414</v>
-      </c>
-      <c r="C118" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D118" s="56"/>
-      <c r="E118" s="80"/>
-      <c r="F118" s="56"/>
-      <c r="G118" s="56"/>
-      <c r="H118" s="56"/>
-      <c r="I118" s="80"/>
-      <c r="J118" s="80"/>
-      <c r="K118" s="80" t="s">
-        <v>415</v>
-      </c>
-      <c r="L118" s="80"/>
-      <c r="M118" s="80"/>
-      <c r="N118" s="56"/>
-      <c r="O118" s="56"/>
-      <c r="P118" s="56"/>
-      <c r="Q118" s="56"/>
-      <c r="R118" s="56"/>
-      <c r="S118" s="56"/>
-      <c r="T118" s="80"/>
-      <c r="U118" s="80"/>
-      <c r="V118" s="80"/>
-      <c r="W118" s="80"/>
-      <c r="X118" s="80"/>
-      <c r="Y118" s="80"/>
-      <c r="Z118" s="80"/>
-      <c r="AA118" s="80"/>
-      <c r="AB118" s="80"/>
-      <c r="AC118" s="80"/>
-      <c r="AD118" s="80"/>
-      <c r="AE118" s="80"/>
-      <c r="AF118" s="80"/>
-      <c r="AG118" s="80"/>
-      <c r="AH118" s="80"/>
-      <c r="AI118" s="80"/>
-    </row>
-    <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B119" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="C119" s="80" t="s">
-        <v>416</v>
-      </c>
-      <c r="D119" s="56"/>
-      <c r="E119" s="56"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="56"/>
-      <c r="J119" s="56"/>
-      <c r="K119" s="80" t="s">
-        <v>417</v>
-      </c>
-      <c r="L119" s="56"/>
-      <c r="M119" s="56"/>
-      <c r="N119" s="56"/>
-      <c r="O119" s="56"/>
-      <c r="P119" s="56"/>
-      <c r="Q119" s="56"/>
-      <c r="R119" s="56"/>
-      <c r="S119" s="56"/>
-      <c r="T119" s="80"/>
-      <c r="U119" s="56"/>
-      <c r="V119" s="56"/>
-      <c r="W119" s="56"/>
-      <c r="X119" s="56"/>
-      <c r="Y119" s="56"/>
-      <c r="Z119" s="56"/>
-      <c r="AA119" s="56"/>
-      <c r="AB119" s="56"/>
-      <c r="AC119" s="56"/>
-      <c r="AD119" s="56"/>
-      <c r="AE119" s="56"/>
-      <c r="AF119" s="56"/>
-      <c r="AG119" s="56"/>
-      <c r="AH119" s="56"/>
-      <c r="AI119" s="56"/>
-    </row>
-    <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B120" s="79" t="s">
-        <v>418</v>
-      </c>
-      <c r="C120" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D120" s="56"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="56"/>
-      <c r="J120" s="56"/>
-      <c r="K120" s="80" t="s">
-        <v>419</v>
-      </c>
-      <c r="L120" s="56"/>
-      <c r="M120" s="56"/>
-      <c r="N120" s="56"/>
-      <c r="O120" s="56"/>
-      <c r="P120" s="56"/>
-      <c r="Q120" s="56"/>
-      <c r="R120" s="56"/>
-      <c r="S120" s="56"/>
-      <c r="T120" s="80"/>
-      <c r="U120" s="80"/>
-      <c r="V120" s="80"/>
-      <c r="W120" s="80"/>
-      <c r="X120" s="80"/>
-      <c r="Y120" s="80"/>
-      <c r="Z120" s="80"/>
-      <c r="AA120" s="80"/>
-      <c r="AB120" s="80"/>
-      <c r="AC120" s="80"/>
-      <c r="AD120" s="80"/>
-      <c r="AE120" s="80"/>
-      <c r="AF120" s="80"/>
-      <c r="AG120" s="80"/>
-      <c r="AH120" s="80"/>
-      <c r="AI120" s="80"/>
-    </row>
-    <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B121" s="79" t="s">
-        <v>420</v>
-      </c>
-      <c r="C121" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D121" s="56"/>
-      <c r="E121" s="80"/>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="80"/>
-      <c r="J121" s="80"/>
-      <c r="K121" s="80" t="s">
-        <v>421</v>
-      </c>
-      <c r="L121" s="80"/>
-      <c r="M121" s="80"/>
-      <c r="N121" s="80"/>
-      <c r="O121" s="80"/>
-      <c r="P121" s="80"/>
-      <c r="Q121" s="80"/>
-      <c r="R121" s="80"/>
-      <c r="S121" s="80"/>
-      <c r="T121" s="80"/>
-      <c r="U121" s="80"/>
-      <c r="V121" s="80"/>
-      <c r="W121" s="80"/>
-      <c r="X121" s="80"/>
-      <c r="Y121" s="80"/>
-      <c r="Z121" s="80"/>
-      <c r="AA121" s="80"/>
-      <c r="AB121" s="80"/>
-      <c r="AC121" s="80"/>
-      <c r="AD121" s="80"/>
-      <c r="AE121" s="80"/>
-      <c r="AF121" s="80"/>
-      <c r="AG121" s="80"/>
-      <c r="AH121" s="80"/>
-      <c r="AI121" s="80"/>
-    </row>
-    <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B122" s="79" t="s">
-        <v>422</v>
-      </c>
-      <c r="C122" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D122" s="56"/>
-      <c r="E122" s="56"/>
-      <c r="F122" s="56"/>
-      <c r="G122" s="56"/>
-      <c r="H122" s="56"/>
-      <c r="I122" s="56"/>
-      <c r="J122" s="56"/>
-      <c r="K122" s="56"/>
-      <c r="L122" s="56"/>
-      <c r="M122" s="56"/>
-      <c r="N122" s="56"/>
-      <c r="O122" s="56"/>
-      <c r="P122" s="56"/>
-      <c r="Q122" s="56"/>
-      <c r="R122" s="56"/>
-      <c r="S122" s="56"/>
-      <c r="T122" s="56"/>
-      <c r="U122" s="56"/>
-      <c r="V122" s="56"/>
-      <c r="W122" s="56"/>
-      <c r="X122" s="56"/>
-      <c r="Y122" s="56"/>
-      <c r="Z122" s="56"/>
-      <c r="AA122" s="56"/>
-      <c r="AB122" s="56"/>
-      <c r="AC122" s="56"/>
-      <c r="AD122" s="56"/>
-      <c r="AE122" s="56"/>
-      <c r="AF122" s="56"/>
-      <c r="AG122" s="56"/>
-      <c r="AH122" s="56"/>
-      <c r="AI122" s="56"/>
-    </row>
-    <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B123" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="C123" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D123" s="80"/>
-      <c r="E123" s="80"/>
-      <c r="F123" s="80"/>
-      <c r="G123" s="80"/>
-      <c r="H123" s="80"/>
-      <c r="I123" s="80"/>
-      <c r="J123" s="80"/>
-      <c r="K123" s="80" t="s">
-        <v>423</v>
-      </c>
-      <c r="L123" s="80"/>
-      <c r="M123" s="80"/>
-      <c r="N123" s="80"/>
-      <c r="O123" s="80"/>
-      <c r="P123" s="80"/>
-      <c r="Q123" s="80"/>
-      <c r="R123" s="80"/>
-      <c r="S123" s="80"/>
-      <c r="T123" s="80"/>
-      <c r="U123" s="80"/>
-      <c r="V123" s="80"/>
-      <c r="W123" s="80"/>
-      <c r="X123" s="80"/>
-      <c r="Y123" s="80"/>
-      <c r="Z123" s="80"/>
-      <c r="AA123" s="80"/>
-      <c r="AB123" s="80"/>
-      <c r="AC123" s="80"/>
-      <c r="AD123" s="80"/>
-      <c r="AE123" s="80"/>
-      <c r="AF123" s="80"/>
-      <c r="AG123" s="80"/>
-      <c r="AH123" s="80"/>
-      <c r="AI123" s="80"/>
-    </row>
-    <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B124" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="C124" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D124" s="80"/>
-      <c r="E124" s="80"/>
-      <c r="F124" s="80"/>
-      <c r="G124" s="80"/>
-      <c r="H124" s="80"/>
-      <c r="I124" s="80"/>
-      <c r="J124" s="80"/>
-      <c r="K124" s="80" t="s">
-        <v>424</v>
-      </c>
-      <c r="L124" s="80"/>
-      <c r="M124" s="80"/>
-      <c r="N124" s="80"/>
-      <c r="O124" s="80"/>
-      <c r="P124" s="80"/>
-      <c r="Q124" s="80"/>
-      <c r="R124" s="80"/>
-      <c r="S124" s="80"/>
-      <c r="T124" s="80"/>
-      <c r="U124" s="80"/>
-      <c r="V124" s="80"/>
-      <c r="W124" s="80"/>
-      <c r="X124" s="80"/>
-      <c r="Y124" s="80"/>
-      <c r="Z124" s="80"/>
-      <c r="AA124" s="80"/>
-      <c r="AB124" s="80"/>
-      <c r="AC124" s="80"/>
-      <c r="AD124" s="80"/>
-      <c r="AE124" s="80"/>
-      <c r="AF124" s="80"/>
-      <c r="AG124" s="80"/>
-      <c r="AH124" s="80"/>
-      <c r="AI124" s="80"/>
-    </row>
-    <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B125" s="79" t="s">
-        <v>425</v>
-      </c>
-      <c r="C125" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D125" s="56"/>
-      <c r="E125" s="56"/>
-      <c r="F125" s="56"/>
-      <c r="G125" s="56"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="56"/>
-      <c r="K125" s="56"/>
-      <c r="L125" s="56"/>
-      <c r="M125" s="56"/>
-      <c r="N125" s="56"/>
-      <c r="O125" s="56"/>
-      <c r="P125" s="56"/>
-      <c r="Q125" s="56"/>
-      <c r="R125" s="56"/>
-      <c r="S125" s="56"/>
-      <c r="T125" s="56"/>
-      <c r="U125" s="56"/>
-      <c r="V125" s="56"/>
-      <c r="W125" s="56"/>
-      <c r="X125" s="56"/>
-      <c r="Y125" s="56"/>
-      <c r="Z125" s="56"/>
-      <c r="AA125" s="56"/>
-      <c r="AB125" s="56"/>
-      <c r="AC125" s="56"/>
-      <c r="AD125" s="56"/>
-      <c r="AE125" s="56"/>
-      <c r="AF125" s="56"/>
-      <c r="AG125" s="56"/>
-      <c r="AH125" s="56"/>
-      <c r="AI125" s="56"/>
-    </row>
-    <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B126" s="79" t="s">
-        <v>426</v>
-      </c>
-      <c r="C126" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D126" s="56"/>
-      <c r="E126" s="56"/>
-      <c r="F126" s="56"/>
-      <c r="G126" s="56"/>
-      <c r="H126" s="56"/>
-      <c r="I126" s="56"/>
-      <c r="J126" s="56"/>
-      <c r="K126" s="80" t="s">
-        <v>427</v>
-      </c>
-      <c r="L126" s="56"/>
-      <c r="M126" s="56"/>
-      <c r="N126" s="56"/>
-      <c r="O126" s="56"/>
-      <c r="P126" s="56"/>
-      <c r="Q126" s="56"/>
-      <c r="R126" s="56"/>
-      <c r="S126" s="56"/>
-      <c r="T126" s="80"/>
-      <c r="U126" s="56"/>
-      <c r="V126" s="56"/>
-      <c r="W126" s="56"/>
-      <c r="X126" s="56"/>
-      <c r="Y126" s="56"/>
-      <c r="Z126" s="56"/>
-      <c r="AA126" s="56"/>
-      <c r="AB126" s="56"/>
-      <c r="AC126" s="56"/>
-      <c r="AD126" s="56"/>
-      <c r="AE126" s="56"/>
-      <c r="AF126" s="56"/>
-      <c r="AG126" s="56"/>
-      <c r="AH126" s="56"/>
-      <c r="AI126" s="56"/>
-    </row>
-    <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B127" s="79" t="s">
-        <v>428</v>
-      </c>
-      <c r="C127" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D127" s="56"/>
-      <c r="E127" s="56"/>
-      <c r="F127" s="56"/>
-      <c r="G127" s="56"/>
-      <c r="H127" s="56"/>
-      <c r="I127" s="56"/>
-      <c r="J127" s="56"/>
-      <c r="K127" s="80" t="s">
-        <v>429</v>
-      </c>
-      <c r="L127" s="56"/>
-      <c r="M127" s="56"/>
-      <c r="N127" s="56"/>
-      <c r="O127" s="56"/>
-      <c r="P127" s="56"/>
-      <c r="Q127" s="56"/>
-      <c r="R127" s="56"/>
-      <c r="S127" s="56"/>
-      <c r="T127" s="80"/>
-      <c r="U127" s="56"/>
-      <c r="V127" s="56"/>
-      <c r="W127" s="56"/>
-      <c r="X127" s="56"/>
-      <c r="Y127" s="56"/>
-      <c r="Z127" s="56"/>
-      <c r="AA127" s="56"/>
-      <c r="AB127" s="56"/>
-      <c r="AC127" s="56"/>
-      <c r="AD127" s="56"/>
-      <c r="AE127" s="56"/>
-      <c r="AF127" s="56"/>
-      <c r="AG127" s="56"/>
-      <c r="AH127" s="56"/>
-      <c r="AI127" s="56"/>
-    </row>
-    <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B128" s="79" t="s">
-        <v>430</v>
-      </c>
-      <c r="C128" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D128" s="56"/>
-      <c r="E128" s="56"/>
-      <c r="F128" s="56"/>
-      <c r="G128" s="56"/>
-      <c r="H128" s="56"/>
-      <c r="I128" s="56"/>
-      <c r="J128" s="56"/>
-      <c r="K128" s="80" t="s">
-        <v>431</v>
-      </c>
-      <c r="L128" s="56"/>
-      <c r="M128" s="56"/>
-      <c r="N128" s="56"/>
-      <c r="O128" s="56"/>
-      <c r="P128" s="56"/>
-      <c r="Q128" s="56"/>
-      <c r="R128" s="56"/>
-      <c r="S128" s="56"/>
-      <c r="T128" s="80"/>
-      <c r="U128" s="56"/>
-      <c r="V128" s="56"/>
-      <c r="W128" s="56"/>
-      <c r="X128" s="56"/>
-      <c r="Y128" s="56"/>
-      <c r="Z128" s="56"/>
-      <c r="AA128" s="56"/>
-      <c r="AB128" s="56"/>
-      <c r="AC128" s="56"/>
-      <c r="AD128" s="56"/>
-      <c r="AE128" s="56"/>
-      <c r="AF128" s="56"/>
-      <c r="AG128" s="56"/>
-      <c r="AH128" s="56"/>
-      <c r="AI128" s="56"/>
-    </row>
-    <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="B129" s="79" t="s">
-        <v>432</v>
-      </c>
-      <c r="C129" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D129" s="56"/>
-      <c r="E129" s="80"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="56"/>
-      <c r="H129" s="56"/>
-      <c r="I129" s="80"/>
-      <c r="J129" s="80"/>
-      <c r="K129" s="80" t="s">
-        <v>433</v>
-      </c>
-      <c r="L129" s="80"/>
-      <c r="M129" s="80"/>
-      <c r="N129" s="80"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="80"/>
-      <c r="Q129" s="80"/>
-      <c r="R129" s="80"/>
-      <c r="S129" s="80"/>
-      <c r="T129" s="80"/>
-      <c r="U129" s="80"/>
-      <c r="V129" s="80"/>
-      <c r="W129" s="80"/>
-      <c r="X129" s="80"/>
-      <c r="Y129" s="80"/>
-      <c r="Z129" s="80"/>
-      <c r="AA129" s="80"/>
-      <c r="AB129" s="80"/>
-      <c r="AC129" s="80"/>
-      <c r="AD129" s="80"/>
-      <c r="AE129" s="80"/>
-      <c r="AF129" s="80"/>
-      <c r="AG129" s="80"/>
-      <c r="AH129" s="80"/>
-      <c r="AI129" s="80"/>
-    </row>
-    <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B130" s="79"/>
-      <c r="C130" s="56"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="56"/>
-      <c r="H130" s="56"/>
-      <c r="I130" s="56"/>
-      <c r="J130" s="56"/>
-      <c r="K130" s="56"/>
-      <c r="L130" s="56"/>
-      <c r="M130" s="56"/>
-      <c r="N130" s="56"/>
-      <c r="O130" s="56"/>
-      <c r="P130" s="56"/>
-      <c r="Q130" s="56"/>
-      <c r="R130" s="56"/>
-      <c r="S130" s="56"/>
-      <c r="T130" s="56"/>
-      <c r="U130" s="56"/>
-      <c r="V130" s="56"/>
-      <c r="W130" s="56"/>
-      <c r="X130" s="56"/>
-      <c r="Y130" s="56"/>
-      <c r="Z130" s="56"/>
-      <c r="AA130" s="56"/>
-      <c r="AB130" s="56"/>
-      <c r="AC130" s="56"/>
-      <c r="AD130" s="56"/>
-      <c r="AE130" s="56"/>
-      <c r="AF130" s="56"/>
-      <c r="AG130" s="56"/>
-      <c r="AH130" s="56"/>
-      <c r="AI130" s="56"/>
-    </row>
-    <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B131" s="79"/>
-      <c r="C131" s="56"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="56"/>
-      <c r="F131" s="56"/>
-      <c r="G131" s="56"/>
-      <c r="H131" s="56"/>
-      <c r="I131" s="56"/>
-      <c r="J131" s="56"/>
-      <c r="K131" s="56"/>
-      <c r="L131" s="56"/>
-      <c r="M131" s="56"/>
-      <c r="N131" s="56"/>
-      <c r="O131" s="56"/>
-      <c r="P131" s="56"/>
-      <c r="Q131" s="56"/>
-      <c r="R131" s="56"/>
-      <c r="S131" s="56"/>
-      <c r="T131" s="56"/>
-      <c r="U131" s="56"/>
-      <c r="V131" s="56"/>
-      <c r="W131" s="56"/>
-      <c r="X131" s="56"/>
-      <c r="Y131" s="56"/>
-      <c r="Z131" s="56"/>
-      <c r="AA131" s="56"/>
-      <c r="AB131" s="56"/>
-      <c r="AC131" s="56"/>
-      <c r="AD131" s="56"/>
-      <c r="AE131" s="56"/>
-      <c r="AF131" s="56"/>
-      <c r="AG131" s="56"/>
-      <c r="AH131" s="56"/>
-      <c r="AI131" s="56"/>
-    </row>
-    <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B132" s="79"/>
-      <c r="C132" s="56"/>
-      <c r="D132" s="56"/>
+      <c r="B132" s="78" t="s">
+        <v>396</v>
+      </c>
+      <c r="C132" s="51" t="s">
+        <v>397</v>
+      </c>
+      <c r="D132" s="40"/>
       <c r="E132" s="56"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="56"/>
-      <c r="H132" s="56"/>
+      <c r="F132" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="G132" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H132" s="40"/>
       <c r="I132" s="56"/>
       <c r="J132" s="56"/>
       <c r="K132" s="56"/>
-      <c r="L132" s="56"/>
-      <c r="M132" s="56"/>
-      <c r="N132" s="56"/>
-      <c r="O132" s="56"/>
-      <c r="P132" s="56"/>
-      <c r="Q132" s="56"/>
-      <c r="R132" s="56"/>
-      <c r="S132" s="56"/>
-      <c r="T132" s="56"/>
+      <c r="L132" s="51"/>
+      <c r="M132" s="51"/>
+      <c r="N132" s="51"/>
+      <c r="O132" s="51"/>
+      <c r="P132" s="51"/>
+      <c r="Q132" s="51"/>
+      <c r="R132" s="51"/>
+      <c r="S132" s="51"/>
+      <c r="T132" s="51"/>
       <c r="U132" s="56"/>
-      <c r="V132" s="56"/>
+      <c r="V132" s="51"/>
       <c r="W132" s="56"/>
       <c r="X132" s="56"/>
       <c r="Y132" s="56"/>
@@ -7254,36 +7128,38 @@
       <c r="AI132" s="56"/>
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="B133" s="82" t="s">
-        <v>434</v>
-      </c>
-      <c r="C133" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="D133" s="56"/>
-      <c r="E133" s="56"/>
+      <c r="A133" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="B133" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="C133" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133" s="40"/>
+      <c r="E133" s="56" t="s">
+        <v>56</v>
+      </c>
       <c r="F133" s="56"/>
-      <c r="G133" s="56"/>
-      <c r="H133" s="56"/>
-      <c r="I133" s="56"/>
+      <c r="G133" s="40"/>
+      <c r="H133" s="40"/>
+      <c r="I133" s="51" t="s">
+        <v>400</v>
+      </c>
       <c r="J133" s="56"/>
-      <c r="K133" s="56" t="s">
-        <v>435</v>
-      </c>
-      <c r="L133" s="56"/>
-      <c r="M133" s="56"/>
-      <c r="N133" s="56"/>
-      <c r="O133" s="56"/>
-      <c r="P133" s="56"/>
-      <c r="Q133" s="56"/>
-      <c r="R133" s="56"/>
-      <c r="S133" s="56"/>
-      <c r="T133" s="56"/>
+      <c r="K133" s="56"/>
+      <c r="L133" s="51"/>
+      <c r="M133" s="51"/>
+      <c r="N133" s="51"/>
+      <c r="O133" s="51"/>
+      <c r="P133" s="51"/>
+      <c r="Q133" s="51"/>
+      <c r="R133" s="51"/>
+      <c r="S133" s="51"/>
+      <c r="T133" s="51"/>
       <c r="U133" s="56"/>
-      <c r="V133" s="56"/>
+      <c r="V133" s="51"/>
       <c r="W133" s="56"/>
       <c r="X133" s="56"/>
       <c r="Y133" s="56"/>
@@ -7300,13 +7176,19 @@
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B134" s="78"/>
-      <c r="C134" s="51"/>
+        <v>401</v>
+      </c>
+      <c r="B134" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="C134" s="51" t="s">
+        <v>403</v>
+      </c>
       <c r="D134" s="40"/>
-      <c r="E134" s="56"/>
-      <c r="F134" s="40"/>
+      <c r="E134" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F134" s="56"/>
       <c r="G134" s="40"/>
       <c r="H134" s="40"/>
       <c r="I134" s="56"/>
@@ -7337,930 +7219,950 @@
       <c r="AH134" s="56"/>
       <c r="AI134" s="56"/>
     </row>
-    <row r="135" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="55"/>
-      <c r="B135" s="55"/>
-      <c r="C135" s="55"/>
-      <c r="D135" s="54"/>
-      <c r="E135" s="86"/>
-      <c r="F135" s="54"/>
-      <c r="G135" s="54"/>
-      <c r="H135" s="54"/>
-      <c r="I135" s="86"/>
-      <c r="J135" s="86"/>
-      <c r="K135" s="86"/>
-      <c r="L135" s="86"/>
-      <c r="M135" s="55"/>
-      <c r="N135" s="55"/>
-      <c r="O135" s="55"/>
-      <c r="P135" s="55"/>
-      <c r="Q135" s="55"/>
-      <c r="R135" s="55"/>
-      <c r="S135" s="55"/>
-      <c r="T135" s="55"/>
-      <c r="U135" s="86"/>
-      <c r="V135" s="55"/>
-      <c r="W135" s="86"/>
-      <c r="X135" s="86"/>
-      <c r="Y135" s="86"/>
-      <c r="Z135" s="86"/>
-      <c r="AA135" s="86"/>
-      <c r="AB135" s="86"/>
-      <c r="AC135" s="86"/>
-      <c r="AD135" s="86"/>
-      <c r="AE135" s="86"/>
-      <c r="AF135" s="86"/>
-      <c r="AG135" s="86"/>
-      <c r="AH135" s="86"/>
-      <c r="AI135" s="86"/>
-    </row>
-    <row r="136" spans="1:35" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B136" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="C136" s="42" t="s">
-        <v>459</v>
-      </c>
-      <c r="D136" s="43"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="43"/>
-      <c r="G136" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="H136" s="43"/>
-      <c r="I136" s="43"/>
-      <c r="J136" s="43"/>
-      <c r="K136" s="43"/>
-      <c r="L136" s="43"/>
-      <c r="M136" s="43"/>
-      <c r="N136" s="43"/>
-      <c r="O136" s="43"/>
-      <c r="P136" s="43"/>
-      <c r="Q136" s="43"/>
-      <c r="R136" s="43"/>
-      <c r="S136" s="44"/>
-      <c r="T136" s="44"/>
-      <c r="U136" s="44"/>
-      <c r="V136" s="44"/>
-      <c r="W136" s="44"/>
-      <c r="X136" s="44"/>
-      <c r="Y136" s="44"/>
-      <c r="Z136" s="44"/>
-      <c r="AA136" s="44"/>
+    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="B135" s="78" t="s">
+        <v>405</v>
+      </c>
+      <c r="C135" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="D135" s="40"/>
+      <c r="E135" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="F135" s="56"/>
+      <c r="G135" s="40"/>
+      <c r="H135" s="40"/>
+      <c r="I135" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="J135" s="56"/>
+      <c r="K135" s="56"/>
+      <c r="L135" s="56"/>
+      <c r="M135" s="51"/>
+      <c r="N135" s="51"/>
+      <c r="O135" s="51"/>
+      <c r="P135" s="51"/>
+      <c r="Q135" s="51"/>
+      <c r="R135" s="51"/>
+      <c r="S135" s="51"/>
+      <c r="T135" s="51"/>
+      <c r="U135" s="56"/>
+      <c r="V135" s="51"/>
+      <c r="W135" s="56"/>
+      <c r="X135" s="56"/>
+      <c r="Y135" s="56"/>
+      <c r="Z135" s="56"/>
+      <c r="AA135" s="56"/>
+      <c r="AB135" s="56"/>
+      <c r="AC135" s="56"/>
+      <c r="AD135" s="56"/>
+      <c r="AE135" s="56"/>
+      <c r="AF135" s="56"/>
+      <c r="AG135" s="56"/>
+      <c r="AH135" s="56"/>
+      <c r="AI135" s="56"/>
+    </row>
+    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="B136" s="78" t="s">
+        <v>408</v>
+      </c>
+      <c r="C136" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="D136" s="40"/>
+      <c r="E136" s="56"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="40"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="56"/>
+      <c r="J136" s="56"/>
+      <c r="K136" s="56"/>
+      <c r="L136" s="56"/>
+      <c r="M136" s="51"/>
+      <c r="N136" s="51"/>
+      <c r="O136" s="51"/>
+      <c r="P136" s="51"/>
+      <c r="Q136" s="51"/>
+      <c r="R136" s="51"/>
+      <c r="S136" s="51"/>
+      <c r="T136" s="51"/>
+      <c r="U136" s="56"/>
+      <c r="V136" s="51"/>
+      <c r="W136" s="56"/>
+      <c r="X136" s="56"/>
+      <c r="Y136" s="56"/>
+      <c r="Z136" s="56"/>
+      <c r="AA136" s="56"/>
+      <c r="AB136" s="56"/>
+      <c r="AC136" s="56"/>
+      <c r="AD136" s="56"/>
+      <c r="AE136" s="56"/>
+      <c r="AF136" s="56"/>
+      <c r="AG136" s="56"/>
+      <c r="AH136" s="56"/>
+      <c r="AI136" s="56"/>
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="B137" s="50" t="s">
-        <v>464</v>
-      </c>
-      <c r="C137" s="40" t="s">
-        <v>465</v>
-      </c>
-      <c r="D137" s="40"/>
-      <c r="E137" s="40"/>
-      <c r="F137" s="40"/>
-      <c r="G137" s="40"/>
-      <c r="H137" s="40"/>
-      <c r="I137" s="40"/>
-      <c r="J137" s="40"/>
-      <c r="K137" s="40"/>
-      <c r="L137" s="40"/>
-      <c r="M137" s="40"/>
-      <c r="N137" s="40"/>
-      <c r="O137" s="40"/>
-      <c r="P137" s="40"/>
-      <c r="Q137" s="40"/>
-      <c r="R137" s="40"/>
-      <c r="S137" s="41"/>
-      <c r="T137" s="41"/>
-      <c r="U137" s="41"/>
-      <c r="V137" s="41"/>
-      <c r="W137" s="41"/>
-      <c r="X137" s="41"/>
-      <c r="Y137" s="41"/>
-      <c r="Z137" s="41"/>
-      <c r="AA137" s="41"/>
+      <c r="A137" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B137" s="79" t="s">
+        <v>411</v>
+      </c>
+      <c r="C137" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D137" s="56"/>
+      <c r="E137" s="56"/>
+      <c r="F137" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="G137" s="56"/>
+      <c r="H137" s="56"/>
+      <c r="I137" s="56"/>
+      <c r="J137" s="80"/>
+      <c r="K137" s="56"/>
+      <c r="L137" s="56"/>
+      <c r="M137" s="56"/>
+      <c r="N137" s="56"/>
+      <c r="O137" s="80"/>
+      <c r="P137" s="56"/>
+      <c r="Q137" s="56"/>
+      <c r="R137" s="56"/>
+      <c r="S137" s="56"/>
+      <c r="T137" s="56"/>
+      <c r="U137" s="56"/>
+      <c r="V137" s="56"/>
+      <c r="W137" s="56"/>
+      <c r="X137" s="56"/>
+      <c r="Y137" s="56"/>
+      <c r="Z137" s="56"/>
+      <c r="AA137" s="56"/>
+      <c r="AB137" s="56"/>
+      <c r="AC137" s="56"/>
+      <c r="AD137" s="56"/>
+      <c r="AE137" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF137" s="56"/>
+      <c r="AG137" s="56"/>
+      <c r="AH137" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="AI137" s="56"/>
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="B138" s="50" t="s">
-        <v>466</v>
-      </c>
-      <c r="C138" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="D138" s="40"/>
-      <c r="E138" s="40"/>
-      <c r="F138" s="40"/>
-      <c r="G138" s="40"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="40"/>
-      <c r="J138" s="40"/>
-      <c r="K138" s="40"/>
-      <c r="L138" s="40"/>
-      <c r="M138" s="40"/>
-      <c r="N138" s="40"/>
-      <c r="O138" s="40"/>
-      <c r="P138" s="40"/>
-      <c r="Q138" s="40"/>
-      <c r="R138" s="40"/>
-      <c r="S138" s="41"/>
-      <c r="T138" s="41"/>
-      <c r="U138" s="41"/>
-      <c r="V138" s="41"/>
-      <c r="W138" s="41"/>
-      <c r="X138" s="41"/>
-      <c r="Y138" s="41"/>
-      <c r="Z138" s="41"/>
-      <c r="AA138" s="41"/>
+      <c r="A138" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B138" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="C138" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D138" s="56"/>
+      <c r="E138" s="80"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="56"/>
+      <c r="H138" s="56"/>
+      <c r="I138" s="80"/>
+      <c r="J138" s="80"/>
+      <c r="K138" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="L138" s="80"/>
+      <c r="M138" s="80"/>
+      <c r="N138" s="56"/>
+      <c r="O138" s="56"/>
+      <c r="P138" s="56"/>
+      <c r="Q138" s="56"/>
+      <c r="R138" s="56"/>
+      <c r="S138" s="56"/>
+      <c r="T138" s="80"/>
+      <c r="U138" s="80"/>
+      <c r="V138" s="80"/>
+      <c r="W138" s="80"/>
+      <c r="X138" s="80"/>
+      <c r="Y138" s="80"/>
+      <c r="Z138" s="80"/>
+      <c r="AA138" s="80"/>
+      <c r="AB138" s="80"/>
+      <c r="AC138" s="80"/>
+      <c r="AD138" s="80"/>
+      <c r="AE138" s="80"/>
+      <c r="AF138" s="80"/>
+      <c r="AG138" s="80"/>
+      <c r="AH138" s="80"/>
+      <c r="AI138" s="80"/>
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="B139" s="50" t="s">
-        <v>468</v>
-      </c>
-      <c r="C139" s="40" t="s">
-        <v>469</v>
-      </c>
-      <c r="D139" s="40"/>
-      <c r="E139" s="40"/>
-      <c r="F139" s="40"/>
-      <c r="G139" s="40"/>
-      <c r="H139" s="40"/>
-      <c r="I139" s="40"/>
-      <c r="J139" s="40"/>
-      <c r="K139" s="40"/>
-      <c r="L139" s="40"/>
-      <c r="M139" s="40"/>
-      <c r="N139" s="40"/>
-      <c r="O139" s="40"/>
-      <c r="P139" s="40"/>
-      <c r="Q139" s="40"/>
-      <c r="R139" s="40"/>
-      <c r="S139" s="41"/>
-      <c r="T139" s="41"/>
-      <c r="U139" s="41"/>
-      <c r="V139" s="41"/>
-      <c r="W139" s="41"/>
-      <c r="X139" s="41"/>
-      <c r="Y139" s="41"/>
-      <c r="Z139" s="41"/>
-      <c r="AA139" s="41"/>
+      <c r="A139" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B139" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="80" t="s">
+        <v>415</v>
+      </c>
+      <c r="D139" s="56"/>
+      <c r="E139" s="56"/>
+      <c r="F139" s="56"/>
+      <c r="G139" s="56"/>
+      <c r="H139" s="56"/>
+      <c r="I139" s="56"/>
+      <c r="J139" s="56"/>
+      <c r="K139" s="80" t="s">
+        <v>416</v>
+      </c>
+      <c r="L139" s="56"/>
+      <c r="M139" s="56"/>
+      <c r="N139" s="56"/>
+      <c r="O139" s="56"/>
+      <c r="P139" s="56"/>
+      <c r="Q139" s="56"/>
+      <c r="R139" s="56"/>
+      <c r="S139" s="56"/>
+      <c r="T139" s="80"/>
+      <c r="U139" s="56"/>
+      <c r="V139" s="56"/>
+      <c r="W139" s="56"/>
+      <c r="X139" s="56"/>
+      <c r="Y139" s="56"/>
+      <c r="Z139" s="56"/>
+      <c r="AA139" s="56"/>
+      <c r="AB139" s="56"/>
+      <c r="AC139" s="56"/>
+      <c r="AD139" s="56"/>
+      <c r="AE139" s="56"/>
+      <c r="AF139" s="56"/>
+      <c r="AG139" s="56"/>
+      <c r="AH139" s="56"/>
+      <c r="AI139" s="56"/>
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="B140" s="50" t="s">
-        <v>470</v>
-      </c>
-      <c r="C140" s="40" t="s">
-        <v>471</v>
-      </c>
-      <c r="D140" s="40"/>
-      <c r="E140" s="40"/>
-      <c r="F140" s="40"/>
-      <c r="G140" s="40"/>
-      <c r="H140" s="40"/>
-      <c r="I140" s="40"/>
-      <c r="J140" s="40"/>
-      <c r="K140" s="40"/>
-      <c r="L140" s="40"/>
-      <c r="M140" s="40"/>
-      <c r="N140" s="40"/>
-      <c r="O140" s="40"/>
-      <c r="P140" s="40"/>
-      <c r="Q140" s="40"/>
-      <c r="R140" s="40"/>
-      <c r="S140" s="41"/>
-      <c r="T140" s="41"/>
-      <c r="U140" s="41"/>
-      <c r="V140" s="41"/>
-      <c r="W140" s="41"/>
-      <c r="X140" s="41"/>
-      <c r="Y140" s="41"/>
-      <c r="Z140" s="41"/>
-      <c r="AA140" s="41"/>
+      <c r="A140" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B140" s="79" t="s">
+        <v>417</v>
+      </c>
+      <c r="C140" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D140" s="56"/>
+      <c r="E140" s="56"/>
+      <c r="F140" s="56"/>
+      <c r="G140" s="56"/>
+      <c r="H140" s="56"/>
+      <c r="I140" s="56"/>
+      <c r="J140" s="56"/>
+      <c r="K140" s="80" t="s">
+        <v>418</v>
+      </c>
+      <c r="L140" s="56"/>
+      <c r="M140" s="56"/>
+      <c r="N140" s="56"/>
+      <c r="O140" s="56"/>
+      <c r="P140" s="56"/>
+      <c r="Q140" s="56"/>
+      <c r="R140" s="56"/>
+      <c r="S140" s="56"/>
+      <c r="T140" s="80"/>
+      <c r="U140" s="80"/>
+      <c r="V140" s="80"/>
+      <c r="W140" s="80"/>
+      <c r="X140" s="80"/>
+      <c r="Y140" s="80"/>
+      <c r="Z140" s="80"/>
+      <c r="AA140" s="80"/>
+      <c r="AB140" s="80"/>
+      <c r="AC140" s="80"/>
+      <c r="AD140" s="80"/>
+      <c r="AE140" s="80"/>
+      <c r="AF140" s="80"/>
+      <c r="AG140" s="80"/>
+      <c r="AH140" s="80"/>
+      <c r="AI140" s="80"/>
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B141" s="42" t="s">
-        <v>463</v>
-      </c>
-      <c r="C141" s="51"/>
-      <c r="D141" s="40"/>
-      <c r="E141" s="40"/>
-      <c r="F141" s="40"/>
-      <c r="G141" s="40"/>
-      <c r="H141" s="40"/>
-      <c r="I141" s="40"/>
-      <c r="J141" s="40"/>
-      <c r="K141" s="40"/>
-      <c r="L141" s="40"/>
-      <c r="M141" s="40"/>
-      <c r="N141" s="40"/>
-      <c r="O141" s="40"/>
-      <c r="P141" s="40"/>
-      <c r="Q141" s="40"/>
-      <c r="R141" s="40"/>
-      <c r="S141" s="41"/>
-      <c r="T141" s="41"/>
-      <c r="U141" s="41"/>
-      <c r="V141" s="41"/>
-      <c r="W141" s="41"/>
-      <c r="X141" s="41"/>
-      <c r="Y141" s="41"/>
-      <c r="Z141" s="41"/>
-      <c r="AA141" s="41"/>
+      <c r="A141" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B141" s="79" t="s">
+        <v>419</v>
+      </c>
+      <c r="C141" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D141" s="56"/>
+      <c r="E141" s="80"/>
+      <c r="F141" s="56"/>
+      <c r="G141" s="56"/>
+      <c r="H141" s="56"/>
+      <c r="I141" s="80"/>
+      <c r="J141" s="80"/>
+      <c r="K141" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="L141" s="80"/>
+      <c r="M141" s="80"/>
+      <c r="N141" s="80"/>
+      <c r="O141" s="80"/>
+      <c r="P141" s="80"/>
+      <c r="Q141" s="80"/>
+      <c r="R141" s="80"/>
+      <c r="S141" s="80"/>
+      <c r="T141" s="80"/>
+      <c r="U141" s="80"/>
+      <c r="V141" s="80"/>
+      <c r="W141" s="80"/>
+      <c r="X141" s="80"/>
+      <c r="Y141" s="80"/>
+      <c r="Z141" s="80"/>
+      <c r="AA141" s="80"/>
+      <c r="AB141" s="80"/>
+      <c r="AC141" s="80"/>
+      <c r="AD141" s="80"/>
+      <c r="AE141" s="80"/>
+      <c r="AF141" s="80"/>
+      <c r="AG141" s="80"/>
+      <c r="AH141" s="80"/>
+      <c r="AI141" s="80"/>
+    </row>
+    <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="B142" s="79" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="56"/>
+      <c r="E142" s="56"/>
+      <c r="F142" s="56"/>
+      <c r="G142" s="56"/>
+      <c r="H142" s="56"/>
+      <c r="I142" s="56"/>
+      <c r="J142" s="56"/>
+      <c r="K142" s="56"/>
+      <c r="L142" s="56"/>
+      <c r="M142" s="56"/>
+      <c r="N142" s="56"/>
+      <c r="O142" s="56"/>
+      <c r="P142" s="56"/>
+      <c r="Q142" s="56"/>
+      <c r="R142" s="56"/>
+      <c r="S142" s="56"/>
+      <c r="T142" s="56"/>
+      <c r="U142" s="56"/>
+      <c r="V142" s="56"/>
+      <c r="W142" s="56"/>
+      <c r="X142" s="56"/>
+      <c r="Y142" s="56"/>
+      <c r="Z142" s="56"/>
+      <c r="AA142" s="56"/>
+      <c r="AB142" s="56"/>
+      <c r="AC142" s="56"/>
+      <c r="AD142" s="56"/>
+      <c r="AE142" s="56"/>
+      <c r="AF142" s="56"/>
+      <c r="AG142" s="56"/>
+      <c r="AH142" s="56"/>
+      <c r="AI142" s="56"/>
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="68" t="s">
+      <c r="A143" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B143" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" s="80"/>
+      <c r="E143" s="80"/>
+      <c r="F143" s="80"/>
+      <c r="G143" s="80"/>
+      <c r="H143" s="80"/>
+      <c r="I143" s="80"/>
+      <c r="J143" s="80"/>
+      <c r="K143" s="80" t="s">
+        <v>422</v>
+      </c>
+      <c r="L143" s="80"/>
+      <c r="M143" s="80"/>
+      <c r="N143" s="80"/>
+      <c r="O143" s="80"/>
+      <c r="P143" s="80"/>
+      <c r="Q143" s="80"/>
+      <c r="R143" s="80"/>
+      <c r="S143" s="80"/>
+      <c r="T143" s="80"/>
+      <c r="U143" s="80"/>
+      <c r="V143" s="80"/>
+      <c r="W143" s="80"/>
+      <c r="X143" s="80"/>
+      <c r="Y143" s="80"/>
+      <c r="Z143" s="80"/>
+      <c r="AA143" s="80"/>
+      <c r="AB143" s="80"/>
+      <c r="AC143" s="80"/>
+      <c r="AD143" s="80"/>
+      <c r="AE143" s="80"/>
+      <c r="AF143" s="80"/>
+      <c r="AG143" s="80"/>
+      <c r="AH143" s="80"/>
+      <c r="AI143" s="80"/>
+    </row>
+    <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B144" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D144" s="80"/>
+      <c r="E144" s="80"/>
+      <c r="F144" s="80"/>
+      <c r="G144" s="80"/>
+      <c r="H144" s="80"/>
+      <c r="I144" s="80"/>
+      <c r="J144" s="80"/>
+      <c r="K144" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="L144" s="80"/>
+      <c r="M144" s="80"/>
+      <c r="N144" s="80"/>
+      <c r="O144" s="80"/>
+      <c r="P144" s="80"/>
+      <c r="Q144" s="80"/>
+      <c r="R144" s="80"/>
+      <c r="S144" s="80"/>
+      <c r="T144" s="80"/>
+      <c r="U144" s="80"/>
+      <c r="V144" s="80"/>
+      <c r="W144" s="80"/>
+      <c r="X144" s="80"/>
+      <c r="Y144" s="80"/>
+      <c r="Z144" s="80"/>
+      <c r="AA144" s="80"/>
+      <c r="AB144" s="80"/>
+      <c r="AC144" s="80"/>
+      <c r="AD144" s="80"/>
+      <c r="AE144" s="80"/>
+      <c r="AF144" s="80"/>
+      <c r="AG144" s="80"/>
+      <c r="AH144" s="80"/>
+      <c r="AI144" s="80"/>
+    </row>
+    <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="B143" s="68" t="s">
-        <v>337</v>
-      </c>
-      <c r="C143" s="69" t="s">
+      <c r="B145" s="79" t="s">
+        <v>424</v>
+      </c>
+      <c r="C145" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D143" s="70"/>
-      <c r="E143" s="70"/>
-      <c r="F143" s="71"/>
-      <c r="G143" s="71" t="s">
-        <v>338</v>
-      </c>
-      <c r="H143" s="70"/>
-      <c r="I143" s="71"/>
-      <c r="J143" s="71"/>
-      <c r="K143" s="71"/>
-      <c r="L143" s="71"/>
-      <c r="M143" s="69"/>
-      <c r="N143" s="69"/>
-      <c r="O143" s="69"/>
-      <c r="P143" s="69"/>
-      <c r="Q143" s="69"/>
-      <c r="R143" s="69"/>
-      <c r="S143" s="69"/>
-      <c r="T143" s="69"/>
-      <c r="U143" s="71"/>
-      <c r="V143" s="69"/>
-      <c r="W143" s="71"/>
-      <c r="X143" s="71"/>
-      <c r="Y143" s="71"/>
-      <c r="Z143" s="71"/>
-      <c r="AA143" s="71"/>
-      <c r="AB143" s="71"/>
-      <c r="AC143" s="71"/>
-      <c r="AD143" s="71"/>
-      <c r="AE143" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF143" s="71"/>
-      <c r="AG143" s="71"/>
-      <c r="AH143" s="71"/>
-      <c r="AI143" s="71"/>
-    </row>
-    <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="72" t="s">
-        <v>339</v>
-      </c>
-      <c r="B144" s="72" t="s">
-        <v>340</v>
-      </c>
-      <c r="C144" s="69" t="s">
-        <v>341</v>
-      </c>
-      <c r="D144" s="71"/>
-      <c r="E144" s="71"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="71"/>
-      <c r="H144" s="71"/>
-      <c r="I144" s="71"/>
-      <c r="J144" s="71"/>
-      <c r="K144" s="71"/>
-      <c r="L144" s="71"/>
-      <c r="M144" s="71"/>
-      <c r="N144" s="71"/>
-      <c r="O144" s="71"/>
-      <c r="P144" s="71"/>
-      <c r="Q144" s="71"/>
-      <c r="R144" s="71"/>
-      <c r="S144" s="71"/>
-      <c r="T144" s="71"/>
-      <c r="U144" s="71"/>
-      <c r="V144" s="71"/>
-      <c r="W144" s="71"/>
-      <c r="X144" s="71"/>
-      <c r="Y144" s="71"/>
-      <c r="Z144" s="71"/>
-      <c r="AA144" s="71"/>
-      <c r="AB144" s="71"/>
-      <c r="AC144" s="71"/>
-      <c r="AD144" s="71"/>
-      <c r="AE144" s="71"/>
-      <c r="AF144" s="71"/>
-      <c r="AG144" s="71"/>
-      <c r="AH144" s="71"/>
-      <c r="AI144" s="71"/>
-    </row>
-    <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B145" s="68" t="s">
-        <v>342</v>
-      </c>
-      <c r="C145" s="69" t="s">
-        <v>343</v>
-      </c>
-      <c r="D145" s="71"/>
-      <c r="E145" s="71"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="H145" s="71"/>
-      <c r="I145" s="71"/>
-      <c r="J145" s="71"/>
-      <c r="K145" s="69"/>
-      <c r="L145" s="71"/>
-      <c r="M145" s="71"/>
-      <c r="N145" s="71"/>
-      <c r="O145" s="71"/>
-      <c r="P145" s="71"/>
-      <c r="Q145" s="71"/>
-      <c r="R145" s="71"/>
-      <c r="S145" s="71"/>
-      <c r="T145" s="71"/>
-      <c r="U145" s="71"/>
-      <c r="V145" s="71"/>
-      <c r="W145" s="71"/>
-      <c r="X145" s="71"/>
-      <c r="Y145" s="71"/>
-      <c r="Z145" s="71"/>
-      <c r="AA145" s="71"/>
-      <c r="AB145" s="71"/>
-      <c r="AC145" s="71"/>
-      <c r="AD145" s="71"/>
-      <c r="AE145" s="71"/>
-      <c r="AF145" s="71"/>
-      <c r="AG145" s="71"/>
-      <c r="AH145" s="71"/>
-      <c r="AI145" s="71"/>
+      <c r="D145" s="56"/>
+      <c r="E145" s="56"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="56"/>
+      <c r="H145" s="56"/>
+      <c r="I145" s="56"/>
+      <c r="J145" s="56"/>
+      <c r="K145" s="56"/>
+      <c r="L145" s="56"/>
+      <c r="M145" s="56"/>
+      <c r="N145" s="56"/>
+      <c r="O145" s="56"/>
+      <c r="P145" s="56"/>
+      <c r="Q145" s="56"/>
+      <c r="R145" s="56"/>
+      <c r="S145" s="56"/>
+      <c r="T145" s="56"/>
+      <c r="U145" s="56"/>
+      <c r="V145" s="56"/>
+      <c r="W145" s="56"/>
+      <c r="X145" s="56"/>
+      <c r="Y145" s="56"/>
+      <c r="Z145" s="56"/>
+      <c r="AA145" s="56"/>
+      <c r="AB145" s="56"/>
+      <c r="AC145" s="56"/>
+      <c r="AD145" s="56"/>
+      <c r="AE145" s="56"/>
+      <c r="AF145" s="56"/>
+      <c r="AG145" s="56"/>
+      <c r="AH145" s="56"/>
+      <c r="AI145" s="56"/>
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B146" s="68" t="s">
-        <v>345</v>
-      </c>
-      <c r="C146" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="D146" s="71"/>
-      <c r="E146" s="71"/>
-      <c r="F146" s="71"/>
-      <c r="G146" s="69"/>
-      <c r="H146" s="71"/>
-      <c r="I146" s="71"/>
-      <c r="J146" s="71"/>
-      <c r="K146" s="69"/>
-      <c r="L146" s="71"/>
-      <c r="M146" s="71"/>
-      <c r="N146" s="71"/>
-      <c r="O146" s="71"/>
-      <c r="P146" s="71"/>
-      <c r="Q146" s="71"/>
-      <c r="R146" s="71"/>
-      <c r="S146" s="71"/>
-      <c r="T146" s="71"/>
-      <c r="U146" s="71"/>
-      <c r="V146" s="71"/>
-      <c r="W146" s="71"/>
-      <c r="X146" s="71"/>
-      <c r="Y146" s="71"/>
-      <c r="Z146" s="71"/>
-      <c r="AA146" s="71"/>
-      <c r="AB146" s="71"/>
-      <c r="AC146" s="71"/>
-      <c r="AD146" s="71"/>
-      <c r="AE146" s="71"/>
-      <c r="AF146" s="71"/>
-      <c r="AG146" s="71"/>
-      <c r="AH146" s="71"/>
-      <c r="AI146" s="71"/>
+      <c r="A146" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B146" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="C146" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D146" s="56"/>
+      <c r="E146" s="56"/>
+      <c r="F146" s="56"/>
+      <c r="G146" s="56"/>
+      <c r="H146" s="56"/>
+      <c r="I146" s="56"/>
+      <c r="J146" s="56"/>
+      <c r="K146" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="L146" s="56"/>
+      <c r="M146" s="56"/>
+      <c r="N146" s="56"/>
+      <c r="O146" s="56"/>
+      <c r="P146" s="56"/>
+      <c r="Q146" s="56"/>
+      <c r="R146" s="56"/>
+      <c r="S146" s="56"/>
+      <c r="T146" s="80"/>
+      <c r="U146" s="56"/>
+      <c r="V146" s="56"/>
+      <c r="W146" s="56"/>
+      <c r="X146" s="56"/>
+      <c r="Y146" s="56"/>
+      <c r="Z146" s="56"/>
+      <c r="AA146" s="56"/>
+      <c r="AB146" s="56"/>
+      <c r="AC146" s="56"/>
+      <c r="AD146" s="56"/>
+      <c r="AE146" s="56"/>
+      <c r="AF146" s="56"/>
+      <c r="AG146" s="56"/>
+      <c r="AH146" s="56"/>
+      <c r="AI146" s="56"/>
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B147" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="C147" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="D147" s="71"/>
-      <c r="E147" s="71"/>
-      <c r="F147" s="71"/>
-      <c r="G147" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="H147" s="71"/>
-      <c r="I147" s="71"/>
-      <c r="J147" s="71"/>
-      <c r="K147" s="69"/>
-      <c r="L147" s="71"/>
-      <c r="M147" s="71"/>
-      <c r="N147" s="71"/>
-      <c r="O147" s="71"/>
-      <c r="P147" s="71"/>
-      <c r="Q147" s="71"/>
-      <c r="R147" s="71"/>
-      <c r="S147" s="71"/>
-      <c r="T147" s="71"/>
-      <c r="U147" s="71"/>
-      <c r="V147" s="71"/>
-      <c r="W147" s="71"/>
-      <c r="X147" s="71"/>
-      <c r="Y147" s="71"/>
-      <c r="Z147" s="71"/>
-      <c r="AA147" s="71"/>
-      <c r="AB147" s="71"/>
-      <c r="AC147" s="71"/>
-      <c r="AD147" s="71"/>
-      <c r="AE147" s="71"/>
-      <c r="AF147" s="71"/>
-      <c r="AG147" s="71"/>
-      <c r="AH147" s="71"/>
-      <c r="AI147" s="71"/>
+      <c r="A147" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B147" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="C147" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D147" s="56"/>
+      <c r="E147" s="56"/>
+      <c r="F147" s="56"/>
+      <c r="G147" s="56"/>
+      <c r="H147" s="56"/>
+      <c r="I147" s="56"/>
+      <c r="J147" s="56"/>
+      <c r="K147" s="80" t="s">
+        <v>428</v>
+      </c>
+      <c r="L147" s="56"/>
+      <c r="M147" s="56"/>
+      <c r="N147" s="56"/>
+      <c r="O147" s="56"/>
+      <c r="P147" s="56"/>
+      <c r="Q147" s="56"/>
+      <c r="R147" s="56"/>
+      <c r="S147" s="56"/>
+      <c r="T147" s="80"/>
+      <c r="U147" s="56"/>
+      <c r="V147" s="56"/>
+      <c r="W147" s="56"/>
+      <c r="X147" s="56"/>
+      <c r="Y147" s="56"/>
+      <c r="Z147" s="56"/>
+      <c r="AA147" s="56"/>
+      <c r="AB147" s="56"/>
+      <c r="AC147" s="56"/>
+      <c r="AD147" s="56"/>
+      <c r="AE147" s="56"/>
+      <c r="AF147" s="56"/>
+      <c r="AG147" s="56"/>
+      <c r="AH147" s="56"/>
+      <c r="AI147" s="56"/>
     </row>
     <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B148" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="C148" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="D148" s="71"/>
-      <c r="E148" s="71"/>
-      <c r="F148" s="70"/>
-      <c r="G148" s="69" t="s">
-        <v>351</v>
-      </c>
-      <c r="H148" s="71"/>
-      <c r="I148" s="71"/>
-      <c r="J148" s="70"/>
-      <c r="K148" s="69"/>
-      <c r="L148" s="71"/>
-      <c r="M148" s="71"/>
-      <c r="N148" s="71"/>
-      <c r="O148" s="71"/>
-      <c r="P148" s="71"/>
-      <c r="Q148" s="71"/>
-      <c r="R148" s="71"/>
-      <c r="S148" s="71"/>
-      <c r="T148" s="71"/>
-      <c r="U148" s="71"/>
-      <c r="V148" s="71"/>
-      <c r="W148" s="71"/>
-      <c r="X148" s="71"/>
-      <c r="Y148" s="71"/>
-      <c r="Z148" s="71"/>
-      <c r="AA148" s="71"/>
-      <c r="AB148" s="71"/>
-      <c r="AC148" s="71"/>
-      <c r="AD148" s="71"/>
-      <c r="AE148" s="71"/>
-      <c r="AF148" s="71"/>
-      <c r="AG148" s="71"/>
-      <c r="AH148" s="71"/>
-      <c r="AI148" s="71"/>
+      <c r="A148" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B148" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="C148" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148" s="56"/>
+      <c r="E148" s="56"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="56"/>
+      <c r="H148" s="56"/>
+      <c r="I148" s="56"/>
+      <c r="J148" s="56"/>
+      <c r="K148" s="80" t="s">
+        <v>430</v>
+      </c>
+      <c r="L148" s="56"/>
+      <c r="M148" s="56"/>
+      <c r="N148" s="56"/>
+      <c r="O148" s="56"/>
+      <c r="P148" s="56"/>
+      <c r="Q148" s="56"/>
+      <c r="R148" s="56"/>
+      <c r="S148" s="56"/>
+      <c r="T148" s="80"/>
+      <c r="U148" s="56"/>
+      <c r="V148" s="56"/>
+      <c r="W148" s="56"/>
+      <c r="X148" s="56"/>
+      <c r="Y148" s="56"/>
+      <c r="Z148" s="56"/>
+      <c r="AA148" s="56"/>
+      <c r="AB148" s="56"/>
+      <c r="AC148" s="56"/>
+      <c r="AD148" s="56"/>
+      <c r="AE148" s="56"/>
+      <c r="AF148" s="56"/>
+      <c r="AG148" s="56"/>
+      <c r="AH148" s="56"/>
+      <c r="AI148" s="56"/>
     </row>
     <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B149" s="68" t="s">
-        <v>352</v>
-      </c>
-      <c r="C149" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="D149" s="70"/>
-      <c r="E149" s="70"/>
-      <c r="F149" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="G149" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="H149" s="70"/>
-      <c r="I149" s="71"/>
-      <c r="J149" s="69"/>
-      <c r="K149" s="71"/>
-      <c r="L149" s="71"/>
-      <c r="M149" s="69"/>
-      <c r="N149" s="69"/>
-      <c r="O149" s="69"/>
-      <c r="P149" s="69"/>
-      <c r="Q149" s="69"/>
-      <c r="R149" s="69"/>
-      <c r="S149" s="69"/>
-      <c r="T149" s="69"/>
-      <c r="U149" s="71"/>
-      <c r="V149" s="69"/>
-      <c r="W149" s="71"/>
-      <c r="X149" s="71"/>
-      <c r="Y149" s="71"/>
-      <c r="Z149" s="71"/>
-      <c r="AA149" s="71"/>
-      <c r="AB149" s="71"/>
-      <c r="AC149" s="71"/>
-      <c r="AD149" s="71"/>
-      <c r="AE149" s="71"/>
-      <c r="AF149" s="71"/>
-      <c r="AG149" s="71"/>
-      <c r="AH149" s="71"/>
-      <c r="AI149" s="71"/>
+      <c r="A149" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B149" s="79" t="s">
+        <v>431</v>
+      </c>
+      <c r="C149" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" s="56"/>
+      <c r="E149" s="80"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="56"/>
+      <c r="H149" s="56"/>
+      <c r="I149" s="80"/>
+      <c r="J149" s="80"/>
+      <c r="K149" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="L149" s="80"/>
+      <c r="M149" s="80"/>
+      <c r="N149" s="80"/>
+      <c r="O149" s="80"/>
+      <c r="P149" s="80"/>
+      <c r="Q149" s="80"/>
+      <c r="R149" s="80"/>
+      <c r="S149" s="80"/>
+      <c r="T149" s="80"/>
+      <c r="U149" s="80"/>
+      <c r="V149" s="80"/>
+      <c r="W149" s="80"/>
+      <c r="X149" s="80"/>
+      <c r="Y149" s="80"/>
+      <c r="Z149" s="80"/>
+      <c r="AA149" s="80"/>
+      <c r="AB149" s="80"/>
+      <c r="AC149" s="80"/>
+      <c r="AD149" s="80"/>
+      <c r="AE149" s="80"/>
+      <c r="AF149" s="80"/>
+      <c r="AG149" s="80"/>
+      <c r="AH149" s="80"/>
+      <c r="AI149" s="80"/>
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B150" s="68" t="s">
-        <v>355</v>
-      </c>
-      <c r="C150" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="D150" s="70"/>
-      <c r="E150" s="70"/>
-      <c r="F150" s="69" t="s">
-        <v>388</v>
-      </c>
-      <c r="G150" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="H150" s="70"/>
-      <c r="I150" s="71"/>
-      <c r="J150" s="69"/>
-      <c r="K150" s="71"/>
-      <c r="L150" s="71"/>
-      <c r="M150" s="69"/>
-      <c r="N150" s="69"/>
-      <c r="O150" s="69"/>
-      <c r="P150" s="69"/>
-      <c r="Q150" s="69"/>
-      <c r="R150" s="69"/>
-      <c r="S150" s="69"/>
-      <c r="T150" s="69"/>
-      <c r="U150" s="71"/>
-      <c r="V150" s="69"/>
-      <c r="W150" s="71"/>
-      <c r="X150" s="71"/>
-      <c r="Y150" s="71"/>
-      <c r="Z150" s="71"/>
-      <c r="AA150" s="71"/>
-      <c r="AB150" s="71"/>
-      <c r="AC150" s="71"/>
-      <c r="AD150" s="71"/>
-      <c r="AE150" s="71"/>
-      <c r="AF150" s="71"/>
-      <c r="AG150" s="71"/>
-      <c r="AH150" s="71"/>
-      <c r="AI150" s="71"/>
+      <c r="A150" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B150" s="79"/>
+      <c r="C150" s="56"/>
+      <c r="D150" s="56"/>
+      <c r="E150" s="56"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56"/>
+      <c r="H150" s="56"/>
+      <c r="I150" s="56"/>
+      <c r="J150" s="56"/>
+      <c r="K150" s="56"/>
+      <c r="L150" s="56"/>
+      <c r="M150" s="56"/>
+      <c r="N150" s="56"/>
+      <c r="O150" s="56"/>
+      <c r="P150" s="56"/>
+      <c r="Q150" s="56"/>
+      <c r="R150" s="56"/>
+      <c r="S150" s="56"/>
+      <c r="T150" s="56"/>
+      <c r="U150" s="56"/>
+      <c r="V150" s="56"/>
+      <c r="W150" s="56"/>
+      <c r="X150" s="56"/>
+      <c r="Y150" s="56"/>
+      <c r="Z150" s="56"/>
+      <c r="AA150" s="56"/>
+      <c r="AB150" s="56"/>
+      <c r="AC150" s="56"/>
+      <c r="AD150" s="56"/>
+      <c r="AE150" s="56"/>
+      <c r="AF150" s="56"/>
+      <c r="AG150" s="56"/>
+      <c r="AH150" s="56"/>
+      <c r="AI150" s="56"/>
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B151" s="68" t="s">
-        <v>357</v>
-      </c>
-      <c r="C151" s="71" t="s">
-        <v>358</v>
-      </c>
-      <c r="D151" s="71"/>
-      <c r="E151" s="71"/>
-      <c r="F151" s="69" t="s">
-        <v>388</v>
-      </c>
-      <c r="G151" s="69" t="s">
-        <v>351</v>
-      </c>
-      <c r="H151" s="71"/>
-      <c r="I151" s="71"/>
-      <c r="J151" s="69"/>
-      <c r="K151" s="69"/>
-      <c r="L151" s="71"/>
-      <c r="M151" s="71"/>
-      <c r="N151" s="71"/>
-      <c r="O151" s="71"/>
-      <c r="P151" s="71"/>
-      <c r="Q151" s="71"/>
-      <c r="R151" s="71"/>
-      <c r="S151" s="71"/>
-      <c r="T151" s="71"/>
-      <c r="U151" s="71"/>
-      <c r="V151" s="71"/>
-      <c r="W151" s="71"/>
-      <c r="X151" s="71"/>
-      <c r="Y151" s="71"/>
-      <c r="Z151" s="71"/>
-      <c r="AA151" s="71"/>
-      <c r="AB151" s="71"/>
-      <c r="AC151" s="71"/>
-      <c r="AD151" s="71"/>
-      <c r="AE151" s="71"/>
-      <c r="AF151" s="71"/>
-      <c r="AG151" s="71"/>
-      <c r="AH151" s="71"/>
-      <c r="AI151" s="71"/>
+      <c r="A151" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" s="79"/>
+      <c r="C151" s="56"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="56"/>
+      <c r="H151" s="56"/>
+      <c r="I151" s="56"/>
+      <c r="J151" s="56"/>
+      <c r="K151" s="56"/>
+      <c r="L151" s="56"/>
+      <c r="M151" s="56"/>
+      <c r="N151" s="56"/>
+      <c r="O151" s="56"/>
+      <c r="P151" s="56"/>
+      <c r="Q151" s="56"/>
+      <c r="R151" s="56"/>
+      <c r="S151" s="56"/>
+      <c r="T151" s="56"/>
+      <c r="U151" s="56"/>
+      <c r="V151" s="56"/>
+      <c r="W151" s="56"/>
+      <c r="X151" s="56"/>
+      <c r="Y151" s="56"/>
+      <c r="Z151" s="56"/>
+      <c r="AA151" s="56"/>
+      <c r="AB151" s="56"/>
+      <c r="AC151" s="56"/>
+      <c r="AD151" s="56"/>
+      <c r="AE151" s="56"/>
+      <c r="AF151" s="56"/>
+      <c r="AG151" s="56"/>
+      <c r="AH151" s="56"/>
+      <c r="AI151" s="56"/>
     </row>
     <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B152" s="68" t="s">
-        <v>359</v>
-      </c>
-      <c r="C152" s="69" t="s">
-        <v>360</v>
-      </c>
-      <c r="D152" s="70"/>
-      <c r="E152" s="70"/>
-      <c r="F152" s="69" t="s">
-        <v>388</v>
-      </c>
-      <c r="G152" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="H152" s="70"/>
-      <c r="I152" s="71"/>
-      <c r="J152" s="69"/>
-      <c r="K152" s="71"/>
-      <c r="L152" s="71"/>
-      <c r="M152" s="69"/>
-      <c r="N152" s="69"/>
-      <c r="O152" s="69"/>
-      <c r="P152" s="69"/>
-      <c r="Q152" s="69"/>
-      <c r="R152" s="69"/>
-      <c r="S152" s="69"/>
-      <c r="T152" s="69"/>
-      <c r="U152" s="71"/>
-      <c r="V152" s="69"/>
-      <c r="W152" s="71"/>
-      <c r="X152" s="71"/>
-      <c r="Y152" s="71"/>
-      <c r="Z152" s="71"/>
-      <c r="AA152" s="71"/>
-      <c r="AB152" s="71"/>
-      <c r="AC152" s="71"/>
-      <c r="AD152" s="71"/>
-      <c r="AE152" s="71"/>
-      <c r="AF152" s="71"/>
-      <c r="AG152" s="71"/>
-      <c r="AH152" s="71"/>
-      <c r="AI152" s="71"/>
+      <c r="A152" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B152" s="79"/>
+      <c r="C152" s="56"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="56"/>
+      <c r="H152" s="56"/>
+      <c r="I152" s="56"/>
+      <c r="J152" s="56"/>
+      <c r="K152" s="56"/>
+      <c r="L152" s="56"/>
+      <c r="M152" s="56"/>
+      <c r="N152" s="56"/>
+      <c r="O152" s="56"/>
+      <c r="P152" s="56"/>
+      <c r="Q152" s="56"/>
+      <c r="R152" s="56"/>
+      <c r="S152" s="56"/>
+      <c r="T152" s="56"/>
+      <c r="U152" s="56"/>
+      <c r="V152" s="56"/>
+      <c r="W152" s="56"/>
+      <c r="X152" s="56"/>
+      <c r="Y152" s="56"/>
+      <c r="Z152" s="56"/>
+      <c r="AA152" s="56"/>
+      <c r="AB152" s="56"/>
+      <c r="AC152" s="56"/>
+      <c r="AD152" s="56"/>
+      <c r="AE152" s="56"/>
+      <c r="AF152" s="56"/>
+      <c r="AG152" s="56"/>
+      <c r="AH152" s="56"/>
+      <c r="AI152" s="56"/>
     </row>
     <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B153" s="68" t="s">
-        <v>361</v>
-      </c>
-      <c r="C153" s="69" t="s">
-        <v>362</v>
-      </c>
-      <c r="D153" s="70"/>
-      <c r="E153" s="70"/>
-      <c r="F153" s="69" t="s">
-        <v>388</v>
-      </c>
-      <c r="G153" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="H153" s="70"/>
-      <c r="I153" s="71"/>
-      <c r="J153" s="69"/>
-      <c r="K153" s="71"/>
-      <c r="L153" s="71"/>
-      <c r="M153" s="69"/>
-      <c r="N153" s="69"/>
-      <c r="O153" s="69"/>
-      <c r="P153" s="69"/>
-      <c r="Q153" s="69"/>
-      <c r="R153" s="69"/>
-      <c r="S153" s="69"/>
-      <c r="T153" s="69"/>
-      <c r="U153" s="71"/>
-      <c r="V153" s="69"/>
-      <c r="W153" s="71"/>
-      <c r="X153" s="71"/>
-      <c r="Y153" s="71"/>
-      <c r="Z153" s="71"/>
-      <c r="AA153" s="71"/>
-      <c r="AB153" s="71"/>
-      <c r="AC153" s="71"/>
-      <c r="AD153" s="71"/>
-      <c r="AE153" s="71"/>
-      <c r="AF153" s="71"/>
-      <c r="AG153" s="71"/>
-      <c r="AH153" s="71"/>
-      <c r="AI153" s="71"/>
+      <c r="A153" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B153" s="82" t="s">
+        <v>433</v>
+      </c>
+      <c r="C153" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153" s="56"/>
+      <c r="E153" s="56"/>
+      <c r="F153" s="56"/>
+      <c r="G153" s="56"/>
+      <c r="H153" s="56"/>
+      <c r="I153" s="56"/>
+      <c r="J153" s="56"/>
+      <c r="K153" s="56" t="s">
+        <v>434</v>
+      </c>
+      <c r="L153" s="56"/>
+      <c r="M153" s="56"/>
+      <c r="N153" s="56"/>
+      <c r="O153" s="56"/>
+      <c r="P153" s="56"/>
+      <c r="Q153" s="56"/>
+      <c r="R153" s="56"/>
+      <c r="S153" s="56"/>
+      <c r="T153" s="56"/>
+      <c r="U153" s="56"/>
+      <c r="V153" s="56"/>
+      <c r="W153" s="56"/>
+      <c r="X153" s="56"/>
+      <c r="Y153" s="56"/>
+      <c r="Z153" s="56"/>
+      <c r="AA153" s="56"/>
+      <c r="AB153" s="56"/>
+      <c r="AC153" s="56"/>
+      <c r="AD153" s="56"/>
+      <c r="AE153" s="56"/>
+      <c r="AF153" s="56"/>
+      <c r="AG153" s="56"/>
+      <c r="AH153" s="56"/>
+      <c r="AI153" s="56"/>
     </row>
     <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B154" s="68" t="s">
-        <v>363</v>
-      </c>
-      <c r="C154" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="D154" s="70"/>
-      <c r="E154" s="70"/>
-      <c r="F154" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="G154" s="69" t="s">
-        <v>351</v>
-      </c>
-      <c r="H154" s="70"/>
-      <c r="I154" s="71"/>
-      <c r="J154" s="69"/>
-      <c r="K154" s="69"/>
-      <c r="L154" s="71"/>
-      <c r="M154" s="69"/>
-      <c r="N154" s="69"/>
-      <c r="O154" s="69"/>
-      <c r="P154" s="69"/>
-      <c r="Q154" s="69"/>
-      <c r="R154" s="69"/>
-      <c r="S154" s="69"/>
-      <c r="T154" s="69"/>
-      <c r="U154" s="71"/>
-      <c r="V154" s="69"/>
-      <c r="W154" s="71"/>
-      <c r="X154" s="71"/>
-      <c r="Y154" s="71"/>
-      <c r="Z154" s="71"/>
-      <c r="AA154" s="71"/>
-      <c r="AB154" s="71"/>
-      <c r="AC154" s="71"/>
-      <c r="AD154" s="71"/>
-      <c r="AE154" s="71"/>
-      <c r="AF154" s="71"/>
-      <c r="AG154" s="71"/>
-      <c r="AH154" s="71"/>
-      <c r="AI154" s="71"/>
-    </row>
-    <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B155" s="68" t="s">
-        <v>365</v>
-      </c>
-      <c r="C155" s="69" t="s">
-        <v>366</v>
-      </c>
-      <c r="D155" s="71"/>
-      <c r="E155" s="71"/>
-      <c r="F155" s="69" t="s">
-        <v>336</v>
-      </c>
-      <c r="G155" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="H155" s="71"/>
-      <c r="I155" s="71"/>
-      <c r="J155" s="69"/>
-      <c r="K155" s="69"/>
-      <c r="L155" s="71"/>
-      <c r="M155" s="71"/>
-      <c r="N155" s="71"/>
-      <c r="O155" s="71"/>
-      <c r="P155" s="71"/>
-      <c r="Q155" s="71"/>
-      <c r="R155" s="71"/>
-      <c r="S155" s="71"/>
-      <c r="T155" s="71"/>
-      <c r="U155" s="71"/>
-      <c r="V155" s="71"/>
-      <c r="W155" s="71"/>
-      <c r="X155" s="71"/>
-      <c r="Y155" s="71"/>
-      <c r="Z155" s="71"/>
-      <c r="AA155" s="71"/>
-      <c r="AB155" s="71"/>
-      <c r="AC155" s="71"/>
-      <c r="AD155" s="71"/>
-      <c r="AE155" s="71"/>
-      <c r="AF155" s="71"/>
-      <c r="AG155" s="71"/>
-      <c r="AH155" s="71"/>
-      <c r="AI155" s="71"/>
-    </row>
-    <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="B156" s="68" t="s">
-        <v>367</v>
-      </c>
-      <c r="C156" s="69" t="s">
-        <v>368</v>
-      </c>
-      <c r="D156" s="71"/>
-      <c r="E156" s="71"/>
-      <c r="F156" s="69" t="s">
-        <v>390</v>
-      </c>
-      <c r="G156" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="H156" s="71"/>
-      <c r="I156" s="71"/>
-      <c r="J156" s="69"/>
-      <c r="K156" s="69"/>
-      <c r="L156" s="71"/>
-      <c r="M156" s="71"/>
-      <c r="N156" s="71"/>
-      <c r="O156" s="71"/>
-      <c r="P156" s="71"/>
-      <c r="Q156" s="71"/>
-      <c r="R156" s="71"/>
-      <c r="S156" s="71"/>
-      <c r="T156" s="71"/>
-      <c r="U156" s="71"/>
-      <c r="V156" s="71"/>
-      <c r="W156" s="71"/>
-      <c r="X156" s="71"/>
-      <c r="Y156" s="71"/>
-      <c r="Z156" s="71"/>
-      <c r="AA156" s="71"/>
-      <c r="AB156" s="71"/>
-      <c r="AC156" s="71"/>
-      <c r="AD156" s="71"/>
-      <c r="AE156" s="71"/>
-      <c r="AF156" s="71"/>
-      <c r="AG156" s="71"/>
-      <c r="AH156" s="71"/>
-      <c r="AI156" s="71"/>
+      <c r="A154" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B154" s="78"/>
+      <c r="C154" s="51"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="56"/>
+      <c r="F154" s="40"/>
+      <c r="G154" s="40"/>
+      <c r="H154" s="40"/>
+      <c r="I154" s="56"/>
+      <c r="J154" s="56"/>
+      <c r="K154" s="56"/>
+      <c r="L154" s="56"/>
+      <c r="M154" s="51"/>
+      <c r="N154" s="51"/>
+      <c r="O154" s="51"/>
+      <c r="P154" s="51"/>
+      <c r="Q154" s="51"/>
+      <c r="R154" s="51"/>
+      <c r="S154" s="51"/>
+      <c r="T154" s="51"/>
+      <c r="U154" s="56"/>
+      <c r="V154" s="51"/>
+      <c r="W154" s="56"/>
+      <c r="X154" s="56"/>
+      <c r="Y154" s="56"/>
+      <c r="Z154" s="56"/>
+      <c r="AA154" s="56"/>
+      <c r="AB154" s="56"/>
+      <c r="AC154" s="56"/>
+      <c r="AD154" s="56"/>
+      <c r="AE154" s="56"/>
+      <c r="AF154" s="56"/>
+      <c r="AG154" s="56"/>
+      <c r="AH154" s="56"/>
+      <c r="AI154" s="56"/>
+    </row>
+    <row r="155" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="55"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="55"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="86"/>
+      <c r="F155" s="54"/>
+      <c r="G155" s="54"/>
+      <c r="H155" s="54"/>
+      <c r="I155" s="86"/>
+      <c r="J155" s="86"/>
+      <c r="K155" s="86"/>
+      <c r="L155" s="86"/>
+      <c r="M155" s="55"/>
+      <c r="N155" s="55"/>
+      <c r="O155" s="55"/>
+      <c r="P155" s="55"/>
+      <c r="Q155" s="55"/>
+      <c r="R155" s="55"/>
+      <c r="S155" s="55"/>
+      <c r="T155" s="55"/>
+      <c r="U155" s="86"/>
+      <c r="V155" s="55"/>
+      <c r="W155" s="86"/>
+      <c r="X155" s="86"/>
+      <c r="Y155" s="86"/>
+      <c r="Z155" s="86"/>
+      <c r="AA155" s="86"/>
+      <c r="AB155" s="86"/>
+      <c r="AC155" s="86"/>
+      <c r="AD155" s="86"/>
+      <c r="AE155" s="86"/>
+      <c r="AF155" s="86"/>
+      <c r="AG155" s="86"/>
+      <c r="AH155" s="86"/>
+      <c r="AI155" s="86"/>
     </row>
     <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="68" t="s">
-        <v>339</v>
+        <v>32</v>
       </c>
       <c r="B157" s="68" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="C157" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="D157" s="71"/>
-      <c r="E157" s="71"/>
-      <c r="F157" s="69" t="s">
-        <v>391</v>
-      </c>
-      <c r="G157" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="H157" s="71"/>
+        <v>35</v>
+      </c>
+      <c r="D157" s="70"/>
+      <c r="E157" s="70"/>
+      <c r="F157" s="71"/>
+      <c r="G157" s="71" t="s">
+        <v>337</v>
+      </c>
+      <c r="H157" s="70"/>
       <c r="I157" s="71"/>
-      <c r="J157" s="69"/>
-      <c r="K157" s="69"/>
+      <c r="J157" s="71"/>
+      <c r="K157" s="71"/>
       <c r="L157" s="71"/>
-      <c r="M157" s="71"/>
-      <c r="N157" s="71"/>
-      <c r="O157" s="71"/>
-      <c r="P157" s="71"/>
-      <c r="Q157" s="71"/>
-      <c r="R157" s="71"/>
-      <c r="S157" s="71"/>
-      <c r="T157" s="71"/>
+      <c r="M157" s="69"/>
+      <c r="N157" s="69"/>
+      <c r="O157" s="69"/>
+      <c r="P157" s="69"/>
+      <c r="Q157" s="69"/>
+      <c r="R157" s="69"/>
+      <c r="S157" s="69"/>
+      <c r="T157" s="69"/>
       <c r="U157" s="71"/>
-      <c r="V157" s="71"/>
+      <c r="V157" s="69"/>
       <c r="W157" s="71"/>
       <c r="X157" s="71"/>
       <c r="Y157" s="71"/>
@@ -8269,34 +8171,32 @@
       <c r="AB157" s="71"/>
       <c r="AC157" s="71"/>
       <c r="AD157" s="71"/>
-      <c r="AE157" s="71"/>
+      <c r="AE157" s="71" t="s">
+        <v>39</v>
+      </c>
       <c r="AF157" s="71"/>
       <c r="AG157" s="71"/>
       <c r="AH157" s="71"/>
       <c r="AI157" s="71"/>
     </row>
     <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="68" t="s">
+      <c r="A158" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="B158" s="72" t="s">
         <v>339</v>
       </c>
-      <c r="B158" s="68" t="s">
-        <v>371</v>
-      </c>
       <c r="C158" s="69" t="s">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="D158" s="71"/>
       <c r="E158" s="71"/>
-      <c r="F158" s="69" t="s">
-        <v>392</v>
-      </c>
-      <c r="G158" s="69" t="s">
-        <v>354</v>
-      </c>
+      <c r="F158" s="71"/>
+      <c r="G158" s="71"/>
       <c r="H158" s="71"/>
       <c r="I158" s="71"/>
-      <c r="J158" s="69"/>
-      <c r="K158" s="69"/>
+      <c r="J158" s="71"/>
+      <c r="K158" s="71"/>
       <c r="L158" s="71"/>
       <c r="M158" s="71"/>
       <c r="N158" s="71"/>
@@ -8324,25 +8224,23 @@
     </row>
     <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B159" s="68" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="C159" s="69" t="s">
-        <v>179</v>
+        <v>342</v>
       </c>
       <c r="D159" s="71"/>
       <c r="E159" s="71"/>
-      <c r="F159" s="69" t="s">
-        <v>393</v>
-      </c>
+      <c r="F159" s="71"/>
       <c r="G159" s="69" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="H159" s="71"/>
       <c r="I159" s="71"/>
-      <c r="J159" s="69"/>
+      <c r="J159" s="71"/>
       <c r="K159" s="69"/>
       <c r="L159" s="71"/>
       <c r="M159" s="71"/>
@@ -8371,25 +8269,21 @@
     </row>
     <row r="160" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B160" s="68" t="s">
-        <v>373</v>
+        <v>344</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>181</v>
+        <v>345</v>
       </c>
       <c r="D160" s="71"/>
       <c r="E160" s="71"/>
-      <c r="F160" s="69" t="s">
-        <v>394</v>
-      </c>
-      <c r="G160" s="69" t="s">
-        <v>354</v>
-      </c>
+      <c r="F160" s="71"/>
+      <c r="G160" s="69"/>
       <c r="H160" s="71"/>
       <c r="I160" s="71"/>
-      <c r="J160" s="69"/>
+      <c r="J160" s="71"/>
       <c r="K160" s="69"/>
       <c r="L160" s="71"/>
       <c r="M160" s="71"/>
@@ -8418,25 +8312,23 @@
     </row>
     <row r="161" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B161" s="68" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="C161" s="69" t="s">
-        <v>183</v>
+        <v>347</v>
       </c>
       <c r="D161" s="71"/>
       <c r="E161" s="71"/>
-      <c r="F161" s="69" t="s">
-        <v>395</v>
-      </c>
+      <c r="F161" s="71"/>
       <c r="G161" s="69" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="H161" s="71"/>
       <c r="I161" s="71"/>
-      <c r="J161" s="69"/>
+      <c r="J161" s="71"/>
       <c r="K161" s="69"/>
       <c r="L161" s="71"/>
       <c r="M161" s="71"/>
@@ -8465,25 +8357,23 @@
     </row>
     <row r="162" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B162" s="68" t="s">
-        <v>375</v>
-      </c>
-      <c r="C162" s="69" t="s">
-        <v>185</v>
+        <v>348</v>
+      </c>
+      <c r="C162" s="71" t="s">
+        <v>349</v>
       </c>
       <c r="D162" s="71"/>
       <c r="E162" s="71"/>
-      <c r="F162" s="69" t="s">
-        <v>396</v>
-      </c>
+      <c r="F162" s="70"/>
       <c r="G162" s="69" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H162" s="71"/>
       <c r="I162" s="71"/>
-      <c r="J162" s="69"/>
+      <c r="J162" s="70"/>
       <c r="K162" s="69"/>
       <c r="L162" s="71"/>
       <c r="M162" s="71"/>
@@ -8512,37 +8402,37 @@
     </row>
     <row r="163" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B163" s="68" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="C163" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="D163" s="71"/>
-      <c r="E163" s="71"/>
+        <v>352</v>
+      </c>
+      <c r="D163" s="70"/>
+      <c r="E163" s="70"/>
       <c r="F163" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="G163" s="69" t="s">
-        <v>354</v>
-      </c>
-      <c r="H163" s="71"/>
+        <v>386</v>
+      </c>
+      <c r="G163" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="H163" s="70"/>
       <c r="I163" s="71"/>
       <c r="J163" s="69"/>
-      <c r="K163" s="69"/>
+      <c r="K163" s="71"/>
       <c r="L163" s="71"/>
-      <c r="M163" s="71"/>
-      <c r="N163" s="71"/>
-      <c r="O163" s="71"/>
-      <c r="P163" s="71"/>
-      <c r="Q163" s="71"/>
-      <c r="R163" s="71"/>
-      <c r="S163" s="71"/>
-      <c r="T163" s="71"/>
+      <c r="M163" s="69"/>
+      <c r="N163" s="69"/>
+      <c r="O163" s="69"/>
+      <c r="P163" s="69"/>
+      <c r="Q163" s="69"/>
+      <c r="R163" s="69"/>
+      <c r="S163" s="69"/>
+      <c r="T163" s="69"/>
       <c r="U163" s="71"/>
-      <c r="V163" s="71"/>
+      <c r="V163" s="69"/>
       <c r="W163" s="71"/>
       <c r="X163" s="71"/>
       <c r="Y163" s="71"/>
@@ -8559,37 +8449,37 @@
     </row>
     <row r="164" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B164" s="68" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C164" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="D164" s="71"/>
-      <c r="E164" s="71"/>
+        <v>355</v>
+      </c>
+      <c r="D164" s="70"/>
+      <c r="E164" s="70"/>
       <c r="F164" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="G164" s="69" t="s">
-        <v>380</v>
-      </c>
-      <c r="H164" s="71"/>
+        <v>387</v>
+      </c>
+      <c r="G164" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="H164" s="70"/>
       <c r="I164" s="71"/>
       <c r="J164" s="69"/>
-      <c r="K164" s="69"/>
+      <c r="K164" s="71"/>
       <c r="L164" s="71"/>
-      <c r="M164" s="71"/>
-      <c r="N164" s="71"/>
-      <c r="O164" s="71"/>
-      <c r="P164" s="71"/>
-      <c r="Q164" s="71"/>
-      <c r="R164" s="71"/>
-      <c r="S164" s="71"/>
-      <c r="T164" s="71"/>
+      <c r="M164" s="69"/>
+      <c r="N164" s="69"/>
+      <c r="O164" s="69"/>
+      <c r="P164" s="69"/>
+      <c r="Q164" s="69"/>
+      <c r="R164" s="69"/>
+      <c r="S164" s="69"/>
+      <c r="T164" s="69"/>
       <c r="U164" s="71"/>
-      <c r="V164" s="71"/>
+      <c r="V164" s="69"/>
       <c r="W164" s="71"/>
       <c r="X164" s="71"/>
       <c r="Y164" s="71"/>
@@ -8606,20 +8496,22 @@
     </row>
     <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B165" s="68" t="s">
-        <v>381</v>
-      </c>
-      <c r="C165" s="69" t="s">
-        <v>382</v>
+        <v>356</v>
+      </c>
+      <c r="C165" s="71" t="s">
+        <v>357</v>
       </c>
       <c r="D165" s="71"/>
       <c r="E165" s="71"/>
       <c r="F165" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="G165" s="69"/>
+        <v>387</v>
+      </c>
+      <c r="G165" s="69" t="s">
+        <v>350</v>
+      </c>
       <c r="H165" s="71"/>
       <c r="I165" s="71"/>
       <c r="J165" s="69"/>
@@ -8651,35 +8543,37 @@
     </row>
     <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B166" s="68" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C166" s="69" t="s">
-        <v>384</v>
-      </c>
-      <c r="D166" s="71"/>
-      <c r="E166" s="71"/>
+        <v>359</v>
+      </c>
+      <c r="D166" s="70"/>
+      <c r="E166" s="70"/>
       <c r="F166" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="G166" s="69"/>
-      <c r="H166" s="71"/>
+        <v>387</v>
+      </c>
+      <c r="G166" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="H166" s="70"/>
       <c r="I166" s="71"/>
       <c r="J166" s="69"/>
-      <c r="K166" s="69"/>
+      <c r="K166" s="71"/>
       <c r="L166" s="71"/>
-      <c r="M166" s="71"/>
-      <c r="N166" s="71"/>
-      <c r="O166" s="71"/>
-      <c r="P166" s="71"/>
-      <c r="Q166" s="71"/>
-      <c r="R166" s="71"/>
-      <c r="S166" s="71"/>
-      <c r="T166" s="71"/>
+      <c r="M166" s="69"/>
+      <c r="N166" s="69"/>
+      <c r="O166" s="69"/>
+      <c r="P166" s="69"/>
+      <c r="Q166" s="69"/>
+      <c r="R166" s="69"/>
+      <c r="S166" s="69"/>
+      <c r="T166" s="69"/>
       <c r="U166" s="71"/>
-      <c r="V166" s="71"/>
+      <c r="V166" s="69"/>
       <c r="W166" s="71"/>
       <c r="X166" s="71"/>
       <c r="Y166" s="71"/>
@@ -8696,35 +8590,37 @@
     </row>
     <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B167" s="68" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="C167" s="69" t="s">
-        <v>386</v>
-      </c>
-      <c r="D167" s="71"/>
-      <c r="E167" s="71"/>
+        <v>361</v>
+      </c>
+      <c r="D167" s="70"/>
+      <c r="E167" s="70"/>
       <c r="F167" s="69" t="s">
-        <v>389</v>
-      </c>
-      <c r="G167" s="69"/>
-      <c r="H167" s="71"/>
+        <v>387</v>
+      </c>
+      <c r="G167" s="71" t="s">
+        <v>353</v>
+      </c>
+      <c r="H167" s="70"/>
       <c r="I167" s="71"/>
       <c r="J167" s="69"/>
-      <c r="K167" s="69"/>
+      <c r="K167" s="71"/>
       <c r="L167" s="71"/>
-      <c r="M167" s="71"/>
-      <c r="N167" s="71"/>
-      <c r="O167" s="71"/>
-      <c r="P167" s="71"/>
-      <c r="Q167" s="71"/>
-      <c r="R167" s="71"/>
-      <c r="S167" s="71"/>
-      <c r="T167" s="71"/>
+      <c r="M167" s="69"/>
+      <c r="N167" s="69"/>
+      <c r="O167" s="69"/>
+      <c r="P167" s="69"/>
+      <c r="Q167" s="69"/>
+      <c r="R167" s="69"/>
+      <c r="S167" s="69"/>
+      <c r="T167" s="69"/>
       <c r="U167" s="71"/>
-      <c r="V167" s="71"/>
+      <c r="V167" s="69"/>
       <c r="W167" s="71"/>
       <c r="X167" s="71"/>
       <c r="Y167" s="71"/>
@@ -8741,18 +8637,26 @@
     </row>
     <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B168" s="68"/>
-      <c r="C168" s="69"/>
+        <v>338</v>
+      </c>
+      <c r="B168" s="68" t="s">
+        <v>362</v>
+      </c>
+      <c r="C168" s="69" t="s">
+        <v>363</v>
+      </c>
       <c r="D168" s="70"/>
       <c r="E168" s="70"/>
-      <c r="F168" s="71"/>
-      <c r="G168" s="71"/>
+      <c r="F168" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="G168" s="69" t="s">
+        <v>350</v>
+      </c>
       <c r="H168" s="70"/>
       <c r="I168" s="71"/>
-      <c r="J168" s="71"/>
-      <c r="K168" s="71"/>
+      <c r="J168" s="69"/>
+      <c r="K168" s="69"/>
       <c r="L168" s="71"/>
       <c r="M168" s="69"/>
       <c r="N168" s="69"/>
@@ -8779,546 +8683,672 @@
       <c r="AI168" s="71"/>
     </row>
     <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="35"/>
-      <c r="B169" s="35"/>
-      <c r="C169" s="35"/>
-      <c r="E169" s="35"/>
-      <c r="AE169" s="35"/>
-      <c r="AF169" s="35"/>
-      <c r="AG169" s="35"/>
-      <c r="AH169" s="35"/>
-      <c r="AI169" s="35"/>
+      <c r="A169" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B169" s="68" t="s">
+        <v>364</v>
+      </c>
+      <c r="C169" s="69" t="s">
+        <v>365</v>
+      </c>
+      <c r="D169" s="71"/>
+      <c r="E169" s="71"/>
+      <c r="F169" s="69" t="s">
+        <v>335</v>
+      </c>
+      <c r="G169" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H169" s="71"/>
+      <c r="I169" s="71"/>
+      <c r="J169" s="69"/>
+      <c r="K169" s="69"/>
+      <c r="L169" s="71"/>
+      <c r="M169" s="71"/>
+      <c r="N169" s="71"/>
+      <c r="O169" s="71"/>
+      <c r="P169" s="71"/>
+      <c r="Q169" s="71"/>
+      <c r="R169" s="71"/>
+      <c r="S169" s="71"/>
+      <c r="T169" s="71"/>
+      <c r="U169" s="71"/>
+      <c r="V169" s="71"/>
+      <c r="W169" s="71"/>
+      <c r="X169" s="71"/>
+      <c r="Y169" s="71"/>
+      <c r="Z169" s="71"/>
+      <c r="AA169" s="71"/>
+      <c r="AB169" s="71"/>
+      <c r="AC169" s="71"/>
+      <c r="AD169" s="71"/>
+      <c r="AE169" s="71"/>
+      <c r="AF169" s="71"/>
+      <c r="AG169" s="71"/>
+      <c r="AH169" s="71"/>
+      <c r="AI169" s="71"/>
     </row>
     <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="73"/>
-      <c r="B170" s="73"/>
-      <c r="C170" s="74"/>
-      <c r="D170" s="74"/>
-      <c r="E170" s="74"/>
-      <c r="F170" s="74"/>
-      <c r="G170" s="75"/>
-      <c r="H170" s="74"/>
-      <c r="I170" s="74"/>
-      <c r="J170" s="74"/>
-      <c r="K170" s="75"/>
-      <c r="L170" s="74"/>
-      <c r="M170" s="74"/>
-      <c r="N170" s="74"/>
-      <c r="O170" s="74"/>
-      <c r="P170" s="74"/>
-      <c r="Q170" s="74"/>
-      <c r="R170" s="74"/>
-      <c r="S170" s="74"/>
-      <c r="T170" s="74"/>
-      <c r="U170" s="74"/>
-      <c r="V170" s="74"/>
-      <c r="W170" s="74"/>
-      <c r="X170" s="74"/>
-      <c r="Y170" s="74"/>
-      <c r="Z170" s="74"/>
-      <c r="AA170" s="74"/>
-      <c r="AB170" s="74"/>
-      <c r="AC170" s="74"/>
-      <c r="AD170" s="74"/>
-      <c r="AE170" s="75"/>
-      <c r="AF170" s="74"/>
-      <c r="AG170" s="74"/>
-      <c r="AH170" s="74"/>
-      <c r="AI170" s="74"/>
+      <c r="A170" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B170" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="C170" s="69" t="s">
+        <v>367</v>
+      </c>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="G170" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H170" s="71"/>
+      <c r="I170" s="71"/>
+      <c r="J170" s="69"/>
+      <c r="K170" s="69"/>
+      <c r="L170" s="71"/>
+      <c r="M170" s="71"/>
+      <c r="N170" s="71"/>
+      <c r="O170" s="71"/>
+      <c r="P170" s="71"/>
+      <c r="Q170" s="71"/>
+      <c r="R170" s="71"/>
+      <c r="S170" s="71"/>
+      <c r="T170" s="71"/>
+      <c r="U170" s="71"/>
+      <c r="V170" s="71"/>
+      <c r="W170" s="71"/>
+      <c r="X170" s="71"/>
+      <c r="Y170" s="71"/>
+      <c r="Z170" s="71"/>
+      <c r="AA170" s="71"/>
+      <c r="AB170" s="71"/>
+      <c r="AC170" s="71"/>
+      <c r="AD170" s="71"/>
+      <c r="AE170" s="71"/>
+      <c r="AF170" s="71"/>
+      <c r="AG170" s="71"/>
+      <c r="AH170" s="71"/>
+      <c r="AI170" s="71"/>
     </row>
     <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="73"/>
-      <c r="B171" s="76"/>
-      <c r="C171" s="74"/>
-      <c r="D171" s="74"/>
-      <c r="E171" s="74"/>
-      <c r="F171" s="74"/>
-      <c r="G171" s="74"/>
-      <c r="H171" s="74"/>
-      <c r="I171" s="74"/>
-      <c r="J171" s="74"/>
-      <c r="K171" s="74"/>
-      <c r="L171" s="74"/>
-      <c r="M171" s="74"/>
-      <c r="N171" s="74"/>
-      <c r="O171" s="74"/>
-      <c r="P171" s="74"/>
-      <c r="Q171" s="74"/>
-      <c r="R171" s="74"/>
-      <c r="S171" s="74"/>
-      <c r="T171" s="74"/>
-      <c r="U171" s="74"/>
-      <c r="V171" s="74"/>
-      <c r="W171" s="74"/>
-      <c r="X171" s="74"/>
-      <c r="Y171" s="74"/>
-      <c r="Z171" s="74"/>
-      <c r="AA171" s="74"/>
-      <c r="AB171" s="74"/>
-      <c r="AC171" s="74"/>
-      <c r="AD171" s="74"/>
-      <c r="AE171" s="74"/>
-      <c r="AF171" s="74"/>
-      <c r="AG171" s="75"/>
-      <c r="AH171" s="74"/>
-      <c r="AI171" s="74"/>
+      <c r="A171" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B171" s="68" t="s">
+        <v>368</v>
+      </c>
+      <c r="C171" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="D171" s="71"/>
+      <c r="E171" s="71"/>
+      <c r="F171" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="G171" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H171" s="71"/>
+      <c r="I171" s="71"/>
+      <c r="J171" s="69"/>
+      <c r="K171" s="69"/>
+      <c r="L171" s="71"/>
+      <c r="M171" s="71"/>
+      <c r="N171" s="71"/>
+      <c r="O171" s="71"/>
+      <c r="P171" s="71"/>
+      <c r="Q171" s="71"/>
+      <c r="R171" s="71"/>
+      <c r="S171" s="71"/>
+      <c r="T171" s="71"/>
+      <c r="U171" s="71"/>
+      <c r="V171" s="71"/>
+      <c r="W171" s="71"/>
+      <c r="X171" s="71"/>
+      <c r="Y171" s="71"/>
+      <c r="Z171" s="71"/>
+      <c r="AA171" s="71"/>
+      <c r="AB171" s="71"/>
+      <c r="AC171" s="71"/>
+      <c r="AD171" s="71"/>
+      <c r="AE171" s="71"/>
+      <c r="AF171" s="71"/>
+      <c r="AG171" s="71"/>
+      <c r="AH171" s="71"/>
+      <c r="AI171" s="71"/>
     </row>
     <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="73"/>
-      <c r="B172" s="76"/>
-      <c r="C172" s="74"/>
-      <c r="D172" s="74"/>
-      <c r="E172" s="74"/>
-      <c r="F172" s="74"/>
-      <c r="G172" s="74"/>
-      <c r="H172" s="74"/>
-      <c r="I172" s="74"/>
-      <c r="J172" s="74"/>
-      <c r="K172" s="74"/>
-      <c r="L172" s="74"/>
-      <c r="M172" s="74"/>
-      <c r="N172" s="74"/>
-      <c r="O172" s="74"/>
-      <c r="P172" s="74"/>
-      <c r="Q172" s="74"/>
-      <c r="R172" s="74"/>
-      <c r="S172" s="74"/>
-      <c r="T172" s="74"/>
-      <c r="U172" s="74"/>
-      <c r="V172" s="74"/>
-      <c r="W172" s="74"/>
-      <c r="X172" s="74"/>
-      <c r="Y172" s="74"/>
-      <c r="Z172" s="74"/>
-      <c r="AA172" s="74"/>
-      <c r="AB172" s="74"/>
-      <c r="AC172" s="74"/>
-      <c r="AD172" s="74"/>
-      <c r="AE172" s="74"/>
-      <c r="AF172" s="74"/>
-      <c r="AG172" s="75"/>
-      <c r="AH172" s="74"/>
-      <c r="AI172" s="74"/>
+      <c r="A172" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="C172" s="69" t="s">
+        <v>177</v>
+      </c>
+      <c r="D172" s="71"/>
+      <c r="E172" s="71"/>
+      <c r="F172" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="G172" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H172" s="71"/>
+      <c r="I172" s="71"/>
+      <c r="J172" s="69"/>
+      <c r="K172" s="69"/>
+      <c r="L172" s="71"/>
+      <c r="M172" s="71"/>
+      <c r="N172" s="71"/>
+      <c r="O172" s="71"/>
+      <c r="P172" s="71"/>
+      <c r="Q172" s="71"/>
+      <c r="R172" s="71"/>
+      <c r="S172" s="71"/>
+      <c r="T172" s="71"/>
+      <c r="U172" s="71"/>
+      <c r="V172" s="71"/>
+      <c r="W172" s="71"/>
+      <c r="X172" s="71"/>
+      <c r="Y172" s="71"/>
+      <c r="Z172" s="71"/>
+      <c r="AA172" s="71"/>
+      <c r="AB172" s="71"/>
+      <c r="AC172" s="71"/>
+      <c r="AD172" s="71"/>
+      <c r="AE172" s="71"/>
+      <c r="AF172" s="71"/>
+      <c r="AG172" s="71"/>
+      <c r="AH172" s="71"/>
+      <c r="AI172" s="71"/>
     </row>
     <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="73"/>
-      <c r="B173" s="76"/>
-      <c r="C173" s="74"/>
-      <c r="D173" s="74"/>
-      <c r="E173" s="74"/>
-      <c r="F173" s="74"/>
-      <c r="G173" s="74"/>
-      <c r="H173" s="74"/>
-      <c r="I173" s="74"/>
-      <c r="J173" s="74"/>
-      <c r="K173" s="74"/>
-      <c r="L173" s="74"/>
-      <c r="M173" s="74"/>
-      <c r="N173" s="74"/>
-      <c r="O173" s="74"/>
-      <c r="P173" s="74"/>
-      <c r="Q173" s="74"/>
-      <c r="R173" s="74"/>
-      <c r="S173" s="74"/>
-      <c r="T173" s="74"/>
-      <c r="U173" s="74"/>
-      <c r="V173" s="74"/>
-      <c r="W173" s="74"/>
-      <c r="X173" s="74"/>
-      <c r="Y173" s="74"/>
-      <c r="Z173" s="74"/>
-      <c r="AA173" s="74"/>
-      <c r="AB173" s="74"/>
-      <c r="AC173" s="74"/>
-      <c r="AD173" s="74"/>
-      <c r="AE173" s="74"/>
-      <c r="AF173" s="74"/>
-      <c r="AG173" s="75"/>
-      <c r="AH173" s="74"/>
-      <c r="AI173" s="74"/>
+      <c r="A173" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B173" s="68" t="s">
+        <v>371</v>
+      </c>
+      <c r="C173" s="69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D173" s="71"/>
+      <c r="E173" s="71"/>
+      <c r="F173" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="G173" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H173" s="71"/>
+      <c r="I173" s="71"/>
+      <c r="J173" s="69"/>
+      <c r="K173" s="69"/>
+      <c r="L173" s="71"/>
+      <c r="M173" s="71"/>
+      <c r="N173" s="71"/>
+      <c r="O173" s="71"/>
+      <c r="P173" s="71"/>
+      <c r="Q173" s="71"/>
+      <c r="R173" s="71"/>
+      <c r="S173" s="71"/>
+      <c r="T173" s="71"/>
+      <c r="U173" s="71"/>
+      <c r="V173" s="71"/>
+      <c r="W173" s="71"/>
+      <c r="X173" s="71"/>
+      <c r="Y173" s="71"/>
+      <c r="Z173" s="71"/>
+      <c r="AA173" s="71"/>
+      <c r="AB173" s="71"/>
+      <c r="AC173" s="71"/>
+      <c r="AD173" s="71"/>
+      <c r="AE173" s="71"/>
+      <c r="AF173" s="71"/>
+      <c r="AG173" s="71"/>
+      <c r="AH173" s="71"/>
+      <c r="AI173" s="71"/>
     </row>
     <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="73"/>
-      <c r="B174" s="76"/>
-      <c r="C174" s="74"/>
-      <c r="D174" s="74"/>
-      <c r="E174" s="74"/>
-      <c r="F174" s="74"/>
-      <c r="G174" s="74"/>
-      <c r="H174" s="74"/>
-      <c r="I174" s="74"/>
-      <c r="J174" s="74"/>
-      <c r="K174" s="74"/>
-      <c r="L174" s="74"/>
-      <c r="M174" s="74"/>
-      <c r="N174" s="74"/>
-      <c r="O174" s="74"/>
-      <c r="P174" s="74"/>
-      <c r="Q174" s="74"/>
-      <c r="R174" s="74"/>
-      <c r="S174" s="74"/>
-      <c r="T174" s="74"/>
-      <c r="U174" s="74"/>
-      <c r="V174" s="74"/>
-      <c r="W174" s="74"/>
-      <c r="X174" s="74"/>
-      <c r="Y174" s="74"/>
-      <c r="Z174" s="74"/>
-      <c r="AA174" s="74"/>
-      <c r="AB174" s="74"/>
-      <c r="AC174" s="74"/>
-      <c r="AD174" s="74"/>
-      <c r="AE174" s="74"/>
-      <c r="AF174" s="74"/>
-      <c r="AG174" s="75"/>
-      <c r="AH174" s="74"/>
-      <c r="AI174" s="74"/>
+      <c r="A174" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B174" s="68" t="s">
+        <v>372</v>
+      </c>
+      <c r="C174" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="D174" s="71"/>
+      <c r="E174" s="71"/>
+      <c r="F174" s="69" t="s">
+        <v>393</v>
+      </c>
+      <c r="G174" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H174" s="71"/>
+      <c r="I174" s="71"/>
+      <c r="J174" s="69"/>
+      <c r="K174" s="69"/>
+      <c r="L174" s="71"/>
+      <c r="M174" s="71"/>
+      <c r="N174" s="71"/>
+      <c r="O174" s="71"/>
+      <c r="P174" s="71"/>
+      <c r="Q174" s="71"/>
+      <c r="R174" s="71"/>
+      <c r="S174" s="71"/>
+      <c r="T174" s="71"/>
+      <c r="U174" s="71"/>
+      <c r="V174" s="71"/>
+      <c r="W174" s="71"/>
+      <c r="X174" s="71"/>
+      <c r="Y174" s="71"/>
+      <c r="Z174" s="71"/>
+      <c r="AA174" s="71"/>
+      <c r="AB174" s="71"/>
+      <c r="AC174" s="71"/>
+      <c r="AD174" s="71"/>
+      <c r="AE174" s="71"/>
+      <c r="AF174" s="71"/>
+      <c r="AG174" s="71"/>
+      <c r="AH174" s="71"/>
+      <c r="AI174" s="71"/>
     </row>
     <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="73"/>
-      <c r="B175" s="76"/>
-      <c r="C175" s="74"/>
-      <c r="D175" s="74"/>
-      <c r="E175" s="74"/>
-      <c r="F175" s="74"/>
-      <c r="G175" s="74"/>
-      <c r="H175" s="74"/>
-      <c r="I175" s="74"/>
-      <c r="J175" s="74"/>
-      <c r="K175" s="74"/>
-      <c r="L175" s="74"/>
-      <c r="M175" s="74"/>
-      <c r="N175" s="74"/>
-      <c r="O175" s="74"/>
-      <c r="P175" s="74"/>
-      <c r="Q175" s="74"/>
-      <c r="R175" s="74"/>
-      <c r="S175" s="74"/>
-      <c r="T175" s="74"/>
-      <c r="U175" s="74"/>
-      <c r="V175" s="74"/>
-      <c r="W175" s="74"/>
-      <c r="X175" s="74"/>
-      <c r="Y175" s="74"/>
-      <c r="Z175" s="74"/>
-      <c r="AA175" s="74"/>
-      <c r="AB175" s="74"/>
-      <c r="AC175" s="74"/>
-      <c r="AD175" s="74"/>
-      <c r="AE175" s="74"/>
-      <c r="AF175" s="74"/>
-      <c r="AG175" s="75"/>
-      <c r="AH175" s="74"/>
-      <c r="AI175" s="74"/>
+      <c r="A175" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B175" s="68" t="s">
+        <v>373</v>
+      </c>
+      <c r="C175" s="69" t="s">
+        <v>183</v>
+      </c>
+      <c r="D175" s="71"/>
+      <c r="E175" s="71"/>
+      <c r="F175" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="G175" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H175" s="71"/>
+      <c r="I175" s="71"/>
+      <c r="J175" s="69"/>
+      <c r="K175" s="69"/>
+      <c r="L175" s="71"/>
+      <c r="M175" s="71"/>
+      <c r="N175" s="71"/>
+      <c r="O175" s="71"/>
+      <c r="P175" s="71"/>
+      <c r="Q175" s="71"/>
+      <c r="R175" s="71"/>
+      <c r="S175" s="71"/>
+      <c r="T175" s="71"/>
+      <c r="U175" s="71"/>
+      <c r="V175" s="71"/>
+      <c r="W175" s="71"/>
+      <c r="X175" s="71"/>
+      <c r="Y175" s="71"/>
+      <c r="Z175" s="71"/>
+      <c r="AA175" s="71"/>
+      <c r="AB175" s="71"/>
+      <c r="AC175" s="71"/>
+      <c r="AD175" s="71"/>
+      <c r="AE175" s="71"/>
+      <c r="AF175" s="71"/>
+      <c r="AG175" s="71"/>
+      <c r="AH175" s="71"/>
+      <c r="AI175" s="71"/>
     </row>
     <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="73"/>
-      <c r="B176" s="76"/>
-      <c r="C176" s="74"/>
-      <c r="D176" s="74"/>
-      <c r="E176" s="74"/>
-      <c r="F176" s="74"/>
-      <c r="G176" s="74"/>
-      <c r="H176" s="74"/>
-      <c r="I176" s="74"/>
-      <c r="J176" s="74"/>
-      <c r="K176" s="74"/>
-      <c r="L176" s="74"/>
-      <c r="M176" s="74"/>
-      <c r="N176" s="74"/>
-      <c r="O176" s="74"/>
-      <c r="P176" s="74"/>
-      <c r="Q176" s="74"/>
-      <c r="R176" s="74"/>
-      <c r="S176" s="74"/>
-      <c r="T176" s="74"/>
-      <c r="U176" s="74"/>
-      <c r="V176" s="74"/>
-      <c r="W176" s="74"/>
-      <c r="X176" s="74"/>
-      <c r="Y176" s="74"/>
-      <c r="Z176" s="74"/>
-      <c r="AA176" s="74"/>
-      <c r="AB176" s="74"/>
-      <c r="AC176" s="74"/>
-      <c r="AD176" s="74"/>
-      <c r="AE176" s="74"/>
-      <c r="AF176" s="74"/>
-      <c r="AG176" s="75"/>
-      <c r="AH176" s="74"/>
-      <c r="AI176" s="74"/>
+      <c r="A176" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B176" s="68" t="s">
+        <v>374</v>
+      </c>
+      <c r="C176" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D176" s="71"/>
+      <c r="E176" s="71"/>
+      <c r="F176" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="G176" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H176" s="71"/>
+      <c r="I176" s="71"/>
+      <c r="J176" s="69"/>
+      <c r="K176" s="69"/>
+      <c r="L176" s="71"/>
+      <c r="M176" s="71"/>
+      <c r="N176" s="71"/>
+      <c r="O176" s="71"/>
+      <c r="P176" s="71"/>
+      <c r="Q176" s="71"/>
+      <c r="R176" s="71"/>
+      <c r="S176" s="71"/>
+      <c r="T176" s="71"/>
+      <c r="U176" s="71"/>
+      <c r="V176" s="71"/>
+      <c r="W176" s="71"/>
+      <c r="X176" s="71"/>
+      <c r="Y176" s="71"/>
+      <c r="Z176" s="71"/>
+      <c r="AA176" s="71"/>
+      <c r="AB176" s="71"/>
+      <c r="AC176" s="71"/>
+      <c r="AD176" s="71"/>
+      <c r="AE176" s="71"/>
+      <c r="AF176" s="71"/>
+      <c r="AG176" s="71"/>
+      <c r="AH176" s="71"/>
+      <c r="AI176" s="71"/>
     </row>
     <row r="177" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="73"/>
-      <c r="B177" s="76"/>
-      <c r="C177" s="74"/>
-      <c r="D177" s="74"/>
-      <c r="E177" s="74"/>
-      <c r="F177" s="74"/>
-      <c r="G177" s="74"/>
-      <c r="H177" s="74"/>
-      <c r="I177" s="74"/>
-      <c r="J177" s="74"/>
-      <c r="K177" s="74"/>
-      <c r="L177" s="74"/>
-      <c r="M177" s="74"/>
-      <c r="N177" s="74"/>
-      <c r="O177" s="74"/>
-      <c r="P177" s="74"/>
-      <c r="Q177" s="74"/>
-      <c r="R177" s="74"/>
-      <c r="S177" s="74"/>
-      <c r="T177" s="74"/>
-      <c r="U177" s="74"/>
-      <c r="V177" s="74"/>
-      <c r="W177" s="74"/>
-      <c r="X177" s="74"/>
-      <c r="Y177" s="74"/>
-      <c r="Z177" s="74"/>
-      <c r="AA177" s="74"/>
-      <c r="AB177" s="74"/>
-      <c r="AC177" s="74"/>
-      <c r="AD177" s="74"/>
-      <c r="AE177" s="74"/>
-      <c r="AF177" s="74"/>
-      <c r="AG177" s="75"/>
-      <c r="AH177" s="74"/>
-      <c r="AI177" s="74"/>
+      <c r="A177" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B177" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="C177" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="D177" s="71"/>
+      <c r="E177" s="71"/>
+      <c r="F177" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="G177" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="H177" s="71"/>
+      <c r="I177" s="71"/>
+      <c r="J177" s="69"/>
+      <c r="K177" s="69"/>
+      <c r="L177" s="71"/>
+      <c r="M177" s="71"/>
+      <c r="N177" s="71"/>
+      <c r="O177" s="71"/>
+      <c r="P177" s="71"/>
+      <c r="Q177" s="71"/>
+      <c r="R177" s="71"/>
+      <c r="S177" s="71"/>
+      <c r="T177" s="71"/>
+      <c r="U177" s="71"/>
+      <c r="V177" s="71"/>
+      <c r="W177" s="71"/>
+      <c r="X177" s="71"/>
+      <c r="Y177" s="71"/>
+      <c r="Z177" s="71"/>
+      <c r="AA177" s="71"/>
+      <c r="AB177" s="71"/>
+      <c r="AC177" s="71"/>
+      <c r="AD177" s="71"/>
+      <c r="AE177" s="71"/>
+      <c r="AF177" s="71"/>
+      <c r="AG177" s="71"/>
+      <c r="AH177" s="71"/>
+      <c r="AI177" s="71"/>
     </row>
     <row r="178" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="73"/>
-      <c r="B178" s="76"/>
-      <c r="C178" s="74"/>
-      <c r="D178" s="74"/>
-      <c r="E178" s="74"/>
-      <c r="F178" s="74"/>
-      <c r="G178" s="74"/>
-      <c r="H178" s="74"/>
-      <c r="I178" s="74"/>
-      <c r="J178" s="74"/>
-      <c r="K178" s="74"/>
-      <c r="L178" s="74"/>
-      <c r="M178" s="74"/>
-      <c r="N178" s="74"/>
-      <c r="O178" s="74"/>
-      <c r="P178" s="74"/>
-      <c r="Q178" s="74"/>
-      <c r="R178" s="74"/>
-      <c r="S178" s="74"/>
-      <c r="T178" s="74"/>
-      <c r="U178" s="74"/>
-      <c r="V178" s="74"/>
-      <c r="W178" s="74"/>
-      <c r="X178" s="74"/>
-      <c r="Y178" s="74"/>
-      <c r="Z178" s="74"/>
-      <c r="AA178" s="74"/>
-      <c r="AB178" s="74"/>
-      <c r="AC178" s="74"/>
-      <c r="AD178" s="74"/>
-      <c r="AE178" s="74"/>
-      <c r="AF178" s="74"/>
-      <c r="AG178" s="75"/>
-      <c r="AH178" s="74"/>
-      <c r="AI178" s="74"/>
+      <c r="A178" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B178" s="68" t="s">
+        <v>377</v>
+      </c>
+      <c r="C178" s="69" t="s">
+        <v>378</v>
+      </c>
+      <c r="D178" s="71"/>
+      <c r="E178" s="71"/>
+      <c r="F178" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="G178" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="H178" s="71"/>
+      <c r="I178" s="71"/>
+      <c r="J178" s="69"/>
+      <c r="K178" s="69"/>
+      <c r="L178" s="71"/>
+      <c r="M178" s="71"/>
+      <c r="N178" s="71"/>
+      <c r="O178" s="71"/>
+      <c r="P178" s="71"/>
+      <c r="Q178" s="71"/>
+      <c r="R178" s="71"/>
+      <c r="S178" s="71"/>
+      <c r="T178" s="71"/>
+      <c r="U178" s="71"/>
+      <c r="V178" s="71"/>
+      <c r="W178" s="71"/>
+      <c r="X178" s="71"/>
+      <c r="Y178" s="71"/>
+      <c r="Z178" s="71"/>
+      <c r="AA178" s="71"/>
+      <c r="AB178" s="71"/>
+      <c r="AC178" s="71"/>
+      <c r="AD178" s="71"/>
+      <c r="AE178" s="71"/>
+      <c r="AF178" s="71"/>
+      <c r="AG178" s="71"/>
+      <c r="AH178" s="71"/>
+      <c r="AI178" s="71"/>
     </row>
     <row r="179" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="73"/>
-      <c r="B179" s="76"/>
-      <c r="C179" s="74"/>
-      <c r="D179" s="74"/>
-      <c r="E179" s="74"/>
-      <c r="F179" s="74"/>
-      <c r="G179" s="74"/>
-      <c r="H179" s="74"/>
-      <c r="I179" s="74"/>
-      <c r="J179" s="74"/>
-      <c r="K179" s="74"/>
-      <c r="L179" s="74"/>
-      <c r="M179" s="74"/>
-      <c r="N179" s="74"/>
-      <c r="O179" s="74"/>
-      <c r="P179" s="74"/>
-      <c r="Q179" s="74"/>
-      <c r="R179" s="74"/>
-      <c r="S179" s="74"/>
-      <c r="T179" s="74"/>
-      <c r="U179" s="74"/>
-      <c r="V179" s="74"/>
-      <c r="W179" s="74"/>
-      <c r="X179" s="74"/>
-      <c r="Y179" s="74"/>
-      <c r="Z179" s="74"/>
-      <c r="AA179" s="74"/>
-      <c r="AB179" s="74"/>
-      <c r="AC179" s="74"/>
-      <c r="AD179" s="74"/>
-      <c r="AE179" s="74"/>
-      <c r="AF179" s="74"/>
-      <c r="AG179" s="75"/>
-      <c r="AH179" s="74"/>
-      <c r="AI179" s="74"/>
+      <c r="A179" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B179" s="68" t="s">
+        <v>380</v>
+      </c>
+      <c r="C179" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="D179" s="71"/>
+      <c r="E179" s="71"/>
+      <c r="F179" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="G179" s="69"/>
+      <c r="H179" s="71"/>
+      <c r="I179" s="71"/>
+      <c r="J179" s="69"/>
+      <c r="K179" s="69"/>
+      <c r="L179" s="71"/>
+      <c r="M179" s="71"/>
+      <c r="N179" s="71"/>
+      <c r="O179" s="71"/>
+      <c r="P179" s="71"/>
+      <c r="Q179" s="71"/>
+      <c r="R179" s="71"/>
+      <c r="S179" s="71"/>
+      <c r="T179" s="71"/>
+      <c r="U179" s="71"/>
+      <c r="V179" s="71"/>
+      <c r="W179" s="71"/>
+      <c r="X179" s="71"/>
+      <c r="Y179" s="71"/>
+      <c r="Z179" s="71"/>
+      <c r="AA179" s="71"/>
+      <c r="AB179" s="71"/>
+      <c r="AC179" s="71"/>
+      <c r="AD179" s="71"/>
+      <c r="AE179" s="71"/>
+      <c r="AF179" s="71"/>
+      <c r="AG179" s="71"/>
+      <c r="AH179" s="71"/>
+      <c r="AI179" s="71"/>
     </row>
     <row r="180" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="73"/>
-      <c r="B180" s="76"/>
-      <c r="C180" s="74"/>
-      <c r="D180" s="74"/>
-      <c r="E180" s="74"/>
-      <c r="F180" s="74"/>
-      <c r="G180" s="74"/>
-      <c r="H180" s="74"/>
-      <c r="I180" s="74"/>
-      <c r="J180" s="74"/>
-      <c r="K180" s="74"/>
-      <c r="L180" s="74"/>
-      <c r="M180" s="74"/>
-      <c r="N180" s="74"/>
-      <c r="O180" s="74"/>
-      <c r="P180" s="74"/>
-      <c r="Q180" s="74"/>
-      <c r="R180" s="74"/>
-      <c r="S180" s="74"/>
-      <c r="T180" s="74"/>
-      <c r="U180" s="74"/>
-      <c r="V180" s="74"/>
-      <c r="W180" s="74"/>
-      <c r="X180" s="74"/>
-      <c r="Y180" s="74"/>
-      <c r="Z180" s="74"/>
-      <c r="AA180" s="74"/>
-      <c r="AB180" s="74"/>
-      <c r="AC180" s="74"/>
-      <c r="AD180" s="74"/>
-      <c r="AE180" s="74"/>
-      <c r="AF180" s="74"/>
-      <c r="AG180" s="75"/>
-      <c r="AH180" s="74"/>
-      <c r="AI180" s="74"/>
+      <c r="A180" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B180" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="C180" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="D180" s="71"/>
+      <c r="E180" s="71"/>
+      <c r="F180" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="G180" s="69"/>
+      <c r="H180" s="71"/>
+      <c r="I180" s="71"/>
+      <c r="J180" s="69"/>
+      <c r="K180" s="69"/>
+      <c r="L180" s="71"/>
+      <c r="M180" s="71"/>
+      <c r="N180" s="71"/>
+      <c r="O180" s="71"/>
+      <c r="P180" s="71"/>
+      <c r="Q180" s="71"/>
+      <c r="R180" s="71"/>
+      <c r="S180" s="71"/>
+      <c r="T180" s="71"/>
+      <c r="U180" s="71"/>
+      <c r="V180" s="71"/>
+      <c r="W180" s="71"/>
+      <c r="X180" s="71"/>
+      <c r="Y180" s="71"/>
+      <c r="Z180" s="71"/>
+      <c r="AA180" s="71"/>
+      <c r="AB180" s="71"/>
+      <c r="AC180" s="71"/>
+      <c r="AD180" s="71"/>
+      <c r="AE180" s="71"/>
+      <c r="AF180" s="71"/>
+      <c r="AG180" s="71"/>
+      <c r="AH180" s="71"/>
+      <c r="AI180" s="71"/>
     </row>
     <row r="181" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="73"/>
-      <c r="B181" s="76"/>
-      <c r="C181" s="74"/>
-      <c r="D181" s="74"/>
-      <c r="E181" s="74"/>
-      <c r="F181" s="74"/>
-      <c r="G181" s="74"/>
-      <c r="H181" s="74"/>
-      <c r="I181" s="74"/>
-      <c r="J181" s="74"/>
-      <c r="K181" s="74"/>
-      <c r="L181" s="74"/>
-      <c r="M181" s="74"/>
-      <c r="N181" s="74"/>
-      <c r="O181" s="74"/>
-      <c r="P181" s="74"/>
-      <c r="Q181" s="74"/>
-      <c r="R181" s="74"/>
-      <c r="S181" s="74"/>
-      <c r="T181" s="74"/>
-      <c r="U181" s="74"/>
-      <c r="V181" s="74"/>
-      <c r="W181" s="74"/>
-      <c r="X181" s="74"/>
-      <c r="Y181" s="74"/>
-      <c r="Z181" s="74"/>
-      <c r="AA181" s="74"/>
-      <c r="AB181" s="74"/>
-      <c r="AC181" s="74"/>
-      <c r="AD181" s="74"/>
-      <c r="AE181" s="74"/>
-      <c r="AF181" s="74"/>
-      <c r="AG181" s="75"/>
-      <c r="AH181" s="74"/>
-      <c r="AI181" s="74"/>
+      <c r="A181" s="68" t="s">
+        <v>338</v>
+      </c>
+      <c r="B181" s="68" t="s">
+        <v>384</v>
+      </c>
+      <c r="C181" s="69" t="s">
+        <v>385</v>
+      </c>
+      <c r="D181" s="71"/>
+      <c r="E181" s="71"/>
+      <c r="F181" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="G181" s="69"/>
+      <c r="H181" s="71"/>
+      <c r="I181" s="71"/>
+      <c r="J181" s="69"/>
+      <c r="K181" s="69"/>
+      <c r="L181" s="71"/>
+      <c r="M181" s="71"/>
+      <c r="N181" s="71"/>
+      <c r="O181" s="71"/>
+      <c r="P181" s="71"/>
+      <c r="Q181" s="71"/>
+      <c r="R181" s="71"/>
+      <c r="S181" s="71"/>
+      <c r="T181" s="71"/>
+      <c r="U181" s="71"/>
+      <c r="V181" s="71"/>
+      <c r="W181" s="71"/>
+      <c r="X181" s="71"/>
+      <c r="Y181" s="71"/>
+      <c r="Z181" s="71"/>
+      <c r="AA181" s="71"/>
+      <c r="AB181" s="71"/>
+      <c r="AC181" s="71"/>
+      <c r="AD181" s="71"/>
+      <c r="AE181" s="71"/>
+      <c r="AF181" s="71"/>
+      <c r="AG181" s="71"/>
+      <c r="AH181" s="71"/>
+      <c r="AI181" s="71"/>
     </row>
     <row r="182" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="77"/>
-      <c r="B182" s="77"/>
-      <c r="C182" s="74"/>
-      <c r="D182" s="75"/>
-      <c r="E182" s="75"/>
-      <c r="F182" s="75"/>
-      <c r="G182" s="75"/>
-      <c r="H182" s="75"/>
-      <c r="I182" s="75"/>
-      <c r="J182" s="75"/>
-      <c r="K182" s="75"/>
-      <c r="L182" s="75"/>
-      <c r="M182" s="75"/>
-      <c r="N182" s="75"/>
-      <c r="O182" s="75"/>
-      <c r="P182" s="75"/>
-      <c r="Q182" s="75"/>
-      <c r="R182" s="75"/>
-      <c r="S182" s="75"/>
-      <c r="T182" s="75"/>
-      <c r="U182" s="75"/>
-      <c r="V182" s="75"/>
-      <c r="W182" s="75"/>
-      <c r="X182" s="75"/>
-      <c r="Y182" s="75"/>
-      <c r="Z182" s="75"/>
-      <c r="AA182" s="75"/>
-      <c r="AB182" s="75"/>
-      <c r="AC182" s="75"/>
-      <c r="AD182" s="75"/>
-      <c r="AE182" s="75"/>
-      <c r="AF182" s="75"/>
-      <c r="AG182" s="75"/>
-      <c r="AH182" s="75"/>
-      <c r="AI182" s="75"/>
+      <c r="A182" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B182" s="68"/>
+      <c r="C182" s="69"/>
+      <c r="D182" s="70"/>
+      <c r="E182" s="70"/>
+      <c r="F182" s="71"/>
+      <c r="G182" s="71"/>
+      <c r="H182" s="70"/>
+      <c r="I182" s="71"/>
+      <c r="J182" s="71"/>
+      <c r="K182" s="71"/>
+      <c r="L182" s="71"/>
+      <c r="M182" s="69"/>
+      <c r="N182" s="69"/>
+      <c r="O182" s="69"/>
+      <c r="P182" s="69"/>
+      <c r="Q182" s="69"/>
+      <c r="R182" s="69"/>
+      <c r="S182" s="69"/>
+      <c r="T182" s="69"/>
+      <c r="U182" s="71"/>
+      <c r="V182" s="69"/>
+      <c r="W182" s="71"/>
+      <c r="X182" s="71"/>
+      <c r="Y182" s="71"/>
+      <c r="Z182" s="71"/>
+      <c r="AA182" s="71"/>
+      <c r="AB182" s="71"/>
+      <c r="AC182" s="71"/>
+      <c r="AD182" s="71"/>
+      <c r="AE182" s="71"/>
+      <c r="AF182" s="71"/>
+      <c r="AG182" s="71"/>
+      <c r="AH182" s="71"/>
+      <c r="AI182" s="71"/>
     </row>
     <row r="183" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="73"/>
-      <c r="B183" s="76"/>
-      <c r="C183" s="74"/>
-      <c r="D183" s="74"/>
-      <c r="E183" s="74"/>
-      <c r="F183" s="74"/>
-      <c r="G183" s="74"/>
-      <c r="H183" s="74"/>
-      <c r="I183" s="74"/>
-      <c r="J183" s="74"/>
-      <c r="K183" s="74"/>
-      <c r="L183" s="74"/>
-      <c r="M183" s="74"/>
-      <c r="N183" s="74"/>
-      <c r="O183" s="74"/>
-      <c r="P183" s="74"/>
-      <c r="Q183" s="74"/>
-      <c r="R183" s="74"/>
-      <c r="S183" s="74"/>
-      <c r="T183" s="75"/>
-      <c r="U183" s="74"/>
-      <c r="V183" s="74"/>
-      <c r="W183" s="74"/>
-      <c r="X183" s="74"/>
-      <c r="Y183" s="74"/>
-      <c r="Z183" s="74"/>
-      <c r="AA183" s="74"/>
-      <c r="AB183" s="74"/>
-      <c r="AC183" s="74"/>
-      <c r="AD183" s="74"/>
-      <c r="AE183" s="74"/>
-      <c r="AF183" s="74"/>
-      <c r="AG183" s="75"/>
-      <c r="AH183" s="74"/>
-      <c r="AI183" s="74"/>
+      <c r="A183" s="35"/>
+      <c r="B183" s="35"/>
+      <c r="C183" s="35"/>
+      <c r="E183" s="35"/>
+      <c r="AE183" s="35"/>
+      <c r="AF183" s="35"/>
+      <c r="AG183" s="35"/>
+      <c r="AH183" s="35"/>
+      <c r="AI183" s="35"/>
     </row>
     <row r="184" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="73"/>
-      <c r="B184" s="76"/>
+      <c r="B184" s="73"/>
       <c r="C184" s="74"/>
       <c r="D184" s="74"/>
       <c r="E184" s="74"/>
       <c r="F184" s="74"/>
-      <c r="G184" s="74"/>
+      <c r="G184" s="75"/>
       <c r="H184" s="74"/>
       <c r="I184" s="74"/>
       <c r="J184" s="74"/>
-      <c r="K184" s="74"/>
+      <c r="K184" s="75"/>
       <c r="L184" s="74"/>
       <c r="M184" s="74"/>
       <c r="N184" s="74"/>
@@ -9327,7 +9357,7 @@
       <c r="Q184" s="74"/>
       <c r="R184" s="74"/>
       <c r="S184" s="74"/>
-      <c r="T184" s="75"/>
+      <c r="T184" s="74"/>
       <c r="U184" s="74"/>
       <c r="V184" s="74"/>
       <c r="W184" s="74"/>
@@ -9338,9 +9368,9 @@
       <c r="AB184" s="74"/>
       <c r="AC184" s="74"/>
       <c r="AD184" s="74"/>
-      <c r="AE184" s="74"/>
+      <c r="AE184" s="75"/>
       <c r="AF184" s="74"/>
-      <c r="AG184" s="75"/>
+      <c r="AG184" s="74"/>
       <c r="AH184" s="74"/>
       <c r="AI184" s="74"/>
     </row>
@@ -9364,7 +9394,7 @@
       <c r="Q185" s="74"/>
       <c r="R185" s="74"/>
       <c r="S185" s="74"/>
-      <c r="T185" s="75"/>
+      <c r="T185" s="74"/>
       <c r="U185" s="74"/>
       <c r="V185" s="74"/>
       <c r="W185" s="74"/>
@@ -9401,7 +9431,7 @@
       <c r="Q186" s="74"/>
       <c r="R186" s="74"/>
       <c r="S186" s="74"/>
-      <c r="T186" s="75"/>
+      <c r="T186" s="74"/>
       <c r="U186" s="74"/>
       <c r="V186" s="74"/>
       <c r="W186" s="74"/>
@@ -9438,7 +9468,7 @@
       <c r="Q187" s="74"/>
       <c r="R187" s="74"/>
       <c r="S187" s="74"/>
-      <c r="T187" s="75"/>
+      <c r="T187" s="74"/>
       <c r="U187" s="74"/>
       <c r="V187" s="74"/>
       <c r="W187" s="74"/>
@@ -9456,89 +9486,607 @@
       <c r="AI187" s="74"/>
     </row>
     <row r="188" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="77"/>
-      <c r="B188" s="77"/>
-      <c r="C188" s="75"/>
-      <c r="D188" s="75"/>
-      <c r="E188" s="75"/>
-      <c r="F188" s="75"/>
-      <c r="G188" s="75"/>
-      <c r="H188" s="75"/>
-      <c r="I188" s="75"/>
-      <c r="J188" s="75"/>
-      <c r="K188" s="75"/>
-      <c r="L188" s="75"/>
-      <c r="M188" s="75"/>
-      <c r="N188" s="75"/>
-      <c r="O188" s="75"/>
-      <c r="P188" s="75"/>
-      <c r="Q188" s="75"/>
-      <c r="R188" s="75"/>
-      <c r="S188" s="75"/>
-      <c r="T188" s="75"/>
-      <c r="U188" s="75"/>
-      <c r="V188" s="75"/>
-      <c r="W188" s="75"/>
-      <c r="X188" s="75"/>
-      <c r="Y188" s="75"/>
-      <c r="Z188" s="75"/>
-      <c r="AA188" s="75"/>
-      <c r="AB188" s="75"/>
-      <c r="AC188" s="75"/>
-      <c r="AD188" s="75"/>
-      <c r="AE188" s="75"/>
-      <c r="AF188" s="75"/>
+      <c r="A188" s="73"/>
+      <c r="B188" s="76"/>
+      <c r="C188" s="74"/>
+      <c r="D188" s="74"/>
+      <c r="E188" s="74"/>
+      <c r="F188" s="74"/>
+      <c r="G188" s="74"/>
+      <c r="H188" s="74"/>
+      <c r="I188" s="74"/>
+      <c r="J188" s="74"/>
+      <c r="K188" s="74"/>
+      <c r="L188" s="74"/>
+      <c r="M188" s="74"/>
+      <c r="N188" s="74"/>
+      <c r="O188" s="74"/>
+      <c r="P188" s="74"/>
+      <c r="Q188" s="74"/>
+      <c r="R188" s="74"/>
+      <c r="S188" s="74"/>
+      <c r="T188" s="74"/>
+      <c r="U188" s="74"/>
+      <c r="V188" s="74"/>
+      <c r="W188" s="74"/>
+      <c r="X188" s="74"/>
+      <c r="Y188" s="74"/>
+      <c r="Z188" s="74"/>
+      <c r="AA188" s="74"/>
+      <c r="AB188" s="74"/>
+      <c r="AC188" s="74"/>
+      <c r="AD188" s="74"/>
+      <c r="AE188" s="74"/>
+      <c r="AF188" s="74"/>
       <c r="AG188" s="75"/>
-      <c r="AH188" s="75"/>
-      <c r="AI188" s="75"/>
+      <c r="AH188" s="74"/>
+      <c r="AI188" s="74"/>
     </row>
     <row r="189" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="77"/>
-      <c r="B189" s="77"/>
-      <c r="C189" s="75"/>
-      <c r="D189" s="75"/>
-      <c r="E189" s="75"/>
-      <c r="F189" s="75"/>
-      <c r="G189" s="75"/>
-      <c r="H189" s="75"/>
-      <c r="I189" s="75"/>
-      <c r="J189" s="75"/>
-      <c r="K189" s="75"/>
-      <c r="L189" s="75"/>
-      <c r="M189" s="75"/>
-      <c r="N189" s="75"/>
-      <c r="O189" s="75"/>
-      <c r="P189" s="75"/>
-      <c r="Q189" s="75"/>
-      <c r="R189" s="75"/>
-      <c r="S189" s="75"/>
-      <c r="T189" s="75"/>
-      <c r="U189" s="75"/>
-      <c r="V189" s="75"/>
-      <c r="W189" s="75"/>
-      <c r="X189" s="75"/>
-      <c r="Y189" s="75"/>
-      <c r="Z189" s="75"/>
-      <c r="AA189" s="75"/>
-      <c r="AB189" s="75"/>
-      <c r="AC189" s="75"/>
-      <c r="AD189" s="75"/>
-      <c r="AE189" s="75"/>
-      <c r="AF189" s="75"/>
+      <c r="A189" s="73"/>
+      <c r="B189" s="76"/>
+      <c r="C189" s="74"/>
+      <c r="D189" s="74"/>
+      <c r="E189" s="74"/>
+      <c r="F189" s="74"/>
+      <c r="G189" s="74"/>
+      <c r="H189" s="74"/>
+      <c r="I189" s="74"/>
+      <c r="J189" s="74"/>
+      <c r="K189" s="74"/>
+      <c r="L189" s="74"/>
+      <c r="M189" s="74"/>
+      <c r="N189" s="74"/>
+      <c r="O189" s="74"/>
+      <c r="P189" s="74"/>
+      <c r="Q189" s="74"/>
+      <c r="R189" s="74"/>
+      <c r="S189" s="74"/>
+      <c r="T189" s="74"/>
+      <c r="U189" s="74"/>
+      <c r="V189" s="74"/>
+      <c r="W189" s="74"/>
+      <c r="X189" s="74"/>
+      <c r="Y189" s="74"/>
+      <c r="Z189" s="74"/>
+      <c r="AA189" s="74"/>
+      <c r="AB189" s="74"/>
+      <c r="AC189" s="74"/>
+      <c r="AD189" s="74"/>
+      <c r="AE189" s="74"/>
+      <c r="AF189" s="74"/>
       <c r="AG189" s="75"/>
-      <c r="AH189" s="75"/>
-      <c r="AI189" s="75"/>
+      <c r="AH189" s="74"/>
+      <c r="AI189" s="74"/>
+    </row>
+    <row r="190" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="73"/>
+      <c r="B190" s="76"/>
+      <c r="C190" s="74"/>
+      <c r="D190" s="74"/>
+      <c r="E190" s="74"/>
+      <c r="F190" s="74"/>
+      <c r="G190" s="74"/>
+      <c r="H190" s="74"/>
+      <c r="I190" s="74"/>
+      <c r="J190" s="74"/>
+      <c r="K190" s="74"/>
+      <c r="L190" s="74"/>
+      <c r="M190" s="74"/>
+      <c r="N190" s="74"/>
+      <c r="O190" s="74"/>
+      <c r="P190" s="74"/>
+      <c r="Q190" s="74"/>
+      <c r="R190" s="74"/>
+      <c r="S190" s="74"/>
+      <c r="T190" s="74"/>
+      <c r="U190" s="74"/>
+      <c r="V190" s="74"/>
+      <c r="W190" s="74"/>
+      <c r="X190" s="74"/>
+      <c r="Y190" s="74"/>
+      <c r="Z190" s="74"/>
+      <c r="AA190" s="74"/>
+      <c r="AB190" s="74"/>
+      <c r="AC190" s="74"/>
+      <c r="AD190" s="74"/>
+      <c r="AE190" s="74"/>
+      <c r="AF190" s="74"/>
+      <c r="AG190" s="75"/>
+      <c r="AH190" s="74"/>
+      <c r="AI190" s="74"/>
+    </row>
+    <row r="191" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="73"/>
+      <c r="B191" s="76"/>
+      <c r="C191" s="74"/>
+      <c r="D191" s="74"/>
+      <c r="E191" s="74"/>
+      <c r="F191" s="74"/>
+      <c r="G191" s="74"/>
+      <c r="H191" s="74"/>
+      <c r="I191" s="74"/>
+      <c r="J191" s="74"/>
+      <c r="K191" s="74"/>
+      <c r="L191" s="74"/>
+      <c r="M191" s="74"/>
+      <c r="N191" s="74"/>
+      <c r="O191" s="74"/>
+      <c r="P191" s="74"/>
+      <c r="Q191" s="74"/>
+      <c r="R191" s="74"/>
+      <c r="S191" s="74"/>
+      <c r="T191" s="74"/>
+      <c r="U191" s="74"/>
+      <c r="V191" s="74"/>
+      <c r="W191" s="74"/>
+      <c r="X191" s="74"/>
+      <c r="Y191" s="74"/>
+      <c r="Z191" s="74"/>
+      <c r="AA191" s="74"/>
+      <c r="AB191" s="74"/>
+      <c r="AC191" s="74"/>
+      <c r="AD191" s="74"/>
+      <c r="AE191" s="74"/>
+      <c r="AF191" s="74"/>
+      <c r="AG191" s="75"/>
+      <c r="AH191" s="74"/>
+      <c r="AI191" s="74"/>
+    </row>
+    <row r="192" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="73"/>
+      <c r="B192" s="76"/>
+      <c r="C192" s="74"/>
+      <c r="D192" s="74"/>
+      <c r="E192" s="74"/>
+      <c r="F192" s="74"/>
+      <c r="G192" s="74"/>
+      <c r="H192" s="74"/>
+      <c r="I192" s="74"/>
+      <c r="J192" s="74"/>
+      <c r="K192" s="74"/>
+      <c r="L192" s="74"/>
+      <c r="M192" s="74"/>
+      <c r="N192" s="74"/>
+      <c r="O192" s="74"/>
+      <c r="P192" s="74"/>
+      <c r="Q192" s="74"/>
+      <c r="R192" s="74"/>
+      <c r="S192" s="74"/>
+      <c r="T192" s="74"/>
+      <c r="U192" s="74"/>
+      <c r="V192" s="74"/>
+      <c r="W192" s="74"/>
+      <c r="X192" s="74"/>
+      <c r="Y192" s="74"/>
+      <c r="Z192" s="74"/>
+      <c r="AA192" s="74"/>
+      <c r="AB192" s="74"/>
+      <c r="AC192" s="74"/>
+      <c r="AD192" s="74"/>
+      <c r="AE192" s="74"/>
+      <c r="AF192" s="74"/>
+      <c r="AG192" s="75"/>
+      <c r="AH192" s="74"/>
+      <c r="AI192" s="74"/>
+    </row>
+    <row r="193" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="73"/>
+      <c r="B193" s="76"/>
+      <c r="C193" s="74"/>
+      <c r="D193" s="74"/>
+      <c r="E193" s="74"/>
+      <c r="F193" s="74"/>
+      <c r="G193" s="74"/>
+      <c r="H193" s="74"/>
+      <c r="I193" s="74"/>
+      <c r="J193" s="74"/>
+      <c r="K193" s="74"/>
+      <c r="L193" s="74"/>
+      <c r="M193" s="74"/>
+      <c r="N193" s="74"/>
+      <c r="O193" s="74"/>
+      <c r="P193" s="74"/>
+      <c r="Q193" s="74"/>
+      <c r="R193" s="74"/>
+      <c r="S193" s="74"/>
+      <c r="T193" s="74"/>
+      <c r="U193" s="74"/>
+      <c r="V193" s="74"/>
+      <c r="W193" s="74"/>
+      <c r="X193" s="74"/>
+      <c r="Y193" s="74"/>
+      <c r="Z193" s="74"/>
+      <c r="AA193" s="74"/>
+      <c r="AB193" s="74"/>
+      <c r="AC193" s="74"/>
+      <c r="AD193" s="74"/>
+      <c r="AE193" s="74"/>
+      <c r="AF193" s="74"/>
+      <c r="AG193" s="75"/>
+      <c r="AH193" s="74"/>
+      <c r="AI193" s="74"/>
+    </row>
+    <row r="194" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="73"/>
+      <c r="B194" s="76"/>
+      <c r="C194" s="74"/>
+      <c r="D194" s="74"/>
+      <c r="E194" s="74"/>
+      <c r="F194" s="74"/>
+      <c r="G194" s="74"/>
+      <c r="H194" s="74"/>
+      <c r="I194" s="74"/>
+      <c r="J194" s="74"/>
+      <c r="K194" s="74"/>
+      <c r="L194" s="74"/>
+      <c r="M194" s="74"/>
+      <c r="N194" s="74"/>
+      <c r="O194" s="74"/>
+      <c r="P194" s="74"/>
+      <c r="Q194" s="74"/>
+      <c r="R194" s="74"/>
+      <c r="S194" s="74"/>
+      <c r="T194" s="74"/>
+      <c r="U194" s="74"/>
+      <c r="V194" s="74"/>
+      <c r="W194" s="74"/>
+      <c r="X194" s="74"/>
+      <c r="Y194" s="74"/>
+      <c r="Z194" s="74"/>
+      <c r="AA194" s="74"/>
+      <c r="AB194" s="74"/>
+      <c r="AC194" s="74"/>
+      <c r="AD194" s="74"/>
+      <c r="AE194" s="74"/>
+      <c r="AF194" s="74"/>
+      <c r="AG194" s="75"/>
+      <c r="AH194" s="74"/>
+      <c r="AI194" s="74"/>
+    </row>
+    <row r="195" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="73"/>
+      <c r="B195" s="76"/>
+      <c r="C195" s="74"/>
+      <c r="D195" s="74"/>
+      <c r="E195" s="74"/>
+      <c r="F195" s="74"/>
+      <c r="G195" s="74"/>
+      <c r="H195" s="74"/>
+      <c r="I195" s="74"/>
+      <c r="J195" s="74"/>
+      <c r="K195" s="74"/>
+      <c r="L195" s="74"/>
+      <c r="M195" s="74"/>
+      <c r="N195" s="74"/>
+      <c r="O195" s="74"/>
+      <c r="P195" s="74"/>
+      <c r="Q195" s="74"/>
+      <c r="R195" s="74"/>
+      <c r="S195" s="74"/>
+      <c r="T195" s="74"/>
+      <c r="U195" s="74"/>
+      <c r="V195" s="74"/>
+      <c r="W195" s="74"/>
+      <c r="X195" s="74"/>
+      <c r="Y195" s="74"/>
+      <c r="Z195" s="74"/>
+      <c r="AA195" s="74"/>
+      <c r="AB195" s="74"/>
+      <c r="AC195" s="74"/>
+      <c r="AD195" s="74"/>
+      <c r="AE195" s="74"/>
+      <c r="AF195" s="74"/>
+      <c r="AG195" s="75"/>
+      <c r="AH195" s="74"/>
+      <c r="AI195" s="74"/>
+    </row>
+    <row r="196" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="77"/>
+      <c r="B196" s="77"/>
+      <c r="C196" s="74"/>
+      <c r="D196" s="75"/>
+      <c r="E196" s="75"/>
+      <c r="F196" s="75"/>
+      <c r="G196" s="75"/>
+      <c r="H196" s="75"/>
+      <c r="I196" s="75"/>
+      <c r="J196" s="75"/>
+      <c r="K196" s="75"/>
+      <c r="L196" s="75"/>
+      <c r="M196" s="75"/>
+      <c r="N196" s="75"/>
+      <c r="O196" s="75"/>
+      <c r="P196" s="75"/>
+      <c r="Q196" s="75"/>
+      <c r="R196" s="75"/>
+      <c r="S196" s="75"/>
+      <c r="T196" s="75"/>
+      <c r="U196" s="75"/>
+      <c r="V196" s="75"/>
+      <c r="W196" s="75"/>
+      <c r="X196" s="75"/>
+      <c r="Y196" s="75"/>
+      <c r="Z196" s="75"/>
+      <c r="AA196" s="75"/>
+      <c r="AB196" s="75"/>
+      <c r="AC196" s="75"/>
+      <c r="AD196" s="75"/>
+      <c r="AE196" s="75"/>
+      <c r="AF196" s="75"/>
+      <c r="AG196" s="75"/>
+      <c r="AH196" s="75"/>
+      <c r="AI196" s="75"/>
+    </row>
+    <row r="197" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="73"/>
+      <c r="B197" s="76"/>
+      <c r="C197" s="74"/>
+      <c r="D197" s="74"/>
+      <c r="E197" s="74"/>
+      <c r="F197" s="74"/>
+      <c r="G197" s="74"/>
+      <c r="H197" s="74"/>
+      <c r="I197" s="74"/>
+      <c r="J197" s="74"/>
+      <c r="K197" s="74"/>
+      <c r="L197" s="74"/>
+      <c r="M197" s="74"/>
+      <c r="N197" s="74"/>
+      <c r="O197" s="74"/>
+      <c r="P197" s="74"/>
+      <c r="Q197" s="74"/>
+      <c r="R197" s="74"/>
+      <c r="S197" s="74"/>
+      <c r="T197" s="75"/>
+      <c r="U197" s="74"/>
+      <c r="V197" s="74"/>
+      <c r="W197" s="74"/>
+      <c r="X197" s="74"/>
+      <c r="Y197" s="74"/>
+      <c r="Z197" s="74"/>
+      <c r="AA197" s="74"/>
+      <c r="AB197" s="74"/>
+      <c r="AC197" s="74"/>
+      <c r="AD197" s="74"/>
+      <c r="AE197" s="74"/>
+      <c r="AF197" s="74"/>
+      <c r="AG197" s="75"/>
+      <c r="AH197" s="74"/>
+      <c r="AI197" s="74"/>
+    </row>
+    <row r="198" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="73"/>
+      <c r="B198" s="76"/>
+      <c r="C198" s="74"/>
+      <c r="D198" s="74"/>
+      <c r="E198" s="74"/>
+      <c r="F198" s="74"/>
+      <c r="G198" s="74"/>
+      <c r="H198" s="74"/>
+      <c r="I198" s="74"/>
+      <c r="J198" s="74"/>
+      <c r="K198" s="74"/>
+      <c r="L198" s="74"/>
+      <c r="M198" s="74"/>
+      <c r="N198" s="74"/>
+      <c r="O198" s="74"/>
+      <c r="P198" s="74"/>
+      <c r="Q198" s="74"/>
+      <c r="R198" s="74"/>
+      <c r="S198" s="74"/>
+      <c r="T198" s="75"/>
+      <c r="U198" s="74"/>
+      <c r="V198" s="74"/>
+      <c r="W198" s="74"/>
+      <c r="X198" s="74"/>
+      <c r="Y198" s="74"/>
+      <c r="Z198" s="74"/>
+      <c r="AA198" s="74"/>
+      <c r="AB198" s="74"/>
+      <c r="AC198" s="74"/>
+      <c r="AD198" s="74"/>
+      <c r="AE198" s="74"/>
+      <c r="AF198" s="74"/>
+      <c r="AG198" s="75"/>
+      <c r="AH198" s="74"/>
+      <c r="AI198" s="74"/>
+    </row>
+    <row r="199" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="73"/>
+      <c r="B199" s="76"/>
+      <c r="C199" s="74"/>
+      <c r="D199" s="74"/>
+      <c r="E199" s="74"/>
+      <c r="F199" s="74"/>
+      <c r="G199" s="74"/>
+      <c r="H199" s="74"/>
+      <c r="I199" s="74"/>
+      <c r="J199" s="74"/>
+      <c r="K199" s="74"/>
+      <c r="L199" s="74"/>
+      <c r="M199" s="74"/>
+      <c r="N199" s="74"/>
+      <c r="O199" s="74"/>
+      <c r="P199" s="74"/>
+      <c r="Q199" s="74"/>
+      <c r="R199" s="74"/>
+      <c r="S199" s="74"/>
+      <c r="T199" s="75"/>
+      <c r="U199" s="74"/>
+      <c r="V199" s="74"/>
+      <c r="W199" s="74"/>
+      <c r="X199" s="74"/>
+      <c r="Y199" s="74"/>
+      <c r="Z199" s="74"/>
+      <c r="AA199" s="74"/>
+      <c r="AB199" s="74"/>
+      <c r="AC199" s="74"/>
+      <c r="AD199" s="74"/>
+      <c r="AE199" s="74"/>
+      <c r="AF199" s="74"/>
+      <c r="AG199" s="75"/>
+      <c r="AH199" s="74"/>
+      <c r="AI199" s="74"/>
+    </row>
+    <row r="200" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="73"/>
+      <c r="B200" s="76"/>
+      <c r="C200" s="74"/>
+      <c r="D200" s="74"/>
+      <c r="E200" s="74"/>
+      <c r="F200" s="74"/>
+      <c r="G200" s="74"/>
+      <c r="H200" s="74"/>
+      <c r="I200" s="74"/>
+      <c r="J200" s="74"/>
+      <c r="K200" s="74"/>
+      <c r="L200" s="74"/>
+      <c r="M200" s="74"/>
+      <c r="N200" s="74"/>
+      <c r="O200" s="74"/>
+      <c r="P200" s="74"/>
+      <c r="Q200" s="74"/>
+      <c r="R200" s="74"/>
+      <c r="S200" s="74"/>
+      <c r="T200" s="75"/>
+      <c r="U200" s="74"/>
+      <c r="V200" s="74"/>
+      <c r="W200" s="74"/>
+      <c r="X200" s="74"/>
+      <c r="Y200" s="74"/>
+      <c r="Z200" s="74"/>
+      <c r="AA200" s="74"/>
+      <c r="AB200" s="74"/>
+      <c r="AC200" s="74"/>
+      <c r="AD200" s="74"/>
+      <c r="AE200" s="74"/>
+      <c r="AF200" s="74"/>
+      <c r="AG200" s="75"/>
+      <c r="AH200" s="74"/>
+      <c r="AI200" s="74"/>
+    </row>
+    <row r="201" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="73"/>
+      <c r="B201" s="76"/>
+      <c r="C201" s="74"/>
+      <c r="D201" s="74"/>
+      <c r="E201" s="74"/>
+      <c r="F201" s="74"/>
+      <c r="G201" s="74"/>
+      <c r="H201" s="74"/>
+      <c r="I201" s="74"/>
+      <c r="J201" s="74"/>
+      <c r="K201" s="74"/>
+      <c r="L201" s="74"/>
+      <c r="M201" s="74"/>
+      <c r="N201" s="74"/>
+      <c r="O201" s="74"/>
+      <c r="P201" s="74"/>
+      <c r="Q201" s="74"/>
+      <c r="R201" s="74"/>
+      <c r="S201" s="74"/>
+      <c r="T201" s="75"/>
+      <c r="U201" s="74"/>
+      <c r="V201" s="74"/>
+      <c r="W201" s="74"/>
+      <c r="X201" s="74"/>
+      <c r="Y201" s="74"/>
+      <c r="Z201" s="74"/>
+      <c r="AA201" s="74"/>
+      <c r="AB201" s="74"/>
+      <c r="AC201" s="74"/>
+      <c r="AD201" s="74"/>
+      <c r="AE201" s="74"/>
+      <c r="AF201" s="74"/>
+      <c r="AG201" s="75"/>
+      <c r="AH201" s="74"/>
+      <c r="AI201" s="74"/>
+    </row>
+    <row r="202" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="77"/>
+      <c r="B202" s="77"/>
+      <c r="C202" s="75"/>
+      <c r="D202" s="75"/>
+      <c r="E202" s="75"/>
+      <c r="F202" s="75"/>
+      <c r="G202" s="75"/>
+      <c r="H202" s="75"/>
+      <c r="I202" s="75"/>
+      <c r="J202" s="75"/>
+      <c r="K202" s="75"/>
+      <c r="L202" s="75"/>
+      <c r="M202" s="75"/>
+      <c r="N202" s="75"/>
+      <c r="O202" s="75"/>
+      <c r="P202" s="75"/>
+      <c r="Q202" s="75"/>
+      <c r="R202" s="75"/>
+      <c r="S202" s="75"/>
+      <c r="T202" s="75"/>
+      <c r="U202" s="75"/>
+      <c r="V202" s="75"/>
+      <c r="W202" s="75"/>
+      <c r="X202" s="75"/>
+      <c r="Y202" s="75"/>
+      <c r="Z202" s="75"/>
+      <c r="AA202" s="75"/>
+      <c r="AB202" s="75"/>
+      <c r="AC202" s="75"/>
+      <c r="AD202" s="75"/>
+      <c r="AE202" s="75"/>
+      <c r="AF202" s="75"/>
+      <c r="AG202" s="75"/>
+      <c r="AH202" s="75"/>
+      <c r="AI202" s="75"/>
+    </row>
+    <row r="203" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="77"/>
+      <c r="B203" s="77"/>
+      <c r="C203" s="75"/>
+      <c r="D203" s="75"/>
+      <c r="E203" s="75"/>
+      <c r="F203" s="75"/>
+      <c r="G203" s="75"/>
+      <c r="H203" s="75"/>
+      <c r="I203" s="75"/>
+      <c r="J203" s="75"/>
+      <c r="K203" s="75"/>
+      <c r="L203" s="75"/>
+      <c r="M203" s="75"/>
+      <c r="N203" s="75"/>
+      <c r="O203" s="75"/>
+      <c r="P203" s="75"/>
+      <c r="Q203" s="75"/>
+      <c r="R203" s="75"/>
+      <c r="S203" s="75"/>
+      <c r="T203" s="75"/>
+      <c r="U203" s="75"/>
+      <c r="V203" s="75"/>
+      <c r="W203" s="75"/>
+      <c r="X203" s="75"/>
+      <c r="Y203" s="75"/>
+      <c r="Z203" s="75"/>
+      <c r="AA203" s="75"/>
+      <c r="AB203" s="75"/>
+      <c r="AC203" s="75"/>
+      <c r="AD203" s="75"/>
+      <c r="AE203" s="75"/>
+      <c r="AF203" s="75"/>
+      <c r="AG203" s="75"/>
+      <c r="AH203" s="75"/>
+      <c r="AI203" s="75"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 E112:E135 I96:I112 I143:I189 D22:E94 I116:I135 D136:E141">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 E132:E155 I157:I203 I131:I132 I136:I155 I111:I125 D126:E130 D22:E109">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J21">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A143:A168 A112:A135">
+    <dataValidation type="list" allowBlank="1" sqref="A157:A182 A132:A155">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9556,7 +10104,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9751,40 +10299,40 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>294</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>99</v>
@@ -9795,68 +10343,68 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="C17" s="67" t="s">
         <v>320</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B18" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>322</v>
-      </c>
-      <c r="C18" s="67" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B19" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" s="67" t="s">
         <v>324</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B20" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="67" t="s">
         <v>326</v>
-      </c>
-      <c r="C20" s="67" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="B22" s="52" t="s">
         <v>436</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="C22" s="52" t="s">
         <v>437</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>438</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
@@ -9883,13 +10431,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B23" s="52" t="s">
+        <v>438</v>
+      </c>
+      <c r="C23" s="52" t="s">
         <v>439</v>
-      </c>
-      <c r="C23" s="52" t="s">
-        <v>440</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -9916,7 +10464,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>53</v>
@@ -10377,14 +10925,14 @@
         <v>166</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.615710300925</v>
+        <v>44136.689991203704</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -1455,9 +1455,6 @@
     <t>case_comorbidities</t>
   </si>
   <si>
-    <t>${yes_no_un} = 'yes'</t>
-  </si>
-  <si>
     <t>Clinical Status</t>
   </si>
   <si>
@@ -1489,6 +1486,9 @@
   </si>
   <si>
     <t>${caregiver_available} = 'yes'</t>
+  </si>
+  <si>
+    <t>${case_comorbidities} = 'yes'</t>
   </si>
 </sst>
 </file>
@@ -2184,10 +2184,10 @@
   <dimension ref="A1:AJ203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomRight" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3586,7 +3586,7 @@
         <v>195</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>35</v>
@@ -3625,10 +3625,10 @@
         <v>235</v>
       </c>
       <c r="B38" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="C38" s="40" t="s">
         <v>482</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>483</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>56</v>
@@ -3662,7 +3662,7 @@
         <v>211</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C39" s="51"/>
       <c r="D39" s="40"/>
@@ -3727,12 +3727,12 @@
         <v>462</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G41" s="43" t="s">
         <v>38</v>
@@ -6202,12 +6202,12 @@
         <v>263</v>
       </c>
       <c r="C111" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D111" s="40"/>
       <c r="E111" s="40"/>
       <c r="F111" s="40" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="G111" s="40" t="s">
         <v>38</v>
@@ -6904,7 +6904,7 @@
         <v>195</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C127" s="42" t="s">
         <v>35</v>
@@ -6943,10 +6943,10 @@
         <v>235</v>
       </c>
       <c r="B128" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="C128" s="40" t="s">
         <v>477</v>
-      </c>
-      <c r="C128" s="40" t="s">
-        <v>478</v>
       </c>
       <c r="D128" s="40" t="s">
         <v>56</v>
@@ -6980,10 +6980,10 @@
         <v>192</v>
       </c>
       <c r="B129" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="C129" s="40" t="s">
         <v>479</v>
-      </c>
-      <c r="C129" s="40" t="s">
-        <v>480</v>
       </c>
       <c r="D129" s="40"/>
       <c r="E129" s="40"/>
@@ -7015,7 +7015,7 @@
         <v>211</v>
       </c>
       <c r="B130" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C130" s="51"/>
       <c r="D130" s="40"/>
@@ -10929,7 +10929,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.689991203704</v>
+        <v>44136.702106365738</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>442</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="496">
   <si>
     <t>list_name</t>
   </si>
@@ -632,37 +632,10 @@
     <t>Date sample collected</t>
   </si>
   <si>
-    <t>What type of  sample was collected?</t>
-  </si>
-  <si>
     <t>sample_type</t>
   </si>
   <si>
-    <t>rdt_test</t>
-  </si>
-  <si>
     <t>pcr</t>
-  </si>
-  <si>
-    <t>PCR Test</t>
-  </si>
-  <si>
-    <t>antigen</t>
-  </si>
-  <si>
-    <t>RDT Antigen Test</t>
-  </si>
-  <si>
-    <t>antibody</t>
-  </si>
-  <si>
-    <t>RDT Antibody Test</t>
-  </si>
-  <si>
-    <t>Not performed</t>
-  </si>
-  <si>
-    <t>select_one rdt_test</t>
   </si>
   <si>
     <t>end_group</t>
@@ -1489,6 +1462,63 @@
   </si>
   <si>
     <t>${case_comorbidities} = 'yes'</t>
+  </si>
+  <si>
+    <t>What type of respiratory  sample was collected?</t>
+  </si>
+  <si>
+    <t>select_one respitory_sample</t>
+  </si>
+  <si>
+    <t>respitory_sample</t>
+  </si>
+  <si>
+    <t>nasal_swab</t>
+  </si>
+  <si>
+    <t>Nasal swab</t>
+  </si>
+  <si>
+    <t>throat_swab</t>
+  </si>
+  <si>
+    <t>Throat swab</t>
+  </si>
+  <si>
+    <t>naso</t>
+  </si>
+  <si>
+    <t>Nasopharyngeal swab</t>
+  </si>
+  <si>
+    <t>Date respiratory sample collected</t>
+  </si>
+  <si>
+    <t>select_one type_test</t>
+  </si>
+  <si>
+    <t>test_type</t>
+  </si>
+  <si>
+    <t>Type of test</t>
+  </si>
+  <si>
+    <t>type_test</t>
+  </si>
+  <si>
+    <t>whole_geno</t>
+  </si>
+  <si>
+    <t>partial_geno</t>
+  </si>
+  <si>
+    <t>PCR</t>
+  </si>
+  <si>
+    <t>Whole genome sequencing</t>
+  </si>
+  <si>
+    <t>Partial genome sequencing</t>
   </si>
 </sst>
 </file>
@@ -2181,13 +2211,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ203"/>
+  <dimension ref="A1:AJ204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G111" sqref="G111"/>
+      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2433,7 +2463,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62"/>
@@ -2522,10 +2552,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D8" s="62"/>
       <c r="E8" s="62"/>
@@ -2602,10 +2632,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D10" s="62"/>
       <c r="E10" s="62"/>
@@ -2648,10 +2678,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -2941,7 +2971,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="64" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>35</v>
@@ -2954,7 +2984,7 @@
       <c r="I19" s="65"/>
       <c r="J19" s="65"/>
       <c r="K19" s="65" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="L19" s="65"/>
       <c r="M19" s="65"/>
@@ -2987,7 +3017,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C20" s="65" t="s">
         <v>35</v>
@@ -3000,7 +3030,7 @@
       <c r="I20" s="65"/>
       <c r="J20" s="65"/>
       <c r="K20" s="65" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L20" s="65"/>
       <c r="M20" s="65"/>
@@ -3032,7 +3062,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="64" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C21" s="65" t="s">
         <v>35</v>
@@ -3045,7 +3075,7 @@
       <c r="I21" s="65"/>
       <c r="J21" s="65"/>
       <c r="K21" s="38" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
@@ -3106,7 +3136,7 @@
         <v>195</v>
       </c>
       <c r="B23" s="42" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>35</v>
@@ -3140,13 +3170,13 @@
     </row>
     <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="50" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B24" s="50" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D24" s="40" t="s">
         <v>56</v>
@@ -3177,10 +3207,10 @@
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C25" s="51"/>
       <c r="D25" s="40"/>
@@ -3242,7 +3272,7 @@
         <v>195</v>
       </c>
       <c r="B27" s="42" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>35</v>
@@ -3250,7 +3280,7 @@
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
       <c r="F27" s="43" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>38</v>
@@ -3278,13 +3308,13 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="50" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D28" s="40" t="s">
         <v>56</v>
@@ -3315,10 +3345,10 @@
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B29" s="42" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="40"/>
@@ -3380,15 +3410,15 @@
         <v>195</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
       <c r="F31" s="43" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>38</v>
@@ -3416,13 +3446,13 @@
     </row>
     <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="50" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B32" s="50" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D32" s="40"/>
       <c r="E32" s="40"/>
@@ -3451,13 +3481,13 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="50" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B33" s="50" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="D33" s="40"/>
       <c r="E33" s="40"/>
@@ -3486,13 +3516,13 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
@@ -3521,10 +3551,10 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="40"/>
@@ -3586,7 +3616,7 @@
         <v>195</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>35</v>
@@ -3594,7 +3624,7 @@
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>38</v>
@@ -3622,13 +3652,13 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="50" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>56</v>
@@ -3659,10 +3689,10 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B39" s="42" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C39" s="51"/>
       <c r="D39" s="40"/>
@@ -3724,15 +3754,15 @@
         <v>195</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="43" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G41" s="43" t="s">
         <v>38</v>
@@ -3760,13 +3790,13 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B42" s="50" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="D42" s="40"/>
       <c r="E42" s="40"/>
@@ -3795,13 +3825,13 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="D43" s="40"/>
       <c r="E43" s="40"/>
@@ -3830,13 +3860,13 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
@@ -3865,13 +3895,13 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D45" s="40"/>
       <c r="E45" s="40"/>
@@ -3900,10 +3930,10 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C46" s="51"/>
       <c r="D46" s="40"/>
@@ -3973,7 +4003,7 @@
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
       <c r="F48" s="43" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G48" s="43" t="s">
         <v>38</v>
@@ -4004,10 +4034,10 @@
         <v>168</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D49" s="40" t="s">
         <v>56</v>
@@ -4041,17 +4071,17 @@
         <v>168</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D50" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E50" s="40"/>
       <c r="F50" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
@@ -4090,7 +4120,7 @@
       </c>
       <c r="E51" s="40"/>
       <c r="F51" s="40" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
@@ -4129,7 +4159,7 @@
       </c>
       <c r="E52" s="40"/>
       <c r="F52" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
@@ -4155,18 +4185,18 @@
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="C53" s="40" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
       <c r="F53" s="40" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -4205,7 +4235,7 @@
       </c>
       <c r="E54" s="40"/>
       <c r="F54" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
@@ -4244,7 +4274,7 @@
       </c>
       <c r="E55" s="40"/>
       <c r="F55" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
@@ -4283,7 +4313,7 @@
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
@@ -4322,7 +4352,7 @@
       </c>
       <c r="E57" s="40"/>
       <c r="F57" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
@@ -4361,7 +4391,7 @@
       </c>
       <c r="E58" s="40"/>
       <c r="F58" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
@@ -4400,7 +4430,7 @@
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
@@ -4439,7 +4469,7 @@
       </c>
       <c r="E60" s="40"/>
       <c r="F60" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
@@ -4478,7 +4508,7 @@
       </c>
       <c r="E61" s="40"/>
       <c r="F61" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
@@ -4517,7 +4547,7 @@
       </c>
       <c r="E62" s="40"/>
       <c r="F62" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
@@ -4556,7 +4586,7 @@
       </c>
       <c r="E63" s="40"/>
       <c r="F63" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
@@ -4595,7 +4625,7 @@
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
@@ -4694,7 +4724,7 @@
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
       <c r="F67" s="43" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="G67" s="43" t="s">
         <v>38</v>
@@ -4725,10 +4755,10 @@
         <v>168</v>
       </c>
       <c r="B68" s="50" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C68" s="40" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D68" s="40"/>
       <c r="E68" s="40"/>
@@ -4763,12 +4793,12 @@
         <v>198</v>
       </c>
       <c r="C69" s="40" t="s">
-        <v>199</v>
+        <v>486</v>
       </c>
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
       <c r="F69" s="40" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G69" s="40"/>
       <c r="H69" s="40"/>
@@ -4794,18 +4824,18 @@
     </row>
     <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
-        <v>210</v>
+        <v>478</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C70" s="40" t="s">
-        <v>200</v>
+        <v>477</v>
       </c>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
       <c r="F70" s="40" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G70" s="40"/>
       <c r="H70" s="40"/>
@@ -4830,16 +4860,20 @@
       <c r="AA70" s="41"/>
     </row>
     <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B71" s="42" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="51"/>
+      <c r="A71" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="B71" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="C71" s="40" t="s">
+        <v>489</v>
+      </c>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
-      <c r="F71" s="40"/>
+      <c r="F71" s="40" t="s">
+        <v>439</v>
+      </c>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
       <c r="I71" s="40"/>
@@ -4863,9 +4897,13 @@
       <c r="AA71" s="41"/>
     </row>
     <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
+      <c r="A72" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>196</v>
+      </c>
+      <c r="C72" s="51"/>
       <c r="D72" s="40"/>
       <c r="E72" s="40"/>
       <c r="F72" s="40"/>
@@ -4892,23 +4930,13 @@
       <c r="AA72" s="41"/>
     </row>
     <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B73" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>213</v>
-      </c>
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="40"/>
       <c r="E73" s="40"/>
-      <c r="F73" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="G73" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="F73" s="40"/>
+      <c r="G73" s="40"/>
       <c r="H73" s="40"/>
       <c r="I73" s="40"/>
       <c r="J73" s="40"/>
@@ -4931,19 +4959,23 @@
       <c r="AA73" s="41"/>
     </row>
     <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" s="50" t="s">
-        <v>218</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>214</v>
+      <c r="A74" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>204</v>
       </c>
       <c r="D74" s="40"/>
       <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="40"/>
+      <c r="F74" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G74" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H74" s="40"/>
       <c r="I74" s="40"/>
       <c r="J74" s="40"/>
@@ -4967,19 +4999,17 @@
     </row>
     <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
-        <v>449</v>
+        <v>168</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D75" s="40"/>
       <c r="E75" s="40"/>
-      <c r="F75" s="56" t="s">
-        <v>310</v>
-      </c>
+      <c r="F75" s="40"/>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
       <c r="I75" s="40"/>
@@ -5004,18 +5034,18 @@
     </row>
     <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="50" t="s">
-        <v>192</v>
+        <v>440</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D76" s="40"/>
       <c r="E76" s="40"/>
       <c r="F76" s="56" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G76" s="40"/>
       <c r="H76" s="40"/>
@@ -5040,16 +5070,20 @@
       <c r="AA76" s="41"/>
     </row>
     <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B77" s="42" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="42"/>
+      <c r="A77" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>199</v>
+      </c>
       <c r="D77" s="40"/>
       <c r="E77" s="40"/>
-      <c r="F77" s="40"/>
+      <c r="F77" s="56" t="s">
+        <v>301</v>
+      </c>
       <c r="G77" s="40"/>
       <c r="H77" s="40"/>
       <c r="I77" s="40"/>
@@ -5072,10 +5106,14 @@
       <c r="Z77" s="41"/>
       <c r="AA77" s="41"/>
     </row>
-    <row r="78" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="B78" s="54"/>
-      <c r="C78" s="54"/>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" s="42"/>
       <c r="D78" s="40"/>
       <c r="E78" s="40"/>
       <c r="F78" s="40"/>
@@ -5101,24 +5139,14 @@
       <c r="Z78" s="41"/>
       <c r="AA78" s="41"/>
     </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B79" s="42" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>220</v>
-      </c>
+    <row r="79" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="40"/>
       <c r="E79" s="40"/>
-      <c r="F79" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="G79" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="F79" s="40"/>
+      <c r="G79" s="40"/>
       <c r="H79" s="40"/>
       <c r="I79" s="40"/>
       <c r="J79" s="40"/>
@@ -5141,19 +5169,23 @@
       <c r="AA79" s="41"/>
     </row>
     <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="50" t="s">
-        <v>168</v>
-      </c>
-      <c r="B80" s="50" t="s">
-        <v>225</v>
-      </c>
-      <c r="C80" s="40" t="s">
-        <v>221</v>
+      <c r="A80" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B80" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>211</v>
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
+      <c r="F80" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G80" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H80" s="40"/>
       <c r="I80" s="40"/>
       <c r="J80" s="40"/>
@@ -5180,14 +5212,14 @@
         <v>168</v>
       </c>
       <c r="B81" s="50" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D81" s="40"/>
       <c r="E81" s="40"/>
-      <c r="F81" s="56"/>
+      <c r="F81" s="40"/>
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
       <c r="I81" s="40"/>
@@ -5215,10 +5247,10 @@
         <v>168</v>
       </c>
       <c r="B82" s="50" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D82" s="40"/>
       <c r="E82" s="40"/>
@@ -5250,10 +5282,10 @@
         <v>168</v>
       </c>
       <c r="B83" s="50" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D83" s="40"/>
       <c r="E83" s="40"/>
@@ -5281,16 +5313,18 @@
       <c r="AA83" s="41"/>
     </row>
     <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B84" s="42" t="s">
+      <c r="A84" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="C84" s="42"/>
+      <c r="C84" s="40" t="s">
+        <v>215</v>
+      </c>
       <c r="D84" s="40"/>
       <c r="E84" s="40"/>
-      <c r="F84" s="40"/>
+      <c r="F84" s="56"/>
       <c r="G84" s="40"/>
       <c r="H84" s="40"/>
       <c r="I84" s="40"/>
@@ -5313,10 +5347,14 @@
       <c r="Z84" s="41"/>
       <c r="AA84" s="41"/>
     </row>
-    <row r="85" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="54"/>
-      <c r="B85" s="54"/>
-      <c r="C85" s="54"/>
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C85" s="42"/>
       <c r="D85" s="40"/>
       <c r="E85" s="40"/>
       <c r="F85" s="40"/>
@@ -5342,24 +5380,14 @@
       <c r="Z85" s="41"/>
       <c r="AA85" s="41"/>
     </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="B86" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="C86" s="42" t="s">
-        <v>230</v>
-      </c>
+    <row r="86" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="54"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="40"/>
       <c r="E86" s="40"/>
-      <c r="F86" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="G86" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="F86" s="40"/>
+      <c r="G86" s="40"/>
       <c r="H86" s="40"/>
       <c r="I86" s="40"/>
       <c r="J86" s="40"/>
@@ -5382,19 +5410,23 @@
       <c r="AA86" s="41"/>
     </row>
     <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="57" t="s">
+      <c r="A87" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="B87" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="40" t="s">
-        <v>35</v>
+      <c r="B87" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>221</v>
       </c>
       <c r="D87" s="40"/>
       <c r="E87" s="40"/>
-      <c r="F87" s="40"/>
-      <c r="G87" s="40"/>
+      <c r="F87" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G87" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H87" s="40"/>
       <c r="I87" s="40"/>
       <c r="J87" s="40"/>
@@ -5417,18 +5449,18 @@
       <c r="AA87" s="41"/>
     </row>
     <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="C88" s="51" t="s">
-        <v>236</v>
+      <c r="A88" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B88" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
-      <c r="F88" s="56"/>
+      <c r="F88" s="40"/>
       <c r="G88" s="40"/>
       <c r="H88" s="40"/>
       <c r="I88" s="40"/>
@@ -5453,19 +5485,17 @@
     </row>
     <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="50" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="B89" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>237</v>
+        <v>223</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>227</v>
       </c>
       <c r="D89" s="40"/>
       <c r="E89" s="40"/>
-      <c r="F89" s="56" t="s">
-        <v>311</v>
-      </c>
+      <c r="F89" s="56"/>
       <c r="G89" s="40"/>
       <c r="H89" s="40"/>
       <c r="I89" s="40"/>
@@ -5493,15 +5523,15 @@
         <v>192</v>
       </c>
       <c r="B90" s="50" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D90" s="40"/>
       <c r="E90" s="40"/>
       <c r="F90" s="56" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G90" s="40"/>
       <c r="H90" s="40"/>
@@ -5527,18 +5557,18 @@
     </row>
     <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="50" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="B91" s="50" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D91" s="40"/>
       <c r="E91" s="40"/>
       <c r="F91" s="56" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G91" s="40"/>
       <c r="H91" s="40"/>
@@ -5564,18 +5594,18 @@
     </row>
     <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="50" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B92" s="50" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D92" s="40"/>
       <c r="E92" s="40"/>
       <c r="F92" s="56" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G92" s="40"/>
       <c r="H92" s="40"/>
@@ -5599,87 +5629,89 @@
       <c r="Z92" s="41"/>
       <c r="AA92" s="41"/>
     </row>
-    <row r="93" spans="1:27" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="B93" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="59"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="58"/>
-      <c r="O93" s="58"/>
-      <c r="P93" s="58"/>
-      <c r="Q93" s="58"/>
-      <c r="R93" s="58"/>
-      <c r="S93" s="60"/>
-      <c r="T93" s="60"/>
-      <c r="U93" s="60"/>
-      <c r="V93" s="60"/>
-      <c r="W93" s="60"/>
-      <c r="X93" s="60"/>
-      <c r="Y93" s="60"/>
-      <c r="Z93" s="60"/>
-      <c r="AA93" s="60"/>
-    </row>
-    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B93" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="G93" s="40"/>
+      <c r="H93" s="40"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="40"/>
+      <c r="Q93" s="40"/>
+      <c r="R93" s="40"/>
+      <c r="S93" s="41"/>
+      <c r="T93" s="41"/>
+      <c r="U93" s="41"/>
+      <c r="V93" s="41"/>
+      <c r="W93" s="41"/>
+      <c r="X93" s="41"/>
+      <c r="Y93" s="41"/>
+      <c r="Z93" s="41"/>
+      <c r="AA93" s="41"/>
+    </row>
+    <row r="94" spans="1:27" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="58"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="58"/>
+      <c r="K94" s="58"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
+      <c r="N94" s="58"/>
+      <c r="O94" s="58"/>
+      <c r="P94" s="58"/>
+      <c r="Q94" s="58"/>
+      <c r="R94" s="58"/>
+      <c r="S94" s="60"/>
+      <c r="T94" s="60"/>
+      <c r="U94" s="60"/>
+      <c r="V94" s="60"/>
+      <c r="W94" s="60"/>
+      <c r="X94" s="60"/>
+      <c r="Y94" s="60"/>
+      <c r="Z94" s="60"/>
+      <c r="AA94" s="60"/>
+    </row>
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="B94" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="C94" s="40" t="s">
+      <c r="B95" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="40" t="s">
         <v>35</v>
-      </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-      <c r="H94" s="40"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
-      <c r="N94" s="40"/>
-      <c r="O94" s="40"/>
-      <c r="P94" s="40"/>
-      <c r="Q94" s="40"/>
-      <c r="R94" s="40"/>
-      <c r="S94" s="41"/>
-      <c r="T94" s="41"/>
-      <c r="U94" s="41"/>
-      <c r="V94" s="41"/>
-      <c r="W94" s="41"/>
-      <c r="X94" s="41"/>
-      <c r="Y94" s="41"/>
-      <c r="Z94" s="41"/>
-      <c r="AA94" s="41"/>
-    </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B95" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="C95" s="51" t="s">
-        <v>251</v>
       </c>
       <c r="D95" s="40"/>
       <c r="E95" s="40"/>
-      <c r="F95" s="56"/>
+      <c r="F95" s="40"/>
       <c r="G95" s="40"/>
       <c r="H95" s="40"/>
       <c r="I95" s="40"/>
@@ -5704,19 +5736,17 @@
     </row>
     <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="50" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="B96" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>237</v>
+        <v>248</v>
+      </c>
+      <c r="C96" s="51" t="s">
+        <v>242</v>
       </c>
       <c r="D96" s="40"/>
       <c r="E96" s="40"/>
-      <c r="F96" s="56" t="s">
-        <v>312</v>
-      </c>
+      <c r="F96" s="56"/>
       <c r="G96" s="40"/>
       <c r="H96" s="40"/>
       <c r="I96" s="40"/>
@@ -5744,15 +5774,15 @@
         <v>192</v>
       </c>
       <c r="B97" s="50" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C97" s="40" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="D97" s="40"/>
       <c r="E97" s="40"/>
       <c r="F97" s="56" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
@@ -5778,18 +5808,18 @@
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="50" t="s">
-        <v>243</v>
+        <v>192</v>
       </c>
       <c r="B98" s="50" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C98" s="40" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D98" s="40"/>
       <c r="E98" s="40"/>
       <c r="F98" s="56" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G98" s="40"/>
       <c r="H98" s="40"/>
@@ -5815,18 +5845,18 @@
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="50" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B99" s="50" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C99" s="40" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D99" s="40"/>
       <c r="E99" s="40"/>
       <c r="F99" s="56" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G99" s="40"/>
       <c r="H99" s="40"/>
@@ -5850,83 +5880,85 @@
       <c r="Z99" s="41"/>
       <c r="AA99" s="41"/>
     </row>
-    <row r="100" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="B100" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="58"/>
-      <c r="O100" s="58"/>
-      <c r="P100" s="58"/>
-      <c r="Q100" s="58"/>
-      <c r="R100" s="58"/>
-      <c r="S100" s="60"/>
-      <c r="T100" s="60"/>
-      <c r="U100" s="60"/>
-      <c r="V100" s="60"/>
-      <c r="W100" s="60"/>
-      <c r="X100" s="60"/>
-      <c r="Y100" s="60"/>
-      <c r="Z100" s="60"/>
-      <c r="AA100" s="60"/>
-    </row>
-    <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" s="40"/>
+      <c r="E100" s="40"/>
+      <c r="F100" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="G100" s="40"/>
+      <c r="H100" s="40"/>
+      <c r="I100" s="40"/>
+      <c r="J100" s="40"/>
+      <c r="K100" s="40"/>
+      <c r="L100" s="40"/>
+      <c r="M100" s="40"/>
+      <c r="N100" s="40"/>
+      <c r="O100" s="40"/>
+      <c r="P100" s="40"/>
+      <c r="Q100" s="40"/>
+      <c r="R100" s="40"/>
+      <c r="S100" s="41"/>
+      <c r="T100" s="41"/>
+      <c r="U100" s="41"/>
+      <c r="V100" s="41"/>
+      <c r="W100" s="41"/>
+      <c r="X100" s="41"/>
+      <c r="Y100" s="41"/>
+      <c r="Z100" s="41"/>
+      <c r="AA100" s="41"/>
+    </row>
+    <row r="101" spans="1:35" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="B101" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C101" s="58"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="58"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="58"/>
+      <c r="J101" s="58"/>
+      <c r="K101" s="58"/>
+      <c r="L101" s="58"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="58"/>
+      <c r="O101" s="58"/>
+      <c r="P101" s="58"/>
+      <c r="Q101" s="58"/>
+      <c r="R101" s="58"/>
+      <c r="S101" s="60"/>
+      <c r="T101" s="60"/>
+      <c r="U101" s="60"/>
+      <c r="V101" s="60"/>
+      <c r="W101" s="60"/>
+      <c r="X101" s="60"/>
+      <c r="Y101" s="60"/>
+      <c r="Z101" s="60"/>
+      <c r="AA101" s="60"/>
+    </row>
+    <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="B101" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C101" s="40" t="s">
+      <c r="B102" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" s="40" t="s">
         <v>35</v>
-      </c>
-      <c r="D101" s="40"/>
-      <c r="E101" s="40"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="40"/>
-      <c r="H101" s="40"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="40"/>
-      <c r="K101" s="40"/>
-      <c r="L101" s="40"/>
-      <c r="M101" s="40"/>
-      <c r="N101" s="40"/>
-      <c r="O101" s="40"/>
-      <c r="P101" s="40"/>
-      <c r="Q101" s="40"/>
-      <c r="R101" s="40"/>
-      <c r="S101" s="41"/>
-      <c r="T101" s="41"/>
-      <c r="U101" s="41"/>
-      <c r="V101" s="41"/>
-      <c r="W101" s="41"/>
-      <c r="X101" s="41"/>
-      <c r="Y101" s="41"/>
-      <c r="Z101" s="41"/>
-      <c r="AA101" s="41"/>
-    </row>
-    <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B102" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="C102" s="51" t="s">
-        <v>253</v>
       </c>
       <c r="D102" s="40"/>
       <c r="E102" s="40"/>
@@ -5955,19 +5987,17 @@
     </row>
     <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="50" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="B103" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="C103" s="40" t="s">
-        <v>256</v>
+        <v>245</v>
+      </c>
+      <c r="C103" s="51" t="s">
+        <v>244</v>
       </c>
       <c r="D103" s="40"/>
       <c r="E103" s="40"/>
-      <c r="F103" s="56" t="s">
-        <v>313</v>
-      </c>
+      <c r="F103" s="56"/>
       <c r="G103" s="40"/>
       <c r="H103" s="40"/>
       <c r="I103" s="40"/>
@@ -5991,16 +6021,20 @@
       <c r="AA103" s="41"/>
     </row>
     <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="B104" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="C104" s="40"/>
+      <c r="A104" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="C104" s="40" t="s">
+        <v>247</v>
+      </c>
       <c r="D104" s="40"/>
       <c r="E104" s="40"/>
-      <c r="F104" s="56"/>
+      <c r="F104" s="56" t="s">
+        <v>304</v>
+      </c>
       <c r="G104" s="40"/>
       <c r="H104" s="40"/>
       <c r="I104" s="40"/>
@@ -6024,16 +6058,16 @@
       <c r="AA104" s="41"/>
     </row>
     <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B105" s="42" t="s">
-        <v>229</v>
-      </c>
-      <c r="C105" s="42"/>
+      <c r="A105" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="B105" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="C105" s="40"/>
       <c r="D105" s="40"/>
       <c r="E105" s="40"/>
-      <c r="F105" s="40"/>
+      <c r="F105" s="56"/>
       <c r="G105" s="40"/>
       <c r="H105" s="40"/>
       <c r="I105" s="40"/>
@@ -6056,120 +6090,120 @@
       <c r="Z105" s="41"/>
       <c r="AA105" s="41"/>
     </row>
-    <row r="106" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="54"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
-      <c r="L106" s="54"/>
-      <c r="M106" s="54"/>
-      <c r="N106" s="54"/>
-      <c r="O106" s="54"/>
-      <c r="P106" s="54"/>
-      <c r="Q106" s="54"/>
-      <c r="R106" s="54"/>
-      <c r="S106" s="85"/>
-      <c r="T106" s="85"/>
-      <c r="U106" s="85"/>
-      <c r="V106" s="85"/>
-      <c r="W106" s="85"/>
-      <c r="X106" s="85"/>
-      <c r="Y106" s="85"/>
-      <c r="Z106" s="85"/>
-      <c r="AA106" s="85"/>
-    </row>
-    <row r="107" spans="1:35" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="42" t="s">
+    <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C106" s="42"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="40"/>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40"/>
+      <c r="H106" s="40"/>
+      <c r="I106" s="40"/>
+      <c r="J106" s="40"/>
+      <c r="K106" s="40"/>
+      <c r="L106" s="40"/>
+      <c r="M106" s="40"/>
+      <c r="N106" s="40"/>
+      <c r="O106" s="40"/>
+      <c r="P106" s="40"/>
+      <c r="Q106" s="40"/>
+      <c r="R106" s="40"/>
+      <c r="S106" s="41"/>
+      <c r="T106" s="41"/>
+      <c r="U106" s="41"/>
+      <c r="V106" s="41"/>
+      <c r="W106" s="41"/>
+      <c r="X106" s="41"/>
+      <c r="Y106" s="41"/>
+      <c r="Z106" s="41"/>
+      <c r="AA106" s="41"/>
+    </row>
+    <row r="107" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="54"/>
+      <c r="B107" s="54"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="54"/>
+      <c r="H107" s="54"/>
+      <c r="I107" s="54"/>
+      <c r="J107" s="54"/>
+      <c r="K107" s="54"/>
+      <c r="L107" s="54"/>
+      <c r="M107" s="54"/>
+      <c r="N107" s="54"/>
+      <c r="O107" s="54"/>
+      <c r="P107" s="54"/>
+      <c r="Q107" s="54"/>
+      <c r="R107" s="54"/>
+      <c r="S107" s="85"/>
+      <c r="T107" s="85"/>
+      <c r="U107" s="85"/>
+      <c r="V107" s="85"/>
+      <c r="W107" s="85"/>
+      <c r="X107" s="85"/>
+      <c r="Y107" s="85"/>
+      <c r="Z107" s="85"/>
+      <c r="AA107" s="85"/>
+    </row>
+    <row r="108" spans="1:35" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="B107" s="42" t="s">
-        <v>471</v>
-      </c>
-      <c r="C107" s="42" t="s">
+      <c r="B108" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="C108" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="G107" s="43" t="s">
+      <c r="D108" s="43"/>
+      <c r="E108" s="43"/>
+      <c r="F108" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G108" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="43"/>
-      <c r="M107" s="43"/>
-      <c r="N107" s="43"/>
-      <c r="O107" s="43"/>
-      <c r="P107" s="43"/>
-      <c r="Q107" s="43"/>
-      <c r="R107" s="43"/>
-      <c r="S107" s="44"/>
-      <c r="T107" s="44"/>
-      <c r="U107" s="44"/>
-      <c r="V107" s="44"/>
-      <c r="W107" s="44"/>
-      <c r="X107" s="44"/>
-      <c r="Y107" s="44"/>
-      <c r="Z107" s="44"/>
-      <c r="AA107" s="44"/>
-    </row>
-    <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B108" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="C108" s="40" t="s">
-        <v>472</v>
-      </c>
-      <c r="D108" s="40" t="s">
+      <c r="H108" s="43"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
+      <c r="M108" s="43"/>
+      <c r="N108" s="43"/>
+      <c r="O108" s="43"/>
+      <c r="P108" s="43"/>
+      <c r="Q108" s="43"/>
+      <c r="R108" s="43"/>
+      <c r="S108" s="44"/>
+      <c r="T108" s="44"/>
+      <c r="U108" s="44"/>
+      <c r="V108" s="44"/>
+      <c r="W108" s="44"/>
+      <c r="X108" s="44"/>
+      <c r="Y108" s="44"/>
+      <c r="Z108" s="44"/>
+      <c r="AA108" s="44"/>
+    </row>
+    <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="C109" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="D109" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E108" s="40"/>
-      <c r="F108" s="40"/>
-      <c r="G108" s="40"/>
-      <c r="H108" s="40"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="40"/>
-      <c r="L108" s="40"/>
-      <c r="M108" s="40"/>
-      <c r="N108" s="40"/>
-      <c r="O108" s="40"/>
-      <c r="P108" s="40"/>
-      <c r="Q108" s="40"/>
-      <c r="R108" s="40"/>
-      <c r="S108" s="41"/>
-      <c r="T108" s="41"/>
-      <c r="U108" s="41"/>
-      <c r="V108" s="41"/>
-      <c r="W108" s="41"/>
-      <c r="X108" s="41"/>
-      <c r="Y108" s="41"/>
-      <c r="Z108" s="41"/>
-      <c r="AA108" s="41"/>
-    </row>
-    <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B109" s="42" t="s">
-        <v>471</v>
-      </c>
-      <c r="C109" s="51"/>
-      <c r="D109" s="40"/>
       <c r="E109" s="40"/>
       <c r="F109" s="40"/>
       <c r="G109" s="40"/>
@@ -6194,72 +6228,60 @@
       <c r="Z109" s="41"/>
       <c r="AA109" s="41"/>
     </row>
-    <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="B111" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="C111" s="40" t="s">
-        <v>474</v>
-      </c>
-      <c r="D111" s="40"/>
-      <c r="E111" s="40"/>
-      <c r="F111" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="G111" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H111" s="40"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
-      <c r="L111" s="40"/>
-      <c r="M111" s="40"/>
-      <c r="N111" s="40"/>
-      <c r="O111" s="40"/>
-      <c r="P111" s="40"/>
-      <c r="Q111" s="40"/>
-      <c r="R111" s="40"/>
-      <c r="S111" s="40"/>
-      <c r="T111" s="40"/>
-      <c r="U111" s="40"/>
-      <c r="V111" s="40"/>
-      <c r="W111" s="40"/>
-      <c r="X111" s="40"/>
-      <c r="Y111" s="40"/>
-      <c r="Z111" s="40"/>
-      <c r="AA111" s="40"/>
-      <c r="AB111" s="40"/>
-      <c r="AC111" s="40"/>
-      <c r="AD111" s="40"/>
-      <c r="AE111" s="40"/>
-      <c r="AF111" s="40"/>
-      <c r="AG111" s="40"/>
-      <c r="AH111" s="40"/>
-      <c r="AI111" s="40"/>
+    <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="C110" s="51"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="40"/>
+      <c r="I110" s="40"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="40"/>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
+      <c r="N110" s="40"/>
+      <c r="O110" s="40"/>
+      <c r="P110" s="40"/>
+      <c r="Q110" s="40"/>
+      <c r="R110" s="40"/>
+      <c r="S110" s="41"/>
+      <c r="T110" s="41"/>
+      <c r="U110" s="41"/>
+      <c r="V110" s="41"/>
+      <c r="W110" s="41"/>
+      <c r="X110" s="41"/>
+      <c r="Y110" s="41"/>
+      <c r="Z110" s="41"/>
+      <c r="AA110" s="41"/>
     </row>
     <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="50" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="B112" s="50" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C112" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="D112" s="40" t="s">
-        <v>56</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="D112" s="40"/>
       <c r="E112" s="40"/>
-      <c r="F112" s="40"/>
-      <c r="G112" s="40"/>
+      <c r="F112" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="G112" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H112" s="40"/>
       <c r="I112" s="40"/>
       <c r="J112" s="40"/>
-      <c r="K112" s="40"/>
       <c r="L112" s="40"/>
       <c r="M112" s="40"/>
       <c r="N112" s="40"/>
@@ -6290,10 +6312,10 @@
         <v>168</v>
       </c>
       <c r="B113" s="50" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C113" s="40" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D113" s="40" t="s">
         <v>56</v>
@@ -6335,10 +6357,10 @@
         <v>168</v>
       </c>
       <c r="B114" s="50" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C114" s="40" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D114" s="40" t="s">
         <v>56</v>
@@ -6380,10 +6402,10 @@
         <v>168</v>
       </c>
       <c r="B115" s="50" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C115" s="40" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D115" s="40" t="s">
         <v>56</v>
@@ -6425,10 +6447,10 @@
         <v>168</v>
       </c>
       <c r="B116" s="50" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C116" s="40" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D116" s="40" t="s">
         <v>56</v>
@@ -6470,10 +6492,10 @@
         <v>168</v>
       </c>
       <c r="B117" s="50" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C117" s="40" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D117" s="40" t="s">
         <v>56</v>
@@ -6515,18 +6537,16 @@
         <v>168</v>
       </c>
       <c r="B118" s="50" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C118" s="40" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D118" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E118" s="40"/>
-      <c r="F118" s="40" t="s">
-        <v>446</v>
-      </c>
+      <c r="F118" s="40"/>
       <c r="G118" s="40"/>
       <c r="H118" s="40"/>
       <c r="I118" s="40"/>
@@ -6559,20 +6579,20 @@
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="50" t="s">
-        <v>289</v>
+        <v>168</v>
       </c>
       <c r="B119" s="50" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="C119" s="40" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="D119" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E119" s="40"/>
       <c r="F119" s="40" t="s">
-        <v>314</v>
+        <v>437</v>
       </c>
       <c r="G119" s="40"/>
       <c r="H119" s="40"/>
@@ -6606,19 +6626,21 @@
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="50" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
       <c r="B120" s="50" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C120" s="40" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D120" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E120" s="40"/>
-      <c r="F120" s="40"/>
+      <c r="F120" s="40" t="s">
+        <v>305</v>
+      </c>
       <c r="G120" s="40"/>
       <c r="H120" s="40"/>
       <c r="I120" s="40"/>
@@ -6654,10 +6676,10 @@
         <v>168</v>
       </c>
       <c r="B121" s="50" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C121" s="40" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D121" s="40" t="s">
         <v>56</v>
@@ -6699,10 +6721,10 @@
         <v>168</v>
       </c>
       <c r="B122" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="C122" s="51" t="s">
-        <v>283</v>
+        <v>271</v>
+      </c>
+      <c r="C122" s="40" t="s">
+        <v>272</v>
       </c>
       <c r="D122" s="40" t="s">
         <v>56</v>
@@ -6744,10 +6766,10 @@
         <v>168</v>
       </c>
       <c r="B123" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="C123" s="40" t="s">
-        <v>285</v>
+        <v>273</v>
+      </c>
+      <c r="C123" s="51" t="s">
+        <v>274</v>
       </c>
       <c r="D123" s="40" t="s">
         <v>56</v>
@@ -6789,18 +6811,16 @@
         <v>168</v>
       </c>
       <c r="B124" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="C124" s="51" t="s">
-        <v>443</v>
+        <v>275</v>
+      </c>
+      <c r="C124" s="40" t="s">
+        <v>276</v>
       </c>
       <c r="D124" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E124" s="40"/>
-      <c r="F124" s="40" t="s">
-        <v>446</v>
-      </c>
+      <c r="F124" s="40"/>
       <c r="G124" s="40"/>
       <c r="H124" s="40"/>
       <c r="I124" s="40"/>
@@ -6833,13 +6853,21 @@
     </row>
     <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="B125" s="50"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="40"/>
+        <v>168</v>
+      </c>
+      <c r="B125" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="C125" s="51" t="s">
+        <v>434</v>
+      </c>
+      <c r="D125" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E125" s="40"/>
-      <c r="F125" s="40"/>
+      <c r="F125" s="40" t="s">
+        <v>437</v>
+      </c>
       <c r="G125" s="40"/>
       <c r="H125" s="40"/>
       <c r="I125" s="40"/>
@@ -6870,122 +6898,126 @@
       <c r="AH125" s="40"/>
       <c r="AI125" s="40"/>
     </row>
-    <row r="126" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="54"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="55"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
-      <c r="L126" s="54"/>
-      <c r="M126" s="54"/>
-      <c r="N126" s="54"/>
-      <c r="O126" s="54"/>
-      <c r="P126" s="54"/>
-      <c r="Q126" s="54"/>
-      <c r="R126" s="54"/>
-      <c r="S126" s="85"/>
-      <c r="T126" s="85"/>
-      <c r="U126" s="85"/>
-      <c r="V126" s="85"/>
-      <c r="W126" s="85"/>
-      <c r="X126" s="85"/>
-      <c r="Y126" s="85"/>
-      <c r="Z126" s="85"/>
-      <c r="AA126" s="85"/>
-    </row>
-    <row r="127" spans="1:35" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="42" t="s">
+    <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B126" s="50"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
+      <c r="H126" s="40"/>
+      <c r="I126" s="40"/>
+      <c r="J126" s="40"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="40"/>
+      <c r="M126" s="40"/>
+      <c r="N126" s="40"/>
+      <c r="O126" s="40"/>
+      <c r="P126" s="40"/>
+      <c r="Q126" s="40"/>
+      <c r="R126" s="40"/>
+      <c r="S126" s="40"/>
+      <c r="T126" s="40"/>
+      <c r="U126" s="40"/>
+      <c r="V126" s="40"/>
+      <c r="W126" s="40"/>
+      <c r="X126" s="40"/>
+      <c r="Y126" s="40"/>
+      <c r="Z126" s="40"/>
+      <c r="AA126" s="40"/>
+      <c r="AB126" s="40"/>
+      <c r="AC126" s="40"/>
+      <c r="AD126" s="40"/>
+      <c r="AE126" s="40"/>
+      <c r="AF126" s="40"/>
+      <c r="AG126" s="40"/>
+      <c r="AH126" s="40"/>
+      <c r="AI126" s="40"/>
+    </row>
+    <row r="127" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="54"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="54"/>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="54"/>
+      <c r="L127" s="54"/>
+      <c r="M127" s="54"/>
+      <c r="N127" s="54"/>
+      <c r="O127" s="54"/>
+      <c r="P127" s="54"/>
+      <c r="Q127" s="54"/>
+      <c r="R127" s="54"/>
+      <c r="S127" s="85"/>
+      <c r="T127" s="85"/>
+      <c r="U127" s="85"/>
+      <c r="V127" s="85"/>
+      <c r="W127" s="85"/>
+      <c r="X127" s="85"/>
+      <c r="Y127" s="85"/>
+      <c r="Z127" s="85"/>
+      <c r="AA127" s="85"/>
+    </row>
+    <row r="128" spans="1:35" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="B127" s="42" t="s">
-        <v>475</v>
-      </c>
-      <c r="C127" s="42" t="s">
+      <c r="B128" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="C128" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D127" s="43"/>
-      <c r="E127" s="43"/>
-      <c r="F127" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="G127" s="43" t="s">
+      <c r="D128" s="43"/>
+      <c r="E128" s="43"/>
+      <c r="F128" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G128" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H127" s="43"/>
-      <c r="I127" s="43"/>
-      <c r="J127" s="43"/>
-      <c r="K127" s="43"/>
-      <c r="L127" s="43"/>
-      <c r="M127" s="43"/>
-      <c r="N127" s="43"/>
-      <c r="O127" s="43"/>
-      <c r="P127" s="43"/>
-      <c r="Q127" s="43"/>
-      <c r="R127" s="43"/>
-      <c r="S127" s="44"/>
-      <c r="T127" s="44"/>
-      <c r="U127" s="44"/>
-      <c r="V127" s="44"/>
-      <c r="W127" s="44"/>
-      <c r="X127" s="44"/>
-      <c r="Y127" s="44"/>
-      <c r="Z127" s="44"/>
-      <c r="AA127" s="44"/>
-    </row>
-    <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="50" t="s">
-        <v>235</v>
-      </c>
-      <c r="B128" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="C128" s="40" t="s">
-        <v>477</v>
-      </c>
-      <c r="D128" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E128" s="40"/>
-      <c r="F128" s="40"/>
-      <c r="G128" s="40"/>
-      <c r="H128" s="40"/>
-      <c r="I128" s="40"/>
-      <c r="J128" s="40"/>
-      <c r="K128" s="40"/>
-      <c r="L128" s="40"/>
-      <c r="M128" s="40"/>
-      <c r="N128" s="40"/>
-      <c r="O128" s="40"/>
-      <c r="P128" s="40"/>
-      <c r="Q128" s="40"/>
-      <c r="R128" s="40"/>
-      <c r="S128" s="41"/>
-      <c r="T128" s="41"/>
-      <c r="U128" s="41"/>
-      <c r="V128" s="41"/>
-      <c r="W128" s="41"/>
-      <c r="X128" s="41"/>
-      <c r="Y128" s="41"/>
-      <c r="Z128" s="41"/>
-      <c r="AA128" s="41"/>
+      <c r="H128" s="43"/>
+      <c r="I128" s="43"/>
+      <c r="J128" s="43"/>
+      <c r="K128" s="43"/>
+      <c r="L128" s="43"/>
+      <c r="M128" s="43"/>
+      <c r="N128" s="43"/>
+      <c r="O128" s="43"/>
+      <c r="P128" s="43"/>
+      <c r="Q128" s="43"/>
+      <c r="R128" s="43"/>
+      <c r="S128" s="44"/>
+      <c r="T128" s="44"/>
+      <c r="U128" s="44"/>
+      <c r="V128" s="44"/>
+      <c r="W128" s="44"/>
+      <c r="X128" s="44"/>
+      <c r="Y128" s="44"/>
+      <c r="Z128" s="44"/>
+      <c r="AA128" s="44"/>
     </row>
     <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="50" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="B129" s="50" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C129" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="D129" s="40"/>
+        <v>468</v>
+      </c>
+      <c r="D129" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E129" s="40"/>
       <c r="F129" s="40"/>
       <c r="G129" s="40"/>
@@ -7011,13 +7043,15 @@
       <c r="AA129" s="41"/>
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B130" s="42" t="s">
-        <v>475</v>
-      </c>
-      <c r="C130" s="51"/>
+      <c r="A130" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="B130" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="C130" s="40" t="s">
+        <v>470</v>
+      </c>
       <c r="D130" s="40"/>
       <c r="E130" s="40"/>
       <c r="F130" s="40"/>
@@ -7043,110 +7077,96 @@
       <c r="Z130" s="41"/>
       <c r="AA130" s="41"/>
     </row>
-    <row r="131" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="54"/>
-      <c r="B131" s="54"/>
-      <c r="C131" s="54"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="54"/>
-      <c r="F131" s="54"/>
-      <c r="G131" s="54"/>
-      <c r="H131" s="54"/>
-      <c r="I131" s="54"/>
-      <c r="J131" s="54"/>
-      <c r="K131" s="54"/>
-      <c r="L131" s="54"/>
-      <c r="M131" s="54"/>
-      <c r="N131" s="54"/>
-      <c r="O131" s="54"/>
-      <c r="P131" s="54"/>
-      <c r="Q131" s="54"/>
-      <c r="R131" s="54"/>
-      <c r="S131" s="54"/>
-      <c r="T131" s="54"/>
-      <c r="U131" s="54"/>
-      <c r="V131" s="54"/>
-      <c r="W131" s="54"/>
-      <c r="X131" s="54"/>
-      <c r="Y131" s="54"/>
-      <c r="Z131" s="54"/>
-      <c r="AA131" s="54"/>
-      <c r="AB131" s="54"/>
-      <c r="AC131" s="54"/>
-      <c r="AD131" s="54"/>
-      <c r="AE131" s="54"/>
-      <c r="AF131" s="54"/>
-      <c r="AG131" s="54"/>
-      <c r="AH131" s="54"/>
-      <c r="AI131" s="54"/>
-    </row>
-    <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B132" s="78" t="s">
-        <v>396</v>
-      </c>
-      <c r="C132" s="51" t="s">
-        <v>397</v>
-      </c>
-      <c r="D132" s="40"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="56" t="s">
-        <v>387</v>
-      </c>
-      <c r="G132" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H132" s="40"/>
-      <c r="I132" s="56"/>
-      <c r="J132" s="56"/>
-      <c r="K132" s="56"/>
-      <c r="L132" s="51"/>
-      <c r="M132" s="51"/>
-      <c r="N132" s="51"/>
-      <c r="O132" s="51"/>
-      <c r="P132" s="51"/>
-      <c r="Q132" s="51"/>
-      <c r="R132" s="51"/>
-      <c r="S132" s="51"/>
-      <c r="T132" s="51"/>
-      <c r="U132" s="56"/>
-      <c r="V132" s="51"/>
-      <c r="W132" s="56"/>
-      <c r="X132" s="56"/>
-      <c r="Y132" s="56"/>
-      <c r="Z132" s="56"/>
-      <c r="AA132" s="56"/>
-      <c r="AB132" s="56"/>
-      <c r="AC132" s="56"/>
-      <c r="AD132" s="56"/>
-      <c r="AE132" s="56"/>
-      <c r="AF132" s="56"/>
-      <c r="AG132" s="56"/>
-      <c r="AH132" s="56"/>
-      <c r="AI132" s="56"/>
+    <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B131" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="C131" s="51"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="40"/>
+      <c r="F131" s="40"/>
+      <c r="G131" s="40"/>
+      <c r="H131" s="40"/>
+      <c r="I131" s="40"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="40"/>
+      <c r="L131" s="40"/>
+      <c r="M131" s="40"/>
+      <c r="N131" s="40"/>
+      <c r="O131" s="40"/>
+      <c r="P131" s="40"/>
+      <c r="Q131" s="40"/>
+      <c r="R131" s="40"/>
+      <c r="S131" s="41"/>
+      <c r="T131" s="41"/>
+      <c r="U131" s="41"/>
+      <c r="V131" s="41"/>
+      <c r="W131" s="41"/>
+      <c r="X131" s="41"/>
+      <c r="Y131" s="41"/>
+      <c r="Z131" s="41"/>
+      <c r="AA131" s="41"/>
+    </row>
+    <row r="132" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="54"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="54"/>
+      <c r="I132" s="54"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="54"/>
+      <c r="L132" s="54"/>
+      <c r="M132" s="54"/>
+      <c r="N132" s="54"/>
+      <c r="O132" s="54"/>
+      <c r="P132" s="54"/>
+      <c r="Q132" s="54"/>
+      <c r="R132" s="54"/>
+      <c r="S132" s="54"/>
+      <c r="T132" s="54"/>
+      <c r="U132" s="54"/>
+      <c r="V132" s="54"/>
+      <c r="W132" s="54"/>
+      <c r="X132" s="54"/>
+      <c r="Y132" s="54"/>
+      <c r="Z132" s="54"/>
+      <c r="AA132" s="54"/>
+      <c r="AB132" s="54"/>
+      <c r="AC132" s="54"/>
+      <c r="AD132" s="54"/>
+      <c r="AE132" s="54"/>
+      <c r="AF132" s="54"/>
+      <c r="AG132" s="54"/>
+      <c r="AH132" s="54"/>
+      <c r="AI132" s="54"/>
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="78" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="B133" s="78" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C133" s="51" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D133" s="40"/>
-      <c r="E133" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F133" s="56"/>
-      <c r="G133" s="40"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="G133" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H133" s="40"/>
-      <c r="I133" s="51" t="s">
-        <v>400</v>
-      </c>
+      <c r="I133" s="56"/>
       <c r="J133" s="56"/>
       <c r="K133" s="56"/>
       <c r="L133" s="51"/>
@@ -7176,13 +7196,13 @@
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="78" t="s">
-        <v>401</v>
+        <v>192</v>
       </c>
       <c r="B134" s="78" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="C134" s="51" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D134" s="40"/>
       <c r="E134" s="56" t="s">
@@ -7191,10 +7211,12 @@
       <c r="F134" s="56"/>
       <c r="G134" s="40"/>
       <c r="H134" s="40"/>
-      <c r="I134" s="56"/>
+      <c r="I134" s="51" t="s">
+        <v>391</v>
+      </c>
       <c r="J134" s="56"/>
       <c r="K134" s="56"/>
-      <c r="L134" s="56"/>
+      <c r="L134" s="51"/>
       <c r="M134" s="51"/>
       <c r="N134" s="51"/>
       <c r="O134" s="51"/>
@@ -7221,24 +7243,22 @@
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="78" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B135" s="78" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D135" s="40"/>
       <c r="E135" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F135" s="56"/>
       <c r="G135" s="40"/>
       <c r="H135" s="40"/>
-      <c r="I135" s="56" t="s">
-        <v>407</v>
-      </c>
+      <c r="I135" s="56"/>
       <c r="J135" s="56"/>
       <c r="K135" s="56"/>
       <c r="L135" s="56"/>
@@ -7268,20 +7288,24 @@
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="78" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="B136" s="78" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="D136" s="40"/>
-      <c r="E136" s="56"/>
+      <c r="E136" s="56" t="s">
+        <v>57</v>
+      </c>
       <c r="F136" s="56"/>
       <c r="G136" s="40"/>
       <c r="H136" s="40"/>
-      <c r="I136" s="56"/>
+      <c r="I136" s="56" t="s">
+        <v>398</v>
+      </c>
       <c r="J136" s="56"/>
       <c r="K136" s="56"/>
       <c r="L136" s="56"/>
@@ -7310,36 +7334,34 @@
       <c r="AI136" s="56"/>
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B137" s="79" t="s">
-        <v>411</v>
-      </c>
-      <c r="C137" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D137" s="56"/>
+      <c r="A137" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="B137" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="C137" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="D137" s="40"/>
       <c r="E137" s="56"/>
-      <c r="F137" s="56" t="s">
-        <v>410</v>
-      </c>
-      <c r="G137" s="56"/>
-      <c r="H137" s="56"/>
+      <c r="F137" s="56"/>
+      <c r="G137" s="40"/>
+      <c r="H137" s="40"/>
       <c r="I137" s="56"/>
-      <c r="J137" s="80"/>
+      <c r="J137" s="56"/>
       <c r="K137" s="56"/>
       <c r="L137" s="56"/>
-      <c r="M137" s="56"/>
-      <c r="N137" s="56"/>
-      <c r="O137" s="80"/>
-      <c r="P137" s="56"/>
-      <c r="Q137" s="56"/>
-      <c r="R137" s="56"/>
-      <c r="S137" s="56"/>
-      <c r="T137" s="56"/>
+      <c r="M137" s="51"/>
+      <c r="N137" s="51"/>
+      <c r="O137" s="51"/>
+      <c r="P137" s="51"/>
+      <c r="Q137" s="51"/>
+      <c r="R137" s="51"/>
+      <c r="S137" s="51"/>
+      <c r="T137" s="51"/>
       <c r="U137" s="56"/>
-      <c r="V137" s="56"/>
+      <c r="V137" s="51"/>
       <c r="W137" s="56"/>
       <c r="X137" s="56"/>
       <c r="Y137" s="56"/>
@@ -7348,83 +7370,83 @@
       <c r="AB137" s="56"/>
       <c r="AC137" s="56"/>
       <c r="AD137" s="56"/>
-      <c r="AE137" s="56" t="s">
-        <v>39</v>
-      </c>
+      <c r="AE137" s="56"/>
       <c r="AF137" s="56"/>
       <c r="AG137" s="56"/>
-      <c r="AH137" s="81" t="s">
-        <v>412</v>
-      </c>
+      <c r="AH137" s="56"/>
       <c r="AI137" s="56"/>
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="79" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B138" s="79" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C138" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D138" s="56"/>
-      <c r="E138" s="80"/>
-      <c r="F138" s="56"/>
+      <c r="E138" s="56"/>
+      <c r="F138" s="56" t="s">
+        <v>401</v>
+      </c>
       <c r="G138" s="56"/>
       <c r="H138" s="56"/>
-      <c r="I138" s="80"/>
+      <c r="I138" s="56"/>
       <c r="J138" s="80"/>
-      <c r="K138" s="80" t="s">
-        <v>414</v>
-      </c>
-      <c r="L138" s="80"/>
-      <c r="M138" s="80"/>
+      <c r="K138" s="56"/>
+      <c r="L138" s="56"/>
+      <c r="M138" s="56"/>
       <c r="N138" s="56"/>
-      <c r="O138" s="56"/>
+      <c r="O138" s="80"/>
       <c r="P138" s="56"/>
       <c r="Q138" s="56"/>
       <c r="R138" s="56"/>
       <c r="S138" s="56"/>
-      <c r="T138" s="80"/>
-      <c r="U138" s="80"/>
-      <c r="V138" s="80"/>
-      <c r="W138" s="80"/>
-      <c r="X138" s="80"/>
-      <c r="Y138" s="80"/>
-      <c r="Z138" s="80"/>
-      <c r="AA138" s="80"/>
-      <c r="AB138" s="80"/>
-      <c r="AC138" s="80"/>
-      <c r="AD138" s="80"/>
-      <c r="AE138" s="80"/>
-      <c r="AF138" s="80"/>
-      <c r="AG138" s="80"/>
-      <c r="AH138" s="80"/>
-      <c r="AI138" s="80"/>
+      <c r="T138" s="56"/>
+      <c r="U138" s="56"/>
+      <c r="V138" s="56"/>
+      <c r="W138" s="56"/>
+      <c r="X138" s="56"/>
+      <c r="Y138" s="56"/>
+      <c r="Z138" s="56"/>
+      <c r="AA138" s="56"/>
+      <c r="AB138" s="56"/>
+      <c r="AC138" s="56"/>
+      <c r="AD138" s="56"/>
+      <c r="AE138" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF138" s="56"/>
+      <c r="AG138" s="56"/>
+      <c r="AH138" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI138" s="56"/>
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B139" s="79" t="s">
-        <v>1</v>
+        <v>404</v>
       </c>
       <c r="C139" s="80" t="s">
-        <v>415</v>
+        <v>35</v>
       </c>
       <c r="D139" s="56"/>
-      <c r="E139" s="56"/>
+      <c r="E139" s="80"/>
       <c r="F139" s="56"/>
       <c r="G139" s="56"/>
       <c r="H139" s="56"/>
-      <c r="I139" s="56"/>
-      <c r="J139" s="56"/>
+      <c r="I139" s="80"/>
+      <c r="J139" s="80"/>
       <c r="K139" s="80" t="s">
-        <v>416</v>
-      </c>
-      <c r="L139" s="56"/>
-      <c r="M139" s="56"/>
+        <v>405</v>
+      </c>
+      <c r="L139" s="80"/>
+      <c r="M139" s="80"/>
       <c r="N139" s="56"/>
       <c r="O139" s="56"/>
       <c r="P139" s="56"/>
@@ -7432,31 +7454,31 @@
       <c r="R139" s="56"/>
       <c r="S139" s="56"/>
       <c r="T139" s="80"/>
-      <c r="U139" s="56"/>
-      <c r="V139" s="56"/>
-      <c r="W139" s="56"/>
-      <c r="X139" s="56"/>
-      <c r="Y139" s="56"/>
-      <c r="Z139" s="56"/>
-      <c r="AA139" s="56"/>
-      <c r="AB139" s="56"/>
-      <c r="AC139" s="56"/>
-      <c r="AD139" s="56"/>
-      <c r="AE139" s="56"/>
-      <c r="AF139" s="56"/>
-      <c r="AG139" s="56"/>
-      <c r="AH139" s="56"/>
-      <c r="AI139" s="56"/>
+      <c r="U139" s="80"/>
+      <c r="V139" s="80"/>
+      <c r="W139" s="80"/>
+      <c r="X139" s="80"/>
+      <c r="Y139" s="80"/>
+      <c r="Z139" s="80"/>
+      <c r="AA139" s="80"/>
+      <c r="AB139" s="80"/>
+      <c r="AC139" s="80"/>
+      <c r="AD139" s="80"/>
+      <c r="AE139" s="80"/>
+      <c r="AF139" s="80"/>
+      <c r="AG139" s="80"/>
+      <c r="AH139" s="80"/>
+      <c r="AI139" s="80"/>
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B140" s="79" t="s">
-        <v>417</v>
+        <v>1</v>
       </c>
       <c r="C140" s="80" t="s">
-        <v>35</v>
+        <v>406</v>
       </c>
       <c r="D140" s="56"/>
       <c r="E140" s="56"/>
@@ -7466,7 +7488,7 @@
       <c r="I140" s="56"/>
       <c r="J140" s="56"/>
       <c r="K140" s="80" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="L140" s="56"/>
       <c r="M140" s="56"/>
@@ -7477,50 +7499,50 @@
       <c r="R140" s="56"/>
       <c r="S140" s="56"/>
       <c r="T140" s="80"/>
-      <c r="U140" s="80"/>
-      <c r="V140" s="80"/>
-      <c r="W140" s="80"/>
-      <c r="X140" s="80"/>
-      <c r="Y140" s="80"/>
-      <c r="Z140" s="80"/>
-      <c r="AA140" s="80"/>
-      <c r="AB140" s="80"/>
-      <c r="AC140" s="80"/>
-      <c r="AD140" s="80"/>
-      <c r="AE140" s="80"/>
-      <c r="AF140" s="80"/>
-      <c r="AG140" s="80"/>
-      <c r="AH140" s="80"/>
-      <c r="AI140" s="80"/>
+      <c r="U140" s="56"/>
+      <c r="V140" s="56"/>
+      <c r="W140" s="56"/>
+      <c r="X140" s="56"/>
+      <c r="Y140" s="56"/>
+      <c r="Z140" s="56"/>
+      <c r="AA140" s="56"/>
+      <c r="AB140" s="56"/>
+      <c r="AC140" s="56"/>
+      <c r="AD140" s="56"/>
+      <c r="AE140" s="56"/>
+      <c r="AF140" s="56"/>
+      <c r="AG140" s="56"/>
+      <c r="AH140" s="56"/>
+      <c r="AI140" s="56"/>
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B141" s="79" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C141" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D141" s="56"/>
-      <c r="E141" s="80"/>
+      <c r="E141" s="56"/>
       <c r="F141" s="56"/>
       <c r="G141" s="56"/>
       <c r="H141" s="56"/>
-      <c r="I141" s="80"/>
-      <c r="J141" s="80"/>
+      <c r="I141" s="56"/>
+      <c r="J141" s="56"/>
       <c r="K141" s="80" t="s">
-        <v>420</v>
-      </c>
-      <c r="L141" s="80"/>
-      <c r="M141" s="80"/>
-      <c r="N141" s="80"/>
-      <c r="O141" s="80"/>
-      <c r="P141" s="80"/>
-      <c r="Q141" s="80"/>
-      <c r="R141" s="80"/>
-      <c r="S141" s="80"/>
+        <v>409</v>
+      </c>
+      <c r="L141" s="56"/>
+      <c r="M141" s="56"/>
+      <c r="N141" s="56"/>
+      <c r="O141" s="56"/>
+      <c r="P141" s="56"/>
+      <c r="Q141" s="56"/>
+      <c r="R141" s="56"/>
+      <c r="S141" s="56"/>
       <c r="T141" s="80"/>
       <c r="U141" s="80"/>
       <c r="V141" s="80"/>
@@ -7540,98 +7562,98 @@
     </row>
     <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="79" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B142" s="79" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C142" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D142" s="56"/>
-      <c r="E142" s="56"/>
+      <c r="E142" s="80"/>
       <c r="F142" s="56"/>
       <c r="G142" s="56"/>
       <c r="H142" s="56"/>
-      <c r="I142" s="56"/>
-      <c r="J142" s="56"/>
-      <c r="K142" s="56"/>
-      <c r="L142" s="56"/>
-      <c r="M142" s="56"/>
-      <c r="N142" s="56"/>
-      <c r="O142" s="56"/>
-      <c r="P142" s="56"/>
-      <c r="Q142" s="56"/>
-      <c r="R142" s="56"/>
-      <c r="S142" s="56"/>
-      <c r="T142" s="56"/>
-      <c r="U142" s="56"/>
-      <c r="V142" s="56"/>
-      <c r="W142" s="56"/>
-      <c r="X142" s="56"/>
-      <c r="Y142" s="56"/>
-      <c r="Z142" s="56"/>
-      <c r="AA142" s="56"/>
-      <c r="AB142" s="56"/>
-      <c r="AC142" s="56"/>
-      <c r="AD142" s="56"/>
-      <c r="AE142" s="56"/>
-      <c r="AF142" s="56"/>
-      <c r="AG142" s="56"/>
-      <c r="AH142" s="56"/>
-      <c r="AI142" s="56"/>
+      <c r="I142" s="80"/>
+      <c r="J142" s="80"/>
+      <c r="K142" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="L142" s="80"/>
+      <c r="M142" s="80"/>
+      <c r="N142" s="80"/>
+      <c r="O142" s="80"/>
+      <c r="P142" s="80"/>
+      <c r="Q142" s="80"/>
+      <c r="R142" s="80"/>
+      <c r="S142" s="80"/>
+      <c r="T142" s="80"/>
+      <c r="U142" s="80"/>
+      <c r="V142" s="80"/>
+      <c r="W142" s="80"/>
+      <c r="X142" s="80"/>
+      <c r="Y142" s="80"/>
+      <c r="Z142" s="80"/>
+      <c r="AA142" s="80"/>
+      <c r="AB142" s="80"/>
+      <c r="AC142" s="80"/>
+      <c r="AD142" s="80"/>
+      <c r="AE142" s="80"/>
+      <c r="AF142" s="80"/>
+      <c r="AG142" s="80"/>
+      <c r="AH142" s="80"/>
+      <c r="AI142" s="80"/>
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="79" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B143" s="79" t="s">
-        <v>48</v>
+        <v>412</v>
       </c>
       <c r="C143" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D143" s="80"/>
-      <c r="E143" s="80"/>
-      <c r="F143" s="80"/>
-      <c r="G143" s="80"/>
-      <c r="H143" s="80"/>
-      <c r="I143" s="80"/>
-      <c r="J143" s="80"/>
-      <c r="K143" s="80" t="s">
-        <v>422</v>
-      </c>
-      <c r="L143" s="80"/>
-      <c r="M143" s="80"/>
-      <c r="N143" s="80"/>
-      <c r="O143" s="80"/>
-      <c r="P143" s="80"/>
-      <c r="Q143" s="80"/>
-      <c r="R143" s="80"/>
-      <c r="S143" s="80"/>
-      <c r="T143" s="80"/>
-      <c r="U143" s="80"/>
-      <c r="V143" s="80"/>
-      <c r="W143" s="80"/>
-      <c r="X143" s="80"/>
-      <c r="Y143" s="80"/>
-      <c r="Z143" s="80"/>
-      <c r="AA143" s="80"/>
-      <c r="AB143" s="80"/>
-      <c r="AC143" s="80"/>
-      <c r="AD143" s="80"/>
-      <c r="AE143" s="80"/>
-      <c r="AF143" s="80"/>
-      <c r="AG143" s="80"/>
-      <c r="AH143" s="80"/>
-      <c r="AI143" s="80"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="56"/>
+      <c r="F143" s="56"/>
+      <c r="G143" s="56"/>
+      <c r="H143" s="56"/>
+      <c r="I143" s="56"/>
+      <c r="J143" s="56"/>
+      <c r="K143" s="56"/>
+      <c r="L143" s="56"/>
+      <c r="M143" s="56"/>
+      <c r="N143" s="56"/>
+      <c r="O143" s="56"/>
+      <c r="P143" s="56"/>
+      <c r="Q143" s="56"/>
+      <c r="R143" s="56"/>
+      <c r="S143" s="56"/>
+      <c r="T143" s="56"/>
+      <c r="U143" s="56"/>
+      <c r="V143" s="56"/>
+      <c r="W143" s="56"/>
+      <c r="X143" s="56"/>
+      <c r="Y143" s="56"/>
+      <c r="Z143" s="56"/>
+      <c r="AA143" s="56"/>
+      <c r="AB143" s="56"/>
+      <c r="AC143" s="56"/>
+      <c r="AD143" s="56"/>
+      <c r="AE143" s="56"/>
+      <c r="AF143" s="56"/>
+      <c r="AG143" s="56"/>
+      <c r="AH143" s="56"/>
+      <c r="AI143" s="56"/>
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B144" s="79" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>35</v>
@@ -7644,7 +7666,7 @@
       <c r="I144" s="80"/>
       <c r="J144" s="80"/>
       <c r="K144" s="80" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="L144" s="80"/>
       <c r="M144" s="80"/>
@@ -7673,53 +7695,55 @@
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="79" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B145" s="79" t="s">
-        <v>424</v>
+        <v>164</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D145" s="56"/>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
-      <c r="G145" s="56"/>
-      <c r="H145" s="56"/>
-      <c r="I145" s="56"/>
-      <c r="J145" s="56"/>
-      <c r="K145" s="56"/>
-      <c r="L145" s="56"/>
-      <c r="M145" s="56"/>
-      <c r="N145" s="56"/>
-      <c r="O145" s="56"/>
-      <c r="P145" s="56"/>
-      <c r="Q145" s="56"/>
-      <c r="R145" s="56"/>
-      <c r="S145" s="56"/>
-      <c r="T145" s="56"/>
-      <c r="U145" s="56"/>
-      <c r="V145" s="56"/>
-      <c r="W145" s="56"/>
-      <c r="X145" s="56"/>
-      <c r="Y145" s="56"/>
-      <c r="Z145" s="56"/>
-      <c r="AA145" s="56"/>
-      <c r="AB145" s="56"/>
-      <c r="AC145" s="56"/>
-      <c r="AD145" s="56"/>
-      <c r="AE145" s="56"/>
-      <c r="AF145" s="56"/>
-      <c r="AG145" s="56"/>
-      <c r="AH145" s="56"/>
-      <c r="AI145" s="56"/>
+      <c r="D145" s="80"/>
+      <c r="E145" s="80"/>
+      <c r="F145" s="80"/>
+      <c r="G145" s="80"/>
+      <c r="H145" s="80"/>
+      <c r="I145" s="80"/>
+      <c r="J145" s="80"/>
+      <c r="K145" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="L145" s="80"/>
+      <c r="M145" s="80"/>
+      <c r="N145" s="80"/>
+      <c r="O145" s="80"/>
+      <c r="P145" s="80"/>
+      <c r="Q145" s="80"/>
+      <c r="R145" s="80"/>
+      <c r="S145" s="80"/>
+      <c r="T145" s="80"/>
+      <c r="U145" s="80"/>
+      <c r="V145" s="80"/>
+      <c r="W145" s="80"/>
+      <c r="X145" s="80"/>
+      <c r="Y145" s="80"/>
+      <c r="Z145" s="80"/>
+      <c r="AA145" s="80"/>
+      <c r="AB145" s="80"/>
+      <c r="AC145" s="80"/>
+      <c r="AD145" s="80"/>
+      <c r="AE145" s="80"/>
+      <c r="AF145" s="80"/>
+      <c r="AG145" s="80"/>
+      <c r="AH145" s="80"/>
+      <c r="AI145" s="80"/>
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="79" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B146" s="79" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="C146" s="80" t="s">
         <v>35</v>
@@ -7731,9 +7755,7 @@
       <c r="H146" s="56"/>
       <c r="I146" s="56"/>
       <c r="J146" s="56"/>
-      <c r="K146" s="80" t="s">
-        <v>426</v>
-      </c>
+      <c r="K146" s="56"/>
       <c r="L146" s="56"/>
       <c r="M146" s="56"/>
       <c r="N146" s="56"/>
@@ -7742,7 +7764,7 @@
       <c r="Q146" s="56"/>
       <c r="R146" s="56"/>
       <c r="S146" s="56"/>
-      <c r="T146" s="80"/>
+      <c r="T146" s="56"/>
       <c r="U146" s="56"/>
       <c r="V146" s="56"/>
       <c r="W146" s="56"/>
@@ -7764,7 +7786,7 @@
         <v>95</v>
       </c>
       <c r="B147" s="79" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C147" s="80" t="s">
         <v>35</v>
@@ -7777,7 +7799,7 @@
       <c r="I147" s="56"/>
       <c r="J147" s="56"/>
       <c r="K147" s="80" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L147" s="56"/>
       <c r="M147" s="56"/>
@@ -7809,7 +7831,7 @@
         <v>95</v>
       </c>
       <c r="B148" s="79" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C148" s="80" t="s">
         <v>35</v>
@@ -7822,7 +7844,7 @@
       <c r="I148" s="56"/>
       <c r="J148" s="56"/>
       <c r="K148" s="80" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="L148" s="56"/>
       <c r="M148" s="56"/>
@@ -7854,84 +7876,90 @@
         <v>95</v>
       </c>
       <c r="B149" s="79" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C149" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="56"/>
-      <c r="E149" s="80"/>
+      <c r="E149" s="56"/>
       <c r="F149" s="56"/>
       <c r="G149" s="56"/>
       <c r="H149" s="56"/>
-      <c r="I149" s="80"/>
-      <c r="J149" s="80"/>
+      <c r="I149" s="56"/>
+      <c r="J149" s="56"/>
       <c r="K149" s="80" t="s">
-        <v>432</v>
-      </c>
-      <c r="L149" s="80"/>
-      <c r="M149" s="80"/>
-      <c r="N149" s="80"/>
-      <c r="O149" s="80"/>
-      <c r="P149" s="80"/>
-      <c r="Q149" s="80"/>
-      <c r="R149" s="80"/>
-      <c r="S149" s="80"/>
+        <v>421</v>
+      </c>
+      <c r="L149" s="56"/>
+      <c r="M149" s="56"/>
+      <c r="N149" s="56"/>
+      <c r="O149" s="56"/>
+      <c r="P149" s="56"/>
+      <c r="Q149" s="56"/>
+      <c r="R149" s="56"/>
+      <c r="S149" s="56"/>
       <c r="T149" s="80"/>
-      <c r="U149" s="80"/>
-      <c r="V149" s="80"/>
-      <c r="W149" s="80"/>
-      <c r="X149" s="80"/>
-      <c r="Y149" s="80"/>
-      <c r="Z149" s="80"/>
-      <c r="AA149" s="80"/>
-      <c r="AB149" s="80"/>
-      <c r="AC149" s="80"/>
-      <c r="AD149" s="80"/>
-      <c r="AE149" s="80"/>
-      <c r="AF149" s="80"/>
-      <c r="AG149" s="80"/>
-      <c r="AH149" s="80"/>
-      <c r="AI149" s="80"/>
+      <c r="U149" s="56"/>
+      <c r="V149" s="56"/>
+      <c r="W149" s="56"/>
+      <c r="X149" s="56"/>
+      <c r="Y149" s="56"/>
+      <c r="Z149" s="56"/>
+      <c r="AA149" s="56"/>
+      <c r="AB149" s="56"/>
+      <c r="AC149" s="56"/>
+      <c r="AD149" s="56"/>
+      <c r="AE149" s="56"/>
+      <c r="AF149" s="56"/>
+      <c r="AG149" s="56"/>
+      <c r="AH149" s="56"/>
+      <c r="AI149" s="56"/>
     </row>
     <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B150" s="79"/>
-      <c r="C150" s="56"/>
+        <v>95</v>
+      </c>
+      <c r="B150" s="79" t="s">
+        <v>422</v>
+      </c>
+      <c r="C150" s="80" t="s">
+        <v>35</v>
+      </c>
       <c r="D150" s="56"/>
-      <c r="E150" s="56"/>
+      <c r="E150" s="80"/>
       <c r="F150" s="56"/>
       <c r="G150" s="56"/>
       <c r="H150" s="56"/>
-      <c r="I150" s="56"/>
-      <c r="J150" s="56"/>
-      <c r="K150" s="56"/>
-      <c r="L150" s="56"/>
-      <c r="M150" s="56"/>
-      <c r="N150" s="56"/>
-      <c r="O150" s="56"/>
-      <c r="P150" s="56"/>
-      <c r="Q150" s="56"/>
-      <c r="R150" s="56"/>
-      <c r="S150" s="56"/>
-      <c r="T150" s="56"/>
-      <c r="U150" s="56"/>
-      <c r="V150" s="56"/>
-      <c r="W150" s="56"/>
-      <c r="X150" s="56"/>
-      <c r="Y150" s="56"/>
-      <c r="Z150" s="56"/>
-      <c r="AA150" s="56"/>
-      <c r="AB150" s="56"/>
-      <c r="AC150" s="56"/>
-      <c r="AD150" s="56"/>
-      <c r="AE150" s="56"/>
-      <c r="AF150" s="56"/>
-      <c r="AG150" s="56"/>
-      <c r="AH150" s="56"/>
-      <c r="AI150" s="56"/>
+      <c r="I150" s="80"/>
+      <c r="J150" s="80"/>
+      <c r="K150" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="L150" s="80"/>
+      <c r="M150" s="80"/>
+      <c r="N150" s="80"/>
+      <c r="O150" s="80"/>
+      <c r="P150" s="80"/>
+      <c r="Q150" s="80"/>
+      <c r="R150" s="80"/>
+      <c r="S150" s="80"/>
+      <c r="T150" s="80"/>
+      <c r="U150" s="80"/>
+      <c r="V150" s="80"/>
+      <c r="W150" s="80"/>
+      <c r="X150" s="80"/>
+      <c r="Y150" s="80"/>
+      <c r="Z150" s="80"/>
+      <c r="AA150" s="80"/>
+      <c r="AB150" s="80"/>
+      <c r="AC150" s="80"/>
+      <c r="AD150" s="80"/>
+      <c r="AE150" s="80"/>
+      <c r="AF150" s="80"/>
+      <c r="AG150" s="80"/>
+      <c r="AH150" s="80"/>
+      <c r="AI150" s="80"/>
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="79" t="s">
@@ -8012,15 +8040,11 @@
       <c r="AI152" s="56"/>
     </row>
     <row r="153" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="B153" s="82" t="s">
-        <v>433</v>
-      </c>
-      <c r="C153" s="56" t="s">
-        <v>35</v>
-      </c>
+      <c r="A153" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B153" s="79"/>
+      <c r="C153" s="56"/>
       <c r="D153" s="56"/>
       <c r="E153" s="56"/>
       <c r="F153" s="56"/>
@@ -8028,9 +8052,7 @@
       <c r="H153" s="56"/>
       <c r="I153" s="56"/>
       <c r="J153" s="56"/>
-      <c r="K153" s="56" t="s">
-        <v>434</v>
-      </c>
+      <c r="K153" s="56"/>
       <c r="L153" s="56"/>
       <c r="M153" s="56"/>
       <c r="N153" s="56"/>
@@ -8057,30 +8079,36 @@
       <c r="AI153" s="56"/>
     </row>
     <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B154" s="78"/>
-      <c r="C154" s="51"/>
-      <c r="D154" s="40"/>
+      <c r="A154" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B154" s="82" t="s">
+        <v>424</v>
+      </c>
+      <c r="C154" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D154" s="56"/>
       <c r="E154" s="56"/>
-      <c r="F154" s="40"/>
-      <c r="G154" s="40"/>
-      <c r="H154" s="40"/>
+      <c r="F154" s="56"/>
+      <c r="G154" s="56"/>
+      <c r="H154" s="56"/>
       <c r="I154" s="56"/>
       <c r="J154" s="56"/>
-      <c r="K154" s="56"/>
+      <c r="K154" s="56" t="s">
+        <v>425</v>
+      </c>
       <c r="L154" s="56"/>
-      <c r="M154" s="51"/>
-      <c r="N154" s="51"/>
-      <c r="O154" s="51"/>
-      <c r="P154" s="51"/>
-      <c r="Q154" s="51"/>
-      <c r="R154" s="51"/>
-      <c r="S154" s="51"/>
-      <c r="T154" s="51"/>
+      <c r="M154" s="56"/>
+      <c r="N154" s="56"/>
+      <c r="O154" s="56"/>
+      <c r="P154" s="56"/>
+      <c r="Q154" s="56"/>
+      <c r="R154" s="56"/>
+      <c r="S154" s="56"/>
+      <c r="T154" s="56"/>
       <c r="U154" s="56"/>
-      <c r="V154" s="51"/>
+      <c r="V154" s="56"/>
       <c r="W154" s="56"/>
       <c r="X154" s="56"/>
       <c r="Y154" s="56"/>
@@ -8095,119 +8123,113 @@
       <c r="AH154" s="56"/>
       <c r="AI154" s="56"/>
     </row>
-    <row r="155" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="55"/>
-      <c r="B155" s="55"/>
-      <c r="C155" s="55"/>
-      <c r="D155" s="54"/>
-      <c r="E155" s="86"/>
-      <c r="F155" s="54"/>
-      <c r="G155" s="54"/>
-      <c r="H155" s="54"/>
-      <c r="I155" s="86"/>
-      <c r="J155" s="86"/>
-      <c r="K155" s="86"/>
-      <c r="L155" s="86"/>
-      <c r="M155" s="55"/>
-      <c r="N155" s="55"/>
-      <c r="O155" s="55"/>
-      <c r="P155" s="55"/>
-      <c r="Q155" s="55"/>
-      <c r="R155" s="55"/>
-      <c r="S155" s="55"/>
-      <c r="T155" s="55"/>
-      <c r="U155" s="86"/>
-      <c r="V155" s="55"/>
-      <c r="W155" s="86"/>
-      <c r="X155" s="86"/>
-      <c r="Y155" s="86"/>
-      <c r="Z155" s="86"/>
-      <c r="AA155" s="86"/>
-      <c r="AB155" s="86"/>
-      <c r="AC155" s="86"/>
-      <c r="AD155" s="86"/>
-      <c r="AE155" s="86"/>
-      <c r="AF155" s="86"/>
-      <c r="AG155" s="86"/>
-      <c r="AH155" s="86"/>
-      <c r="AI155" s="86"/>
-    </row>
-    <row r="157" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="68" t="s">
+    <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B155" s="78"/>
+      <c r="C155" s="51"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="56"/>
+      <c r="F155" s="40"/>
+      <c r="G155" s="40"/>
+      <c r="H155" s="40"/>
+      <c r="I155" s="56"/>
+      <c r="J155" s="56"/>
+      <c r="K155" s="56"/>
+      <c r="L155" s="56"/>
+      <c r="M155" s="51"/>
+      <c r="N155" s="51"/>
+      <c r="O155" s="51"/>
+      <c r="P155" s="51"/>
+      <c r="Q155" s="51"/>
+      <c r="R155" s="51"/>
+      <c r="S155" s="51"/>
+      <c r="T155" s="51"/>
+      <c r="U155" s="56"/>
+      <c r="V155" s="51"/>
+      <c r="W155" s="56"/>
+      <c r="X155" s="56"/>
+      <c r="Y155" s="56"/>
+      <c r="Z155" s="56"/>
+      <c r="AA155" s="56"/>
+      <c r="AB155" s="56"/>
+      <c r="AC155" s="56"/>
+      <c r="AD155" s="56"/>
+      <c r="AE155" s="56"/>
+      <c r="AF155" s="56"/>
+      <c r="AG155" s="56"/>
+      <c r="AH155" s="56"/>
+      <c r="AI155" s="56"/>
+    </row>
+    <row r="156" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="55"/>
+      <c r="B156" s="55"/>
+      <c r="C156" s="55"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="86"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="54"/>
+      <c r="H156" s="54"/>
+      <c r="I156" s="86"/>
+      <c r="J156" s="86"/>
+      <c r="K156" s="86"/>
+      <c r="L156" s="86"/>
+      <c r="M156" s="55"/>
+      <c r="N156" s="55"/>
+      <c r="O156" s="55"/>
+      <c r="P156" s="55"/>
+      <c r="Q156" s="55"/>
+      <c r="R156" s="55"/>
+      <c r="S156" s="55"/>
+      <c r="T156" s="55"/>
+      <c r="U156" s="86"/>
+      <c r="V156" s="55"/>
+      <c r="W156" s="86"/>
+      <c r="X156" s="86"/>
+      <c r="Y156" s="86"/>
+      <c r="Z156" s="86"/>
+      <c r="AA156" s="86"/>
+      <c r="AB156" s="86"/>
+      <c r="AC156" s="86"/>
+      <c r="AD156" s="86"/>
+      <c r="AE156" s="86"/>
+      <c r="AF156" s="86"/>
+      <c r="AG156" s="86"/>
+      <c r="AH156" s="86"/>
+      <c r="AI156" s="86"/>
+    </row>
+    <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B157" s="68" t="s">
-        <v>336</v>
-      </c>
-      <c r="C157" s="69" t="s">
+      <c r="B158" s="68" t="s">
+        <v>327</v>
+      </c>
+      <c r="C158" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D157" s="70"/>
-      <c r="E157" s="70"/>
-      <c r="F157" s="71"/>
-      <c r="G157" s="71" t="s">
-        <v>337</v>
-      </c>
-      <c r="H157" s="70"/>
-      <c r="I157" s="71"/>
-      <c r="J157" s="71"/>
-      <c r="K157" s="71"/>
-      <c r="L157" s="71"/>
-      <c r="M157" s="69"/>
-      <c r="N157" s="69"/>
-      <c r="O157" s="69"/>
-      <c r="P157" s="69"/>
-      <c r="Q157" s="69"/>
-      <c r="R157" s="69"/>
-      <c r="S157" s="69"/>
-      <c r="T157" s="69"/>
-      <c r="U157" s="71"/>
-      <c r="V157" s="69"/>
-      <c r="W157" s="71"/>
-      <c r="X157" s="71"/>
-      <c r="Y157" s="71"/>
-      <c r="Z157" s="71"/>
-      <c r="AA157" s="71"/>
-      <c r="AB157" s="71"/>
-      <c r="AC157" s="71"/>
-      <c r="AD157" s="71"/>
-      <c r="AE157" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF157" s="71"/>
-      <c r="AG157" s="71"/>
-      <c r="AH157" s="71"/>
-      <c r="AI157" s="71"/>
-    </row>
-    <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="B158" s="72" t="s">
-        <v>339</v>
-      </c>
-      <c r="C158" s="69" t="s">
-        <v>340</v>
-      </c>
-      <c r="D158" s="71"/>
-      <c r="E158" s="71"/>
+      <c r="D158" s="70"/>
+      <c r="E158" s="70"/>
       <c r="F158" s="71"/>
-      <c r="G158" s="71"/>
-      <c r="H158" s="71"/>
+      <c r="G158" s="71" t="s">
+        <v>328</v>
+      </c>
+      <c r="H158" s="70"/>
       <c r="I158" s="71"/>
       <c r="J158" s="71"/>
       <c r="K158" s="71"/>
       <c r="L158" s="71"/>
-      <c r="M158" s="71"/>
-      <c r="N158" s="71"/>
-      <c r="O158" s="71"/>
-      <c r="P158" s="71"/>
-      <c r="Q158" s="71"/>
-      <c r="R158" s="71"/>
-      <c r="S158" s="71"/>
-      <c r="T158" s="71"/>
+      <c r="M158" s="69"/>
+      <c r="N158" s="69"/>
+      <c r="O158" s="69"/>
+      <c r="P158" s="69"/>
+      <c r="Q158" s="69"/>
+      <c r="R158" s="69"/>
+      <c r="S158" s="69"/>
+      <c r="T158" s="69"/>
       <c r="U158" s="71"/>
-      <c r="V158" s="71"/>
+      <c r="V158" s="69"/>
       <c r="W158" s="71"/>
       <c r="X158" s="71"/>
       <c r="Y158" s="71"/>
@@ -8216,32 +8238,32 @@
       <c r="AB158" s="71"/>
       <c r="AC158" s="71"/>
       <c r="AD158" s="71"/>
-      <c r="AE158" s="71"/>
+      <c r="AE158" s="71" t="s">
+        <v>39</v>
+      </c>
       <c r="AF158" s="71"/>
       <c r="AG158" s="71"/>
       <c r="AH158" s="71"/>
       <c r="AI158" s="71"/>
     </row>
     <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="68" t="s">
-        <v>338</v>
-      </c>
-      <c r="B159" s="68" t="s">
-        <v>341</v>
+      <c r="A159" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="B159" s="72" t="s">
+        <v>330</v>
       </c>
       <c r="C159" s="69" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D159" s="71"/>
       <c r="E159" s="71"/>
       <c r="F159" s="71"/>
-      <c r="G159" s="69" t="s">
-        <v>343</v>
-      </c>
+      <c r="G159" s="71"/>
       <c r="H159" s="71"/>
       <c r="I159" s="71"/>
       <c r="J159" s="71"/>
-      <c r="K159" s="69"/>
+      <c r="K159" s="71"/>
       <c r="L159" s="71"/>
       <c r="M159" s="71"/>
       <c r="N159" s="71"/>
@@ -8269,18 +8291,20 @@
     </row>
     <row r="160" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B160" s="68" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="D160" s="71"/>
       <c r="E160" s="71"/>
       <c r="F160" s="71"/>
-      <c r="G160" s="69"/>
+      <c r="G160" s="69" t="s">
+        <v>334</v>
+      </c>
       <c r="H160" s="71"/>
       <c r="I160" s="71"/>
       <c r="J160" s="71"/>
@@ -8312,20 +8336,18 @@
     </row>
     <row r="161" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B161" s="68" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C161" s="69" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D161" s="71"/>
       <c r="E161" s="71"/>
       <c r="F161" s="71"/>
-      <c r="G161" s="69" t="s">
-        <v>343</v>
-      </c>
+      <c r="G161" s="69"/>
       <c r="H161" s="71"/>
       <c r="I161" s="71"/>
       <c r="J161" s="71"/>
@@ -8357,23 +8379,23 @@
     </row>
     <row r="162" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" s="68" t="s">
+        <v>337</v>
+      </c>
+      <c r="C162" s="69" t="s">
         <v>338</v>
-      </c>
-      <c r="B162" s="68" t="s">
-        <v>348</v>
-      </c>
-      <c r="C162" s="71" t="s">
-        <v>349</v>
       </c>
       <c r="D162" s="71"/>
       <c r="E162" s="71"/>
-      <c r="F162" s="70"/>
+      <c r="F162" s="71"/>
       <c r="G162" s="69" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="H162" s="71"/>
       <c r="I162" s="71"/>
-      <c r="J162" s="70"/>
+      <c r="J162" s="71"/>
       <c r="K162" s="69"/>
       <c r="L162" s="71"/>
       <c r="M162" s="71"/>
@@ -8402,37 +8424,35 @@
     </row>
     <row r="163" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B163" s="68" t="s">
-        <v>351</v>
-      </c>
-      <c r="C163" s="69" t="s">
-        <v>352</v>
-      </c>
-      <c r="D163" s="70"/>
-      <c r="E163" s="70"/>
-      <c r="F163" s="69" t="s">
-        <v>386</v>
-      </c>
-      <c r="G163" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="H163" s="70"/>
+        <v>339</v>
+      </c>
+      <c r="C163" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="D163" s="71"/>
+      <c r="E163" s="71"/>
+      <c r="F163" s="70"/>
+      <c r="G163" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="H163" s="71"/>
       <c r="I163" s="71"/>
-      <c r="J163" s="69"/>
-      <c r="K163" s="71"/>
+      <c r="J163" s="70"/>
+      <c r="K163" s="69"/>
       <c r="L163" s="71"/>
-      <c r="M163" s="69"/>
-      <c r="N163" s="69"/>
-      <c r="O163" s="69"/>
-      <c r="P163" s="69"/>
-      <c r="Q163" s="69"/>
-      <c r="R163" s="69"/>
-      <c r="S163" s="69"/>
-      <c r="T163" s="69"/>
+      <c r="M163" s="71"/>
+      <c r="N163" s="71"/>
+      <c r="O163" s="71"/>
+      <c r="P163" s="71"/>
+      <c r="Q163" s="71"/>
+      <c r="R163" s="71"/>
+      <c r="S163" s="71"/>
+      <c r="T163" s="71"/>
       <c r="U163" s="71"/>
-      <c r="V163" s="69"/>
+      <c r="V163" s="71"/>
       <c r="W163" s="71"/>
       <c r="X163" s="71"/>
       <c r="Y163" s="71"/>
@@ -8449,21 +8469,21 @@
     </row>
     <row r="164" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B164" s="68" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C164" s="69" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="D164" s="70"/>
       <c r="E164" s="70"/>
       <c r="F164" s="69" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G164" s="71" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H164" s="70"/>
       <c r="I164" s="71"/>
@@ -8496,37 +8516,37 @@
     </row>
     <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B165" s="68" t="s">
-        <v>356</v>
-      </c>
-      <c r="C165" s="71" t="s">
-        <v>357</v>
-      </c>
-      <c r="D165" s="71"/>
-      <c r="E165" s="71"/>
+        <v>345</v>
+      </c>
+      <c r="C165" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="D165" s="70"/>
+      <c r="E165" s="70"/>
       <c r="F165" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="G165" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="H165" s="71"/>
+        <v>378</v>
+      </c>
+      <c r="G165" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="H165" s="70"/>
       <c r="I165" s="71"/>
       <c r="J165" s="69"/>
-      <c r="K165" s="69"/>
+      <c r="K165" s="71"/>
       <c r="L165" s="71"/>
-      <c r="M165" s="71"/>
-      <c r="N165" s="71"/>
-      <c r="O165" s="71"/>
-      <c r="P165" s="71"/>
-      <c r="Q165" s="71"/>
-      <c r="R165" s="71"/>
-      <c r="S165" s="71"/>
-      <c r="T165" s="71"/>
+      <c r="M165" s="69"/>
+      <c r="N165" s="69"/>
+      <c r="O165" s="69"/>
+      <c r="P165" s="69"/>
+      <c r="Q165" s="69"/>
+      <c r="R165" s="69"/>
+      <c r="S165" s="69"/>
+      <c r="T165" s="69"/>
       <c r="U165" s="71"/>
-      <c r="V165" s="71"/>
+      <c r="V165" s="69"/>
       <c r="W165" s="71"/>
       <c r="X165" s="71"/>
       <c r="Y165" s="71"/>
@@ -8543,37 +8563,37 @@
     </row>
     <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B166" s="68" t="s">
-        <v>358</v>
-      </c>
-      <c r="C166" s="69" t="s">
-        <v>359</v>
-      </c>
-      <c r="D166" s="70"/>
-      <c r="E166" s="70"/>
+        <v>347</v>
+      </c>
+      <c r="C166" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="D166" s="71"/>
+      <c r="E166" s="71"/>
       <c r="F166" s="69" t="s">
-        <v>387</v>
-      </c>
-      <c r="G166" s="71" t="s">
-        <v>353</v>
-      </c>
-      <c r="H166" s="70"/>
+        <v>378</v>
+      </c>
+      <c r="G166" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="H166" s="71"/>
       <c r="I166" s="71"/>
       <c r="J166" s="69"/>
-      <c r="K166" s="71"/>
+      <c r="K166" s="69"/>
       <c r="L166" s="71"/>
-      <c r="M166" s="69"/>
-      <c r="N166" s="69"/>
-      <c r="O166" s="69"/>
-      <c r="P166" s="69"/>
-      <c r="Q166" s="69"/>
-      <c r="R166" s="69"/>
-      <c r="S166" s="69"/>
-      <c r="T166" s="69"/>
+      <c r="M166" s="71"/>
+      <c r="N166" s="71"/>
+      <c r="O166" s="71"/>
+      <c r="P166" s="71"/>
+      <c r="Q166" s="71"/>
+      <c r="R166" s="71"/>
+      <c r="S166" s="71"/>
+      <c r="T166" s="71"/>
       <c r="U166" s="71"/>
-      <c r="V166" s="69"/>
+      <c r="V166" s="71"/>
       <c r="W166" s="71"/>
       <c r="X166" s="71"/>
       <c r="Y166" s="71"/>
@@ -8590,21 +8610,21 @@
     </row>
     <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B167" s="68" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C167" s="69" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D167" s="70"/>
       <c r="E167" s="70"/>
       <c r="F167" s="69" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="G167" s="71" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H167" s="70"/>
       <c r="I167" s="71"/>
@@ -8637,26 +8657,26 @@
     </row>
     <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B168" s="68" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C168" s="69" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D168" s="70"/>
       <c r="E168" s="70"/>
       <c r="F168" s="69" t="s">
-        <v>388</v>
-      </c>
-      <c r="G168" s="69" t="s">
-        <v>350</v>
+        <v>378</v>
+      </c>
+      <c r="G168" s="71" t="s">
+        <v>344</v>
       </c>
       <c r="H168" s="70"/>
       <c r="I168" s="71"/>
       <c r="J168" s="69"/>
-      <c r="K168" s="69"/>
+      <c r="K168" s="71"/>
       <c r="L168" s="71"/>
       <c r="M168" s="69"/>
       <c r="N168" s="69"/>
@@ -8684,37 +8704,37 @@
     </row>
     <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B169" s="68" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C169" s="69" t="s">
-        <v>365</v>
-      </c>
-      <c r="D169" s="71"/>
-      <c r="E169" s="71"/>
+        <v>354</v>
+      </c>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
       <c r="F169" s="69" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="G169" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="H169" s="71"/>
+        <v>341</v>
+      </c>
+      <c r="H169" s="70"/>
       <c r="I169" s="71"/>
       <c r="J169" s="69"/>
       <c r="K169" s="69"/>
       <c r="L169" s="71"/>
-      <c r="M169" s="71"/>
-      <c r="N169" s="71"/>
-      <c r="O169" s="71"/>
-      <c r="P169" s="71"/>
-      <c r="Q169" s="71"/>
-      <c r="R169" s="71"/>
-      <c r="S169" s="71"/>
-      <c r="T169" s="71"/>
+      <c r="M169" s="69"/>
+      <c r="N169" s="69"/>
+      <c r="O169" s="69"/>
+      <c r="P169" s="69"/>
+      <c r="Q169" s="69"/>
+      <c r="R169" s="69"/>
+      <c r="S169" s="69"/>
+      <c r="T169" s="69"/>
       <c r="U169" s="71"/>
-      <c r="V169" s="71"/>
+      <c r="V169" s="69"/>
       <c r="W169" s="71"/>
       <c r="X169" s="71"/>
       <c r="Y169" s="71"/>
@@ -8731,21 +8751,21 @@
     </row>
     <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B170" s="68" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C170" s="69" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D170" s="71"/>
       <c r="E170" s="71"/>
       <c r="F170" s="69" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="G170" s="69" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H170" s="71"/>
       <c r="I170" s="71"/>
@@ -8778,21 +8798,21 @@
     </row>
     <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B171" s="68" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C171" s="69" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D171" s="71"/>
       <c r="E171" s="71"/>
       <c r="F171" s="69" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="G171" s="69" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H171" s="71"/>
       <c r="I171" s="71"/>
@@ -8825,21 +8845,21 @@
     </row>
     <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B172" s="68" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C172" s="69" t="s">
-        <v>177</v>
+        <v>360</v>
       </c>
       <c r="D172" s="71"/>
       <c r="E172" s="71"/>
       <c r="F172" s="69" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G172" s="69" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H172" s="71"/>
       <c r="I172" s="71"/>
@@ -8872,21 +8892,21 @@
     </row>
     <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B173" s="68" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C173" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D173" s="71"/>
       <c r="E173" s="71"/>
       <c r="F173" s="69" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G173" s="69" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H173" s="71"/>
       <c r="I173" s="71"/>
@@ -8919,21 +8939,21 @@
     </row>
     <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B174" s="68" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C174" s="69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D174" s="71"/>
       <c r="E174" s="71"/>
       <c r="F174" s="69" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="G174" s="69" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H174" s="71"/>
       <c r="I174" s="71"/>
@@ -8966,21 +8986,21 @@
     </row>
     <row r="175" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B175" s="68" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C175" s="69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D175" s="71"/>
       <c r="E175" s="71"/>
       <c r="F175" s="69" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G175" s="69" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H175" s="71"/>
       <c r="I175" s="71"/>
@@ -9013,21 +9033,21 @@
     </row>
     <row r="176" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B176" s="68" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C176" s="69" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D176" s="71"/>
       <c r="E176" s="71"/>
       <c r="F176" s="69" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="G176" s="69" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H176" s="71"/>
       <c r="I176" s="71"/>
@@ -9060,21 +9080,21 @@
     </row>
     <row r="177" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B177" s="68" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C177" s="69" t="s">
-        <v>376</v>
+        <v>185</v>
       </c>
       <c r="D177" s="71"/>
       <c r="E177" s="71"/>
       <c r="F177" s="69" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G177" s="69" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="H177" s="71"/>
       <c r="I177" s="71"/>
@@ -9107,21 +9127,21 @@
     </row>
     <row r="178" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B178" s="68" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C178" s="69" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D178" s="71"/>
       <c r="E178" s="71"/>
       <c r="F178" s="69" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G178" s="69" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="H178" s="71"/>
       <c r="I178" s="71"/>
@@ -9154,20 +9174,22 @@
     </row>
     <row r="179" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B179" s="68" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C179" s="69" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D179" s="71"/>
       <c r="E179" s="71"/>
       <c r="F179" s="69" t="s">
-        <v>388</v>
-      </c>
-      <c r="G179" s="69"/>
+        <v>379</v>
+      </c>
+      <c r="G179" s="69" t="s">
+        <v>370</v>
+      </c>
       <c r="H179" s="71"/>
       <c r="I179" s="71"/>
       <c r="J179" s="69"/>
@@ -9199,18 +9221,18 @@
     </row>
     <row r="180" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B180" s="68" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C180" s="69" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D180" s="71"/>
       <c r="E180" s="71"/>
       <c r="F180" s="69" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G180" s="69"/>
       <c r="H180" s="71"/>
@@ -9244,18 +9266,18 @@
     </row>
     <row r="181" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="68" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B181" s="68" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C181" s="69" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D181" s="71"/>
       <c r="E181" s="71"/>
       <c r="F181" s="69" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G181" s="69"/>
       <c r="H181" s="71"/>
@@ -9289,29 +9311,35 @@
     </row>
     <row r="182" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B182" s="68"/>
-      <c r="C182" s="69"/>
-      <c r="D182" s="70"/>
-      <c r="E182" s="70"/>
-      <c r="F182" s="71"/>
-      <c r="G182" s="71"/>
-      <c r="H182" s="70"/>
+        <v>329</v>
+      </c>
+      <c r="B182" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="C182" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="D182" s="71"/>
+      <c r="E182" s="71"/>
+      <c r="F182" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="G182" s="69"/>
+      <c r="H182" s="71"/>
       <c r="I182" s="71"/>
-      <c r="J182" s="71"/>
-      <c r="K182" s="71"/>
+      <c r="J182" s="69"/>
+      <c r="K182" s="69"/>
       <c r="L182" s="71"/>
-      <c r="M182" s="69"/>
-      <c r="N182" s="69"/>
-      <c r="O182" s="69"/>
-      <c r="P182" s="69"/>
-      <c r="Q182" s="69"/>
-      <c r="R182" s="69"/>
-      <c r="S182" s="69"/>
-      <c r="T182" s="69"/>
+      <c r="M182" s="71"/>
+      <c r="N182" s="71"/>
+      <c r="O182" s="71"/>
+      <c r="P182" s="71"/>
+      <c r="Q182" s="71"/>
+      <c r="R182" s="71"/>
+      <c r="S182" s="71"/>
+      <c r="T182" s="71"/>
       <c r="U182" s="71"/>
-      <c r="V182" s="69"/>
+      <c r="V182" s="71"/>
       <c r="W182" s="71"/>
       <c r="X182" s="71"/>
       <c r="Y182" s="71"/>
@@ -9327,65 +9355,67 @@
       <c r="AI182" s="71"/>
     </row>
     <row r="183" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="35"/>
-      <c r="B183" s="35"/>
-      <c r="C183" s="35"/>
-      <c r="E183" s="35"/>
-      <c r="AE183" s="35"/>
-      <c r="AF183" s="35"/>
-      <c r="AG183" s="35"/>
-      <c r="AH183" s="35"/>
-      <c r="AI183" s="35"/>
+      <c r="A183" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B183" s="68"/>
+      <c r="C183" s="69"/>
+      <c r="D183" s="70"/>
+      <c r="E183" s="70"/>
+      <c r="F183" s="71"/>
+      <c r="G183" s="71"/>
+      <c r="H183" s="70"/>
+      <c r="I183" s="71"/>
+      <c r="J183" s="71"/>
+      <c r="K183" s="71"/>
+      <c r="L183" s="71"/>
+      <c r="M183" s="69"/>
+      <c r="N183" s="69"/>
+      <c r="O183" s="69"/>
+      <c r="P183" s="69"/>
+      <c r="Q183" s="69"/>
+      <c r="R183" s="69"/>
+      <c r="S183" s="69"/>
+      <c r="T183" s="69"/>
+      <c r="U183" s="71"/>
+      <c r="V183" s="69"/>
+      <c r="W183" s="71"/>
+      <c r="X183" s="71"/>
+      <c r="Y183" s="71"/>
+      <c r="Z183" s="71"/>
+      <c r="AA183" s="71"/>
+      <c r="AB183" s="71"/>
+      <c r="AC183" s="71"/>
+      <c r="AD183" s="71"/>
+      <c r="AE183" s="71"/>
+      <c r="AF183" s="71"/>
+      <c r="AG183" s="71"/>
+      <c r="AH183" s="71"/>
+      <c r="AI183" s="71"/>
     </row>
     <row r="184" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="73"/>
-      <c r="B184" s="73"/>
-      <c r="C184" s="74"/>
-      <c r="D184" s="74"/>
-      <c r="E184" s="74"/>
-      <c r="F184" s="74"/>
-      <c r="G184" s="75"/>
-      <c r="H184" s="74"/>
-      <c r="I184" s="74"/>
-      <c r="J184" s="74"/>
-      <c r="K184" s="75"/>
-      <c r="L184" s="74"/>
-      <c r="M184" s="74"/>
-      <c r="N184" s="74"/>
-      <c r="O184" s="74"/>
-      <c r="P184" s="74"/>
-      <c r="Q184" s="74"/>
-      <c r="R184" s="74"/>
-      <c r="S184" s="74"/>
-      <c r="T184" s="74"/>
-      <c r="U184" s="74"/>
-      <c r="V184" s="74"/>
-      <c r="W184" s="74"/>
-      <c r="X184" s="74"/>
-      <c r="Y184" s="74"/>
-      <c r="Z184" s="74"/>
-      <c r="AA184" s="74"/>
-      <c r="AB184" s="74"/>
-      <c r="AC184" s="74"/>
-      <c r="AD184" s="74"/>
-      <c r="AE184" s="75"/>
-      <c r="AF184" s="74"/>
-      <c r="AG184" s="74"/>
-      <c r="AH184" s="74"/>
-      <c r="AI184" s="74"/>
+      <c r="A184" s="35"/>
+      <c r="B184" s="35"/>
+      <c r="C184" s="35"/>
+      <c r="E184" s="35"/>
+      <c r="AE184" s="35"/>
+      <c r="AF184" s="35"/>
+      <c r="AG184" s="35"/>
+      <c r="AH184" s="35"/>
+      <c r="AI184" s="35"/>
     </row>
     <row r="185" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="73"/>
-      <c r="B185" s="76"/>
+      <c r="B185" s="73"/>
       <c r="C185" s="74"/>
       <c r="D185" s="74"/>
       <c r="E185" s="74"/>
       <c r="F185" s="74"/>
-      <c r="G185" s="74"/>
+      <c r="G185" s="75"/>
       <c r="H185" s="74"/>
       <c r="I185" s="74"/>
       <c r="J185" s="74"/>
-      <c r="K185" s="74"/>
+      <c r="K185" s="75"/>
       <c r="L185" s="74"/>
       <c r="M185" s="74"/>
       <c r="N185" s="74"/>
@@ -9405,9 +9435,9 @@
       <c r="AB185" s="74"/>
       <c r="AC185" s="74"/>
       <c r="AD185" s="74"/>
-      <c r="AE185" s="74"/>
+      <c r="AE185" s="75"/>
       <c r="AF185" s="74"/>
-      <c r="AG185" s="75"/>
+      <c r="AG185" s="74"/>
       <c r="AH185" s="74"/>
       <c r="AI185" s="74"/>
     </row>
@@ -9782,78 +9812,78 @@
       <c r="AI195" s="74"/>
     </row>
     <row r="196" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="77"/>
-      <c r="B196" s="77"/>
+      <c r="A196" s="73"/>
+      <c r="B196" s="76"/>
       <c r="C196" s="74"/>
-      <c r="D196" s="75"/>
-      <c r="E196" s="75"/>
-      <c r="F196" s="75"/>
-      <c r="G196" s="75"/>
-      <c r="H196" s="75"/>
-      <c r="I196" s="75"/>
-      <c r="J196" s="75"/>
-      <c r="K196" s="75"/>
-      <c r="L196" s="75"/>
-      <c r="M196" s="75"/>
-      <c r="N196" s="75"/>
-      <c r="O196" s="75"/>
-      <c r="P196" s="75"/>
-      <c r="Q196" s="75"/>
-      <c r="R196" s="75"/>
-      <c r="S196" s="75"/>
-      <c r="T196" s="75"/>
-      <c r="U196" s="75"/>
-      <c r="V196" s="75"/>
-      <c r="W196" s="75"/>
-      <c r="X196" s="75"/>
-      <c r="Y196" s="75"/>
-      <c r="Z196" s="75"/>
-      <c r="AA196" s="75"/>
-      <c r="AB196" s="75"/>
-      <c r="AC196" s="75"/>
-      <c r="AD196" s="75"/>
-      <c r="AE196" s="75"/>
-      <c r="AF196" s="75"/>
+      <c r="D196" s="74"/>
+      <c r="E196" s="74"/>
+      <c r="F196" s="74"/>
+      <c r="G196" s="74"/>
+      <c r="H196" s="74"/>
+      <c r="I196" s="74"/>
+      <c r="J196" s="74"/>
+      <c r="K196" s="74"/>
+      <c r="L196" s="74"/>
+      <c r="M196" s="74"/>
+      <c r="N196" s="74"/>
+      <c r="O196" s="74"/>
+      <c r="P196" s="74"/>
+      <c r="Q196" s="74"/>
+      <c r="R196" s="74"/>
+      <c r="S196" s="74"/>
+      <c r="T196" s="74"/>
+      <c r="U196" s="74"/>
+      <c r="V196" s="74"/>
+      <c r="W196" s="74"/>
+      <c r="X196" s="74"/>
+      <c r="Y196" s="74"/>
+      <c r="Z196" s="74"/>
+      <c r="AA196" s="74"/>
+      <c r="AB196" s="74"/>
+      <c r="AC196" s="74"/>
+      <c r="AD196" s="74"/>
+      <c r="AE196" s="74"/>
+      <c r="AF196" s="74"/>
       <c r="AG196" s="75"/>
-      <c r="AH196" s="75"/>
-      <c r="AI196" s="75"/>
+      <c r="AH196" s="74"/>
+      <c r="AI196" s="74"/>
     </row>
     <row r="197" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="73"/>
-      <c r="B197" s="76"/>
+      <c r="A197" s="77"/>
+      <c r="B197" s="77"/>
       <c r="C197" s="74"/>
-      <c r="D197" s="74"/>
-      <c r="E197" s="74"/>
-      <c r="F197" s="74"/>
-      <c r="G197" s="74"/>
-      <c r="H197" s="74"/>
-      <c r="I197" s="74"/>
-      <c r="J197" s="74"/>
-      <c r="K197" s="74"/>
-      <c r="L197" s="74"/>
-      <c r="M197" s="74"/>
-      <c r="N197" s="74"/>
-      <c r="O197" s="74"/>
-      <c r="P197" s="74"/>
-      <c r="Q197" s="74"/>
-      <c r="R197" s="74"/>
-      <c r="S197" s="74"/>
+      <c r="D197" s="75"/>
+      <c r="E197" s="75"/>
+      <c r="F197" s="75"/>
+      <c r="G197" s="75"/>
+      <c r="H197" s="75"/>
+      <c r="I197" s="75"/>
+      <c r="J197" s="75"/>
+      <c r="K197" s="75"/>
+      <c r="L197" s="75"/>
+      <c r="M197" s="75"/>
+      <c r="N197" s="75"/>
+      <c r="O197" s="75"/>
+      <c r="P197" s="75"/>
+      <c r="Q197" s="75"/>
+      <c r="R197" s="75"/>
+      <c r="S197" s="75"/>
       <c r="T197" s="75"/>
-      <c r="U197" s="74"/>
-      <c r="V197" s="74"/>
-      <c r="W197" s="74"/>
-      <c r="X197" s="74"/>
-      <c r="Y197" s="74"/>
-      <c r="Z197" s="74"/>
-      <c r="AA197" s="74"/>
-      <c r="AB197" s="74"/>
-      <c r="AC197" s="74"/>
-      <c r="AD197" s="74"/>
-      <c r="AE197" s="74"/>
-      <c r="AF197" s="74"/>
+      <c r="U197" s="75"/>
+      <c r="V197" s="75"/>
+      <c r="W197" s="75"/>
+      <c r="X197" s="75"/>
+      <c r="Y197" s="75"/>
+      <c r="Z197" s="75"/>
+      <c r="AA197" s="75"/>
+      <c r="AB197" s="75"/>
+      <c r="AC197" s="75"/>
+      <c r="AD197" s="75"/>
+      <c r="AE197" s="75"/>
+      <c r="AF197" s="75"/>
       <c r="AG197" s="75"/>
-      <c r="AH197" s="74"/>
-      <c r="AI197" s="74"/>
+      <c r="AH197" s="75"/>
+      <c r="AI197" s="75"/>
     </row>
     <row r="198" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="73"/>
@@ -10004,41 +10034,41 @@
       <c r="AI201" s="74"/>
     </row>
     <row r="202" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="77"/>
-      <c r="B202" s="77"/>
-      <c r="C202" s="75"/>
-      <c r="D202" s="75"/>
-      <c r="E202" s="75"/>
-      <c r="F202" s="75"/>
-      <c r="G202" s="75"/>
-      <c r="H202" s="75"/>
-      <c r="I202" s="75"/>
-      <c r="J202" s="75"/>
-      <c r="K202" s="75"/>
-      <c r="L202" s="75"/>
-      <c r="M202" s="75"/>
-      <c r="N202" s="75"/>
-      <c r="O202" s="75"/>
-      <c r="P202" s="75"/>
-      <c r="Q202" s="75"/>
-      <c r="R202" s="75"/>
-      <c r="S202" s="75"/>
+      <c r="A202" s="73"/>
+      <c r="B202" s="76"/>
+      <c r="C202" s="74"/>
+      <c r="D202" s="74"/>
+      <c r="E202" s="74"/>
+      <c r="F202" s="74"/>
+      <c r="G202" s="74"/>
+      <c r="H202" s="74"/>
+      <c r="I202" s="74"/>
+      <c r="J202" s="74"/>
+      <c r="K202" s="74"/>
+      <c r="L202" s="74"/>
+      <c r="M202" s="74"/>
+      <c r="N202" s="74"/>
+      <c r="O202" s="74"/>
+      <c r="P202" s="74"/>
+      <c r="Q202" s="74"/>
+      <c r="R202" s="74"/>
+      <c r="S202" s="74"/>
       <c r="T202" s="75"/>
-      <c r="U202" s="75"/>
-      <c r="V202" s="75"/>
-      <c r="W202" s="75"/>
-      <c r="X202" s="75"/>
-      <c r="Y202" s="75"/>
-      <c r="Z202" s="75"/>
-      <c r="AA202" s="75"/>
-      <c r="AB202" s="75"/>
-      <c r="AC202" s="75"/>
-      <c r="AD202" s="75"/>
-      <c r="AE202" s="75"/>
-      <c r="AF202" s="75"/>
+      <c r="U202" s="74"/>
+      <c r="V202" s="74"/>
+      <c r="W202" s="74"/>
+      <c r="X202" s="74"/>
+      <c r="Y202" s="74"/>
+      <c r="Z202" s="74"/>
+      <c r="AA202" s="74"/>
+      <c r="AB202" s="74"/>
+      <c r="AC202" s="74"/>
+      <c r="AD202" s="74"/>
+      <c r="AE202" s="74"/>
+      <c r="AF202" s="74"/>
       <c r="AG202" s="75"/>
-      <c r="AH202" s="75"/>
-      <c r="AI202" s="75"/>
+      <c r="AH202" s="74"/>
+      <c r="AI202" s="74"/>
     </row>
     <row r="203" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="77"/>
@@ -10077,16 +10107,53 @@
       <c r="AH203" s="75"/>
       <c r="AI203" s="75"/>
     </row>
+    <row r="204" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="77"/>
+      <c r="B204" s="77"/>
+      <c r="C204" s="75"/>
+      <c r="D204" s="75"/>
+      <c r="E204" s="75"/>
+      <c r="F204" s="75"/>
+      <c r="G204" s="75"/>
+      <c r="H204" s="75"/>
+      <c r="I204" s="75"/>
+      <c r="J204" s="75"/>
+      <c r="K204" s="75"/>
+      <c r="L204" s="75"/>
+      <c r="M204" s="75"/>
+      <c r="N204" s="75"/>
+      <c r="O204" s="75"/>
+      <c r="P204" s="75"/>
+      <c r="Q204" s="75"/>
+      <c r="R204" s="75"/>
+      <c r="S204" s="75"/>
+      <c r="T204" s="75"/>
+      <c r="U204" s="75"/>
+      <c r="V204" s="75"/>
+      <c r="W204" s="75"/>
+      <c r="X204" s="75"/>
+      <c r="Y204" s="75"/>
+      <c r="Z204" s="75"/>
+      <c r="AA204" s="75"/>
+      <c r="AB204" s="75"/>
+      <c r="AC204" s="75"/>
+      <c r="AD204" s="75"/>
+      <c r="AE204" s="75"/>
+      <c r="AF204" s="75"/>
+      <c r="AG204" s="75"/>
+      <c r="AH204" s="75"/>
+      <c r="AI204" s="75"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 E132:E155 I157:I203 I131:I132 I136:I155 I111:I125 D126:E130 D22:E109">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 E133:E156 I158:I204 I132:I133 I137:I156 I112:I126 D127:E131 D22:E110">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J21">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A157:A182 A132:A155">
+    <dataValidation type="list" allowBlank="1" sqref="A158:A183 A133:A156">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10102,9 +10169,9 @@
   </sheetPr>
   <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10174,13 +10241,13 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="52" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>204</v>
+        <v>493</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
@@ -10198,13 +10265,13 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="52" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>205</v>
+        <v>491</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>206</v>
+        <v>494</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -10222,29 +10289,29 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>208</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="52" t="s">
-        <v>202</v>
+        <v>490</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>209</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>56</v>
@@ -10255,7 +10322,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>57</v>
@@ -10266,145 +10333,145 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="67" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="67" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="67" t="s">
         <v>315</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>323</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="67" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="67" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="52" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="52"/>
@@ -10431,13 +10498,13 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="52" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D23" s="52"/>
       <c r="E23" s="52"/>
@@ -10464,7 +10531,7 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>53</v>
@@ -10496,24 +10563,48 @@
       <c r="Y24" s="52"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
+      <c r="A26" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
@@ -10925,14 +11016,14 @@
         <v>166</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.702106365738</v>
+        <v>44136.713412500001</v>
       </c>
       <c r="D2" s="84" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="505">
   <si>
     <t>list_name</t>
   </si>
@@ -1519,6 +1519,33 @@
   </si>
   <si>
     <t>Partial genome sequencing</t>
+  </si>
+  <si>
+    <t>select_one isolation_area</t>
+  </si>
+  <si>
+    <t>isolation_area</t>
+  </si>
+  <si>
+    <t>Isolation location</t>
+  </si>
+  <si>
+    <t>${case_isolation} = 'yes'</t>
+  </si>
+  <si>
+    <t>lgh</t>
+  </si>
+  <si>
+    <t>Luisa Guidotti Hospital Quarantine</t>
+  </si>
+  <si>
+    <t>Patient's Home</t>
+  </si>
+  <si>
+    <t>lgh_home</t>
+  </si>
+  <si>
+    <t>Luisa Guidotti Hospital Residence</t>
   </si>
 </sst>
 </file>
@@ -2211,13 +2238,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ204"/>
+  <dimension ref="A1:AJ205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomRight" activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7052,9 +7079,13 @@
       <c r="C130" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="D130" s="40"/>
+      <c r="D130" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E130" s="40"/>
-      <c r="F130" s="40"/>
+      <c r="F130" s="40" t="s">
+        <v>499</v>
+      </c>
       <c r="G130" s="40"/>
       <c r="H130" s="40"/>
       <c r="I130" s="40"/>
@@ -7078,16 +7109,22 @@
       <c r="AA130" s="41"/>
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="B131" s="42" t="s">
-        <v>466</v>
-      </c>
-      <c r="C131" s="51"/>
-      <c r="D131" s="40"/>
+      <c r="A131" s="50" t="s">
+        <v>496</v>
+      </c>
+      <c r="B131" s="50" t="s">
+        <v>497</v>
+      </c>
+      <c r="C131" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="D131" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E131" s="40"/>
-      <c r="F131" s="40"/>
+      <c r="F131" s="40" t="s">
+        <v>499</v>
+      </c>
       <c r="G131" s="40"/>
       <c r="H131" s="40"/>
       <c r="I131" s="40"/>
@@ -7110,110 +7147,96 @@
       <c r="Z131" s="41"/>
       <c r="AA131" s="41"/>
     </row>
-    <row r="132" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="54"/>
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="54"/>
-      <c r="L132" s="54"/>
-      <c r="M132" s="54"/>
-      <c r="N132" s="54"/>
-      <c r="O132" s="54"/>
-      <c r="P132" s="54"/>
-      <c r="Q132" s="54"/>
-      <c r="R132" s="54"/>
-      <c r="S132" s="54"/>
-      <c r="T132" s="54"/>
-      <c r="U132" s="54"/>
-      <c r="V132" s="54"/>
-      <c r="W132" s="54"/>
-      <c r="X132" s="54"/>
-      <c r="Y132" s="54"/>
-      <c r="Z132" s="54"/>
-      <c r="AA132" s="54"/>
-      <c r="AB132" s="54"/>
-      <c r="AC132" s="54"/>
-      <c r="AD132" s="54"/>
-      <c r="AE132" s="54"/>
-      <c r="AF132" s="54"/>
-      <c r="AG132" s="54"/>
-      <c r="AH132" s="54"/>
-      <c r="AI132" s="54"/>
-    </row>
-    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="B133" s="78" t="s">
-        <v>387</v>
-      </c>
-      <c r="C133" s="51" t="s">
-        <v>388</v>
-      </c>
-      <c r="D133" s="40"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="56" t="s">
-        <v>378</v>
-      </c>
-      <c r="G133" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H133" s="40"/>
-      <c r="I133" s="56"/>
-      <c r="J133" s="56"/>
-      <c r="K133" s="56"/>
-      <c r="L133" s="51"/>
-      <c r="M133" s="51"/>
-      <c r="N133" s="51"/>
-      <c r="O133" s="51"/>
-      <c r="P133" s="51"/>
-      <c r="Q133" s="51"/>
-      <c r="R133" s="51"/>
-      <c r="S133" s="51"/>
-      <c r="T133" s="51"/>
-      <c r="U133" s="56"/>
-      <c r="V133" s="51"/>
-      <c r="W133" s="56"/>
-      <c r="X133" s="56"/>
-      <c r="Y133" s="56"/>
-      <c r="Z133" s="56"/>
-      <c r="AA133" s="56"/>
-      <c r="AB133" s="56"/>
-      <c r="AC133" s="56"/>
-      <c r="AD133" s="56"/>
-      <c r="AE133" s="56"/>
-      <c r="AF133" s="56"/>
-      <c r="AG133" s="56"/>
-      <c r="AH133" s="56"/>
-      <c r="AI133" s="56"/>
+    <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="B132" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="C132" s="51"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="40"/>
+      <c r="F132" s="40"/>
+      <c r="G132" s="40"/>
+      <c r="H132" s="40"/>
+      <c r="I132" s="40"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="40"/>
+      <c r="L132" s="40"/>
+      <c r="M132" s="40"/>
+      <c r="N132" s="40"/>
+      <c r="O132" s="40"/>
+      <c r="P132" s="40"/>
+      <c r="Q132" s="40"/>
+      <c r="R132" s="40"/>
+      <c r="S132" s="41"/>
+      <c r="T132" s="41"/>
+      <c r="U132" s="41"/>
+      <c r="V132" s="41"/>
+      <c r="W132" s="41"/>
+      <c r="X132" s="41"/>
+      <c r="Y132" s="41"/>
+      <c r="Z132" s="41"/>
+      <c r="AA132" s="41"/>
+    </row>
+    <row r="133" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="54"/>
+      <c r="B133" s="54"/>
+      <c r="C133" s="54"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="54"/>
+      <c r="G133" s="54"/>
+      <c r="H133" s="54"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="54"/>
+      <c r="L133" s="54"/>
+      <c r="M133" s="54"/>
+      <c r="N133" s="54"/>
+      <c r="O133" s="54"/>
+      <c r="P133" s="54"/>
+      <c r="Q133" s="54"/>
+      <c r="R133" s="54"/>
+      <c r="S133" s="54"/>
+      <c r="T133" s="54"/>
+      <c r="U133" s="54"/>
+      <c r="V133" s="54"/>
+      <c r="W133" s="54"/>
+      <c r="X133" s="54"/>
+      <c r="Y133" s="54"/>
+      <c r="Z133" s="54"/>
+      <c r="AA133" s="54"/>
+      <c r="AB133" s="54"/>
+      <c r="AC133" s="54"/>
+      <c r="AD133" s="54"/>
+      <c r="AE133" s="54"/>
+      <c r="AF133" s="54"/>
+      <c r="AG133" s="54"/>
+      <c r="AH133" s="54"/>
+      <c r="AI133" s="54"/>
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="78" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="B134" s="78" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C134" s="51" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D134" s="40"/>
-      <c r="E134" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="F134" s="56"/>
-      <c r="G134" s="40"/>
+      <c r="E134" s="56"/>
+      <c r="F134" s="56" t="s">
+        <v>378</v>
+      </c>
+      <c r="G134" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H134" s="40"/>
-      <c r="I134" s="51" t="s">
-        <v>391</v>
-      </c>
+      <c r="I134" s="56"/>
       <c r="J134" s="56"/>
       <c r="K134" s="56"/>
       <c r="L134" s="51"/>
@@ -7243,13 +7266,13 @@
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="78" t="s">
-        <v>392</v>
+        <v>192</v>
       </c>
       <c r="B135" s="78" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C135" s="51" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D135" s="40"/>
       <c r="E135" s="56" t="s">
@@ -7258,10 +7281,12 @@
       <c r="F135" s="56"/>
       <c r="G135" s="40"/>
       <c r="H135" s="40"/>
-      <c r="I135" s="56"/>
+      <c r="I135" s="51" t="s">
+        <v>391</v>
+      </c>
       <c r="J135" s="56"/>
       <c r="K135" s="56"/>
-      <c r="L135" s="56"/>
+      <c r="L135" s="51"/>
       <c r="M135" s="51"/>
       <c r="N135" s="51"/>
       <c r="O135" s="51"/>
@@ -7288,24 +7313,22 @@
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="78" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B136" s="78" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C136" s="51" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D136" s="40"/>
       <c r="E136" s="56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F136" s="56"/>
       <c r="G136" s="40"/>
       <c r="H136" s="40"/>
-      <c r="I136" s="56" t="s">
-        <v>398</v>
-      </c>
+      <c r="I136" s="56"/>
       <c r="J136" s="56"/>
       <c r="K136" s="56"/>
       <c r="L136" s="56"/>
@@ -7335,20 +7358,24 @@
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="78" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="B137" s="78" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C137" s="51" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D137" s="40"/>
-      <c r="E137" s="56"/>
+      <c r="E137" s="56" t="s">
+        <v>57</v>
+      </c>
       <c r="F137" s="56"/>
       <c r="G137" s="40"/>
       <c r="H137" s="40"/>
-      <c r="I137" s="56"/>
+      <c r="I137" s="56" t="s">
+        <v>398</v>
+      </c>
       <c r="J137" s="56"/>
       <c r="K137" s="56"/>
       <c r="L137" s="56"/>
@@ -7377,36 +7404,34 @@
       <c r="AI137" s="56"/>
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="B138" s="79" t="s">
-        <v>402</v>
-      </c>
-      <c r="C138" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="D138" s="56"/>
+      <c r="A138" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="B138" s="78" t="s">
+        <v>399</v>
+      </c>
+      <c r="C138" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="D138" s="40"/>
       <c r="E138" s="56"/>
-      <c r="F138" s="56" t="s">
-        <v>401</v>
-      </c>
-      <c r="G138" s="56"/>
-      <c r="H138" s="56"/>
+      <c r="F138" s="56"/>
+      <c r="G138" s="40"/>
+      <c r="H138" s="40"/>
       <c r="I138" s="56"/>
-      <c r="J138" s="80"/>
+      <c r="J138" s="56"/>
       <c r="K138" s="56"/>
       <c r="L138" s="56"/>
-      <c r="M138" s="56"/>
-      <c r="N138" s="56"/>
-      <c r="O138" s="80"/>
-      <c r="P138" s="56"/>
-      <c r="Q138" s="56"/>
-      <c r="R138" s="56"/>
-      <c r="S138" s="56"/>
-      <c r="T138" s="56"/>
+      <c r="M138" s="51"/>
+      <c r="N138" s="51"/>
+      <c r="O138" s="51"/>
+      <c r="P138" s="51"/>
+      <c r="Q138" s="51"/>
+      <c r="R138" s="51"/>
+      <c r="S138" s="51"/>
+      <c r="T138" s="51"/>
       <c r="U138" s="56"/>
-      <c r="V138" s="56"/>
+      <c r="V138" s="51"/>
       <c r="W138" s="56"/>
       <c r="X138" s="56"/>
       <c r="Y138" s="56"/>
@@ -7415,83 +7440,83 @@
       <c r="AB138" s="56"/>
       <c r="AC138" s="56"/>
       <c r="AD138" s="56"/>
-      <c r="AE138" s="56" t="s">
-        <v>39</v>
-      </c>
+      <c r="AE138" s="56"/>
       <c r="AF138" s="56"/>
       <c r="AG138" s="56"/>
-      <c r="AH138" s="81" t="s">
-        <v>403</v>
-      </c>
+      <c r="AH138" s="56"/>
       <c r="AI138" s="56"/>
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="79" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B139" s="79" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C139" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D139" s="56"/>
-      <c r="E139" s="80"/>
-      <c r="F139" s="56"/>
+      <c r="E139" s="56"/>
+      <c r="F139" s="56" t="s">
+        <v>401</v>
+      </c>
       <c r="G139" s="56"/>
       <c r="H139" s="56"/>
-      <c r="I139" s="80"/>
+      <c r="I139" s="56"/>
       <c r="J139" s="80"/>
-      <c r="K139" s="80" t="s">
-        <v>405</v>
-      </c>
-      <c r="L139" s="80"/>
-      <c r="M139" s="80"/>
+      <c r="K139" s="56"/>
+      <c r="L139" s="56"/>
+      <c r="M139" s="56"/>
       <c r="N139" s="56"/>
-      <c r="O139" s="56"/>
+      <c r="O139" s="80"/>
       <c r="P139" s="56"/>
       <c r="Q139" s="56"/>
       <c r="R139" s="56"/>
       <c r="S139" s="56"/>
-      <c r="T139" s="80"/>
-      <c r="U139" s="80"/>
-      <c r="V139" s="80"/>
-      <c r="W139" s="80"/>
-      <c r="X139" s="80"/>
-      <c r="Y139" s="80"/>
-      <c r="Z139" s="80"/>
-      <c r="AA139" s="80"/>
-      <c r="AB139" s="80"/>
-      <c r="AC139" s="80"/>
-      <c r="AD139" s="80"/>
-      <c r="AE139" s="80"/>
-      <c r="AF139" s="80"/>
-      <c r="AG139" s="80"/>
-      <c r="AH139" s="80"/>
-      <c r="AI139" s="80"/>
+      <c r="T139" s="56"/>
+      <c r="U139" s="56"/>
+      <c r="V139" s="56"/>
+      <c r="W139" s="56"/>
+      <c r="X139" s="56"/>
+      <c r="Y139" s="56"/>
+      <c r="Z139" s="56"/>
+      <c r="AA139" s="56"/>
+      <c r="AB139" s="56"/>
+      <c r="AC139" s="56"/>
+      <c r="AD139" s="56"/>
+      <c r="AE139" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF139" s="56"/>
+      <c r="AG139" s="56"/>
+      <c r="AH139" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="AI139" s="56"/>
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B140" s="79" t="s">
-        <v>1</v>
+        <v>404</v>
       </c>
       <c r="C140" s="80" t="s">
-        <v>406</v>
+        <v>35</v>
       </c>
       <c r="D140" s="56"/>
-      <c r="E140" s="56"/>
+      <c r="E140" s="80"/>
       <c r="F140" s="56"/>
       <c r="G140" s="56"/>
       <c r="H140" s="56"/>
-      <c r="I140" s="56"/>
-      <c r="J140" s="56"/>
+      <c r="I140" s="80"/>
+      <c r="J140" s="80"/>
       <c r="K140" s="80" t="s">
-        <v>407</v>
-      </c>
-      <c r="L140" s="56"/>
-      <c r="M140" s="56"/>
+        <v>405</v>
+      </c>
+      <c r="L140" s="80"/>
+      <c r="M140" s="80"/>
       <c r="N140" s="56"/>
       <c r="O140" s="56"/>
       <c r="P140" s="56"/>
@@ -7499,31 +7524,31 @@
       <c r="R140" s="56"/>
       <c r="S140" s="56"/>
       <c r="T140" s="80"/>
-      <c r="U140" s="56"/>
-      <c r="V140" s="56"/>
-      <c r="W140" s="56"/>
-      <c r="X140" s="56"/>
-      <c r="Y140" s="56"/>
-      <c r="Z140" s="56"/>
-      <c r="AA140" s="56"/>
-      <c r="AB140" s="56"/>
-      <c r="AC140" s="56"/>
-      <c r="AD140" s="56"/>
-      <c r="AE140" s="56"/>
-      <c r="AF140" s="56"/>
-      <c r="AG140" s="56"/>
-      <c r="AH140" s="56"/>
-      <c r="AI140" s="56"/>
+      <c r="U140" s="80"/>
+      <c r="V140" s="80"/>
+      <c r="W140" s="80"/>
+      <c r="X140" s="80"/>
+      <c r="Y140" s="80"/>
+      <c r="Z140" s="80"/>
+      <c r="AA140" s="80"/>
+      <c r="AB140" s="80"/>
+      <c r="AC140" s="80"/>
+      <c r="AD140" s="80"/>
+      <c r="AE140" s="80"/>
+      <c r="AF140" s="80"/>
+      <c r="AG140" s="80"/>
+      <c r="AH140" s="80"/>
+      <c r="AI140" s="80"/>
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B141" s="79" t="s">
-        <v>408</v>
+        <v>1</v>
       </c>
       <c r="C141" s="80" t="s">
-        <v>35</v>
+        <v>406</v>
       </c>
       <c r="D141" s="56"/>
       <c r="E141" s="56"/>
@@ -7533,7 +7558,7 @@
       <c r="I141" s="56"/>
       <c r="J141" s="56"/>
       <c r="K141" s="80" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L141" s="56"/>
       <c r="M141" s="56"/>
@@ -7544,50 +7569,50 @@
       <c r="R141" s="56"/>
       <c r="S141" s="56"/>
       <c r="T141" s="80"/>
-      <c r="U141" s="80"/>
-      <c r="V141" s="80"/>
-      <c r="W141" s="80"/>
-      <c r="X141" s="80"/>
-      <c r="Y141" s="80"/>
-      <c r="Z141" s="80"/>
-      <c r="AA141" s="80"/>
-      <c r="AB141" s="80"/>
-      <c r="AC141" s="80"/>
-      <c r="AD141" s="80"/>
-      <c r="AE141" s="80"/>
-      <c r="AF141" s="80"/>
-      <c r="AG141" s="80"/>
-      <c r="AH141" s="80"/>
-      <c r="AI141" s="80"/>
+      <c r="U141" s="56"/>
+      <c r="V141" s="56"/>
+      <c r="W141" s="56"/>
+      <c r="X141" s="56"/>
+      <c r="Y141" s="56"/>
+      <c r="Z141" s="56"/>
+      <c r="AA141" s="56"/>
+      <c r="AB141" s="56"/>
+      <c r="AC141" s="56"/>
+      <c r="AD141" s="56"/>
+      <c r="AE141" s="56"/>
+      <c r="AF141" s="56"/>
+      <c r="AG141" s="56"/>
+      <c r="AH141" s="56"/>
+      <c r="AI141" s="56"/>
     </row>
     <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B142" s="79" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C142" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D142" s="56"/>
-      <c r="E142" s="80"/>
+      <c r="E142" s="56"/>
       <c r="F142" s="56"/>
       <c r="G142" s="56"/>
       <c r="H142" s="56"/>
-      <c r="I142" s="80"/>
-      <c r="J142" s="80"/>
+      <c r="I142" s="56"/>
+      <c r="J142" s="56"/>
       <c r="K142" s="80" t="s">
-        <v>411</v>
-      </c>
-      <c r="L142" s="80"/>
-      <c r="M142" s="80"/>
-      <c r="N142" s="80"/>
-      <c r="O142" s="80"/>
-      <c r="P142" s="80"/>
-      <c r="Q142" s="80"/>
-      <c r="R142" s="80"/>
-      <c r="S142" s="80"/>
+        <v>409</v>
+      </c>
+      <c r="L142" s="56"/>
+      <c r="M142" s="56"/>
+      <c r="N142" s="56"/>
+      <c r="O142" s="56"/>
+      <c r="P142" s="56"/>
+      <c r="Q142" s="56"/>
+      <c r="R142" s="56"/>
+      <c r="S142" s="56"/>
       <c r="T142" s="80"/>
       <c r="U142" s="80"/>
       <c r="V142" s="80"/>
@@ -7607,98 +7632,98 @@
     </row>
     <row r="143" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="79" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B143" s="79" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C143" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D143" s="56"/>
-      <c r="E143" s="56"/>
+      <c r="E143" s="80"/>
       <c r="F143" s="56"/>
       <c r="G143" s="56"/>
       <c r="H143" s="56"/>
-      <c r="I143" s="56"/>
-      <c r="J143" s="56"/>
-      <c r="K143" s="56"/>
-      <c r="L143" s="56"/>
-      <c r="M143" s="56"/>
-      <c r="N143" s="56"/>
-      <c r="O143" s="56"/>
-      <c r="P143" s="56"/>
-      <c r="Q143" s="56"/>
-      <c r="R143" s="56"/>
-      <c r="S143" s="56"/>
-      <c r="T143" s="56"/>
-      <c r="U143" s="56"/>
-      <c r="V143" s="56"/>
-      <c r="W143" s="56"/>
-      <c r="X143" s="56"/>
-      <c r="Y143" s="56"/>
-      <c r="Z143" s="56"/>
-      <c r="AA143" s="56"/>
-      <c r="AB143" s="56"/>
-      <c r="AC143" s="56"/>
-      <c r="AD143" s="56"/>
-      <c r="AE143" s="56"/>
-      <c r="AF143" s="56"/>
-      <c r="AG143" s="56"/>
-      <c r="AH143" s="56"/>
-      <c r="AI143" s="56"/>
+      <c r="I143" s="80"/>
+      <c r="J143" s="80"/>
+      <c r="K143" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="L143" s="80"/>
+      <c r="M143" s="80"/>
+      <c r="N143" s="80"/>
+      <c r="O143" s="80"/>
+      <c r="P143" s="80"/>
+      <c r="Q143" s="80"/>
+      <c r="R143" s="80"/>
+      <c r="S143" s="80"/>
+      <c r="T143" s="80"/>
+      <c r="U143" s="80"/>
+      <c r="V143" s="80"/>
+      <c r="W143" s="80"/>
+      <c r="X143" s="80"/>
+      <c r="Y143" s="80"/>
+      <c r="Z143" s="80"/>
+      <c r="AA143" s="80"/>
+      <c r="AB143" s="80"/>
+      <c r="AC143" s="80"/>
+      <c r="AD143" s="80"/>
+      <c r="AE143" s="80"/>
+      <c r="AF143" s="80"/>
+      <c r="AG143" s="80"/>
+      <c r="AH143" s="80"/>
+      <c r="AI143" s="80"/>
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="79" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B144" s="79" t="s">
-        <v>48</v>
+        <v>412</v>
       </c>
       <c r="C144" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D144" s="80"/>
-      <c r="E144" s="80"/>
-      <c r="F144" s="80"/>
-      <c r="G144" s="80"/>
-      <c r="H144" s="80"/>
-      <c r="I144" s="80"/>
-      <c r="J144" s="80"/>
-      <c r="K144" s="80" t="s">
-        <v>413</v>
-      </c>
-      <c r="L144" s="80"/>
-      <c r="M144" s="80"/>
-      <c r="N144" s="80"/>
-      <c r="O144" s="80"/>
-      <c r="P144" s="80"/>
-      <c r="Q144" s="80"/>
-      <c r="R144" s="80"/>
-      <c r="S144" s="80"/>
-      <c r="T144" s="80"/>
-      <c r="U144" s="80"/>
-      <c r="V144" s="80"/>
-      <c r="W144" s="80"/>
-      <c r="X144" s="80"/>
-      <c r="Y144" s="80"/>
-      <c r="Z144" s="80"/>
-      <c r="AA144" s="80"/>
-      <c r="AB144" s="80"/>
-      <c r="AC144" s="80"/>
-      <c r="AD144" s="80"/>
-      <c r="AE144" s="80"/>
-      <c r="AF144" s="80"/>
-      <c r="AG144" s="80"/>
-      <c r="AH144" s="80"/>
-      <c r="AI144" s="80"/>
+      <c r="D144" s="56"/>
+      <c r="E144" s="56"/>
+      <c r="F144" s="56"/>
+      <c r="G144" s="56"/>
+      <c r="H144" s="56"/>
+      <c r="I144" s="56"/>
+      <c r="J144" s="56"/>
+      <c r="K144" s="56"/>
+      <c r="L144" s="56"/>
+      <c r="M144" s="56"/>
+      <c r="N144" s="56"/>
+      <c r="O144" s="56"/>
+      <c r="P144" s="56"/>
+      <c r="Q144" s="56"/>
+      <c r="R144" s="56"/>
+      <c r="S144" s="56"/>
+      <c r="T144" s="56"/>
+      <c r="U144" s="56"/>
+      <c r="V144" s="56"/>
+      <c r="W144" s="56"/>
+      <c r="X144" s="56"/>
+      <c r="Y144" s="56"/>
+      <c r="Z144" s="56"/>
+      <c r="AA144" s="56"/>
+      <c r="AB144" s="56"/>
+      <c r="AC144" s="56"/>
+      <c r="AD144" s="56"/>
+      <c r="AE144" s="56"/>
+      <c r="AF144" s="56"/>
+      <c r="AG144" s="56"/>
+      <c r="AH144" s="56"/>
+      <c r="AI144" s="56"/>
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="79" t="s">
         <v>95</v>
       </c>
       <c r="B145" s="79" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="C145" s="80" t="s">
         <v>35</v>
@@ -7711,7 +7736,7 @@
       <c r="I145" s="80"/>
       <c r="J145" s="80"/>
       <c r="K145" s="80" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L145" s="80"/>
       <c r="M145" s="80"/>
@@ -7740,53 +7765,55 @@
     </row>
     <row r="146" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="79" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B146" s="79" t="s">
-        <v>415</v>
+        <v>164</v>
       </c>
       <c r="C146" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="D146" s="56"/>
-      <c r="E146" s="56"/>
-      <c r="F146" s="56"/>
-      <c r="G146" s="56"/>
-      <c r="H146" s="56"/>
-      <c r="I146" s="56"/>
-      <c r="J146" s="56"/>
-      <c r="K146" s="56"/>
-      <c r="L146" s="56"/>
-      <c r="M146" s="56"/>
-      <c r="N146" s="56"/>
-      <c r="O146" s="56"/>
-      <c r="P146" s="56"/>
-      <c r="Q146" s="56"/>
-      <c r="R146" s="56"/>
-      <c r="S146" s="56"/>
-      <c r="T146" s="56"/>
-      <c r="U146" s="56"/>
-      <c r="V146" s="56"/>
-      <c r="W146" s="56"/>
-      <c r="X146" s="56"/>
-      <c r="Y146" s="56"/>
-      <c r="Z146" s="56"/>
-      <c r="AA146" s="56"/>
-      <c r="AB146" s="56"/>
-      <c r="AC146" s="56"/>
-      <c r="AD146" s="56"/>
-      <c r="AE146" s="56"/>
-      <c r="AF146" s="56"/>
-      <c r="AG146" s="56"/>
-      <c r="AH146" s="56"/>
-      <c r="AI146" s="56"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="80"/>
+      <c r="F146" s="80"/>
+      <c r="G146" s="80"/>
+      <c r="H146" s="80"/>
+      <c r="I146" s="80"/>
+      <c r="J146" s="80"/>
+      <c r="K146" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="L146" s="80"/>
+      <c r="M146" s="80"/>
+      <c r="N146" s="80"/>
+      <c r="O146" s="80"/>
+      <c r="P146" s="80"/>
+      <c r="Q146" s="80"/>
+      <c r="R146" s="80"/>
+      <c r="S146" s="80"/>
+      <c r="T146" s="80"/>
+      <c r="U146" s="80"/>
+      <c r="V146" s="80"/>
+      <c r="W146" s="80"/>
+      <c r="X146" s="80"/>
+      <c r="Y146" s="80"/>
+      <c r="Z146" s="80"/>
+      <c r="AA146" s="80"/>
+      <c r="AB146" s="80"/>
+      <c r="AC146" s="80"/>
+      <c r="AD146" s="80"/>
+      <c r="AE146" s="80"/>
+      <c r="AF146" s="80"/>
+      <c r="AG146" s="80"/>
+      <c r="AH146" s="80"/>
+      <c r="AI146" s="80"/>
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="79" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B147" s="79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C147" s="80" t="s">
         <v>35</v>
@@ -7798,9 +7825,7 @@
       <c r="H147" s="56"/>
       <c r="I147" s="56"/>
       <c r="J147" s="56"/>
-      <c r="K147" s="80" t="s">
-        <v>417</v>
-      </c>
+      <c r="K147" s="56"/>
       <c r="L147" s="56"/>
       <c r="M147" s="56"/>
       <c r="N147" s="56"/>
@@ -7809,7 +7834,7 @@
       <c r="Q147" s="56"/>
       <c r="R147" s="56"/>
       <c r="S147" s="56"/>
-      <c r="T147" s="80"/>
+      <c r="T147" s="56"/>
       <c r="U147" s="56"/>
       <c r="V147" s="56"/>
       <c r="W147" s="56"/>
@@ -7831,7 +7856,7 @@
         <v>95</v>
       </c>
       <c r="B148" s="79" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C148" s="80" t="s">
         <v>35</v>
@@ -7844,7 +7869,7 @@
       <c r="I148" s="56"/>
       <c r="J148" s="56"/>
       <c r="K148" s="80" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="L148" s="56"/>
       <c r="M148" s="56"/>
@@ -7876,7 +7901,7 @@
         <v>95</v>
       </c>
       <c r="B149" s="79" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C149" s="80" t="s">
         <v>35</v>
@@ -7889,7 +7914,7 @@
       <c r="I149" s="56"/>
       <c r="J149" s="56"/>
       <c r="K149" s="80" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L149" s="56"/>
       <c r="M149" s="56"/>
@@ -7921,84 +7946,90 @@
         <v>95</v>
       </c>
       <c r="B150" s="79" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C150" s="80" t="s">
         <v>35</v>
       </c>
       <c r="D150" s="56"/>
-      <c r="E150" s="80"/>
+      <c r="E150" s="56"/>
       <c r="F150" s="56"/>
       <c r="G150" s="56"/>
       <c r="H150" s="56"/>
-      <c r="I150" s="80"/>
-      <c r="J150" s="80"/>
+      <c r="I150" s="56"/>
+      <c r="J150" s="56"/>
       <c r="K150" s="80" t="s">
-        <v>423</v>
-      </c>
-      <c r="L150" s="80"/>
-      <c r="M150" s="80"/>
-      <c r="N150" s="80"/>
-      <c r="O150" s="80"/>
-      <c r="P150" s="80"/>
-      <c r="Q150" s="80"/>
-      <c r="R150" s="80"/>
-      <c r="S150" s="80"/>
+        <v>421</v>
+      </c>
+      <c r="L150" s="56"/>
+      <c r="M150" s="56"/>
+      <c r="N150" s="56"/>
+      <c r="O150" s="56"/>
+      <c r="P150" s="56"/>
+      <c r="Q150" s="56"/>
+      <c r="R150" s="56"/>
+      <c r="S150" s="56"/>
       <c r="T150" s="80"/>
-      <c r="U150" s="80"/>
-      <c r="V150" s="80"/>
-      <c r="W150" s="80"/>
-      <c r="X150" s="80"/>
-      <c r="Y150" s="80"/>
-      <c r="Z150" s="80"/>
-      <c r="AA150" s="80"/>
-      <c r="AB150" s="80"/>
-      <c r="AC150" s="80"/>
-      <c r="AD150" s="80"/>
-      <c r="AE150" s="80"/>
-      <c r="AF150" s="80"/>
-      <c r="AG150" s="80"/>
-      <c r="AH150" s="80"/>
-      <c r="AI150" s="80"/>
+      <c r="U150" s="56"/>
+      <c r="V150" s="56"/>
+      <c r="W150" s="56"/>
+      <c r="X150" s="56"/>
+      <c r="Y150" s="56"/>
+      <c r="Z150" s="56"/>
+      <c r="AA150" s="56"/>
+      <c r="AB150" s="56"/>
+      <c r="AC150" s="56"/>
+      <c r="AD150" s="56"/>
+      <c r="AE150" s="56"/>
+      <c r="AF150" s="56"/>
+      <c r="AG150" s="56"/>
+      <c r="AH150" s="56"/>
+      <c r="AI150" s="56"/>
     </row>
     <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B151" s="79"/>
-      <c r="C151" s="56"/>
+        <v>95</v>
+      </c>
+      <c r="B151" s="79" t="s">
+        <v>422</v>
+      </c>
+      <c r="C151" s="80" t="s">
+        <v>35</v>
+      </c>
       <c r="D151" s="56"/>
-      <c r="E151" s="56"/>
+      <c r="E151" s="80"/>
       <c r="F151" s="56"/>
       <c r="G151" s="56"/>
       <c r="H151" s="56"/>
-      <c r="I151" s="56"/>
-      <c r="J151" s="56"/>
-      <c r="K151" s="56"/>
-      <c r="L151" s="56"/>
-      <c r="M151" s="56"/>
-      <c r="N151" s="56"/>
-      <c r="O151" s="56"/>
-      <c r="P151" s="56"/>
-      <c r="Q151" s="56"/>
-      <c r="R151" s="56"/>
-      <c r="S151" s="56"/>
-      <c r="T151" s="56"/>
-      <c r="U151" s="56"/>
-      <c r="V151" s="56"/>
-      <c r="W151" s="56"/>
-      <c r="X151" s="56"/>
-      <c r="Y151" s="56"/>
-      <c r="Z151" s="56"/>
-      <c r="AA151" s="56"/>
-      <c r="AB151" s="56"/>
-      <c r="AC151" s="56"/>
-      <c r="AD151" s="56"/>
-      <c r="AE151" s="56"/>
-      <c r="AF151" s="56"/>
-      <c r="AG151" s="56"/>
-      <c r="AH151" s="56"/>
-      <c r="AI151" s="56"/>
+      <c r="I151" s="80"/>
+      <c r="J151" s="80"/>
+      <c r="K151" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="L151" s="80"/>
+      <c r="M151" s="80"/>
+      <c r="N151" s="80"/>
+      <c r="O151" s="80"/>
+      <c r="P151" s="80"/>
+      <c r="Q151" s="80"/>
+      <c r="R151" s="80"/>
+      <c r="S151" s="80"/>
+      <c r="T151" s="80"/>
+      <c r="U151" s="80"/>
+      <c r="V151" s="80"/>
+      <c r="W151" s="80"/>
+      <c r="X151" s="80"/>
+      <c r="Y151" s="80"/>
+      <c r="Z151" s="80"/>
+      <c r="AA151" s="80"/>
+      <c r="AB151" s="80"/>
+      <c r="AC151" s="80"/>
+      <c r="AD151" s="80"/>
+      <c r="AE151" s="80"/>
+      <c r="AF151" s="80"/>
+      <c r="AG151" s="80"/>
+      <c r="AH151" s="80"/>
+      <c r="AI151" s="80"/>
     </row>
     <row r="152" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="79" t="s">
@@ -8079,15 +8110,11 @@
       <c r="AI153" s="56"/>
     </row>
     <row r="154" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="82" t="s">
-        <v>95</v>
-      </c>
-      <c r="B154" s="82" t="s">
-        <v>424</v>
-      </c>
-      <c r="C154" s="56" t="s">
-        <v>35</v>
-      </c>
+      <c r="A154" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="B154" s="79"/>
+      <c r="C154" s="56"/>
       <c r="D154" s="56"/>
       <c r="E154" s="56"/>
       <c r="F154" s="56"/>
@@ -8095,9 +8122,7 @@
       <c r="H154" s="56"/>
       <c r="I154" s="56"/>
       <c r="J154" s="56"/>
-      <c r="K154" s="56" t="s">
-        <v>425</v>
-      </c>
+      <c r="K154" s="56"/>
       <c r="L154" s="56"/>
       <c r="M154" s="56"/>
       <c r="N154" s="56"/>
@@ -8124,30 +8149,36 @@
       <c r="AI154" s="56"/>
     </row>
     <row r="155" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B155" s="78"/>
-      <c r="C155" s="51"/>
-      <c r="D155" s="40"/>
+      <c r="A155" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B155" s="82" t="s">
+        <v>424</v>
+      </c>
+      <c r="C155" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D155" s="56"/>
       <c r="E155" s="56"/>
-      <c r="F155" s="40"/>
-      <c r="G155" s="40"/>
-      <c r="H155" s="40"/>
+      <c r="F155" s="56"/>
+      <c r="G155" s="56"/>
+      <c r="H155" s="56"/>
       <c r="I155" s="56"/>
       <c r="J155" s="56"/>
-      <c r="K155" s="56"/>
+      <c r="K155" s="56" t="s">
+        <v>425</v>
+      </c>
       <c r="L155" s="56"/>
-      <c r="M155" s="51"/>
-      <c r="N155" s="51"/>
-      <c r="O155" s="51"/>
-      <c r="P155" s="51"/>
-      <c r="Q155" s="51"/>
-      <c r="R155" s="51"/>
-      <c r="S155" s="51"/>
-      <c r="T155" s="51"/>
+      <c r="M155" s="56"/>
+      <c r="N155" s="56"/>
+      <c r="O155" s="56"/>
+      <c r="P155" s="56"/>
+      <c r="Q155" s="56"/>
+      <c r="R155" s="56"/>
+      <c r="S155" s="56"/>
+      <c r="T155" s="56"/>
       <c r="U155" s="56"/>
-      <c r="V155" s="51"/>
+      <c r="V155" s="56"/>
       <c r="W155" s="56"/>
       <c r="X155" s="56"/>
       <c r="Y155" s="56"/>
@@ -8162,119 +8193,113 @@
       <c r="AH155" s="56"/>
       <c r="AI155" s="56"/>
     </row>
-    <row r="156" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="55"/>
-      <c r="B156" s="55"/>
-      <c r="C156" s="55"/>
-      <c r="D156" s="54"/>
-      <c r="E156" s="86"/>
-      <c r="F156" s="54"/>
-      <c r="G156" s="54"/>
-      <c r="H156" s="54"/>
-      <c r="I156" s="86"/>
-      <c r="J156" s="86"/>
-      <c r="K156" s="86"/>
-      <c r="L156" s="86"/>
-      <c r="M156" s="55"/>
-      <c r="N156" s="55"/>
-      <c r="O156" s="55"/>
-      <c r="P156" s="55"/>
-      <c r="Q156" s="55"/>
-      <c r="R156" s="55"/>
-      <c r="S156" s="55"/>
-      <c r="T156" s="55"/>
-      <c r="U156" s="86"/>
-      <c r="V156" s="55"/>
-      <c r="W156" s="86"/>
-      <c r="X156" s="86"/>
-      <c r="Y156" s="86"/>
-      <c r="Z156" s="86"/>
-      <c r="AA156" s="86"/>
-      <c r="AB156" s="86"/>
-      <c r="AC156" s="86"/>
-      <c r="AD156" s="86"/>
-      <c r="AE156" s="86"/>
-      <c r="AF156" s="86"/>
-      <c r="AG156" s="86"/>
-      <c r="AH156" s="86"/>
-      <c r="AI156" s="86"/>
-    </row>
-    <row r="158" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="68" t="s">
+    <row r="156" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B156" s="78"/>
+      <c r="C156" s="51"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="56"/>
+      <c r="F156" s="40"/>
+      <c r="G156" s="40"/>
+      <c r="H156" s="40"/>
+      <c r="I156" s="56"/>
+      <c r="J156" s="56"/>
+      <c r="K156" s="56"/>
+      <c r="L156" s="56"/>
+      <c r="M156" s="51"/>
+      <c r="N156" s="51"/>
+      <c r="O156" s="51"/>
+      <c r="P156" s="51"/>
+      <c r="Q156" s="51"/>
+      <c r="R156" s="51"/>
+      <c r="S156" s="51"/>
+      <c r="T156" s="51"/>
+      <c r="U156" s="56"/>
+      <c r="V156" s="51"/>
+      <c r="W156" s="56"/>
+      <c r="X156" s="56"/>
+      <c r="Y156" s="56"/>
+      <c r="Z156" s="56"/>
+      <c r="AA156" s="56"/>
+      <c r="AB156" s="56"/>
+      <c r="AC156" s="56"/>
+      <c r="AD156" s="56"/>
+      <c r="AE156" s="56"/>
+      <c r="AF156" s="56"/>
+      <c r="AG156" s="56"/>
+      <c r="AH156" s="56"/>
+      <c r="AI156" s="56"/>
+    </row>
+    <row r="157" spans="1:35" s="83" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="55"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="55"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="86"/>
+      <c r="F157" s="54"/>
+      <c r="G157" s="54"/>
+      <c r="H157" s="54"/>
+      <c r="I157" s="86"/>
+      <c r="J157" s="86"/>
+      <c r="K157" s="86"/>
+      <c r="L157" s="86"/>
+      <c r="M157" s="55"/>
+      <c r="N157" s="55"/>
+      <c r="O157" s="55"/>
+      <c r="P157" s="55"/>
+      <c r="Q157" s="55"/>
+      <c r="R157" s="55"/>
+      <c r="S157" s="55"/>
+      <c r="T157" s="55"/>
+      <c r="U157" s="86"/>
+      <c r="V157" s="55"/>
+      <c r="W157" s="86"/>
+      <c r="X157" s="86"/>
+      <c r="Y157" s="86"/>
+      <c r="Z157" s="86"/>
+      <c r="AA157" s="86"/>
+      <c r="AB157" s="86"/>
+      <c r="AC157" s="86"/>
+      <c r="AD157" s="86"/>
+      <c r="AE157" s="86"/>
+      <c r="AF157" s="86"/>
+      <c r="AG157" s="86"/>
+      <c r="AH157" s="86"/>
+      <c r="AI157" s="86"/>
+    </row>
+    <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B158" s="68" t="s">
+      <c r="B159" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="C158" s="69" t="s">
+      <c r="C159" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="D158" s="70"/>
-      <c r="E158" s="70"/>
-      <c r="F158" s="71"/>
-      <c r="G158" s="71" t="s">
+      <c r="D159" s="70"/>
+      <c r="E159" s="70"/>
+      <c r="F159" s="71"/>
+      <c r="G159" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="H158" s="70"/>
-      <c r="I158" s="71"/>
-      <c r="J158" s="71"/>
-      <c r="K158" s="71"/>
-      <c r="L158" s="71"/>
-      <c r="M158" s="69"/>
-      <c r="N158" s="69"/>
-      <c r="O158" s="69"/>
-      <c r="P158" s="69"/>
-      <c r="Q158" s="69"/>
-      <c r="R158" s="69"/>
-      <c r="S158" s="69"/>
-      <c r="T158" s="69"/>
-      <c r="U158" s="71"/>
-      <c r="V158" s="69"/>
-      <c r="W158" s="71"/>
-      <c r="X158" s="71"/>
-      <c r="Y158" s="71"/>
-      <c r="Z158" s="71"/>
-      <c r="AA158" s="71"/>
-      <c r="AB158" s="71"/>
-      <c r="AC158" s="71"/>
-      <c r="AD158" s="71"/>
-      <c r="AE158" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF158" s="71"/>
-      <c r="AG158" s="71"/>
-      <c r="AH158" s="71"/>
-      <c r="AI158" s="71"/>
-    </row>
-    <row r="159" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="72" t="s">
-        <v>329</v>
-      </c>
-      <c r="B159" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="C159" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="D159" s="71"/>
-      <c r="E159" s="71"/>
-      <c r="F159" s="71"/>
-      <c r="G159" s="71"/>
-      <c r="H159" s="71"/>
+      <c r="H159" s="70"/>
       <c r="I159" s="71"/>
       <c r="J159" s="71"/>
       <c r="K159" s="71"/>
       <c r="L159" s="71"/>
-      <c r="M159" s="71"/>
-      <c r="N159" s="71"/>
-      <c r="O159" s="71"/>
-      <c r="P159" s="71"/>
-      <c r="Q159" s="71"/>
-      <c r="R159" s="71"/>
-      <c r="S159" s="71"/>
-      <c r="T159" s="71"/>
+      <c r="M159" s="69"/>
+      <c r="N159" s="69"/>
+      <c r="O159" s="69"/>
+      <c r="P159" s="69"/>
+      <c r="Q159" s="69"/>
+      <c r="R159" s="69"/>
+      <c r="S159" s="69"/>
+      <c r="T159" s="69"/>
       <c r="U159" s="71"/>
-      <c r="V159" s="71"/>
+      <c r="V159" s="69"/>
       <c r="W159" s="71"/>
       <c r="X159" s="71"/>
       <c r="Y159" s="71"/>
@@ -8283,32 +8308,32 @@
       <c r="AB159" s="71"/>
       <c r="AC159" s="71"/>
       <c r="AD159" s="71"/>
-      <c r="AE159" s="71"/>
+      <c r="AE159" s="71" t="s">
+        <v>39</v>
+      </c>
       <c r="AF159" s="71"/>
       <c r="AG159" s="71"/>
       <c r="AH159" s="71"/>
       <c r="AI159" s="71"/>
     </row>
     <row r="160" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="68" t="s">
+      <c r="A160" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="B160" s="68" t="s">
-        <v>332</v>
+      <c r="B160" s="72" t="s">
+        <v>330</v>
       </c>
       <c r="C160" s="69" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D160" s="71"/>
       <c r="E160" s="71"/>
       <c r="F160" s="71"/>
-      <c r="G160" s="69" t="s">
-        <v>334</v>
-      </c>
+      <c r="G160" s="71"/>
       <c r="H160" s="71"/>
       <c r="I160" s="71"/>
       <c r="J160" s="71"/>
-      <c r="K160" s="69"/>
+      <c r="K160" s="71"/>
       <c r="L160" s="71"/>
       <c r="M160" s="71"/>
       <c r="N160" s="71"/>
@@ -8339,15 +8364,17 @@
         <v>329</v>
       </c>
       <c r="B161" s="68" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C161" s="69" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D161" s="71"/>
       <c r="E161" s="71"/>
       <c r="F161" s="71"/>
-      <c r="G161" s="69"/>
+      <c r="G161" s="69" t="s">
+        <v>334</v>
+      </c>
       <c r="H161" s="71"/>
       <c r="I161" s="71"/>
       <c r="J161" s="71"/>
@@ -8382,17 +8409,15 @@
         <v>329</v>
       </c>
       <c r="B162" s="68" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C162" s="69" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D162" s="71"/>
       <c r="E162" s="71"/>
       <c r="F162" s="71"/>
-      <c r="G162" s="69" t="s">
-        <v>334</v>
-      </c>
+      <c r="G162" s="69"/>
       <c r="H162" s="71"/>
       <c r="I162" s="71"/>
       <c r="J162" s="71"/>
@@ -8427,20 +8452,20 @@
         <v>329</v>
       </c>
       <c r="B163" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="C163" s="71" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="C163" s="69" t="s">
+        <v>338</v>
       </c>
       <c r="D163" s="71"/>
       <c r="E163" s="71"/>
-      <c r="F163" s="70"/>
+      <c r="F163" s="71"/>
       <c r="G163" s="69" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H163" s="71"/>
       <c r="I163" s="71"/>
-      <c r="J163" s="70"/>
+      <c r="J163" s="71"/>
       <c r="K163" s="69"/>
       <c r="L163" s="71"/>
       <c r="M163" s="71"/>
@@ -8472,34 +8497,32 @@
         <v>329</v>
       </c>
       <c r="B164" s="68" t="s">
-        <v>342</v>
-      </c>
-      <c r="C164" s="69" t="s">
-        <v>343</v>
-      </c>
-      <c r="D164" s="70"/>
-      <c r="E164" s="70"/>
-      <c r="F164" s="69" t="s">
-        <v>377</v>
-      </c>
-      <c r="G164" s="71" t="s">
-        <v>344</v>
-      </c>
-      <c r="H164" s="70"/>
+        <v>339</v>
+      </c>
+      <c r="C164" s="71" t="s">
+        <v>340</v>
+      </c>
+      <c r="D164" s="71"/>
+      <c r="E164" s="71"/>
+      <c r="F164" s="70"/>
+      <c r="G164" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="H164" s="71"/>
       <c r="I164" s="71"/>
-      <c r="J164" s="69"/>
-      <c r="K164" s="71"/>
+      <c r="J164" s="70"/>
+      <c r="K164" s="69"/>
       <c r="L164" s="71"/>
-      <c r="M164" s="69"/>
-      <c r="N164" s="69"/>
-      <c r="O164" s="69"/>
-      <c r="P164" s="69"/>
-      <c r="Q164" s="69"/>
-      <c r="R164" s="69"/>
-      <c r="S164" s="69"/>
-      <c r="T164" s="69"/>
+      <c r="M164" s="71"/>
+      <c r="N164" s="71"/>
+      <c r="O164" s="71"/>
+      <c r="P164" s="71"/>
+      <c r="Q164" s="71"/>
+      <c r="R164" s="71"/>
+      <c r="S164" s="71"/>
+      <c r="T164" s="71"/>
       <c r="U164" s="71"/>
-      <c r="V164" s="69"/>
+      <c r="V164" s="71"/>
       <c r="W164" s="71"/>
       <c r="X164" s="71"/>
       <c r="Y164" s="71"/>
@@ -8519,15 +8542,15 @@
         <v>329</v>
       </c>
       <c r="B165" s="68" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C165" s="69" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D165" s="70"/>
       <c r="E165" s="70"/>
       <c r="F165" s="69" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G165" s="71" t="s">
         <v>344</v>
@@ -8566,34 +8589,34 @@
         <v>329</v>
       </c>
       <c r="B166" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="C166" s="71" t="s">
-        <v>348</v>
-      </c>
-      <c r="D166" s="71"/>
-      <c r="E166" s="71"/>
+        <v>345</v>
+      </c>
+      <c r="C166" s="69" t="s">
+        <v>346</v>
+      </c>
+      <c r="D166" s="70"/>
+      <c r="E166" s="70"/>
       <c r="F166" s="69" t="s">
         <v>378</v>
       </c>
-      <c r="G166" s="69" t="s">
-        <v>341</v>
-      </c>
-      <c r="H166" s="71"/>
+      <c r="G166" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="H166" s="70"/>
       <c r="I166" s="71"/>
       <c r="J166" s="69"/>
-      <c r="K166" s="69"/>
+      <c r="K166" s="71"/>
       <c r="L166" s="71"/>
-      <c r="M166" s="71"/>
-      <c r="N166" s="71"/>
-      <c r="O166" s="71"/>
-      <c r="P166" s="71"/>
-      <c r="Q166" s="71"/>
-      <c r="R166" s="71"/>
-      <c r="S166" s="71"/>
-      <c r="T166" s="71"/>
+      <c r="M166" s="69"/>
+      <c r="N166" s="69"/>
+      <c r="O166" s="69"/>
+      <c r="P166" s="69"/>
+      <c r="Q166" s="69"/>
+      <c r="R166" s="69"/>
+      <c r="S166" s="69"/>
+      <c r="T166" s="69"/>
       <c r="U166" s="71"/>
-      <c r="V166" s="71"/>
+      <c r="V166" s="69"/>
       <c r="W166" s="71"/>
       <c r="X166" s="71"/>
       <c r="Y166" s="71"/>
@@ -8613,34 +8636,34 @@
         <v>329</v>
       </c>
       <c r="B167" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="C167" s="69" t="s">
-        <v>350</v>
-      </c>
-      <c r="D167" s="70"/>
-      <c r="E167" s="70"/>
+        <v>347</v>
+      </c>
+      <c r="C167" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="D167" s="71"/>
+      <c r="E167" s="71"/>
       <c r="F167" s="69" t="s">
         <v>378</v>
       </c>
-      <c r="G167" s="71" t="s">
-        <v>344</v>
-      </c>
-      <c r="H167" s="70"/>
+      <c r="G167" s="69" t="s">
+        <v>341</v>
+      </c>
+      <c r="H167" s="71"/>
       <c r="I167" s="71"/>
       <c r="J167" s="69"/>
-      <c r="K167" s="71"/>
+      <c r="K167" s="69"/>
       <c r="L167" s="71"/>
-      <c r="M167" s="69"/>
-      <c r="N167" s="69"/>
-      <c r="O167" s="69"/>
-      <c r="P167" s="69"/>
-      <c r="Q167" s="69"/>
-      <c r="R167" s="69"/>
-      <c r="S167" s="69"/>
-      <c r="T167" s="69"/>
+      <c r="M167" s="71"/>
+      <c r="N167" s="71"/>
+      <c r="O167" s="71"/>
+      <c r="P167" s="71"/>
+      <c r="Q167" s="71"/>
+      <c r="R167" s="71"/>
+      <c r="S167" s="71"/>
+      <c r="T167" s="71"/>
       <c r="U167" s="71"/>
-      <c r="V167" s="69"/>
+      <c r="V167" s="71"/>
       <c r="W167" s="71"/>
       <c r="X167" s="71"/>
       <c r="Y167" s="71"/>
@@ -8660,10 +8683,10 @@
         <v>329</v>
       </c>
       <c r="B168" s="68" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C168" s="69" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D168" s="70"/>
       <c r="E168" s="70"/>
@@ -8707,23 +8730,23 @@
         <v>329</v>
       </c>
       <c r="B169" s="68" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C169" s="69" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D169" s="70"/>
       <c r="E169" s="70"/>
       <c r="F169" s="69" t="s">
-        <v>379</v>
-      </c>
-      <c r="G169" s="69" t="s">
-        <v>341</v>
+        <v>378</v>
+      </c>
+      <c r="G169" s="71" t="s">
+        <v>344</v>
       </c>
       <c r="H169" s="70"/>
       <c r="I169" s="71"/>
       <c r="J169" s="69"/>
-      <c r="K169" s="69"/>
+      <c r="K169" s="71"/>
       <c r="L169" s="71"/>
       <c r="M169" s="69"/>
       <c r="N169" s="69"/>
@@ -8754,34 +8777,34 @@
         <v>329</v>
       </c>
       <c r="B170" s="68" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C170" s="69" t="s">
-        <v>356</v>
-      </c>
-      <c r="D170" s="71"/>
-      <c r="E170" s="71"/>
+        <v>354</v>
+      </c>
+      <c r="D170" s="70"/>
+      <c r="E170" s="70"/>
       <c r="F170" s="69" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="G170" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="H170" s="71"/>
+        <v>341</v>
+      </c>
+      <c r="H170" s="70"/>
       <c r="I170" s="71"/>
       <c r="J170" s="69"/>
       <c r="K170" s="69"/>
       <c r="L170" s="71"/>
-      <c r="M170" s="71"/>
-      <c r="N170" s="71"/>
-      <c r="O170" s="71"/>
-      <c r="P170" s="71"/>
-      <c r="Q170" s="71"/>
-      <c r="R170" s="71"/>
-      <c r="S170" s="71"/>
-      <c r="T170" s="71"/>
+      <c r="M170" s="69"/>
+      <c r="N170" s="69"/>
+      <c r="O170" s="69"/>
+      <c r="P170" s="69"/>
+      <c r="Q170" s="69"/>
+      <c r="R170" s="69"/>
+      <c r="S170" s="69"/>
+      <c r="T170" s="69"/>
       <c r="U170" s="71"/>
-      <c r="V170" s="71"/>
+      <c r="V170" s="69"/>
       <c r="W170" s="71"/>
       <c r="X170" s="71"/>
       <c r="Y170" s="71"/>
@@ -8801,15 +8824,15 @@
         <v>329</v>
       </c>
       <c r="B171" s="68" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C171" s="69" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D171" s="71"/>
       <c r="E171" s="71"/>
       <c r="F171" s="69" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="G171" s="69" t="s">
         <v>344</v>
@@ -8848,15 +8871,15 @@
         <v>329</v>
       </c>
       <c r="B172" s="68" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C172" s="69" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D172" s="71"/>
       <c r="E172" s="71"/>
       <c r="F172" s="69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G172" s="69" t="s">
         <v>344</v>
@@ -8895,15 +8918,15 @@
         <v>329</v>
       </c>
       <c r="B173" s="68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C173" s="69" t="s">
-        <v>177</v>
+        <v>360</v>
       </c>
       <c r="D173" s="71"/>
       <c r="E173" s="71"/>
       <c r="F173" s="69" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G173" s="69" t="s">
         <v>344</v>
@@ -8942,15 +8965,15 @@
         <v>329</v>
       </c>
       <c r="B174" s="68" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C174" s="69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D174" s="71"/>
       <c r="E174" s="71"/>
       <c r="F174" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G174" s="69" t="s">
         <v>344</v>
@@ -8989,15 +9012,15 @@
         <v>329</v>
       </c>
       <c r="B175" s="68" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C175" s="69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D175" s="71"/>
       <c r="E175" s="71"/>
       <c r="F175" s="69" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G175" s="69" t="s">
         <v>344</v>
@@ -9036,15 +9059,15 @@
         <v>329</v>
       </c>
       <c r="B176" s="68" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C176" s="69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D176" s="71"/>
       <c r="E176" s="71"/>
       <c r="F176" s="69" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G176" s="69" t="s">
         <v>344</v>
@@ -9083,15 +9106,15 @@
         <v>329</v>
       </c>
       <c r="B177" s="68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C177" s="69" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D177" s="71"/>
       <c r="E177" s="71"/>
       <c r="F177" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G177" s="69" t="s">
         <v>344</v>
@@ -9130,15 +9153,15 @@
         <v>329</v>
       </c>
       <c r="B178" s="68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C178" s="69" t="s">
-        <v>367</v>
+        <v>185</v>
       </c>
       <c r="D178" s="71"/>
       <c r="E178" s="71"/>
       <c r="F178" s="69" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="G178" s="69" t="s">
         <v>344</v>
@@ -9177,10 +9200,10 @@
         <v>329</v>
       </c>
       <c r="B179" s="68" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C179" s="69" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D179" s="71"/>
       <c r="E179" s="71"/>
@@ -9188,7 +9211,7 @@
         <v>379</v>
       </c>
       <c r="G179" s="69" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="H179" s="71"/>
       <c r="I179" s="71"/>
@@ -9224,17 +9247,19 @@
         <v>329</v>
       </c>
       <c r="B180" s="68" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C180" s="69" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D180" s="71"/>
       <c r="E180" s="71"/>
       <c r="F180" s="69" t="s">
         <v>379</v>
       </c>
-      <c r="G180" s="69"/>
+      <c r="G180" s="69" t="s">
+        <v>370</v>
+      </c>
       <c r="H180" s="71"/>
       <c r="I180" s="71"/>
       <c r="J180" s="69"/>
@@ -9269,10 +9294,10 @@
         <v>329</v>
       </c>
       <c r="B181" s="68" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C181" s="69" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D181" s="71"/>
       <c r="E181" s="71"/>
@@ -9314,10 +9339,10 @@
         <v>329</v>
       </c>
       <c r="B182" s="68" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C182" s="69" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D182" s="71"/>
       <c r="E182" s="71"/>
@@ -9356,29 +9381,35 @@
     </row>
     <row r="183" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="B183" s="68"/>
-      <c r="C183" s="69"/>
-      <c r="D183" s="70"/>
-      <c r="E183" s="70"/>
-      <c r="F183" s="71"/>
-      <c r="G183" s="71"/>
-      <c r="H183" s="70"/>
+        <v>329</v>
+      </c>
+      <c r="B183" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="C183" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="D183" s="71"/>
+      <c r="E183" s="71"/>
+      <c r="F183" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="G183" s="69"/>
+      <c r="H183" s="71"/>
       <c r="I183" s="71"/>
-      <c r="J183" s="71"/>
-      <c r="K183" s="71"/>
+      <c r="J183" s="69"/>
+      <c r="K183" s="69"/>
       <c r="L183" s="71"/>
-      <c r="M183" s="69"/>
-      <c r="N183" s="69"/>
-      <c r="O183" s="69"/>
-      <c r="P183" s="69"/>
-      <c r="Q183" s="69"/>
-      <c r="R183" s="69"/>
-      <c r="S183" s="69"/>
-      <c r="T183" s="69"/>
+      <c r="M183" s="71"/>
+      <c r="N183" s="71"/>
+      <c r="O183" s="71"/>
+      <c r="P183" s="71"/>
+      <c r="Q183" s="71"/>
+      <c r="R183" s="71"/>
+      <c r="S183" s="71"/>
+      <c r="T183" s="71"/>
       <c r="U183" s="71"/>
-      <c r="V183" s="69"/>
+      <c r="V183" s="71"/>
       <c r="W183" s="71"/>
       <c r="X183" s="71"/>
       <c r="Y183" s="71"/>
@@ -9394,65 +9425,67 @@
       <c r="AI183" s="71"/>
     </row>
     <row r="184" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="35"/>
-      <c r="B184" s="35"/>
-      <c r="C184" s="35"/>
-      <c r="E184" s="35"/>
-      <c r="AE184" s="35"/>
-      <c r="AF184" s="35"/>
-      <c r="AG184" s="35"/>
-      <c r="AH184" s="35"/>
-      <c r="AI184" s="35"/>
+      <c r="A184" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B184" s="68"/>
+      <c r="C184" s="69"/>
+      <c r="D184" s="70"/>
+      <c r="E184" s="70"/>
+      <c r="F184" s="71"/>
+      <c r="G184" s="71"/>
+      <c r="H184" s="70"/>
+      <c r="I184" s="71"/>
+      <c r="J184" s="71"/>
+      <c r="K184" s="71"/>
+      <c r="L184" s="71"/>
+      <c r="M184" s="69"/>
+      <c r="N184" s="69"/>
+      <c r="O184" s="69"/>
+      <c r="P184" s="69"/>
+      <c r="Q184" s="69"/>
+      <c r="R184" s="69"/>
+      <c r="S184" s="69"/>
+      <c r="T184" s="69"/>
+      <c r="U184" s="71"/>
+      <c r="V184" s="69"/>
+      <c r="W184" s="71"/>
+      <c r="X184" s="71"/>
+      <c r="Y184" s="71"/>
+      <c r="Z184" s="71"/>
+      <c r="AA184" s="71"/>
+      <c r="AB184" s="71"/>
+      <c r="AC184" s="71"/>
+      <c r="AD184" s="71"/>
+      <c r="AE184" s="71"/>
+      <c r="AF184" s="71"/>
+      <c r="AG184" s="71"/>
+      <c r="AH184" s="71"/>
+      <c r="AI184" s="71"/>
     </row>
     <row r="185" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="73"/>
-      <c r="B185" s="73"/>
-      <c r="C185" s="74"/>
-      <c r="D185" s="74"/>
-      <c r="E185" s="74"/>
-      <c r="F185" s="74"/>
-      <c r="G185" s="75"/>
-      <c r="H185" s="74"/>
-      <c r="I185" s="74"/>
-      <c r="J185" s="74"/>
-      <c r="K185" s="75"/>
-      <c r="L185" s="74"/>
-      <c r="M185" s="74"/>
-      <c r="N185" s="74"/>
-      <c r="O185" s="74"/>
-      <c r="P185" s="74"/>
-      <c r="Q185" s="74"/>
-      <c r="R185" s="74"/>
-      <c r="S185" s="74"/>
-      <c r="T185" s="74"/>
-      <c r="U185" s="74"/>
-      <c r="V185" s="74"/>
-      <c r="W185" s="74"/>
-      <c r="X185" s="74"/>
-      <c r="Y185" s="74"/>
-      <c r="Z185" s="74"/>
-      <c r="AA185" s="74"/>
-      <c r="AB185" s="74"/>
-      <c r="AC185" s="74"/>
-      <c r="AD185" s="74"/>
-      <c r="AE185" s="75"/>
-      <c r="AF185" s="74"/>
-      <c r="AG185" s="74"/>
-      <c r="AH185" s="74"/>
-      <c r="AI185" s="74"/>
+      <c r="A185" s="35"/>
+      <c r="B185" s="35"/>
+      <c r="C185" s="35"/>
+      <c r="E185" s="35"/>
+      <c r="AE185" s="35"/>
+      <c r="AF185" s="35"/>
+      <c r="AG185" s="35"/>
+      <c r="AH185" s="35"/>
+      <c r="AI185" s="35"/>
     </row>
     <row r="186" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="73"/>
-      <c r="B186" s="76"/>
+      <c r="B186" s="73"/>
       <c r="C186" s="74"/>
       <c r="D186" s="74"/>
       <c r="E186" s="74"/>
       <c r="F186" s="74"/>
-      <c r="G186" s="74"/>
+      <c r="G186" s="75"/>
       <c r="H186" s="74"/>
       <c r="I186" s="74"/>
       <c r="J186" s="74"/>
-      <c r="K186" s="74"/>
+      <c r="K186" s="75"/>
       <c r="L186" s="74"/>
       <c r="M186" s="74"/>
       <c r="N186" s="74"/>
@@ -9472,9 +9505,9 @@
       <c r="AB186" s="74"/>
       <c r="AC186" s="74"/>
       <c r="AD186" s="74"/>
-      <c r="AE186" s="74"/>
+      <c r="AE186" s="75"/>
       <c r="AF186" s="74"/>
-      <c r="AG186" s="75"/>
+      <c r="AG186" s="74"/>
       <c r="AH186" s="74"/>
       <c r="AI186" s="74"/>
     </row>
@@ -9849,78 +9882,78 @@
       <c r="AI196" s="74"/>
     </row>
     <row r="197" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="77"/>
-      <c r="B197" s="77"/>
+      <c r="A197" s="73"/>
+      <c r="B197" s="76"/>
       <c r="C197" s="74"/>
-      <c r="D197" s="75"/>
-      <c r="E197" s="75"/>
-      <c r="F197" s="75"/>
-      <c r="G197" s="75"/>
-      <c r="H197" s="75"/>
-      <c r="I197" s="75"/>
-      <c r="J197" s="75"/>
-      <c r="K197" s="75"/>
-      <c r="L197" s="75"/>
-      <c r="M197" s="75"/>
-      <c r="N197" s="75"/>
-      <c r="O197" s="75"/>
-      <c r="P197" s="75"/>
-      <c r="Q197" s="75"/>
-      <c r="R197" s="75"/>
-      <c r="S197" s="75"/>
-      <c r="T197" s="75"/>
-      <c r="U197" s="75"/>
-      <c r="V197" s="75"/>
-      <c r="W197" s="75"/>
-      <c r="X197" s="75"/>
-      <c r="Y197" s="75"/>
-      <c r="Z197" s="75"/>
-      <c r="AA197" s="75"/>
-      <c r="AB197" s="75"/>
-      <c r="AC197" s="75"/>
-      <c r="AD197" s="75"/>
-      <c r="AE197" s="75"/>
-      <c r="AF197" s="75"/>
+      <c r="D197" s="74"/>
+      <c r="E197" s="74"/>
+      <c r="F197" s="74"/>
+      <c r="G197" s="74"/>
+      <c r="H197" s="74"/>
+      <c r="I197" s="74"/>
+      <c r="J197" s="74"/>
+      <c r="K197" s="74"/>
+      <c r="L197" s="74"/>
+      <c r="M197" s="74"/>
+      <c r="N197" s="74"/>
+      <c r="O197" s="74"/>
+      <c r="P197" s="74"/>
+      <c r="Q197" s="74"/>
+      <c r="R197" s="74"/>
+      <c r="S197" s="74"/>
+      <c r="T197" s="74"/>
+      <c r="U197" s="74"/>
+      <c r="V197" s="74"/>
+      <c r="W197" s="74"/>
+      <c r="X197" s="74"/>
+      <c r="Y197" s="74"/>
+      <c r="Z197" s="74"/>
+      <c r="AA197" s="74"/>
+      <c r="AB197" s="74"/>
+      <c r="AC197" s="74"/>
+      <c r="AD197" s="74"/>
+      <c r="AE197" s="74"/>
+      <c r="AF197" s="74"/>
       <c r="AG197" s="75"/>
-      <c r="AH197" s="75"/>
-      <c r="AI197" s="75"/>
+      <c r="AH197" s="74"/>
+      <c r="AI197" s="74"/>
     </row>
     <row r="198" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="73"/>
-      <c r="B198" s="76"/>
+      <c r="A198" s="77"/>
+      <c r="B198" s="77"/>
       <c r="C198" s="74"/>
-      <c r="D198" s="74"/>
-      <c r="E198" s="74"/>
-      <c r="F198" s="74"/>
-      <c r="G198" s="74"/>
-      <c r="H198" s="74"/>
-      <c r="I198" s="74"/>
-      <c r="J198" s="74"/>
-      <c r="K198" s="74"/>
-      <c r="L198" s="74"/>
-      <c r="M198" s="74"/>
-      <c r="N198" s="74"/>
-      <c r="O198" s="74"/>
-      <c r="P198" s="74"/>
-      <c r="Q198" s="74"/>
-      <c r="R198" s="74"/>
-      <c r="S198" s="74"/>
+      <c r="D198" s="75"/>
+      <c r="E198" s="75"/>
+      <c r="F198" s="75"/>
+      <c r="G198" s="75"/>
+      <c r="H198" s="75"/>
+      <c r="I198" s="75"/>
+      <c r="J198" s="75"/>
+      <c r="K198" s="75"/>
+      <c r="L198" s="75"/>
+      <c r="M198" s="75"/>
+      <c r="N198" s="75"/>
+      <c r="O198" s="75"/>
+      <c r="P198" s="75"/>
+      <c r="Q198" s="75"/>
+      <c r="R198" s="75"/>
+      <c r="S198" s="75"/>
       <c r="T198" s="75"/>
-      <c r="U198" s="74"/>
-      <c r="V198" s="74"/>
-      <c r="W198" s="74"/>
-      <c r="X198" s="74"/>
-      <c r="Y198" s="74"/>
-      <c r="Z198" s="74"/>
-      <c r="AA198" s="74"/>
-      <c r="AB198" s="74"/>
-      <c r="AC198" s="74"/>
-      <c r="AD198" s="74"/>
-      <c r="AE198" s="74"/>
-      <c r="AF198" s="74"/>
+      <c r="U198" s="75"/>
+      <c r="V198" s="75"/>
+      <c r="W198" s="75"/>
+      <c r="X198" s="75"/>
+      <c r="Y198" s="75"/>
+      <c r="Z198" s="75"/>
+      <c r="AA198" s="75"/>
+      <c r="AB198" s="75"/>
+      <c r="AC198" s="75"/>
+      <c r="AD198" s="75"/>
+      <c r="AE198" s="75"/>
+      <c r="AF198" s="75"/>
       <c r="AG198" s="75"/>
-      <c r="AH198" s="74"/>
-      <c r="AI198" s="74"/>
+      <c r="AH198" s="75"/>
+      <c r="AI198" s="75"/>
     </row>
     <row r="199" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="73"/>
@@ -10071,41 +10104,41 @@
       <c r="AI202" s="74"/>
     </row>
     <row r="203" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="77"/>
-      <c r="B203" s="77"/>
-      <c r="C203" s="75"/>
-      <c r="D203" s="75"/>
-      <c r="E203" s="75"/>
-      <c r="F203" s="75"/>
-      <c r="G203" s="75"/>
-      <c r="H203" s="75"/>
-      <c r="I203" s="75"/>
-      <c r="J203" s="75"/>
-      <c r="K203" s="75"/>
-      <c r="L203" s="75"/>
-      <c r="M203" s="75"/>
-      <c r="N203" s="75"/>
-      <c r="O203" s="75"/>
-      <c r="P203" s="75"/>
-      <c r="Q203" s="75"/>
-      <c r="R203" s="75"/>
-      <c r="S203" s="75"/>
+      <c r="A203" s="73"/>
+      <c r="B203" s="76"/>
+      <c r="C203" s="74"/>
+      <c r="D203" s="74"/>
+      <c r="E203" s="74"/>
+      <c r="F203" s="74"/>
+      <c r="G203" s="74"/>
+      <c r="H203" s="74"/>
+      <c r="I203" s="74"/>
+      <c r="J203" s="74"/>
+      <c r="K203" s="74"/>
+      <c r="L203" s="74"/>
+      <c r="M203" s="74"/>
+      <c r="N203" s="74"/>
+      <c r="O203" s="74"/>
+      <c r="P203" s="74"/>
+      <c r="Q203" s="74"/>
+      <c r="R203" s="74"/>
+      <c r="S203" s="74"/>
       <c r="T203" s="75"/>
-      <c r="U203" s="75"/>
-      <c r="V203" s="75"/>
-      <c r="W203" s="75"/>
-      <c r="X203" s="75"/>
-      <c r="Y203" s="75"/>
-      <c r="Z203" s="75"/>
-      <c r="AA203" s="75"/>
-      <c r="AB203" s="75"/>
-      <c r="AC203" s="75"/>
-      <c r="AD203" s="75"/>
-      <c r="AE203" s="75"/>
-      <c r="AF203" s="75"/>
+      <c r="U203" s="74"/>
+      <c r="V203" s="74"/>
+      <c r="W203" s="74"/>
+      <c r="X203" s="74"/>
+      <c r="Y203" s="74"/>
+      <c r="Z203" s="74"/>
+      <c r="AA203" s="74"/>
+      <c r="AB203" s="74"/>
+      <c r="AC203" s="74"/>
+      <c r="AD203" s="74"/>
+      <c r="AE203" s="74"/>
+      <c r="AF203" s="74"/>
       <c r="AG203" s="75"/>
-      <c r="AH203" s="75"/>
-      <c r="AI203" s="75"/>
+      <c r="AH203" s="74"/>
+      <c r="AI203" s="74"/>
     </row>
     <row r="204" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="77"/>
@@ -10144,16 +10177,53 @@
       <c r="AH204" s="75"/>
       <c r="AI204" s="75"/>
     </row>
+    <row r="205" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="77"/>
+      <c r="B205" s="77"/>
+      <c r="C205" s="75"/>
+      <c r="D205" s="75"/>
+      <c r="E205" s="75"/>
+      <c r="F205" s="75"/>
+      <c r="G205" s="75"/>
+      <c r="H205" s="75"/>
+      <c r="I205" s="75"/>
+      <c r="J205" s="75"/>
+      <c r="K205" s="75"/>
+      <c r="L205" s="75"/>
+      <c r="M205" s="75"/>
+      <c r="N205" s="75"/>
+      <c r="O205" s="75"/>
+      <c r="P205" s="75"/>
+      <c r="Q205" s="75"/>
+      <c r="R205" s="75"/>
+      <c r="S205" s="75"/>
+      <c r="T205" s="75"/>
+      <c r="U205" s="75"/>
+      <c r="V205" s="75"/>
+      <c r="W205" s="75"/>
+      <c r="X205" s="75"/>
+      <c r="Y205" s="75"/>
+      <c r="Z205" s="75"/>
+      <c r="AA205" s="75"/>
+      <c r="AB205" s="75"/>
+      <c r="AC205" s="75"/>
+      <c r="AD205" s="75"/>
+      <c r="AE205" s="75"/>
+      <c r="AF205" s="75"/>
+      <c r="AG205" s="75"/>
+      <c r="AH205" s="75"/>
+      <c r="AI205" s="75"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 E133:E156 I158:I204 I132:I133 I137:I156 I112:I126 D127:E131 D22:E110">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 E134:E157 I159:I205 I133:I134 I138:I157 I112:I126 D127:E132 D22:E110">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J21">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A158:A183 A133:A156">
+    <dataValidation type="list" allowBlank="1" sqref="A159:A184 A134:A157">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10170,8 +10240,8 @@
   <dimension ref="A1:Y104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10607,24 +10677,48 @@
       </c>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
+      <c r="A30" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
@@ -11020,7 +11114,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.713412500001</v>
+        <v>44136.719657291665</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>433</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="675" windowWidth="28560" windowHeight="17385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2240,11 +2240,11 @@
   </sheetPr>
   <dimension ref="A1:AJ205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A131" sqref="A131"/>
+      <selection pane="bottomRight" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10239,7 +10239,7 @@
   </sheetPr>
   <dimension ref="A1:Y104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
@@ -11114,7 +11114,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.719657291665</v>
+        <v>44136.728289004626</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>433</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -11114,7 +11114,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.728289004626</v>
+        <v>44136.7414943287</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>433</v>

--- a/forms/app/form_a0.xlsx
+++ b/forms/app/form_a0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="506">
   <si>
     <t>list_name</t>
   </si>
@@ -1546,6 +1546,9 @@
   </si>
   <si>
     <t>Luisa Guidotti Hospital Residence</t>
+  </si>
+  <si>
+    <t>instance::db-doc-ref</t>
   </si>
 </sst>
 </file>
@@ -1555,7 +1558,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1645,6 +1648,15 @@
       <color rgb="FF76A5AF"/>
       <name val="Century Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1793,7 +1805,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1955,6 +1967,8 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2241,10 +2255,10 @@
   <dimension ref="A1:AJ205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P135" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B129" sqref="B129"/>
+      <selection pane="bottomRight" activeCell="T155" sqref="T155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2323,7 +2337,9 @@
       <c r="S1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="28"/>
+      <c r="T1" s="87" t="s">
+        <v>505</v>
+      </c>
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
       <c r="W1" s="28"/>
@@ -8176,7 +8192,9 @@
       <c r="Q155" s="56"/>
       <c r="R155" s="56"/>
       <c r="S155" s="56"/>
-      <c r="T155" s="56"/>
+      <c r="T155" s="88" t="s">
+        <v>425</v>
+      </c>
       <c r="U155" s="56"/>
       <c r="V155" s="56"/>
       <c r="W155" s="56"/>
@@ -11114,7 +11132,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.7414943287</v>
+        <v>44136.770679629626</v>
       </c>
       <c r="D2" s="84" t="s">
         <v>433</v>
